--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B629A48F-39E1-451D-A24E-E969CDAED2BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C82320-5302-4328-B5F2-8A0E6A40FEB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,6 +1106,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>第一営業日</t>
@@ -1115,6 +1117,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1126,6 +1130,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>第一営業日</t>
@@ -1135,6 +1141,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1144,6 +1152,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1163,6 +1173,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">第三営業日（4月10月なし）
@@ -1173,6 +1185,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1214,6 +1228,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>負十営業日　</t>
@@ -1223,6 +1239,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：二回目</t>
@@ -1234,6 +1252,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>負六営業日　</t>
@@ -1243,6 +1263,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：二回目</t>
@@ -1257,6 +1279,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>　負四営業日　</t>
@@ -1266,6 +1290,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1277,6 +1303,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>　負三営業日　</t>
@@ -1286,6 +1314,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：三回目</t>
@@ -1297,6 +1327,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>　負三営業日　</t>
@@ -1306,6 +1338,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：二回目</t>
@@ -1342,13 +1376,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="000_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
-    <numFmt numFmtId="183" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="184" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="000_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="180" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1368,6 +1402,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1512,12 +1548,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1540,6 +1580,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2400,7 +2442,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2504,11 +2546,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2521,7 +2563,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2531,7 +2573,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2541,7 +2583,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2551,7 +2593,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2564,7 +2606,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2574,7 +2616,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2584,7 +2626,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2632,7 +2674,7 @@
     <xf numFmtId="49" fontId="10" fillId="10" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2656,7 +2698,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2664,15 +2706,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2682,7 +2724,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2690,15 +2732,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2708,7 +2750,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2716,15 +2758,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2734,7 +2776,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2742,15 +2784,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2761,7 +2803,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2769,15 +2811,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2790,7 +2832,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2798,15 +2840,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2819,7 +2861,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2827,15 +2869,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2866,7 +2908,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3102,13 +3144,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,13 +3159,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3141,7 +3183,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3172,38 +3214,38 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="13" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="17" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3242,7 +3284,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3256,7 +3298,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3264,11 +3306,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3288,7 +3330,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3301,22 +3343,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3324,22 +3366,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3359,7 +3401,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3367,15 +3409,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3383,7 +3425,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3391,15 +3433,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3410,7 +3452,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3418,15 +3460,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3481,7 +3523,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3496,13 +3538,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3520,25 +3562,25 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3556,18 +3598,18 @@
     <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16">
@@ -3582,80 +3624,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3671,7 +3644,7 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3682,7 +3655,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3690,20 +3663,92 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4363,9 +4408,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U128" sqref="U128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4688,7 +4733,7 @@
       <c r="O3" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="361" t="s">
+      <c r="P3" s="391" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="152" t="s">
@@ -4792,7 +4837,7 @@
       <c r="O4" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="362"/>
+      <c r="P4" s="392"/>
       <c r="Q4" s="156" t="s">
         <v>100</v>
       </c>
@@ -4890,7 +4935,7 @@
       <c r="O5" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="362"/>
+      <c r="P5" s="392"/>
       <c r="Q5" s="156" t="s">
         <v>103</v>
       </c>
@@ -4984,7 +5029,7 @@
       <c r="O6" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="362"/>
+      <c r="P6" s="392"/>
       <c r="Q6" s="156" t="s">
         <v>13</v>
       </c>
@@ -5078,7 +5123,7 @@
       <c r="O7" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="363"/>
+      <c r="P7" s="393"/>
       <c r="Q7" s="166" t="s">
         <v>16</v>
       </c>
@@ -5136,13 +5181,13 @@
       <c r="A8" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="384"/>
-      <c r="C8" s="384"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="361"/>
       <c r="D8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="384"/>
-      <c r="F8" s="385"/>
+      <c r="E8" s="361"/>
+      <c r="F8" s="362"/>
       <c r="G8" s="53" t="s">
         <v>107</v>
       </c>
@@ -5172,7 +5217,7 @@
       <c r="O8" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="375" t="s">
+      <c r="P8" s="379" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="152" t="s">
@@ -5198,16 +5243,16 @@
       <c r="Y8" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="Z8" s="387"/>
+      <c r="Z8" s="364"/>
       <c r="AA8" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" s="387"/>
+      <c r="AB8" s="364"/>
       <c r="AC8" s="317"/>
-      <c r="AD8" s="388"/>
-      <c r="AE8" s="388"/>
-      <c r="AF8" s="388"/>
-      <c r="AG8" s="388"/>
+      <c r="AD8" s="365"/>
+      <c r="AE8" s="365"/>
+      <c r="AF8" s="365"/>
+      <c r="AG8" s="365"/>
       <c r="AH8" s="317"/>
       <c r="AI8" s="317"/>
       <c r="AJ8" s="317"/>
@@ -5229,53 +5274,53 @@
       <c r="AP8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AQ8" s="389"/>
-      <c r="AR8" s="389"/>
+      <c r="AQ8" s="366"/>
+      <c r="AR8" s="366"/>
       <c r="AS8" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="32" customFormat="1">
-      <c r="A9" s="390" t="s">
+      <c r="A9" s="367" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="384"/>
-      <c r="C9" s="384"/>
-      <c r="D9" s="390" t="s">
+      <c r="B9" s="361"/>
+      <c r="C9" s="361"/>
+      <c r="D9" s="367" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="384"/>
-      <c r="F9" s="385"/>
-      <c r="G9" s="391" t="s">
+      <c r="E9" s="361"/>
+      <c r="F9" s="362"/>
+      <c r="G9" s="368" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="386"/>
-      <c r="I9" s="392" t="s">
+      <c r="H9" s="363"/>
+      <c r="I9" s="369" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="393">
+      <c r="J9" s="370">
         <f>30*20</f>
         <v>600</v>
       </c>
-      <c r="K9" s="394">
+      <c r="K9" s="371">
         <f>5/480</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L9" s="395">
-        <v>1</v>
-      </c>
-      <c r="M9" s="396">
+      <c r="L9" s="372">
+        <v>1</v>
+      </c>
+      <c r="M9" s="373">
         <f t="shared" si="7"/>
         <v>6.25</v>
       </c>
-      <c r="N9" s="397">
+      <c r="N9" s="374">
         <f t="shared" si="8"/>
         <v>0.359375</v>
       </c>
-      <c r="O9" s="398" t="s">
+      <c r="O9" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="376"/>
+      <c r="P9" s="380"/>
       <c r="Q9" s="156" t="s">
         <v>100</v>
       </c>
@@ -5299,16 +5344,16 @@
       <c r="Y9" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="Z9" s="387"/>
+      <c r="Z9" s="364"/>
       <c r="AA9" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="AB9" s="387"/>
+      <c r="AB9" s="364"/>
       <c r="AC9" s="317"/>
-      <c r="AD9" s="388"/>
-      <c r="AE9" s="388"/>
-      <c r="AF9" s="388"/>
-      <c r="AG9" s="388"/>
+      <c r="AD9" s="365"/>
+      <c r="AE9" s="365"/>
+      <c r="AF9" s="365"/>
+      <c r="AG9" s="365"/>
       <c r="AH9" s="317"/>
       <c r="AI9" s="317"/>
       <c r="AJ9" s="317"/>
@@ -5327,54 +5372,54 @@
       <c r="AO9" s="257">
         <v>9.27536231884058</v>
       </c>
-      <c r="AP9" s="389"/>
-      <c r="AQ9" s="389"/>
-      <c r="AR9" s="389"/>
+      <c r="AP9" s="366"/>
+      <c r="AQ9" s="366"/>
+      <c r="AR9" s="366"/>
       <c r="AS9" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="32" customFormat="1">
-      <c r="A10" s="390" t="s">
+      <c r="A10" s="367" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="384"/>
-      <c r="C10" s="384"/>
-      <c r="D10" s="390" t="s">
+      <c r="B10" s="361"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="367" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="384"/>
-      <c r="F10" s="385"/>
-      <c r="G10" s="391" t="s">
+      <c r="E10" s="361"/>
+      <c r="F10" s="362"/>
+      <c r="G10" s="368" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="386"/>
-      <c r="I10" s="392" t="s">
+      <c r="H10" s="363"/>
+      <c r="I10" s="369" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="393">
+      <c r="J10" s="370">
         <f>30*20</f>
         <v>600</v>
       </c>
-      <c r="K10" s="394">
+      <c r="K10" s="371">
         <f>5/480</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L10" s="395">
-        <v>1</v>
-      </c>
-      <c r="M10" s="396">
+      <c r="L10" s="372">
+        <v>1</v>
+      </c>
+      <c r="M10" s="373">
         <f t="shared" si="7"/>
         <v>6.25</v>
       </c>
-      <c r="N10" s="397">
+      <c r="N10" s="374">
         <f t="shared" si="8"/>
         <v>0.359375</v>
       </c>
-      <c r="O10" s="398" t="s">
+      <c r="O10" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="376"/>
+      <c r="P10" s="380"/>
       <c r="Q10" s="156" t="s">
         <v>103</v>
       </c>
@@ -5398,16 +5443,16 @@
       <c r="Y10" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="Z10" s="387"/>
+      <c r="Z10" s="364"/>
       <c r="AA10" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="AB10" s="387"/>
+      <c r="AB10" s="364"/>
       <c r="AC10" s="317"/>
-      <c r="AD10" s="388"/>
-      <c r="AE10" s="388"/>
-      <c r="AF10" s="388"/>
-      <c r="AG10" s="388"/>
+      <c r="AD10" s="365"/>
+      <c r="AE10" s="365"/>
+      <c r="AF10" s="365"/>
+      <c r="AG10" s="365"/>
       <c r="AH10" s="317"/>
       <c r="AI10" s="317"/>
       <c r="AJ10" s="317"/>
@@ -5426,54 +5471,54 @@
       <c r="AO10" s="257">
         <v>9.27536231884058</v>
       </c>
-      <c r="AP10" s="389"/>
-      <c r="AQ10" s="389"/>
-      <c r="AR10" s="389"/>
+      <c r="AP10" s="366"/>
+      <c r="AQ10" s="366"/>
+      <c r="AR10" s="366"/>
       <c r="AS10" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:45" s="32" customFormat="1">
-      <c r="A11" s="390" t="s">
+      <c r="A11" s="367" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="384"/>
-      <c r="C11" s="384"/>
-      <c r="D11" s="390" t="s">
+      <c r="B11" s="361"/>
+      <c r="C11" s="361"/>
+      <c r="D11" s="367" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="384"/>
-      <c r="F11" s="385"/>
-      <c r="G11" s="391" t="s">
+      <c r="E11" s="361"/>
+      <c r="F11" s="362"/>
+      <c r="G11" s="368" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="386"/>
-      <c r="I11" s="392" t="s">
+      <c r="H11" s="363"/>
+      <c r="I11" s="369" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="393">
+      <c r="J11" s="370">
         <f>30*20</f>
         <v>600</v>
       </c>
-      <c r="K11" s="394">
+      <c r="K11" s="371">
         <f>5/480</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L11" s="395">
-        <v>1</v>
-      </c>
-      <c r="M11" s="396">
+      <c r="L11" s="372">
+        <v>1</v>
+      </c>
+      <c r="M11" s="373">
         <f t="shared" si="7"/>
         <v>6.25</v>
       </c>
-      <c r="N11" s="397">
+      <c r="N11" s="374">
         <f t="shared" si="8"/>
         <v>0.359375</v>
       </c>
-      <c r="O11" s="398" t="s">
+      <c r="O11" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="376"/>
+      <c r="P11" s="380"/>
       <c r="Q11" s="156" t="s">
         <v>13</v>
       </c>
@@ -5497,16 +5542,16 @@
       <c r="Y11" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="Z11" s="387"/>
+      <c r="Z11" s="364"/>
       <c r="AA11" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="AB11" s="387"/>
+      <c r="AB11" s="364"/>
       <c r="AC11" s="317"/>
-      <c r="AD11" s="388"/>
-      <c r="AE11" s="388"/>
-      <c r="AF11" s="388"/>
-      <c r="AG11" s="388"/>
+      <c r="AD11" s="365"/>
+      <c r="AE11" s="365"/>
+      <c r="AF11" s="365"/>
+      <c r="AG11" s="365"/>
       <c r="AH11" s="317"/>
       <c r="AI11" s="317"/>
       <c r="AJ11" s="317"/>
@@ -5525,56 +5570,56 @@
       <c r="AO11" s="257">
         <v>9.27536231884058</v>
       </c>
-      <c r="AP11" s="389"/>
-      <c r="AQ11" s="389"/>
-      <c r="AR11" s="389"/>
+      <c r="AP11" s="366"/>
+      <c r="AQ11" s="366"/>
+      <c r="AR11" s="366"/>
       <c r="AS11" s="69" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="390" t="s">
+      <c r="A12" s="367" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="390" t="s">
+      <c r="D12" s="367" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="391" t="s">
+      <c r="G12" s="368" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="386"/>
-      <c r="I12" s="392" t="s">
+      <c r="H12" s="363"/>
+      <c r="I12" s="369" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="393">
+      <c r="J12" s="370">
         <f>30*20</f>
         <v>600</v>
       </c>
-      <c r="K12" s="394">
+      <c r="K12" s="371">
         <f>5/480</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="L12" s="395">
-        <v>1</v>
-      </c>
-      <c r="M12" s="396">
+      <c r="L12" s="372">
+        <v>1</v>
+      </c>
+      <c r="M12" s="373">
         <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
-      <c r="N12" s="397">
+      <c r="N12" s="374">
         <f t="shared" si="5"/>
         <v>0.359375</v>
       </c>
-      <c r="O12" s="398" t="s">
+      <c r="O12" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P12" s="377"/>
+      <c r="P12" s="381"/>
       <c r="Q12" s="181" t="s">
         <v>16</v>
       </c>
@@ -5828,7 +5873,7 @@
       <c r="O15" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="P15" s="364" t="s">
+      <c r="P15" s="394" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="176" t="s">
@@ -5920,7 +5965,7 @@
       <c r="O16" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="365"/>
+      <c r="P16" s="395"/>
       <c r="Q16" s="156" t="s">
         <v>100</v>
       </c>
@@ -6010,7 +6055,7 @@
       <c r="O17" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="365"/>
+      <c r="P17" s="395"/>
       <c r="Q17" s="156" t="s">
         <v>103</v>
       </c>
@@ -6100,7 +6145,7 @@
       <c r="O18" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="365"/>
+      <c r="P18" s="395"/>
       <c r="Q18" s="156" t="s">
         <v>13</v>
       </c>
@@ -6190,7 +6235,7 @@
       <c r="O19" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="366"/>
+      <c r="P19" s="396"/>
       <c r="Q19" s="181" t="s">
         <v>16</v>
       </c>
@@ -6285,7 +6330,7 @@
       <c r="O20" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P20" s="367" t="s">
+      <c r="P20" s="388" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="152" t="s">
@@ -6400,7 +6445,7 @@
       <c r="O21" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="368"/>
+      <c r="P21" s="389"/>
       <c r="Q21" s="156" t="s">
         <v>100</v>
       </c>
@@ -6508,7 +6553,7 @@
       <c r="O22" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P22" s="368"/>
+      <c r="P22" s="389"/>
       <c r="Q22" s="156" t="s">
         <v>103</v>
       </c>
@@ -6616,7 +6661,7 @@
       <c r="O23" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P23" s="368"/>
+      <c r="P23" s="389"/>
       <c r="Q23" s="156" t="s">
         <v>13</v>
       </c>
@@ -6725,7 +6770,7 @@
       <c r="O24" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="P24" s="369"/>
+      <c r="P24" s="390"/>
       <c r="Q24" s="181" t="s">
         <v>16</v>
       </c>
@@ -6826,7 +6871,7 @@
       <c r="O25" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="367" t="s">
+      <c r="P25" s="388" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="152" t="s">
@@ -6935,7 +6980,7 @@
       <c r="O26" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="368"/>
+      <c r="P26" s="389"/>
       <c r="Q26" s="156" t="s">
         <v>100</v>
       </c>
@@ -7038,7 +7083,7 @@
       <c r="O27" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="368"/>
+      <c r="P27" s="389"/>
       <c r="Q27" s="156" t="s">
         <v>103</v>
       </c>
@@ -7141,7 +7186,7 @@
       <c r="O28" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="368"/>
+      <c r="P28" s="389"/>
       <c r="Q28" s="156" t="s">
         <v>13</v>
       </c>
@@ -7244,7 +7289,7 @@
       <c r="O29" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="369"/>
+      <c r="P29" s="390"/>
       <c r="Q29" s="181" t="s">
         <v>16</v>
       </c>
@@ -7347,7 +7392,7 @@
       <c r="O30" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="370" t="s">
+      <c r="P30" s="397" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="152" t="s">
@@ -7456,7 +7501,7 @@
       <c r="O31" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="368"/>
+      <c r="P31" s="389"/>
       <c r="Q31" s="156" t="s">
         <v>100</v>
       </c>
@@ -7559,7 +7604,7 @@
       <c r="O32" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="368"/>
+      <c r="P32" s="389"/>
       <c r="Q32" s="156" t="s">
         <v>103</v>
       </c>
@@ -7666,7 +7711,7 @@
       <c r="O33" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="368"/>
+      <c r="P33" s="389"/>
       <c r="Q33" s="156" t="s">
         <v>13</v>
       </c>
@@ -7763,7 +7808,7 @@
       <c r="O34" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="371"/>
+      <c r="P34" s="398"/>
       <c r="Q34" s="166" t="s">
         <v>16</v>
       </c>
@@ -7856,7 +7901,7 @@
       <c r="O35" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="P35" s="372" t="s">
+      <c r="P35" s="385" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="152" t="s">
@@ -7969,7 +8014,7 @@
       <c r="O36" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="373"/>
+      <c r="P36" s="386"/>
       <c r="Q36" s="156" t="s">
         <v>100</v>
       </c>
@@ -8076,7 +8121,7 @@
       <c r="O37" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="373"/>
+      <c r="P37" s="386"/>
       <c r="Q37" s="156" t="s">
         <v>103</v>
       </c>
@@ -8183,7 +8228,7 @@
       <c r="O38" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="373"/>
+      <c r="P38" s="386"/>
       <c r="Q38" s="156" t="s">
         <v>13</v>
       </c>
@@ -8290,7 +8335,7 @@
       <c r="O39" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="P39" s="374"/>
+      <c r="P39" s="387"/>
       <c r="Q39" s="181" t="s">
         <v>16</v>
       </c>
@@ -8387,7 +8432,7 @@
       <c r="O40" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="372" t="s">
+      <c r="P40" s="385" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="152" t="s">
@@ -8502,7 +8547,7 @@
       <c r="O41" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P41" s="373"/>
+      <c r="P41" s="386"/>
       <c r="Q41" s="156" t="s">
         <v>100</v>
       </c>
@@ -8610,7 +8655,7 @@
       <c r="O42" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P42" s="373"/>
+      <c r="P42" s="386"/>
       <c r="Q42" s="156" t="s">
         <v>103</v>
       </c>
@@ -8718,7 +8763,7 @@
       <c r="O43" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P43" s="373"/>
+      <c r="P43" s="386"/>
       <c r="Q43" s="156" t="s">
         <v>13</v>
       </c>
@@ -8827,7 +8872,7 @@
       <c r="O44" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="P44" s="374"/>
+      <c r="P44" s="387"/>
       <c r="Q44" s="181" t="s">
         <v>16</v>
       </c>
@@ -9279,7 +9324,7 @@
       <c r="O49" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="375" t="s">
+      <c r="P49" s="379" t="s">
         <v>21</v>
       </c>
       <c r="Q49" s="152" t="s">
@@ -9388,7 +9433,7 @@
       <c r="O50" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="376"/>
+      <c r="P50" s="380"/>
       <c r="Q50" s="156" t="s">
         <v>100</v>
       </c>
@@ -9495,7 +9540,7 @@
       <c r="O51" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="376"/>
+      <c r="P51" s="380"/>
       <c r="Q51" s="156" t="s">
         <v>103</v>
       </c>
@@ -9598,7 +9643,7 @@
       <c r="O52" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="376"/>
+      <c r="P52" s="380"/>
       <c r="Q52" s="156" t="s">
         <v>13</v>
       </c>
@@ -9691,7 +9736,7 @@
       <c r="O53" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="377"/>
+      <c r="P53" s="381"/>
       <c r="Q53" s="181" t="s">
         <v>16</v>
       </c>
@@ -9782,7 +9827,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="69"/>
-      <c r="P54" s="375" t="s">
+      <c r="P54" s="379" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="152" t="s">
@@ -9885,7 +9930,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="101"/>
-      <c r="P55" s="376"/>
+      <c r="P55" s="380"/>
       <c r="Q55" s="156" t="s">
         <v>100</v>
       </c>
@@ -9984,7 +10029,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="101"/>
-      <c r="P56" s="376"/>
+      <c r="P56" s="380"/>
       <c r="Q56" s="156" t="s">
         <v>103</v>
       </c>
@@ -10083,7 +10128,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="101"/>
-      <c r="P57" s="376"/>
+      <c r="P57" s="380"/>
       <c r="Q57" s="156" t="s">
         <v>13</v>
       </c>
@@ -10178,7 +10223,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="101"/>
-      <c r="P58" s="377"/>
+      <c r="P58" s="381"/>
       <c r="Q58" s="156" t="s">
         <v>16</v>
       </c>
@@ -10269,7 +10314,7 @@
       <c r="O59" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P59" s="367" t="s">
+      <c r="P59" s="388" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="152" t="s">
@@ -10386,7 +10431,7 @@
       <c r="O60" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P60" s="368"/>
+      <c r="P60" s="389"/>
       <c r="Q60" s="156" t="s">
         <v>100</v>
       </c>
@@ -10494,7 +10539,7 @@
       <c r="O61" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P61" s="368"/>
+      <c r="P61" s="389"/>
       <c r="Q61" s="156" t="s">
         <v>103</v>
       </c>
@@ -10602,7 +10647,7 @@
       <c r="O62" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P62" s="368"/>
+      <c r="P62" s="389"/>
       <c r="Q62" s="156" t="s">
         <v>13</v>
       </c>
@@ -10713,7 +10758,7 @@
       <c r="O63" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="P63" s="369"/>
+      <c r="P63" s="390"/>
       <c r="Q63" s="181" t="s">
         <v>16</v>
       </c>
@@ -11283,7 +11328,7 @@
       <c r="O69" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="375" t="s">
+      <c r="P69" s="379" t="s">
         <v>21</v>
       </c>
       <c r="Q69" s="152" t="s">
@@ -11392,7 +11437,7 @@
       <c r="O70" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="376"/>
+      <c r="P70" s="380"/>
       <c r="Q70" s="156" t="s">
         <v>100</v>
       </c>
@@ -11495,7 +11540,7 @@
       <c r="O71" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="376"/>
+      <c r="P71" s="380"/>
       <c r="Q71" s="156" t="s">
         <v>103</v>
       </c>
@@ -11598,7 +11643,7 @@
       <c r="O72" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="376"/>
+      <c r="P72" s="380"/>
       <c r="Q72" s="156" t="s">
         <v>13</v>
       </c>
@@ -11695,7 +11740,7 @@
       <c r="O73" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="377"/>
+      <c r="P73" s="381"/>
       <c r="Q73" s="181" t="s">
         <v>16</v>
       </c>
@@ -11790,7 +11835,7 @@
       <c r="O74" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="375" t="s">
+      <c r="P74" s="379" t="s">
         <v>28</v>
       </c>
       <c r="Q74" s="152" t="s">
@@ -11899,7 +11944,7 @@
       <c r="O75" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="376"/>
+      <c r="P75" s="380"/>
       <c r="Q75" s="156" t="s">
         <v>100</v>
       </c>
@@ -12002,7 +12047,7 @@
       <c r="O76" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="376"/>
+      <c r="P76" s="380"/>
       <c r="Q76" s="156" t="s">
         <v>103</v>
       </c>
@@ -12105,7 +12150,7 @@
       <c r="O77" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="376"/>
+      <c r="P77" s="380"/>
       <c r="Q77" s="156" t="s">
         <v>13</v>
       </c>
@@ -12208,7 +12253,7 @@
       <c r="O78" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="377"/>
+      <c r="P78" s="381"/>
       <c r="Q78" s="181" t="s">
         <v>16</v>
       </c>
@@ -12495,7 +12540,7 @@
       <c r="O81" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="378" t="s">
+      <c r="P81" s="382" t="s">
         <v>14</v>
       </c>
       <c r="Q81" s="152" t="s">
@@ -12601,7 +12646,7 @@
       <c r="O82" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="379"/>
+      <c r="P82" s="383"/>
       <c r="Q82" s="156" t="s">
         <v>100</v>
       </c>
@@ -12701,7 +12746,7 @@
       <c r="O83" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="379"/>
+      <c r="P83" s="383"/>
       <c r="Q83" s="156" t="s">
         <v>103</v>
       </c>
@@ -12799,7 +12844,7 @@
       <c r="O84" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="379"/>
+      <c r="P84" s="383"/>
       <c r="Q84" s="156" t="s">
         <v>13</v>
       </c>
@@ -12891,7 +12936,7 @@
       <c r="O85" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="380"/>
+      <c r="P85" s="384"/>
       <c r="Q85" s="156" t="s">
         <v>16</v>
       </c>
@@ -12988,7 +13033,7 @@
       <c r="O86" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="379" t="s">
+      <c r="P86" s="383" t="s">
         <v>14</v>
       </c>
       <c r="Q86" s="152" t="s">
@@ -13098,7 +13143,7 @@
       <c r="O87" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="379"/>
+      <c r="P87" s="383"/>
       <c r="Q87" s="156" t="s">
         <v>100</v>
       </c>
@@ -13202,7 +13247,7 @@
       <c r="O88" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="379"/>
+      <c r="P88" s="383"/>
       <c r="Q88" s="156" t="s">
         <v>103</v>
       </c>
@@ -13304,7 +13349,7 @@
       <c r="O89" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="379"/>
+      <c r="P89" s="383"/>
       <c r="Q89" s="156" t="s">
         <v>13</v>
       </c>
@@ -13396,7 +13441,7 @@
       <c r="O90" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="380"/>
+      <c r="P90" s="384"/>
       <c r="Q90" s="156" t="s">
         <v>16</v>
       </c>
@@ -13536,7 +13581,7 @@
       <c r="O92" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P92" s="375" t="s">
+      <c r="P92" s="379" t="s">
         <v>21</v>
       </c>
       <c r="Q92" s="152" t="s">
@@ -13641,7 +13686,7 @@
       <c r="O93" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="376"/>
+      <c r="P93" s="380"/>
       <c r="Q93" s="156" t="s">
         <v>100</v>
       </c>
@@ -13721,7 +13766,7 @@
       <c r="O94" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="376"/>
+      <c r="P94" s="380"/>
       <c r="Q94" s="156" t="s">
         <v>103</v>
       </c>
@@ -13801,7 +13846,7 @@
       <c r="O95" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="376"/>
+      <c r="P95" s="380"/>
       <c r="Q95" s="156" t="s">
         <v>13</v>
       </c>
@@ -13881,7 +13926,7 @@
       <c r="O96" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="377"/>
+      <c r="P96" s="381"/>
       <c r="Q96" s="156" t="s">
         <v>16</v>
       </c>
@@ -14149,7 +14194,7 @@
       <c r="O99" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="P99" s="381" t="s">
+      <c r="P99" s="376" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="152" t="s">
@@ -14255,7 +14300,7 @@
       <c r="O100" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P100" s="382"/>
+      <c r="P100" s="377"/>
       <c r="Q100" s="156" t="s">
         <v>100</v>
       </c>
@@ -14355,7 +14400,7 @@
       <c r="O101" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P101" s="382"/>
+      <c r="P101" s="377"/>
       <c r="Q101" s="156" t="s">
         <v>103</v>
       </c>
@@ -14455,7 +14500,7 @@
       <c r="O102" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P102" s="382"/>
+      <c r="P102" s="377"/>
       <c r="Q102" s="156" t="s">
         <v>13</v>
       </c>
@@ -14551,7 +14596,7 @@
       <c r="O103" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="P103" s="383"/>
+      <c r="P103" s="378"/>
       <c r="Q103" s="166" t="s">
         <v>16</v>
       </c>
@@ -14624,7 +14669,7 @@
       <c r="O104" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="P104" s="375" t="s">
+      <c r="P104" s="379" t="s">
         <v>28</v>
       </c>
       <c r="Q104" s="152" t="s">
@@ -14699,7 +14744,7 @@
       <c r="O105" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P105" s="376"/>
+      <c r="P105" s="380"/>
       <c r="Q105" s="156" t="s">
         <v>100</v>
       </c>
@@ -14772,7 +14817,7 @@
       <c r="O106" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P106" s="376"/>
+      <c r="P106" s="380"/>
       <c r="Q106" s="156" t="s">
         <v>103</v>
       </c>
@@ -14845,7 +14890,7 @@
       <c r="O107" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P107" s="376"/>
+      <c r="P107" s="380"/>
       <c r="Q107" s="156" t="s">
         <v>13</v>
       </c>
@@ -14918,7 +14963,7 @@
       <c r="O108" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="P108" s="377"/>
+      <c r="P108" s="381"/>
       <c r="Q108" s="181" t="s">
         <v>16</v>
       </c>
@@ -14991,7 +15036,7 @@
       <c r="O109" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="P109" s="375" t="s">
+      <c r="P109" s="379" t="s">
         <v>28</v>
       </c>
       <c r="Q109" s="152" t="s">
@@ -15066,7 +15111,7 @@
       <c r="O110" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P110" s="376"/>
+      <c r="P110" s="380"/>
       <c r="Q110" s="156" t="s">
         <v>100</v>
       </c>
@@ -15139,7 +15184,7 @@
       <c r="O111" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P111" s="376"/>
+      <c r="P111" s="380"/>
       <c r="Q111" s="156" t="s">
         <v>103</v>
       </c>
@@ -15212,7 +15257,7 @@
       <c r="O112" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P112" s="376"/>
+      <c r="P112" s="380"/>
       <c r="Q112" s="156" t="s">
         <v>13</v>
       </c>
@@ -15285,7 +15330,7 @@
       <c r="O113" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="P113" s="377"/>
+      <c r="P113" s="381"/>
       <c r="Q113" s="181" t="s">
         <v>16</v>
       </c>
@@ -15356,7 +15401,7 @@
       <c r="M114" s="92"/>
       <c r="N114" s="93"/>
       <c r="O114" s="94"/>
-      <c r="P114" s="375" t="s">
+      <c r="P114" s="379" t="s">
         <v>28</v>
       </c>
       <c r="Q114" s="152" t="s">
@@ -15429,7 +15474,7 @@
       <c r="M115" s="99"/>
       <c r="N115" s="100"/>
       <c r="O115" s="101"/>
-      <c r="P115" s="376"/>
+      <c r="P115" s="380"/>
       <c r="Q115" s="156" t="s">
         <v>100</v>
       </c>
@@ -15500,7 +15545,7 @@
       <c r="M116" s="99"/>
       <c r="N116" s="100"/>
       <c r="O116" s="101"/>
-      <c r="P116" s="376"/>
+      <c r="P116" s="380"/>
       <c r="Q116" s="156" t="s">
         <v>103</v>
       </c>
@@ -15571,7 +15616,7 @@
       <c r="M117" s="99"/>
       <c r="N117" s="100"/>
       <c r="O117" s="101"/>
-      <c r="P117" s="376"/>
+      <c r="P117" s="380"/>
       <c r="Q117" s="156" t="s">
         <v>13</v>
       </c>
@@ -15642,7 +15687,7 @@
       <c r="M118" s="129"/>
       <c r="N118" s="130"/>
       <c r="O118" s="137"/>
-      <c r="P118" s="377"/>
+      <c r="P118" s="381"/>
       <c r="Q118" s="181" t="s">
         <v>16</v>
       </c>
@@ -15729,7 +15774,7 @@
       <c r="O119" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="378" t="s">
+      <c r="P119" s="382" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="152" t="s">
@@ -15825,7 +15870,7 @@
       <c r="O120" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="379"/>
+      <c r="P120" s="383"/>
       <c r="Q120" s="156" t="s">
         <v>100</v>
       </c>
@@ -15835,9 +15880,13 @@
       <c r="S120" s="153">
         <v>43924</v>
       </c>
-      <c r="T120" s="153"/>
+      <c r="T120" s="153">
+        <v>43901</v>
+      </c>
       <c r="U120" s="198"/>
-      <c r="V120" s="51"/>
+      <c r="V120" s="399">
+        <v>0.35</v>
+      </c>
       <c r="W120" s="325" t="s">
         <v>128</v>
       </c>
@@ -15915,7 +15964,7 @@
       <c r="O121" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="379"/>
+      <c r="P121" s="383"/>
       <c r="Q121" s="156" t="s">
         <v>103</v>
       </c>
@@ -16005,7 +16054,7 @@
       <c r="O122" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="379"/>
+      <c r="P122" s="383"/>
       <c r="Q122" s="156" t="s">
         <v>13</v>
       </c>
@@ -16095,7 +16144,7 @@
       <c r="O123" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="380"/>
+      <c r="P123" s="384"/>
       <c r="Q123" s="156" t="s">
         <v>16</v>
       </c>
@@ -16248,27 +16297,27 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="P99:P103"/>
-    <mergeCell ref="P104:P108"/>
-    <mergeCell ref="P109:P113"/>
-    <mergeCell ref="P114:P118"/>
-    <mergeCell ref="P119:P123"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P92:P96"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="P15:P19"/>
     <mergeCell ref="P20:P24"/>
     <mergeCell ref="P25:P29"/>
     <mergeCell ref="P30:P34"/>
     <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P92:P96"/>
+    <mergeCell ref="P99:P103"/>
+    <mergeCell ref="P104:P108"/>
+    <mergeCell ref="P109:P113"/>
+    <mergeCell ref="P114:P118"/>
+    <mergeCell ref="P119:P123"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <dataValidations count="1">
@@ -17545,15 +17594,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -17685,6 +17725,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17692,13 +17741,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C82320-5302-4328-B5F2-8A0E6A40FEB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A75D460-7540-42D5-8007-F949AC300F43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3678,13 +3678,40 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3695,6 +3722,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3705,50 +3741,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4408,9 +4408,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U128" sqref="U128"/>
+      <selection pane="bottomLeft" activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4733,7 +4733,7 @@
       <c r="O3" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="391" t="s">
+      <c r="P3" s="377" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="152" t="s">
@@ -4837,7 +4837,7 @@
       <c r="O4" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="392"/>
+      <c r="P4" s="378"/>
       <c r="Q4" s="156" t="s">
         <v>100</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="O5" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="392"/>
+      <c r="P5" s="378"/>
       <c r="Q5" s="156" t="s">
         <v>103</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="O6" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="392"/>
+      <c r="P6" s="378"/>
       <c r="Q6" s="156" t="s">
         <v>13</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="O7" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="393"/>
+      <c r="P7" s="379"/>
       <c r="Q7" s="166" t="s">
         <v>16</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="O8" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="379" t="s">
+      <c r="P8" s="388" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="152" t="s">
@@ -5320,7 +5320,7 @@
       <c r="O9" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="380"/>
+      <c r="P9" s="389"/>
       <c r="Q9" s="156" t="s">
         <v>100</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="O10" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="380"/>
+      <c r="P10" s="389"/>
       <c r="Q10" s="156" t="s">
         <v>103</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="O11" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="380"/>
+      <c r="P11" s="389"/>
       <c r="Q11" s="156" t="s">
         <v>13</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="O12" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P12" s="381"/>
+      <c r="P12" s="390"/>
       <c r="Q12" s="181" t="s">
         <v>16</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="O15" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="P15" s="394" t="s">
+      <c r="P15" s="380" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="176" t="s">
@@ -5965,7 +5965,7 @@
       <c r="O16" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="395"/>
+      <c r="P16" s="381"/>
       <c r="Q16" s="156" t="s">
         <v>100</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="O17" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="395"/>
+      <c r="P17" s="381"/>
       <c r="Q17" s="156" t="s">
         <v>103</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="O18" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="395"/>
+      <c r="P18" s="381"/>
       <c r="Q18" s="156" t="s">
         <v>13</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="O19" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="396"/>
+      <c r="P19" s="382"/>
       <c r="Q19" s="181" t="s">
         <v>16</v>
       </c>
@@ -6330,7 +6330,7 @@
       <c r="O20" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P20" s="388" t="s">
+      <c r="P20" s="383" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="152" t="s">
@@ -6445,7 +6445,7 @@
       <c r="O21" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="389"/>
+      <c r="P21" s="384"/>
       <c r="Q21" s="156" t="s">
         <v>100</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="O22" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P22" s="389"/>
+      <c r="P22" s="384"/>
       <c r="Q22" s="156" t="s">
         <v>103</v>
       </c>
@@ -6661,7 +6661,7 @@
       <c r="O23" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P23" s="389"/>
+      <c r="P23" s="384"/>
       <c r="Q23" s="156" t="s">
         <v>13</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="O24" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="P24" s="390"/>
+      <c r="P24" s="385"/>
       <c r="Q24" s="181" t="s">
         <v>16</v>
       </c>
@@ -6871,7 +6871,7 @@
       <c r="O25" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="388" t="s">
+      <c r="P25" s="383" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="152" t="s">
@@ -6980,7 +6980,7 @@
       <c r="O26" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="389"/>
+      <c r="P26" s="384"/>
       <c r="Q26" s="156" t="s">
         <v>100</v>
       </c>
@@ -7083,7 +7083,7 @@
       <c r="O27" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="389"/>
+      <c r="P27" s="384"/>
       <c r="Q27" s="156" t="s">
         <v>103</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="O28" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="389"/>
+      <c r="P28" s="384"/>
       <c r="Q28" s="156" t="s">
         <v>13</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="O29" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="390"/>
+      <c r="P29" s="385"/>
       <c r="Q29" s="181" t="s">
         <v>16</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="O30" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="397" t="s">
+      <c r="P30" s="386" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="152" t="s">
@@ -7501,7 +7501,7 @@
       <c r="O31" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="389"/>
+      <c r="P31" s="384"/>
       <c r="Q31" s="156" t="s">
         <v>100</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="O32" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="389"/>
+      <c r="P32" s="384"/>
       <c r="Q32" s="156" t="s">
         <v>103</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="O33" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="389"/>
+      <c r="P33" s="384"/>
       <c r="Q33" s="156" t="s">
         <v>13</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="O34" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="398"/>
+      <c r="P34" s="387"/>
       <c r="Q34" s="166" t="s">
         <v>16</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="O35" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="P35" s="385" t="s">
+      <c r="P35" s="391" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="152" t="s">
@@ -8014,7 +8014,7 @@
       <c r="O36" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="386"/>
+      <c r="P36" s="392"/>
       <c r="Q36" s="156" t="s">
         <v>100</v>
       </c>
@@ -8121,7 +8121,7 @@
       <c r="O37" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="386"/>
+      <c r="P37" s="392"/>
       <c r="Q37" s="156" t="s">
         <v>103</v>
       </c>
@@ -8228,7 +8228,7 @@
       <c r="O38" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="386"/>
+      <c r="P38" s="392"/>
       <c r="Q38" s="156" t="s">
         <v>13</v>
       </c>
@@ -8335,7 +8335,7 @@
       <c r="O39" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="P39" s="387"/>
+      <c r="P39" s="393"/>
       <c r="Q39" s="181" t="s">
         <v>16</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="O40" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="385" t="s">
+      <c r="P40" s="391" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="152" t="s">
@@ -8547,7 +8547,7 @@
       <c r="O41" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P41" s="386"/>
+      <c r="P41" s="392"/>
       <c r="Q41" s="156" t="s">
         <v>100</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="O42" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P42" s="386"/>
+      <c r="P42" s="392"/>
       <c r="Q42" s="156" t="s">
         <v>103</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="O43" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P43" s="386"/>
+      <c r="P43" s="392"/>
       <c r="Q43" s="156" t="s">
         <v>13</v>
       </c>
@@ -8872,7 +8872,7 @@
       <c r="O44" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="P44" s="387"/>
+      <c r="P44" s="393"/>
       <c r="Q44" s="181" t="s">
         <v>16</v>
       </c>
@@ -9324,7 +9324,7 @@
       <c r="O49" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="379" t="s">
+      <c r="P49" s="388" t="s">
         <v>21</v>
       </c>
       <c r="Q49" s="152" t="s">
@@ -9433,7 +9433,7 @@
       <c r="O50" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="380"/>
+      <c r="P50" s="389"/>
       <c r="Q50" s="156" t="s">
         <v>100</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="O51" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="380"/>
+      <c r="P51" s="389"/>
       <c r="Q51" s="156" t="s">
         <v>103</v>
       </c>
@@ -9643,7 +9643,7 @@
       <c r="O52" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="380"/>
+      <c r="P52" s="389"/>
       <c r="Q52" s="156" t="s">
         <v>13</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="O53" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="381"/>
+      <c r="P53" s="390"/>
       <c r="Q53" s="181" t="s">
         <v>16</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="69"/>
-      <c r="P54" s="379" t="s">
+      <c r="P54" s="388" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="152" t="s">
@@ -9930,7 +9930,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="101"/>
-      <c r="P55" s="380"/>
+      <c r="P55" s="389"/>
       <c r="Q55" s="156" t="s">
         <v>100</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="101"/>
-      <c r="P56" s="380"/>
+      <c r="P56" s="389"/>
       <c r="Q56" s="156" t="s">
         <v>103</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="101"/>
-      <c r="P57" s="380"/>
+      <c r="P57" s="389"/>
       <c r="Q57" s="156" t="s">
         <v>13</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="101"/>
-      <c r="P58" s="381"/>
+      <c r="P58" s="390"/>
       <c r="Q58" s="156" t="s">
         <v>16</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="O59" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P59" s="388" t="s">
+      <c r="P59" s="383" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="152" t="s">
@@ -10431,7 +10431,7 @@
       <c r="O60" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P60" s="389"/>
+      <c r="P60" s="384"/>
       <c r="Q60" s="156" t="s">
         <v>100</v>
       </c>
@@ -10539,7 +10539,7 @@
       <c r="O61" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P61" s="389"/>
+      <c r="P61" s="384"/>
       <c r="Q61" s="156" t="s">
         <v>103</v>
       </c>
@@ -10647,7 +10647,7 @@
       <c r="O62" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P62" s="389"/>
+      <c r="P62" s="384"/>
       <c r="Q62" s="156" t="s">
         <v>13</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="O63" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="P63" s="390"/>
+      <c r="P63" s="385"/>
       <c r="Q63" s="181" t="s">
         <v>16</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="O69" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="379" t="s">
+      <c r="P69" s="388" t="s">
         <v>21</v>
       </c>
       <c r="Q69" s="152" t="s">
@@ -11437,7 +11437,7 @@
       <c r="O70" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="380"/>
+      <c r="P70" s="389"/>
       <c r="Q70" s="156" t="s">
         <v>100</v>
       </c>
@@ -11540,7 +11540,7 @@
       <c r="O71" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="380"/>
+      <c r="P71" s="389"/>
       <c r="Q71" s="156" t="s">
         <v>103</v>
       </c>
@@ -11643,7 +11643,7 @@
       <c r="O72" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="380"/>
+      <c r="P72" s="389"/>
       <c r="Q72" s="156" t="s">
         <v>13</v>
       </c>
@@ -11740,7 +11740,7 @@
       <c r="O73" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="381"/>
+      <c r="P73" s="390"/>
       <c r="Q73" s="181" t="s">
         <v>16</v>
       </c>
@@ -11835,7 +11835,7 @@
       <c r="O74" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="379" t="s">
+      <c r="P74" s="388" t="s">
         <v>28</v>
       </c>
       <c r="Q74" s="152" t="s">
@@ -11944,7 +11944,7 @@
       <c r="O75" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="380"/>
+      <c r="P75" s="389"/>
       <c r="Q75" s="156" t="s">
         <v>100</v>
       </c>
@@ -12047,7 +12047,7 @@
       <c r="O76" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="380"/>
+      <c r="P76" s="389"/>
       <c r="Q76" s="156" t="s">
         <v>103</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="O77" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="380"/>
+      <c r="P77" s="389"/>
       <c r="Q77" s="156" t="s">
         <v>13</v>
       </c>
@@ -12253,7 +12253,7 @@
       <c r="O78" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="381"/>
+      <c r="P78" s="390"/>
       <c r="Q78" s="181" t="s">
         <v>16</v>
       </c>
@@ -12540,7 +12540,7 @@
       <c r="O81" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="382" t="s">
+      <c r="P81" s="394" t="s">
         <v>14</v>
       </c>
       <c r="Q81" s="152" t="s">
@@ -12646,7 +12646,7 @@
       <c r="O82" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="383"/>
+      <c r="P82" s="395"/>
       <c r="Q82" s="156" t="s">
         <v>100</v>
       </c>
@@ -12746,7 +12746,7 @@
       <c r="O83" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="383"/>
+      <c r="P83" s="395"/>
       <c r="Q83" s="156" t="s">
         <v>103</v>
       </c>
@@ -12844,7 +12844,7 @@
       <c r="O84" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="383"/>
+      <c r="P84" s="395"/>
       <c r="Q84" s="156" t="s">
         <v>13</v>
       </c>
@@ -12936,7 +12936,7 @@
       <c r="O85" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="384"/>
+      <c r="P85" s="396"/>
       <c r="Q85" s="156" t="s">
         <v>16</v>
       </c>
@@ -13033,7 +13033,7 @@
       <c r="O86" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="383" t="s">
+      <c r="P86" s="395" t="s">
         <v>14</v>
       </c>
       <c r="Q86" s="152" t="s">
@@ -13143,7 +13143,7 @@
       <c r="O87" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="383"/>
+      <c r="P87" s="395"/>
       <c r="Q87" s="156" t="s">
         <v>100</v>
       </c>
@@ -13247,7 +13247,7 @@
       <c r="O88" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="383"/>
+      <c r="P88" s="395"/>
       <c r="Q88" s="156" t="s">
         <v>103</v>
       </c>
@@ -13349,7 +13349,7 @@
       <c r="O89" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="383"/>
+      <c r="P89" s="395"/>
       <c r="Q89" s="156" t="s">
         <v>13</v>
       </c>
@@ -13441,7 +13441,7 @@
       <c r="O90" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="384"/>
+      <c r="P90" s="396"/>
       <c r="Q90" s="156" t="s">
         <v>16</v>
       </c>
@@ -13581,7 +13581,7 @@
       <c r="O92" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P92" s="379" t="s">
+      <c r="P92" s="388" t="s">
         <v>21</v>
       </c>
       <c r="Q92" s="152" t="s">
@@ -13686,7 +13686,7 @@
       <c r="O93" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="380"/>
+      <c r="P93" s="389"/>
       <c r="Q93" s="156" t="s">
         <v>100</v>
       </c>
@@ -13766,7 +13766,7 @@
       <c r="O94" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="380"/>
+      <c r="P94" s="389"/>
       <c r="Q94" s="156" t="s">
         <v>103</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="O95" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="380"/>
+      <c r="P95" s="389"/>
       <c r="Q95" s="156" t="s">
         <v>13</v>
       </c>
@@ -13926,7 +13926,7 @@
       <c r="O96" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="381"/>
+      <c r="P96" s="390"/>
       <c r="Q96" s="156" t="s">
         <v>16</v>
       </c>
@@ -14194,7 +14194,7 @@
       <c r="O99" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="P99" s="376" t="s">
+      <c r="P99" s="397" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="152" t="s">
@@ -14300,7 +14300,7 @@
       <c r="O100" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P100" s="377"/>
+      <c r="P100" s="398"/>
       <c r="Q100" s="156" t="s">
         <v>100</v>
       </c>
@@ -14400,7 +14400,7 @@
       <c r="O101" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P101" s="377"/>
+      <c r="P101" s="398"/>
       <c r="Q101" s="156" t="s">
         <v>103</v>
       </c>
@@ -14500,7 +14500,7 @@
       <c r="O102" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P102" s="377"/>
+      <c r="P102" s="398"/>
       <c r="Q102" s="156" t="s">
         <v>13</v>
       </c>
@@ -14596,7 +14596,7 @@
       <c r="O103" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="P103" s="378"/>
+      <c r="P103" s="399"/>
       <c r="Q103" s="166" t="s">
         <v>16</v>
       </c>
@@ -14669,7 +14669,7 @@
       <c r="O104" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="P104" s="379" t="s">
+      <c r="P104" s="388" t="s">
         <v>28</v>
       </c>
       <c r="Q104" s="152" t="s">
@@ -14744,7 +14744,7 @@
       <c r="O105" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P105" s="380"/>
+      <c r="P105" s="389"/>
       <c r="Q105" s="156" t="s">
         <v>100</v>
       </c>
@@ -14817,7 +14817,7 @@
       <c r="O106" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P106" s="380"/>
+      <c r="P106" s="389"/>
       <c r="Q106" s="156" t="s">
         <v>103</v>
       </c>
@@ -14890,7 +14890,7 @@
       <c r="O107" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P107" s="380"/>
+      <c r="P107" s="389"/>
       <c r="Q107" s="156" t="s">
         <v>13</v>
       </c>
@@ -14963,7 +14963,7 @@
       <c r="O108" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="P108" s="381"/>
+      <c r="P108" s="390"/>
       <c r="Q108" s="181" t="s">
         <v>16</v>
       </c>
@@ -15036,7 +15036,7 @@
       <c r="O109" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="P109" s="379" t="s">
+      <c r="P109" s="388" t="s">
         <v>28</v>
       </c>
       <c r="Q109" s="152" t="s">
@@ -15111,7 +15111,7 @@
       <c r="O110" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P110" s="380"/>
+      <c r="P110" s="389"/>
       <c r="Q110" s="156" t="s">
         <v>100</v>
       </c>
@@ -15184,7 +15184,7 @@
       <c r="O111" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P111" s="380"/>
+      <c r="P111" s="389"/>
       <c r="Q111" s="156" t="s">
         <v>103</v>
       </c>
@@ -15257,7 +15257,7 @@
       <c r="O112" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P112" s="380"/>
+      <c r="P112" s="389"/>
       <c r="Q112" s="156" t="s">
         <v>13</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="O113" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="P113" s="381"/>
+      <c r="P113" s="390"/>
       <c r="Q113" s="181" t="s">
         <v>16</v>
       </c>
@@ -15401,7 +15401,7 @@
       <c r="M114" s="92"/>
       <c r="N114" s="93"/>
       <c r="O114" s="94"/>
-      <c r="P114" s="379" t="s">
+      <c r="P114" s="388" t="s">
         <v>28</v>
       </c>
       <c r="Q114" s="152" t="s">
@@ -15474,7 +15474,7 @@
       <c r="M115" s="99"/>
       <c r="N115" s="100"/>
       <c r="O115" s="101"/>
-      <c r="P115" s="380"/>
+      <c r="P115" s="389"/>
       <c r="Q115" s="156" t="s">
         <v>100</v>
       </c>
@@ -15545,7 +15545,7 @@
       <c r="M116" s="99"/>
       <c r="N116" s="100"/>
       <c r="O116" s="101"/>
-      <c r="P116" s="380"/>
+      <c r="P116" s="389"/>
       <c r="Q116" s="156" t="s">
         <v>103</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="M117" s="99"/>
       <c r="N117" s="100"/>
       <c r="O117" s="101"/>
-      <c r="P117" s="380"/>
+      <c r="P117" s="389"/>
       <c r="Q117" s="156" t="s">
         <v>13</v>
       </c>
@@ -15687,7 +15687,7 @@
       <c r="M118" s="129"/>
       <c r="N118" s="130"/>
       <c r="O118" s="137"/>
-      <c r="P118" s="381"/>
+      <c r="P118" s="390"/>
       <c r="Q118" s="181" t="s">
         <v>16</v>
       </c>
@@ -15774,7 +15774,7 @@
       <c r="O119" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="382" t="s">
+      <c r="P119" s="394" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="152" t="s">
@@ -15870,7 +15870,7 @@
       <c r="O120" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="383"/>
+      <c r="P120" s="395"/>
       <c r="Q120" s="156" t="s">
         <v>100</v>
       </c>
@@ -15884,8 +15884,8 @@
         <v>43901</v>
       </c>
       <c r="U120" s="198"/>
-      <c r="V120" s="399">
-        <v>0.35</v>
+      <c r="V120" s="376">
+        <v>0.5</v>
       </c>
       <c r="W120" s="325" t="s">
         <v>128</v>
@@ -15964,7 +15964,7 @@
       <c r="O121" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="383"/>
+      <c r="P121" s="395"/>
       <c r="Q121" s="156" t="s">
         <v>103</v>
       </c>
@@ -16054,7 +16054,7 @@
       <c r="O122" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="383"/>
+      <c r="P122" s="395"/>
       <c r="Q122" s="156" t="s">
         <v>13</v>
       </c>
@@ -16144,7 +16144,7 @@
       <c r="O123" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="384"/>
+      <c r="P123" s="396"/>
       <c r="Q123" s="156" t="s">
         <v>16</v>
       </c>
@@ -16297,27 +16297,27 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
+    <mergeCell ref="P99:P103"/>
+    <mergeCell ref="P104:P108"/>
+    <mergeCell ref="P109:P113"/>
+    <mergeCell ref="P114:P118"/>
+    <mergeCell ref="P119:P123"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P92:P96"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P59:P63"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="P15:P19"/>
     <mergeCell ref="P20:P24"/>
     <mergeCell ref="P25:P29"/>
     <mergeCell ref="P30:P34"/>
     <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P92:P96"/>
-    <mergeCell ref="P99:P103"/>
-    <mergeCell ref="P104:P108"/>
-    <mergeCell ref="P109:P113"/>
-    <mergeCell ref="P114:P118"/>
-    <mergeCell ref="P119:P123"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <dataValidations count="1">
@@ -17594,6 +17594,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -17725,15 +17734,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17741,13 +17741,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A75D460-7540-42D5-8007-F949AC300F43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178F4707-127B-49FD-93E4-B54AFEE6F27A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="309">
   <si>
     <t>ステータス</t>
   </si>
@@ -1370,6 +1370,28 @@
   <si>
     <t>優先対応をお願い</t>
   </si>
+  <si>
+    <t>VDIとSNOWが必要ため、一応対応不可
+100%</t>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20200317 市场MM表作业再开，开发一时终止</t>
+    </r>
+    <phoneticPr fontId="38"/>
+  </si>
 </sst>
 </file>
 
@@ -1384,7 +1406,7 @@
     <numFmt numFmtId="181" formatCode="0;[Red]0"/>
     <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,6 +1647,27 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="20">
@@ -2442,7 +2485,7 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3681,6 +3724,51 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3699,56 +3787,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4408,9 +4457,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T120" sqref="T120"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S130" sqref="S130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4693,7 +4742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="28.5">
       <c r="A3" s="42" t="s">
         <v>92</v>
       </c>
@@ -4733,7 +4782,7 @@
       <c r="O3" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="377" t="s">
+      <c r="P3" s="392" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="152" t="s">
@@ -4797,7 +4846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="32" customFormat="1" ht="49.5" hidden="1">
+    <row r="4" spans="1:45" s="32" customFormat="1" ht="49.5">
       <c r="A4" s="45" t="s">
         <v>92</v>
       </c>
@@ -4837,7 +4886,7 @@
       <c r="O4" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="378"/>
+      <c r="P4" s="393"/>
       <c r="Q4" s="156" t="s">
         <v>100</v>
       </c>
@@ -4895,7 +4944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="32" customFormat="1" ht="32.25" hidden="1">
+    <row r="5" spans="1:45" s="32" customFormat="1" ht="32.25">
       <c r="A5" s="45" t="s">
         <v>92</v>
       </c>
@@ -4935,7 +4984,7 @@
       <c r="O5" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="378"/>
+      <c r="P5" s="393"/>
       <c r="Q5" s="156" t="s">
         <v>103</v>
       </c>
@@ -4989,7 +5038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="32" customFormat="1" ht="32.25" hidden="1">
+    <row r="6" spans="1:45" s="32" customFormat="1" ht="32.25">
       <c r="A6" s="45" t="s">
         <v>92</v>
       </c>
@@ -5029,7 +5078,7 @@
       <c r="O6" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="378"/>
+      <c r="P6" s="393"/>
       <c r="Q6" s="156" t="s">
         <v>13</v>
       </c>
@@ -5083,7 +5132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="32" customFormat="1" ht="32.25" hidden="1">
+    <row r="7" spans="1:45" s="32" customFormat="1" ht="32.25">
       <c r="A7" s="48" t="s">
         <v>92</v>
       </c>
@@ -5123,7 +5172,7 @@
       <c r="O7" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="379"/>
+      <c r="P7" s="394"/>
       <c r="Q7" s="166" t="s">
         <v>16</v>
       </c>
@@ -5177,7 +5226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1">
+    <row r="8" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A8" s="51" t="s">
         <v>105</v>
       </c>
@@ -5217,7 +5266,7 @@
       <c r="O8" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="388" t="s">
+      <c r="P8" s="380" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="152" t="s">
@@ -5280,7 +5329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1">
+    <row r="9" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A9" s="367" t="s">
         <v>105</v>
       </c>
@@ -5320,7 +5369,7 @@
       <c r="O9" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="389"/>
+      <c r="P9" s="381"/>
       <c r="Q9" s="156" t="s">
         <v>100</v>
       </c>
@@ -5379,7 +5428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1">
+    <row r="10" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A10" s="367" t="s">
         <v>105</v>
       </c>
@@ -5419,7 +5468,7 @@
       <c r="O10" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="389"/>
+      <c r="P10" s="381"/>
       <c r="Q10" s="156" t="s">
         <v>103</v>
       </c>
@@ -5478,7 +5527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1">
+    <row r="11" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A11" s="367" t="s">
         <v>105</v>
       </c>
@@ -5518,7 +5567,7 @@
       <c r="O11" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="389"/>
+      <c r="P11" s="381"/>
       <c r="Q11" s="156" t="s">
         <v>13</v>
       </c>
@@ -5577,7 +5626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="367" t="s">
         <v>105</v>
       </c>
@@ -5619,7 +5668,7 @@
       <c r="O12" s="375" t="s">
         <v>108</v>
       </c>
-      <c r="P12" s="390"/>
+      <c r="P12" s="382"/>
       <c r="Q12" s="181" t="s">
         <v>16</v>
       </c>
@@ -5873,7 +5922,7 @@
       <c r="O15" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="P15" s="380" t="s">
+      <c r="P15" s="395" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="176" t="s">
@@ -5965,7 +6014,7 @@
       <c r="O16" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="381"/>
+      <c r="P16" s="396"/>
       <c r="Q16" s="156" t="s">
         <v>100</v>
       </c>
@@ -6055,7 +6104,7 @@
       <c r="O17" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="381"/>
+      <c r="P17" s="396"/>
       <c r="Q17" s="156" t="s">
         <v>103</v>
       </c>
@@ -6145,7 +6194,7 @@
       <c r="O18" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="381"/>
+      <c r="P18" s="396"/>
       <c r="Q18" s="156" t="s">
         <v>13</v>
       </c>
@@ -6235,7 +6284,7 @@
       <c r="O19" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="382"/>
+      <c r="P19" s="397"/>
       <c r="Q19" s="181" t="s">
         <v>16</v>
       </c>
@@ -6330,7 +6379,7 @@
       <c r="O20" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P20" s="383" t="s">
+      <c r="P20" s="389" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="152" t="s">
@@ -6445,7 +6494,7 @@
       <c r="O21" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="384"/>
+      <c r="P21" s="390"/>
       <c r="Q21" s="156" t="s">
         <v>100</v>
       </c>
@@ -6553,7 +6602,7 @@
       <c r="O22" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P22" s="384"/>
+      <c r="P22" s="390"/>
       <c r="Q22" s="156" t="s">
         <v>103</v>
       </c>
@@ -6661,7 +6710,7 @@
       <c r="O23" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P23" s="384"/>
+      <c r="P23" s="390"/>
       <c r="Q23" s="156" t="s">
         <v>13</v>
       </c>
@@ -6770,7 +6819,7 @@
       <c r="O24" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="P24" s="385"/>
+      <c r="P24" s="391"/>
       <c r="Q24" s="181" t="s">
         <v>16</v>
       </c>
@@ -6871,7 +6920,7 @@
       <c r="O25" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="383" t="s">
+      <c r="P25" s="389" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="152" t="s">
@@ -6980,7 +7029,7 @@
       <c r="O26" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="384"/>
+      <c r="P26" s="390"/>
       <c r="Q26" s="156" t="s">
         <v>100</v>
       </c>
@@ -7083,7 +7132,7 @@
       <c r="O27" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="384"/>
+      <c r="P27" s="390"/>
       <c r="Q27" s="156" t="s">
         <v>103</v>
       </c>
@@ -7186,7 +7235,7 @@
       <c r="O28" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="384"/>
+      <c r="P28" s="390"/>
       <c r="Q28" s="156" t="s">
         <v>13</v>
       </c>
@@ -7289,7 +7338,7 @@
       <c r="O29" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="385"/>
+      <c r="P29" s="391"/>
       <c r="Q29" s="181" t="s">
         <v>16</v>
       </c>
@@ -7392,8 +7441,8 @@
       <c r="O30" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="386" t="s">
-        <v>21</v>
+      <c r="P30" s="398" t="s">
+        <v>25</v>
       </c>
       <c r="Q30" s="152" t="s">
         <v>5</v>
@@ -7501,7 +7550,7 @@
       <c r="O31" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="384"/>
+      <c r="P31" s="390"/>
       <c r="Q31" s="156" t="s">
         <v>100</v>
       </c>
@@ -7604,7 +7653,7 @@
       <c r="O32" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="384"/>
+      <c r="P32" s="390"/>
       <c r="Q32" s="156" t="s">
         <v>103</v>
       </c>
@@ -7711,7 +7760,7 @@
       <c r="O33" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="384"/>
+      <c r="P33" s="390"/>
       <c r="Q33" s="156" t="s">
         <v>13</v>
       </c>
@@ -7721,9 +7770,13 @@
       <c r="S33" s="157">
         <v>43882</v>
       </c>
-      <c r="T33" s="164"/>
+      <c r="T33" s="157">
+        <v>43907</v>
+      </c>
       <c r="U33" s="165"/>
-      <c r="V33" s="124"/>
+      <c r="V33" s="190">
+        <v>0.5</v>
+      </c>
       <c r="W33" s="124" t="s">
         <v>123</v>
       </c>
@@ -7808,7 +7861,7 @@
       <c r="O34" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="387"/>
+      <c r="P34" s="399"/>
       <c r="Q34" s="166" t="s">
         <v>16</v>
       </c>
@@ -7901,7 +7954,7 @@
       <c r="O35" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="P35" s="391" t="s">
+      <c r="P35" s="386" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="152" t="s">
@@ -8014,7 +8067,7 @@
       <c r="O36" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="392"/>
+      <c r="P36" s="387"/>
       <c r="Q36" s="156" t="s">
         <v>100</v>
       </c>
@@ -8121,7 +8174,7 @@
       <c r="O37" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="392"/>
+      <c r="P37" s="387"/>
       <c r="Q37" s="156" t="s">
         <v>103</v>
       </c>
@@ -8228,7 +8281,7 @@
       <c r="O38" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="392"/>
+      <c r="P38" s="387"/>
       <c r="Q38" s="156" t="s">
         <v>13</v>
       </c>
@@ -8335,7 +8388,7 @@
       <c r="O39" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="P39" s="393"/>
+      <c r="P39" s="388"/>
       <c r="Q39" s="181" t="s">
         <v>16</v>
       </c>
@@ -8432,7 +8485,7 @@
       <c r="O40" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="391" t="s">
+      <c r="P40" s="386" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="152" t="s">
@@ -8547,7 +8600,7 @@
       <c r="O41" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P41" s="392"/>
+      <c r="P41" s="387"/>
       <c r="Q41" s="156" t="s">
         <v>100</v>
       </c>
@@ -8655,7 +8708,7 @@
       <c r="O42" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P42" s="392"/>
+      <c r="P42" s="387"/>
       <c r="Q42" s="156" t="s">
         <v>103</v>
       </c>
@@ -8763,7 +8816,7 @@
       <c r="O43" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="P43" s="392"/>
+      <c r="P43" s="387"/>
       <c r="Q43" s="156" t="s">
         <v>13</v>
       </c>
@@ -8872,7 +8925,7 @@
       <c r="O44" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="P44" s="393"/>
+      <c r="P44" s="388"/>
       <c r="Q44" s="181" t="s">
         <v>16</v>
       </c>
@@ -9283,7 +9336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A49" s="51" t="s">
         <v>163</v>
       </c>
@@ -9324,7 +9377,7 @@
       <c r="O49" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="388" t="s">
+      <c r="P49" s="380" t="s">
         <v>21</v>
       </c>
       <c r="Q49" s="152" t="s">
@@ -9392,7 +9445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75" hidden="1">
       <c r="A50" s="45" t="s">
         <v>163</v>
       </c>
@@ -9433,7 +9486,7 @@
       <c r="O50" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="389"/>
+      <c r="P50" s="381"/>
       <c r="Q50" s="156" t="s">
         <v>100</v>
       </c>
@@ -9499,7 +9552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A51" s="45" t="s">
         <v>163</v>
       </c>
@@ -9540,7 +9593,7 @@
       <c r="O51" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="389"/>
+      <c r="P51" s="381"/>
       <c r="Q51" s="156" t="s">
         <v>103</v>
       </c>
@@ -9602,7 +9655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>163</v>
       </c>
@@ -9643,7 +9696,7 @@
       <c r="O52" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="389"/>
+      <c r="P52" s="381"/>
       <c r="Q52" s="156" t="s">
         <v>13</v>
       </c>
@@ -9695,7 +9748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A53" s="45" t="s">
         <v>163</v>
       </c>
@@ -9736,7 +9789,7 @@
       <c r="O53" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="390"/>
+      <c r="P53" s="382"/>
       <c r="Q53" s="181" t="s">
         <v>16</v>
       </c>
@@ -9788,7 +9841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A54" s="51" t="s">
         <v>167</v>
       </c>
@@ -9827,7 +9880,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="69"/>
-      <c r="P54" s="388" t="s">
+      <c r="P54" s="380" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="152" t="s">
@@ -9891,7 +9944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A55" s="45" t="s">
         <v>167</v>
       </c>
@@ -9930,7 +9983,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="101"/>
-      <c r="P55" s="389"/>
+      <c r="P55" s="381"/>
       <c r="Q55" s="156" t="s">
         <v>100</v>
       </c>
@@ -9990,7 +10043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A56" s="45" t="s">
         <v>167</v>
       </c>
@@ -10029,7 +10082,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="101"/>
-      <c r="P56" s="389"/>
+      <c r="P56" s="381"/>
       <c r="Q56" s="156" t="s">
         <v>103</v>
       </c>
@@ -10089,7 +10142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A57" s="45" t="s">
         <v>167</v>
       </c>
@@ -10128,7 +10181,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="101"/>
-      <c r="P57" s="389"/>
+      <c r="P57" s="381"/>
       <c r="Q57" s="156" t="s">
         <v>13</v>
       </c>
@@ -10184,7 +10237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A58" s="45" t="s">
         <v>167</v>
       </c>
@@ -10223,7 +10276,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="101"/>
-      <c r="P58" s="390"/>
+      <c r="P58" s="382"/>
       <c r="Q58" s="156" t="s">
         <v>16</v>
       </c>
@@ -10314,7 +10367,7 @@
       <c r="O59" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P59" s="383" t="s">
+      <c r="P59" s="389" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="152" t="s">
@@ -10431,7 +10484,7 @@
       <c r="O60" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P60" s="384"/>
+      <c r="P60" s="390"/>
       <c r="Q60" s="156" t="s">
         <v>100</v>
       </c>
@@ -10539,7 +10592,7 @@
       <c r="O61" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P61" s="384"/>
+      <c r="P61" s="390"/>
       <c r="Q61" s="156" t="s">
         <v>103</v>
       </c>
@@ -10647,7 +10700,7 @@
       <c r="O62" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P62" s="384"/>
+      <c r="P62" s="390"/>
       <c r="Q62" s="156" t="s">
         <v>13</v>
       </c>
@@ -10758,7 +10811,7 @@
       <c r="O63" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="P63" s="385"/>
+      <c r="P63" s="391"/>
       <c r="Q63" s="181" t="s">
         <v>16</v>
       </c>
@@ -10828,7 +10881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A64" s="51" t="s">
         <v>175</v>
       </c>
@@ -11104,7 +11157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A67" s="51" t="s">
         <v>187</v>
       </c>
@@ -11287,7 +11340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A69" s="51" t="s">
         <v>193</v>
       </c>
@@ -11328,7 +11381,7 @@
       <c r="O69" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="388" t="s">
+      <c r="P69" s="380" t="s">
         <v>21</v>
       </c>
       <c r="Q69" s="152" t="s">
@@ -11396,7 +11449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5">
+    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5" hidden="1">
       <c r="A70" s="261" t="s">
         <v>193</v>
       </c>
@@ -11437,7 +11490,7 @@
       <c r="O70" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="389"/>
+      <c r="P70" s="381"/>
       <c r="Q70" s="156" t="s">
         <v>100</v>
       </c>
@@ -11499,7 +11552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A71" s="261" t="s">
         <v>193</v>
       </c>
@@ -11540,7 +11593,7 @@
       <c r="O71" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="389"/>
+      <c r="P71" s="381"/>
       <c r="Q71" s="156" t="s">
         <v>103</v>
       </c>
@@ -11602,7 +11655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A72" s="261" t="s">
         <v>193</v>
       </c>
@@ -11643,7 +11696,7 @@
       <c r="O72" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="389"/>
+      <c r="P72" s="381"/>
       <c r="Q72" s="156" t="s">
         <v>13</v>
       </c>
@@ -11699,7 +11752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A73" s="261" t="s">
         <v>193</v>
       </c>
@@ -11740,7 +11793,7 @@
       <c r="O73" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="390"/>
+      <c r="P73" s="382"/>
       <c r="Q73" s="181" t="s">
         <v>16</v>
       </c>
@@ -11794,7 +11847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A74" s="51" t="s">
         <v>197</v>
       </c>
@@ -11835,7 +11888,7 @@
       <c r="O74" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="388" t="s">
+      <c r="P74" s="380" t="s">
         <v>28</v>
       </c>
       <c r="Q74" s="152" t="s">
@@ -11903,7 +11956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A75" s="261" t="s">
         <v>197</v>
       </c>
@@ -11944,7 +11997,7 @@
       <c r="O75" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="389"/>
+      <c r="P75" s="381"/>
       <c r="Q75" s="156" t="s">
         <v>100</v>
       </c>
@@ -12006,7 +12059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A76" s="261" t="s">
         <v>197</v>
       </c>
@@ -12047,7 +12100,7 @@
       <c r="O76" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="389"/>
+      <c r="P76" s="381"/>
       <c r="Q76" s="156" t="s">
         <v>103</v>
       </c>
@@ -12109,7 +12162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A77" s="261" t="s">
         <v>197</v>
       </c>
@@ -12150,7 +12203,7 @@
       <c r="O77" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="389"/>
+      <c r="P77" s="381"/>
       <c r="Q77" s="156" t="s">
         <v>13</v>
       </c>
@@ -12212,7 +12265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A78" s="261" t="s">
         <v>197</v>
       </c>
@@ -12253,7 +12306,7 @@
       <c r="O78" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="390"/>
+      <c r="P78" s="382"/>
       <c r="Q78" s="181" t="s">
         <v>16</v>
       </c>
@@ -12315,7 +12368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A79" s="51" t="s">
         <v>201</v>
       </c>
@@ -12540,7 +12593,7 @@
       <c r="O81" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="394" t="s">
+      <c r="P81" s="383" t="s">
         <v>14</v>
       </c>
       <c r="Q81" s="152" t="s">
@@ -12646,7 +12699,7 @@
       <c r="O82" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="395"/>
+      <c r="P82" s="384"/>
       <c r="Q82" s="156" t="s">
         <v>100</v>
       </c>
@@ -12746,7 +12799,7 @@
       <c r="O83" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="395"/>
+      <c r="P83" s="384"/>
       <c r="Q83" s="156" t="s">
         <v>103</v>
       </c>
@@ -12844,7 +12897,7 @@
       <c r="O84" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="395"/>
+      <c r="P84" s="384"/>
       <c r="Q84" s="156" t="s">
         <v>13</v>
       </c>
@@ -12936,7 +12989,7 @@
       <c r="O85" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="396"/>
+      <c r="P85" s="385"/>
       <c r="Q85" s="156" t="s">
         <v>16</v>
       </c>
@@ -13033,7 +13086,7 @@
       <c r="O86" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="395" t="s">
+      <c r="P86" s="384" t="s">
         <v>14</v>
       </c>
       <c r="Q86" s="152" t="s">
@@ -13143,7 +13196,7 @@
       <c r="O87" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="395"/>
+      <c r="P87" s="384"/>
       <c r="Q87" s="156" t="s">
         <v>100</v>
       </c>
@@ -13247,7 +13300,7 @@
       <c r="O88" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="395"/>
+      <c r="P88" s="384"/>
       <c r="Q88" s="156" t="s">
         <v>103</v>
       </c>
@@ -13349,7 +13402,7 @@
       <c r="O89" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="395"/>
+      <c r="P89" s="384"/>
       <c r="Q89" s="156" t="s">
         <v>13</v>
       </c>
@@ -13441,7 +13494,7 @@
       <c r="O90" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="396"/>
+      <c r="P90" s="385"/>
       <c r="Q90" s="156" t="s">
         <v>16</v>
       </c>
@@ -13540,7 +13593,7 @@
       <c r="AR91" s="257"/>
       <c r="AS91" s="161"/>
     </row>
-    <row r="92" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
       <c r="A92" s="51" t="s">
         <v>214</v>
       </c>
@@ -13581,22 +13634,26 @@
       <c r="O92" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="P92" s="388" t="s">
+      <c r="P92" s="380" t="s">
         <v>21</v>
       </c>
       <c r="Q92" s="152" t="s">
         <v>5</v>
       </c>
       <c r="R92" s="312">
-        <v>43894</v>
+        <v>43901</v>
       </c>
       <c r="S92" s="312">
-        <v>43896</v>
-      </c>
-      <c r="T92" s="4"/>
-      <c r="U92" s="198"/>
-      <c r="V92" s="172" t="s">
-        <v>109</v>
+        <v>43903</v>
+      </c>
+      <c r="T92" s="312">
+        <v>43902</v>
+      </c>
+      <c r="U92" s="312">
+        <v>43903</v>
+      </c>
+      <c r="V92" s="400" t="s">
+        <v>307</v>
       </c>
       <c r="W92" s="123" t="s">
         <v>123</v>
@@ -13645,7 +13702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
       <c r="A93" s="268" t="s">
         <v>214</v>
       </c>
@@ -13686,19 +13743,23 @@
       <c r="O93" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="389"/>
+      <c r="P93" s="381"/>
       <c r="Q93" s="156" t="s">
         <v>100</v>
       </c>
       <c r="R93" s="312">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="S93" s="312">
-        <v>43924</v>
-      </c>
-      <c r="T93" s="4"/>
+        <v>43931</v>
+      </c>
+      <c r="T93" s="312">
+        <v>43906</v>
+      </c>
       <c r="U93" s="198"/>
-      <c r="V93" s="115"/>
+      <c r="V93" s="401" t="s">
+        <v>308</v>
+      </c>
       <c r="W93" s="124" t="s">
         <v>123</v>
       </c>
@@ -13766,15 +13827,15 @@
       <c r="O94" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="389"/>
+      <c r="P94" s="381"/>
       <c r="Q94" s="156" t="s">
         <v>103</v>
       </c>
       <c r="R94" s="312">
-        <v>43927</v>
+        <v>43934</v>
       </c>
       <c r="S94" s="312">
-        <v>43938</v>
+        <v>43945</v>
       </c>
       <c r="T94" s="4"/>
       <c r="U94" s="198"/>
@@ -13846,15 +13907,15 @@
       <c r="O95" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="389"/>
+      <c r="P95" s="381"/>
       <c r="Q95" s="156" t="s">
         <v>13</v>
       </c>
       <c r="R95" s="312">
-        <v>43941</v>
+        <v>43948</v>
       </c>
       <c r="S95" s="312">
-        <v>43945</v>
+        <v>43950</v>
       </c>
       <c r="T95" s="4"/>
       <c r="U95" s="198"/>
@@ -13926,15 +13987,15 @@
       <c r="O96" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="390"/>
+      <c r="P96" s="382"/>
       <c r="Q96" s="156" t="s">
         <v>16</v>
       </c>
       <c r="R96" s="312">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="S96" s="312">
-        <v>43949</v>
+        <v>43955</v>
       </c>
       <c r="T96" s="4"/>
       <c r="U96" s="198"/>
@@ -14194,7 +14255,7 @@
       <c r="O99" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="P99" s="397" t="s">
+      <c r="P99" s="377" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="152" t="s">
@@ -14300,7 +14361,7 @@
       <c r="O100" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P100" s="398"/>
+      <c r="P100" s="378"/>
       <c r="Q100" s="156" t="s">
         <v>100</v>
       </c>
@@ -14400,7 +14461,7 @@
       <c r="O101" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P101" s="398"/>
+      <c r="P101" s="378"/>
       <c r="Q101" s="156" t="s">
         <v>103</v>
       </c>
@@ -14500,7 +14561,7 @@
       <c r="O102" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="P102" s="398"/>
+      <c r="P102" s="378"/>
       <c r="Q102" s="156" t="s">
         <v>13</v>
       </c>
@@ -14596,7 +14657,7 @@
       <c r="O103" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="P103" s="399"/>
+      <c r="P103" s="379"/>
       <c r="Q103" s="166" t="s">
         <v>16</v>
       </c>
@@ -14669,7 +14730,7 @@
       <c r="O104" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="P104" s="388" t="s">
+      <c r="P104" s="380" t="s">
         <v>28</v>
       </c>
       <c r="Q104" s="152" t="s">
@@ -14744,7 +14805,7 @@
       <c r="O105" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P105" s="389"/>
+      <c r="P105" s="381"/>
       <c r="Q105" s="156" t="s">
         <v>100</v>
       </c>
@@ -14817,7 +14878,7 @@
       <c r="O106" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P106" s="389"/>
+      <c r="P106" s="381"/>
       <c r="Q106" s="156" t="s">
         <v>103</v>
       </c>
@@ -14890,7 +14951,7 @@
       <c r="O107" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="P107" s="389"/>
+      <c r="P107" s="381"/>
       <c r="Q107" s="156" t="s">
         <v>13</v>
       </c>
@@ -14963,7 +15024,7 @@
       <c r="O108" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="P108" s="390"/>
+      <c r="P108" s="382"/>
       <c r="Q108" s="181" t="s">
         <v>16</v>
       </c>
@@ -15036,7 +15097,7 @@
       <c r="O109" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="P109" s="388" t="s">
+      <c r="P109" s="380" t="s">
         <v>28</v>
       </c>
       <c r="Q109" s="152" t="s">
@@ -15111,7 +15172,7 @@
       <c r="O110" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P110" s="389"/>
+      <c r="P110" s="381"/>
       <c r="Q110" s="156" t="s">
         <v>100</v>
       </c>
@@ -15184,7 +15245,7 @@
       <c r="O111" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P111" s="389"/>
+      <c r="P111" s="381"/>
       <c r="Q111" s="156" t="s">
         <v>103</v>
       </c>
@@ -15257,7 +15318,7 @@
       <c r="O112" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P112" s="389"/>
+      <c r="P112" s="381"/>
       <c r="Q112" s="156" t="s">
         <v>13</v>
       </c>
@@ -15330,7 +15391,7 @@
       <c r="O113" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="P113" s="390"/>
+      <c r="P113" s="382"/>
       <c r="Q113" s="181" t="s">
         <v>16</v>
       </c>
@@ -15401,7 +15462,7 @@
       <c r="M114" s="92"/>
       <c r="N114" s="93"/>
       <c r="O114" s="94"/>
-      <c r="P114" s="388" t="s">
+      <c r="P114" s="380" t="s">
         <v>28</v>
       </c>
       <c r="Q114" s="152" t="s">
@@ -15474,7 +15535,7 @@
       <c r="M115" s="99"/>
       <c r="N115" s="100"/>
       <c r="O115" s="101"/>
-      <c r="P115" s="389"/>
+      <c r="P115" s="381"/>
       <c r="Q115" s="156" t="s">
         <v>100</v>
       </c>
@@ -15545,7 +15606,7 @@
       <c r="M116" s="99"/>
       <c r="N116" s="100"/>
       <c r="O116" s="101"/>
-      <c r="P116" s="389"/>
+      <c r="P116" s="381"/>
       <c r="Q116" s="156" t="s">
         <v>103</v>
       </c>
@@ -15616,7 +15677,7 @@
       <c r="M117" s="99"/>
       <c r="N117" s="100"/>
       <c r="O117" s="101"/>
-      <c r="P117" s="389"/>
+      <c r="P117" s="381"/>
       <c r="Q117" s="156" t="s">
         <v>13</v>
       </c>
@@ -15687,7 +15748,7 @@
       <c r="M118" s="129"/>
       <c r="N118" s="130"/>
       <c r="O118" s="137"/>
-      <c r="P118" s="390"/>
+      <c r="P118" s="382"/>
       <c r="Q118" s="181" t="s">
         <v>16</v>
       </c>
@@ -15736,7 +15797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="16.5">
+    <row r="119" spans="1:45" ht="16.5" hidden="1">
       <c r="A119" s="51" t="s">
         <v>236</v>
       </c>
@@ -15774,7 +15835,7 @@
       <c r="O119" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="394" t="s">
+      <c r="P119" s="383" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="152" t="s">
@@ -15836,7 +15897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="16.5">
+    <row r="120" spans="1:45" ht="16.5" hidden="1">
       <c r="A120" s="278" t="s">
         <v>236</v>
       </c>
@@ -15870,7 +15931,7 @@
       <c r="O120" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="395"/>
+      <c r="P120" s="384"/>
       <c r="Q120" s="156" t="s">
         <v>100</v>
       </c>
@@ -15930,7 +15991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="16.5">
+    <row r="121" spans="1:45" ht="16.5" hidden="1">
       <c r="A121" s="278" t="s">
         <v>236</v>
       </c>
@@ -15964,7 +16025,7 @@
       <c r="O121" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="395"/>
+      <c r="P121" s="384"/>
       <c r="Q121" s="156" t="s">
         <v>103</v>
       </c>
@@ -16020,7 +16081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="16.5">
+    <row r="122" spans="1:45" ht="16.5" hidden="1">
       <c r="A122" s="278" t="s">
         <v>236</v>
       </c>
@@ -16054,7 +16115,7 @@
       <c r="O122" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="395"/>
+      <c r="P122" s="384"/>
       <c r="Q122" s="156" t="s">
         <v>13</v>
       </c>
@@ -16110,7 +16171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="16.5">
+    <row r="123" spans="1:45" ht="16.5" hidden="1">
       <c r="A123" s="278" t="s">
         <v>236</v>
       </c>
@@ -16144,7 +16205,7 @@
       <c r="O123" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="396"/>
+      <c r="P123" s="385"/>
       <c r="Q123" s="156" t="s">
         <v>16</v>
       </c>
@@ -16200,7 +16261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="15.75">
+    <row r="124" spans="1:45" ht="15.75" hidden="1">
       <c r="A124" s="51" t="s">
         <v>240</v>
       </c>
@@ -16287,37 +16348,34 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="25">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="22">
       <filters>
-        <filter val="Wave2"/>
+        <filter val="李昊泽"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="P99:P103"/>
-    <mergeCell ref="P104:P108"/>
-    <mergeCell ref="P109:P113"/>
-    <mergeCell ref="P114:P118"/>
-    <mergeCell ref="P119:P123"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P92:P96"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="P15:P19"/>
     <mergeCell ref="P20:P24"/>
     <mergeCell ref="P25:P29"/>
     <mergeCell ref="P30:P34"/>
     <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P92:P96"/>
+    <mergeCell ref="P99:P103"/>
+    <mergeCell ref="P104:P108"/>
+    <mergeCell ref="P109:P113"/>
+    <mergeCell ref="P114:P118"/>
+    <mergeCell ref="P119:P123"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <dataValidations count="1">
@@ -16339,7 +16397,7 @@
           <x14:formula1>
             <xm:f>マスタ!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:U2 R24:U24 P25 T28:U28 P30 R34:S34 P35 R39:U39 P54 S73:U73 P74 U83 U88 R103:T103 P104 P109 P114 T124:U124 P2:P3 R84:U85 P20:P22 P45:P49 P59:P61 P64:P69 P79:P92 P97:P99 P119:P124 P8 Q43:Q80 Q97:Q118 Q2:Q39 U102:U103 U120:U123 R64:U68 P40:Q42 T33:U34 R89:S91 R97:S98 T5:U19 R45:U48 R79:U80 T89:U98 P13:P15 R5:R7 S4:S7 R13:S19</xm:sqref>
+          <xm:sqref>R2:U2 R24:U24 P25 T28:U28 P30 P35 R39:U39 P54 S73:U73 P74 U83 R103:T103 P104 P109 P114 T124:U124 P2:P3 R84:U85 P20:P22 P45:P49 P59:P61 P64:P69 P79:P92 P97:P99 P119:P124 P8 Q43:Q80 Q97:Q118 Q2:Q39 U102:U103 U120:U123 R64:U68 P40:Q42 R13:S19 R97:S98 T5:U19 R45:U48 R79:U80 R34:T34 P13:P15 R5:R7 S4:S7 U33:U34 R89:T91 U88:U91 U93:U98 T94:T98</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -17594,15 +17652,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -17734,6 +17783,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17741,13 +17799,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3945717-C2A5-4CE0-9A95-CDF9E4AED8B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208B1CF-740E-446D-9C52-4AD6F0D88B42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="308">
   <si>
     <t>ステータス</t>
   </si>
@@ -631,9 +631,6 @@
     <t>運用担当：huijuan.cao@takeda.com</t>
   </si>
   <si>
-    <t>作業が変化があって、一応対応不要</t>
-  </si>
-  <si>
     <t>L1AUTO014</t>
   </si>
   <si>
@@ -1086,6 +1083,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>第一営業日</t>
@@ -1095,6 +1094,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1106,6 +1107,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>第一営業日</t>
@@ -1115,6 +1118,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1124,6 +1129,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1143,6 +1150,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">第三営業日（4月10月なし）
@@ -1153,6 +1162,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1194,6 +1205,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>負十営業日　</t>
@@ -1203,6 +1216,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：二回目</t>
@@ -1214,6 +1229,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>負六営業日　</t>
@@ -1223,6 +1240,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：二回目</t>
@@ -1237,6 +1256,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>　負四営業日　</t>
@@ -1246,6 +1267,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：一回目</t>
@@ -1257,6 +1280,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>　負三営業日　</t>
@@ -1266,6 +1291,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：三回目</t>
@@ -1277,6 +1304,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>　負三営業日　</t>
@@ -1286,6 +1315,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>※：二回目</t>
@@ -1317,8 +1348,12 @@
     <t>優先対応をお願い</t>
   </si>
   <si>
+    <t>作業が変化があって、一応対応不要</t>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">10%
+      <t xml:space="preserve">35%
 </t>
     </r>
     <r>
@@ -1328,8 +1363,13 @@
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
       </rPr>
-      <t>20200317 市场MM表作业再开，开发一时终止</t>
+      <t>20200317 市场MM表作业再开，开发一时终止
+20200323 (保守担当确认一时对应不要)作業が変化があって、一応対応不要</t>
     </r>
+    <phoneticPr fontId="38"/>
+  </si>
+  <si>
+    <t>今バックがあるので、一応対応不要。</t>
     <phoneticPr fontId="38"/>
   </si>
 </sst>
@@ -1338,15 +1378,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="179" formatCode="000_ "/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
-    <numFmt numFmtId="184" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="000_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,6 +1404,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1520,12 +1562,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1548,6 +1594,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1582,6 +1630,20 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2402,7 +2464,7 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2506,11 +2568,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2523,7 +2585,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2533,7 +2595,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2543,7 +2605,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2553,15 +2615,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2571,7 +2633,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2584,7 +2646,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2594,7 +2656,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2604,7 +2666,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2652,7 +2714,7 @@
     <xf numFmtId="49" fontId="10" fillId="10" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2676,7 +2738,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2684,15 +2746,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2702,7 +2764,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2710,15 +2772,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2728,7 +2790,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2736,15 +2798,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2754,7 +2816,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2762,15 +2824,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2781,7 +2843,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2789,15 +2851,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2805,7 +2867,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2813,15 +2875,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2837,7 +2899,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2845,15 +2907,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2866,7 +2928,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2874,15 +2936,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2913,7 +2975,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3161,13 +3223,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3176,13 +3238,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3200,7 +3262,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3228,38 +3290,38 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="13" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="17" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3301,7 +3363,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3315,7 +3377,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3323,11 +3385,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3347,7 +3409,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3360,22 +3422,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3383,22 +3445,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3418,7 +3480,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3426,15 +3488,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3442,7 +3504,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3450,15 +3512,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3469,7 +3531,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3477,15 +3539,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="182" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3543,7 +3605,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3558,13 +3620,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3582,25 +3644,25 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3618,18 +3680,18 @@
     <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="16">
@@ -3644,6 +3706,57 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3653,15 +3766,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3671,50 +3775,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="39" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4373,9 +4441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V130" sqref="V130"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4698,7 +4766,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="378" t="s">
+      <c r="P3" s="395" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4794,7 +4862,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="379"/>
+      <c r="P4" s="396"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -4888,7 +4956,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="379"/>
+      <c r="P5" s="396"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -4982,7 +5050,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="379"/>
+      <c r="P6" s="396"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5076,7 +5144,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="380"/>
+      <c r="P7" s="397"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5826,7 +5894,7 @@
       <c r="O15" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="384" t="s">
+      <c r="P15" s="398" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -5918,7 +5986,7 @@
       <c r="O16" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="385"/>
+      <c r="P16" s="399"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6008,7 +6076,7 @@
       <c r="O17" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="385"/>
+      <c r="P17" s="399"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6098,7 +6166,7 @@
       <c r="O18" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="385"/>
+      <c r="P18" s="399"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6188,7 +6256,7 @@
       <c r="O19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="386"/>
+      <c r="P19" s="400"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -9031,8 +9099,8 @@
         <v>151</v>
       </c>
       <c r="Y46" s="248"/>
-      <c r="Z46" s="180" t="s">
-        <v>152</v>
+      <c r="Z46" s="401" t="s">
+        <v>305</v>
       </c>
       <c r="AA46" s="74"/>
       <c r="AB46" s="127"/>
@@ -9069,7 +9137,7 @@
     </row>
     <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" customHeight="1">
       <c r="A47" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -9079,10 +9147,10 @@
       <c r="E47" s="51"/>
       <c r="F47" s="51"/>
       <c r="G47" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="72" t="s">
         <v>154</v>
-      </c>
-      <c r="H47" s="72" t="s">
-        <v>155</v>
       </c>
       <c r="I47" s="114" t="s">
         <v>87</v>
@@ -9113,7 +9181,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="211"/>
       <c r="V47" s="74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W47" s="127"/>
       <c r="X47" s="127"/>
@@ -9154,7 +9222,7 @@
     </row>
     <row r="48" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A48" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -9164,10 +9232,10 @@
       <c r="E48" s="51"/>
       <c r="F48" s="51"/>
       <c r="G48" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="73" t="s">
         <v>158</v>
-      </c>
-      <c r="H48" s="73" t="s">
-        <v>159</v>
       </c>
       <c r="I48" s="151" t="s">
         <v>99</v>
@@ -9203,7 +9271,7 @@
       </c>
       <c r="Y48" s="248"/>
       <c r="Z48" s="249" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA48" s="74" t="s">
         <v>109</v>
@@ -9242,7 +9310,7 @@
     </row>
     <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A49" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -9252,10 +9320,10 @@
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
       <c r="G49" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" s="74" t="s">
         <v>162</v>
-      </c>
-      <c r="H49" s="74" t="s">
-        <v>163</v>
       </c>
       <c r="I49" s="128" t="s">
         <v>99</v>
@@ -9351,7 +9419,7 @@
     </row>
     <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75">
       <c r="A50" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
@@ -9361,10 +9429,10 @@
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="H50" s="68" t="s">
         <v>162</v>
-      </c>
-      <c r="H50" s="68" t="s">
-        <v>163</v>
       </c>
       <c r="I50" s="100" t="s">
         <v>99</v>
@@ -9407,7 +9475,7 @@
         <v>43875</v>
       </c>
       <c r="V50" s="213" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W50" s="106" t="s">
         <v>127</v>
@@ -9458,7 +9526,7 @@
     </row>
     <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A51" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
@@ -9468,10 +9536,10 @@
       <c r="E51" s="66"/>
       <c r="F51" s="66"/>
       <c r="G51" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="H51" s="68" t="s">
         <v>162</v>
-      </c>
-      <c r="H51" s="68" t="s">
-        <v>163</v>
       </c>
       <c r="I51" s="100" t="s">
         <v>99</v>
@@ -9561,7 +9629,7 @@
     </row>
     <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -9571,10 +9639,10 @@
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
       <c r="G52" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="68" t="s">
         <v>162</v>
-      </c>
-      <c r="H52" s="68" t="s">
-        <v>163</v>
       </c>
       <c r="I52" s="100" t="s">
         <v>99</v>
@@ -9654,7 +9722,7 @@
     </row>
     <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="45"/>
       <c r="C53" s="45"/>
@@ -9664,10 +9732,10 @@
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" s="68" t="s">
         <v>162</v>
-      </c>
-      <c r="H53" s="68" t="s">
-        <v>163</v>
       </c>
       <c r="I53" s="100" t="s">
         <v>99</v>
@@ -9747,7 +9815,7 @@
     </row>
     <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A54" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -9757,10 +9825,10 @@
       <c r="E54" s="51"/>
       <c r="F54" s="51"/>
       <c r="G54" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="73" t="s">
         <v>166</v>
-      </c>
-      <c r="H54" s="73" t="s">
-        <v>167</v>
       </c>
       <c r="I54" s="151" t="s">
         <v>99</v>
@@ -9806,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X54" s="74" t="s">
         <v>151</v>
@@ -9850,7 +9918,7 @@
     </row>
     <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A55" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -9860,10 +9928,10 @@
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="H55" s="68" t="s">
-        <v>167</v>
       </c>
       <c r="I55" s="100" t="s">
         <v>99</v>
@@ -9907,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X55" s="148"/>
       <c r="Y55" s="247"/>
@@ -9949,7 +10017,7 @@
     </row>
     <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A56" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B56" s="66"/>
       <c r="C56" s="66"/>
@@ -9959,10 +10027,10 @@
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="H56" s="68" t="s">
-        <v>167</v>
       </c>
       <c r="I56" s="100" t="s">
         <v>99</v>
@@ -10006,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X56" s="148"/>
       <c r="Y56" s="247"/>
@@ -10048,7 +10116,7 @@
     </row>
     <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A57" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
@@ -10058,10 +10126,10 @@
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="H57" s="68" t="s">
-        <v>167</v>
       </c>
       <c r="I57" s="100" t="s">
         <v>99</v>
@@ -10101,7 +10169,7 @@
       <c r="U57" s="170"/>
       <c r="V57" s="198"/>
       <c r="W57" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X57" s="148"/>
       <c r="Y57" s="247"/>
@@ -10143,7 +10211,7 @@
     </row>
     <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A58" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="66"/>
       <c r="C58" s="66"/>
@@ -10153,10 +10221,10 @@
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="68" t="s">
         <v>166</v>
-      </c>
-      <c r="H58" s="68" t="s">
-        <v>167</v>
       </c>
       <c r="I58" s="100" t="s">
         <v>99</v>
@@ -10190,7 +10258,7 @@
       <c r="U58" s="170"/>
       <c r="V58" s="198"/>
       <c r="W58" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X58" s="148"/>
       <c r="Y58" s="247"/>
@@ -10232,7 +10300,7 @@
     </row>
     <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A59" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -10242,10 +10310,10 @@
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
       <c r="G59" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H59" s="75" t="s">
         <v>170</v>
-      </c>
-      <c r="H59" s="75" t="s">
-        <v>171</v>
       </c>
       <c r="I59" s="153" t="s">
         <v>99</v>
@@ -10296,7 +10364,7 @@
         <v>107</v>
       </c>
       <c r="X59" s="74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y59" s="241" t="s">
         <v>128</v>
@@ -10349,7 +10417,7 @@
     </row>
     <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A60" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" s="66"/>
       <c r="C60" s="66"/>
@@ -10359,10 +10427,10 @@
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="76" t="s">
         <v>170</v>
-      </c>
-      <c r="H60" s="76" t="s">
-        <v>171</v>
       </c>
       <c r="I60" s="154" t="s">
         <v>99</v>
@@ -10457,7 +10525,7 @@
     </row>
     <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A61" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
@@ -10467,10 +10535,10 @@
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
       <c r="G61" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="76" t="s">
         <v>170</v>
-      </c>
-      <c r="H61" s="76" t="s">
-        <v>171</v>
       </c>
       <c r="I61" s="154" t="s">
         <v>99</v>
@@ -10565,7 +10633,7 @@
     </row>
     <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A62" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -10575,10 +10643,10 @@
       <c r="E62" s="45"/>
       <c r="F62" s="45"/>
       <c r="G62" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" s="76" t="s">
         <v>170</v>
-      </c>
-      <c r="H62" s="76" t="s">
-        <v>171</v>
       </c>
       <c r="I62" s="154" t="s">
         <v>99</v>
@@ -10676,7 +10744,7 @@
     </row>
     <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A63" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="63"/>
       <c r="C63" s="63"/>
@@ -10686,10 +10754,10 @@
       <c r="E63" s="63"/>
       <c r="F63" s="63"/>
       <c r="G63" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="H63" s="77" t="s">
         <v>170</v>
-      </c>
-      <c r="H63" s="77" t="s">
-        <v>171</v>
       </c>
       <c r="I63" s="155" t="s">
         <v>99</v>
@@ -10787,7 +10855,7 @@
     </row>
     <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A64" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -10797,10 +10865,10 @@
       <c r="E64" s="51"/>
       <c r="F64" s="51"/>
       <c r="G64" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" s="78" t="s">
         <v>174</v>
-      </c>
-      <c r="H64" s="78" t="s">
-        <v>175</v>
       </c>
       <c r="I64" s="151" t="s">
         <v>99</v>
@@ -10880,7 +10948,7 @@
     </row>
     <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A65" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -10890,10 +10958,10 @@
       <c r="E65" s="51"/>
       <c r="F65" s="51"/>
       <c r="G65" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="73" t="s">
         <v>177</v>
-      </c>
-      <c r="H65" s="73" t="s">
-        <v>178</v>
       </c>
       <c r="I65" s="128" t="s">
         <v>99</v>
@@ -10924,7 +10992,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="211"/>
       <c r="V65" s="74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W65" s="74"/>
       <c r="X65" s="74" t="s">
@@ -10932,7 +11000,7 @@
       </c>
       <c r="Y65" s="250"/>
       <c r="Z65" s="343" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA65" s="74" t="s">
         <v>109</v>
@@ -10971,7 +11039,7 @@
     </row>
     <row r="66" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A66" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -10981,10 +11049,10 @@
       <c r="E66" s="51"/>
       <c r="F66" s="51"/>
       <c r="G66" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" s="78" t="s">
         <v>182</v>
-      </c>
-      <c r="H66" s="78" t="s">
-        <v>183</v>
       </c>
       <c r="I66" s="128" t="s">
         <v>99</v>
@@ -11021,8 +11089,8 @@
       <c r="Y66" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="Z66" s="249" t="s">
-        <v>184</v>
+      <c r="Z66" s="403" t="s">
+        <v>307</v>
       </c>
       <c r="AA66" s="74" t="s">
         <v>109</v>
@@ -11063,7 +11131,7 @@
     </row>
     <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A67" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
@@ -11073,10 +11141,10 @@
       <c r="E67" s="51"/>
       <c r="F67" s="51"/>
       <c r="G67" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="H67" s="73" t="s">
         <v>186</v>
-      </c>
-      <c r="H67" s="73" t="s">
-        <v>187</v>
       </c>
       <c r="I67" s="128" t="s">
         <v>99</v>
@@ -11154,7 +11222,7 @@
     </row>
     <row r="68" spans="1:45" s="31" customFormat="1" ht="14.45" customHeight="1">
       <c r="A68" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
@@ -11164,10 +11232,10 @@
       <c r="E68" s="51"/>
       <c r="F68" s="51"/>
       <c r="G68" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="H68" s="78" t="s">
         <v>189</v>
-      </c>
-      <c r="H68" s="78" t="s">
-        <v>190</v>
       </c>
       <c r="I68" s="128" t="s">
         <v>99</v>
@@ -11205,7 +11273,7 @@
         <v>90</v>
       </c>
       <c r="Z68" s="249" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA68" s="74" t="s">
         <v>109</v>
@@ -11246,7 +11314,7 @@
     </row>
     <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A69" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="54"/>
@@ -11256,10 +11324,10 @@
       <c r="E69" s="128"/>
       <c r="F69" s="115"/>
       <c r="G69" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69" s="117" t="s">
         <v>192</v>
-      </c>
-      <c r="H69" s="117" t="s">
-        <v>193</v>
       </c>
       <c r="I69" s="128" t="s">
         <v>99</v>
@@ -11355,7 +11423,7 @@
     </row>
     <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5">
       <c r="A70" s="277" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" s="277"/>
       <c r="C70" s="278"/>
@@ -11365,10 +11433,10 @@
       <c r="E70" s="280"/>
       <c r="F70" s="281"/>
       <c r="G70" s="282" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" s="283" t="s">
         <v>192</v>
-      </c>
-      <c r="H70" s="283" t="s">
-        <v>193</v>
       </c>
       <c r="I70" s="280" t="s">
         <v>99</v>
@@ -11411,7 +11479,7 @@
         <v>43888</v>
       </c>
       <c r="V70" s="327" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W70" s="106" t="s">
         <v>127</v>
@@ -11458,7 +11526,7 @@
     </row>
     <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A71" s="277" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B71" s="277"/>
       <c r="C71" s="278"/>
@@ -11468,10 +11536,10 @@
       <c r="E71" s="280"/>
       <c r="F71" s="281"/>
       <c r="G71" s="282" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="283" t="s">
         <v>192</v>
-      </c>
-      <c r="H71" s="283" t="s">
-        <v>193</v>
       </c>
       <c r="I71" s="280" t="s">
         <v>99</v>
@@ -11561,7 +11629,7 @@
     </row>
     <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A72" s="277" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B72" s="277"/>
       <c r="C72" s="278"/>
@@ -11571,10 +11639,10 @@
       <c r="E72" s="280"/>
       <c r="F72" s="281"/>
       <c r="G72" s="282" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72" s="283" t="s">
         <v>192</v>
-      </c>
-      <c r="H72" s="283" t="s">
-        <v>193</v>
       </c>
       <c r="I72" s="280" t="s">
         <v>99</v>
@@ -11658,7 +11726,7 @@
     </row>
     <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A73" s="277" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="277"/>
       <c r="C73" s="278"/>
@@ -11668,10 +11736,10 @@
       <c r="E73" s="280"/>
       <c r="F73" s="281"/>
       <c r="G73" s="282" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73" s="283" t="s">
         <v>192</v>
-      </c>
-      <c r="H73" s="283" t="s">
-        <v>193</v>
       </c>
       <c r="I73" s="280" t="s">
         <v>99</v>
@@ -11753,7 +11821,7 @@
     </row>
     <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A74" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
@@ -11763,10 +11831,10 @@
       <c r="E74" s="51"/>
       <c r="F74" s="51"/>
       <c r="G74" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="H74" s="73" t="s">
         <v>196</v>
-      </c>
-      <c r="H74" s="73" t="s">
-        <v>197</v>
       </c>
       <c r="I74" s="128" t="s">
         <v>99</v>
@@ -11811,7 +11879,7 @@
         <v>43885</v>
       </c>
       <c r="V74" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W74" s="74" t="s">
         <v>107</v>
@@ -11862,7 +11930,7 @@
     </row>
     <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A75" s="277" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
@@ -11872,10 +11940,10 @@
       <c r="E75" s="51"/>
       <c r="F75" s="51"/>
       <c r="G75" s="278" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75" s="283" t="s">
         <v>196</v>
-      </c>
-      <c r="H75" s="283" t="s">
-        <v>197</v>
       </c>
       <c r="I75" s="280" t="s">
         <v>99</v>
@@ -11918,7 +11986,7 @@
         <v>43893</v>
       </c>
       <c r="V75" s="329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W75" s="181" t="s">
         <v>107</v>
@@ -11965,7 +12033,7 @@
     </row>
     <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A76" s="277" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
@@ -11975,10 +12043,10 @@
       <c r="E76" s="51"/>
       <c r="F76" s="51"/>
       <c r="G76" s="278" t="s">
+        <v>195</v>
+      </c>
+      <c r="H76" s="283" t="s">
         <v>196</v>
-      </c>
-      <c r="H76" s="283" t="s">
-        <v>197</v>
       </c>
       <c r="I76" s="280" t="s">
         <v>99</v>
@@ -12021,7 +12089,7 @@
         <v>43895</v>
       </c>
       <c r="V76" s="329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W76" s="181" t="s">
         <v>107</v>
@@ -12068,7 +12136,7 @@
     </row>
     <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A77" s="277" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
@@ -12078,10 +12146,10 @@
       <c r="E77" s="51"/>
       <c r="F77" s="51"/>
       <c r="G77" s="278" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" s="283" t="s">
         <v>196</v>
-      </c>
-      <c r="H77" s="283" t="s">
-        <v>197</v>
       </c>
       <c r="I77" s="280" t="s">
         <v>99</v>
@@ -12124,7 +12192,7 @@
         <v>43896</v>
       </c>
       <c r="V77" s="329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W77" s="181" t="s">
         <v>107</v>
@@ -12171,7 +12239,7 @@
     </row>
     <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A78" s="277" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
@@ -12181,10 +12249,10 @@
       <c r="E78" s="51"/>
       <c r="F78" s="51"/>
       <c r="G78" s="278" t="s">
+        <v>195</v>
+      </c>
+      <c r="H78" s="283" t="s">
         <v>196</v>
-      </c>
-      <c r="H78" s="283" t="s">
-        <v>197</v>
       </c>
       <c r="I78" s="280" t="s">
         <v>99</v>
@@ -12227,7 +12295,7 @@
         <v>43899</v>
       </c>
       <c r="V78" s="329" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W78" s="181" t="s">
         <v>107</v>
@@ -12274,7 +12342,7 @@
     </row>
     <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A79" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
@@ -12284,10 +12352,10 @@
       <c r="E79" s="51"/>
       <c r="F79" s="51"/>
       <c r="G79" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="H79" s="78" t="s">
         <v>200</v>
-      </c>
-      <c r="H79" s="78" t="s">
-        <v>201</v>
       </c>
       <c r="I79" s="151" t="s">
         <v>99</v>
@@ -12367,7 +12435,7 @@
     </row>
     <row r="80" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A80" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -12377,10 +12445,10 @@
       <c r="E80" s="51"/>
       <c r="F80" s="51"/>
       <c r="G80" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="H80" s="78" t="s">
         <v>203</v>
-      </c>
-      <c r="H80" s="78" t="s">
-        <v>204</v>
       </c>
       <c r="I80" s="128" t="s">
         <v>99</v>
@@ -12419,7 +12487,7 @@
         <v>90</v>
       </c>
       <c r="Z80" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA80" s="74"/>
       <c r="AB80" s="74"/>
@@ -12458,7 +12526,7 @@
     </row>
     <row r="81" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A81" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -12468,10 +12536,10 @@
       <c r="E81" s="51"/>
       <c r="F81" s="51"/>
       <c r="G81" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" s="73" t="s">
         <v>207</v>
-      </c>
-      <c r="H81" s="73" t="s">
-        <v>208</v>
       </c>
       <c r="I81" s="128" t="s">
         <v>99</v>
@@ -12497,7 +12565,7 @@
       <c r="O81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="395" t="s">
+      <c r="P81" s="378" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="164" t="s">
@@ -12564,7 +12632,7 @@
     </row>
     <row r="82" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A82" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
@@ -12574,10 +12642,10 @@
       <c r="E82" s="51"/>
       <c r="F82" s="51"/>
       <c r="G82" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="H82" s="286" t="s">
         <v>207</v>
-      </c>
-      <c r="H82" s="286" t="s">
-        <v>208</v>
       </c>
       <c r="I82" s="297" t="s">
         <v>99</v>
@@ -12603,7 +12671,7 @@
       <c r="O82" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="396"/>
+      <c r="P82" s="379"/>
       <c r="Q82" s="169" t="s">
         <v>100</v>
       </c>
@@ -12664,7 +12732,7 @@
     </row>
     <row r="83" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A83" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -12674,10 +12742,10 @@
       <c r="E83" s="51"/>
       <c r="F83" s="51"/>
       <c r="G83" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="286" t="s">
         <v>207</v>
-      </c>
-      <c r="H83" s="286" t="s">
-        <v>208</v>
       </c>
       <c r="I83" s="297" t="s">
         <v>99</v>
@@ -12703,7 +12771,7 @@
       <c r="O83" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="396"/>
+      <c r="P83" s="379"/>
       <c r="Q83" s="169" t="s">
         <v>102</v>
       </c>
@@ -12764,7 +12832,7 @@
     </row>
     <row r="84" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A84" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
@@ -12774,10 +12842,10 @@
       <c r="E84" s="51"/>
       <c r="F84" s="51"/>
       <c r="G84" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" s="286" t="s">
         <v>207</v>
-      </c>
-      <c r="H84" s="286" t="s">
-        <v>208</v>
       </c>
       <c r="I84" s="297" t="s">
         <v>99</v>
@@ -12803,7 +12871,7 @@
       <c r="O84" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="396"/>
+      <c r="P84" s="379"/>
       <c r="Q84" s="169" t="s">
         <v>13</v>
       </c>
@@ -12864,7 +12932,7 @@
     </row>
     <row r="85" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A85" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -12874,10 +12942,10 @@
       <c r="E85" s="51"/>
       <c r="F85" s="51"/>
       <c r="G85" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="H85" s="286" t="s">
         <v>207</v>
-      </c>
-      <c r="H85" s="286" t="s">
-        <v>208</v>
       </c>
       <c r="I85" s="297" t="s">
         <v>99</v>
@@ -12903,7 +12971,7 @@
       <c r="O85" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="397"/>
+      <c r="P85" s="380"/>
       <c r="Q85" s="169" t="s">
         <v>16</v>
       </c>
@@ -12965,13 +13033,13 @@
     </row>
     <row r="86" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A86" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D86" s="51" t="s">
         <v>36</v>
@@ -12979,10 +13047,10 @@
       <c r="E86" s="51"/>
       <c r="F86" s="51"/>
       <c r="G86" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" s="78" t="s">
         <v>210</v>
-      </c>
-      <c r="H86" s="78" t="s">
-        <v>211</v>
       </c>
       <c r="I86" s="128" t="s">
         <v>99</v>
@@ -13008,7 +13076,7 @@
       <c r="O86" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="396" t="s">
+      <c r="P86" s="379" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="164" t="s">
@@ -13075,13 +13143,13 @@
     </row>
     <row r="87" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A87" s="284" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D87" s="284" t="s">
         <v>36</v>
@@ -13089,10 +13157,10 @@
       <c r="E87" s="51"/>
       <c r="F87" s="51"/>
       <c r="G87" s="285" t="s">
+        <v>209</v>
+      </c>
+      <c r="H87" s="286" t="s">
         <v>210</v>
-      </c>
-      <c r="H87" s="286" t="s">
-        <v>211</v>
       </c>
       <c r="I87" s="297" t="s">
         <v>99</v>
@@ -13118,7 +13186,7 @@
       <c r="O87" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="396"/>
+      <c r="P87" s="379"/>
       <c r="Q87" s="169" t="s">
         <v>100</v>
       </c>
@@ -13179,13 +13247,13 @@
     </row>
     <row r="88" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A88" s="284" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D88" s="284" t="s">
         <v>36</v>
@@ -13193,10 +13261,10 @@
       <c r="E88" s="51"/>
       <c r="F88" s="51"/>
       <c r="G88" s="285" t="s">
+        <v>209</v>
+      </c>
+      <c r="H88" s="286" t="s">
         <v>210</v>
-      </c>
-      <c r="H88" s="286" t="s">
-        <v>211</v>
       </c>
       <c r="I88" s="297" t="s">
         <v>99</v>
@@ -13222,7 +13290,7 @@
       <c r="O88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="396"/>
+      <c r="P88" s="379"/>
       <c r="Q88" s="169" t="s">
         <v>102</v>
       </c>
@@ -13283,13 +13351,13 @@
     </row>
     <row r="89" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A89" s="284" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" s="284" t="s">
         <v>36</v>
@@ -13297,10 +13365,10 @@
       <c r="E89" s="51"/>
       <c r="F89" s="51"/>
       <c r="G89" s="285" t="s">
+        <v>209</v>
+      </c>
+      <c r="H89" s="286" t="s">
         <v>210</v>
-      </c>
-      <c r="H89" s="286" t="s">
-        <v>211</v>
       </c>
       <c r="I89" s="297" t="s">
         <v>99</v>
@@ -13326,7 +13394,7 @@
       <c r="O89" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="396"/>
+      <c r="P89" s="379"/>
       <c r="Q89" s="169" t="s">
         <v>13</v>
       </c>
@@ -13387,7 +13455,7 @@
     </row>
     <row r="90" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A90" s="284" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
@@ -13397,10 +13465,10 @@
       <c r="E90" s="51"/>
       <c r="F90" s="51"/>
       <c r="G90" s="285" t="s">
+        <v>209</v>
+      </c>
+      <c r="H90" s="286" t="s">
         <v>210</v>
-      </c>
-      <c r="H90" s="286" t="s">
-        <v>211</v>
       </c>
       <c r="I90" s="297" t="s">
         <v>99</v>
@@ -13426,7 +13494,7 @@
       <c r="O90" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="397"/>
+      <c r="P90" s="380"/>
       <c r="Q90" s="169" t="s">
         <v>16</v>
       </c>
@@ -13535,7 +13603,7 @@
     </row>
     <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
       <c r="A92" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -13545,10 +13613,10 @@
       <c r="E92" s="51"/>
       <c r="F92" s="51"/>
       <c r="G92" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="H92" s="72" t="s">
         <v>213</v>
-      </c>
-      <c r="H92" s="72" t="s">
-        <v>214</v>
       </c>
       <c r="I92" s="128" t="s">
         <v>99</v>
@@ -13575,7 +13643,7 @@
         <v>105</v>
       </c>
       <c r="P92" s="381" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q92" s="164" t="s">
         <v>5</v>
@@ -13593,7 +13661,7 @@
         <v>43903</v>
       </c>
       <c r="V92" s="332" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W92" s="135" t="s">
         <v>122</v>
@@ -13642,9 +13710,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
+    <row r="93" spans="1:45" s="31" customFormat="1" ht="80.25">
       <c r="A93" s="284" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
@@ -13654,10 +13722,10 @@
       <c r="E93" s="51"/>
       <c r="F93" s="51"/>
       <c r="G93" s="285" t="s">
+        <v>212</v>
+      </c>
+      <c r="H93" s="286" t="s">
         <v>213</v>
-      </c>
-      <c r="H93" s="286" t="s">
-        <v>214</v>
       </c>
       <c r="I93" s="297" t="s">
         <v>99</v>
@@ -13697,7 +13765,7 @@
         <v>43906</v>
       </c>
       <c r="U93" s="211"/>
-      <c r="V93" s="401" t="s">
+      <c r="V93" s="402" t="s">
         <v>306</v>
       </c>
       <c r="W93" s="136" t="s">
@@ -13728,7 +13796,7 @@
     </row>
     <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A94" s="284" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
@@ -13738,10 +13806,10 @@
       <c r="E94" s="51"/>
       <c r="F94" s="51"/>
       <c r="G94" s="285" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94" s="286" t="s">
         <v>213</v>
-      </c>
-      <c r="H94" s="286" t="s">
-        <v>214</v>
       </c>
       <c r="I94" s="297" t="s">
         <v>99</v>
@@ -13779,7 +13847,9 @@
       </c>
       <c r="T94" s="4"/>
       <c r="U94" s="211"/>
-      <c r="V94" s="127"/>
+      <c r="V94" s="401" t="s">
+        <v>305</v>
+      </c>
       <c r="W94" s="136" t="s">
         <v>122</v>
       </c>
@@ -13808,7 +13878,7 @@
     </row>
     <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A95" s="284" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -13818,10 +13888,10 @@
       <c r="E95" s="51"/>
       <c r="F95" s="51"/>
       <c r="G95" s="285" t="s">
+        <v>212</v>
+      </c>
+      <c r="H95" s="286" t="s">
         <v>213</v>
-      </c>
-      <c r="H95" s="286" t="s">
-        <v>214</v>
       </c>
       <c r="I95" s="297" t="s">
         <v>99</v>
@@ -13859,7 +13929,9 @@
       </c>
       <c r="T95" s="4"/>
       <c r="U95" s="211"/>
-      <c r="V95" s="127"/>
+      <c r="V95" s="401" t="s">
+        <v>305</v>
+      </c>
       <c r="W95" s="136" t="s">
         <v>122</v>
       </c>
@@ -13888,7 +13960,7 @@
     </row>
     <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="284" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -13898,10 +13970,10 @@
       <c r="E96" s="51"/>
       <c r="F96" s="51"/>
       <c r="G96" s="285" t="s">
+        <v>212</v>
+      </c>
+      <c r="H96" s="286" t="s">
         <v>213</v>
-      </c>
-      <c r="H96" s="286" t="s">
-        <v>214</v>
       </c>
       <c r="I96" s="297" t="s">
         <v>99</v>
@@ -13939,7 +14011,9 @@
       </c>
       <c r="T96" s="4"/>
       <c r="U96" s="211"/>
-      <c r="V96" s="127"/>
+      <c r="V96" s="401" t="s">
+        <v>305</v>
+      </c>
       <c r="W96" s="136" t="s">
         <v>122</v>
       </c>
@@ -13968,7 +14042,7 @@
     </row>
     <row r="97" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A97" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
@@ -13978,10 +14052,10 @@
       <c r="E97" s="51"/>
       <c r="F97" s="51"/>
       <c r="G97" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="H97" s="72" t="s">
         <v>217</v>
-      </c>
-      <c r="H97" s="72" t="s">
-        <v>218</v>
       </c>
       <c r="I97" s="114" t="s">
         <v>87</v>
@@ -14014,7 +14088,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="211"/>
       <c r="V97" s="333" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W97" s="127"/>
       <c r="X97" s="74" t="s">
@@ -14024,7 +14098,7 @@
         <v>90</v>
       </c>
       <c r="Z97" s="180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA97" s="74"/>
       <c r="AB97" s="127"/>
@@ -14063,7 +14137,7 @@
     </row>
     <row r="98" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A98" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
@@ -14073,10 +14147,10 @@
       <c r="E98" s="51"/>
       <c r="F98" s="51"/>
       <c r="G98" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="H98" s="72" t="s">
         <v>221</v>
-      </c>
-      <c r="H98" s="72" t="s">
-        <v>222</v>
       </c>
       <c r="I98" s="114" t="s">
         <v>87</v>
@@ -14107,7 +14181,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="211"/>
       <c r="V98" s="333" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W98" s="127"/>
       <c r="X98" s="74" t="s">
@@ -14117,7 +14191,7 @@
         <v>90</v>
       </c>
       <c r="Z98" s="180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA98" s="74"/>
       <c r="AB98" s="127"/>
@@ -14156,7 +14230,7 @@
     </row>
     <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -14166,10 +14240,10 @@
       <c r="E99" s="42"/>
       <c r="F99" s="42"/>
       <c r="G99" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="H99" s="67" t="s">
         <v>224</v>
-      </c>
-      <c r="H99" s="67" t="s">
-        <v>225</v>
       </c>
       <c r="I99" s="305" t="s">
         <v>87</v>
@@ -14193,9 +14267,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O99" s="144" t="s">
-        <v>226</v>
-      </c>
-      <c r="P99" s="398" t="s">
+        <v>225</v>
+      </c>
+      <c r="P99" s="384" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="164" t="s">
@@ -14217,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="W99" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X99" s="74" t="s">
         <v>151</v>
@@ -14262,7 +14336,7 @@
     </row>
     <row r="100" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
       <c r="A100" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -14272,10 +14346,10 @@
       <c r="E100" s="45"/>
       <c r="F100" s="45"/>
       <c r="G100" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="H100" s="68" t="s">
         <v>224</v>
-      </c>
-      <c r="H100" s="68" t="s">
-        <v>225</v>
       </c>
       <c r="I100" s="306" t="s">
         <v>87</v>
@@ -14299,9 +14373,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O100" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="P100" s="399"/>
+        <v>225</v>
+      </c>
+      <c r="P100" s="385"/>
       <c r="Q100" s="169" t="s">
         <v>100</v>
       </c>
@@ -14321,7 +14395,7 @@
         <v>1</v>
       </c>
       <c r="W100" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X100" s="106"/>
       <c r="Y100" s="222"/>
@@ -14362,7 +14436,7 @@
     </row>
     <row r="101" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -14372,10 +14446,10 @@
       <c r="E101" s="45"/>
       <c r="F101" s="45"/>
       <c r="G101" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="H101" s="68" t="s">
         <v>224</v>
-      </c>
-      <c r="H101" s="68" t="s">
-        <v>225</v>
       </c>
       <c r="I101" s="306" t="s">
         <v>87</v>
@@ -14399,9 +14473,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O101" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="P101" s="399"/>
+        <v>225</v>
+      </c>
+      <c r="P101" s="385"/>
       <c r="Q101" s="169" t="s">
         <v>102</v>
       </c>
@@ -14421,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="W101" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X101" s="106"/>
       <c r="Y101" s="222"/>
@@ -14462,7 +14536,7 @@
     </row>
     <row r="102" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A102" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -14472,10 +14546,10 @@
       <c r="E102" s="45"/>
       <c r="F102" s="45"/>
       <c r="G102" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="68" t="s">
         <v>224</v>
-      </c>
-      <c r="H102" s="68" t="s">
-        <v>225</v>
       </c>
       <c r="I102" s="306" t="s">
         <v>87</v>
@@ -14499,9 +14573,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O102" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="P102" s="399"/>
+        <v>225</v>
+      </c>
+      <c r="P102" s="385"/>
       <c r="Q102" s="169" t="s">
         <v>13</v>
       </c>
@@ -14517,7 +14591,7 @@
       <c r="U102" s="334"/>
       <c r="V102" s="335"/>
       <c r="W102" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X102" s="106"/>
       <c r="Y102" s="222"/>
@@ -14558,7 +14632,7 @@
     </row>
     <row r="103" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A103" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="48"/>
@@ -14568,10 +14642,10 @@
       <c r="E103" s="48"/>
       <c r="F103" s="48"/>
       <c r="G103" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="H103" s="71" t="s">
         <v>224</v>
-      </c>
-      <c r="H103" s="71" t="s">
-        <v>225</v>
       </c>
       <c r="I103" s="307" t="s">
         <v>87</v>
@@ -14595,9 +14669,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O103" s="147" t="s">
-        <v>226</v>
-      </c>
-      <c r="P103" s="400"/>
+        <v>225</v>
+      </c>
+      <c r="P103" s="386"/>
       <c r="Q103" s="177" t="s">
         <v>16</v>
       </c>
@@ -14607,7 +14681,7 @@
       <c r="U103" s="162"/>
       <c r="V103" s="336"/>
       <c r="W103" s="106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X103" s="113"/>
       <c r="Y103" s="224"/>
@@ -14648,7 +14722,7 @@
     </row>
     <row r="104" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A104" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
@@ -14658,7 +14732,7 @@
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
       <c r="G104" s="288" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H104" s="289"/>
       <c r="I104" s="305"/>
@@ -14668,7 +14742,7 @@
       <c r="M104" s="97"/>
       <c r="N104" s="98"/>
       <c r="O104" s="99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P104" s="381" t="s">
         <v>28</v>
@@ -14689,7 +14763,7 @@
         <v>43826</v>
       </c>
       <c r="V104" s="337" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W104" s="99" t="s">
         <v>107</v>
@@ -14723,7 +14797,7 @@
     </row>
     <row r="105" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A105" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="66"/>
       <c r="C105" s="66"/>
@@ -14733,7 +14807,7 @@
       <c r="E105" s="66"/>
       <c r="F105" s="66"/>
       <c r="G105" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H105" s="68"/>
       <c r="I105" s="308"/>
@@ -14743,7 +14817,7 @@
       <c r="M105" s="312"/>
       <c r="N105" s="313"/>
       <c r="O105" s="148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P105" s="382"/>
       <c r="Q105" s="169" t="s">
@@ -14762,7 +14836,7 @@
         <v>43880</v>
       </c>
       <c r="V105" s="338" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W105" s="106" t="s">
         <v>107</v>
@@ -14796,7 +14870,7 @@
     </row>
     <row r="106" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B106" s="66"/>
       <c r="C106" s="66"/>
@@ -14806,7 +14880,7 @@
       <c r="E106" s="66"/>
       <c r="F106" s="66"/>
       <c r="G106" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H106" s="68"/>
       <c r="I106" s="308"/>
@@ -14816,7 +14890,7 @@
       <c r="M106" s="312"/>
       <c r="N106" s="313"/>
       <c r="O106" s="148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P106" s="382"/>
       <c r="Q106" s="169" t="s">
@@ -14835,7 +14909,7 @@
         <v>43882</v>
       </c>
       <c r="V106" s="339" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W106" s="106" t="s">
         <v>107</v>
@@ -14869,7 +14943,7 @@
     </row>
     <row r="107" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B107" s="66"/>
       <c r="C107" s="66"/>
@@ -14879,7 +14953,7 @@
       <c r="E107" s="66"/>
       <c r="F107" s="66"/>
       <c r="G107" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H107" s="68"/>
       <c r="I107" s="308"/>
@@ -14889,7 +14963,7 @@
       <c r="M107" s="312"/>
       <c r="N107" s="313"/>
       <c r="O107" s="148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P107" s="382"/>
       <c r="Q107" s="169" t="s">
@@ -14908,7 +14982,7 @@
         <v>43882</v>
       </c>
       <c r="V107" s="339" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W107" s="106" t="s">
         <v>107</v>
@@ -14942,7 +15016,7 @@
     </row>
     <row r="108" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A108" s="290" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B108" s="290"/>
       <c r="C108" s="290"/>
@@ -14952,7 +15026,7 @@
       <c r="E108" s="290"/>
       <c r="F108" s="290"/>
       <c r="G108" s="64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H108" s="69"/>
       <c r="I108" s="314"/>
@@ -14962,7 +15036,7 @@
       <c r="M108" s="318"/>
       <c r="N108" s="319"/>
       <c r="O108" s="150" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P108" s="383"/>
       <c r="Q108" s="182" t="s">
@@ -14981,7 +15055,7 @@
         <v>43885</v>
       </c>
       <c r="V108" s="339" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W108" s="149" t="s">
         <v>107</v>
@@ -15015,7 +15089,7 @@
     </row>
     <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A109" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B109" s="42"/>
       <c r="C109" s="42"/>
@@ -15025,7 +15099,7 @@
       <c r="E109" s="42"/>
       <c r="F109" s="42"/>
       <c r="G109" s="291" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H109" s="67"/>
       <c r="I109" s="305"/>
@@ -15035,7 +15109,7 @@
       <c r="M109" s="97"/>
       <c r="N109" s="98"/>
       <c r="O109" s="99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P109" s="381" t="s">
         <v>28</v>
@@ -15090,7 +15164,7 @@
     </row>
     <row r="110" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A110" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -15100,7 +15174,7 @@
       <c r="E110" s="45"/>
       <c r="F110" s="45"/>
       <c r="G110" s="292" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H110" s="68"/>
       <c r="I110" s="306"/>
@@ -15110,7 +15184,7 @@
       <c r="M110" s="104"/>
       <c r="N110" s="105"/>
       <c r="O110" s="106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P110" s="382"/>
       <c r="Q110" s="169" t="s">
@@ -15163,7 +15237,7 @@
     </row>
     <row r="111" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A111" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -15173,7 +15247,7 @@
       <c r="E111" s="45"/>
       <c r="F111" s="45"/>
       <c r="G111" s="292" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H111" s="68"/>
       <c r="I111" s="306"/>
@@ -15183,7 +15257,7 @@
       <c r="M111" s="104"/>
       <c r="N111" s="105"/>
       <c r="O111" s="106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P111" s="382"/>
       <c r="Q111" s="169" t="s">
@@ -15236,7 +15310,7 @@
     </row>
     <row r="112" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A112" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -15246,7 +15320,7 @@
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="292" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H112" s="68"/>
       <c r="I112" s="306"/>
@@ -15256,7 +15330,7 @@
       <c r="M112" s="104"/>
       <c r="N112" s="105"/>
       <c r="O112" s="106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P112" s="382"/>
       <c r="Q112" s="169" t="s">
@@ -15309,7 +15383,7 @@
     </row>
     <row r="113" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A113" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B113" s="63"/>
       <c r="C113" s="63"/>
@@ -15319,7 +15393,7 @@
       <c r="E113" s="63"/>
       <c r="F113" s="63"/>
       <c r="G113" s="293" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H113" s="69"/>
       <c r="I113" s="320"/>
@@ -15329,7 +15403,7 @@
       <c r="M113" s="141"/>
       <c r="N113" s="142"/>
       <c r="O113" s="149" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P113" s="383"/>
       <c r="Q113" s="182" t="s">
@@ -15382,7 +15456,7 @@
     </row>
     <row r="114" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A114" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B114" s="42"/>
       <c r="C114" s="42"/>
@@ -15392,7 +15466,7 @@
       <c r="E114" s="42"/>
       <c r="F114" s="42"/>
       <c r="G114" s="291" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H114" s="67"/>
       <c r="I114" s="305"/>
@@ -15455,7 +15529,7 @@
     </row>
     <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A115" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -15465,7 +15539,7 @@
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="292" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H115" s="68"/>
       <c r="I115" s="306"/>
@@ -15526,7 +15600,7 @@
     </row>
     <row r="116" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A116" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -15536,7 +15610,7 @@
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="292" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H116" s="68"/>
       <c r="I116" s="306"/>
@@ -15597,7 +15671,7 @@
     </row>
     <row r="117" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A117" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -15607,7 +15681,7 @@
       <c r="E117" s="45"/>
       <c r="F117" s="45"/>
       <c r="G117" s="292" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H117" s="68"/>
       <c r="I117" s="306"/>
@@ -15668,7 +15742,7 @@
     </row>
     <row r="118" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A118" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B118" s="63"/>
       <c r="C118" s="63"/>
@@ -15678,7 +15752,7 @@
       <c r="E118" s="63"/>
       <c r="F118" s="63"/>
       <c r="G118" s="293" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H118" s="69"/>
       <c r="I118" s="320"/>
@@ -15739,7 +15813,7 @@
     </row>
     <row r="119" spans="1:45" ht="16.5">
       <c r="A119" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B119" s="51"/>
       <c r="C119" s="51"/>
@@ -15749,10 +15823,10 @@
       <c r="E119" s="51"/>
       <c r="F119" s="51"/>
       <c r="G119" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="H119" s="51" t="s">
         <v>236</v>
-      </c>
-      <c r="H119" s="51" t="s">
-        <v>237</v>
       </c>
       <c r="I119" s="128" t="s">
         <v>99</v>
@@ -15775,7 +15849,7 @@
       <c r="O119" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="395" t="s">
+      <c r="P119" s="378" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="164" t="s">
@@ -15839,16 +15913,16 @@
     </row>
     <row r="120" spans="1:45" ht="16.5">
       <c r="A120" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D120" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G120" s="294" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H120" s="294" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I120" s="321" t="s">
         <v>99</v>
@@ -15871,7 +15945,7 @@
       <c r="O120" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="396"/>
+      <c r="P120" s="379"/>
       <c r="Q120" s="169" t="s">
         <v>100</v>
       </c>
@@ -15933,16 +16007,16 @@
     </row>
     <row r="121" spans="1:45" ht="16.5">
       <c r="A121" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D121" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G121" s="294" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H121" s="294" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I121" s="321" t="s">
         <v>99</v>
@@ -15965,7 +16039,7 @@
       <c r="O121" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="396"/>
+      <c r="P121" s="379"/>
       <c r="Q121" s="169" t="s">
         <v>102</v>
       </c>
@@ -16023,16 +16097,16 @@
     </row>
     <row r="122" spans="1:45" ht="16.5">
       <c r="A122" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D122" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G122" s="294" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H122" s="294" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I122" s="321" t="s">
         <v>99</v>
@@ -16055,7 +16129,7 @@
       <c r="O122" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="396"/>
+      <c r="P122" s="379"/>
       <c r="Q122" s="169" t="s">
         <v>13</v>
       </c>
@@ -16113,16 +16187,16 @@
     </row>
     <row r="123" spans="1:45" ht="16.5">
       <c r="A123" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D123" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G123" s="294" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H123" s="294" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I123" s="321" t="s">
         <v>99</v>
@@ -16145,7 +16219,7 @@
       <c r="O123" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="397"/>
+      <c r="P123" s="380"/>
       <c r="Q123" s="169" t="s">
         <v>16</v>
       </c>
@@ -16203,13 +16277,13 @@
     </row>
     <row r="124" spans="1:45" ht="15.75">
       <c r="A124" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="G124" s="51" t="s">
         <v>240</v>
-      </c>
-      <c r="G124" s="51" t="s">
-        <v>241</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="128" t="s">
@@ -16289,27 +16363,27 @@
   </sheetData>
   <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
     <mergeCell ref="P119:P123"/>
     <mergeCell ref="P92:P96"/>
     <mergeCell ref="P99:P103"/>
     <mergeCell ref="P104:P108"/>
     <mergeCell ref="P109:P113"/>
     <mergeCell ref="P114:P118"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <dataValidations count="1">
@@ -16373,7 +16447,7 @@
         <v>44</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" hidden="1">
@@ -16384,7 +16458,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16395,7 +16469,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1">
@@ -16406,7 +16480,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" hidden="1">
@@ -16417,7 +16491,7 @@
         <v>116</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16428,7 +16502,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16436,10 +16510,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16450,7 +16524,7 @@
         <v>131</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16461,7 +16535,7 @@
         <v>134</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16469,10 +16543,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16480,10 +16554,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3" hidden="1">
@@ -16491,10 +16565,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16502,10 +16576,10 @@
         <v>35</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1">
@@ -16513,10 +16587,10 @@
         <v>36</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" hidden="1">
@@ -16524,10 +16598,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" hidden="1">
@@ -16535,10 +16609,10 @@
         <v>36</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1">
@@ -16546,10 +16620,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1">
@@ -16557,10 +16631,10 @@
         <v>36</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3" hidden="1">
@@ -16568,10 +16642,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1">
@@ -16579,10 +16653,10 @@
         <v>37</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1">
@@ -16590,10 +16664,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1">
@@ -16601,10 +16675,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1">
@@ -16612,10 +16686,10 @@
         <v>36</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1">
@@ -16623,10 +16697,10 @@
         <v>37</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1">
@@ -16634,10 +16708,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -16645,10 +16719,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16656,10 +16730,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -16667,10 +16741,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -16712,28 +16786,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -16742,7 +16816,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>99</v>
@@ -16752,7 +16826,7 @@
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="26"/>
@@ -16763,7 +16837,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>99</v>
@@ -16773,7 +16847,7 @@
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="26"/>
@@ -16784,17 +16858,17 @@
         <v>134</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="26"/>
@@ -16805,7 +16879,7 @@
         <v>139</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>99</v>
@@ -16815,7 +16889,7 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="26"/>
@@ -16826,7 +16900,7 @@
         <v>143</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>99</v>
@@ -16836,7 +16910,7 @@
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="26"/>
@@ -16847,7 +16921,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>147</v>
@@ -16866,13 +16940,13 @@
         <v>150</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="13" t="s">
@@ -16883,13 +16957,13 @@
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>87</v>
@@ -16899,7 +16973,7 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="26"/>
@@ -16907,20 +16981,20 @@
     <row r="10" spans="1:9" ht="27">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="26"/>
@@ -16928,10 +17002,10 @@
     <row r="11" spans="1:9">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>99</v>
@@ -16941,7 +17015,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="26"/>
@@ -16949,20 +17023,20 @@
     <row r="12" spans="1:9">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="26"/>
@@ -16970,20 +17044,20 @@
     <row r="13" spans="1:9" ht="54">
       <c r="A13" s="11"/>
       <c r="B13" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="26"/>
@@ -16991,20 +17065,20 @@
     <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="26"/>
@@ -17012,10 +17086,10 @@
     <row r="15" spans="1:9">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>99</v>
@@ -17025,7 +17099,7 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="26"/>
@@ -17033,10 +17107,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="11"/>
       <c r="B16" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>99</v>
@@ -17046,7 +17120,7 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="26"/>
@@ -17054,10 +17128,10 @@
     <row r="17" spans="1:9">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>99</v>
@@ -17067,7 +17141,7 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="26"/>
@@ -17075,10 +17149,10 @@
     <row r="18" spans="1:9">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>99</v>
@@ -17088,7 +17162,7 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="26"/>
@@ -17096,10 +17170,10 @@
     <row r="19" spans="1:9">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>99</v>
@@ -17108,10 +17182,10 @@
         <v>36</v>
       </c>
       <c r="F19" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="26"/>
@@ -17119,10 +17193,10 @@
     <row r="20" spans="1:9" ht="27">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>99</v>
@@ -17132,30 +17206,30 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="26"/>
@@ -17163,10 +17237,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>99</v>
@@ -17176,7 +17250,7 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="26"/>
@@ -17184,10 +17258,10 @@
     <row r="23" spans="1:9">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>99</v>
@@ -17197,7 +17271,7 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="26"/>
@@ -17205,10 +17279,10 @@
     <row r="24" spans="1:9">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>99</v>
@@ -17218,7 +17292,7 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="26"/>
@@ -17226,20 +17300,20 @@
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="26"/>
@@ -17247,20 +17321,20 @@
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="26"/>
@@ -17268,20 +17342,20 @@
     <row r="27" spans="1:9">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="26"/>
@@ -17289,22 +17363,22 @@
     <row r="28" spans="1:9">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="26"/>
@@ -17312,10 +17386,10 @@
     <row r="29" spans="1:9">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>99</v>
@@ -17324,10 +17398,10 @@
         <v>36</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="26"/>
@@ -17335,10 +17409,10 @@
     <row r="30" spans="1:9">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>99</v>
@@ -17347,10 +17421,10 @@
         <v>36</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="26"/>
@@ -17358,10 +17432,10 @@
     <row r="31" spans="1:9">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>99</v>
@@ -17370,10 +17444,10 @@
         <v>36</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="26"/>
@@ -17381,22 +17455,22 @@
     <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>87</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="26"/>
@@ -17404,22 +17478,22 @@
     <row r="33" spans="1:9" ht="14.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="26"/>
@@ -17427,10 +17501,10 @@
     <row r="34" spans="1:9" ht="14.25">
       <c r="A34" s="11"/>
       <c r="B34" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>87</v>
@@ -17440,7 +17514,7 @@
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H34" s="13"/>
     </row>
@@ -17471,7 +17545,7 @@
     </row>
     <row r="38" spans="1:9" ht="33">
       <c r="B38" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -17507,16 +17581,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>60</v>
@@ -17533,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -17542,7 +17616,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>151</v>
@@ -17557,13 +17631,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>35</v>
@@ -17575,7 +17649,7 @@
         <v>128</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -17586,18 +17660,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17733,13 +17807,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208B1CF-740E-446D-9C52-4AD6F0D88B42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D864DDA-810B-40B9-807E-C90EF644254D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="308">
   <si>
     <t>ステータス</t>
   </si>
@@ -2464,7 +2464,7 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3706,6 +3706,66 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3715,15 +3775,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3733,56 +3784,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4439,11 +4442,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4627,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
       <c r="A2" s="37" t="s">
         <v>81</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="33">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="33" hidden="1">
       <c r="A3" s="42" t="s">
         <v>92</v>
       </c>
@@ -4766,7 +4770,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="395" t="s">
+      <c r="P3" s="381" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4822,7 +4826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="4" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A4" s="45" t="s">
         <v>92</v>
       </c>
@@ -4862,7 +4866,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="396"/>
+      <c r="P4" s="382"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="5" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A5" s="45" t="s">
         <v>92</v>
       </c>
@@ -4956,7 +4960,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="396"/>
+      <c r="P5" s="382"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5010,7 +5014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="6" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A6" s="45" t="s">
         <v>92</v>
       </c>
@@ -5050,7 +5054,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="396"/>
+      <c r="P6" s="382"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="7" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A7" s="48" t="s">
         <v>92</v>
       </c>
@@ -5144,7 +5148,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="397"/>
+      <c r="P7" s="383"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5238,8 +5242,8 @@
       <c r="O8" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="381" t="s">
-        <v>6</v>
+      <c r="P8" s="384" t="s">
+        <v>14</v>
       </c>
       <c r="Q8" s="164" t="s">
         <v>5</v>
@@ -5250,11 +5254,13 @@
       <c r="S8" s="170">
         <v>43915</v>
       </c>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="180" t="s">
-        <v>106</v>
-      </c>
+      <c r="T8" s="170">
+        <v>43908</v>
+      </c>
+      <c r="U8" s="170">
+        <v>43913</v>
+      </c>
+      <c r="V8" s="404"/>
       <c r="W8" s="74" t="s">
         <v>107</v>
       </c>
@@ -5341,7 +5347,7 @@
       <c r="O9" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="382"/>
+      <c r="P9" s="385"/>
       <c r="Q9" s="169" t="s">
         <v>100</v>
       </c>
@@ -5351,11 +5357,11 @@
       <c r="S9" s="170">
         <v>43944</v>
       </c>
-      <c r="T9" s="170"/>
+      <c r="T9" s="170">
+        <v>43914</v>
+      </c>
       <c r="U9" s="170"/>
-      <c r="V9" s="180" t="s">
-        <v>106</v>
-      </c>
+      <c r="V9" s="404"/>
       <c r="W9" s="181" t="s">
         <v>107</v>
       </c>
@@ -5440,7 +5446,7 @@
       <c r="O10" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="382"/>
+      <c r="P10" s="385"/>
       <c r="Q10" s="169" t="s">
         <v>102</v>
       </c>
@@ -5452,9 +5458,7 @@
       </c>
       <c r="T10" s="170"/>
       <c r="U10" s="170"/>
-      <c r="V10" s="180" t="s">
-        <v>106</v>
-      </c>
+      <c r="V10" s="404"/>
       <c r="W10" s="181" t="s">
         <v>107</v>
       </c>
@@ -5539,7 +5543,7 @@
       <c r="O11" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="382"/>
+      <c r="P11" s="385"/>
       <c r="Q11" s="169" t="s">
         <v>13</v>
       </c>
@@ -5551,9 +5555,7 @@
       </c>
       <c r="T11" s="170"/>
       <c r="U11" s="170"/>
-      <c r="V11" s="180" t="s">
-        <v>106</v>
-      </c>
+      <c r="V11" s="404"/>
       <c r="W11" s="181" t="s">
         <v>107</v>
       </c>
@@ -5640,7 +5642,7 @@
       <c r="O12" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="383"/>
+      <c r="P12" s="386"/>
       <c r="Q12" s="182" t="s">
         <v>16</v>
       </c>
@@ -5652,9 +5654,7 @@
       </c>
       <c r="T12" s="170"/>
       <c r="U12" s="170"/>
-      <c r="V12" s="180" t="s">
-        <v>106</v>
-      </c>
+      <c r="V12" s="404"/>
       <c r="W12" s="181" t="s">
         <v>107</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="31" customFormat="1">
+    <row r="13" spans="1:45" s="31" customFormat="1" hidden="1">
       <c r="A13" s="51" t="s">
         <v>111</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A14" s="51" t="s">
         <v>115</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="31" customFormat="1" ht="28.5">
+    <row r="15" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A15" s="60" t="s">
         <v>118</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="O15" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="398" t="s">
+      <c r="P15" s="387" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -5950,7 +5950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="16" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A16" s="45" t="s">
         <v>118</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="O16" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="399"/>
+      <c r="P16" s="388"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="17" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A17" s="45" t="s">
         <v>118</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="O17" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="399"/>
+      <c r="P17" s="388"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="18" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A18" s="45" t="s">
         <v>118</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="O18" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="399"/>
+      <c r="P18" s="388"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="19" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A19" s="63" t="s">
         <v>118</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="O19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="400"/>
+      <c r="P19" s="389"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
+    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>123</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="O20" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="387" t="s">
+      <c r="P20" s="390" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="164" t="s">
@@ -6425,7 +6425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A21" s="45" t="s">
         <v>123</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="O21" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="388"/>
+      <c r="P21" s="391"/>
       <c r="Q21" s="169" t="s">
         <v>100</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A22" s="45" t="s">
         <v>123</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="O22" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="388"/>
+      <c r="P22" s="391"/>
       <c r="Q22" s="169" t="s">
         <v>102</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A23" s="45" t="s">
         <v>123</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="O23" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="388"/>
+      <c r="P23" s="391"/>
       <c r="Q23" s="169" t="s">
         <v>13</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A24" s="63" t="s">
         <v>123</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="389"/>
+      <c r="P24" s="392"/>
       <c r="Q24" s="182" t="s">
         <v>16</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A25" s="42" t="s">
         <v>130</v>
       </c>
@@ -6892,7 +6892,7 @@
       <c r="O25" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="387" t="s">
+      <c r="P25" s="390" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="164" t="s">
@@ -6960,7 +6960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A26" s="45" t="s">
         <v>130</v>
       </c>
@@ -7001,7 +7001,7 @@
       <c r="O26" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="388"/>
+      <c r="P26" s="391"/>
       <c r="Q26" s="169" t="s">
         <v>100</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A27" s="45" t="s">
         <v>130</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="O27" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="388"/>
+      <c r="P27" s="391"/>
       <c r="Q27" s="169" t="s">
         <v>102</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A28" s="45" t="s">
         <v>130</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="O28" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="388"/>
+      <c r="P28" s="391"/>
       <c r="Q28" s="169" t="s">
         <v>13</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A29" s="63" t="s">
         <v>130</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="389"/>
+      <c r="P29" s="392"/>
       <c r="Q29" s="182" t="s">
         <v>16</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="30" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A30" s="60" t="s">
         <v>133</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="390" t="s">
+      <c r="P30" s="393" t="s">
         <v>25</v>
       </c>
       <c r="Q30" s="164" t="s">
@@ -7481,7 +7481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A31" s="45" t="s">
         <v>133</v>
       </c>
@@ -7522,7 +7522,7 @@
       <c r="O31" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="388"/>
+      <c r="P31" s="391"/>
       <c r="Q31" s="169" t="s">
         <v>100</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="100.5">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
       <c r="A32" s="45" t="s">
         <v>133</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="O32" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="388"/>
+      <c r="P32" s="391"/>
       <c r="Q32" s="169" t="s">
         <v>102</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A33" s="45" t="s">
         <v>133</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="O33" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="388"/>
+      <c r="P33" s="391"/>
       <c r="Q33" s="169" t="s">
         <v>13</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="34" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A34" s="48" t="s">
         <v>133</v>
       </c>
@@ -7833,7 +7833,7 @@
       <c r="O34" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="391"/>
+      <c r="P34" s="394"/>
       <c r="Q34" s="177" t="s">
         <v>16</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="35" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A35" s="42" t="s">
         <v>138</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="O35" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="392" t="s">
+      <c r="P35" s="395" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="164" t="s">
@@ -7998,7 +7998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A36" s="45" t="s">
         <v>138</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="O36" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="393"/>
+      <c r="P36" s="396"/>
       <c r="Q36" s="169" t="s">
         <v>100</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A37" s="45" t="s">
         <v>138</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="O37" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="393"/>
+      <c r="P37" s="396"/>
       <c r="Q37" s="169" t="s">
         <v>102</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A38" s="45" t="s">
         <v>138</v>
       </c>
@@ -8253,7 +8253,7 @@
       <c r="O38" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="393"/>
+      <c r="P38" s="396"/>
       <c r="Q38" s="169" t="s">
         <v>13</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="39" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A39" s="63" t="s">
         <v>138</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="O39" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="394"/>
+      <c r="P39" s="397"/>
       <c r="Q39" s="182" t="s">
         <v>16</v>
       </c>
@@ -8457,7 +8457,7 @@
       <c r="O40" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="392" t="s">
+      <c r="P40" s="395" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="164" t="s">
@@ -8572,7 +8572,7 @@
       <c r="O41" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="393"/>
+      <c r="P41" s="396"/>
       <c r="Q41" s="169" t="s">
         <v>100</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A42" s="45" t="s">
         <v>142</v>
       </c>
@@ -8680,7 +8680,7 @@
       <c r="O42" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="393"/>
+      <c r="P42" s="396"/>
       <c r="Q42" s="169" t="s">
         <v>102</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="O43" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="393"/>
+      <c r="P43" s="396"/>
       <c r="Q43" s="169" t="s">
         <v>13</v>
       </c>
@@ -8897,7 +8897,7 @@
       <c r="O44" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="394"/>
+      <c r="P44" s="397"/>
       <c r="Q44" s="182" t="s">
         <v>16</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A45" s="51" t="s">
         <v>145</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A46" s="51" t="s">
         <v>149</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>151</v>
       </c>
       <c r="Y46" s="248"/>
-      <c r="Z46" s="401" t="s">
+      <c r="Z46" s="378" t="s">
         <v>305</v>
       </c>
       <c r="AA46" s="74"/>
@@ -9135,7 +9135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" customHeight="1">
+    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>152</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="48" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A48" s="51" t="s">
         <v>156</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A49" s="51" t="s">
         <v>160</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="O49" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="381" t="s">
+      <c r="P49" s="384" t="s">
         <v>21</v>
       </c>
       <c r="Q49" s="164" t="s">
@@ -9417,7 +9417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75" hidden="1">
       <c r="A50" s="45" t="s">
         <v>160</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="O50" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="382"/>
+      <c r="P50" s="385"/>
       <c r="Q50" s="169" t="s">
         <v>100</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A51" s="45" t="s">
         <v>160</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="O51" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="382"/>
+      <c r="P51" s="385"/>
       <c r="Q51" s="169" t="s">
         <v>102</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>160</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="O52" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="382"/>
+      <c r="P52" s="385"/>
       <c r="Q52" s="169" t="s">
         <v>13</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A53" s="45" t="s">
         <v>160</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="383"/>
+      <c r="P53" s="386"/>
       <c r="Q53" s="182" t="s">
         <v>16</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A54" s="51" t="s">
         <v>164</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="74"/>
-      <c r="P54" s="381" t="s">
+      <c r="P54" s="384" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="164" t="s">
@@ -9916,7 +9916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A55" s="45" t="s">
         <v>164</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="106"/>
-      <c r="P55" s="382"/>
+      <c r="P55" s="385"/>
       <c r="Q55" s="169" t="s">
         <v>100</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A56" s="45" t="s">
         <v>164</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="106"/>
-      <c r="P56" s="382"/>
+      <c r="P56" s="385"/>
       <c r="Q56" s="169" t="s">
         <v>102</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A57" s="45" t="s">
         <v>164</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="106"/>
-      <c r="P57" s="382"/>
+      <c r="P57" s="385"/>
       <c r="Q57" s="169" t="s">
         <v>13</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A58" s="45" t="s">
         <v>164</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="106"/>
-      <c r="P58" s="383"/>
+      <c r="P58" s="386"/>
       <c r="Q58" s="169" t="s">
         <v>16</v>
       </c>
@@ -10339,7 +10339,7 @@
       <c r="O59" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P59" s="387" t="s">
+      <c r="P59" s="390" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="164" t="s">
@@ -10456,7 +10456,7 @@
       <c r="O60" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P60" s="388"/>
+      <c r="P60" s="391"/>
       <c r="Q60" s="169" t="s">
         <v>100</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="O61" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P61" s="388"/>
+      <c r="P61" s="391"/>
       <c r="Q61" s="169" t="s">
         <v>102</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="O62" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P62" s="388"/>
+      <c r="P62" s="391"/>
       <c r="Q62" s="169" t="s">
         <v>13</v>
       </c>
@@ -10783,7 +10783,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="389"/>
+      <c r="P63" s="392"/>
       <c r="Q63" s="182" t="s">
         <v>16</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A64" s="51" t="s">
         <v>172</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A65" s="51" t="s">
         <v>175</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="66" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A66" s="51" t="s">
         <v>180</v>
       </c>
@@ -11089,7 +11089,7 @@
       <c r="Y66" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="Z66" s="403" t="s">
+      <c r="Z66" s="380" t="s">
         <v>307</v>
       </c>
       <c r="AA66" s="74" t="s">
@@ -11129,7 +11129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A67" s="51" t="s">
         <v>184</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="31" customFormat="1" ht="14.45" customHeight="1">
+    <row r="68" spans="1:45" s="31" customFormat="1" ht="14.45" hidden="1" customHeight="1">
       <c r="A68" s="51" t="s">
         <v>187</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A69" s="51" t="s">
         <v>190</v>
       </c>
@@ -11353,7 +11353,7 @@
       <c r="O69" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="381" t="s">
+      <c r="P69" s="384" t="s">
         <v>21</v>
       </c>
       <c r="Q69" s="164" t="s">
@@ -11421,7 +11421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5">
+    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5" hidden="1">
       <c r="A70" s="277" t="s">
         <v>190</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="O70" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="382"/>
+      <c r="P70" s="385"/>
       <c r="Q70" s="169" t="s">
         <v>100</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A71" s="277" t="s">
         <v>190</v>
       </c>
@@ -11565,7 +11565,7 @@
       <c r="O71" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="382"/>
+      <c r="P71" s="385"/>
       <c r="Q71" s="169" t="s">
         <v>102</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A72" s="277" t="s">
         <v>190</v>
       </c>
@@ -11668,7 +11668,7 @@
       <c r="O72" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="382"/>
+      <c r="P72" s="385"/>
       <c r="Q72" s="169" t="s">
         <v>13</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A73" s="277" t="s">
         <v>190</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="O73" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="383"/>
+      <c r="P73" s="386"/>
       <c r="Q73" s="182" t="s">
         <v>16</v>
       </c>
@@ -11860,7 +11860,7 @@
       <c r="O74" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="381" t="s">
+      <c r="P74" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q74" s="164" t="s">
@@ -11969,7 +11969,7 @@
       <c r="O75" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="382"/>
+      <c r="P75" s="385"/>
       <c r="Q75" s="169" t="s">
         <v>100</v>
       </c>
@@ -12072,7 +12072,7 @@
       <c r="O76" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="382"/>
+      <c r="P76" s="385"/>
       <c r="Q76" s="169" t="s">
         <v>102</v>
       </c>
@@ -12175,7 +12175,7 @@
       <c r="O77" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="382"/>
+      <c r="P77" s="385"/>
       <c r="Q77" s="169" t="s">
         <v>13</v>
       </c>
@@ -12278,7 +12278,7 @@
       <c r="O78" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="383"/>
+      <c r="P78" s="386"/>
       <c r="Q78" s="182" t="s">
         <v>16</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A79" s="51" t="s">
         <v>198</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="80" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A80" s="51" t="s">
         <v>201</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A81" s="51" t="s">
         <v>205</v>
       </c>
@@ -12565,7 +12565,7 @@
       <c r="O81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="378" t="s">
+      <c r="P81" s="398" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="164" t="s">
@@ -12630,7 +12630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A82" s="284" t="s">
         <v>205</v>
       </c>
@@ -12671,7 +12671,7 @@
       <c r="O82" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="379"/>
+      <c r="P82" s="399"/>
       <c r="Q82" s="169" t="s">
         <v>100</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A83" s="284" t="s">
         <v>205</v>
       </c>
@@ -12771,7 +12771,7 @@
       <c r="O83" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="379"/>
+      <c r="P83" s="399"/>
       <c r="Q83" s="169" t="s">
         <v>102</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A84" s="284" t="s">
         <v>205</v>
       </c>
@@ -12871,7 +12871,7 @@
       <c r="O84" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="379"/>
+      <c r="P84" s="399"/>
       <c r="Q84" s="169" t="s">
         <v>13</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A85" s="284" t="s">
         <v>205</v>
       </c>
@@ -12971,7 +12971,7 @@
       <c r="O85" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="380"/>
+      <c r="P85" s="400"/>
       <c r="Q85" s="169" t="s">
         <v>16</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="86" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A86" s="51" t="s">
         <v>208</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="O86" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="379" t="s">
+      <c r="P86" s="399" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="164" t="s">
@@ -13141,7 +13141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="87" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A87" s="284" t="s">
         <v>208</v>
       </c>
@@ -13186,7 +13186,7 @@
       <c r="O87" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="379"/>
+      <c r="P87" s="399"/>
       <c r="Q87" s="169" t="s">
         <v>100</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="88" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A88" s="284" t="s">
         <v>208</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="O88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="379"/>
+      <c r="P88" s="399"/>
       <c r="Q88" s="169" t="s">
         <v>102</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="89" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A89" s="284" t="s">
         <v>208</v>
       </c>
@@ -13394,7 +13394,7 @@
       <c r="O89" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="379"/>
+      <c r="P89" s="399"/>
       <c r="Q89" s="169" t="s">
         <v>13</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="90" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A90" s="284" t="s">
         <v>208</v>
       </c>
@@ -13494,7 +13494,7 @@
       <c r="O90" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="380"/>
+      <c r="P90" s="400"/>
       <c r="Q90" s="169" t="s">
         <v>16</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A91" s="284"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -13601,7 +13601,7 @@
       <c r="AR91" s="272"/>
       <c r="AS91" s="173"/>
     </row>
-    <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
+    <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
       <c r="A92" s="51" t="s">
         <v>211</v>
       </c>
@@ -13642,7 +13642,7 @@
       <c r="O92" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P92" s="381" t="s">
+      <c r="P92" s="384" t="s">
         <v>19</v>
       </c>
       <c r="Q92" s="164" t="s">
@@ -13710,7 +13710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="31" customFormat="1" ht="80.25">
+    <row r="93" spans="1:45" s="31" customFormat="1" ht="80.25" hidden="1">
       <c r="A93" s="284" t="s">
         <v>211</v>
       </c>
@@ -13751,7 +13751,7 @@
       <c r="O93" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="382"/>
+      <c r="P93" s="385"/>
       <c r="Q93" s="169" t="s">
         <v>100</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>43906</v>
       </c>
       <c r="U93" s="211"/>
-      <c r="V93" s="402" t="s">
+      <c r="V93" s="379" t="s">
         <v>306</v>
       </c>
       <c r="W93" s="136" t="s">
@@ -13794,7 +13794,7 @@
       <c r="AR93" s="272"/>
       <c r="AS93" s="74"/>
     </row>
-    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="284" t="s">
         <v>211</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="O94" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="382"/>
+      <c r="P94" s="385"/>
       <c r="Q94" s="169" t="s">
         <v>102</v>
       </c>
@@ -13847,7 +13847,7 @@
       </c>
       <c r="T94" s="4"/>
       <c r="U94" s="211"/>
-      <c r="V94" s="401" t="s">
+      <c r="V94" s="378" t="s">
         <v>305</v>
       </c>
       <c r="W94" s="136" t="s">
@@ -13876,7 +13876,7 @@
       <c r="AR94" s="272"/>
       <c r="AS94" s="74"/>
     </row>
-    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="284" t="s">
         <v>211</v>
       </c>
@@ -13917,7 +13917,7 @@
       <c r="O95" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="382"/>
+      <c r="P95" s="385"/>
       <c r="Q95" s="169" t="s">
         <v>13</v>
       </c>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="T95" s="4"/>
       <c r="U95" s="211"/>
-      <c r="V95" s="401" t="s">
+      <c r="V95" s="378" t="s">
         <v>305</v>
       </c>
       <c r="W95" s="136" t="s">
@@ -13958,7 +13958,7 @@
       <c r="AR95" s="272"/>
       <c r="AS95" s="74"/>
     </row>
-    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="284" t="s">
         <v>211</v>
       </c>
@@ -13999,7 +13999,7 @@
       <c r="O96" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="383"/>
+      <c r="P96" s="386"/>
       <c r="Q96" s="169" t="s">
         <v>16</v>
       </c>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="T96" s="4"/>
       <c r="U96" s="211"/>
-      <c r="V96" s="401" t="s">
+      <c r="V96" s="378" t="s">
         <v>305</v>
       </c>
       <c r="W96" s="136" t="s">
@@ -14040,7 +14040,7 @@
       <c r="AR96" s="272"/>
       <c r="AS96" s="74"/>
     </row>
-    <row r="97" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="97" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A97" s="51" t="s">
         <v>215</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="98" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A98" s="51" t="s">
         <v>219</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="42" t="s">
         <v>222</v>
       </c>
@@ -14269,7 +14269,7 @@
       <c r="O99" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="P99" s="384" t="s">
+      <c r="P99" s="401" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="164" t="s">
@@ -14334,7 +14334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
+    <row r="100" spans="1:45" s="32" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="45" t="s">
         <v>222</v>
       </c>
@@ -14375,7 +14375,7 @@
       <c r="O100" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P100" s="385"/>
+      <c r="P100" s="402"/>
       <c r="Q100" s="169" t="s">
         <v>100</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
+    <row r="101" spans="1:45" s="32" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="45" t="s">
         <v>222</v>
       </c>
@@ -14475,7 +14475,7 @@
       <c r="O101" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P101" s="385"/>
+      <c r="P101" s="402"/>
       <c r="Q101" s="169" t="s">
         <v>102</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="102" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="45" t="s">
         <v>222</v>
       </c>
@@ -14575,7 +14575,7 @@
       <c r="O102" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P102" s="385"/>
+      <c r="P102" s="402"/>
       <c r="Q102" s="169" t="s">
         <v>13</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="103" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="48" t="s">
         <v>222</v>
       </c>
@@ -14671,7 +14671,7 @@
       <c r="O103" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="P103" s="386"/>
+      <c r="P103" s="403"/>
       <c r="Q103" s="177" t="s">
         <v>16</v>
       </c>
@@ -14744,7 +14744,7 @@
       <c r="O104" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="P104" s="381" t="s">
+      <c r="P104" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q104" s="164" t="s">
@@ -14819,7 +14819,7 @@
       <c r="O105" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P105" s="382"/>
+      <c r="P105" s="385"/>
       <c r="Q105" s="169" t="s">
         <v>100</v>
       </c>
@@ -14892,7 +14892,7 @@
       <c r="O106" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P106" s="382"/>
+      <c r="P106" s="385"/>
       <c r="Q106" s="169" t="s">
         <v>102</v>
       </c>
@@ -14965,7 +14965,7 @@
       <c r="O107" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P107" s="382"/>
+      <c r="P107" s="385"/>
       <c r="Q107" s="169" t="s">
         <v>13</v>
       </c>
@@ -15038,7 +15038,7 @@
       <c r="O108" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="P108" s="383"/>
+      <c r="P108" s="386"/>
       <c r="Q108" s="182" t="s">
         <v>16</v>
       </c>
@@ -15111,7 +15111,7 @@
       <c r="O109" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="P109" s="381" t="s">
+      <c r="P109" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q109" s="164" t="s">
@@ -15186,7 +15186,7 @@
       <c r="O110" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P110" s="382"/>
+      <c r="P110" s="385"/>
       <c r="Q110" s="169" t="s">
         <v>100</v>
       </c>
@@ -15259,7 +15259,7 @@
       <c r="O111" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P111" s="382"/>
+      <c r="P111" s="385"/>
       <c r="Q111" s="169" t="s">
         <v>102</v>
       </c>
@@ -15332,7 +15332,7 @@
       <c r="O112" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P112" s="382"/>
+      <c r="P112" s="385"/>
       <c r="Q112" s="169" t="s">
         <v>13</v>
       </c>
@@ -15405,7 +15405,7 @@
       <c r="O113" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="P113" s="383"/>
+      <c r="P113" s="386"/>
       <c r="Q113" s="182" t="s">
         <v>16</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="M114" s="97"/>
       <c r="N114" s="98"/>
       <c r="O114" s="99"/>
-      <c r="P114" s="381" t="s">
+      <c r="P114" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q114" s="164" t="s">
@@ -15549,7 +15549,7 @@
       <c r="M115" s="104"/>
       <c r="N115" s="105"/>
       <c r="O115" s="106"/>
-      <c r="P115" s="382"/>
+      <c r="P115" s="385"/>
       <c r="Q115" s="169" t="s">
         <v>100</v>
       </c>
@@ -15620,7 +15620,7 @@
       <c r="M116" s="104"/>
       <c r="N116" s="105"/>
       <c r="O116" s="106"/>
-      <c r="P116" s="382"/>
+      <c r="P116" s="385"/>
       <c r="Q116" s="169" t="s">
         <v>102</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="M117" s="104"/>
       <c r="N117" s="105"/>
       <c r="O117" s="106"/>
-      <c r="P117" s="382"/>
+      <c r="P117" s="385"/>
       <c r="Q117" s="169" t="s">
         <v>13</v>
       </c>
@@ -15762,7 +15762,7 @@
       <c r="M118" s="141"/>
       <c r="N118" s="142"/>
       <c r="O118" s="149"/>
-      <c r="P118" s="383"/>
+      <c r="P118" s="386"/>
       <c r="Q118" s="182" t="s">
         <v>16</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="16.5">
+    <row r="119" spans="1:45" ht="16.5" hidden="1">
       <c r="A119" s="51" t="s">
         <v>234</v>
       </c>
@@ -15849,7 +15849,7 @@
       <c r="O119" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="378" t="s">
+      <c r="P119" s="398" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="164" t="s">
@@ -15911,7 +15911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="16.5">
+    <row r="120" spans="1:45" ht="16.5" hidden="1">
       <c r="A120" s="294" t="s">
         <v>234</v>
       </c>
@@ -15945,7 +15945,7 @@
       <c r="O120" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="379"/>
+      <c r="P120" s="399"/>
       <c r="Q120" s="169" t="s">
         <v>100</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="16.5">
+    <row r="121" spans="1:45" ht="16.5" hidden="1">
       <c r="A121" s="294" t="s">
         <v>234</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="O121" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="379"/>
+      <c r="P121" s="399"/>
       <c r="Q121" s="169" t="s">
         <v>102</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="16.5">
+    <row r="122" spans="1:45" ht="16.5" hidden="1">
       <c r="A122" s="294" t="s">
         <v>234</v>
       </c>
@@ -16129,7 +16129,7 @@
       <c r="O122" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="379"/>
+      <c r="P122" s="399"/>
       <c r="Q122" s="169" t="s">
         <v>13</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="16.5">
+    <row r="123" spans="1:45" ht="16.5" hidden="1">
       <c r="A123" s="294" t="s">
         <v>234</v>
       </c>
@@ -16219,7 +16219,7 @@
       <c r="O123" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="380"/>
+      <c r="P123" s="400"/>
       <c r="Q123" s="169" t="s">
         <v>16</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="15.75">
+    <row r="124" spans="1:45" ht="15.75" hidden="1">
       <c r="A124" s="51" t="s">
         <v>238</v>
       </c>
@@ -16361,29 +16361,35 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="袁奇"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
     <mergeCell ref="P119:P123"/>
     <mergeCell ref="P92:P96"/>
     <mergeCell ref="P99:P103"/>
     <mergeCell ref="P104:P108"/>
     <mergeCell ref="P109:P113"/>
     <mergeCell ref="P114:P118"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <dataValidations count="1">
@@ -16405,7 +16411,7 @@
           <x14:formula1>
             <xm:f>マスタ!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:U2 P8 R24:U24 P25 T28:U28 P30 R34:T34 P35 R39:U39 P54 S73:U73 P74 R91:T91 U91 R103:T103 P104 P109 P114 T124:U124 P2:P3 P13:P15 P20:P22 P45:P49 P59:P61 P64:P69 P79:P92 P97:P99 P119:P124 Q2:Q39 Q43:Q80 Q97:Q118 R5:R7 S4:S7 T94:T98 U33:U34 U93:U98 U102:U103 U120:U123 R64:U68 P40:Q42 R13:S19 R97:S98 T5:U19 R45:U48 R79:U80</xm:sqref>
+          <xm:sqref>R2:U2 P8 R24:U24 P25 T28:U28 P30 R34:T34 P35 R39:U39 P54 S73:U73 P74 R91:U91 R103:T103 P104 P109 P114 T124:U124 P2:P3 P13:P15 P20:P22 P45:P49 P59:P61 P64:P69 P79:P92 P97:P99 P119:P124 Q2:Q39 Q43:Q80 Q97:Q118 R5:R7 S4:S7 T94:T98 U33:U34 U93:U98 U102:U103 U120:U123 R64:U68 P40:Q42 R13:S19 R97:S98 R79:U80 R45:U48 T5:U7 U9:U19 T10:T19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -17660,18 +17666,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17807,13 +17813,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D864DDA-810B-40B9-807E-C90EF644254D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D512E-7F6A-4F7E-A547-D09F3765D5E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3715,6 +3715,60 @@
     <xf numFmtId="0" fontId="41" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3724,15 +3778,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3741,51 +3786,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4447,7 +4447,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="U122" sqref="U122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4770,7 +4770,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="381" t="s">
+      <c r="P3" s="399" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4866,7 +4866,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="382"/>
+      <c r="P4" s="400"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -4960,7 +4960,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="382"/>
+      <c r="P5" s="400"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="382"/>
+      <c r="P6" s="400"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="383"/>
+      <c r="P7" s="401"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1">
+    <row r="8" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A8" s="51" t="s">
         <v>103</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="O8" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="384" t="s">
+      <c r="P8" s="385" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="164" t="s">
@@ -5260,7 +5260,7 @@
       <c r="U8" s="170">
         <v>43913</v>
       </c>
-      <c r="V8" s="404"/>
+      <c r="V8" s="381"/>
       <c r="W8" s="74" t="s">
         <v>107</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1">
+    <row r="9" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A9" s="56" t="s">
         <v>103</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="O9" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="385"/>
+      <c r="P9" s="386"/>
       <c r="Q9" s="169" t="s">
         <v>100</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>43914</v>
       </c>
       <c r="U9" s="170"/>
-      <c r="V9" s="404"/>
+      <c r="V9" s="381"/>
       <c r="W9" s="181" t="s">
         <v>107</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1">
+    <row r="10" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A10" s="56" t="s">
         <v>103</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="O10" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="385"/>
+      <c r="P10" s="386"/>
       <c r="Q10" s="169" t="s">
         <v>102</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="T10" s="170"/>
       <c r="U10" s="170"/>
-      <c r="V10" s="404"/>
+      <c r="V10" s="381"/>
       <c r="W10" s="181" t="s">
         <v>107</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1">
+    <row r="11" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A11" s="56" t="s">
         <v>103</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="O11" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="385"/>
+      <c r="P11" s="386"/>
       <c r="Q11" s="169" t="s">
         <v>13</v>
       </c>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="T11" s="170"/>
       <c r="U11" s="170"/>
-      <c r="V11" s="404"/>
+      <c r="V11" s="381"/>
       <c r="W11" s="181" t="s">
         <v>107</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="56" t="s">
         <v>103</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="O12" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="386"/>
+      <c r="P12" s="387"/>
       <c r="Q12" s="182" t="s">
         <v>16</v>
       </c>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="T12" s="170"/>
       <c r="U12" s="170"/>
-      <c r="V12" s="404"/>
+      <c r="V12" s="381"/>
       <c r="W12" s="181" t="s">
         <v>107</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="O15" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="387" t="s">
+      <c r="P15" s="402" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -5986,7 +5986,7 @@
       <c r="O16" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="388"/>
+      <c r="P16" s="403"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="O17" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="388"/>
+      <c r="P17" s="403"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="O18" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="388"/>
+      <c r="P18" s="403"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="O19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="389"/>
+      <c r="P19" s="404"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>123</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="O20" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="390" t="s">
+      <c r="P20" s="391" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="164" t="s">
@@ -6425,7 +6425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A21" s="45" t="s">
         <v>123</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="O21" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="391"/>
+      <c r="P21" s="392"/>
       <c r="Q21" s="169" t="s">
         <v>100</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A22" s="45" t="s">
         <v>123</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="O22" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="391"/>
+      <c r="P22" s="392"/>
       <c r="Q22" s="169" t="s">
         <v>102</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A23" s="45" t="s">
         <v>123</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="O23" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="391"/>
+      <c r="P23" s="392"/>
       <c r="Q23" s="169" t="s">
         <v>13</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A24" s="63" t="s">
         <v>123</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="392"/>
+      <c r="P24" s="393"/>
       <c r="Q24" s="182" t="s">
         <v>16</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A25" s="42" t="s">
         <v>130</v>
       </c>
@@ -6892,7 +6892,7 @@
       <c r="O25" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="390" t="s">
+      <c r="P25" s="391" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="164" t="s">
@@ -6960,7 +6960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A26" s="45" t="s">
         <v>130</v>
       </c>
@@ -7001,7 +7001,7 @@
       <c r="O26" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="391"/>
+      <c r="P26" s="392"/>
       <c r="Q26" s="169" t="s">
         <v>100</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>130</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="O27" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="391"/>
+      <c r="P27" s="392"/>
       <c r="Q27" s="169" t="s">
         <v>102</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A28" s="45" t="s">
         <v>130</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="O28" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="391"/>
+      <c r="P28" s="392"/>
       <c r="Q28" s="169" t="s">
         <v>13</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A29" s="63" t="s">
         <v>130</v>
       </c>
@@ -7310,7 +7310,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="392"/>
+      <c r="P29" s="393"/>
       <c r="Q29" s="182" t="s">
         <v>16</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="393" t="s">
+      <c r="P30" s="394" t="s">
         <v>25</v>
       </c>
       <c r="Q30" s="164" t="s">
@@ -7522,7 +7522,7 @@
       <c r="O31" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="391"/>
+      <c r="P31" s="392"/>
       <c r="Q31" s="169" t="s">
         <v>100</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="O32" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="391"/>
+      <c r="P32" s="392"/>
       <c r="Q32" s="169" t="s">
         <v>102</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="O33" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="391"/>
+      <c r="P33" s="392"/>
       <c r="Q33" s="169" t="s">
         <v>13</v>
       </c>
@@ -7833,7 +7833,7 @@
       <c r="O34" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="394"/>
+      <c r="P34" s="395"/>
       <c r="Q34" s="177" t="s">
         <v>16</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="O35" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="395" t="s">
+      <c r="P35" s="396" t="s">
         <v>25</v>
       </c>
       <c r="Q35" s="164" t="s">
@@ -8039,7 +8039,7 @@
       <c r="O36" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="396"/>
+      <c r="P36" s="397"/>
       <c r="Q36" s="169" t="s">
         <v>100</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="O37" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="396"/>
+      <c r="P37" s="397"/>
       <c r="Q37" s="169" t="s">
         <v>102</v>
       </c>
@@ -8253,7 +8253,7 @@
       <c r="O38" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="396"/>
+      <c r="P38" s="397"/>
       <c r="Q38" s="169" t="s">
         <v>13</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="O39" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="397"/>
+      <c r="P39" s="398"/>
       <c r="Q39" s="182" t="s">
         <v>16</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="40" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A40" s="42" t="s">
         <v>142</v>
       </c>
@@ -8457,7 +8457,7 @@
       <c r="O40" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="395" t="s">
+      <c r="P40" s="396" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="164" t="s">
@@ -8531,7 +8531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="41" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A41" s="45" t="s">
         <v>142</v>
       </c>
@@ -8572,7 +8572,7 @@
       <c r="O41" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="396"/>
+      <c r="P41" s="397"/>
       <c r="Q41" s="169" t="s">
         <v>100</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A42" s="45" t="s">
         <v>142</v>
       </c>
@@ -8680,7 +8680,7 @@
       <c r="O42" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="396"/>
+      <c r="P42" s="397"/>
       <c r="Q42" s="169" t="s">
         <v>102</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A43" s="45" t="s">
         <v>142</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="O43" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="396"/>
+      <c r="P43" s="397"/>
       <c r="Q43" s="169" t="s">
         <v>13</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="44" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A44" s="63" t="s">
         <v>142</v>
       </c>
@@ -8897,7 +8897,7 @@
       <c r="O44" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="397"/>
+      <c r="P44" s="398"/>
       <c r="Q44" s="182" t="s">
         <v>16</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A49" s="51" t="s">
         <v>160</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="O49" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="384" t="s">
+      <c r="P49" s="385" t="s">
         <v>21</v>
       </c>
       <c r="Q49" s="164" t="s">
@@ -9417,7 +9417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75" hidden="1">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75">
       <c r="A50" s="45" t="s">
         <v>160</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="O50" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="385"/>
+      <c r="P50" s="386"/>
       <c r="Q50" s="169" t="s">
         <v>100</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A51" s="45" t="s">
         <v>160</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="O51" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="385"/>
+      <c r="P51" s="386"/>
       <c r="Q51" s="169" t="s">
         <v>102</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>160</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="O52" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="385"/>
+      <c r="P52" s="386"/>
       <c r="Q52" s="169" t="s">
         <v>13</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="45" t="s">
         <v>160</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="386"/>
+      <c r="P53" s="387"/>
       <c r="Q53" s="182" t="s">
         <v>16</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="74"/>
-      <c r="P54" s="384" t="s">
+      <c r="P54" s="385" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="164" t="s">
@@ -9955,7 +9955,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="106"/>
-      <c r="P55" s="385"/>
+      <c r="P55" s="386"/>
       <c r="Q55" s="169" t="s">
         <v>100</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="106"/>
-      <c r="P56" s="385"/>
+      <c r="P56" s="386"/>
       <c r="Q56" s="169" t="s">
         <v>102</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="106"/>
-      <c r="P57" s="385"/>
+      <c r="P57" s="386"/>
       <c r="Q57" s="169" t="s">
         <v>13</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="106"/>
-      <c r="P58" s="386"/>
+      <c r="P58" s="387"/>
       <c r="Q58" s="169" t="s">
         <v>16</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A59" s="42" t="s">
         <v>168</v>
       </c>
@@ -10339,7 +10339,7 @@
       <c r="O59" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P59" s="390" t="s">
+      <c r="P59" s="391" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="164" t="s">
@@ -10415,7 +10415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A60" s="45" t="s">
         <v>168</v>
       </c>
@@ -10456,7 +10456,7 @@
       <c r="O60" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P60" s="391"/>
+      <c r="P60" s="392"/>
       <c r="Q60" s="169" t="s">
         <v>100</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="AR60" s="276"/>
       <c r="AS60" s="145"/>
     </row>
-    <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A61" s="45" t="s">
         <v>168</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="O61" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P61" s="391"/>
+      <c r="P61" s="392"/>
       <c r="Q61" s="169" t="s">
         <v>102</v>
       </c>
@@ -10631,7 +10631,7 @@
       <c r="AR61" s="276"/>
       <c r="AS61" s="145"/>
     </row>
-    <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A62" s="45" t="s">
         <v>168</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="O62" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P62" s="391"/>
+      <c r="P62" s="392"/>
       <c r="Q62" s="169" t="s">
         <v>13</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A63" s="63" t="s">
         <v>168</v>
       </c>
@@ -10783,7 +10783,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="392"/>
+      <c r="P63" s="393"/>
       <c r="Q63" s="182" t="s">
         <v>16</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A69" s="51" t="s">
         <v>190</v>
       </c>
@@ -11353,7 +11353,7 @@
       <c r="O69" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="384" t="s">
+      <c r="P69" s="385" t="s">
         <v>21</v>
       </c>
       <c r="Q69" s="164" t="s">
@@ -11421,7 +11421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5" hidden="1">
+    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5">
       <c r="A70" s="277" t="s">
         <v>190</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="O70" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="385"/>
+      <c r="P70" s="386"/>
       <c r="Q70" s="169" t="s">
         <v>100</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A71" s="277" t="s">
         <v>190</v>
       </c>
@@ -11565,7 +11565,7 @@
       <c r="O71" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="385"/>
+      <c r="P71" s="386"/>
       <c r="Q71" s="169" t="s">
         <v>102</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A72" s="277" t="s">
         <v>190</v>
       </c>
@@ -11668,7 +11668,7 @@
       <c r="O72" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="385"/>
+      <c r="P72" s="386"/>
       <c r="Q72" s="169" t="s">
         <v>13</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A73" s="277" t="s">
         <v>190</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="O73" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="386"/>
+      <c r="P73" s="387"/>
       <c r="Q73" s="182" t="s">
         <v>16</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A74" s="51" t="s">
         <v>194</v>
       </c>
@@ -11860,7 +11860,7 @@
       <c r="O74" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="384" t="s">
+      <c r="P74" s="385" t="s">
         <v>28</v>
       </c>
       <c r="Q74" s="164" t="s">
@@ -11928,7 +11928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A75" s="277" t="s">
         <v>194</v>
       </c>
@@ -11969,7 +11969,7 @@
       <c r="O75" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="385"/>
+      <c r="P75" s="386"/>
       <c r="Q75" s="169" t="s">
         <v>100</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A76" s="277" t="s">
         <v>194</v>
       </c>
@@ -12072,7 +12072,7 @@
       <c r="O76" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="385"/>
+      <c r="P76" s="386"/>
       <c r="Q76" s="169" t="s">
         <v>102</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A77" s="277" t="s">
         <v>194</v>
       </c>
@@ -12175,7 +12175,7 @@
       <c r="O77" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="385"/>
+      <c r="P77" s="386"/>
       <c r="Q77" s="169" t="s">
         <v>13</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A78" s="277" t="s">
         <v>194</v>
       </c>
@@ -12278,7 +12278,7 @@
       <c r="O78" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="386"/>
+      <c r="P78" s="387"/>
       <c r="Q78" s="182" t="s">
         <v>16</v>
       </c>
@@ -12565,7 +12565,7 @@
       <c r="O81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="398" t="s">
+      <c r="P81" s="382" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="164" t="s">
@@ -12671,7 +12671,7 @@
       <c r="O82" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="399"/>
+      <c r="P82" s="383"/>
       <c r="Q82" s="169" t="s">
         <v>100</v>
       </c>
@@ -12771,7 +12771,7 @@
       <c r="O83" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="399"/>
+      <c r="P83" s="383"/>
       <c r="Q83" s="169" t="s">
         <v>102</v>
       </c>
@@ -12871,7 +12871,7 @@
       <c r="O84" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="399"/>
+      <c r="P84" s="383"/>
       <c r="Q84" s="169" t="s">
         <v>13</v>
       </c>
@@ -12971,7 +12971,7 @@
       <c r="O85" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="400"/>
+      <c r="P85" s="384"/>
       <c r="Q85" s="169" t="s">
         <v>16</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="O86" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="399" t="s">
+      <c r="P86" s="383" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="164" t="s">
@@ -13186,7 +13186,7 @@
       <c r="O87" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="399"/>
+      <c r="P87" s="383"/>
       <c r="Q87" s="169" t="s">
         <v>100</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="O88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="399"/>
+      <c r="P88" s="383"/>
       <c r="Q88" s="169" t="s">
         <v>102</v>
       </c>
@@ -13394,7 +13394,7 @@
       <c r="O89" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="399"/>
+      <c r="P89" s="383"/>
       <c r="Q89" s="169" t="s">
         <v>13</v>
       </c>
@@ -13494,7 +13494,7 @@
       <c r="O90" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="400"/>
+      <c r="P90" s="384"/>
       <c r="Q90" s="169" t="s">
         <v>16</v>
       </c>
@@ -13642,7 +13642,7 @@
       <c r="O92" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P92" s="384" t="s">
+      <c r="P92" s="385" t="s">
         <v>19</v>
       </c>
       <c r="Q92" s="164" t="s">
@@ -13751,7 +13751,7 @@
       <c r="O93" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="385"/>
+      <c r="P93" s="386"/>
       <c r="Q93" s="169" t="s">
         <v>100</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="O94" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="385"/>
+      <c r="P94" s="386"/>
       <c r="Q94" s="169" t="s">
         <v>102</v>
       </c>
@@ -13917,7 +13917,7 @@
       <c r="O95" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="385"/>
+      <c r="P95" s="386"/>
       <c r="Q95" s="169" t="s">
         <v>13</v>
       </c>
@@ -13999,7 +13999,7 @@
       <c r="O96" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="386"/>
+      <c r="P96" s="387"/>
       <c r="Q96" s="169" t="s">
         <v>16</v>
       </c>
@@ -14269,7 +14269,7 @@
       <c r="O99" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="P99" s="401" t="s">
+      <c r="P99" s="388" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="164" t="s">
@@ -14375,7 +14375,7 @@
       <c r="O100" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P100" s="402"/>
+      <c r="P100" s="389"/>
       <c r="Q100" s="169" t="s">
         <v>100</v>
       </c>
@@ -14475,7 +14475,7 @@
       <c r="O101" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P101" s="402"/>
+      <c r="P101" s="389"/>
       <c r="Q101" s="169" t="s">
         <v>102</v>
       </c>
@@ -14575,7 +14575,7 @@
       <c r="O102" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P102" s="402"/>
+      <c r="P102" s="389"/>
       <c r="Q102" s="169" t="s">
         <v>13</v>
       </c>
@@ -14671,7 +14671,7 @@
       <c r="O103" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="P103" s="403"/>
+      <c r="P103" s="390"/>
       <c r="Q103" s="177" t="s">
         <v>16</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="104" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A104" s="42" t="s">
         <v>226</v>
       </c>
@@ -14744,7 +14744,7 @@
       <c r="O104" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="P104" s="384" t="s">
+      <c r="P104" s="385" t="s">
         <v>28</v>
       </c>
       <c r="Q104" s="164" t="s">
@@ -14795,7 +14795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="105" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A105" s="66" t="s">
         <v>226</v>
       </c>
@@ -14819,7 +14819,7 @@
       <c r="O105" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P105" s="385"/>
+      <c r="P105" s="386"/>
       <c r="Q105" s="169" t="s">
         <v>100</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="106" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A106" s="66" t="s">
         <v>226</v>
       </c>
@@ -14892,7 +14892,7 @@
       <c r="O106" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P106" s="385"/>
+      <c r="P106" s="386"/>
       <c r="Q106" s="169" t="s">
         <v>102</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="107" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A107" s="66" t="s">
         <v>226</v>
       </c>
@@ -14965,7 +14965,7 @@
       <c r="O107" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P107" s="385"/>
+      <c r="P107" s="386"/>
       <c r="Q107" s="169" t="s">
         <v>13</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="108" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A108" s="290" t="s">
         <v>226</v>
       </c>
@@ -15038,7 +15038,7 @@
       <c r="O108" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="P108" s="386"/>
+      <c r="P108" s="387"/>
       <c r="Q108" s="182" t="s">
         <v>16</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A109" s="42" t="s">
         <v>230</v>
       </c>
@@ -15111,7 +15111,7 @@
       <c r="O109" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="P109" s="384" t="s">
+      <c r="P109" s="385" t="s">
         <v>28</v>
       </c>
       <c r="Q109" s="164" t="s">
@@ -15162,7 +15162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="110" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A110" s="45" t="s">
         <v>230</v>
       </c>
@@ -15186,7 +15186,7 @@
       <c r="O110" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P110" s="385"/>
+      <c r="P110" s="386"/>
       <c r="Q110" s="169" t="s">
         <v>100</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="111" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A111" s="45" t="s">
         <v>230</v>
       </c>
@@ -15259,7 +15259,7 @@
       <c r="O111" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P111" s="385"/>
+      <c r="P111" s="386"/>
       <c r="Q111" s="169" t="s">
         <v>102</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="112" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A112" s="45" t="s">
         <v>230</v>
       </c>
@@ -15332,7 +15332,7 @@
       <c r="O112" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P112" s="385"/>
+      <c r="P112" s="386"/>
       <c r="Q112" s="169" t="s">
         <v>13</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="113" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A113" s="63" t="s">
         <v>230</v>
       </c>
@@ -15405,7 +15405,7 @@
       <c r="O113" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="P113" s="386"/>
+      <c r="P113" s="387"/>
       <c r="Q113" s="182" t="s">
         <v>16</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="114" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="42" t="s">
         <v>232</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="M114" s="97"/>
       <c r="N114" s="98"/>
       <c r="O114" s="99"/>
-      <c r="P114" s="384" t="s">
+      <c r="P114" s="385" t="s">
         <v>28</v>
       </c>
       <c r="Q114" s="164" t="s">
@@ -15527,7 +15527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="45" t="s">
         <v>232</v>
       </c>
@@ -15549,7 +15549,7 @@
       <c r="M115" s="104"/>
       <c r="N115" s="105"/>
       <c r="O115" s="106"/>
-      <c r="P115" s="385"/>
+      <c r="P115" s="386"/>
       <c r="Q115" s="169" t="s">
         <v>100</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="116" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="45" t="s">
         <v>232</v>
       </c>
@@ -15620,7 +15620,7 @@
       <c r="M116" s="104"/>
       <c r="N116" s="105"/>
       <c r="O116" s="106"/>
-      <c r="P116" s="385"/>
+      <c r="P116" s="386"/>
       <c r="Q116" s="169" t="s">
         <v>102</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="117" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="45" t="s">
         <v>232</v>
       </c>
@@ -15691,7 +15691,7 @@
       <c r="M117" s="104"/>
       <c r="N117" s="105"/>
       <c r="O117" s="106"/>
-      <c r="P117" s="385"/>
+      <c r="P117" s="386"/>
       <c r="Q117" s="169" t="s">
         <v>13</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="118" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="63" t="s">
         <v>232</v>
       </c>
@@ -15762,7 +15762,7 @@
       <c r="M118" s="141"/>
       <c r="N118" s="142"/>
       <c r="O118" s="149"/>
-      <c r="P118" s="386"/>
+      <c r="P118" s="387"/>
       <c r="Q118" s="182" t="s">
         <v>16</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="16.5" hidden="1">
+    <row r="119" spans="1:45" ht="16.5">
       <c r="A119" s="51" t="s">
         <v>234</v>
       </c>
@@ -15849,7 +15849,7 @@
       <c r="O119" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="398" t="s">
+      <c r="P119" s="382" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="164" t="s">
@@ -15911,7 +15911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="16.5" hidden="1">
+    <row r="120" spans="1:45" ht="16.5">
       <c r="A120" s="294" t="s">
         <v>234</v>
       </c>
@@ -15945,7 +15945,7 @@
       <c r="O120" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="399"/>
+      <c r="P120" s="383"/>
       <c r="Q120" s="169" t="s">
         <v>100</v>
       </c>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="U120" s="211"/>
       <c r="V120" s="340">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="W120" s="341" t="s">
         <v>127</v>
@@ -16005,7 +16005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="16.5" hidden="1">
+    <row r="121" spans="1:45" ht="16.5">
       <c r="A121" s="294" t="s">
         <v>234</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="O121" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="399"/>
+      <c r="P121" s="383"/>
       <c r="Q121" s="169" t="s">
         <v>102</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="16.5" hidden="1">
+    <row r="122" spans="1:45" ht="16.5">
       <c r="A122" s="294" t="s">
         <v>234</v>
       </c>
@@ -16129,7 +16129,7 @@
       <c r="O122" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="399"/>
+      <c r="P122" s="383"/>
       <c r="Q122" s="169" t="s">
         <v>13</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="16.5" hidden="1">
+    <row r="123" spans="1:45" ht="16.5">
       <c r="A123" s="294" t="s">
         <v>234</v>
       </c>
@@ -16219,7 +16219,7 @@
       <c r="O123" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="400"/>
+      <c r="P123" s="384"/>
       <c r="Q123" s="169" t="s">
         <v>16</v>
       </c>
@@ -16364,32 +16364,32 @@
   <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="22">
       <filters>
-        <filter val="袁奇"/>
+        <filter val="陳爽"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
     <mergeCell ref="P119:P123"/>
     <mergeCell ref="P92:P96"/>
     <mergeCell ref="P99:P103"/>
     <mergeCell ref="P104:P108"/>
     <mergeCell ref="P109:P113"/>
     <mergeCell ref="P114:P118"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <dataValidations count="1">
@@ -17666,18 +17666,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17813,13 +17813,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D512E-7F6A-4F7E-A547-D09F3765D5E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53385DF9-BCD5-4538-ACDA-B6C5415B9053}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3718,6 +3718,57 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3727,15 +3778,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3744,48 +3786,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4446,8 +4446,8 @@
   <dimension ref="A1:AS124"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U122" sqref="U122"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T128" sqref="T128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4770,7 +4770,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="399" t="s">
+      <c r="P3" s="382" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4866,7 +4866,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="400"/>
+      <c r="P4" s="383"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -4960,7 +4960,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="400"/>
+      <c r="P5" s="383"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="400"/>
+      <c r="P6" s="383"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="401"/>
+      <c r="P7" s="384"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="O15" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="402" t="s">
+      <c r="P15" s="388" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -5986,7 +5986,7 @@
       <c r="O16" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="403"/>
+      <c r="P16" s="389"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="O17" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="403"/>
+      <c r="P17" s="389"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="O18" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="403"/>
+      <c r="P18" s="389"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="O19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="404"/>
+      <c r="P19" s="390"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
+    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>123</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A21" s="45" t="s">
         <v>123</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A22" s="45" t="s">
         <v>123</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A23" s="45" t="s">
         <v>123</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A24" s="63" t="s">
         <v>123</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A25" s="42" t="s">
         <v>130</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A26" s="45" t="s">
         <v>130</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A27" s="45" t="s">
         <v>130</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A28" s="45" t="s">
         <v>130</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A29" s="63" t="s">
         <v>130</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="35" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A35" s="42" t="s">
         <v>138</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>105</v>
       </c>
       <c r="P35" s="396" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="164" t="s">
         <v>5</v>
@@ -7998,7 +7998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A36" s="45" t="s">
         <v>138</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A37" s="45" t="s">
         <v>138</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A38" s="45" t="s">
         <v>138</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="39" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A39" s="63" t="s">
         <v>138</v>
       </c>
@@ -8364,10 +8364,18 @@
       <c r="Q39" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="194"/>
-      <c r="S39" s="194"/>
-      <c r="T39" s="194"/>
-      <c r="U39" s="195"/>
+      <c r="R39" s="170">
+        <v>43911</v>
+      </c>
+      <c r="S39" s="170">
+        <v>43911</v>
+      </c>
+      <c r="T39" s="170">
+        <v>43911</v>
+      </c>
+      <c r="U39" s="170">
+        <v>43911</v>
+      </c>
       <c r="V39" s="149"/>
       <c r="W39" s="149" t="s">
         <v>141</v>
@@ -8639,7 +8647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A42" s="45" t="s">
         <v>142</v>
       </c>
@@ -9308,7 +9316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A49" s="51" t="s">
         <v>160</v>
       </c>
@@ -9417,7 +9425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75" hidden="1">
       <c r="A50" s="45" t="s">
         <v>160</v>
       </c>
@@ -9524,7 +9532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A51" s="45" t="s">
         <v>160</v>
       </c>
@@ -9627,7 +9635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>160</v>
       </c>
@@ -9720,7 +9728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A53" s="45" t="s">
         <v>160</v>
       </c>
@@ -11312,7 +11320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A69" s="51" t="s">
         <v>190</v>
       </c>
@@ -11421,7 +11429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5">
+    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5" hidden="1">
       <c r="A70" s="277" t="s">
         <v>190</v>
       </c>
@@ -11524,7 +11532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A71" s="277" t="s">
         <v>190</v>
       </c>
@@ -11627,7 +11635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A72" s="277" t="s">
         <v>190</v>
       </c>
@@ -11724,7 +11732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A73" s="277" t="s">
         <v>190</v>
       </c>
@@ -12565,7 +12573,7 @@
       <c r="O81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="382" t="s">
+      <c r="P81" s="399" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="164" t="s">
@@ -12671,7 +12679,7 @@
       <c r="O82" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="383"/>
+      <c r="P82" s="400"/>
       <c r="Q82" s="169" t="s">
         <v>100</v>
       </c>
@@ -12771,7 +12779,7 @@
       <c r="O83" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="383"/>
+      <c r="P83" s="400"/>
       <c r="Q83" s="169" t="s">
         <v>102</v>
       </c>
@@ -12871,7 +12879,7 @@
       <c r="O84" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="383"/>
+      <c r="P84" s="400"/>
       <c r="Q84" s="169" t="s">
         <v>13</v>
       </c>
@@ -12971,7 +12979,7 @@
       <c r="O85" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="384"/>
+      <c r="P85" s="401"/>
       <c r="Q85" s="169" t="s">
         <v>16</v>
       </c>
@@ -13076,7 +13084,7 @@
       <c r="O86" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="383" t="s">
+      <c r="P86" s="400" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="164" t="s">
@@ -13186,7 +13194,7 @@
       <c r="O87" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="383"/>
+      <c r="P87" s="400"/>
       <c r="Q87" s="169" t="s">
         <v>100</v>
       </c>
@@ -13290,7 +13298,7 @@
       <c r="O88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="383"/>
+      <c r="P88" s="400"/>
       <c r="Q88" s="169" t="s">
         <v>102</v>
       </c>
@@ -13394,7 +13402,7 @@
       <c r="O89" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="383"/>
+      <c r="P89" s="400"/>
       <c r="Q89" s="169" t="s">
         <v>13</v>
       </c>
@@ -13494,7 +13502,7 @@
       <c r="O90" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="384"/>
+      <c r="P90" s="401"/>
       <c r="Q90" s="169" t="s">
         <v>16</v>
       </c>
@@ -14269,7 +14277,7 @@
       <c r="O99" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="P99" s="388" t="s">
+      <c r="P99" s="402" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="164" t="s">
@@ -14375,7 +14383,7 @@
       <c r="O100" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P100" s="389"/>
+      <c r="P100" s="403"/>
       <c r="Q100" s="169" t="s">
         <v>100</v>
       </c>
@@ -14475,7 +14483,7 @@
       <c r="O101" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P101" s="389"/>
+      <c r="P101" s="403"/>
       <c r="Q101" s="169" t="s">
         <v>102</v>
       </c>
@@ -14575,7 +14583,7 @@
       <c r="O102" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P102" s="389"/>
+      <c r="P102" s="403"/>
       <c r="Q102" s="169" t="s">
         <v>13</v>
       </c>
@@ -14671,7 +14679,7 @@
       <c r="O103" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="P103" s="390"/>
+      <c r="P103" s="404"/>
       <c r="Q103" s="177" t="s">
         <v>16</v>
       </c>
@@ -15811,7 +15819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="16.5">
+    <row r="119" spans="1:45" ht="16.5" hidden="1">
       <c r="A119" s="51" t="s">
         <v>234</v>
       </c>
@@ -15849,7 +15857,7 @@
       <c r="O119" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="382" t="s">
+      <c r="P119" s="399" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="164" t="s">
@@ -15911,7 +15919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="16.5">
+    <row r="120" spans="1:45" ht="16.5" hidden="1">
       <c r="A120" s="294" t="s">
         <v>234</v>
       </c>
@@ -15945,7 +15953,7 @@
       <c r="O120" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="383"/>
+      <c r="P120" s="400"/>
       <c r="Q120" s="169" t="s">
         <v>100</v>
       </c>
@@ -16005,7 +16013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="16.5">
+    <row r="121" spans="1:45" ht="16.5" hidden="1">
       <c r="A121" s="294" t="s">
         <v>234</v>
       </c>
@@ -16039,7 +16047,7 @@
       <c r="O121" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="383"/>
+      <c r="P121" s="400"/>
       <c r="Q121" s="169" t="s">
         <v>102</v>
       </c>
@@ -16095,7 +16103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="16.5">
+    <row r="122" spans="1:45" ht="16.5" hidden="1">
       <c r="A122" s="294" t="s">
         <v>234</v>
       </c>
@@ -16129,7 +16137,7 @@
       <c r="O122" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="383"/>
+      <c r="P122" s="400"/>
       <c r="Q122" s="169" t="s">
         <v>13</v>
       </c>
@@ -16185,7 +16193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="16.5">
+    <row r="123" spans="1:45" ht="16.5" hidden="1">
       <c r="A123" s="294" t="s">
         <v>234</v>
       </c>
@@ -16219,7 +16227,7 @@
       <c r="O123" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="384"/>
+      <c r="P123" s="401"/>
       <c r="Q123" s="169" t="s">
         <v>16</v>
       </c>
@@ -16364,32 +16372,32 @@
   <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="22">
       <filters>
-        <filter val="陳爽"/>
+        <filter val="袁奇、陳爽"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
     <mergeCell ref="P119:P123"/>
     <mergeCell ref="P92:P96"/>
     <mergeCell ref="P99:P103"/>
     <mergeCell ref="P104:P108"/>
     <mergeCell ref="P109:P113"/>
     <mergeCell ref="P114:P118"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
   </mergeCells>
   <phoneticPr fontId="38"/>
   <dataValidations count="1">
@@ -16411,7 +16419,7 @@
           <x14:formula1>
             <xm:f>マスタ!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:U2 P8 R24:U24 P25 T28:U28 P30 R34:T34 P35 R39:U39 P54 S73:U73 P74 R91:U91 R103:T103 P104 P109 P114 T124:U124 P2:P3 P13:P15 P20:P22 P45:P49 P59:P61 P64:P69 P79:P92 P97:P99 P119:P124 Q2:Q39 Q43:Q80 Q97:Q118 R5:R7 S4:S7 T94:T98 U33:U34 U93:U98 U102:U103 U120:U123 R64:U68 P40:Q42 R13:S19 R97:S98 R79:U80 R45:U48 T5:U7 U9:U19 T10:T19</xm:sqref>
+          <xm:sqref>R2:U2 P8 R24:U24 P25 T28:U28 P30 R34:T34 P35 T10:T19 P54 S73:U73 P74 R91:U91 R103:T103 P104 P109 P114 T124:U124 P2:P3 P13:P15 P20:P22 P45:P49 P59:P61 P64:P69 P79:P92 P97:P99 P119:P124 Q2:Q39 Q43:Q80 Q97:Q118 R5:R7 S4:S7 T94:T98 U33:U34 U93:U98 U102:U103 U120:U123 R64:U68 P40:Q42 R13:S19 R97:S98 R79:U80 R45:U48 T5:U7 U9:U19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -17666,18 +17674,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17813,13 +17821,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53385DF9-BCD5-4538-ACDA-B6C5415B9053}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284A7CB-DDD1-45B2-A2EB-8D617D8AD8D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,6 +363,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>李昊</t>
@@ -372,6 +373,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>泽</t>
     </r>
@@ -388,6 +390,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>李昊</t>
@@ -397,6 +400,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
+        <charset val="128"/>
       </rPr>
       <t>泽</t>
     </r>
@@ -517,6 +521,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>100%
@@ -536,6 +541,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">休假 和疫因素 </t>
@@ -554,6 +560,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>适当往后</t>
@@ -572,6 +579,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">整
@@ -670,6 +678,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">90%
@@ -910,6 +919,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>トラッキングデータの資料を送付</t>
@@ -928,6 +938,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>lsx</t>
@@ -939,6 +950,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14993743705557422"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>トラッキングデータの資料を送付</t>
@@ -957,6 +969,7 @@
         <sz val="10"/>
         <color theme="0" tint="-0.14993743705557422"/>
         <rFont val="Meiryo UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>lsx</t>
@@ -1349,7 +1362,7 @@
   </si>
   <si>
     <t>作業が変化があって、一応対応不要</t>
-    <phoneticPr fontId="38"/>
+    <phoneticPr fontId="37"/>
   </si>
   <si>
     <r>
@@ -1366,11 +1379,11 @@
       <t>20200317 市场MM表作业再开，开发一时终止
 20200323 (保守担当确认一时对应不要)作業が変化があって、一応対応不要</t>
     </r>
-    <phoneticPr fontId="38"/>
+    <phoneticPr fontId="37"/>
   </si>
   <si>
     <t>今バックがあるので、一応対応不要。</t>
-    <phoneticPr fontId="38"/>
+    <phoneticPr fontId="37"/>
   </si>
 </sst>
 </file>
@@ -1398,6 +1411,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1412,12 +1426,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1437,47 +1453,55 @@
       <sz val="7"/>
       <color rgb="FFFFFFFF"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1490,42 +1514,49 @@
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.24994659260841701"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.14993743705557422"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14993743705557422"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1538,12 +1569,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.24994659260841701"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1578,6 +1611,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1588,6 +1622,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1600,13 +1635,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1646,6 +1677,12 @@
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3706,18 +3743,69 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="39" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="38" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3727,15 +3815,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3744,48 +3823,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4322,7 +4359,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38"/>
+  <phoneticPr fontId="37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -4434,7 +4471,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38"/>
+  <phoneticPr fontId="37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4442,12 +4479,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T128" sqref="T128"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4631,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A2" s="37" t="s">
         <v>81</v>
       </c>
@@ -4730,7 +4766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="33" hidden="1">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="33">
       <c r="A3" s="42" t="s">
         <v>92</v>
       </c>
@@ -4770,7 +4806,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="382" t="s">
+      <c r="P3" s="399" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4826,7 +4862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="4" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A4" s="45" t="s">
         <v>92</v>
       </c>
@@ -4866,7 +4902,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="383"/>
+      <c r="P4" s="400"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -4920,7 +4956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="5" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A5" s="45" t="s">
         <v>92</v>
       </c>
@@ -4960,7 +4996,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="383"/>
+      <c r="P5" s="400"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5014,7 +5050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="6" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A6" s="45" t="s">
         <v>92</v>
       </c>
@@ -5054,7 +5090,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="383"/>
+      <c r="P6" s="400"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5108,7 +5144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="7" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A7" s="48" t="s">
         <v>92</v>
       </c>
@@ -5148,7 +5184,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="384"/>
+      <c r="P7" s="401"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5202,7 +5238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="8" spans="1:45" s="32" customFormat="1">
       <c r="A8" s="51" t="s">
         <v>103</v>
       </c>
@@ -5307,7 +5343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="9" spans="1:45" s="32" customFormat="1">
       <c r="A9" s="56" t="s">
         <v>103</v>
       </c>
@@ -5406,7 +5442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="10" spans="1:45" s="32" customFormat="1">
       <c r="A10" s="56" t="s">
         <v>103</v>
       </c>
@@ -5503,7 +5539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="11" spans="1:45" s="32" customFormat="1">
       <c r="A11" s="56" t="s">
         <v>103</v>
       </c>
@@ -5600,7 +5636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="56" t="s">
         <v>103</v>
       </c>
@@ -5702,7 +5738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="31" customFormat="1" hidden="1">
+    <row r="13" spans="1:45" s="31" customFormat="1">
       <c r="A13" s="51" t="s">
         <v>111</v>
       </c>
@@ -5778,7 +5814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A14" s="51" t="s">
         <v>115</v>
       </c>
@@ -5858,7 +5894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
+    <row r="15" spans="1:45" s="31" customFormat="1" ht="28.5">
       <c r="A15" s="60" t="s">
         <v>118</v>
       </c>
@@ -5894,7 +5930,7 @@
       <c r="O15" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="388" t="s">
+      <c r="P15" s="402" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -5950,7 +5986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="16" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A16" s="45" t="s">
         <v>118</v>
       </c>
@@ -5986,7 +6022,7 @@
       <c r="O16" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="389"/>
+      <c r="P16" s="403"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6040,7 +6076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="17" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A17" s="45" t="s">
         <v>118</v>
       </c>
@@ -6076,7 +6112,7 @@
       <c r="O17" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="389"/>
+      <c r="P17" s="403"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6130,7 +6166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="18" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A18" s="45" t="s">
         <v>118</v>
       </c>
@@ -6166,7 +6202,7 @@
       <c r="O18" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="389"/>
+      <c r="P18" s="403"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6220,7 +6256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="19" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A19" s="63" t="s">
         <v>118</v>
       </c>
@@ -6256,7 +6292,7 @@
       <c r="O19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="390"/>
+      <c r="P19" s="404"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -6310,7 +6346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>123</v>
       </c>
@@ -6425,7 +6461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A21" s="45" t="s">
         <v>123</v>
       </c>
@@ -6533,7 +6569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A22" s="45" t="s">
         <v>123</v>
       </c>
@@ -6641,7 +6677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A23" s="45" t="s">
         <v>123</v>
       </c>
@@ -6750,7 +6786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A24" s="63" t="s">
         <v>123</v>
       </c>
@@ -6851,7 +6887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A25" s="42" t="s">
         <v>130</v>
       </c>
@@ -6960,7 +6996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A26" s="45" t="s">
         <v>130</v>
       </c>
@@ -7063,7 +7099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>130</v>
       </c>
@@ -7166,7 +7202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A28" s="45" t="s">
         <v>130</v>
       </c>
@@ -7269,7 +7305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A29" s="63" t="s">
         <v>130</v>
       </c>
@@ -7372,7 +7408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="30" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A30" s="60" t="s">
         <v>133</v>
       </c>
@@ -7481,7 +7517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A31" s="45" t="s">
         <v>133</v>
       </c>
@@ -7584,7 +7620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="100.5">
       <c r="A32" s="45" t="s">
         <v>133</v>
       </c>
@@ -7691,7 +7727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A33" s="45" t="s">
         <v>133</v>
       </c>
@@ -7747,7 +7783,7 @@
       </c>
       <c r="U33" s="176"/>
       <c r="V33" s="203">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W33" s="136" t="s">
         <v>122</v>
@@ -7792,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="34" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A34" s="48" t="s">
         <v>133</v>
       </c>
@@ -7841,7 +7877,9 @@
       <c r="S34" s="194"/>
       <c r="T34" s="194"/>
       <c r="U34" s="195"/>
-      <c r="V34" s="147"/>
+      <c r="V34" s="261">
+        <v>0.9</v>
+      </c>
       <c r="W34" s="147" t="s">
         <v>122</v>
       </c>
@@ -8424,7 +8462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="40" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A40" s="42" t="s">
         <v>142</v>
       </c>
@@ -8539,7 +8577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="41" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A41" s="45" t="s">
         <v>142</v>
       </c>
@@ -8647,7 +8685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A42" s="45" t="s">
         <v>142</v>
       </c>
@@ -8755,7 +8793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A43" s="45" t="s">
         <v>142</v>
       </c>
@@ -8864,7 +8902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="44" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A44" s="63" t="s">
         <v>142</v>
       </c>
@@ -8973,7 +9011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A45" s="51" t="s">
         <v>145</v>
       </c>
@@ -9058,7 +9096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A46" s="51" t="s">
         <v>149</v>
       </c>
@@ -9143,7 +9181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" hidden="1" customHeight="1">
+    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>152</v>
       </c>
@@ -9228,7 +9266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="48" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A48" s="51" t="s">
         <v>156</v>
       </c>
@@ -9316,7 +9354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A49" s="51" t="s">
         <v>160</v>
       </c>
@@ -9425,7 +9463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75" hidden="1">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75">
       <c r="A50" s="45" t="s">
         <v>160</v>
       </c>
@@ -9532,7 +9570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A51" s="45" t="s">
         <v>160</v>
       </c>
@@ -9635,7 +9673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>160</v>
       </c>
@@ -9728,7 +9766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="45" t="s">
         <v>160</v>
       </c>
@@ -9821,7 +9859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A54" s="51" t="s">
         <v>164</v>
       </c>
@@ -9924,7 +9962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A55" s="45" t="s">
         <v>164</v>
       </c>
@@ -10023,7 +10061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A56" s="45" t="s">
         <v>164</v>
       </c>
@@ -10122,7 +10160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A57" s="45" t="s">
         <v>164</v>
       </c>
@@ -10217,7 +10255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A58" s="45" t="s">
         <v>164</v>
       </c>
@@ -10306,7 +10344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A59" s="42" t="s">
         <v>168</v>
       </c>
@@ -10423,7 +10461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A60" s="45" t="s">
         <v>168</v>
       </c>
@@ -10531,7 +10569,7 @@
       <c r="AR60" s="276"/>
       <c r="AS60" s="145"/>
     </row>
-    <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A61" s="45" t="s">
         <v>168</v>
       </c>
@@ -10639,7 +10677,7 @@
       <c r="AR61" s="276"/>
       <c r="AS61" s="145"/>
     </row>
-    <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A62" s="45" t="s">
         <v>168</v>
       </c>
@@ -10750,7 +10788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A63" s="63" t="s">
         <v>168</v>
       </c>
@@ -10861,7 +10899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A64" s="51" t="s">
         <v>172</v>
       </c>
@@ -10954,7 +10992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A65" s="51" t="s">
         <v>175</v>
       </c>
@@ -11045,7 +11083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="66" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A66" s="51" t="s">
         <v>180</v>
       </c>
@@ -11137,7 +11175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A67" s="51" t="s">
         <v>184</v>
       </c>
@@ -11228,7 +11266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="31" customFormat="1" ht="14.45" hidden="1" customHeight="1">
+    <row r="68" spans="1:45" s="31" customFormat="1" ht="14.45" customHeight="1">
       <c r="A68" s="51" t="s">
         <v>187</v>
       </c>
@@ -11320,7 +11358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A69" s="51" t="s">
         <v>190</v>
       </c>
@@ -11429,7 +11467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5" hidden="1">
+    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5">
       <c r="A70" s="277" t="s">
         <v>190</v>
       </c>
@@ -11532,7 +11570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A71" s="277" t="s">
         <v>190</v>
       </c>
@@ -11635,7 +11673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A72" s="277" t="s">
         <v>190</v>
       </c>
@@ -11732,7 +11770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A73" s="277" t="s">
         <v>190</v>
       </c>
@@ -11827,7 +11865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A74" s="51" t="s">
         <v>194</v>
       </c>
@@ -11936,7 +11974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A75" s="277" t="s">
         <v>194</v>
       </c>
@@ -12039,7 +12077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A76" s="277" t="s">
         <v>194</v>
       </c>
@@ -12142,7 +12180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A77" s="277" t="s">
         <v>194</v>
       </c>
@@ -12245,7 +12283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A78" s="277" t="s">
         <v>194</v>
       </c>
@@ -12348,7 +12386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A79" s="51" t="s">
         <v>198</v>
       </c>
@@ -12441,7 +12479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="80" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A80" s="51" t="s">
         <v>201</v>
       </c>
@@ -12532,7 +12570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A81" s="51" t="s">
         <v>205</v>
       </c>
@@ -12573,7 +12611,7 @@
       <c r="O81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="399" t="s">
+      <c r="P81" s="382" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="164" t="s">
@@ -12638,7 +12676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A82" s="284" t="s">
         <v>205</v>
       </c>
@@ -12679,7 +12717,7 @@
       <c r="O82" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="400"/>
+      <c r="P82" s="383"/>
       <c r="Q82" s="169" t="s">
         <v>100</v>
       </c>
@@ -12738,7 +12776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A83" s="284" t="s">
         <v>205</v>
       </c>
@@ -12779,7 +12817,7 @@
       <c r="O83" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="400"/>
+      <c r="P83" s="383"/>
       <c r="Q83" s="169" t="s">
         <v>102</v>
       </c>
@@ -12838,7 +12876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A84" s="284" t="s">
         <v>205</v>
       </c>
@@ -12879,7 +12917,7 @@
       <c r="O84" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="400"/>
+      <c r="P84" s="383"/>
       <c r="Q84" s="169" t="s">
         <v>13</v>
       </c>
@@ -12938,7 +12976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A85" s="284" t="s">
         <v>205</v>
       </c>
@@ -12979,7 +13017,7 @@
       <c r="O85" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="401"/>
+      <c r="P85" s="384"/>
       <c r="Q85" s="169" t="s">
         <v>16</v>
       </c>
@@ -13039,7 +13077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="86" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A86" s="51" t="s">
         <v>208</v>
       </c>
@@ -13084,7 +13122,7 @@
       <c r="O86" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="400" t="s">
+      <c r="P86" s="383" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="164" t="s">
@@ -13149,7 +13187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="87" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A87" s="284" t="s">
         <v>208</v>
       </c>
@@ -13194,7 +13232,7 @@
       <c r="O87" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="400"/>
+      <c r="P87" s="383"/>
       <c r="Q87" s="169" t="s">
         <v>100</v>
       </c>
@@ -13253,7 +13291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="88" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A88" s="284" t="s">
         <v>208</v>
       </c>
@@ -13298,7 +13336,7 @@
       <c r="O88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="400"/>
+      <c r="P88" s="383"/>
       <c r="Q88" s="169" t="s">
         <v>102</v>
       </c>
@@ -13357,7 +13395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="89" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A89" s="284" t="s">
         <v>208</v>
       </c>
@@ -13402,7 +13440,7 @@
       <c r="O89" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="400"/>
+      <c r="P89" s="383"/>
       <c r="Q89" s="169" t="s">
         <v>13</v>
       </c>
@@ -13461,7 +13499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="90" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A90" s="284" t="s">
         <v>208</v>
       </c>
@@ -13502,7 +13540,7 @@
       <c r="O90" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="401"/>
+      <c r="P90" s="384"/>
       <c r="Q90" s="169" t="s">
         <v>16</v>
       </c>
@@ -13562,7 +13600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A91" s="284"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -13609,7 +13647,7 @@
       <c r="AR91" s="272"/>
       <c r="AS91" s="173"/>
     </row>
-    <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
+    <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
       <c r="A92" s="51" t="s">
         <v>211</v>
       </c>
@@ -13718,7 +13756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="31" customFormat="1" ht="80.25" hidden="1">
+    <row r="93" spans="1:45" s="31" customFormat="1" ht="80.25">
       <c r="A93" s="284" t="s">
         <v>211</v>
       </c>
@@ -13802,7 +13840,7 @@
       <c r="AR93" s="272"/>
       <c r="AS93" s="74"/>
     </row>
-    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A94" s="284" t="s">
         <v>211</v>
       </c>
@@ -13884,7 +13922,7 @@
       <c r="AR94" s="272"/>
       <c r="AS94" s="74"/>
     </row>
-    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A95" s="284" t="s">
         <v>211</v>
       </c>
@@ -13966,7 +14004,7 @@
       <c r="AR95" s="272"/>
       <c r="AS95" s="74"/>
     </row>
-    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="284" t="s">
         <v>211</v>
       </c>
@@ -14048,7 +14086,7 @@
       <c r="AR96" s="272"/>
       <c r="AS96" s="74"/>
     </row>
-    <row r="97" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="97" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A97" s="51" t="s">
         <v>215</v>
       </c>
@@ -14143,7 +14181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="98" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A98" s="51" t="s">
         <v>219</v>
       </c>
@@ -14236,7 +14274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="42" t="s">
         <v>222</v>
       </c>
@@ -14277,7 +14315,7 @@
       <c r="O99" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="P99" s="402" t="s">
+      <c r="P99" s="388" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="164" t="s">
@@ -14342,7 +14380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="32" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+    <row r="100" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
       <c r="A100" s="45" t="s">
         <v>222</v>
       </c>
@@ -14383,7 +14421,7 @@
       <c r="O100" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P100" s="403"/>
+      <c r="P100" s="389"/>
       <c r="Q100" s="169" t="s">
         <v>100</v>
       </c>
@@ -14442,7 +14480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="32" customFormat="1" ht="13.5" hidden="1" customHeight="1">
+    <row r="101" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="45" t="s">
         <v>222</v>
       </c>
@@ -14483,7 +14521,7 @@
       <c r="O101" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P101" s="403"/>
+      <c r="P101" s="389"/>
       <c r="Q101" s="169" t="s">
         <v>102</v>
       </c>
@@ -14542,7 +14580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A102" s="45" t="s">
         <v>222</v>
       </c>
@@ -14583,7 +14621,7 @@
       <c r="O102" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P102" s="403"/>
+      <c r="P102" s="389"/>
       <c r="Q102" s="169" t="s">
         <v>13</v>
       </c>
@@ -14638,7 +14676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A103" s="48" t="s">
         <v>222</v>
       </c>
@@ -14679,7 +14717,7 @@
       <c r="O103" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="P103" s="404"/>
+      <c r="P103" s="390"/>
       <c r="Q103" s="177" t="s">
         <v>16</v>
       </c>
@@ -14728,7 +14766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="104" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A104" s="42" t="s">
         <v>226</v>
       </c>
@@ -14803,7 +14841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="105" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A105" s="66" t="s">
         <v>226</v>
       </c>
@@ -14876,7 +14914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="106" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="66" t="s">
         <v>226</v>
       </c>
@@ -14949,7 +14987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="66" t="s">
         <v>226</v>
       </c>
@@ -15022,7 +15060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="108" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A108" s="290" t="s">
         <v>226</v>
       </c>
@@ -15095,7 +15133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A109" s="42" t="s">
         <v>230</v>
       </c>
@@ -15170,7 +15208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="110" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A110" s="45" t="s">
         <v>230</v>
       </c>
@@ -15243,7 +15281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="111" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A111" s="45" t="s">
         <v>230</v>
       </c>
@@ -15316,7 +15354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="112" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A112" s="45" t="s">
         <v>230</v>
       </c>
@@ -15389,7 +15427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="113" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A113" s="63" t="s">
         <v>230</v>
       </c>
@@ -15462,7 +15500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A114" s="42" t="s">
         <v>232</v>
       </c>
@@ -15535,7 +15573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A115" s="45" t="s">
         <v>232</v>
       </c>
@@ -15606,7 +15644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A116" s="45" t="s">
         <v>232</v>
       </c>
@@ -15677,7 +15715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A117" s="45" t="s">
         <v>232</v>
       </c>
@@ -15748,7 +15786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A118" s="63" t="s">
         <v>232</v>
       </c>
@@ -15819,7 +15857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="16.5" hidden="1">
+    <row r="119" spans="1:45" ht="16.5">
       <c r="A119" s="51" t="s">
         <v>234</v>
       </c>
@@ -15857,7 +15895,7 @@
       <c r="O119" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="399" t="s">
+      <c r="P119" s="382" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="164" t="s">
@@ -15875,7 +15913,9 @@
       <c r="U119" s="165">
         <v>43900</v>
       </c>
-      <c r="V119" s="51"/>
+      <c r="V119" s="212">
+        <v>1</v>
+      </c>
       <c r="W119" s="99" t="s">
         <v>127</v>
       </c>
@@ -15919,7 +15959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="16.5" hidden="1">
+    <row r="120" spans="1:45" ht="16.5">
       <c r="A120" s="294" t="s">
         <v>234</v>
       </c>
@@ -15953,7 +15993,7 @@
       <c r="O120" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="400"/>
+      <c r="P120" s="383"/>
       <c r="Q120" s="169" t="s">
         <v>100</v>
       </c>
@@ -15968,7 +16008,7 @@
       </c>
       <c r="U120" s="211"/>
       <c r="V120" s="340">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="W120" s="341" t="s">
         <v>127</v>
@@ -16013,7 +16053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="16.5" hidden="1">
+    <row r="121" spans="1:45" ht="16.5">
       <c r="A121" s="294" t="s">
         <v>234</v>
       </c>
@@ -16047,7 +16087,7 @@
       <c r="O121" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="400"/>
+      <c r="P121" s="383"/>
       <c r="Q121" s="169" t="s">
         <v>102</v>
       </c>
@@ -16103,7 +16143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="16.5" hidden="1">
+    <row r="122" spans="1:45" ht="16.5">
       <c r="A122" s="294" t="s">
         <v>234</v>
       </c>
@@ -16137,7 +16177,7 @@
       <c r="O122" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="400"/>
+      <c r="P122" s="383"/>
       <c r="Q122" s="169" t="s">
         <v>13</v>
       </c>
@@ -16193,7 +16233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="16.5" hidden="1">
+    <row r="123" spans="1:45" ht="16.5">
       <c r="A123" s="294" t="s">
         <v>234</v>
       </c>
@@ -16227,7 +16267,7 @@
       <c r="O123" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="401"/>
+      <c r="P123" s="384"/>
       <c r="Q123" s="169" t="s">
         <v>16</v>
       </c>
@@ -16283,7 +16323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="15.75" hidden="1">
+    <row r="124" spans="1:45" ht="15.75">
       <c r="A124" s="51" t="s">
         <v>238</v>
       </c>
@@ -16369,37 +16409,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="22">
-      <filters>
-        <filter val="袁奇、陳爽"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
     <mergeCell ref="P119:P123"/>
     <mergeCell ref="P92:P96"/>
     <mergeCell ref="P99:P103"/>
     <mergeCell ref="P104:P108"/>
     <mergeCell ref="P109:P113"/>
     <mergeCell ref="P114:P118"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
   </mergeCells>
-  <phoneticPr fontId="38"/>
+  <phoneticPr fontId="37"/>
   <dataValidations count="1">
     <dataValidation showErrorMessage="1" sqref="F2 G8:G11 F12:G13" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
@@ -16770,7 +16804,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="38"/>
+  <phoneticPr fontId="37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -17564,7 +17598,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:H38" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <phoneticPr fontId="38"/>
+  <phoneticPr fontId="37"/>
   <dataValidations count="1">
     <dataValidation showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
@@ -17667,28 +17701,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38"/>
+  <phoneticPr fontId="37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -17820,8 +17839,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -17833,7 +17867,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284A7CB-DDD1-45B2-A2EB-8D617D8AD8D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94A9B93-8457-4FC7-AD9F-57D919534B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,8 +1365,12 @@
     <phoneticPr fontId="37"/>
   </si>
   <si>
+    <t>今バックがあるので、一応対応不要。</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">35%
+      <t xml:space="preserve">48%
 </t>
     </r>
     <r>
@@ -1377,12 +1381,8 @@
         <family val="2"/>
       </rPr>
       <t>20200317 市场MM表作业再开，开发一时终止
-20200323 (保守担当确认一时对应不要)作業が変化があって、一応対応不要</t>
+20200327 (保守担当确认一时对应不要)作業が変化があって、一応対応不要</t>
     </r>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>今バックがあるので、一応対応不要。</t>
     <phoneticPr fontId="37"/>
   </si>
 </sst>
@@ -1399,7 +1399,7 @@
     <numFmt numFmtId="181" formatCode="0.000"/>
     <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1657,13 +1657,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3743,18 +3736,66 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3764,15 +3805,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3782,47 +3814,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4481,9 +4474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4806,7 +4799,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="399" t="s">
+      <c r="P3" s="381" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4902,7 +4895,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="400"/>
+      <c r="P4" s="382"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -4996,7 +4989,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="400"/>
+      <c r="P5" s="382"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5090,7 +5083,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="400"/>
+      <c r="P6" s="382"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5184,7 +5177,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="401"/>
+      <c r="P7" s="383"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5278,7 +5271,7 @@
       <c r="O8" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="385" t="s">
+      <c r="P8" s="384" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="164" t="s">
@@ -5296,7 +5289,7 @@
       <c r="U8" s="170">
         <v>43913</v>
       </c>
-      <c r="V8" s="381"/>
+      <c r="V8" s="380"/>
       <c r="W8" s="74" t="s">
         <v>107</v>
       </c>
@@ -5383,7 +5376,7 @@
       <c r="O9" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="386"/>
+      <c r="P9" s="385"/>
       <c r="Q9" s="169" t="s">
         <v>100</v>
       </c>
@@ -5397,7 +5390,7 @@
         <v>43914</v>
       </c>
       <c r="U9" s="170"/>
-      <c r="V9" s="381"/>
+      <c r="V9" s="380"/>
       <c r="W9" s="181" t="s">
         <v>107</v>
       </c>
@@ -5482,7 +5475,7 @@
       <c r="O10" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="386"/>
+      <c r="P10" s="385"/>
       <c r="Q10" s="169" t="s">
         <v>102</v>
       </c>
@@ -5494,7 +5487,7 @@
       </c>
       <c r="T10" s="170"/>
       <c r="U10" s="170"/>
-      <c r="V10" s="381"/>
+      <c r="V10" s="380"/>
       <c r="W10" s="181" t="s">
         <v>107</v>
       </c>
@@ -5579,7 +5572,7 @@
       <c r="O11" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="386"/>
+      <c r="P11" s="385"/>
       <c r="Q11" s="169" t="s">
         <v>13</v>
       </c>
@@ -5591,7 +5584,7 @@
       </c>
       <c r="T11" s="170"/>
       <c r="U11" s="170"/>
-      <c r="V11" s="381"/>
+      <c r="V11" s="380"/>
       <c r="W11" s="181" t="s">
         <v>107</v>
       </c>
@@ -5678,7 +5671,7 @@
       <c r="O12" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="387"/>
+      <c r="P12" s="386"/>
       <c r="Q12" s="182" t="s">
         <v>16</v>
       </c>
@@ -5690,7 +5683,7 @@
       </c>
       <c r="T12" s="170"/>
       <c r="U12" s="170"/>
-      <c r="V12" s="381"/>
+      <c r="V12" s="380"/>
       <c r="W12" s="181" t="s">
         <v>107</v>
       </c>
@@ -5930,7 +5923,7 @@
       <c r="O15" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="402" t="s">
+      <c r="P15" s="387" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -6022,7 +6015,7 @@
       <c r="O16" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="403"/>
+      <c r="P16" s="388"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6112,7 +6105,7 @@
       <c r="O17" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="403"/>
+      <c r="P17" s="388"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6202,7 +6195,7 @@
       <c r="O18" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="403"/>
+      <c r="P18" s="388"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6292,7 +6285,7 @@
       <c r="O19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="404"/>
+      <c r="P19" s="389"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -6387,7 +6380,7 @@
       <c r="O20" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="391" t="s">
+      <c r="P20" s="390" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="164" t="s">
@@ -6502,7 +6495,7 @@
       <c r="O21" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="392"/>
+      <c r="P21" s="391"/>
       <c r="Q21" s="169" t="s">
         <v>100</v>
       </c>
@@ -6610,7 +6603,7 @@
       <c r="O22" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="392"/>
+      <c r="P22" s="391"/>
       <c r="Q22" s="169" t="s">
         <v>102</v>
       </c>
@@ -6718,7 +6711,7 @@
       <c r="O23" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="392"/>
+      <c r="P23" s="391"/>
       <c r="Q23" s="169" t="s">
         <v>13</v>
       </c>
@@ -6827,7 +6820,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="393"/>
+      <c r="P24" s="392"/>
       <c r="Q24" s="182" t="s">
         <v>16</v>
       </c>
@@ -6928,7 +6921,7 @@
       <c r="O25" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="391" t="s">
+      <c r="P25" s="390" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="164" t="s">
@@ -7037,7 +7030,7 @@
       <c r="O26" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="392"/>
+      <c r="P26" s="391"/>
       <c r="Q26" s="169" t="s">
         <v>100</v>
       </c>
@@ -7140,7 +7133,7 @@
       <c r="O27" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="392"/>
+      <c r="P27" s="391"/>
       <c r="Q27" s="169" t="s">
         <v>102</v>
       </c>
@@ -7243,7 +7236,7 @@
       <c r="O28" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="392"/>
+      <c r="P28" s="391"/>
       <c r="Q28" s="169" t="s">
         <v>13</v>
       </c>
@@ -7346,7 +7339,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="393"/>
+      <c r="P29" s="392"/>
       <c r="Q29" s="182" t="s">
         <v>16</v>
       </c>
@@ -7449,7 +7442,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="394" t="s">
+      <c r="P30" s="393" t="s">
         <v>25</v>
       </c>
       <c r="Q30" s="164" t="s">
@@ -7558,7 +7551,7 @@
       <c r="O31" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="392"/>
+      <c r="P31" s="391"/>
       <c r="Q31" s="169" t="s">
         <v>100</v>
       </c>
@@ -7661,7 +7654,7 @@
       <c r="O32" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="392"/>
+      <c r="P32" s="391"/>
       <c r="Q32" s="169" t="s">
         <v>102</v>
       </c>
@@ -7768,7 +7761,7 @@
       <c r="O33" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="392"/>
+      <c r="P33" s="391"/>
       <c r="Q33" s="169" t="s">
         <v>13</v>
       </c>
@@ -7869,7 +7862,7 @@
       <c r="O34" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="395"/>
+      <c r="P34" s="394"/>
       <c r="Q34" s="177" t="s">
         <v>16</v>
       </c>
@@ -7964,7 +7957,7 @@
       <c r="O35" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="396" t="s">
+      <c r="P35" s="395" t="s">
         <v>28</v>
       </c>
       <c r="Q35" s="164" t="s">
@@ -8077,7 +8070,7 @@
       <c r="O36" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="397"/>
+      <c r="P36" s="396"/>
       <c r="Q36" s="169" t="s">
         <v>100</v>
       </c>
@@ -8184,7 +8177,7 @@
       <c r="O37" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="397"/>
+      <c r="P37" s="396"/>
       <c r="Q37" s="169" t="s">
         <v>102</v>
       </c>
@@ -8291,7 +8284,7 @@
       <c r="O38" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="397"/>
+      <c r="P38" s="396"/>
       <c r="Q38" s="169" t="s">
         <v>13</v>
       </c>
@@ -8398,7 +8391,7 @@
       <c r="O39" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="398"/>
+      <c r="P39" s="397"/>
       <c r="Q39" s="182" t="s">
         <v>16</v>
       </c>
@@ -8503,7 +8496,7 @@
       <c r="O40" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="396" t="s">
+      <c r="P40" s="395" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="164" t="s">
@@ -8618,7 +8611,7 @@
       <c r="O41" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="397"/>
+      <c r="P41" s="396"/>
       <c r="Q41" s="169" t="s">
         <v>100</v>
       </c>
@@ -8726,7 +8719,7 @@
       <c r="O42" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="397"/>
+      <c r="P42" s="396"/>
       <c r="Q42" s="169" t="s">
         <v>102</v>
       </c>
@@ -8834,7 +8827,7 @@
       <c r="O43" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="397"/>
+      <c r="P43" s="396"/>
       <c r="Q43" s="169" t="s">
         <v>13</v>
       </c>
@@ -8943,7 +8936,7 @@
       <c r="O44" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="398"/>
+      <c r="P44" s="397"/>
       <c r="Q44" s="182" t="s">
         <v>16</v>
       </c>
@@ -9395,7 +9388,7 @@
       <c r="O49" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="385" t="s">
+      <c r="P49" s="384" t="s">
         <v>21</v>
       </c>
       <c r="Q49" s="164" t="s">
@@ -9504,7 +9497,7 @@
       <c r="O50" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="386"/>
+      <c r="P50" s="385"/>
       <c r="Q50" s="169" t="s">
         <v>100</v>
       </c>
@@ -9611,7 +9604,7 @@
       <c r="O51" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="386"/>
+      <c r="P51" s="385"/>
       <c r="Q51" s="169" t="s">
         <v>102</v>
       </c>
@@ -9714,7 +9707,7 @@
       <c r="O52" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="386"/>
+      <c r="P52" s="385"/>
       <c r="Q52" s="169" t="s">
         <v>13</v>
       </c>
@@ -9807,7 +9800,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="387"/>
+      <c r="P53" s="386"/>
       <c r="Q53" s="182" t="s">
         <v>16</v>
       </c>
@@ -9898,7 +9891,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="74"/>
-      <c r="P54" s="385" t="s">
+      <c r="P54" s="384" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="164" t="s">
@@ -10001,7 +9994,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="106"/>
-      <c r="P55" s="386"/>
+      <c r="P55" s="385"/>
       <c r="Q55" s="169" t="s">
         <v>100</v>
       </c>
@@ -10100,7 +10093,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="106"/>
-      <c r="P56" s="386"/>
+      <c r="P56" s="385"/>
       <c r="Q56" s="169" t="s">
         <v>102</v>
       </c>
@@ -10199,7 +10192,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="106"/>
-      <c r="P57" s="386"/>
+      <c r="P57" s="385"/>
       <c r="Q57" s="169" t="s">
         <v>13</v>
       </c>
@@ -10294,7 +10287,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="106"/>
-      <c r="P58" s="387"/>
+      <c r="P58" s="386"/>
       <c r="Q58" s="169" t="s">
         <v>16</v>
       </c>
@@ -10385,7 +10378,7 @@
       <c r="O59" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P59" s="391" t="s">
+      <c r="P59" s="390" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="164" t="s">
@@ -10502,7 +10495,7 @@
       <c r="O60" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P60" s="392"/>
+      <c r="P60" s="391"/>
       <c r="Q60" s="169" t="s">
         <v>100</v>
       </c>
@@ -10610,7 +10603,7 @@
       <c r="O61" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P61" s="392"/>
+      <c r="P61" s="391"/>
       <c r="Q61" s="169" t="s">
         <v>102</v>
       </c>
@@ -10718,7 +10711,7 @@
       <c r="O62" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P62" s="392"/>
+      <c r="P62" s="391"/>
       <c r="Q62" s="169" t="s">
         <v>13</v>
       </c>
@@ -10829,7 +10822,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="393"/>
+      <c r="P63" s="392"/>
       <c r="Q63" s="182" t="s">
         <v>16</v>
       </c>
@@ -11135,8 +11128,8 @@
       <c r="Y66" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="Z66" s="380" t="s">
-        <v>307</v>
+      <c r="Z66" s="379" t="s">
+        <v>306</v>
       </c>
       <c r="AA66" s="74" t="s">
         <v>109</v>
@@ -11399,7 +11392,7 @@
       <c r="O69" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="385" t="s">
+      <c r="P69" s="384" t="s">
         <v>21</v>
       </c>
       <c r="Q69" s="164" t="s">
@@ -11508,7 +11501,7 @@
       <c r="O70" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="386"/>
+      <c r="P70" s="385"/>
       <c r="Q70" s="169" t="s">
         <v>100</v>
       </c>
@@ -11611,7 +11604,7 @@
       <c r="O71" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="386"/>
+      <c r="P71" s="385"/>
       <c r="Q71" s="169" t="s">
         <v>102</v>
       </c>
@@ -11714,7 +11707,7 @@
       <c r="O72" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="386"/>
+      <c r="P72" s="385"/>
       <c r="Q72" s="169" t="s">
         <v>13</v>
       </c>
@@ -11811,7 +11804,7 @@
       <c r="O73" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="387"/>
+      <c r="P73" s="386"/>
       <c r="Q73" s="182" t="s">
         <v>16</v>
       </c>
@@ -11906,7 +11899,7 @@
       <c r="O74" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="385" t="s">
+      <c r="P74" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q74" s="164" t="s">
@@ -12015,7 +12008,7 @@
       <c r="O75" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="386"/>
+      <c r="P75" s="385"/>
       <c r="Q75" s="169" t="s">
         <v>100</v>
       </c>
@@ -12118,7 +12111,7 @@
       <c r="O76" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="386"/>
+      <c r="P76" s="385"/>
       <c r="Q76" s="169" t="s">
         <v>102</v>
       </c>
@@ -12221,7 +12214,7 @@
       <c r="O77" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="386"/>
+      <c r="P77" s="385"/>
       <c r="Q77" s="169" t="s">
         <v>13</v>
       </c>
@@ -12324,7 +12317,7 @@
       <c r="O78" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="387"/>
+      <c r="P78" s="386"/>
       <c r="Q78" s="182" t="s">
         <v>16</v>
       </c>
@@ -12611,7 +12604,7 @@
       <c r="O81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="382" t="s">
+      <c r="P81" s="398" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="164" t="s">
@@ -12717,7 +12710,7 @@
       <c r="O82" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="383"/>
+      <c r="P82" s="399"/>
       <c r="Q82" s="169" t="s">
         <v>100</v>
       </c>
@@ -12817,7 +12810,7 @@
       <c r="O83" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="383"/>
+      <c r="P83" s="399"/>
       <c r="Q83" s="169" t="s">
         <v>102</v>
       </c>
@@ -12917,7 +12910,7 @@
       <c r="O84" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="383"/>
+      <c r="P84" s="399"/>
       <c r="Q84" s="169" t="s">
         <v>13</v>
       </c>
@@ -13017,7 +13010,7 @@
       <c r="O85" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="384"/>
+      <c r="P85" s="400"/>
       <c r="Q85" s="169" t="s">
         <v>16</v>
       </c>
@@ -13122,7 +13115,7 @@
       <c r="O86" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="383" t="s">
+      <c r="P86" s="399" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="164" t="s">
@@ -13232,7 +13225,7 @@
       <c r="O87" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="383"/>
+      <c r="P87" s="399"/>
       <c r="Q87" s="169" t="s">
         <v>100</v>
       </c>
@@ -13336,7 +13329,7 @@
       <c r="O88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="383"/>
+      <c r="P88" s="399"/>
       <c r="Q88" s="169" t="s">
         <v>102</v>
       </c>
@@ -13440,7 +13433,7 @@
       <c r="O89" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="383"/>
+      <c r="P89" s="399"/>
       <c r="Q89" s="169" t="s">
         <v>13</v>
       </c>
@@ -13540,7 +13533,7 @@
       <c r="O90" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="384"/>
+      <c r="P90" s="400"/>
       <c r="Q90" s="169" t="s">
         <v>16</v>
       </c>
@@ -13688,7 +13681,7 @@
       <c r="O92" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P92" s="385" t="s">
+      <c r="P92" s="384" t="s">
         <v>19</v>
       </c>
       <c r="Q92" s="164" t="s">
@@ -13797,7 +13790,7 @@
       <c r="O93" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="386"/>
+      <c r="P93" s="385"/>
       <c r="Q93" s="169" t="s">
         <v>100</v>
       </c>
@@ -13811,8 +13804,8 @@
         <v>43906</v>
       </c>
       <c r="U93" s="211"/>
-      <c r="V93" s="379" t="s">
-        <v>306</v>
+      <c r="V93" s="404" t="s">
+        <v>307</v>
       </c>
       <c r="W93" s="136" t="s">
         <v>122</v>
@@ -13881,7 +13874,7 @@
       <c r="O94" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="386"/>
+      <c r="P94" s="385"/>
       <c r="Q94" s="169" t="s">
         <v>102</v>
       </c>
@@ -13963,7 +13956,7 @@
       <c r="O95" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="386"/>
+      <c r="P95" s="385"/>
       <c r="Q95" s="169" t="s">
         <v>13</v>
       </c>
@@ -14045,7 +14038,7 @@
       <c r="O96" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="387"/>
+      <c r="P96" s="386"/>
       <c r="Q96" s="169" t="s">
         <v>16</v>
       </c>
@@ -14315,7 +14308,7 @@
       <c r="O99" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="P99" s="388" t="s">
+      <c r="P99" s="401" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="164" t="s">
@@ -14421,7 +14414,7 @@
       <c r="O100" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P100" s="389"/>
+      <c r="P100" s="402"/>
       <c r="Q100" s="169" t="s">
         <v>100</v>
       </c>
@@ -14521,7 +14514,7 @@
       <c r="O101" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P101" s="389"/>
+      <c r="P101" s="402"/>
       <c r="Q101" s="169" t="s">
         <v>102</v>
       </c>
@@ -14621,7 +14614,7 @@
       <c r="O102" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="P102" s="389"/>
+      <c r="P102" s="402"/>
       <c r="Q102" s="169" t="s">
         <v>13</v>
       </c>
@@ -14717,7 +14710,7 @@
       <c r="O103" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="P103" s="390"/>
+      <c r="P103" s="403"/>
       <c r="Q103" s="177" t="s">
         <v>16</v>
       </c>
@@ -14790,7 +14783,7 @@
       <c r="O104" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="P104" s="385" t="s">
+      <c r="P104" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q104" s="164" t="s">
@@ -14865,7 +14858,7 @@
       <c r="O105" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P105" s="386"/>
+      <c r="P105" s="385"/>
       <c r="Q105" s="169" t="s">
         <v>100</v>
       </c>
@@ -14938,7 +14931,7 @@
       <c r="O106" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P106" s="386"/>
+      <c r="P106" s="385"/>
       <c r="Q106" s="169" t="s">
         <v>102</v>
       </c>
@@ -15011,7 +15004,7 @@
       <c r="O107" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="P107" s="386"/>
+      <c r="P107" s="385"/>
       <c r="Q107" s="169" t="s">
         <v>13</v>
       </c>
@@ -15084,7 +15077,7 @@
       <c r="O108" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="P108" s="387"/>
+      <c r="P108" s="386"/>
       <c r="Q108" s="182" t="s">
         <v>16</v>
       </c>
@@ -15157,7 +15150,7 @@
       <c r="O109" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="P109" s="385" t="s">
+      <c r="P109" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q109" s="164" t="s">
@@ -15232,7 +15225,7 @@
       <c r="O110" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P110" s="386"/>
+      <c r="P110" s="385"/>
       <c r="Q110" s="169" t="s">
         <v>100</v>
       </c>
@@ -15305,7 +15298,7 @@
       <c r="O111" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P111" s="386"/>
+      <c r="P111" s="385"/>
       <c r="Q111" s="169" t="s">
         <v>102</v>
       </c>
@@ -15378,7 +15371,7 @@
       <c r="O112" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="P112" s="386"/>
+      <c r="P112" s="385"/>
       <c r="Q112" s="169" t="s">
         <v>13</v>
       </c>
@@ -15451,7 +15444,7 @@
       <c r="O113" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="P113" s="387"/>
+      <c r="P113" s="386"/>
       <c r="Q113" s="182" t="s">
         <v>16</v>
       </c>
@@ -15522,7 +15515,7 @@
       <c r="M114" s="97"/>
       <c r="N114" s="98"/>
       <c r="O114" s="99"/>
-      <c r="P114" s="385" t="s">
+      <c r="P114" s="384" t="s">
         <v>28</v>
       </c>
       <c r="Q114" s="164" t="s">
@@ -15595,7 +15588,7 @@
       <c r="M115" s="104"/>
       <c r="N115" s="105"/>
       <c r="O115" s="106"/>
-      <c r="P115" s="386"/>
+      <c r="P115" s="385"/>
       <c r="Q115" s="169" t="s">
         <v>100</v>
       </c>
@@ -15666,7 +15659,7 @@
       <c r="M116" s="104"/>
       <c r="N116" s="105"/>
       <c r="O116" s="106"/>
-      <c r="P116" s="386"/>
+      <c r="P116" s="385"/>
       <c r="Q116" s="169" t="s">
         <v>102</v>
       </c>
@@ -15737,7 +15730,7 @@
       <c r="M117" s="104"/>
       <c r="N117" s="105"/>
       <c r="O117" s="106"/>
-      <c r="P117" s="386"/>
+      <c r="P117" s="385"/>
       <c r="Q117" s="169" t="s">
         <v>13</v>
       </c>
@@ -15808,7 +15801,7 @@
       <c r="M118" s="141"/>
       <c r="N118" s="142"/>
       <c r="O118" s="149"/>
-      <c r="P118" s="387"/>
+      <c r="P118" s="386"/>
       <c r="Q118" s="182" t="s">
         <v>16</v>
       </c>
@@ -15895,7 +15888,7 @@
       <c r="O119" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="382" t="s">
+      <c r="P119" s="398" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="164" t="s">
@@ -15993,7 +15986,7 @@
       <c r="O120" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="383"/>
+      <c r="P120" s="399"/>
       <c r="Q120" s="169" t="s">
         <v>100</v>
       </c>
@@ -16087,7 +16080,7 @@
       <c r="O121" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="383"/>
+      <c r="P121" s="399"/>
       <c r="Q121" s="169" t="s">
         <v>102</v>
       </c>
@@ -16177,7 +16170,7 @@
       <c r="O122" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="383"/>
+      <c r="P122" s="399"/>
       <c r="Q122" s="169" t="s">
         <v>13</v>
       </c>
@@ -16267,7 +16260,7 @@
       <c r="O123" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="384"/>
+      <c r="P123" s="400"/>
       <c r="Q123" s="169" t="s">
         <v>16</v>
       </c>
@@ -16411,27 +16404,27 @@
   </sheetData>
   <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
     <mergeCell ref="P119:P123"/>
     <mergeCell ref="P92:P96"/>
     <mergeCell ref="P99:P103"/>
     <mergeCell ref="P104:P108"/>
     <mergeCell ref="P109:P113"/>
     <mergeCell ref="P114:P118"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <dataValidations count="1">
@@ -17708,6 +17701,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -17839,23 +17847,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -17867,7 +17860,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284A7CB-DDD1-45B2-A2EB-8D617D8AD8D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9965D8-5D10-492B-ABF1-FC2184265C9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SCRM対象一覧!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">作業一覧!$B$1:$H$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">効率化作業明細!$A$1:$AS$124</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">作業一覧!$B$1:$H$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">効率化作業明細!$A$1:$AS$144</definedName>
     <definedName name="ステータス" localSheetId="0">マスタ!$A$2:$A$16</definedName>
     <definedName name="ステータス">[1]マスタ!$A$2:$A$16</definedName>
@@ -516,14 +516,796 @@
 </t>
   </si>
   <si>
+    <t>L1AUTO010</t>
+  </si>
+  <si>
+    <t>048_CLM利用履歴作成手順</t>
+  </si>
+  <si>
+    <t>048_CLM利用履歴作成手順.xlsx</t>
+  </si>
+  <si>
+    <t>袁奇、陳爽</t>
+  </si>
+  <si>
+    <t>L1AUTO011</t>
+  </si>
+  <si>
+    <t>073_MSLとPMSのレポート定期配信</t>
+  </si>
+  <si>
+    <t>073_MSLとPMSのレポート定期配信.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO012</t>
+  </si>
+  <si>
+    <t>Weekly Report</t>
+  </si>
+  <si>
+    <t>周次</t>
+  </si>
+  <si>
+    <t>廃止</t>
+  </si>
+  <si>
+    <t>L1AUTO013</t>
+  </si>
+  <si>
+    <t>統合ID系の定常作業</t>
+  </si>
+  <si>
+    <t>運用担当：huijuan.cao@takeda.com</t>
+  </si>
+  <si>
+    <t>L1AUTO014</t>
+  </si>
+  <si>
+    <t>Tryangle画像取込みエラーチェック</t>
+  </si>
+  <si>
+    <t>画像取込エラー発生時の確認手順_New.xlsx</t>
+  </si>
+  <si>
+    <t>メール届く
+(毎月１３回ぐらい)</t>
+  </si>
+  <si>
+    <t>L1AUTO015</t>
+  </si>
+  <si>
+    <t>薬事工業生産動態統計調査</t>
+  </si>
+  <si>
+    <t>薬工動態統計変更、調査メール保存手順.xlsx</t>
+  </si>
+  <si>
+    <t>簡単ですので、自動化対応不要。</t>
+  </si>
+  <si>
+    <t>L1AUTO016</t>
+  </si>
+  <si>
+    <t>ヘルスケア従業員基本一覧提供</t>
+  </si>
+  <si>
+    <t>ヘルスケア従業員基本一覧提供手順書.xlsx</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve">90%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>数据库连接获取数据，数据库信息不足，需要武田环境登录数据库，埃森哲环境不行，等公司办公的时候和担当者确认</t>
+    </r>
+  </si>
+  <si>
+    <t>L1AUTO017</t>
+  </si>
+  <si>
+    <t>報奨金振込</t>
+  </si>
+  <si>
+    <t>報奨金振込手順.xlsx</t>
+  </si>
+  <si>
+    <t>寇鴻飛</t>
+  </si>
+  <si>
+    <t>L1AUTO018</t>
+  </si>
+  <si>
+    <t>Salesforceのメールログデータの取得</t>
+  </si>
+  <si>
+    <t>salesforceメールログ取得手順書.xlsx</t>
+  </si>
+  <si>
+    <t>運用担当：fanzhao.kong@takeda.com</t>
+  </si>
+  <si>
+    <t>L1AUTO019</t>
+  </si>
+  <si>
+    <t>納入計画C変更</t>
+  </si>
+  <si>
+    <t>納入計画コード変更手順書.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO020</t>
+  </si>
+  <si>
+    <t>報奨金CSVの送付</t>
+  </si>
+  <si>
+    <t>報奨金CSV送付手順書.xlsx</t>
+  </si>
+  <si>
+    <t>既にJP1ジョブになってる</t>
+  </si>
+  <si>
+    <t>対応不要</t>
+  </si>
+  <si>
+    <t>L1AUTO021</t>
+  </si>
+  <si>
+    <t>粗利提供（ｲﾄｰﾖｰｶ堂・ﾄﾓｽﾞ・ｳｴﾙｼｱ）</t>
+  </si>
+  <si>
+    <t>粗利提供_作業手順書.xlsx</t>
+  </si>
+  <si>
+    <t>今バックがあるので、一応対応不要。</t>
+  </si>
+  <si>
+    <t>L1AUTO022</t>
+  </si>
+  <si>
+    <t>販促品運送（企業案分）データ登録</t>
+  </si>
+  <si>
+    <t>販促品運送（企業案分）データ登録.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO023</t>
+  </si>
+  <si>
+    <t>損益レポート月次処理結果確認</t>
+  </si>
+  <si>
+    <t>損益レポート作成確認_確認手順.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO024</t>
+  </si>
+  <si>
+    <t>未登録取引先部署Ｃの確認と連絡</t>
+  </si>
+  <si>
+    <t>未登録取引先部署C_本番作業手順書.xls</t>
+  </si>
+  <si>
+    <t>90%
+因为页面数据获取需要登录武田环境，所以数据获取部分尚未完成</t>
+  </si>
+  <si>
+    <t>L1AUTO025</t>
+  </si>
+  <si>
+    <t>ヘルスケアスケジュール表の作成</t>
+  </si>
+  <si>
+    <t>ヘルスケアスケジュール表確認手順書.xlsx</t>
+  </si>
+  <si>
+    <t>BI_report 至急(2020/02/19) CRM説明書を作成(2020/02/26) CRM KT(2020/2/28 12:00-14:00)</t>
+  </si>
+  <si>
+    <t>L1AUTO026</t>
+  </si>
+  <si>
+    <t>月次コード変更</t>
+  </si>
+  <si>
+    <t>月次コード変更手順書.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO027</t>
+  </si>
+  <si>
+    <t>従業員取込作業</t>
+  </si>
+  <si>
+    <t>従業員取込作業手順.xlsx</t>
+  </si>
+  <si>
+    <t>手順書が不備</t>
+  </si>
+  <si>
+    <t>L1AUTO028</t>
+  </si>
+  <si>
+    <t>担当者C変更</t>
+  </si>
+  <si>
+    <t>担当者Ｃ変更作業手順書.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO029</t>
+  </si>
+  <si>
+    <t>FS担当者C変更</t>
+  </si>
+  <si>
+    <t>FS担当者C変更作業手順書.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO030</t>
+  </si>
+  <si>
+    <t>ツールBOX内勤利用者</t>
+  </si>
+  <si>
+    <t>(総合T250)ツールBOX内勤者登録手順書.xls</t>
+  </si>
+  <si>
+    <t>VDIとSNOWが必要ため、一応対応不可
+100%</t>
+  </si>
+  <si>
+    <t>L1AUTO031</t>
+  </si>
+  <si>
+    <t>寄付金稟議シス　権限追加</t>
+  </si>
+  <si>
+    <t>【稟議･本番】20191008_作業手順書・記録書_ユーザ権限追加.xlsx</t>
+  </si>
+  <si>
+    <t>Task届く</t>
+  </si>
+  <si>
+    <t>L1AUTO032</t>
+  </si>
+  <si>
+    <t>透明性ガイドラン権限追加</t>
+  </si>
+  <si>
+    <t>【TGS本番】20190411_作業手順書・記録書_ユーザー登録・変更・削除.xlsx</t>
+  </si>
+  <si>
+    <t>L1AUTO033</t>
+  </si>
+  <si>
+    <t>BIチームへレポートの抽出作業</t>
+  </si>
+  <si>
+    <t>BIチームへレポートの抽出作業手順書.xlsx</t>
+  </si>
+  <si>
+    <t>UI Executor(Application)</t>
+  </si>
+  <si>
+    <t>L1AUTO034</t>
+  </si>
+  <si>
+    <t>BIへのレポート自動提供依頼</t>
+  </si>
+  <si>
+    <t>Automatic Report Provider
+（Solution Analyzing）</t>
+  </si>
+  <si>
+    <t>中止作業を再開</t>
+  </si>
+  <si>
+    <t>L1AUTO035</t>
+  </si>
+  <si>
+    <t>CRMへのレポート自動提供依頼</t>
+  </si>
+  <si>
+    <t>L1AUTO036</t>
+  </si>
+  <si>
+    <t>BI_Access Log Report</t>
+  </si>
+  <si>
+    <t>L1AUTO037</t>
+  </si>
+  <si>
+    <t>トラッキングデータの資料を送付</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トラッキングデータの資料を送付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>lsx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14993743705557422"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トラッキングデータの資料を送付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14993743705557422"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.14993743705557422"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>lsx</t>
+    </r>
+  </si>
+  <si>
+    <t>L1AUTO038</t>
+  </si>
+  <si>
+    <t>外部団体</t>
+  </si>
+  <si>
+    <t>外部団体の最新化(JA02)</t>
+  </si>
+  <si>
+    <t>適用ソリューション</t>
+  </si>
+  <si>
+    <t>画面操作系作業自動化</t>
+  </si>
+  <si>
+    <t>DB操作系自動化</t>
+  </si>
+  <si>
+    <t>アラート（メール、ログ）監視自動化</t>
+  </si>
+  <si>
+    <t>ドキュメントフォルダのメンテナンス</t>
+  </si>
+  <si>
+    <t>CLM利用履歴作成手順</t>
+  </si>
+  <si>
+    <t>MSLとPMSのレポート定期配信</t>
+  </si>
+  <si>
+    <t>DB抽出系作業自動化</t>
+  </si>
+  <si>
+    <t>アプリケーション操作系</t>
+  </si>
+  <si>
+    <t>要件分析中</t>
+  </si>
+  <si>
+    <t>自動化実施</t>
+  </si>
+  <si>
+    <t>作業</t>
+  </si>
+  <si>
+    <t>工数</t>
+  </si>
+  <si>
+    <t>頻度</t>
+  </si>
+  <si>
+    <t>作業システム</t>
+  </si>
+  <si>
+    <t>作業予定日（検証）</t>
+  </si>
+  <si>
+    <t>作業予定日（本番）</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>第一営業日</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>2h*3日=6h</t>
+  </si>
+  <si>
+    <t>月3回</t>
+  </si>
+  <si>
+    <t>一日に一回、三日間連続（通常月初）</t>
+  </si>
+  <si>
+    <t>第三営業日</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>第六営業日</t>
+  </si>
+  <si>
+    <t>9h*4周=36h</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>統合ID系</t>
+  </si>
+  <si>
+    <t>済み</t>
+  </si>
+  <si>
+    <t>不定時</t>
+  </si>
+  <si>
+    <t>メール届く
+月次</t>
+  </si>
+  <si>
+    <t>月次（通常月初）</t>
+  </si>
+  <si>
+    <t>月２回</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一営業日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：一回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一営業日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：一回目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+15日※休日の場合は翌営業日
+※：一回目</t>
+    </r>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>月３回</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">第三営業日（4月10月なし）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：一回目</t>
+    </r>
+  </si>
+  <si>
+    <t>第五営業日</t>
+  </si>
+  <si>
+    <t>粗利提供_ｲﾄｰﾖｰｶ堂</t>
+  </si>
+  <si>
+    <t>粗利提供__ﾄﾓｽﾞ</t>
+  </si>
+  <si>
+    <t>粗利提供__ｳｴﾙｼｱ</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>本番作業前</t>
+  </si>
+  <si>
+    <t>第十営業日</t>
+  </si>
+  <si>
+    <t>第十一営業日</t>
+  </si>
+  <si>
+    <t>今バグがありますから、一応山川にアサインします。</t>
+  </si>
+  <si>
+    <t>月３次</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>負十営業日　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：二回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>負六営業日　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：二回目</t>
+    </r>
+  </si>
+  <si>
+    <t>負五営業日</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　負四営業日　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：一回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　負三営業日　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：三回目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　負三営業日　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※：二回目</t>
+    </r>
+  </si>
+  <si>
+    <t>奨学寄附金稟議</t>
+  </si>
+  <si>
+    <t>負二営業日</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>不定時（通常月末）</t>
+  </si>
+  <si>
+    <t>透明性ガイドラインシステム</t>
+  </si>
+  <si>
+    <t>CR流程自动化，
+自动check,自动提醒</t>
+  </si>
+  <si>
+    <t>月２次</t>
+  </si>
+  <si>
+    <t>優先対応をお願い</t>
+  </si>
+  <si>
+    <t>作業が変化があって、一応対応不要</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>20200317 市场MM表作业再开，开发一时终止
+20200323 (保守担当确认一时对应不要)作業が変化があって、一応対応不要</t>
+    </r>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>今バックがあるので、一応対応不要。</t>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <r>
       <t>100%
 由于春</t>
     </r>
@@ -596,814 +1378,25 @@
 20200304 代码开发和本地测试已经完成，后续阶段需要真实的数据库连接信息和运行环境对代码进行调试和修正</t>
     </r>
   </si>
-  <si>
-    <t>L1AUTO010</t>
-  </si>
-  <si>
-    <t>048_CLM利用履歴作成手順</t>
-  </si>
-  <si>
-    <t>048_CLM利用履歴作成手順.xlsx</t>
-  </si>
-  <si>
-    <t>袁奇、陳爽</t>
-  </si>
-  <si>
-    <t>L1AUTO011</t>
-  </si>
-  <si>
-    <t>073_MSLとPMSのレポート定期配信</t>
-  </si>
-  <si>
-    <t>073_MSLとPMSのレポート定期配信.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO012</t>
-  </si>
-  <si>
-    <t>Weekly Report</t>
-  </si>
-  <si>
-    <t>周次</t>
-  </si>
-  <si>
-    <t>廃止</t>
-  </si>
-  <si>
-    <t>L1AUTO013</t>
-  </si>
-  <si>
-    <t>統合ID系の定常作業</t>
-  </si>
-  <si>
-    <t>運用担当：huijuan.cao@takeda.com</t>
-  </si>
-  <si>
-    <t>L1AUTO014</t>
-  </si>
-  <si>
-    <t>Tryangle画像取込みエラーチェック</t>
-  </si>
-  <si>
-    <t>画像取込エラー発生時の確認手順_New.xlsx</t>
-  </si>
-  <si>
-    <t>メール届く
-(毎月１３回ぐらい)</t>
-  </si>
-  <si>
-    <t>L1AUTO015</t>
-  </si>
-  <si>
-    <t>薬事工業生産動態統計調査</t>
-  </si>
-  <si>
-    <t>薬工動態統計変更、調査メール保存手順.xlsx</t>
-  </si>
-  <si>
-    <t>簡単ですので、自動化対応不要。</t>
-  </si>
-  <si>
-    <t>L1AUTO016</t>
-  </si>
-  <si>
-    <t>ヘルスケア従業員基本一覧提供</t>
-  </si>
-  <si>
-    <t>ヘルスケア従業員基本一覧提供手順書.xlsx</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">90%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>数据库连接获取数据，数据库信息不足，需要武田环境登录数据库，埃森哲环境不行，等公司办公的时候和担当者确认</t>
-    </r>
-  </si>
-  <si>
-    <t>L1AUTO017</t>
-  </si>
-  <si>
-    <t>報奨金振込</t>
-  </si>
-  <si>
-    <t>報奨金振込手順.xlsx</t>
-  </si>
-  <si>
-    <t>寇鴻飛</t>
-  </si>
-  <si>
-    <t>L1AUTO018</t>
-  </si>
-  <si>
-    <t>Salesforceのメールログデータの取得</t>
-  </si>
-  <si>
-    <t>salesforceメールログ取得手順書.xlsx</t>
-  </si>
-  <si>
-    <t>運用担当：fanzhao.kong@takeda.com</t>
-  </si>
-  <si>
-    <t>L1AUTO019</t>
-  </si>
-  <si>
-    <t>納入計画C変更</t>
-  </si>
-  <si>
-    <t>納入計画コード変更手順書.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO020</t>
-  </si>
-  <si>
-    <t>報奨金CSVの送付</t>
-  </si>
-  <si>
-    <t>報奨金CSV送付手順書.xlsx</t>
-  </si>
-  <si>
-    <t>既にJP1ジョブになってる</t>
-  </si>
-  <si>
-    <t>対応不要</t>
-  </si>
-  <si>
-    <t>L1AUTO021</t>
-  </si>
-  <si>
-    <t>粗利提供（ｲﾄｰﾖｰｶ堂・ﾄﾓｽﾞ・ｳｴﾙｼｱ）</t>
-  </si>
-  <si>
-    <t>粗利提供_作業手順書.xlsx</t>
-  </si>
-  <si>
-    <t>今バックがあるので、一応対応不要。</t>
-  </si>
-  <si>
-    <t>L1AUTO022</t>
-  </si>
-  <si>
-    <t>販促品運送（企業案分）データ登録</t>
-  </si>
-  <si>
-    <t>販促品運送（企業案分）データ登録.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO023</t>
-  </si>
-  <si>
-    <t>損益レポート月次処理結果確認</t>
-  </si>
-  <si>
-    <t>損益レポート作成確認_確認手順.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO024</t>
-  </si>
-  <si>
-    <t>未登録取引先部署Ｃの確認と連絡</t>
-  </si>
-  <si>
-    <t>未登録取引先部署C_本番作業手順書.xls</t>
-  </si>
-  <si>
-    <t>90%
-因为页面数据获取需要登录武田环境，所以数据获取部分尚未完成</t>
-  </si>
-  <si>
-    <t>L1AUTO025</t>
-  </si>
-  <si>
-    <t>ヘルスケアスケジュール表の作成</t>
-  </si>
-  <si>
-    <t>ヘルスケアスケジュール表確認手順書.xlsx</t>
-  </si>
-  <si>
-    <t>BI_report 至急(2020/02/19) CRM説明書を作成(2020/02/26) CRM KT(2020/2/28 12:00-14:00)</t>
-  </si>
-  <si>
-    <t>L1AUTO026</t>
-  </si>
-  <si>
-    <t>月次コード変更</t>
-  </si>
-  <si>
-    <t>月次コード変更手順書.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO027</t>
-  </si>
-  <si>
-    <t>従業員取込作業</t>
-  </si>
-  <si>
-    <t>従業員取込作業手順.xlsx</t>
-  </si>
-  <si>
-    <t>手順書が不備</t>
-  </si>
-  <si>
-    <t>L1AUTO028</t>
-  </si>
-  <si>
-    <t>担当者C変更</t>
-  </si>
-  <si>
-    <t>担当者Ｃ変更作業手順書.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO029</t>
-  </si>
-  <si>
-    <t>FS担当者C変更</t>
-  </si>
-  <si>
-    <t>FS担当者C変更作業手順書.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO030</t>
-  </si>
-  <si>
-    <t>ツールBOX内勤利用者</t>
-  </si>
-  <si>
-    <t>(総合T250)ツールBOX内勤者登録手順書.xls</t>
-  </si>
-  <si>
-    <t>VDIとSNOWが必要ため、一応対応不可
-100%</t>
-  </si>
-  <si>
-    <t>L1AUTO031</t>
-  </si>
-  <si>
-    <t>寄付金稟議シス　権限追加</t>
-  </si>
-  <si>
-    <t>【稟議･本番】20191008_作業手順書・記録書_ユーザ権限追加.xlsx</t>
-  </si>
-  <si>
-    <t>Task届く</t>
-  </si>
-  <si>
-    <t>L1AUTO032</t>
-  </si>
-  <si>
-    <t>透明性ガイドラン権限追加</t>
-  </si>
-  <si>
-    <t>【TGS本番】20190411_作業手順書・記録書_ユーザー登録・変更・削除.xlsx</t>
-  </si>
-  <si>
-    <t>L1AUTO033</t>
-  </si>
-  <si>
-    <t>BIチームへレポートの抽出作業</t>
-  </si>
-  <si>
-    <t>BIチームへレポートの抽出作業手順書.xlsx</t>
-  </si>
-  <si>
-    <t>UI Executor(Application)</t>
-  </si>
-  <si>
-    <t>L1AUTO034</t>
-  </si>
-  <si>
-    <t>BIへのレポート自動提供依頼</t>
-  </si>
-  <si>
-    <t>Automatic Report Provider
-（Solution Analyzing）</t>
-  </si>
-  <si>
-    <t>中止作業を再開</t>
-  </si>
-  <si>
-    <t>L1AUTO035</t>
-  </si>
-  <si>
-    <t>CRMへのレポート自動提供依頼</t>
-  </si>
-  <si>
-    <t>L1AUTO036</t>
-  </si>
-  <si>
-    <t>BI_Access Log Report</t>
-  </si>
-  <si>
-    <t>L1AUTO037</t>
-  </si>
-  <si>
-    <t>トラッキングデータの資料を送付</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>トラッキングデータの資料を送付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>.x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>lsx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.14993743705557422"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>トラッキングデータの資料を送付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.14993743705557422"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>.x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.14993743705557422"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>lsx</t>
-    </r>
-  </si>
-  <si>
-    <t>L1AUTO038</t>
-  </si>
-  <si>
-    <t>外部団体</t>
-  </si>
-  <si>
-    <t>外部団体の最新化(JA02)</t>
-  </si>
-  <si>
-    <t>適用ソリューション</t>
-  </si>
-  <si>
-    <t>画面操作系作業自動化</t>
-  </si>
-  <si>
-    <t>DB操作系自動化</t>
-  </si>
-  <si>
-    <t>アラート（メール、ログ）監視自動化</t>
-  </si>
-  <si>
-    <t>ドキュメントフォルダのメンテナンス</t>
-  </si>
-  <si>
-    <t>CLM利用履歴作成手順</t>
-  </si>
-  <si>
-    <t>MSLとPMSのレポート定期配信</t>
-  </si>
-  <si>
-    <t>DB抽出系作業自動化</t>
-  </si>
-  <si>
-    <t>アプリケーション操作系</t>
-  </si>
-  <si>
-    <t>要件分析中</t>
-  </si>
-  <si>
-    <t>自動化実施</t>
-  </si>
-  <si>
-    <t>作業</t>
-  </si>
-  <si>
-    <t>工数</t>
-  </si>
-  <si>
-    <t>頻度</t>
-  </si>
-  <si>
-    <t>作業システム</t>
-  </si>
-  <si>
-    <t>作業予定日（検証）</t>
-  </si>
-  <si>
-    <t>作業予定日（本番）</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>第一営業日</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>2h*3日=6h</t>
-  </si>
-  <si>
-    <t>月3回</t>
-  </si>
-  <si>
-    <t>一日に一回、三日間連続（通常月初）</t>
-  </si>
-  <si>
-    <t>第三営業日</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>第六営業日</t>
-  </si>
-  <si>
-    <t>9h*4周=36h</t>
-  </si>
-  <si>
-    <t>0.5h</t>
-  </si>
-  <si>
-    <t>統合ID系</t>
-  </si>
-  <si>
-    <t>済み</t>
-  </si>
-  <si>
-    <t>不定時</t>
-  </si>
-  <si>
-    <t>メール届く
-月次</t>
-  </si>
-  <si>
-    <t>月次（通常月初）</t>
-  </si>
-  <si>
-    <t>月２回</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第一営業日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：一回目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第一営業日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：一回目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-15日※休日の場合は翌営業日
-※：一回目</t>
-    </r>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>月３回</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">第三営業日（4月10月なし）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：一回目</t>
-    </r>
-  </si>
-  <si>
-    <t>第五営業日</t>
-  </si>
-  <si>
-    <t>粗利提供_ｲﾄｰﾖｰｶ堂</t>
-  </si>
-  <si>
-    <t>粗利提供__ﾄﾓｽﾞ</t>
-  </si>
-  <si>
-    <t>粗利提供__ｳｴﾙｼｱ</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>本番作業前</t>
-  </si>
-  <si>
-    <t>第十営業日</t>
-  </si>
-  <si>
-    <t>第十一営業日</t>
-  </si>
-  <si>
-    <t>今バグがありますから、一応山川にアサインします。</t>
-  </si>
-  <si>
-    <t>月３次</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>負十営業日　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：二回目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>負六営業日　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：二回目</t>
-    </r>
-  </si>
-  <si>
-    <t>負五営業日</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　負四営業日　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：一回目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　負三営業日　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：三回目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　負三営業日　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※：二回目</t>
-    </r>
-  </si>
-  <si>
-    <t>奨学寄附金稟議</t>
-  </si>
-  <si>
-    <t>負二営業日</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>不定時（通常月末）</t>
-  </si>
-  <si>
-    <t>透明性ガイドラインシステム</t>
-  </si>
-  <si>
-    <t>CR流程自动化，
-自动check,自动提醒</t>
-  </si>
-  <si>
-    <t>月２次</t>
-  </si>
-  <si>
-    <t>優先対応をお願い</t>
-  </si>
-  <si>
-    <t>作業が変化があって、一応対応不要</t>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">35%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>20200317 市场MM表作业再开，开发一时终止
-20200323 (保守担当确认一时对应不要)作業が変化があって、一応対応不要</t>
-    </r>
-    <phoneticPr fontId="37"/>
-  </si>
-  <si>
-    <t>今バックがあるので、一応対応不要。</t>
-    <phoneticPr fontId="37"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="177" formatCode="000_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="000_ "/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000;[Red]0.000"/>
   </numFmts>
   <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1417,7 +1410,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1594,7 +1587,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1602,7 +1595,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1628,7 +1621,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1653,7 +1646,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2605,11 +2598,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2622,7 +2615,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2632,7 +2625,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2642,7 +2635,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2652,15 +2645,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2670,7 +2663,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2683,7 +2676,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2693,7 +2686,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2703,7 +2696,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2751,7 +2744,7 @@
     <xf numFmtId="49" fontId="10" fillId="10" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2775,7 +2768,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2783,15 +2776,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2801,7 +2794,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2809,15 +2802,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2827,7 +2820,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2835,15 +2828,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2853,7 +2846,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2861,15 +2854,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2880,7 +2873,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2888,15 +2881,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2904,7 +2897,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2912,15 +2905,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2936,7 +2929,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2944,15 +2937,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2965,7 +2958,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2973,15 +2966,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3012,7 +3005,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3260,13 +3253,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3275,13 +3268,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3299,7 +3292,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3327,38 +3320,38 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="13" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="17" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3400,7 +3393,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3414,7 +3407,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3422,11 +3415,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3446,7 +3439,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3459,22 +3452,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3482,22 +3475,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3517,7 +3510,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3525,15 +3518,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3541,7 +3534,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3549,15 +3542,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3568,7 +3561,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3576,15 +3569,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3642,7 +3635,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3657,13 +3650,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3681,25 +3674,25 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3717,18 +3710,18 @@
     <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="16">
@@ -3755,6 +3748,57 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3764,15 +3808,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3781,48 +3816,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -3830,6 +3823,7 @@
     <cellStyle name="60% - アクセント 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="60% - アクセント 4 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="60% - アクセント 4 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="パーセント 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="パーセント 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
@@ -3837,7 +3831,6 @@
     <cellStyle name="桁区切り 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="桁区切り 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="桁区切り 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="標準 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -4185,14 +4178,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="374" customWidth="1"/>
-    <col min="2" max="3" width="8.75" style="374"/>
-    <col min="4" max="4" width="17.125" style="374" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="374"/>
-    <col min="6" max="6" width="17.875" style="374" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="374"/>
+    <col min="2" max="3" width="8.7109375" style="374"/>
+    <col min="4" max="4" width="17.140625" style="374" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="374"/>
+    <col min="6" max="6" width="17.85546875" style="374" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="374"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4373,14 +4366,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="369" t="s">
         <v>29</v>
       </c>
@@ -4402,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="66" t="s">
         <v>33</v>
       </c>
@@ -4413,7 +4406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="66" t="s">
         <v>34</v>
       </c>
@@ -4424,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="66" t="s">
         <v>35</v>
       </c>
@@ -4435,7 +4428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="66" t="s">
         <v>36</v>
       </c>
@@ -4446,7 +4439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="66" t="s">
         <v>37</v>
       </c>
@@ -4457,7 +4450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="372" t="s">
         <v>38</v>
       </c>
@@ -4479,55 +4472,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="33" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="33" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="33" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="33" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="46.25" style="33" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="14.25" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="24.125" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="22.125" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="21.875" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="11.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="33" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="46.28515625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="14.28515625" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="24.140625" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="22.140625" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="21.85546875" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="17" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="32.75" style="33" customWidth="1"/>
-    <col min="23" max="23" width="12.875" style="33" customWidth="1"/>
-    <col min="24" max="24" width="32.375" style="33" customWidth="1"/>
-    <col min="25" max="25" width="20.5" style="34" customWidth="1"/>
-    <col min="26" max="26" width="26.25" style="33" customWidth="1"/>
+    <col min="18" max="21" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="32.7109375" style="33" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="33" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" style="33" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" style="34" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="33" customWidth="1"/>
     <col min="27" max="27" width="14" style="33" customWidth="1"/>
-    <col min="28" max="28" width="10.875" style="33" customWidth="1"/>
-    <col min="29" max="30" width="15.375" style="33" customWidth="1"/>
-    <col min="31" max="31" width="17.25" style="33" customWidth="1"/>
-    <col min="32" max="33" width="15.375" style="33" customWidth="1"/>
-    <col min="34" max="34" width="17.25" style="33" customWidth="1"/>
-    <col min="35" max="35" width="15.375" style="33" customWidth="1"/>
-    <col min="36" max="36" width="14.375" style="33" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="14.375" style="33" customWidth="1"/>
-    <col min="38" max="38" width="12.375" style="33" customWidth="1"/>
-    <col min="39" max="39" width="14.375" style="33" customWidth="1"/>
-    <col min="40" max="40" width="12.375" style="33" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="33" customWidth="1"/>
+    <col min="29" max="30" width="15.42578125" style="33" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="33" customWidth="1"/>
+    <col min="32" max="33" width="15.42578125" style="33" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" style="33" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="33" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" style="33" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" style="33" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="33" customWidth="1"/>
+    <col min="40" max="40" width="12.42578125" style="33" customWidth="1"/>
     <col min="41" max="41" width="14" style="33" customWidth="1"/>
     <col min="42" max="43" width="14" style="33" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="10.375" style="33" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="14.375" style="33" customWidth="1"/>
-    <col min="46" max="16384" width="9.25" style="33"/>
+    <col min="44" max="44" width="10.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" style="33" customWidth="1"/>
+    <col min="46" max="16384" width="9.28515625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="30" customFormat="1" ht="28.5">
@@ -4806,7 +4800,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="399" t="s">
+      <c r="P3" s="382" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4902,7 +4896,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="400"/>
+      <c r="P4" s="383"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -4996,7 +4990,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="400"/>
+      <c r="P5" s="383"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5090,7 +5084,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="400"/>
+      <c r="P6" s="383"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5184,7 +5178,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="401"/>
+      <c r="P7" s="384"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5238,7 +5232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1">
+    <row r="8" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A8" s="51" t="s">
         <v>103</v>
       </c>
@@ -5343,7 +5337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1">
+    <row r="9" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A9" s="56" t="s">
         <v>103</v>
       </c>
@@ -5442,7 +5436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1">
+    <row r="10" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A10" s="56" t="s">
         <v>103</v>
       </c>
@@ -5539,7 +5533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1">
+    <row r="11" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A11" s="56" t="s">
         <v>103</v>
       </c>
@@ -5636,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" spans="1:45" s="31" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="56" t="s">
         <v>103</v>
       </c>
@@ -5738,7 +5732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="31" customFormat="1">
+    <row r="13" spans="1:45" s="31" customFormat="1" hidden="1">
       <c r="A13" s="51" t="s">
         <v>111</v>
       </c>
@@ -5814,7 +5808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A14" s="51" t="s">
         <v>115</v>
       </c>
@@ -5930,7 +5924,7 @@
       <c r="O15" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="402" t="s">
+      <c r="P15" s="388" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -6022,7 +6016,7 @@
       <c r="O16" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="403"/>
+      <c r="P16" s="389"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6112,7 +6106,7 @@
       <c r="O17" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="403"/>
+      <c r="P17" s="389"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6202,7 +6196,7 @@
       <c r="O18" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="403"/>
+      <c r="P18" s="389"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6292,7 +6286,7 @@
       <c r="O19" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="404"/>
+      <c r="P19" s="390"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -7620,7 +7614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="100.5">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="126.75">
       <c r="A32" s="45" t="s">
         <v>133</v>
       </c>
@@ -7678,7 +7672,7 @@
         <v>43878</v>
       </c>
       <c r="V32" s="208" t="s">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="W32" s="136" t="s">
         <v>122</v>
@@ -7925,7 +7919,7 @@
     </row>
     <row r="35" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A35" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -7935,10 +7929,10 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="67" t="s">
         <v>139</v>
-      </c>
-      <c r="H35" s="67" t="s">
-        <v>140</v>
       </c>
       <c r="I35" s="93" t="s">
         <v>99</v>
@@ -7986,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="W35" s="99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X35" s="74" t="s">
         <v>108</v>
@@ -8038,7 +8032,7 @@
     </row>
     <row r="36" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A36" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -8048,10 +8042,10 @@
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
       <c r="G36" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="68" t="s">
         <v>139</v>
-      </c>
-      <c r="H36" s="68" t="s">
-        <v>140</v>
       </c>
       <c r="I36" s="100" t="s">
         <v>99</v>
@@ -8097,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="W36" s="106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X36" s="106"/>
       <c r="Y36" s="222"/>
@@ -8145,7 +8139,7 @@
     </row>
     <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A37" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -8155,10 +8149,10 @@
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
       <c r="G37" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="68" t="s">
         <v>139</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>140</v>
       </c>
       <c r="I37" s="100" t="s">
         <v>99</v>
@@ -8204,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="W37" s="106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X37" s="106"/>
       <c r="Y37" s="222"/>
@@ -8252,7 +8246,7 @@
     </row>
     <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A38" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -8262,10 +8256,10 @@
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
       <c r="G38" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="68" t="s">
         <v>139</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>140</v>
       </c>
       <c r="I38" s="100" t="s">
         <v>99</v>
@@ -8311,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X38" s="106"/>
       <c r="Y38" s="222"/>
@@ -8359,7 +8353,7 @@
     </row>
     <row r="39" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A39" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -8369,10 +8363,10 @@
       <c r="E39" s="63"/>
       <c r="F39" s="63"/>
       <c r="G39" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="69" t="s">
         <v>139</v>
-      </c>
-      <c r="H39" s="69" t="s">
-        <v>140</v>
       </c>
       <c r="I39" s="137" t="s">
         <v>99</v>
@@ -8416,7 +8410,7 @@
       </c>
       <c r="V39" s="149"/>
       <c r="W39" s="149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X39" s="149"/>
       <c r="Y39" s="246"/>
@@ -8464,7 +8458,7 @@
     </row>
     <row r="40" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A40" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -8474,10 +8468,10 @@
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
       <c r="G40" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="67" t="s">
         <v>143</v>
-      </c>
-      <c r="H40" s="67" t="s">
-        <v>144</v>
       </c>
       <c r="I40" s="93" t="s">
         <v>99</v>
@@ -8579,7 +8573,7 @@
     </row>
     <row r="41" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A41" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
@@ -8589,10 +8583,10 @@
       <c r="E41" s="66"/>
       <c r="F41" s="66"/>
       <c r="G41" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="68" t="s">
         <v>143</v>
-      </c>
-      <c r="H41" s="68" t="s">
-        <v>144</v>
       </c>
       <c r="I41" s="100" t="s">
         <v>99</v>
@@ -8687,7 +8681,7 @@
     </row>
     <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A42" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B42" s="66"/>
       <c r="C42" s="66"/>
@@ -8697,10 +8691,10 @@
       <c r="E42" s="66"/>
       <c r="F42" s="66"/>
       <c r="G42" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="68" t="s">
         <v>143</v>
-      </c>
-      <c r="H42" s="68" t="s">
-        <v>144</v>
       </c>
       <c r="I42" s="100" t="s">
         <v>99</v>
@@ -8795,7 +8789,7 @@
     </row>
     <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A43" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
@@ -8805,10 +8799,10 @@
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
       <c r="G43" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="68" t="s">
         <v>143</v>
-      </c>
-      <c r="H43" s="68" t="s">
-        <v>144</v>
       </c>
       <c r="I43" s="100" t="s">
         <v>99</v>
@@ -8904,7 +8898,7 @@
     </row>
     <row r="44" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A44" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
@@ -8914,10 +8908,10 @@
       <c r="E44" s="63"/>
       <c r="F44" s="63"/>
       <c r="G44" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="69" t="s">
         <v>143</v>
-      </c>
-      <c r="H44" s="69" t="s">
-        <v>144</v>
       </c>
       <c r="I44" s="137" t="s">
         <v>99</v>
@@ -9011,9 +9005,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A45" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -9023,11 +9017,11 @@
       <c r="E45" s="51"/>
       <c r="F45" s="51"/>
       <c r="G45" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H45" s="72"/>
       <c r="I45" s="128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J45" s="115">
         <v>4</v>
@@ -9061,7 +9055,7 @@
       </c>
       <c r="Y45" s="248"/>
       <c r="Z45" s="180" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA45" s="74"/>
       <c r="AB45" s="127"/>
@@ -9096,9 +9090,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A46" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -9108,7 +9102,7 @@
       <c r="E46" s="51"/>
       <c r="F46" s="51"/>
       <c r="G46" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H46" s="72"/>
       <c r="I46" s="128" t="s">
@@ -9142,11 +9136,11 @@
       <c r="V46" s="127"/>
       <c r="W46" s="127"/>
       <c r="X46" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y46" s="248"/>
       <c r="Z46" s="378" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA46" s="74"/>
       <c r="AB46" s="127"/>
@@ -9181,9 +9175,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" customHeight="1">
+    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A47" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -9193,10 +9187,10 @@
       <c r="E47" s="51"/>
       <c r="F47" s="51"/>
       <c r="G47" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="72" t="s">
         <v>153</v>
-      </c>
-      <c r="H47" s="72" t="s">
-        <v>154</v>
       </c>
       <c r="I47" s="114" t="s">
         <v>87</v>
@@ -9227,7 +9221,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="211"/>
       <c r="V47" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W47" s="127"/>
       <c r="X47" s="127"/>
@@ -9266,9 +9260,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="48" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A48" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -9278,10 +9272,10 @@
       <c r="E48" s="51"/>
       <c r="F48" s="51"/>
       <c r="G48" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="73" t="s">
         <v>157</v>
-      </c>
-      <c r="H48" s="73" t="s">
-        <v>158</v>
       </c>
       <c r="I48" s="151" t="s">
         <v>99</v>
@@ -9313,11 +9307,11 @@
       <c r="U48" s="211"/>
       <c r="W48" s="74"/>
       <c r="X48" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y48" s="248"/>
       <c r="Z48" s="249" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA48" s="74" t="s">
         <v>109</v>
@@ -9354,9 +9348,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A49" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -9366,10 +9360,10 @@
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
       <c r="G49" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="74" t="s">
         <v>161</v>
-      </c>
-      <c r="H49" s="74" t="s">
-        <v>162</v>
       </c>
       <c r="I49" s="128" t="s">
         <v>99</v>
@@ -9463,9 +9457,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="81.75" hidden="1">
       <c r="A50" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
@@ -9475,10 +9469,10 @@
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" s="68" t="s">
         <v>161</v>
-      </c>
-      <c r="H50" s="68" t="s">
-        <v>162</v>
       </c>
       <c r="I50" s="100" t="s">
         <v>99</v>
@@ -9521,7 +9515,7 @@
         <v>43875</v>
       </c>
       <c r="V50" s="213" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W50" s="106" t="s">
         <v>127</v>
@@ -9570,9 +9564,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A51" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
@@ -9582,10 +9576,10 @@
       <c r="E51" s="66"/>
       <c r="F51" s="66"/>
       <c r="G51" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="68" t="s">
         <v>161</v>
-      </c>
-      <c r="H51" s="68" t="s">
-        <v>162</v>
       </c>
       <c r="I51" s="100" t="s">
         <v>99</v>
@@ -9673,9 +9667,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A52" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -9685,10 +9679,10 @@
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
       <c r="G52" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" s="68" t="s">
         <v>161</v>
-      </c>
-      <c r="H52" s="68" t="s">
-        <v>162</v>
       </c>
       <c r="I52" s="100" t="s">
         <v>99</v>
@@ -9766,9 +9760,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="53" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A53" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="45"/>
       <c r="C53" s="45"/>
@@ -9778,10 +9772,10 @@
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" s="68" t="s">
         <v>161</v>
-      </c>
-      <c r="H53" s="68" t="s">
-        <v>162</v>
       </c>
       <c r="I53" s="100" t="s">
         <v>99</v>
@@ -9859,9 +9853,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A54" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -9871,10 +9865,10 @@
       <c r="E54" s="51"/>
       <c r="F54" s="51"/>
       <c r="G54" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="73" t="s">
         <v>165</v>
-      </c>
-      <c r="H54" s="73" t="s">
-        <v>166</v>
       </c>
       <c r="I54" s="151" t="s">
         <v>99</v>
@@ -9920,10 +9914,10 @@
         <v>1</v>
       </c>
       <c r="W54" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X54" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y54" s="250"/>
       <c r="Z54" s="74"/>
@@ -9962,9 +9956,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A55" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -9974,10 +9968,10 @@
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
       <c r="G55" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="68" t="s">
         <v>165</v>
-      </c>
-      <c r="H55" s="68" t="s">
-        <v>166</v>
       </c>
       <c r="I55" s="100" t="s">
         <v>99</v>
@@ -10021,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X55" s="148"/>
       <c r="Y55" s="247"/>
@@ -10061,9 +10055,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="56" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A56" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" s="66"/>
       <c r="C56" s="66"/>
@@ -10073,10 +10067,10 @@
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" s="68" t="s">
         <v>165</v>
-      </c>
-      <c r="H56" s="68" t="s">
-        <v>166</v>
       </c>
       <c r="I56" s="100" t="s">
         <v>99</v>
@@ -10120,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X56" s="148"/>
       <c r="Y56" s="247"/>
@@ -10160,9 +10154,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="57" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A57" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
@@ -10172,10 +10166,10 @@
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" s="68" t="s">
         <v>165</v>
-      </c>
-      <c r="H57" s="68" t="s">
-        <v>166</v>
       </c>
       <c r="I57" s="100" t="s">
         <v>99</v>
@@ -10215,7 +10209,7 @@
       <c r="U57" s="170"/>
       <c r="V57" s="198"/>
       <c r="W57" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X57" s="148"/>
       <c r="Y57" s="247"/>
@@ -10255,9 +10249,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="58" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A58" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" s="66"/>
       <c r="C58" s="66"/>
@@ -10267,10 +10261,10 @@
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" s="68" t="s">
         <v>165</v>
-      </c>
-      <c r="H58" s="68" t="s">
-        <v>166</v>
       </c>
       <c r="I58" s="100" t="s">
         <v>99</v>
@@ -10304,7 +10298,7 @@
       <c r="U58" s="170"/>
       <c r="V58" s="198"/>
       <c r="W58" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X58" s="148"/>
       <c r="Y58" s="247"/>
@@ -10346,7 +10340,7 @@
     </row>
     <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A59" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -10356,10 +10350,10 @@
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
       <c r="G59" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="75" t="s">
         <v>169</v>
-      </c>
-      <c r="H59" s="75" t="s">
-        <v>170</v>
       </c>
       <c r="I59" s="153" t="s">
         <v>99</v>
@@ -10410,13 +10404,13 @@
         <v>107</v>
       </c>
       <c r="X59" s="74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y59" s="241" t="s">
         <v>128</v>
       </c>
       <c r="Z59" s="251" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA59" s="144" t="s">
         <v>91</v>
@@ -10463,7 +10457,7 @@
     </row>
     <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A60" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B60" s="66"/>
       <c r="C60" s="66"/>
@@ -10473,10 +10467,10 @@
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
       <c r="G60" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H60" s="76" t="s">
         <v>169</v>
-      </c>
-      <c r="H60" s="76" t="s">
-        <v>170</v>
       </c>
       <c r="I60" s="154" t="s">
         <v>99</v>
@@ -10571,7 +10565,7 @@
     </row>
     <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A61" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
@@ -10581,10 +10575,10 @@
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
       <c r="G61" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H61" s="76" t="s">
         <v>169</v>
-      </c>
-      <c r="H61" s="76" t="s">
-        <v>170</v>
       </c>
       <c r="I61" s="154" t="s">
         <v>99</v>
@@ -10679,7 +10673,7 @@
     </row>
     <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A62" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
@@ -10689,10 +10683,10 @@
       <c r="E62" s="45"/>
       <c r="F62" s="45"/>
       <c r="G62" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62" s="76" t="s">
         <v>169</v>
-      </c>
-      <c r="H62" s="76" t="s">
-        <v>170</v>
       </c>
       <c r="I62" s="154" t="s">
         <v>99</v>
@@ -10790,7 +10784,7 @@
     </row>
     <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A63" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" s="63"/>
       <c r="C63" s="63"/>
@@ -10800,10 +10794,10 @@
       <c r="E63" s="63"/>
       <c r="F63" s="63"/>
       <c r="G63" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63" s="77" t="s">
         <v>169</v>
-      </c>
-      <c r="H63" s="77" t="s">
-        <v>170</v>
       </c>
       <c r="I63" s="155" t="s">
         <v>99</v>
@@ -10899,9 +10893,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="64" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A64" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -10911,10 +10905,10 @@
       <c r="E64" s="51"/>
       <c r="F64" s="51"/>
       <c r="G64" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64" s="78" t="s">
         <v>173</v>
-      </c>
-      <c r="H64" s="78" t="s">
-        <v>174</v>
       </c>
       <c r="I64" s="151" t="s">
         <v>99</v>
@@ -10992,9 +10986,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A65" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -11004,10 +10998,10 @@
       <c r="E65" s="51"/>
       <c r="F65" s="51"/>
       <c r="G65" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" s="73" t="s">
         <v>176</v>
-      </c>
-      <c r="H65" s="73" t="s">
-        <v>177</v>
       </c>
       <c r="I65" s="128" t="s">
         <v>99</v>
@@ -11038,7 +11032,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="211"/>
       <c r="V65" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W65" s="74"/>
       <c r="X65" s="74" t="s">
@@ -11046,7 +11040,7 @@
       </c>
       <c r="Y65" s="250"/>
       <c r="Z65" s="343" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA65" s="74" t="s">
         <v>109</v>
@@ -11083,9 +11077,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="66" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A66" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -11095,10 +11089,10 @@
       <c r="E66" s="51"/>
       <c r="F66" s="51"/>
       <c r="G66" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="H66" s="78" t="s">
         <v>181</v>
-      </c>
-      <c r="H66" s="78" t="s">
-        <v>182</v>
       </c>
       <c r="I66" s="128" t="s">
         <v>99</v>
@@ -11130,13 +11124,13 @@
       <c r="U66" s="211"/>
       <c r="W66" s="74"/>
       <c r="X66" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y66" s="250" t="s">
         <v>90</v>
       </c>
       <c r="Z66" s="380" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA66" s="74" t="s">
         <v>109</v>
@@ -11175,9 +11169,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="67" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A67" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
@@ -11187,10 +11181,10 @@
       <c r="E67" s="51"/>
       <c r="F67" s="51"/>
       <c r="G67" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="H67" s="73" t="s">
         <v>185</v>
-      </c>
-      <c r="H67" s="73" t="s">
-        <v>186</v>
       </c>
       <c r="I67" s="128" t="s">
         <v>99</v>
@@ -11266,9 +11260,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="31" customFormat="1" ht="14.45" customHeight="1">
+    <row r="68" spans="1:45" s="31" customFormat="1" ht="14.45" hidden="1" customHeight="1">
       <c r="A68" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
@@ -11278,10 +11272,10 @@
       <c r="E68" s="51"/>
       <c r="F68" s="51"/>
       <c r="G68" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68" s="78" t="s">
         <v>188</v>
-      </c>
-      <c r="H68" s="78" t="s">
-        <v>189</v>
       </c>
       <c r="I68" s="128" t="s">
         <v>99</v>
@@ -11313,13 +11307,13 @@
       <c r="U68" s="211"/>
       <c r="W68" s="74"/>
       <c r="X68" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y68" s="248" t="s">
         <v>90</v>
       </c>
       <c r="Z68" s="249" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA68" s="74" t="s">
         <v>109</v>
@@ -11358,9 +11352,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="69" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A69" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" s="51"/>
       <c r="C69" s="54"/>
@@ -11370,10 +11364,10 @@
       <c r="E69" s="128"/>
       <c r="F69" s="115"/>
       <c r="G69" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="H69" s="117" t="s">
         <v>191</v>
-      </c>
-      <c r="H69" s="117" t="s">
-        <v>192</v>
       </c>
       <c r="I69" s="128" t="s">
         <v>99</v>
@@ -11467,9 +11461,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="31" customFormat="1" ht="49.5">
+    <row r="70" spans="1:45" s="31" customFormat="1" ht="66" hidden="1">
       <c r="A70" s="277" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="277"/>
       <c r="C70" s="278"/>
@@ -11479,10 +11473,10 @@
       <c r="E70" s="280"/>
       <c r="F70" s="281"/>
       <c r="G70" s="282" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="283" t="s">
         <v>191</v>
-      </c>
-      <c r="H70" s="283" t="s">
-        <v>192</v>
       </c>
       <c r="I70" s="280" t="s">
         <v>99</v>
@@ -11525,7 +11519,7 @@
         <v>43888</v>
       </c>
       <c r="V70" s="327" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W70" s="106" t="s">
         <v>127</v>
@@ -11570,9 +11564,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="71" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A71" s="277" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" s="277"/>
       <c r="C71" s="278"/>
@@ -11582,10 +11576,10 @@
       <c r="E71" s="280"/>
       <c r="F71" s="281"/>
       <c r="G71" s="282" t="s">
+        <v>190</v>
+      </c>
+      <c r="H71" s="283" t="s">
         <v>191</v>
-      </c>
-      <c r="H71" s="283" t="s">
-        <v>192</v>
       </c>
       <c r="I71" s="280" t="s">
         <v>99</v>
@@ -11673,9 +11667,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A72" s="277" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B72" s="277"/>
       <c r="C72" s="278"/>
@@ -11685,10 +11679,10 @@
       <c r="E72" s="280"/>
       <c r="F72" s="281"/>
       <c r="G72" s="282" t="s">
+        <v>190</v>
+      </c>
+      <c r="H72" s="283" t="s">
         <v>191</v>
-      </c>
-      <c r="H72" s="283" t="s">
-        <v>192</v>
       </c>
       <c r="I72" s="280" t="s">
         <v>99</v>
@@ -11770,9 +11764,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A73" s="277" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" s="277"/>
       <c r="C73" s="278"/>
@@ -11782,10 +11776,10 @@
       <c r="E73" s="280"/>
       <c r="F73" s="281"/>
       <c r="G73" s="282" t="s">
+        <v>190</v>
+      </c>
+      <c r="H73" s="283" t="s">
         <v>191</v>
-      </c>
-      <c r="H73" s="283" t="s">
-        <v>192</v>
       </c>
       <c r="I73" s="280" t="s">
         <v>99</v>
@@ -11865,9 +11859,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A74" s="51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
@@ -11877,10 +11871,10 @@
       <c r="E74" s="51"/>
       <c r="F74" s="51"/>
       <c r="G74" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="H74" s="73" t="s">
         <v>195</v>
-      </c>
-      <c r="H74" s="73" t="s">
-        <v>196</v>
       </c>
       <c r="I74" s="128" t="s">
         <v>99</v>
@@ -11925,7 +11919,7 @@
         <v>43885</v>
       </c>
       <c r="V74" s="74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W74" s="74" t="s">
         <v>107</v>
@@ -11974,9 +11968,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="75" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A75" s="277" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
@@ -11986,10 +11980,10 @@
       <c r="E75" s="51"/>
       <c r="F75" s="51"/>
       <c r="G75" s="278" t="s">
+        <v>194</v>
+      </c>
+      <c r="H75" s="283" t="s">
         <v>195</v>
-      </c>
-      <c r="H75" s="283" t="s">
-        <v>196</v>
       </c>
       <c r="I75" s="280" t="s">
         <v>99</v>
@@ -12032,7 +12026,7 @@
         <v>43893</v>
       </c>
       <c r="V75" s="329" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W75" s="181" t="s">
         <v>107</v>
@@ -12077,9 +12071,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="76" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A76" s="277" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
@@ -12089,10 +12083,10 @@
       <c r="E76" s="51"/>
       <c r="F76" s="51"/>
       <c r="G76" s="278" t="s">
+        <v>194</v>
+      </c>
+      <c r="H76" s="283" t="s">
         <v>195</v>
-      </c>
-      <c r="H76" s="283" t="s">
-        <v>196</v>
       </c>
       <c r="I76" s="280" t="s">
         <v>99</v>
@@ -12135,7 +12129,7 @@
         <v>43895</v>
       </c>
       <c r="V76" s="329" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W76" s="181" t="s">
         <v>107</v>
@@ -12180,9 +12174,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="77" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A77" s="277" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
@@ -12192,10 +12186,10 @@
       <c r="E77" s="51"/>
       <c r="F77" s="51"/>
       <c r="G77" s="278" t="s">
+        <v>194</v>
+      </c>
+      <c r="H77" s="283" t="s">
         <v>195</v>
-      </c>
-      <c r="H77" s="283" t="s">
-        <v>196</v>
       </c>
       <c r="I77" s="280" t="s">
         <v>99</v>
@@ -12238,7 +12232,7 @@
         <v>43896</v>
       </c>
       <c r="V77" s="329" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W77" s="181" t="s">
         <v>107</v>
@@ -12283,9 +12277,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="78" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A78" s="277" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
@@ -12295,10 +12289,10 @@
       <c r="E78" s="51"/>
       <c r="F78" s="51"/>
       <c r="G78" s="278" t="s">
+        <v>194</v>
+      </c>
+      <c r="H78" s="283" t="s">
         <v>195</v>
-      </c>
-      <c r="H78" s="283" t="s">
-        <v>196</v>
       </c>
       <c r="I78" s="280" t="s">
         <v>99</v>
@@ -12341,7 +12335,7 @@
         <v>43899</v>
       </c>
       <c r="V78" s="329" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W78" s="181" t="s">
         <v>107</v>
@@ -12386,9 +12380,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="79" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A79" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
@@ -12398,10 +12392,10 @@
       <c r="E79" s="51"/>
       <c r="F79" s="51"/>
       <c r="G79" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H79" s="78" t="s">
         <v>199</v>
-      </c>
-      <c r="H79" s="78" t="s">
-        <v>200</v>
       </c>
       <c r="I79" s="151" t="s">
         <v>99</v>
@@ -12479,9 +12473,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="80" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A80" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -12491,10 +12485,10 @@
       <c r="E80" s="51"/>
       <c r="F80" s="51"/>
       <c r="G80" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="H80" s="78" t="s">
         <v>202</v>
-      </c>
-      <c r="H80" s="78" t="s">
-        <v>203</v>
       </c>
       <c r="I80" s="128" t="s">
         <v>99</v>
@@ -12527,13 +12521,13 @@
       <c r="V80" s="74"/>
       <c r="W80" s="74"/>
       <c r="X80" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y80" s="248" t="s">
         <v>90</v>
       </c>
       <c r="Z80" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA80" s="74"/>
       <c r="AB80" s="74"/>
@@ -12570,9 +12564,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A81" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -12582,10 +12576,10 @@
       <c r="E81" s="51"/>
       <c r="F81" s="51"/>
       <c r="G81" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" s="73" t="s">
         <v>206</v>
-      </c>
-      <c r="H81" s="73" t="s">
-        <v>207</v>
       </c>
       <c r="I81" s="128" t="s">
         <v>99</v>
@@ -12611,7 +12605,7 @@
       <c r="O81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="382" t="s">
+      <c r="P81" s="399" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="164" t="s">
@@ -12634,7 +12628,7 @@
         <v>98</v>
       </c>
       <c r="X81" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y81" s="250" t="s">
         <v>128</v>
@@ -12676,9 +12670,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A82" s="284" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
@@ -12688,10 +12682,10 @@
       <c r="E82" s="51"/>
       <c r="F82" s="51"/>
       <c r="G82" s="285" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82" s="286" t="s">
         <v>206</v>
-      </c>
-      <c r="H82" s="286" t="s">
-        <v>207</v>
       </c>
       <c r="I82" s="297" t="s">
         <v>99</v>
@@ -12717,7 +12711,7 @@
       <c r="O82" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="383"/>
+      <c r="P82" s="400"/>
       <c r="Q82" s="169" t="s">
         <v>100</v>
       </c>
@@ -12776,9 +12770,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A83" s="284" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -12788,10 +12782,10 @@
       <c r="E83" s="51"/>
       <c r="F83" s="51"/>
       <c r="G83" s="285" t="s">
+        <v>205</v>
+      </c>
+      <c r="H83" s="286" t="s">
         <v>206</v>
-      </c>
-      <c r="H83" s="286" t="s">
-        <v>207</v>
       </c>
       <c r="I83" s="297" t="s">
         <v>99</v>
@@ -12817,7 +12811,7 @@
       <c r="O83" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="383"/>
+      <c r="P83" s="400"/>
       <c r="Q83" s="169" t="s">
         <v>102</v>
       </c>
@@ -12876,9 +12870,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A84" s="284" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
@@ -12888,10 +12882,10 @@
       <c r="E84" s="51"/>
       <c r="F84" s="51"/>
       <c r="G84" s="285" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" s="286" t="s">
         <v>206</v>
-      </c>
-      <c r="H84" s="286" t="s">
-        <v>207</v>
       </c>
       <c r="I84" s="297" t="s">
         <v>99</v>
@@ -12917,7 +12911,7 @@
       <c r="O84" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="383"/>
+      <c r="P84" s="400"/>
       <c r="Q84" s="169" t="s">
         <v>13</v>
       </c>
@@ -12976,9 +12970,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A85" s="284" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -12988,10 +12982,10 @@
       <c r="E85" s="51"/>
       <c r="F85" s="51"/>
       <c r="G85" s="285" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" s="286" t="s">
         <v>206</v>
-      </c>
-      <c r="H85" s="286" t="s">
-        <v>207</v>
       </c>
       <c r="I85" s="297" t="s">
         <v>99</v>
@@ -13017,7 +13011,7 @@
       <c r="O85" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="384"/>
+      <c r="P85" s="401"/>
       <c r="Q85" s="169" t="s">
         <v>16</v>
       </c>
@@ -13077,15 +13071,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="86" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A86" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D86" s="51" t="s">
         <v>36</v>
@@ -13093,10 +13087,10 @@
       <c r="E86" s="51"/>
       <c r="F86" s="51"/>
       <c r="G86" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" s="78" t="s">
         <v>209</v>
-      </c>
-      <c r="H86" s="78" t="s">
-        <v>210</v>
       </c>
       <c r="I86" s="128" t="s">
         <v>99</v>
@@ -13122,7 +13116,7 @@
       <c r="O86" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="383" t="s">
+      <c r="P86" s="400" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="164" t="s">
@@ -13145,7 +13139,7 @@
         <v>98</v>
       </c>
       <c r="X86" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y86" s="250" t="s">
         <v>128</v>
@@ -13187,15 +13181,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="87" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A87" s="284" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D87" s="284" t="s">
         <v>36</v>
@@ -13203,10 +13197,10 @@
       <c r="E87" s="51"/>
       <c r="F87" s="51"/>
       <c r="G87" s="285" t="s">
+        <v>208</v>
+      </c>
+      <c r="H87" s="286" t="s">
         <v>209</v>
-      </c>
-      <c r="H87" s="286" t="s">
-        <v>210</v>
       </c>
       <c r="I87" s="297" t="s">
         <v>99</v>
@@ -13232,7 +13226,7 @@
       <c r="O87" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="383"/>
+      <c r="P87" s="400"/>
       <c r="Q87" s="169" t="s">
         <v>100</v>
       </c>
@@ -13291,15 +13285,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="88" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A88" s="284" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" s="284" t="s">
         <v>36</v>
@@ -13307,10 +13301,10 @@
       <c r="E88" s="51"/>
       <c r="F88" s="51"/>
       <c r="G88" s="285" t="s">
+        <v>208</v>
+      </c>
+      <c r="H88" s="286" t="s">
         <v>209</v>
-      </c>
-      <c r="H88" s="286" t="s">
-        <v>210</v>
       </c>
       <c r="I88" s="297" t="s">
         <v>99</v>
@@ -13336,7 +13330,7 @@
       <c r="O88" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="383"/>
+      <c r="P88" s="400"/>
       <c r="Q88" s="169" t="s">
         <v>102</v>
       </c>
@@ -13395,15 +13389,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="89" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A89" s="284" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B89" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D89" s="284" t="s">
         <v>36</v>
@@ -13411,10 +13405,10 @@
       <c r="E89" s="51"/>
       <c r="F89" s="51"/>
       <c r="G89" s="285" t="s">
+        <v>208</v>
+      </c>
+      <c r="H89" s="286" t="s">
         <v>209</v>
-      </c>
-      <c r="H89" s="286" t="s">
-        <v>210</v>
       </c>
       <c r="I89" s="297" t="s">
         <v>99</v>
@@ -13440,7 +13434,7 @@
       <c r="O89" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="383"/>
+      <c r="P89" s="400"/>
       <c r="Q89" s="169" t="s">
         <v>13</v>
       </c>
@@ -13499,9 +13493,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="90" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A90" s="284" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
@@ -13511,10 +13505,10 @@
       <c r="E90" s="51"/>
       <c r="F90" s="51"/>
       <c r="G90" s="285" t="s">
+        <v>208</v>
+      </c>
+      <c r="H90" s="286" t="s">
         <v>209</v>
-      </c>
-      <c r="H90" s="286" t="s">
-        <v>210</v>
       </c>
       <c r="I90" s="297" t="s">
         <v>99</v>
@@ -13540,7 +13534,7 @@
       <c r="O90" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="384"/>
+      <c r="P90" s="401"/>
       <c r="Q90" s="169" t="s">
         <v>16</v>
       </c>
@@ -13600,7 +13594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A91" s="284"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -13647,9 +13641,9 @@
       <c r="AR91" s="272"/>
       <c r="AS91" s="173"/>
     </row>
-    <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
+    <row r="92" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
       <c r="A92" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -13659,10 +13653,10 @@
       <c r="E92" s="51"/>
       <c r="F92" s="51"/>
       <c r="G92" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92" s="72" t="s">
         <v>212</v>
-      </c>
-      <c r="H92" s="72" t="s">
-        <v>213</v>
       </c>
       <c r="I92" s="128" t="s">
         <v>99</v>
@@ -13707,13 +13701,13 @@
         <v>43903</v>
       </c>
       <c r="V92" s="332" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W92" s="135" t="s">
         <v>122</v>
       </c>
       <c r="X92" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y92" s="248" t="s">
         <v>90</v>
@@ -13756,9 +13750,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="31" customFormat="1" ht="80.25">
+    <row r="93" spans="1:45" s="31" customFormat="1" ht="96.75" hidden="1">
       <c r="A93" s="284" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
@@ -13768,10 +13762,10 @@
       <c r="E93" s="51"/>
       <c r="F93" s="51"/>
       <c r="G93" s="285" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="286" t="s">
         <v>212</v>
-      </c>
-      <c r="H93" s="286" t="s">
-        <v>213</v>
       </c>
       <c r="I93" s="297" t="s">
         <v>99</v>
@@ -13812,7 +13806,7 @@
       </c>
       <c r="U93" s="211"/>
       <c r="V93" s="379" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W93" s="136" t="s">
         <v>122</v>
@@ -13840,9 +13834,9 @@
       <c r="AR93" s="272"/>
       <c r="AS93" s="74"/>
     </row>
-    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="284" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
@@ -13852,10 +13846,10 @@
       <c r="E94" s="51"/>
       <c r="F94" s="51"/>
       <c r="G94" s="285" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" s="286" t="s">
         <v>212</v>
-      </c>
-      <c r="H94" s="286" t="s">
-        <v>213</v>
       </c>
       <c r="I94" s="297" t="s">
         <v>99</v>
@@ -13894,7 +13888,7 @@
       <c r="T94" s="4"/>
       <c r="U94" s="211"/>
       <c r="V94" s="378" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W94" s="136" t="s">
         <v>122</v>
@@ -13922,9 +13916,9 @@
       <c r="AR94" s="272"/>
       <c r="AS94" s="74"/>
     </row>
-    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="284" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -13934,10 +13928,10 @@
       <c r="E95" s="51"/>
       <c r="F95" s="51"/>
       <c r="G95" s="285" t="s">
+        <v>211</v>
+      </c>
+      <c r="H95" s="286" t="s">
         <v>212</v>
-      </c>
-      <c r="H95" s="286" t="s">
-        <v>213</v>
       </c>
       <c r="I95" s="297" t="s">
         <v>99</v>
@@ -13976,7 +13970,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="211"/>
       <c r="V95" s="378" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W95" s="136" t="s">
         <v>122</v>
@@ -14004,9 +13998,9 @@
       <c r="AR95" s="272"/>
       <c r="AS95" s="74"/>
     </row>
-    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="284" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -14016,10 +14010,10 @@
       <c r="E96" s="51"/>
       <c r="F96" s="51"/>
       <c r="G96" s="285" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="286" t="s">
         <v>212</v>
-      </c>
-      <c r="H96" s="286" t="s">
-        <v>213</v>
       </c>
       <c r="I96" s="297" t="s">
         <v>99</v>
@@ -14058,7 +14052,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="211"/>
       <c r="V96" s="378" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W96" s="136" t="s">
         <v>122</v>
@@ -14086,9 +14080,9 @@
       <c r="AR96" s="272"/>
       <c r="AS96" s="74"/>
     </row>
-    <row r="97" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="97" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A97" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
@@ -14098,10 +14092,10 @@
       <c r="E97" s="51"/>
       <c r="F97" s="51"/>
       <c r="G97" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H97" s="72" t="s">
         <v>216</v>
-      </c>
-      <c r="H97" s="72" t="s">
-        <v>217</v>
       </c>
       <c r="I97" s="114" t="s">
         <v>87</v>
@@ -14134,17 +14128,17 @@
       <c r="T97" s="4"/>
       <c r="U97" s="211"/>
       <c r="V97" s="333" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W97" s="127"/>
       <c r="X97" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y97" s="248" t="s">
         <v>90</v>
       </c>
       <c r="Z97" s="180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA97" s="74"/>
       <c r="AB97" s="127"/>
@@ -14181,9 +14175,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="98" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A98" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
@@ -14193,10 +14187,10 @@
       <c r="E98" s="51"/>
       <c r="F98" s="51"/>
       <c r="G98" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H98" s="72" t="s">
         <v>220</v>
-      </c>
-      <c r="H98" s="72" t="s">
-        <v>221</v>
       </c>
       <c r="I98" s="114" t="s">
         <v>87</v>
@@ -14227,17 +14221,17 @@
       <c r="T98" s="4"/>
       <c r="U98" s="211"/>
       <c r="V98" s="333" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W98" s="127"/>
       <c r="X98" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y98" s="248" t="s">
         <v>90</v>
       </c>
       <c r="Z98" s="180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA98" s="74"/>
       <c r="AB98" s="127"/>
@@ -14276,7 +14270,7 @@
     </row>
     <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -14286,10 +14280,10 @@
       <c r="E99" s="42"/>
       <c r="F99" s="42"/>
       <c r="G99" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H99" s="67" t="s">
         <v>223</v>
-      </c>
-      <c r="H99" s="67" t="s">
-        <v>224</v>
       </c>
       <c r="I99" s="305" t="s">
         <v>87</v>
@@ -14313,9 +14307,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O99" s="144" t="s">
-        <v>225</v>
-      </c>
-      <c r="P99" s="388" t="s">
+        <v>224</v>
+      </c>
+      <c r="P99" s="402" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="164" t="s">
@@ -14337,10 +14331,10 @@
         <v>1</v>
       </c>
       <c r="W99" s="74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X99" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y99" s="349" t="s">
         <v>128</v>
@@ -14382,7 +14376,7 @@
     </row>
     <row r="100" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
       <c r="A100" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -14392,10 +14386,10 @@
       <c r="E100" s="45"/>
       <c r="F100" s="45"/>
       <c r="G100" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H100" s="68" t="s">
         <v>223</v>
-      </c>
-      <c r="H100" s="68" t="s">
-        <v>224</v>
       </c>
       <c r="I100" s="306" t="s">
         <v>87</v>
@@ -14419,9 +14413,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O100" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="P100" s="389"/>
+        <v>224</v>
+      </c>
+      <c r="P100" s="403"/>
       <c r="Q100" s="169" t="s">
         <v>100</v>
       </c>
@@ -14441,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="W100" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X100" s="106"/>
       <c r="Y100" s="222"/>
@@ -14482,7 +14476,7 @@
     </row>
     <row r="101" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
@@ -14492,10 +14486,10 @@
       <c r="E101" s="45"/>
       <c r="F101" s="45"/>
       <c r="G101" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H101" s="68" t="s">
         <v>223</v>
-      </c>
-      <c r="H101" s="68" t="s">
-        <v>224</v>
       </c>
       <c r="I101" s="306" t="s">
         <v>87</v>
@@ -14519,9 +14513,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O101" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="P101" s="389"/>
+        <v>224</v>
+      </c>
+      <c r="P101" s="403"/>
       <c r="Q101" s="169" t="s">
         <v>102</v>
       </c>
@@ -14541,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="W101" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X101" s="106"/>
       <c r="Y101" s="222"/>
@@ -14582,7 +14576,7 @@
     </row>
     <row r="102" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A102" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -14592,10 +14586,10 @@
       <c r="E102" s="45"/>
       <c r="F102" s="45"/>
       <c r="G102" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="68" t="s">
         <v>223</v>
-      </c>
-      <c r="H102" s="68" t="s">
-        <v>224</v>
       </c>
       <c r="I102" s="306" t="s">
         <v>87</v>
@@ -14619,9 +14613,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O102" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="P102" s="389"/>
+        <v>224</v>
+      </c>
+      <c r="P102" s="403"/>
       <c r="Q102" s="169" t="s">
         <v>13</v>
       </c>
@@ -14637,7 +14631,7 @@
       <c r="U102" s="334"/>
       <c r="V102" s="335"/>
       <c r="W102" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X102" s="106"/>
       <c r="Y102" s="222"/>
@@ -14678,7 +14672,7 @@
     </row>
     <row r="103" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A103" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="48"/>
@@ -14688,10 +14682,10 @@
       <c r="E103" s="48"/>
       <c r="F103" s="48"/>
       <c r="G103" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="H103" s="71" t="s">
         <v>223</v>
-      </c>
-      <c r="H103" s="71" t="s">
-        <v>224</v>
       </c>
       <c r="I103" s="307" t="s">
         <v>87</v>
@@ -14715,9 +14709,9 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O103" s="147" t="s">
-        <v>225</v>
-      </c>
-      <c r="P103" s="390"/>
+        <v>224</v>
+      </c>
+      <c r="P103" s="404"/>
       <c r="Q103" s="177" t="s">
         <v>16</v>
       </c>
@@ -14727,7 +14721,7 @@
       <c r="U103" s="162"/>
       <c r="V103" s="336"/>
       <c r="W103" s="106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X103" s="113"/>
       <c r="Y103" s="224"/>
@@ -14768,7 +14762,7 @@
     </row>
     <row r="104" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A104" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
@@ -14778,7 +14772,7 @@
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
       <c r="G104" s="288" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H104" s="289"/>
       <c r="I104" s="305"/>
@@ -14788,7 +14782,7 @@
       <c r="M104" s="97"/>
       <c r="N104" s="98"/>
       <c r="O104" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P104" s="385" t="s">
         <v>28</v>
@@ -14809,7 +14803,7 @@
         <v>43826</v>
       </c>
       <c r="V104" s="337" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W104" s="99" t="s">
         <v>107</v>
@@ -14843,7 +14837,7 @@
     </row>
     <row r="105" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A105" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105" s="66"/>
       <c r="C105" s="66"/>
@@ -14853,7 +14847,7 @@
       <c r="E105" s="66"/>
       <c r="F105" s="66"/>
       <c r="G105" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H105" s="68"/>
       <c r="I105" s="308"/>
@@ -14863,7 +14857,7 @@
       <c r="M105" s="312"/>
       <c r="N105" s="313"/>
       <c r="O105" s="148" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P105" s="386"/>
       <c r="Q105" s="169" t="s">
@@ -14882,7 +14876,7 @@
         <v>43880</v>
       </c>
       <c r="V105" s="338" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W105" s="106" t="s">
         <v>107</v>
@@ -14916,7 +14910,7 @@
     </row>
     <row r="106" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B106" s="66"/>
       <c r="C106" s="66"/>
@@ -14926,7 +14920,7 @@
       <c r="E106" s="66"/>
       <c r="F106" s="66"/>
       <c r="G106" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H106" s="68"/>
       <c r="I106" s="308"/>
@@ -14936,7 +14930,7 @@
       <c r="M106" s="312"/>
       <c r="N106" s="313"/>
       <c r="O106" s="148" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P106" s="386"/>
       <c r="Q106" s="169" t="s">
@@ -14955,7 +14949,7 @@
         <v>43882</v>
       </c>
       <c r="V106" s="339" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W106" s="106" t="s">
         <v>107</v>
@@ -14989,7 +14983,7 @@
     </row>
     <row r="107" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B107" s="66"/>
       <c r="C107" s="66"/>
@@ -14999,7 +14993,7 @@
       <c r="E107" s="66"/>
       <c r="F107" s="66"/>
       <c r="G107" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H107" s="68"/>
       <c r="I107" s="308"/>
@@ -15009,7 +15003,7 @@
       <c r="M107" s="312"/>
       <c r="N107" s="313"/>
       <c r="O107" s="148" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P107" s="386"/>
       <c r="Q107" s="169" t="s">
@@ -15028,7 +15022,7 @@
         <v>43882</v>
       </c>
       <c r="V107" s="339" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W107" s="106" t="s">
         <v>107</v>
@@ -15062,7 +15056,7 @@
     </row>
     <row r="108" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A108" s="290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B108" s="290"/>
       <c r="C108" s="290"/>
@@ -15072,7 +15066,7 @@
       <c r="E108" s="290"/>
       <c r="F108" s="290"/>
       <c r="G108" s="64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H108" s="69"/>
       <c r="I108" s="314"/>
@@ -15082,7 +15076,7 @@
       <c r="M108" s="318"/>
       <c r="N108" s="319"/>
       <c r="O108" s="150" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P108" s="387"/>
       <c r="Q108" s="182" t="s">
@@ -15101,7 +15095,7 @@
         <v>43885</v>
       </c>
       <c r="V108" s="339" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="W108" s="149" t="s">
         <v>107</v>
@@ -15135,7 +15129,7 @@
     </row>
     <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A109" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="42"/>
       <c r="C109" s="42"/>
@@ -15145,7 +15139,7 @@
       <c r="E109" s="42"/>
       <c r="F109" s="42"/>
       <c r="G109" s="291" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H109" s="67"/>
       <c r="I109" s="305"/>
@@ -15155,7 +15149,7 @@
       <c r="M109" s="97"/>
       <c r="N109" s="98"/>
       <c r="O109" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P109" s="385" t="s">
         <v>28</v>
@@ -15210,7 +15204,7 @@
     </row>
     <row r="110" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A110" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
@@ -15220,7 +15214,7 @@
       <c r="E110" s="45"/>
       <c r="F110" s="45"/>
       <c r="G110" s="292" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H110" s="68"/>
       <c r="I110" s="306"/>
@@ -15230,7 +15224,7 @@
       <c r="M110" s="104"/>
       <c r="N110" s="105"/>
       <c r="O110" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P110" s="386"/>
       <c r="Q110" s="169" t="s">
@@ -15283,7 +15277,7 @@
     </row>
     <row r="111" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A111" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
@@ -15293,7 +15287,7 @@
       <c r="E111" s="45"/>
       <c r="F111" s="45"/>
       <c r="G111" s="292" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H111" s="68"/>
       <c r="I111" s="306"/>
@@ -15303,7 +15297,7 @@
       <c r="M111" s="104"/>
       <c r="N111" s="105"/>
       <c r="O111" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P111" s="386"/>
       <c r="Q111" s="169" t="s">
@@ -15356,7 +15350,7 @@
     </row>
     <row r="112" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A112" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
@@ -15366,7 +15360,7 @@
       <c r="E112" s="45"/>
       <c r="F112" s="45"/>
       <c r="G112" s="292" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H112" s="68"/>
       <c r="I112" s="306"/>
@@ -15376,7 +15370,7 @@
       <c r="M112" s="104"/>
       <c r="N112" s="105"/>
       <c r="O112" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P112" s="386"/>
       <c r="Q112" s="169" t="s">
@@ -15429,7 +15423,7 @@
     </row>
     <row r="113" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A113" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B113" s="63"/>
       <c r="C113" s="63"/>
@@ -15439,7 +15433,7 @@
       <c r="E113" s="63"/>
       <c r="F113" s="63"/>
       <c r="G113" s="293" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H113" s="69"/>
       <c r="I113" s="320"/>
@@ -15449,7 +15443,7 @@
       <c r="M113" s="141"/>
       <c r="N113" s="142"/>
       <c r="O113" s="149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P113" s="387"/>
       <c r="Q113" s="182" t="s">
@@ -15502,7 +15496,7 @@
     </row>
     <row r="114" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A114" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B114" s="42"/>
       <c r="C114" s="42"/>
@@ -15512,7 +15506,7 @@
       <c r="E114" s="42"/>
       <c r="F114" s="42"/>
       <c r="G114" s="291" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H114" s="67"/>
       <c r="I114" s="305"/>
@@ -15575,7 +15569,7 @@
     </row>
     <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A115" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
@@ -15585,7 +15579,7 @@
       <c r="E115" s="45"/>
       <c r="F115" s="45"/>
       <c r="G115" s="292" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H115" s="68"/>
       <c r="I115" s="306"/>
@@ -15646,7 +15640,7 @@
     </row>
     <row r="116" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A116" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
@@ -15656,7 +15650,7 @@
       <c r="E116" s="45"/>
       <c r="F116" s="45"/>
       <c r="G116" s="292" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H116" s="68"/>
       <c r="I116" s="306"/>
@@ -15717,7 +15711,7 @@
     </row>
     <row r="117" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A117" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
@@ -15727,7 +15721,7 @@
       <c r="E117" s="45"/>
       <c r="F117" s="45"/>
       <c r="G117" s="292" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H117" s="68"/>
       <c r="I117" s="306"/>
@@ -15788,7 +15782,7 @@
     </row>
     <row r="118" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A118" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B118" s="63"/>
       <c r="C118" s="63"/>
@@ -15798,7 +15792,7 @@
       <c r="E118" s="63"/>
       <c r="F118" s="63"/>
       <c r="G118" s="293" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H118" s="69"/>
       <c r="I118" s="320"/>
@@ -15857,9 +15851,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="16.5">
+    <row r="119" spans="1:45" ht="16.5" hidden="1">
       <c r="A119" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B119" s="51"/>
       <c r="C119" s="51"/>
@@ -15869,10 +15863,10 @@
       <c r="E119" s="51"/>
       <c r="F119" s="51"/>
       <c r="G119" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="H119" s="51" t="s">
         <v>235</v>
-      </c>
-      <c r="H119" s="51" t="s">
-        <v>236</v>
       </c>
       <c r="I119" s="128" t="s">
         <v>99</v>
@@ -15895,7 +15889,7 @@
       <c r="O119" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="382" t="s">
+      <c r="P119" s="399" t="s">
         <v>14</v>
       </c>
       <c r="Q119" s="164" t="s">
@@ -15959,18 +15953,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="16.5">
+    <row r="120" spans="1:45" ht="16.5" hidden="1">
       <c r="A120" s="294" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D120" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G120" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H120" s="294" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I120" s="321" t="s">
         <v>99</v>
@@ -15993,7 +15987,7 @@
       <c r="O120" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="383"/>
+      <c r="P120" s="400"/>
       <c r="Q120" s="169" t="s">
         <v>100</v>
       </c>
@@ -16053,18 +16047,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="16.5">
+    <row r="121" spans="1:45" ht="16.5" hidden="1">
       <c r="A121" s="294" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D121" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G121" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H121" s="294" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I121" s="321" t="s">
         <v>99</v>
@@ -16087,7 +16081,7 @@
       <c r="O121" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="383"/>
+      <c r="P121" s="400"/>
       <c r="Q121" s="169" t="s">
         <v>102</v>
       </c>
@@ -16143,18 +16137,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="16.5">
+    <row r="122" spans="1:45" ht="16.5" hidden="1">
       <c r="A122" s="294" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D122" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G122" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H122" s="294" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I122" s="321" t="s">
         <v>99</v>
@@ -16177,7 +16171,7 @@
       <c r="O122" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="383"/>
+      <c r="P122" s="400"/>
       <c r="Q122" s="169" t="s">
         <v>13</v>
       </c>
@@ -16233,18 +16227,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="16.5">
+    <row r="123" spans="1:45" ht="16.5" hidden="1">
       <c r="A123" s="294" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D123" s="294" t="s">
         <v>35</v>
       </c>
       <c r="G123" s="294" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H123" s="294" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I123" s="321" t="s">
         <v>99</v>
@@ -16267,7 +16261,7 @@
       <c r="O123" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P123" s="384"/>
+      <c r="P123" s="401"/>
       <c r="Q123" s="169" t="s">
         <v>16</v>
       </c>
@@ -16323,15 +16317,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="15.75">
+    <row r="124" spans="1:45" ht="15.75" hidden="1">
       <c r="A124" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="G124" s="51" t="s">
         <v>239</v>
-      </c>
-      <c r="G124" s="51" t="s">
-        <v>240</v>
       </c>
       <c r="H124" s="51"/>
       <c r="I124" s="128" t="s">
@@ -16366,7 +16360,7 @@
       <c r="V124" s="51"/>
       <c r="W124" s="127"/>
       <c r="X124" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y124" s="248" t="s">
         <v>90</v>
@@ -16409,29 +16403,35 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AS124" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="26">
+      <filters>
+        <filter val="Wave1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="21">
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P69:P73"/>
-    <mergeCell ref="P74:P78"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
     <mergeCell ref="P119:P123"/>
     <mergeCell ref="P92:P96"/>
     <mergeCell ref="P99:P103"/>
     <mergeCell ref="P104:P108"/>
     <mergeCell ref="P109:P113"/>
     <mergeCell ref="P114:P118"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P69:P73"/>
+    <mergeCell ref="P74:P78"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
   </mergeCells>
   <phoneticPr fontId="37"/>
   <dataValidations count="1">
@@ -16480,11 +16480,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16495,7 +16495,7 @@
         <v>44</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" hidden="1">
@@ -16506,7 +16506,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16517,7 +16517,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1">
@@ -16528,7 +16528,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" hidden="1">
@@ -16539,7 +16539,7 @@
         <v>116</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16550,7 +16550,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16558,10 +16558,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16572,7 +16572,7 @@
         <v>131</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -16583,7 +16583,7 @@
         <v>134</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16591,10 +16591,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16602,10 +16602,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:3" hidden="1">
@@ -16613,10 +16613,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -16624,10 +16624,10 @@
         <v>35</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1">
@@ -16635,10 +16635,10 @@
         <v>36</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3" hidden="1">
@@ -16646,10 +16646,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:3" hidden="1">
@@ -16657,10 +16657,10 @@
         <v>36</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1">
@@ -16668,10 +16668,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1">
@@ -16679,10 +16679,10 @@
         <v>36</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3" hidden="1">
@@ -16690,10 +16690,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1">
@@ -16701,10 +16701,10 @@
         <v>37</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:3" hidden="1">
@@ -16712,10 +16712,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1">
@@ -16723,10 +16723,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1">
@@ -16734,10 +16734,10 @@
         <v>36</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1">
@@ -16745,10 +16745,10 @@
         <v>37</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:3" hidden="1">
@@ -16756,10 +16756,10 @@
         <v>37</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -16767,10 +16767,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16778,10 +16778,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -16789,10 +16789,10 @@
         <v>35</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -16819,43 +16819,43 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -16864,7 +16864,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>99</v>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="26"/>
@@ -16885,7 +16885,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>99</v>
@@ -16895,7 +16895,7 @@
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="26"/>
@@ -16906,17 +16906,17 @@
         <v>134</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="26"/>
@@ -16924,10 +16924,10 @@
     <row r="5" spans="1:9">
       <c r="A5" s="11"/>
       <c r="B5" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>99</v>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="26"/>
@@ -16945,10 +16945,10 @@
     <row r="6" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>99</v>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="26"/>
@@ -16966,18 +16966,18 @@
     <row r="7" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="26"/>
@@ -16985,16 +16985,16 @@
     <row r="8" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="13" t="s">
@@ -17003,15 +17003,15 @@
       <c r="H8" s="13"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>87</v>
@@ -17021,28 +17021,28 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="1:9" ht="27">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="26"/>
@@ -17050,10 +17050,10 @@
     <row r="11" spans="1:9">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>99</v>
@@ -17063,7 +17063,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="26"/>
@@ -17071,62 +17071,62 @@
     <row r="12" spans="1:9">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="1:9" ht="54">
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="11"/>
       <c r="B13" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="28.5">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="26"/>
@@ -17134,10 +17134,10 @@
     <row r="15" spans="1:9">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>99</v>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="26"/>
@@ -17155,10 +17155,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="11"/>
       <c r="B16" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>99</v>
@@ -17168,7 +17168,7 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="26"/>
@@ -17176,10 +17176,10 @@
     <row r="17" spans="1:9">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>99</v>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="26"/>
@@ -17197,10 +17197,10 @@
     <row r="18" spans="1:9">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>99</v>
@@ -17210,7 +17210,7 @@
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="26"/>
@@ -17218,10 +17218,10 @@
     <row r="19" spans="1:9">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>99</v>
@@ -17230,21 +17230,21 @@
         <v>36</v>
       </c>
       <c r="F19" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" ht="27">
+    <row r="20" spans="1:9" ht="45">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>99</v>
@@ -17254,30 +17254,30 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="26"/>
@@ -17285,10 +17285,10 @@
     <row r="22" spans="1:9">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>99</v>
@@ -17298,7 +17298,7 @@
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="26"/>
@@ -17306,10 +17306,10 @@
     <row r="23" spans="1:9">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>99</v>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="26"/>
@@ -17327,10 +17327,10 @@
     <row r="24" spans="1:9">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>99</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="26"/>
@@ -17348,20 +17348,20 @@
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="26"/>
@@ -17369,20 +17369,20 @@
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="26"/>
@@ -17390,20 +17390,20 @@
     <row r="27" spans="1:9">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="26"/>
@@ -17411,22 +17411,22 @@
     <row r="28" spans="1:9">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="26"/>
@@ -17434,10 +17434,10 @@
     <row r="29" spans="1:9">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>99</v>
@@ -17446,10 +17446,10 @@
         <v>36</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="26"/>
@@ -17457,10 +17457,10 @@
     <row r="30" spans="1:9">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>99</v>
@@ -17469,10 +17469,10 @@
         <v>36</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="26"/>
@@ -17480,10 +17480,10 @@
     <row r="31" spans="1:9">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>99</v>
@@ -17492,67 +17492,67 @@
         <v>36</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="26"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>87</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="26"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="11"/>
       <c r="B34" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>87</v>
@@ -17562,7 +17562,7 @@
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H34" s="13"/>
     </row>
@@ -17593,7 +17593,7 @@
     </row>
     <row r="38" spans="1:9" ht="33">
       <c r="B38" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -17615,30 +17615,30 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="34.375" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>60</v>
@@ -17655,7 +17655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -17664,28 +17664,28 @@
         <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>35</v>
@@ -17697,7 +17697,7 @@
         <v>128</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -17708,6 +17708,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -17839,15 +17848,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17855,13 +17855,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7F15E3-AF5F-45A5-81BF-BDC256631759}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90259B-9329-4FD9-A29B-A571E0CA1393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="309">
   <si>
     <t>ステータス</t>
   </si>
@@ -1351,10 +1351,6 @@
   </si>
   <si>
     <t>外部団体の最新化(JA02)</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <t>2020/4/31</t>
     <phoneticPr fontId="35"/>
   </si>
   <si>
@@ -2517,7 +2513,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3828,6 +3824,50 @@
     <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="50" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="25" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3856,6 +3896,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3878,39 +3936,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="50" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4567,11 +4592,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS140"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN78" sqref="AN78"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4755,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
       <c r="A2" s="37" t="s">
         <v>81</v>
       </c>
@@ -4854,7 +4880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="33">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="33" hidden="1">
       <c r="A3" s="42" t="s">
         <v>92</v>
       </c>
@@ -4894,7 +4920,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="416" t="s">
+      <c r="P3" s="422" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -4950,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="4" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A4" s="45" t="s">
         <v>92</v>
       </c>
@@ -4990,7 +5016,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="417"/>
+      <c r="P4" s="423"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -5044,7 +5070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="5" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A5" s="45" t="s">
         <v>92</v>
       </c>
@@ -5084,7 +5110,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="417"/>
+      <c r="P5" s="423"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5138,7 +5164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="6" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A6" s="45" t="s">
         <v>92</v>
       </c>
@@ -5178,7 +5204,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="417"/>
+      <c r="P6" s="423"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5232,7 +5258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="7" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A7" s="48" t="s">
         <v>92</v>
       </c>
@@ -5272,7 +5298,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="418"/>
+      <c r="P7" s="424"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5366,7 +5392,7 @@
       <c r="O8" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="402" t="s">
+      <c r="P8" s="416" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="164" t="s">
@@ -5471,7 +5497,7 @@
       <c r="O9" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="403"/>
+      <c r="P9" s="417"/>
       <c r="Q9" s="169" t="s">
         <v>100</v>
       </c>
@@ -5489,14 +5515,14 @@
       <c r="W9" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="74" t="s">
+      <c r="X9" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" s="216" t="s">
+      <c r="Y9" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="Z9" s="224"/>
-      <c r="AA9" s="74" t="s">
+      <c r="Z9" s="405"/>
+      <c r="AA9" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB9" s="224"/>
@@ -5508,25 +5534,25 @@
       <c r="AH9" s="225"/>
       <c r="AI9" s="225"/>
       <c r="AJ9" s="225"/>
-      <c r="AK9" s="260">
+      <c r="AK9" s="343">
         <v>2</v>
       </c>
-      <c r="AL9" s="212">
+      <c r="AL9" s="403">
         <v>0.6</v>
       </c>
-      <c r="AM9" s="260">
+      <c r="AM9" s="343">
         <v>0.21562500000000001</v>
       </c>
-      <c r="AN9" s="260">
+      <c r="AN9" s="343">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AO9" s="270">
+      <c r="AO9" s="355">
         <v>9.27536231884058</v>
       </c>
-      <c r="AP9" s="271"/>
-      <c r="AQ9" s="271"/>
-      <c r="AR9" s="271"/>
-      <c r="AS9" s="74" t="s">
+      <c r="AP9" s="412"/>
+      <c r="AQ9" s="412"/>
+      <c r="AR9" s="412"/>
+      <c r="AS9" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5570,7 +5596,7 @@
       <c r="O10" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="403"/>
+      <c r="P10" s="417"/>
       <c r="Q10" s="169" t="s">
         <v>102</v>
       </c>
@@ -5586,14 +5612,14 @@
       <c r="W10" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X10" s="74" t="s">
+      <c r="X10" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y10" s="216" t="s">
+      <c r="Y10" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="Z10" s="224"/>
-      <c r="AA10" s="74" t="s">
+      <c r="Z10" s="405"/>
+      <c r="AA10" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB10" s="224"/>
@@ -5605,25 +5631,25 @@
       <c r="AH10" s="225"/>
       <c r="AI10" s="225"/>
       <c r="AJ10" s="225"/>
-      <c r="AK10" s="260">
+      <c r="AK10" s="343">
         <v>2</v>
       </c>
-      <c r="AL10" s="212">
+      <c r="AL10" s="403">
         <v>0.6</v>
       </c>
-      <c r="AM10" s="260">
+      <c r="AM10" s="343">
         <v>0.21562500000000001</v>
       </c>
-      <c r="AN10" s="260">
+      <c r="AN10" s="343">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AO10" s="270">
+      <c r="AO10" s="355">
         <v>9.27536231884058</v>
       </c>
-      <c r="AP10" s="271"/>
-      <c r="AQ10" s="271"/>
-      <c r="AR10" s="271"/>
-      <c r="AS10" s="74" t="s">
+      <c r="AP10" s="412"/>
+      <c r="AQ10" s="412"/>
+      <c r="AR10" s="412"/>
+      <c r="AS10" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5667,7 +5693,7 @@
       <c r="O11" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="403"/>
+      <c r="P11" s="417"/>
       <c r="Q11" s="169" t="s">
         <v>13</v>
       </c>
@@ -5675,7 +5701,7 @@
         <v>43937</v>
       </c>
       <c r="S11" s="170">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="T11" s="170"/>
       <c r="U11" s="170"/>
@@ -5683,14 +5709,14 @@
       <c r="W11" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X11" s="74" t="s">
+      <c r="X11" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y11" s="216" t="s">
+      <c r="Y11" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="Z11" s="224"/>
-      <c r="AA11" s="74" t="s">
+      <c r="Z11" s="405"/>
+      <c r="AA11" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB11" s="224"/>
@@ -5702,25 +5728,25 @@
       <c r="AH11" s="225"/>
       <c r="AI11" s="225"/>
       <c r="AJ11" s="225"/>
-      <c r="AK11" s="260">
+      <c r="AK11" s="343">
         <v>2</v>
       </c>
-      <c r="AL11" s="212">
+      <c r="AL11" s="403">
         <v>0.6</v>
       </c>
-      <c r="AM11" s="260">
+      <c r="AM11" s="343">
         <v>0.21562500000000001</v>
       </c>
-      <c r="AN11" s="260">
+      <c r="AN11" s="343">
         <v>0.14374999999999999</v>
       </c>
-      <c r="AO11" s="270">
+      <c r="AO11" s="355">
         <v>9.27536231884058</v>
       </c>
-      <c r="AP11" s="271"/>
-      <c r="AQ11" s="271"/>
-      <c r="AR11" s="271"/>
-      <c r="AS11" s="74" t="s">
+      <c r="AP11" s="412"/>
+      <c r="AQ11" s="412"/>
+      <c r="AR11" s="412"/>
+      <c r="AS11" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5766,30 +5792,26 @@
       <c r="O12" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="404"/>
+      <c r="P12" s="418"/>
       <c r="Q12" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="170">
-        <v>43942</v>
-      </c>
-      <c r="S12" s="170">
-        <v>43942</v>
-      </c>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
       <c r="T12" s="170"/>
       <c r="U12" s="170"/>
       <c r="V12" s="379"/>
       <c r="W12" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X12" s="74" t="s">
+      <c r="X12" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y12" s="216" t="s">
+      <c r="Y12" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74" t="s">
+      <c r="Z12" s="181"/>
+      <c r="AA12" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB12" s="74"/>
@@ -5801,32 +5823,32 @@
       <c r="AH12" s="227"/>
       <c r="AI12" s="230"/>
       <c r="AJ12" s="74"/>
-      <c r="AK12" s="260">
+      <c r="AK12" s="343">
         <v>2</v>
       </c>
-      <c r="AL12" s="212">
+      <c r="AL12" s="403">
         <v>0.6</v>
       </c>
-      <c r="AM12" s="260">
+      <c r="AM12" s="343">
         <f t="shared" si="2"/>
         <v>0.21562499999999998</v>
       </c>
-      <c r="AN12" s="260">
+      <c r="AN12" s="343">
         <f t="shared" si="3"/>
         <v>0.14375000000000002</v>
       </c>
-      <c r="AO12" s="270">
+      <c r="AO12" s="355">
         <f t="shared" si="6"/>
         <v>9.27536231884058</v>
       </c>
-      <c r="AP12" s="270"/>
-      <c r="AQ12" s="270"/>
-      <c r="AR12" s="270"/>
-      <c r="AS12" s="74" t="s">
+      <c r="AP12" s="355"/>
+      <c r="AQ12" s="355"/>
+      <c r="AR12" s="355"/>
+      <c r="AS12" s="181" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="31" customFormat="1">
+    <row r="13" spans="1:45" s="31" customFormat="1" hidden="1">
       <c r="A13" s="51" t="s">
         <v>110</v>
       </c>
@@ -5902,7 +5924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="14" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A14" s="51" t="s">
         <v>114</v>
       </c>
@@ -5982,7 +6004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="31" customFormat="1" ht="28.5">
+    <row r="15" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A15" s="60" t="s">
         <v>117</v>
       </c>
@@ -6018,7 +6040,7 @@
       <c r="O15" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="419" t="s">
+      <c r="P15" s="425" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -6074,7 +6096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="16" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A16" s="45" t="s">
         <v>117</v>
       </c>
@@ -6110,7 +6132,7 @@
       <c r="O16" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="420"/>
+      <c r="P16" s="426"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6164,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="17" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A17" s="45" t="s">
         <v>117</v>
       </c>
@@ -6200,7 +6222,7 @@
       <c r="O17" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="420"/>
+      <c r="P17" s="426"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6254,7 +6276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="18" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A18" s="45" t="s">
         <v>117</v>
       </c>
@@ -6290,7 +6312,7 @@
       <c r="O18" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="420"/>
+      <c r="P18" s="426"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6344,7 +6366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="19" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A19" s="63" t="s">
         <v>117</v>
       </c>
@@ -6380,7 +6402,7 @@
       <c r="O19" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="421"/>
+      <c r="P19" s="427"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -6434,7 +6456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
+    <row r="20" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>122</v>
       </c>
@@ -6475,7 +6497,7 @@
       <c r="O20" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="408" t="s">
+      <c r="P20" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="164" t="s">
@@ -6549,7 +6571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="21" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A21" s="45" t="s">
         <v>122</v>
       </c>
@@ -6590,7 +6612,7 @@
       <c r="O21" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="409"/>
+      <c r="P21" s="429"/>
       <c r="Q21" s="169" t="s">
         <v>100</v>
       </c>
@@ -6657,7 +6679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="22" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A22" s="45" t="s">
         <v>122</v>
       </c>
@@ -6698,7 +6720,7 @@
       <c r="O22" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="409"/>
+      <c r="P22" s="429"/>
       <c r="Q22" s="169" t="s">
         <v>102</v>
       </c>
@@ -6765,7 +6787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="23" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A23" s="45" t="s">
         <v>122</v>
       </c>
@@ -6806,7 +6828,7 @@
       <c r="O23" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="409"/>
+      <c r="P23" s="429"/>
       <c r="Q23" s="169" t="s">
         <v>13</v>
       </c>
@@ -6874,7 +6896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="24" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A24" s="63" t="s">
         <v>122</v>
       </c>
@@ -6915,7 +6937,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="410"/>
+      <c r="P24" s="430"/>
       <c r="Q24" s="182" t="s">
         <v>16</v>
       </c>
@@ -6975,7 +6997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A25" s="42" t="s">
         <v>129</v>
       </c>
@@ -7016,7 +7038,7 @@
       <c r="O25" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="408" t="s">
+      <c r="P25" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="164" t="s">
@@ -7084,7 +7106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="26" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A26" s="45" t="s">
         <v>129</v>
       </c>
@@ -7125,7 +7147,7 @@
       <c r="O26" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="409"/>
+      <c r="P26" s="429"/>
       <c r="Q26" s="169" t="s">
         <v>100</v>
       </c>
@@ -7187,7 +7209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="27" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A27" s="45" t="s">
         <v>129</v>
       </c>
@@ -7228,7 +7250,7 @@
       <c r="O27" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="409"/>
+      <c r="P27" s="429"/>
       <c r="Q27" s="169" t="s">
         <v>102</v>
       </c>
@@ -7290,7 +7312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A28" s="45" t="s">
         <v>129</v>
       </c>
@@ -7331,7 +7353,7 @@
       <c r="O28" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="409"/>
+      <c r="P28" s="429"/>
       <c r="Q28" s="169" t="s">
         <v>13</v>
       </c>
@@ -7393,7 +7415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="29" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A29" s="63" t="s">
         <v>129</v>
       </c>
@@ -7434,7 +7456,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="410"/>
+      <c r="P29" s="430"/>
       <c r="Q29" s="182" t="s">
         <v>16</v>
       </c>
@@ -7496,7 +7518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="30" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A30" s="60" t="s">
         <v>132</v>
       </c>
@@ -7537,7 +7559,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="411" t="s">
+      <c r="P30" s="431" t="s">
         <v>25</v>
       </c>
       <c r="Q30" s="164" t="s">
@@ -7605,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A31" s="45" t="s">
         <v>132</v>
       </c>
@@ -7646,7 +7668,7 @@
       <c r="O31" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="409"/>
+      <c r="P31" s="429"/>
       <c r="Q31" s="169" t="s">
         <v>100</v>
       </c>
@@ -7708,7 +7730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="100.5">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
       <c r="A32" s="45" t="s">
         <v>132</v>
       </c>
@@ -7749,7 +7771,7 @@
       <c r="O32" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="409"/>
+      <c r="P32" s="429"/>
       <c r="Q32" s="169" t="s">
         <v>102</v>
       </c>
@@ -7815,7 +7837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A33" s="45" t="s">
         <v>132</v>
       </c>
@@ -7856,7 +7878,7 @@
       <c r="O33" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="409"/>
+      <c r="P33" s="429"/>
       <c r="Q33" s="169" t="s">
         <v>13</v>
       </c>
@@ -7916,7 +7938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="34" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A34" s="48" t="s">
         <v>132</v>
       </c>
@@ -7957,7 +7979,7 @@
       <c r="O34" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="412"/>
+      <c r="P34" s="432"/>
       <c r="Q34" s="177" t="s">
         <v>16</v>
       </c>
@@ -8011,7 +8033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="35" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A35" s="42" t="s">
         <v>136</v>
       </c>
@@ -8052,7 +8074,7 @@
       <c r="O35" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="413" t="s">
+      <c r="P35" s="433" t="s">
         <v>28</v>
       </c>
       <c r="Q35" s="164" t="s">
@@ -8124,7 +8146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A36" s="45" t="s">
         <v>136</v>
       </c>
@@ -8165,7 +8187,7 @@
       <c r="O36" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="414"/>
+      <c r="P36" s="434"/>
       <c r="Q36" s="169" t="s">
         <v>100</v>
       </c>
@@ -8231,7 +8253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A37" s="45" t="s">
         <v>136</v>
       </c>
@@ -8272,7 +8294,7 @@
       <c r="O37" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="414"/>
+      <c r="P37" s="434"/>
       <c r="Q37" s="169" t="s">
         <v>102</v>
       </c>
@@ -8338,7 +8360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A38" s="45" t="s">
         <v>136</v>
       </c>
@@ -8379,7 +8401,7 @@
       <c r="O38" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="414"/>
+      <c r="P38" s="434"/>
       <c r="Q38" s="169" t="s">
         <v>13</v>
       </c>
@@ -8445,7 +8467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="39" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A39" s="63" t="s">
         <v>136</v>
       </c>
@@ -8486,7 +8508,7 @@
       <c r="O39" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="415"/>
+      <c r="P39" s="435"/>
       <c r="Q39" s="182" t="s">
         <v>16</v>
       </c>
@@ -8550,7 +8572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="40" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A40" s="42" t="s">
         <v>140</v>
       </c>
@@ -8591,7 +8613,7 @@
       <c r="O40" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="413" t="s">
+      <c r="P40" s="433" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="164" t="s">
@@ -8665,7 +8687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="41" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A41" s="45" t="s">
         <v>140</v>
       </c>
@@ -8706,7 +8728,7 @@
       <c r="O41" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="414"/>
+      <c r="P41" s="434"/>
       <c r="Q41" s="169" t="s">
         <v>100</v>
       </c>
@@ -8773,7 +8795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="42" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A42" s="45" t="s">
         <v>140</v>
       </c>
@@ -8814,7 +8836,7 @@
       <c r="O42" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="414"/>
+      <c r="P42" s="434"/>
       <c r="Q42" s="169" t="s">
         <v>102</v>
       </c>
@@ -8881,7 +8903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A43" s="45" t="s">
         <v>140</v>
       </c>
@@ -8922,7 +8944,7 @@
       <c r="O43" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="414"/>
+      <c r="P43" s="434"/>
       <c r="Q43" s="169" t="s">
         <v>13</v>
       </c>
@@ -8990,7 +9012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="44" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A44" s="63" t="s">
         <v>140</v>
       </c>
@@ -9031,7 +9053,7 @@
       <c r="O44" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="415"/>
+      <c r="P44" s="435"/>
       <c r="Q44" s="182" t="s">
         <v>16</v>
       </c>
@@ -9099,7 +9121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A45" s="51" t="s">
         <v>143</v>
       </c>
@@ -9184,7 +9206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A46" s="51" t="s">
         <v>147</v>
       </c>
@@ -9269,7 +9291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" customHeight="1">
+    <row r="47" spans="1:45" s="31" customFormat="1" ht="15.6" hidden="1" customHeight="1">
       <c r="A47" s="51" t="s">
         <v>150</v>
       </c>
@@ -9483,7 +9505,7 @@
       <c r="O49" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="402" t="s">
+      <c r="P49" s="416" t="s">
         <v>28</v>
       </c>
       <c r="Q49" s="164" t="s">
@@ -9590,7 +9612,7 @@
       <c r="O50" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="403"/>
+      <c r="P50" s="417"/>
       <c r="Q50" s="169" t="s">
         <v>100</v>
       </c>
@@ -9695,7 +9717,7 @@
       <c r="O51" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="403"/>
+      <c r="P51" s="417"/>
       <c r="Q51" s="169" t="s">
         <v>102</v>
       </c>
@@ -9796,7 +9818,7 @@
       <c r="O52" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="403"/>
+      <c r="P52" s="417"/>
       <c r="Q52" s="169" t="s">
         <v>13</v>
       </c>
@@ -9897,7 +9919,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="404"/>
+      <c r="P53" s="418"/>
       <c r="Q53" s="182" t="s">
         <v>16</v>
       </c>
@@ -9996,7 +10018,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="74"/>
-      <c r="P54" s="402" t="s">
+      <c r="P54" s="416" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="164" t="s">
@@ -10099,7 +10121,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="106"/>
-      <c r="P55" s="403"/>
+      <c r="P55" s="417"/>
       <c r="Q55" s="169" t="s">
         <v>100</v>
       </c>
@@ -10198,7 +10220,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="106"/>
-      <c r="P56" s="403"/>
+      <c r="P56" s="417"/>
       <c r="Q56" s="169" t="s">
         <v>102</v>
       </c>
@@ -10297,7 +10319,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="106"/>
-      <c r="P57" s="403"/>
+      <c r="P57" s="417"/>
       <c r="Q57" s="169" t="s">
         <v>13</v>
       </c>
@@ -10392,7 +10414,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="106"/>
-      <c r="P58" s="404"/>
+      <c r="P58" s="418"/>
       <c r="Q58" s="169" t="s">
         <v>16</v>
       </c>
@@ -10442,7 +10464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="59" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A59" s="42" t="s">
         <v>165</v>
       </c>
@@ -10483,7 +10505,7 @@
       <c r="O59" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P59" s="408" t="s">
+      <c r="P59" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="164" t="s">
@@ -10559,7 +10581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="60" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A60" s="45" t="s">
         <v>165</v>
       </c>
@@ -10600,7 +10622,7 @@
       <c r="O60" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P60" s="409"/>
+      <c r="P60" s="429"/>
       <c r="Q60" s="169" t="s">
         <v>100</v>
       </c>
@@ -10667,7 +10689,7 @@
       <c r="AR60" s="274"/>
       <c r="AS60" s="145"/>
     </row>
-    <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="61" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A61" s="45" t="s">
         <v>165</v>
       </c>
@@ -10708,7 +10730,7 @@
       <c r="O61" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P61" s="409"/>
+      <c r="P61" s="429"/>
       <c r="Q61" s="169" t="s">
         <v>102</v>
       </c>
@@ -10775,7 +10797,7 @@
       <c r="AR61" s="274"/>
       <c r="AS61" s="145"/>
     </row>
-    <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="62" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A62" s="45" t="s">
         <v>165</v>
       </c>
@@ -10816,7 +10838,7 @@
       <c r="O62" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P62" s="409"/>
+      <c r="P62" s="429"/>
       <c r="Q62" s="169" t="s">
         <v>13</v>
       </c>
@@ -10886,7 +10908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="63" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A63" s="63" t="s">
         <v>165</v>
       </c>
@@ -10927,7 +10949,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="410"/>
+      <c r="P63" s="430"/>
       <c r="Q63" s="182" t="s">
         <v>16</v>
       </c>
@@ -11038,7 +11060,7 @@
       <c r="O64" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P64" s="402" t="s">
+      <c r="P64" s="416" t="s">
         <v>4</v>
       </c>
       <c r="Q64" s="164" t="s">
@@ -11140,7 +11162,7 @@
       <c r="O65" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P65" s="403"/>
+      <c r="P65" s="417"/>
       <c r="Q65" s="169" t="s">
         <v>100</v>
       </c>
@@ -11156,14 +11178,14 @@
       <c r="W65" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X65" s="74" t="s">
+      <c r="X65" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y65" s="246" t="s">
+      <c r="Y65" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z65" s="381"/>
-      <c r="AA65" s="74" t="s">
+      <c r="Z65" s="407"/>
+      <c r="AA65" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB65" s="381"/>
@@ -11175,27 +11197,27 @@
       <c r="AH65" s="381"/>
       <c r="AI65" s="381"/>
       <c r="AJ65" s="381"/>
-      <c r="AK65" s="260">
+      <c r="AK65" s="343">
         <v>0.7</v>
       </c>
-      <c r="AL65" s="212">
+      <c r="AL65" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM65" s="260">
+      <c r="AM65" s="343">
         <v>7.7625E-2</v>
       </c>
-      <c r="AN65" s="260">
+      <c r="AN65" s="343">
         <v>8.6249999999999938E-3</v>
       </c>
-      <c r="AO65" s="270">
+      <c r="AO65" s="355">
         <v>9.0177133655394517</v>
       </c>
-      <c r="AP65" s="74" t="s">
+      <c r="AP65" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="AQ65" s="383"/>
-      <c r="AR65" s="383"/>
-      <c r="AS65" s="74" t="s">
+      <c r="AQ65" s="408"/>
+      <c r="AR65" s="408"/>
+      <c r="AS65" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11240,7 +11262,7 @@
       <c r="O66" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P66" s="403"/>
+      <c r="P66" s="417"/>
       <c r="Q66" s="169" t="s">
         <v>102</v>
       </c>
@@ -11256,14 +11278,14 @@
       <c r="W66" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X66" s="74" t="s">
+      <c r="X66" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y66" s="246" t="s">
+      <c r="Y66" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z66" s="381"/>
-      <c r="AA66" s="74" t="s">
+      <c r="Z66" s="407"/>
+      <c r="AA66" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB66" s="381"/>
@@ -11275,27 +11297,27 @@
       <c r="AH66" s="381"/>
       <c r="AI66" s="381"/>
       <c r="AJ66" s="381"/>
-      <c r="AK66" s="260">
+      <c r="AK66" s="343">
         <v>0.7</v>
       </c>
-      <c r="AL66" s="212">
+      <c r="AL66" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM66" s="260">
+      <c r="AM66" s="343">
         <v>7.7625E-2</v>
       </c>
-      <c r="AN66" s="260">
+      <c r="AN66" s="343">
         <v>8.6249999999999938E-3</v>
       </c>
-      <c r="AO66" s="270">
+      <c r="AO66" s="355">
         <v>9.0177133655394517</v>
       </c>
-      <c r="AP66" s="74" t="s">
+      <c r="AP66" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="AQ66" s="383"/>
-      <c r="AR66" s="383"/>
-      <c r="AS66" s="74" t="s">
+      <c r="AQ66" s="408"/>
+      <c r="AR66" s="408"/>
+      <c r="AS66" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11340,7 +11362,7 @@
       <c r="O67" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P67" s="403"/>
+      <c r="P67" s="417"/>
       <c r="Q67" s="169" t="s">
         <v>13</v>
       </c>
@@ -11348,7 +11370,7 @@
         <v>43956</v>
       </c>
       <c r="S67" s="170">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="T67" s="170"/>
       <c r="U67" s="170"/>
@@ -11356,14 +11378,14 @@
       <c r="W67" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X67" s="74" t="s">
+      <c r="X67" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y67" s="246" t="s">
+      <c r="Y67" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z67" s="381"/>
-      <c r="AA67" s="74" t="s">
+      <c r="Z67" s="407"/>
+      <c r="AA67" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB67" s="381"/>
@@ -11375,27 +11397,27 @@
       <c r="AH67" s="381"/>
       <c r="AI67" s="381"/>
       <c r="AJ67" s="381"/>
-      <c r="AK67" s="260">
+      <c r="AK67" s="343">
         <v>0.7</v>
       </c>
-      <c r="AL67" s="212">
+      <c r="AL67" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM67" s="260">
+      <c r="AM67" s="343">
         <v>7.7625E-2</v>
       </c>
-      <c r="AN67" s="260">
+      <c r="AN67" s="343">
         <v>8.6249999999999938E-3</v>
       </c>
-      <c r="AO67" s="270">
+      <c r="AO67" s="355">
         <v>9.0177133655394517</v>
       </c>
-      <c r="AP67" s="74" t="s">
+      <c r="AP67" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="AQ67" s="383"/>
-      <c r="AR67" s="383"/>
-      <c r="AS67" s="74" t="s">
+      <c r="AQ67" s="408"/>
+      <c r="AR67" s="408"/>
+      <c r="AS67" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11440,30 +11462,26 @@
       <c r="O68" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="404"/>
+      <c r="P68" s="418"/>
       <c r="Q68" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="R68" s="170">
-        <v>43957</v>
-      </c>
-      <c r="S68" s="170">
-        <v>43957</v>
-      </c>
+      <c r="R68" s="170"/>
+      <c r="S68" s="170"/>
       <c r="T68" s="4"/>
       <c r="U68" s="211"/>
       <c r="V68" s="127"/>
       <c r="W68" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X68" s="74" t="s">
+      <c r="X68" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y68" s="246" t="s">
+      <c r="Y68" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z68" s="74"/>
-      <c r="AA68" s="74" t="s">
+      <c r="Z68" s="181"/>
+      <c r="AA68" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB68" s="74"/>
@@ -11475,28 +11493,28 @@
       <c r="AH68" s="74"/>
       <c r="AI68" s="74"/>
       <c r="AJ68" s="74"/>
-      <c r="AK68" s="260">
+      <c r="AK68" s="343">
         <v>0.7</v>
       </c>
-      <c r="AL68" s="212">
+      <c r="AL68" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM68" s="260">
+      <c r="AM68" s="343">
         <f t="shared" si="54"/>
         <v>7.7625E-2</v>
       </c>
-      <c r="AN68" s="260">
+      <c r="AN68" s="343">
         <f t="shared" si="55"/>
         <v>8.6249999999999938E-3</v>
       </c>
-      <c r="AO68" s="270">
+      <c r="AO68" s="355">
         <f t="shared" si="6"/>
         <v>9.0177133655394517</v>
       </c>
-      <c r="AP68" s="270"/>
-      <c r="AQ68" s="270"/>
-      <c r="AR68" s="270"/>
-      <c r="AS68" s="74" t="s">
+      <c r="AP68" s="355"/>
+      <c r="AQ68" s="355"/>
+      <c r="AR68" s="355"/>
+      <c r="AS68" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11724,7 +11742,7 @@
       <c r="O71" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="402" t="s">
+      <c r="P71" s="416" t="s">
         <v>4</v>
       </c>
       <c r="Q71" s="164" t="s">
@@ -11740,7 +11758,7 @@
       <c r="U71" s="170"/>
       <c r="V71" s="74"/>
       <c r="W71" s="74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X71" s="74" t="s">
         <v>107</v>
@@ -11827,7 +11845,7 @@
       <c r="O72" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="403"/>
+      <c r="P72" s="417"/>
       <c r="Q72" s="169" t="s">
         <v>100</v>
       </c>
@@ -11838,19 +11856,21 @@
         <v>43969</v>
       </c>
       <c r="T72" s="170"/>
-      <c r="U72" s="423"/>
+      <c r="U72" s="400"/>
       <c r="V72" s="74"/>
       <c r="W72" s="181" t="s">
-        <v>309</v>
-      </c>
-      <c r="X72" s="424" t="s">
+        <v>308</v>
+      </c>
+      <c r="X72" s="401" t="s">
         <v>107</v>
       </c>
-      <c r="Y72" s="425" t="s">
+      <c r="Y72" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="Z72" s="422"/>
-      <c r="AA72" s="74"/>
+      <c r="Z72" s="399"/>
+      <c r="AA72" s="181" t="s">
+        <v>108</v>
+      </c>
       <c r="AB72" s="74"/>
       <c r="AC72" s="227"/>
       <c r="AD72" s="227"/>
@@ -11863,7 +11883,7 @@
       <c r="AK72" s="343">
         <v>1</v>
       </c>
-      <c r="AL72" s="426">
+      <c r="AL72" s="403">
         <v>0.9</v>
       </c>
       <c r="AM72" s="343">
@@ -11926,7 +11946,7 @@
       <c r="O73" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="403"/>
+      <c r="P73" s="417"/>
       <c r="Q73" s="169" t="s">
         <v>102</v>
       </c>
@@ -11937,19 +11957,21 @@
         <v>43973</v>
       </c>
       <c r="T73" s="170"/>
-      <c r="U73" s="423"/>
+      <c r="U73" s="400"/>
       <c r="V73" s="74"/>
       <c r="W73" s="181" t="s">
-        <v>309</v>
-      </c>
-      <c r="X73" s="424" t="s">
+        <v>308</v>
+      </c>
+      <c r="X73" s="401" t="s">
         <v>107</v>
       </c>
-      <c r="Y73" s="425" t="s">
+      <c r="Y73" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="Z73" s="422"/>
-      <c r="AA73" s="74"/>
+      <c r="Z73" s="399"/>
+      <c r="AA73" s="181" t="s">
+        <v>108</v>
+      </c>
       <c r="AB73" s="74"/>
       <c r="AC73" s="227"/>
       <c r="AD73" s="227"/>
@@ -11962,7 +11984,7 @@
       <c r="AK73" s="343">
         <v>1</v>
       </c>
-      <c r="AL73" s="426">
+      <c r="AL73" s="403">
         <v>0.9</v>
       </c>
       <c r="AM73" s="343">
@@ -12025,7 +12047,7 @@
       <c r="O74" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="403"/>
+      <c r="P74" s="417"/>
       <c r="Q74" s="169" t="s">
         <v>13</v>
       </c>
@@ -12036,19 +12058,21 @@
         <v>43978</v>
       </c>
       <c r="T74" s="170"/>
-      <c r="U74" s="423"/>
+      <c r="U74" s="400"/>
       <c r="V74" s="74"/>
       <c r="W74" s="181" t="s">
-        <v>309</v>
-      </c>
-      <c r="X74" s="424" t="s">
+        <v>308</v>
+      </c>
+      <c r="X74" s="401" t="s">
         <v>107</v>
       </c>
-      <c r="Y74" s="425" t="s">
+      <c r="Y74" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="Z74" s="422"/>
-      <c r="AA74" s="74"/>
+      <c r="Z74" s="399"/>
+      <c r="AA74" s="181" t="s">
+        <v>108</v>
+      </c>
       <c r="AB74" s="74"/>
       <c r="AC74" s="227"/>
       <c r="AD74" s="227"/>
@@ -12061,7 +12085,7 @@
       <c r="AK74" s="343">
         <v>1</v>
       </c>
-      <c r="AL74" s="426">
+      <c r="AL74" s="403">
         <v>0.9</v>
       </c>
       <c r="AM74" s="343">
@@ -12124,30 +12148,28 @@
       <c r="O75" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="404"/>
+      <c r="P75" s="418"/>
       <c r="Q75" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="R75" s="170">
-        <v>43979</v>
-      </c>
-      <c r="S75" s="170">
-        <v>43980</v>
-      </c>
+      <c r="R75" s="170"/>
+      <c r="S75" s="170"/>
       <c r="T75" s="170"/>
-      <c r="U75" s="423"/>
+      <c r="U75" s="400"/>
       <c r="V75" s="387"/>
       <c r="W75" s="181" t="s">
-        <v>309</v>
-      </c>
-      <c r="X75" s="424" t="s">
+        <v>308</v>
+      </c>
+      <c r="X75" s="401" t="s">
         <v>107</v>
       </c>
-      <c r="Y75" s="425" t="s">
+      <c r="Y75" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="Z75" s="422"/>
-      <c r="AA75" s="74"/>
+      <c r="Z75" s="399"/>
+      <c r="AA75" s="181" t="s">
+        <v>108</v>
+      </c>
       <c r="AB75" s="74"/>
       <c r="AC75" s="227"/>
       <c r="AD75" s="227"/>
@@ -12160,7 +12182,7 @@
       <c r="AK75" s="343">
         <v>1</v>
       </c>
-      <c r="AL75" s="426">
+      <c r="AL75" s="403">
         <v>0.9</v>
       </c>
       <c r="AM75" s="343">
@@ -12316,8 +12338,8 @@
       <c r="O77" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="402" t="s">
-        <v>307</v>
+      <c r="P77" s="416" t="s">
+        <v>306</v>
       </c>
       <c r="Q77" s="164" t="s">
         <v>5</v>
@@ -12425,7 +12447,7 @@
       <c r="O78" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="403"/>
+      <c r="P78" s="417"/>
       <c r="Q78" s="169" t="s">
         <v>100</v>
       </c>
@@ -12442,7 +12464,7 @@
         <v>43888</v>
       </c>
       <c r="V78" s="325" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W78" s="106" t="s">
         <v>126</v>
@@ -12528,7 +12550,7 @@
       <c r="O79" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="403"/>
+      <c r="P79" s="417"/>
       <c r="Q79" s="169" t="s">
         <v>102</v>
       </c>
@@ -12631,7 +12653,7 @@
       <c r="O80" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P80" s="403"/>
+      <c r="P80" s="417"/>
       <c r="Q80" s="169" t="s">
         <v>13</v>
       </c>
@@ -12728,7 +12750,7 @@
       <c r="O81" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="404"/>
+      <c r="P81" s="418"/>
       <c r="Q81" s="182" t="s">
         <v>16</v>
       </c>
@@ -12823,7 +12845,7 @@
       <c r="O82" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="402" t="s">
+      <c r="P82" s="416" t="s">
         <v>28</v>
       </c>
       <c r="Q82" s="164" t="s">
@@ -12932,7 +12954,7 @@
       <c r="O83" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="403"/>
+      <c r="P83" s="417"/>
       <c r="Q83" s="169" t="s">
         <v>100</v>
       </c>
@@ -12954,13 +12976,13 @@
       <c r="W83" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X83" s="74" t="s">
+      <c r="X83" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y83" s="248" t="s">
+      <c r="Y83" s="409" t="s">
         <v>127</v>
       </c>
-      <c r="Z83" s="74"/>
+      <c r="Z83" s="181"/>
       <c r="AA83" s="181" t="s">
         <v>108</v>
       </c>
@@ -13039,7 +13061,7 @@
       <c r="O84" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="403"/>
+      <c r="P84" s="417"/>
       <c r="Q84" s="169" t="s">
         <v>102</v>
       </c>
@@ -13061,13 +13083,13 @@
       <c r="W84" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X84" s="74" t="s">
+      <c r="X84" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y84" s="248" t="s">
+      <c r="Y84" s="409" t="s">
         <v>127</v>
       </c>
-      <c r="Z84" s="74"/>
+      <c r="Z84" s="181"/>
       <c r="AA84" s="181" t="s">
         <v>108</v>
       </c>
@@ -13146,7 +13168,7 @@
       <c r="O85" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="403"/>
+      <c r="P85" s="417"/>
       <c r="Q85" s="169" t="s">
         <v>13</v>
       </c>
@@ -13168,13 +13190,13 @@
       <c r="W85" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X85" s="74" t="s">
+      <c r="X85" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y85" s="248" t="s">
+      <c r="Y85" s="409" t="s">
         <v>127</v>
       </c>
-      <c r="Z85" s="74"/>
+      <c r="Z85" s="181"/>
       <c r="AA85" s="181" t="s">
         <v>108</v>
       </c>
@@ -13253,7 +13275,7 @@
       <c r="O86" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="404"/>
+      <c r="P86" s="418"/>
       <c r="Q86" s="182" t="s">
         <v>16</v>
       </c>
@@ -13275,13 +13297,13 @@
       <c r="W86" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X86" s="74" t="s">
+      <c r="X86" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y86" s="248" t="s">
+      <c r="Y86" s="409" t="s">
         <v>127</v>
       </c>
-      <c r="Z86" s="74"/>
+      <c r="Z86" s="181"/>
       <c r="AA86" s="181" t="s">
         <v>108</v>
       </c>
@@ -13360,7 +13382,7 @@
       <c r="O87" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="402" t="s">
+      <c r="P87" s="416" t="s">
         <v>4</v>
       </c>
       <c r="Q87" s="164" t="s">
@@ -13462,7 +13484,7 @@
       <c r="O88" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="403"/>
+      <c r="P88" s="417"/>
       <c r="Q88" s="169" t="s">
         <v>100</v>
       </c>
@@ -13478,14 +13500,14 @@
       <c r="W88" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X88" s="74" t="s">
+      <c r="X88" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y88" s="246" t="s">
+      <c r="Y88" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z88" s="74"/>
-      <c r="AA88" s="74" t="s">
+      <c r="Z88" s="181"/>
+      <c r="AA88" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB88" s="74"/>
@@ -13497,27 +13519,27 @@
       <c r="AH88" s="74"/>
       <c r="AI88" s="74"/>
       <c r="AJ88" s="74"/>
-      <c r="AK88" s="260">
+      <c r="AK88" s="343">
         <v>0.5</v>
       </c>
-      <c r="AL88" s="212">
+      <c r="AL88" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM88" s="260">
+      <c r="AM88" s="343">
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN88" s="260">
+      <c r="AN88" s="343">
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO88" s="270">
+      <c r="AO88" s="355">
         <v>9.6618357487922708</v>
       </c>
-      <c r="AP88" s="74" t="s">
+      <c r="AP88" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="AQ88" s="270"/>
-      <c r="AR88" s="270"/>
-      <c r="AS88" s="74" t="s">
+      <c r="AQ88" s="355"/>
+      <c r="AR88" s="355"/>
+      <c r="AS88" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13562,7 +13584,7 @@
       <c r="O89" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="403"/>
+      <c r="P89" s="417"/>
       <c r="Q89" s="169" t="s">
         <v>102</v>
       </c>
@@ -13578,14 +13600,14 @@
       <c r="W89" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X89" s="74" t="s">
+      <c r="X89" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y89" s="246" t="s">
+      <c r="Y89" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z89" s="74"/>
-      <c r="AA89" s="74" t="s">
+      <c r="Z89" s="181"/>
+      <c r="AA89" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB89" s="74"/>
@@ -13597,27 +13619,27 @@
       <c r="AH89" s="74"/>
       <c r="AI89" s="74"/>
       <c r="AJ89" s="74"/>
-      <c r="AK89" s="260">
+      <c r="AK89" s="343">
         <v>0.5</v>
       </c>
-      <c r="AL89" s="212">
+      <c r="AL89" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM89" s="260">
+      <c r="AM89" s="343">
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN89" s="260">
+      <c r="AN89" s="343">
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO89" s="270">
+      <c r="AO89" s="355">
         <v>9.6618357487922708</v>
       </c>
-      <c r="AP89" s="74" t="s">
+      <c r="AP89" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="AQ89" s="270"/>
-      <c r="AR89" s="270"/>
-      <c r="AS89" s="74" t="s">
+      <c r="AQ89" s="355"/>
+      <c r="AR89" s="355"/>
+      <c r="AS89" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13662,7 +13684,7 @@
       <c r="O90" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="403"/>
+      <c r="P90" s="417"/>
       <c r="Q90" s="169" t="s">
         <v>13</v>
       </c>
@@ -13678,14 +13700,14 @@
       <c r="W90" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X90" s="74" t="s">
+      <c r="X90" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y90" s="246" t="s">
+      <c r="Y90" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z90" s="74"/>
-      <c r="AA90" s="74" t="s">
+      <c r="Z90" s="181"/>
+      <c r="AA90" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB90" s="74"/>
@@ -13697,27 +13719,27 @@
       <c r="AH90" s="74"/>
       <c r="AI90" s="74"/>
       <c r="AJ90" s="74"/>
-      <c r="AK90" s="260">
+      <c r="AK90" s="343">
         <v>0.5</v>
       </c>
-      <c r="AL90" s="212">
+      <c r="AL90" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM90" s="260">
+      <c r="AM90" s="343">
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN90" s="260">
+      <c r="AN90" s="343">
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO90" s="270">
+      <c r="AO90" s="355">
         <v>9.6618357487922708</v>
       </c>
-      <c r="AP90" s="74" t="s">
+      <c r="AP90" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="AQ90" s="270"/>
-      <c r="AR90" s="270"/>
-      <c r="AS90" s="74" t="s">
+      <c r="AQ90" s="355"/>
+      <c r="AR90" s="355"/>
+      <c r="AS90" s="181" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13762,30 +13784,26 @@
       <c r="O91" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="404"/>
+      <c r="P91" s="418"/>
       <c r="Q91" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="170">
-        <v>43971</v>
-      </c>
-      <c r="S91" s="170">
-        <v>43971</v>
-      </c>
+      <c r="R91" s="170"/>
+      <c r="S91" s="170"/>
       <c r="T91" s="4"/>
       <c r="U91" s="211"/>
       <c r="V91" s="127"/>
       <c r="W91" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="X91" s="74" t="s">
+      <c r="X91" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="Y91" s="246" t="s">
+      <c r="Y91" s="406" t="s">
         <v>90</v>
       </c>
-      <c r="Z91" s="74"/>
-      <c r="AA91" s="74" t="s">
+      <c r="Z91" s="181"/>
+      <c r="AA91" s="181" t="s">
         <v>108</v>
       </c>
       <c r="AB91" s="74"/>
@@ -13797,32 +13815,32 @@
       <c r="AH91" s="74"/>
       <c r="AI91" s="74"/>
       <c r="AJ91" s="74"/>
-      <c r="AK91" s="260">
+      <c r="AK91" s="343">
         <v>0.5</v>
       </c>
-      <c r="AL91" s="212">
+      <c r="AL91" s="403">
         <v>0.9</v>
       </c>
-      <c r="AM91" s="260">
+      <c r="AM91" s="343">
         <f t="shared" si="54"/>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN91" s="260">
+      <c r="AN91" s="343">
         <f t="shared" si="55"/>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO91" s="270">
+      <c r="AO91" s="355">
         <f t="shared" si="6"/>
         <v>9.6618357487922708</v>
       </c>
-      <c r="AP91" s="270"/>
-      <c r="AQ91" s="270"/>
-      <c r="AR91" s="270"/>
-      <c r="AS91" s="74" t="s">
+      <c r="AP91" s="355"/>
+      <c r="AQ91" s="355"/>
+      <c r="AR91" s="355"/>
+      <c r="AS91" s="181" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="92" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A92" s="51" t="s">
         <v>197</v>
       </c>
@@ -13954,7 +13972,7 @@
       <c r="O93" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="399" t="s">
+      <c r="P93" s="413" t="s">
         <v>28</v>
       </c>
       <c r="Q93" s="164" t="s">
@@ -14060,7 +14078,7 @@
       <c r="O94" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="400"/>
+      <c r="P94" s="414"/>
       <c r="Q94" s="169" t="s">
         <v>100</v>
       </c>
@@ -14160,7 +14178,7 @@
       <c r="O95" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="400"/>
+      <c r="P95" s="414"/>
       <c r="Q95" s="169" t="s">
         <v>102</v>
       </c>
@@ -14260,7 +14278,7 @@
       <c r="O96" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="400"/>
+      <c r="P96" s="414"/>
       <c r="Q96" s="169" t="s">
         <v>13</v>
       </c>
@@ -14360,7 +14378,7 @@
       <c r="O97" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="401"/>
+      <c r="P97" s="415"/>
       <c r="Q97" s="169" t="s">
         <v>16</v>
       </c>
@@ -14465,7 +14483,7 @@
       <c r="O98" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P98" s="400" t="s">
+      <c r="P98" s="414" t="s">
         <v>28</v>
       </c>
       <c r="Q98" s="164" t="s">
@@ -14575,7 +14593,7 @@
       <c r="O99" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="400"/>
+      <c r="P99" s="414"/>
       <c r="Q99" s="169" t="s">
         <v>100</v>
       </c>
@@ -14679,7 +14697,7 @@
       <c r="O100" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P100" s="400"/>
+      <c r="P100" s="414"/>
       <c r="Q100" s="169" t="s">
         <v>102</v>
       </c>
@@ -14783,7 +14801,7 @@
       <c r="O101" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P101" s="400"/>
+      <c r="P101" s="414"/>
       <c r="Q101" s="169" t="s">
         <v>13</v>
       </c>
@@ -14883,7 +14901,7 @@
       <c r="O102" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P102" s="401"/>
+      <c r="P102" s="415"/>
       <c r="Q102" s="169" t="s">
         <v>16</v>
       </c>
@@ -14943,7 +14961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A103" s="282"/>
       <c r="B103" s="51"/>
       <c r="C103" s="51"/>
@@ -15031,7 +15049,7 @@
       <c r="O104" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P104" s="402" t="s">
+      <c r="P104" s="416" t="s">
         <v>19</v>
       </c>
       <c r="Q104" s="164" t="s">
@@ -15140,7 +15158,7 @@
       <c r="O105" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="403"/>
+      <c r="P105" s="417"/>
       <c r="Q105" s="169" t="s">
         <v>100</v>
       </c>
@@ -15163,7 +15181,9 @@
       <c r="X105" s="127"/>
       <c r="Y105" s="246"/>
       <c r="Z105" s="127"/>
-      <c r="AA105" s="74"/>
+      <c r="AA105" s="173" t="s">
+        <v>108</v>
+      </c>
       <c r="AB105" s="127"/>
       <c r="AC105" s="227"/>
       <c r="AD105" s="227"/>
@@ -15173,15 +15193,30 @@
       <c r="AH105" s="74"/>
       <c r="AI105" s="74"/>
       <c r="AJ105" s="74"/>
-      <c r="AK105" s="260"/>
-      <c r="AL105" s="212"/>
-      <c r="AM105" s="260"/>
-      <c r="AN105" s="260"/>
-      <c r="AO105" s="270"/>
-      <c r="AP105" s="270"/>
-      <c r="AQ105" s="270"/>
-      <c r="AR105" s="270"/>
-      <c r="AS105" s="74"/>
+      <c r="AK105" s="343">
+        <v>0.7</v>
+      </c>
+      <c r="AL105" s="403">
+        <v>0.9</v>
+      </c>
+      <c r="AM105" s="343">
+        <f t="shared" ref="AM105:AM108" si="73">N105*AL105</f>
+        <v>3.88125E-2</v>
+      </c>
+      <c r="AN105" s="343">
+        <f t="shared" ref="AN105:AN108" si="74">N105-AM105</f>
+        <v>4.3124999999999969E-3</v>
+      </c>
+      <c r="AO105" s="355">
+        <f t="shared" ref="AO105:AO108" si="75">AK105/AM105</f>
+        <v>18.035426731078903</v>
+      </c>
+      <c r="AP105" s="355"/>
+      <c r="AQ105" s="355"/>
+      <c r="AR105" s="355"/>
+      <c r="AS105" s="181" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A106" s="282" t="s">
@@ -15224,7 +15259,7 @@
       <c r="O106" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="403"/>
+      <c r="P106" s="417"/>
       <c r="Q106" s="169" t="s">
         <v>102</v>
       </c>
@@ -15245,7 +15280,9 @@
       <c r="X106" s="127"/>
       <c r="Y106" s="246"/>
       <c r="Z106" s="127"/>
-      <c r="AA106" s="74"/>
+      <c r="AA106" s="173" t="s">
+        <v>108</v>
+      </c>
       <c r="AB106" s="127"/>
       <c r="AC106" s="227"/>
       <c r="AD106" s="227"/>
@@ -15255,15 +15292,30 @@
       <c r="AH106" s="74"/>
       <c r="AI106" s="74"/>
       <c r="AJ106" s="74"/>
-      <c r="AK106" s="260"/>
-      <c r="AL106" s="212"/>
-      <c r="AM106" s="260"/>
-      <c r="AN106" s="260"/>
-      <c r="AO106" s="270"/>
-      <c r="AP106" s="270"/>
-      <c r="AQ106" s="270"/>
-      <c r="AR106" s="270"/>
-      <c r="AS106" s="74"/>
+      <c r="AK106" s="343">
+        <v>0.7</v>
+      </c>
+      <c r="AL106" s="403">
+        <v>0.9</v>
+      </c>
+      <c r="AM106" s="343">
+        <f t="shared" si="73"/>
+        <v>3.88125E-2</v>
+      </c>
+      <c r="AN106" s="343">
+        <f t="shared" si="74"/>
+        <v>4.3124999999999969E-3</v>
+      </c>
+      <c r="AO106" s="355">
+        <f t="shared" si="75"/>
+        <v>18.035426731078903</v>
+      </c>
+      <c r="AP106" s="355"/>
+      <c r="AQ106" s="355"/>
+      <c r="AR106" s="355"/>
+      <c r="AS106" s="181" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="107" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A107" s="282" t="s">
@@ -15306,7 +15358,7 @@
       <c r="O107" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P107" s="403"/>
+      <c r="P107" s="417"/>
       <c r="Q107" s="169" t="s">
         <v>13</v>
       </c>
@@ -15327,7 +15379,9 @@
       <c r="X107" s="127"/>
       <c r="Y107" s="246"/>
       <c r="Z107" s="127"/>
-      <c r="AA107" s="74"/>
+      <c r="AA107" s="173" t="s">
+        <v>108</v>
+      </c>
       <c r="AB107" s="127"/>
       <c r="AC107" s="227"/>
       <c r="AD107" s="227"/>
@@ -15337,15 +15391,30 @@
       <c r="AH107" s="74"/>
       <c r="AI107" s="74"/>
       <c r="AJ107" s="74"/>
-      <c r="AK107" s="260"/>
-      <c r="AL107" s="212"/>
-      <c r="AM107" s="260"/>
-      <c r="AN107" s="260"/>
-      <c r="AO107" s="270"/>
-      <c r="AP107" s="270"/>
-      <c r="AQ107" s="270"/>
-      <c r="AR107" s="270"/>
-      <c r="AS107" s="74"/>
+      <c r="AK107" s="343">
+        <v>0.7</v>
+      </c>
+      <c r="AL107" s="403">
+        <v>0.9</v>
+      </c>
+      <c r="AM107" s="343">
+        <f t="shared" si="73"/>
+        <v>3.88125E-2</v>
+      </c>
+      <c r="AN107" s="343">
+        <f t="shared" si="74"/>
+        <v>4.3124999999999969E-3</v>
+      </c>
+      <c r="AO107" s="355">
+        <f t="shared" si="75"/>
+        <v>18.035426731078903</v>
+      </c>
+      <c r="AP107" s="355"/>
+      <c r="AQ107" s="355"/>
+      <c r="AR107" s="355"/>
+      <c r="AS107" s="181" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="108" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A108" s="282" t="s">
@@ -15388,16 +15457,12 @@
       <c r="O108" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P108" s="404"/>
+      <c r="P108" s="418"/>
       <c r="Q108" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="R108" s="326">
-        <v>43951</v>
-      </c>
-      <c r="S108" s="326">
-        <v>43955</v>
-      </c>
+      <c r="R108" s="326"/>
+      <c r="S108" s="326"/>
       <c r="T108" s="4"/>
       <c r="U108" s="211"/>
       <c r="V108" s="376" t="s">
@@ -15409,7 +15474,9 @@
       <c r="X108" s="127"/>
       <c r="Y108" s="246"/>
       <c r="Z108" s="127"/>
-      <c r="AA108" s="74"/>
+      <c r="AA108" s="173" t="s">
+        <v>108</v>
+      </c>
       <c r="AB108" s="127"/>
       <c r="AC108" s="227"/>
       <c r="AD108" s="227"/>
@@ -15419,17 +15486,32 @@
       <c r="AH108" s="74"/>
       <c r="AI108" s="74"/>
       <c r="AJ108" s="74"/>
-      <c r="AK108" s="260"/>
-      <c r="AL108" s="212"/>
-      <c r="AM108" s="260"/>
-      <c r="AN108" s="260"/>
-      <c r="AO108" s="270"/>
-      <c r="AP108" s="270"/>
-      <c r="AQ108" s="270"/>
-      <c r="AR108" s="270"/>
-      <c r="AS108" s="74"/>
-    </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+      <c r="AK108" s="343">
+        <v>0.7</v>
+      </c>
+      <c r="AL108" s="403">
+        <v>0.9</v>
+      </c>
+      <c r="AM108" s="343">
+        <f t="shared" si="73"/>
+        <v>3.88125E-2</v>
+      </c>
+      <c r="AN108" s="343">
+        <f t="shared" si="74"/>
+        <v>4.3124999999999969E-3</v>
+      </c>
+      <c r="AO108" s="355">
+        <f t="shared" si="75"/>
+        <v>18.035426731078903</v>
+      </c>
+      <c r="AP108" s="355"/>
+      <c r="AQ108" s="355"/>
+      <c r="AR108" s="355"/>
+      <c r="AS108" s="181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A109" s="51" t="s">
         <v>211</v>
       </c>
@@ -15524,7 +15606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="110" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A110" s="51" t="s">
         <v>215</v>
       </c>
@@ -15617,7 +15699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="42" t="s">
         <v>218</v>
       </c>
@@ -15658,7 +15740,7 @@
       <c r="O111" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="P111" s="405" t="s">
+      <c r="P111" s="419" t="s">
         <v>25</v>
       </c>
       <c r="Q111" s="164" t="s">
@@ -15723,7 +15805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
+    <row r="112" spans="1:45" s="32" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="45" t="s">
         <v>218</v>
       </c>
@@ -15754,17 +15836,17 @@
         <v>1</v>
       </c>
       <c r="M112" s="104">
-        <f t="shared" ref="M112:M115" si="73">J112*K112</f>
+        <f t="shared" ref="M112:M115" si="76">J112*K112</f>
         <v>0.25</v>
       </c>
       <c r="N112" s="105">
-        <f t="shared" ref="N112:N115" si="74">M112/20*1.15</f>
+        <f t="shared" ref="N112:N115" si="77">M112/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O112" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="P112" s="406"/>
+      <c r="P112" s="420"/>
       <c r="Q112" s="169" t="s">
         <v>100</v>
       </c>
@@ -15823,7 +15905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:45" s="32" customFormat="1" ht="13.5" customHeight="1">
+    <row r="113" spans="1:45" s="32" customFormat="1" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="45" t="s">
         <v>218</v>
       </c>
@@ -15854,17 +15936,17 @@
         <v>1</v>
       </c>
       <c r="M113" s="104">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="N113" s="105">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O113" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="P113" s="406"/>
+      <c r="P113" s="420"/>
       <c r="Q113" s="169" t="s">
         <v>102</v>
       </c>
@@ -15923,7 +16005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="114" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="45" t="s">
         <v>218</v>
       </c>
@@ -15954,17 +16036,17 @@
         <v>1</v>
       </c>
       <c r="M114" s="104">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="N114" s="105">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O114" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="P114" s="406"/>
+      <c r="P114" s="420"/>
       <c r="Q114" s="169" t="s">
         <v>13</v>
       </c>
@@ -16019,7 +16101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="115" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="48" t="s">
         <v>218</v>
       </c>
@@ -16050,17 +16132,17 @@
         <v>1</v>
       </c>
       <c r="M115" s="111">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.25</v>
       </c>
       <c r="N115" s="112">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O115" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="407"/>
+      <c r="P115" s="421"/>
       <c r="Q115" s="177" t="s">
         <v>16</v>
       </c>
@@ -16109,7 +16191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="116" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A116" s="42" t="s">
         <v>222</v>
       </c>
@@ -16133,7 +16215,7 @@
       <c r="O116" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="P116" s="402" t="s">
+      <c r="P116" s="416" t="s">
         <v>28</v>
       </c>
       <c r="Q116" s="164" t="s">
@@ -16184,13 +16266,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="117" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A117" s="66" t="s">
         <v>222</v>
       </c>
       <c r="B117" s="66"/>
       <c r="C117" s="66"/>
-      <c r="D117" s="66" t="s">
+      <c r="D117" s="410" t="s">
         <v>33</v>
       </c>
       <c r="E117" s="66"/>
@@ -16208,7 +16290,7 @@
       <c r="O117" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P117" s="403"/>
+      <c r="P117" s="417"/>
       <c r="Q117" s="169" t="s">
         <v>100</v>
       </c>
@@ -16257,13 +16339,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="118" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A118" s="66" t="s">
         <v>222</v>
       </c>
       <c r="B118" s="66"/>
       <c r="C118" s="66"/>
-      <c r="D118" s="66" t="s">
+      <c r="D118" s="410" t="s">
         <v>33</v>
       </c>
       <c r="E118" s="66"/>
@@ -16281,7 +16363,7 @@
       <c r="O118" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P118" s="403"/>
+      <c r="P118" s="417"/>
       <c r="Q118" s="169" t="s">
         <v>102</v>
       </c>
@@ -16330,13 +16412,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="119" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A119" s="66" t="s">
         <v>222</v>
       </c>
       <c r="B119" s="66"/>
       <c r="C119" s="66"/>
-      <c r="D119" s="66" t="s">
+      <c r="D119" s="410" t="s">
         <v>33</v>
       </c>
       <c r="E119" s="66"/>
@@ -16354,7 +16436,7 @@
       <c r="O119" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P119" s="403"/>
+      <c r="P119" s="417"/>
       <c r="Q119" s="169" t="s">
         <v>13</v>
       </c>
@@ -16403,13 +16485,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="120" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A120" s="288" t="s">
         <v>222</v>
       </c>
       <c r="B120" s="288"/>
       <c r="C120" s="288"/>
-      <c r="D120" s="288" t="s">
+      <c r="D120" s="411" t="s">
         <v>33</v>
       </c>
       <c r="E120" s="288"/>
@@ -16427,7 +16509,7 @@
       <c r="O120" s="150" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="404"/>
+      <c r="P120" s="418"/>
       <c r="Q120" s="182" t="s">
         <v>16</v>
       </c>
@@ -16476,7 +16558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="121" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>226</v>
       </c>
@@ -16500,7 +16582,7 @@
       <c r="O121" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="402" t="s">
+      <c r="P121" s="416" t="s">
         <v>28</v>
       </c>
       <c r="Q121" s="164" t="s">
@@ -16551,7 +16633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="122" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A122" s="45" t="s">
         <v>226</v>
       </c>
@@ -16575,7 +16657,7 @@
       <c r="O122" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="403"/>
+      <c r="P122" s="417"/>
       <c r="Q122" s="169" t="s">
         <v>100</v>
       </c>
@@ -16624,7 +16706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="123" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A123" s="45" t="s">
         <v>226</v>
       </c>
@@ -16648,7 +16730,7 @@
       <c r="O123" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="403"/>
+      <c r="P123" s="417"/>
       <c r="Q123" s="169" t="s">
         <v>102</v>
       </c>
@@ -16697,7 +16779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="124" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A124" s="45" t="s">
         <v>226</v>
       </c>
@@ -16721,7 +16803,7 @@
       <c r="O124" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="403"/>
+      <c r="P124" s="417"/>
       <c r="Q124" s="169" t="s">
         <v>13</v>
       </c>
@@ -16770,7 +16852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="125" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A125" s="63" t="s">
         <v>226</v>
       </c>
@@ -16794,7 +16876,7 @@
       <c r="O125" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="404"/>
+      <c r="P125" s="418"/>
       <c r="Q125" s="182" t="s">
         <v>16</v>
       </c>
@@ -16843,7 +16925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="126" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="42" t="s">
         <v>228</v>
       </c>
@@ -16865,7 +16947,7 @@
       <c r="M126" s="97"/>
       <c r="N126" s="98"/>
       <c r="O126" s="99"/>
-      <c r="P126" s="402" t="s">
+      <c r="P126" s="416" t="s">
         <v>28</v>
       </c>
       <c r="Q126" s="164" t="s">
@@ -16916,13 +16998,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="127" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
-      <c r="D127" s="66" t="s">
+      <c r="D127" s="410" t="s">
         <v>33</v>
       </c>
       <c r="E127" s="45"/>
@@ -16938,7 +17020,7 @@
       <c r="M127" s="104"/>
       <c r="N127" s="105"/>
       <c r="O127" s="106"/>
-      <c r="P127" s="403"/>
+      <c r="P127" s="417"/>
       <c r="Q127" s="169" t="s">
         <v>100</v>
       </c>
@@ -16987,13 +17069,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="128" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
-      <c r="D128" s="66" t="s">
+      <c r="D128" s="410" t="s">
         <v>33</v>
       </c>
       <c r="E128" s="45"/>
@@ -17009,7 +17091,7 @@
       <c r="M128" s="104"/>
       <c r="N128" s="105"/>
       <c r="O128" s="106"/>
-      <c r="P128" s="403"/>
+      <c r="P128" s="417"/>
       <c r="Q128" s="169" t="s">
         <v>102</v>
       </c>
@@ -17058,13 +17140,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="129" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
-      <c r="D129" s="66" t="s">
+      <c r="D129" s="410" t="s">
         <v>33</v>
       </c>
       <c r="E129" s="45"/>
@@ -17080,7 +17162,7 @@
       <c r="M129" s="104"/>
       <c r="N129" s="105"/>
       <c r="O129" s="106"/>
-      <c r="P129" s="403"/>
+      <c r="P129" s="417"/>
       <c r="Q129" s="169" t="s">
         <v>13</v>
       </c>
@@ -17129,13 +17211,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="130" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="63" t="s">
         <v>228</v>
       </c>
       <c r="B130" s="63"/>
       <c r="C130" s="63"/>
-      <c r="D130" s="288" t="s">
+      <c r="D130" s="411" t="s">
         <v>33</v>
       </c>
       <c r="E130" s="63"/>
@@ -17151,7 +17233,7 @@
       <c r="M130" s="141"/>
       <c r="N130" s="142"/>
       <c r="O130" s="149"/>
-      <c r="P130" s="404"/>
+      <c r="P130" s="418"/>
       <c r="Q130" s="182" t="s">
         <v>16</v>
       </c>
@@ -17238,7 +17320,7 @@
       <c r="O131" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="399" t="s">
+      <c r="P131" s="413" t="s">
         <v>20</v>
       </c>
       <c r="Q131" s="164" t="s">
@@ -17336,7 +17418,7 @@
       <c r="O132" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="400"/>
+      <c r="P132" s="414"/>
       <c r="Q132" s="169" t="s">
         <v>100</v>
       </c>
@@ -17432,7 +17514,7 @@
       <c r="O133" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="400"/>
+      <c r="P133" s="414"/>
       <c r="Q133" s="169" t="s">
         <v>102</v>
       </c>
@@ -17440,7 +17522,7 @@
         <v>43927</v>
       </c>
       <c r="S133" s="165">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="T133" s="165">
         <v>43921</v>
@@ -17524,7 +17606,7 @@
       <c r="O134" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="400"/>
+      <c r="P134" s="414"/>
       <c r="Q134" s="169" t="s">
         <v>13</v>
       </c>
@@ -17614,16 +17696,12 @@
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="401"/>
+      <c r="P135" s="415"/>
       <c r="Q135" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="R135" s="165">
-        <v>43937</v>
-      </c>
-      <c r="S135" s="165">
-        <v>43938</v>
-      </c>
+      <c r="R135" s="165"/>
+      <c r="S135" s="165"/>
       <c r="T135" s="165"/>
       <c r="U135" s="211"/>
       <c r="V135" s="51"/>
@@ -17702,17 +17780,17 @@
         <v>0.25</v>
       </c>
       <c r="O136" s="74"/>
-      <c r="P136" s="399" t="s">
+      <c r="P136" s="413" t="s">
         <v>4</v>
       </c>
       <c r="Q136" s="164" t="s">
         <v>5</v>
       </c>
       <c r="R136" s="165">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="S136" s="165">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="T136" s="165"/>
       <c r="U136" s="165"/>
@@ -17787,23 +17865,23 @@
         <v>1</v>
       </c>
       <c r="M137" s="393">
-        <f t="shared" ref="M137:M140" si="75">J137*K137</f>
+        <f t="shared" ref="M137:M140" si="78">J137*K137</f>
         <v>0.25</v>
       </c>
       <c r="N137" s="393">
-        <f t="shared" ref="N137:N140" si="76">K137*L137</f>
+        <f t="shared" ref="N137:N140" si="79">K137*L137</f>
         <v>0.25</v>
       </c>
       <c r="O137" s="394"/>
-      <c r="P137" s="400"/>
+      <c r="P137" s="414"/>
       <c r="Q137" s="169" t="s">
         <v>100</v>
       </c>
       <c r="R137" s="165">
-        <v>43940</v>
-      </c>
-      <c r="S137" s="165" t="s">
-        <v>306</v>
+        <v>43938</v>
+      </c>
+      <c r="S137" s="165">
+        <v>43948</v>
       </c>
       <c r="T137" s="165"/>
       <c r="U137" s="165"/>
@@ -17872,23 +17950,23 @@
         <v>1</v>
       </c>
       <c r="M138" s="393">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.25</v>
       </c>
       <c r="N138" s="393">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.25</v>
       </c>
       <c r="O138" s="394"/>
-      <c r="P138" s="400"/>
+      <c r="P138" s="414"/>
       <c r="Q138" s="169" t="s">
         <v>102</v>
       </c>
       <c r="R138" s="165">
-        <v>43957</v>
+        <v>43949</v>
       </c>
       <c r="S138" s="165">
-        <v>43963</v>
+        <v>43950</v>
       </c>
       <c r="T138" s="165"/>
       <c r="U138" s="211"/>
@@ -17957,23 +18035,23 @@
         <v>1</v>
       </c>
       <c r="M139" s="393">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.25</v>
       </c>
       <c r="N139" s="393">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.25</v>
       </c>
       <c r="O139" s="394"/>
-      <c r="P139" s="400"/>
+      <c r="P139" s="414"/>
       <c r="Q139" s="169" t="s">
         <v>13</v>
       </c>
       <c r="R139" s="165">
-        <v>43964</v>
+        <v>43950</v>
       </c>
       <c r="S139" s="165">
-        <v>43966</v>
+        <v>43951</v>
       </c>
       <c r="T139" s="165"/>
       <c r="U139" s="211"/>
@@ -18042,24 +18120,20 @@
         <v>1</v>
       </c>
       <c r="M140" s="393">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.25</v>
       </c>
       <c r="N140" s="393">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.25</v>
       </c>
       <c r="O140" s="394"/>
-      <c r="P140" s="401"/>
+      <c r="P140" s="415"/>
       <c r="Q140" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="R140" s="165">
-        <v>43967</v>
-      </c>
-      <c r="S140" s="165">
-        <v>43968</v>
-      </c>
+      <c r="R140" s="165"/>
+      <c r="S140" s="165"/>
       <c r="T140" s="165"/>
       <c r="U140" s="211"/>
       <c r="V140" s="51"/>
@@ -18104,26 +18178,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS140" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:AS140" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="26">
+      <filters>
+        <filter val="Wave2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="P71:P75"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="P8:P12"/>
     <mergeCell ref="P15:P19"/>
     <mergeCell ref="P20:P24"/>
     <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P59:P63"/>
     <mergeCell ref="P77:P81"/>
     <mergeCell ref="P82:P86"/>
     <mergeCell ref="P93:P97"/>
     <mergeCell ref="P98:P102"/>
     <mergeCell ref="P64:P68"/>
     <mergeCell ref="P87:P91"/>
+    <mergeCell ref="P71:P75"/>
     <mergeCell ref="P136:P140"/>
     <mergeCell ref="P131:P135"/>
     <mergeCell ref="P104:P108"/>
@@ -19311,7 +19391,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90259B-9329-4FD9-A29B-A571E0CA1393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774FC82-DBB4-46AA-A465-497755E86F60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3868,6 +3868,57 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3877,15 +3928,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3895,47 +3937,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4597,7 +4600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
+      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4920,7 +4923,7 @@
       <c r="O3" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="422" t="s">
+      <c r="P3" s="424" t="s">
         <v>28</v>
       </c>
       <c r="Q3" s="164" t="s">
@@ -5016,7 +5019,7 @@
       <c r="O4" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="423"/>
+      <c r="P4" s="425"/>
       <c r="Q4" s="169" t="s">
         <v>100</v>
       </c>
@@ -5110,7 +5113,7 @@
       <c r="O5" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="423"/>
+      <c r="P5" s="425"/>
       <c r="Q5" s="169" t="s">
         <v>102</v>
       </c>
@@ -5204,7 +5207,7 @@
       <c r="O6" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="P6" s="423"/>
+      <c r="P6" s="425"/>
       <c r="Q6" s="169" t="s">
         <v>13</v>
       </c>
@@ -5298,7 +5301,7 @@
       <c r="O7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="424"/>
+      <c r="P7" s="426"/>
       <c r="Q7" s="177" t="s">
         <v>16</v>
       </c>
@@ -5392,7 +5395,7 @@
       <c r="O8" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="416" t="s">
+      <c r="P8" s="421" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="164" t="s">
@@ -5497,7 +5500,7 @@
       <c r="O9" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="417"/>
+      <c r="P9" s="422"/>
       <c r="Q9" s="169" t="s">
         <v>100</v>
       </c>
@@ -5596,7 +5599,7 @@
       <c r="O10" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="417"/>
+      <c r="P10" s="422"/>
       <c r="Q10" s="169" t="s">
         <v>102</v>
       </c>
@@ -5693,7 +5696,7 @@
       <c r="O11" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="417"/>
+      <c r="P11" s="422"/>
       <c r="Q11" s="169" t="s">
         <v>13</v>
       </c>
@@ -5792,7 +5795,7 @@
       <c r="O12" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="418"/>
+      <c r="P12" s="423"/>
       <c r="Q12" s="182" t="s">
         <v>16</v>
       </c>
@@ -6040,7 +6043,7 @@
       <c r="O15" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="425" t="s">
+      <c r="P15" s="427" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="189" t="s">
@@ -6132,7 +6135,7 @@
       <c r="O16" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="426"/>
+      <c r="P16" s="428"/>
       <c r="Q16" s="169" t="s">
         <v>100</v>
       </c>
@@ -6222,7 +6225,7 @@
       <c r="O17" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="426"/>
+      <c r="P17" s="428"/>
       <c r="Q17" s="169" t="s">
         <v>102</v>
       </c>
@@ -6312,7 +6315,7 @@
       <c r="O18" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="426"/>
+      <c r="P18" s="428"/>
       <c r="Q18" s="169" t="s">
         <v>13</v>
       </c>
@@ -6402,7 +6405,7 @@
       <c r="O19" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="427"/>
+      <c r="P19" s="429"/>
       <c r="Q19" s="182" t="s">
         <v>16</v>
       </c>
@@ -6497,7 +6500,7 @@
       <c r="O20" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="428" t="s">
+      <c r="P20" s="413" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="164" t="s">
@@ -6612,7 +6615,7 @@
       <c r="O21" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="429"/>
+      <c r="P21" s="414"/>
       <c r="Q21" s="169" t="s">
         <v>100</v>
       </c>
@@ -6720,7 +6723,7 @@
       <c r="O22" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P22" s="429"/>
+      <c r="P22" s="414"/>
       <c r="Q22" s="169" t="s">
         <v>102</v>
       </c>
@@ -6828,7 +6831,7 @@
       <c r="O23" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="429"/>
+      <c r="P23" s="414"/>
       <c r="Q23" s="169" t="s">
         <v>13</v>
       </c>
@@ -6937,7 +6940,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="430"/>
+      <c r="P24" s="415"/>
       <c r="Q24" s="182" t="s">
         <v>16</v>
       </c>
@@ -7038,7 +7041,7 @@
       <c r="O25" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="428" t="s">
+      <c r="P25" s="413" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="164" t="s">
@@ -7147,7 +7150,7 @@
       <c r="O26" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P26" s="429"/>
+      <c r="P26" s="414"/>
       <c r="Q26" s="169" t="s">
         <v>100</v>
       </c>
@@ -7250,7 +7253,7 @@
       <c r="O27" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="429"/>
+      <c r="P27" s="414"/>
       <c r="Q27" s="169" t="s">
         <v>102</v>
       </c>
@@ -7353,7 +7356,7 @@
       <c r="O28" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P28" s="429"/>
+      <c r="P28" s="414"/>
       <c r="Q28" s="169" t="s">
         <v>13</v>
       </c>
@@ -7456,7 +7459,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="430"/>
+      <c r="P29" s="415"/>
       <c r="Q29" s="182" t="s">
         <v>16</v>
       </c>
@@ -7559,7 +7562,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="431" t="s">
+      <c r="P30" s="416" t="s">
         <v>25</v>
       </c>
       <c r="Q30" s="164" t="s">
@@ -7668,7 +7671,7 @@
       <c r="O31" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="429"/>
+      <c r="P31" s="414"/>
       <c r="Q31" s="169" t="s">
         <v>100</v>
       </c>
@@ -7771,7 +7774,7 @@
       <c r="O32" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="429"/>
+      <c r="P32" s="414"/>
       <c r="Q32" s="169" t="s">
         <v>102</v>
       </c>
@@ -7878,7 +7881,7 @@
       <c r="O33" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="429"/>
+      <c r="P33" s="414"/>
       <c r="Q33" s="169" t="s">
         <v>13</v>
       </c>
@@ -7979,7 +7982,7 @@
       <c r="O34" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="432"/>
+      <c r="P34" s="417"/>
       <c r="Q34" s="177" t="s">
         <v>16</v>
       </c>
@@ -8074,7 +8077,7 @@
       <c r="O35" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="433" t="s">
+      <c r="P35" s="418" t="s">
         <v>28</v>
       </c>
       <c r="Q35" s="164" t="s">
@@ -8187,7 +8190,7 @@
       <c r="O36" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P36" s="434"/>
+      <c r="P36" s="419"/>
       <c r="Q36" s="169" t="s">
         <v>100</v>
       </c>
@@ -8294,7 +8297,7 @@
       <c r="O37" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="434"/>
+      <c r="P37" s="419"/>
       <c r="Q37" s="169" t="s">
         <v>102</v>
       </c>
@@ -8401,7 +8404,7 @@
       <c r="O38" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="434"/>
+      <c r="P38" s="419"/>
       <c r="Q38" s="169" t="s">
         <v>13</v>
       </c>
@@ -8508,7 +8511,7 @@
       <c r="O39" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="435"/>
+      <c r="P39" s="420"/>
       <c r="Q39" s="182" t="s">
         <v>16</v>
       </c>
@@ -8613,7 +8616,7 @@
       <c r="O40" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="433" t="s">
+      <c r="P40" s="418" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="164" t="s">
@@ -8728,7 +8731,7 @@
       <c r="O41" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="434"/>
+      <c r="P41" s="419"/>
       <c r="Q41" s="169" t="s">
         <v>100</v>
       </c>
@@ -8836,7 +8839,7 @@
       <c r="O42" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="434"/>
+      <c r="P42" s="419"/>
       <c r="Q42" s="169" t="s">
         <v>102</v>
       </c>
@@ -8944,7 +8947,7 @@
       <c r="O43" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="434"/>
+      <c r="P43" s="419"/>
       <c r="Q43" s="169" t="s">
         <v>13</v>
       </c>
@@ -9053,7 +9056,7 @@
       <c r="O44" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="435"/>
+      <c r="P44" s="420"/>
       <c r="Q44" s="182" t="s">
         <v>16</v>
       </c>
@@ -9505,7 +9508,7 @@
       <c r="O49" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P49" s="416" t="s">
+      <c r="P49" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q49" s="164" t="s">
@@ -9612,7 +9615,7 @@
       <c r="O50" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P50" s="417"/>
+      <c r="P50" s="422"/>
       <c r="Q50" s="169" t="s">
         <v>100</v>
       </c>
@@ -9717,7 +9720,7 @@
       <c r="O51" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P51" s="417"/>
+      <c r="P51" s="422"/>
       <c r="Q51" s="169" t="s">
         <v>102</v>
       </c>
@@ -9818,7 +9821,7 @@
       <c r="O52" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P52" s="417"/>
+      <c r="P52" s="422"/>
       <c r="Q52" s="169" t="s">
         <v>13</v>
       </c>
@@ -9919,7 +9922,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="418"/>
+      <c r="P53" s="423"/>
       <c r="Q53" s="182" t="s">
         <v>16</v>
       </c>
@@ -10018,7 +10021,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O54" s="74"/>
-      <c r="P54" s="416" t="s">
+      <c r="P54" s="421" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="164" t="s">
@@ -10121,7 +10124,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O55" s="106"/>
-      <c r="P55" s="417"/>
+      <c r="P55" s="422"/>
       <c r="Q55" s="169" t="s">
         <v>100</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O56" s="106"/>
-      <c r="P56" s="417"/>
+      <c r="P56" s="422"/>
       <c r="Q56" s="169" t="s">
         <v>102</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O57" s="106"/>
-      <c r="P57" s="417"/>
+      <c r="P57" s="422"/>
       <c r="Q57" s="169" t="s">
         <v>13</v>
       </c>
@@ -10414,7 +10417,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="106"/>
-      <c r="P58" s="418"/>
+      <c r="P58" s="423"/>
       <c r="Q58" s="169" t="s">
         <v>16</v>
       </c>
@@ -10505,7 +10508,7 @@
       <c r="O59" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P59" s="428" t="s">
+      <c r="P59" s="413" t="s">
         <v>28</v>
       </c>
       <c r="Q59" s="164" t="s">
@@ -10622,7 +10625,7 @@
       <c r="O60" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P60" s="429"/>
+      <c r="P60" s="414"/>
       <c r="Q60" s="169" t="s">
         <v>100</v>
       </c>
@@ -10730,7 +10733,7 @@
       <c r="O61" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P61" s="429"/>
+      <c r="P61" s="414"/>
       <c r="Q61" s="169" t="s">
         <v>102</v>
       </c>
@@ -10838,7 +10841,7 @@
       <c r="O62" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="P62" s="429"/>
+      <c r="P62" s="414"/>
       <c r="Q62" s="169" t="s">
         <v>13</v>
       </c>
@@ -10949,7 +10952,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="430"/>
+      <c r="P63" s="415"/>
       <c r="Q63" s="182" t="s">
         <v>16</v>
       </c>
@@ -11060,7 +11063,7 @@
       <c r="O64" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P64" s="416" t="s">
+      <c r="P64" s="421" t="s">
         <v>4</v>
       </c>
       <c r="Q64" s="164" t="s">
@@ -11162,7 +11165,7 @@
       <c r="O65" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P65" s="417"/>
+      <c r="P65" s="422"/>
       <c r="Q65" s="169" t="s">
         <v>100</v>
       </c>
@@ -11262,7 +11265,7 @@
       <c r="O66" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P66" s="417"/>
+      <c r="P66" s="422"/>
       <c r="Q66" s="169" t="s">
         <v>102</v>
       </c>
@@ -11362,7 +11365,7 @@
       <c r="O67" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P67" s="417"/>
+      <c r="P67" s="422"/>
       <c r="Q67" s="169" t="s">
         <v>13</v>
       </c>
@@ -11462,7 +11465,7 @@
       <c r="O68" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="418"/>
+      <c r="P68" s="423"/>
       <c r="Q68" s="182" t="s">
         <v>16</v>
       </c>
@@ -11742,7 +11745,7 @@
       <c r="O71" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="416" t="s">
+      <c r="P71" s="421" t="s">
         <v>4</v>
       </c>
       <c r="Q71" s="164" t="s">
@@ -11845,7 +11848,7 @@
       <c r="O72" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="417"/>
+      <c r="P72" s="422"/>
       <c r="Q72" s="169" t="s">
         <v>100</v>
       </c>
@@ -11946,7 +11949,7 @@
       <c r="O73" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="417"/>
+      <c r="P73" s="422"/>
       <c r="Q73" s="169" t="s">
         <v>102</v>
       </c>
@@ -12047,7 +12050,7 @@
       <c r="O74" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P74" s="417"/>
+      <c r="P74" s="422"/>
       <c r="Q74" s="169" t="s">
         <v>13</v>
       </c>
@@ -12148,7 +12151,7 @@
       <c r="O75" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="418"/>
+      <c r="P75" s="423"/>
       <c r="Q75" s="182" t="s">
         <v>16</v>
       </c>
@@ -12338,7 +12341,7 @@
       <c r="O77" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="416" t="s">
+      <c r="P77" s="421" t="s">
         <v>306</v>
       </c>
       <c r="Q77" s="164" t="s">
@@ -12447,7 +12450,7 @@
       <c r="O78" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="417"/>
+      <c r="P78" s="422"/>
       <c r="Q78" s="169" t="s">
         <v>100</v>
       </c>
@@ -12550,7 +12553,7 @@
       <c r="O79" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="417"/>
+      <c r="P79" s="422"/>
       <c r="Q79" s="169" t="s">
         <v>102</v>
       </c>
@@ -12653,7 +12656,7 @@
       <c r="O80" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P80" s="417"/>
+      <c r="P80" s="422"/>
       <c r="Q80" s="169" t="s">
         <v>13</v>
       </c>
@@ -12750,7 +12753,7 @@
       <c r="O81" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="418"/>
+      <c r="P81" s="423"/>
       <c r="Q81" s="182" t="s">
         <v>16</v>
       </c>
@@ -12845,7 +12848,7 @@
       <c r="O82" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="416" t="s">
+      <c r="P82" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q82" s="164" t="s">
@@ -12954,7 +12957,7 @@
       <c r="O83" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="417"/>
+      <c r="P83" s="422"/>
       <c r="Q83" s="169" t="s">
         <v>100</v>
       </c>
@@ -13061,7 +13064,7 @@
       <c r="O84" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="417"/>
+      <c r="P84" s="422"/>
       <c r="Q84" s="169" t="s">
         <v>102</v>
       </c>
@@ -13168,7 +13171,7 @@
       <c r="O85" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="417"/>
+      <c r="P85" s="422"/>
       <c r="Q85" s="169" t="s">
         <v>13</v>
       </c>
@@ -13275,7 +13278,7 @@
       <c r="O86" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="418"/>
+      <c r="P86" s="423"/>
       <c r="Q86" s="182" t="s">
         <v>16</v>
       </c>
@@ -13382,7 +13385,7 @@
       <c r="O87" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="416" t="s">
+      <c r="P87" s="421" t="s">
         <v>4</v>
       </c>
       <c r="Q87" s="164" t="s">
@@ -13484,7 +13487,7 @@
       <c r="O88" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="417"/>
+      <c r="P88" s="422"/>
       <c r="Q88" s="169" t="s">
         <v>100</v>
       </c>
@@ -13584,7 +13587,7 @@
       <c r="O89" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="417"/>
+      <c r="P89" s="422"/>
       <c r="Q89" s="169" t="s">
         <v>102</v>
       </c>
@@ -13684,7 +13687,7 @@
       <c r="O90" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="417"/>
+      <c r="P90" s="422"/>
       <c r="Q90" s="169" t="s">
         <v>13</v>
       </c>
@@ -13784,7 +13787,7 @@
       <c r="O91" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="418"/>
+      <c r="P91" s="423"/>
       <c r="Q91" s="182" t="s">
         <v>16</v>
       </c>
@@ -13972,7 +13975,7 @@
       <c r="O93" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="413" t="s">
+      <c r="P93" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q93" s="164" t="s">
@@ -14078,7 +14081,7 @@
       <c r="O94" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="414"/>
+      <c r="P94" s="431"/>
       <c r="Q94" s="169" t="s">
         <v>100</v>
       </c>
@@ -14178,7 +14181,7 @@
       <c r="O95" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="414"/>
+      <c r="P95" s="431"/>
       <c r="Q95" s="169" t="s">
         <v>102</v>
       </c>
@@ -14278,7 +14281,7 @@
       <c r="O96" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="414"/>
+      <c r="P96" s="431"/>
       <c r="Q96" s="169" t="s">
         <v>13</v>
       </c>
@@ -14378,7 +14381,7 @@
       <c r="O97" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="415"/>
+      <c r="P97" s="432"/>
       <c r="Q97" s="169" t="s">
         <v>16</v>
       </c>
@@ -14483,7 +14486,7 @@
       <c r="O98" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P98" s="414" t="s">
+      <c r="P98" s="431" t="s">
         <v>28</v>
       </c>
       <c r="Q98" s="164" t="s">
@@ -14593,7 +14596,7 @@
       <c r="O99" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="414"/>
+      <c r="P99" s="431"/>
       <c r="Q99" s="169" t="s">
         <v>100</v>
       </c>
@@ -14697,7 +14700,7 @@
       <c r="O100" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P100" s="414"/>
+      <c r="P100" s="431"/>
       <c r="Q100" s="169" t="s">
         <v>102</v>
       </c>
@@ -14801,7 +14804,7 @@
       <c r="O101" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P101" s="414"/>
+      <c r="P101" s="431"/>
       <c r="Q101" s="169" t="s">
         <v>13</v>
       </c>
@@ -14901,7 +14904,7 @@
       <c r="O102" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="P102" s="415"/>
+      <c r="P102" s="432"/>
       <c r="Q102" s="169" t="s">
         <v>16</v>
       </c>
@@ -15049,7 +15052,7 @@
       <c r="O104" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="P104" s="416" t="s">
+      <c r="P104" s="421" t="s">
         <v>19</v>
       </c>
       <c r="Q104" s="164" t="s">
@@ -15158,7 +15161,7 @@
       <c r="O105" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="417"/>
+      <c r="P105" s="422"/>
       <c r="Q105" s="169" t="s">
         <v>100</v>
       </c>
@@ -15259,7 +15262,7 @@
       <c r="O106" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="417"/>
+      <c r="P106" s="422"/>
       <c r="Q106" s="169" t="s">
         <v>102</v>
       </c>
@@ -15358,7 +15361,7 @@
       <c r="O107" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P107" s="417"/>
+      <c r="P107" s="422"/>
       <c r="Q107" s="169" t="s">
         <v>13</v>
       </c>
@@ -15457,7 +15460,7 @@
       <c r="O108" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P108" s="418"/>
+      <c r="P108" s="423"/>
       <c r="Q108" s="169" t="s">
         <v>16</v>
       </c>
@@ -15740,7 +15743,7 @@
       <c r="O111" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="P111" s="419" t="s">
+      <c r="P111" s="433" t="s">
         <v>25</v>
       </c>
       <c r="Q111" s="164" t="s">
@@ -15846,7 +15849,7 @@
       <c r="O112" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="P112" s="420"/>
+      <c r="P112" s="434"/>
       <c r="Q112" s="169" t="s">
         <v>100</v>
       </c>
@@ -15946,7 +15949,7 @@
       <c r="O113" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="P113" s="420"/>
+      <c r="P113" s="434"/>
       <c r="Q113" s="169" t="s">
         <v>102</v>
       </c>
@@ -16046,7 +16049,7 @@
       <c r="O114" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="P114" s="420"/>
+      <c r="P114" s="434"/>
       <c r="Q114" s="169" t="s">
         <v>13</v>
       </c>
@@ -16142,7 +16145,7 @@
       <c r="O115" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="421"/>
+      <c r="P115" s="435"/>
       <c r="Q115" s="177" t="s">
         <v>16</v>
       </c>
@@ -16215,7 +16218,7 @@
       <c r="O116" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="P116" s="416" t="s">
+      <c r="P116" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q116" s="164" t="s">
@@ -16290,7 +16293,7 @@
       <c r="O117" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P117" s="417"/>
+      <c r="P117" s="422"/>
       <c r="Q117" s="169" t="s">
         <v>100</v>
       </c>
@@ -16363,7 +16366,7 @@
       <c r="O118" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P118" s="417"/>
+      <c r="P118" s="422"/>
       <c r="Q118" s="169" t="s">
         <v>102</v>
       </c>
@@ -16436,7 +16439,7 @@
       <c r="O119" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P119" s="417"/>
+      <c r="P119" s="422"/>
       <c r="Q119" s="169" t="s">
         <v>13</v>
       </c>
@@ -16509,7 +16512,7 @@
       <c r="O120" s="150" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="418"/>
+      <c r="P120" s="423"/>
       <c r="Q120" s="182" t="s">
         <v>16</v>
       </c>
@@ -16582,7 +16585,7 @@
       <c r="O121" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="416" t="s">
+      <c r="P121" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q121" s="164" t="s">
@@ -16657,7 +16660,7 @@
       <c r="O122" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="417"/>
+      <c r="P122" s="422"/>
       <c r="Q122" s="169" t="s">
         <v>100</v>
       </c>
@@ -16730,7 +16733,7 @@
       <c r="O123" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="417"/>
+      <c r="P123" s="422"/>
       <c r="Q123" s="169" t="s">
         <v>102</v>
       </c>
@@ -16803,7 +16806,7 @@
       <c r="O124" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="417"/>
+      <c r="P124" s="422"/>
       <c r="Q124" s="169" t="s">
         <v>13</v>
       </c>
@@ -16876,7 +16879,7 @@
       <c r="O125" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="418"/>
+      <c r="P125" s="423"/>
       <c r="Q125" s="182" t="s">
         <v>16</v>
       </c>
@@ -16947,7 +16950,7 @@
       <c r="M126" s="97"/>
       <c r="N126" s="98"/>
       <c r="O126" s="99"/>
-      <c r="P126" s="416" t="s">
+      <c r="P126" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q126" s="164" t="s">
@@ -17020,7 +17023,7 @@
       <c r="M127" s="104"/>
       <c r="N127" s="105"/>
       <c r="O127" s="106"/>
-      <c r="P127" s="417"/>
+      <c r="P127" s="422"/>
       <c r="Q127" s="169" t="s">
         <v>100</v>
       </c>
@@ -17091,7 +17094,7 @@
       <c r="M128" s="104"/>
       <c r="N128" s="105"/>
       <c r="O128" s="106"/>
-      <c r="P128" s="417"/>
+      <c r="P128" s="422"/>
       <c r="Q128" s="169" t="s">
         <v>102</v>
       </c>
@@ -17162,7 +17165,7 @@
       <c r="M129" s="104"/>
       <c r="N129" s="105"/>
       <c r="O129" s="106"/>
-      <c r="P129" s="417"/>
+      <c r="P129" s="422"/>
       <c r="Q129" s="169" t="s">
         <v>13</v>
       </c>
@@ -17233,7 +17236,7 @@
       <c r="M130" s="141"/>
       <c r="N130" s="142"/>
       <c r="O130" s="149"/>
-      <c r="P130" s="418"/>
+      <c r="P130" s="423"/>
       <c r="Q130" s="182" t="s">
         <v>16</v>
       </c>
@@ -17320,7 +17323,7 @@
       <c r="O131" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="413" t="s">
+      <c r="P131" s="430" t="s">
         <v>20</v>
       </c>
       <c r="Q131" s="164" t="s">
@@ -17418,7 +17421,7 @@
       <c r="O132" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="414"/>
+      <c r="P132" s="431"/>
       <c r="Q132" s="169" t="s">
         <v>100</v>
       </c>
@@ -17514,7 +17517,7 @@
       <c r="O133" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="414"/>
+      <c r="P133" s="431"/>
       <c r="Q133" s="169" t="s">
         <v>102</v>
       </c>
@@ -17606,7 +17609,7 @@
       <c r="O134" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="414"/>
+      <c r="P134" s="431"/>
       <c r="Q134" s="169" t="s">
         <v>13</v>
       </c>
@@ -17696,7 +17699,7 @@
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="415"/>
+      <c r="P135" s="432"/>
       <c r="Q135" s="169" t="s">
         <v>16</v>
       </c>
@@ -17780,7 +17783,7 @@
         <v>0.25</v>
       </c>
       <c r="O136" s="74"/>
-      <c r="P136" s="413" t="s">
+      <c r="P136" s="430" t="s">
         <v>4</v>
       </c>
       <c r="Q136" s="164" t="s">
@@ -17873,7 +17876,7 @@
         <v>0.25</v>
       </c>
       <c r="O137" s="394"/>
-      <c r="P137" s="414"/>
+      <c r="P137" s="431"/>
       <c r="Q137" s="169" t="s">
         <v>100</v>
       </c>
@@ -17958,7 +17961,7 @@
         <v>0.25</v>
       </c>
       <c r="O138" s="394"/>
-      <c r="P138" s="414"/>
+      <c r="P138" s="431"/>
       <c r="Q138" s="169" t="s">
         <v>102</v>
       </c>
@@ -18043,7 +18046,7 @@
         <v>0.25</v>
       </c>
       <c r="O139" s="394"/>
-      <c r="P139" s="414"/>
+      <c r="P139" s="431"/>
       <c r="Q139" s="169" t="s">
         <v>13</v>
       </c>
@@ -18128,13 +18131,13 @@
         <v>0.25</v>
       </c>
       <c r="O140" s="394"/>
-      <c r="P140" s="415"/>
-      <c r="Q140" s="169" t="s">
+      <c r="P140" s="432"/>
+      <c r="Q140" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="R140" s="165"/>
-      <c r="S140" s="165"/>
-      <c r="T140" s="165"/>
+      <c r="R140" s="436"/>
+      <c r="S140" s="436"/>
+      <c r="T140" s="436"/>
       <c r="U140" s="211"/>
       <c r="V140" s="51"/>
       <c r="W140" s="339" t="s">
@@ -18186,17 +18189,13 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="P59:P63"/>
-    <mergeCell ref="P30:P34"/>
-    <mergeCell ref="P35:P39"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="P49:P53"/>
-    <mergeCell ref="P54:P58"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="P15:P19"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P136:P140"/>
+    <mergeCell ref="P131:P135"/>
+    <mergeCell ref="P104:P108"/>
+    <mergeCell ref="P111:P115"/>
+    <mergeCell ref="P116:P120"/>
+    <mergeCell ref="P121:P125"/>
+    <mergeCell ref="P126:P130"/>
     <mergeCell ref="P77:P81"/>
     <mergeCell ref="P82:P86"/>
     <mergeCell ref="P93:P97"/>
@@ -18204,13 +18203,17 @@
     <mergeCell ref="P64:P68"/>
     <mergeCell ref="P87:P91"/>
     <mergeCell ref="P71:P75"/>
-    <mergeCell ref="P136:P140"/>
-    <mergeCell ref="P131:P135"/>
-    <mergeCell ref="P104:P108"/>
-    <mergeCell ref="P111:P115"/>
-    <mergeCell ref="P116:P120"/>
-    <mergeCell ref="P121:P125"/>
-    <mergeCell ref="P126:P130"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="P15:P19"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P59:P63"/>
+    <mergeCell ref="P30:P34"/>
+    <mergeCell ref="P35:P39"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="P54:P58"/>
   </mergeCells>
   <phoneticPr fontId="35"/>
   <dataValidations count="1">
@@ -19493,6 +19496,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -19624,15 +19636,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
@@ -19640,13 +19643,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B087D-8064-45F9-8222-A82ED2D59AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E79B6E-1221-47E7-BED5-30F18FB0F3FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>泽</t>
     </r>
@@ -400,7 +399,6 @@
         <sz val="10"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>泽</t>
     </r>
@@ -1375,7 +1373,6 @@
         <sz val="10"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
       </rPr>
       <t>泽</t>
     </r>
@@ -1669,7 +1666,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1689,7 +1685,6 @@
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="20">
@@ -3858,87 +3853,6 @@
     <xf numFmtId="181" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3962,6 +3876,87 @@
     <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4618,12 +4613,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC64" sqref="AC64"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4807,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A2" s="37" t="s">
         <v>81</v>
       </c>
@@ -4854,7 +4848,7 @@
       <c r="O2" s="391" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="410" t="s">
+      <c r="P2" s="408" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -4918,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
@@ -4959,7 +4953,7 @@
       <c r="O3" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="402"/>
+      <c r="P3" s="409"/>
       <c r="Q3" s="165" t="s">
         <v>100</v>
       </c>
@@ -5020,7 +5014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A4" s="45" t="s">
         <v>81</v>
       </c>
@@ -5061,7 +5055,7 @@
       <c r="O4" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="402"/>
+      <c r="P4" s="409"/>
       <c r="Q4" s="165" t="s">
         <v>102</v>
       </c>
@@ -5122,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A5" s="45" t="s">
         <v>81</v>
       </c>
@@ -5163,7 +5157,7 @@
       <c r="O5" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="402"/>
+      <c r="P5" s="409"/>
       <c r="Q5" s="165" t="s">
         <v>13</v>
       </c>
@@ -5220,7 +5214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A6" s="45" t="s">
         <v>81</v>
       </c>
@@ -5261,7 +5255,7 @@
       <c r="O6" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="403"/>
+      <c r="P6" s="410"/>
       <c r="Q6" s="173" t="s">
         <v>16</v>
       </c>
@@ -5318,7 +5312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="31" customFormat="1" ht="33" hidden="1">
+    <row r="7" spans="1:45" s="31" customFormat="1" ht="33">
       <c r="A7" s="42" t="s">
         <v>92</v>
       </c>
@@ -5358,7 +5352,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="419" t="s">
+      <c r="P7" s="420" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5414,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="8" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A8" s="45" t="s">
         <v>92</v>
       </c>
@@ -5454,7 +5448,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="420"/>
+      <c r="P8" s="421"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5508,7 +5502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="9" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A9" s="45" t="s">
         <v>92</v>
       </c>
@@ -5548,7 +5542,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="420"/>
+      <c r="P9" s="421"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5602,7 +5596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="10" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A10" s="45" t="s">
         <v>92</v>
       </c>
@@ -5642,7 +5636,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="420"/>
+      <c r="P10" s="421"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5696,7 +5690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="11" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A11" s="48" t="s">
         <v>92</v>
       </c>
@@ -5736,7 +5730,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="421"/>
+      <c r="P11" s="422"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5830,7 +5824,7 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="404" t="s">
+      <c r="P12" s="417" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="160" t="s">
@@ -5925,7 +5919,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="405"/>
+      <c r="P13" s="418"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -6014,7 +6008,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="405"/>
+      <c r="P14" s="418"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6101,7 +6095,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="405"/>
+      <c r="P15" s="418"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6190,7 +6184,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="406"/>
+      <c r="P16" s="419"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6233,7 +6227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="31" customFormat="1" hidden="1">
+    <row r="17" spans="1:45" s="31" customFormat="1">
       <c r="A17" s="51" t="s">
         <v>110</v>
       </c>
@@ -6309,7 +6303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="18" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A18" s="51" t="s">
         <v>114</v>
       </c>
@@ -6389,7 +6383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
+    <row r="19" spans="1:45" s="31" customFormat="1" ht="28.5">
       <c r="A19" s="59" t="s">
         <v>117</v>
       </c>
@@ -6425,7 +6419,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="422" t="s">
+      <c r="P19" s="423" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6481,7 +6475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="20" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A20" s="45" t="s">
         <v>117</v>
       </c>
@@ -6517,7 +6511,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="423"/>
+      <c r="P20" s="424"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6571,7 +6565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="21" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A21" s="45" t="s">
         <v>117</v>
       </c>
@@ -6607,7 +6601,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="423"/>
+      <c r="P21" s="424"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6661,7 +6655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="22" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A22" s="45" t="s">
         <v>117</v>
       </c>
@@ -6697,7 +6691,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="423"/>
+      <c r="P22" s="424"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6751,7 +6745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="23" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A23" s="62" t="s">
         <v>117</v>
       </c>
@@ -6787,7 +6781,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="424"/>
+      <c r="P23" s="425"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6841,7 +6835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>122</v>
       </c>
@@ -6882,7 +6876,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="411" t="s">
+      <c r="P24" s="426" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -6956,7 +6950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A25" s="45" t="s">
         <v>122</v>
       </c>
@@ -6997,7 +6991,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="412"/>
+      <c r="P25" s="415"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7064,7 +7058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A26" s="45" t="s">
         <v>122</v>
       </c>
@@ -7105,7 +7099,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="412"/>
+      <c r="P26" s="415"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>122</v>
       </c>
@@ -7213,7 +7207,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="412"/>
+      <c r="P27" s="415"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7281,7 +7275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A28" s="62" t="s">
         <v>122</v>
       </c>
@@ -7322,7 +7316,7 @@
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="413"/>
+      <c r="P28" s="427"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7382,7 +7376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>129</v>
       </c>
@@ -7423,7 +7417,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="411" t="s">
+      <c r="P29" s="426" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7491,7 +7485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A30" s="45" t="s">
         <v>129</v>
       </c>
@@ -7532,7 +7526,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="412"/>
+      <c r="P30" s="415"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7594,7 +7588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A31" s="45" t="s">
         <v>129</v>
       </c>
@@ -7635,7 +7629,7 @@
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="412"/>
+      <c r="P31" s="415"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7697,7 +7691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A32" s="45" t="s">
         <v>129</v>
       </c>
@@ -7738,7 +7732,7 @@
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="412"/>
+      <c r="P32" s="415"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7800,7 +7794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A33" s="62" t="s">
         <v>129</v>
       </c>
@@ -7841,7 +7835,7 @@
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="413"/>
+      <c r="P33" s="427"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -7903,7 +7897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="34" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A34" s="59" t="s">
         <v>132</v>
       </c>
@@ -7988,22 +7982,22 @@
       <c r="AI34" s="229"/>
       <c r="AJ34" s="134"/>
       <c r="AK34" s="257">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="202">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM34" s="257">
-        <f t="shared" si="18"/>
-        <v>3.88125E-2</v>
+        <f>N34*AL34</f>
+        <v>4.2693749999999996E-2</v>
       </c>
       <c r="AN34" s="257">
-        <f t="shared" si="19"/>
-        <v>4.3124999999999969E-3</v>
+        <f>N34-AM34</f>
+        <v>4.3125000000000108E-4</v>
       </c>
       <c r="AO34" s="268">
-        <f t="shared" si="9"/>
-        <v>12.882447665056361</v>
+        <f>AK34/AM34</f>
+        <v>23.422632118284294</v>
       </c>
       <c r="AP34" s="268"/>
       <c r="AQ34" s="268"/>
@@ -8012,7 +8006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="35" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A35" s="45" t="s">
         <v>132</v>
       </c>
@@ -8053,7 +8047,7 @@
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="412"/>
+      <c r="P35" s="415"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8091,22 +8085,22 @@
       <c r="AI35" s="217"/>
       <c r="AJ35" s="135"/>
       <c r="AK35" s="253">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="199">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM35" s="253">
         <f t="shared" si="18"/>
-        <v>3.88125E-2</v>
+        <v>4.2693749999999996E-2</v>
       </c>
       <c r="AN35" s="253">
         <f t="shared" si="19"/>
-        <v>4.3124999999999969E-3</v>
+        <v>4.3125000000000108E-4</v>
       </c>
       <c r="AO35" s="264">
-        <f t="shared" ref="AO35:AO38" si="28">AK35/AM35</f>
-        <v>12.882447665056361</v>
+        <f>AK35/AM35</f>
+        <v>23.422632118284294</v>
       </c>
       <c r="AP35" s="264"/>
       <c r="AQ35" s="264"/>
@@ -8115,7 +8109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5">
       <c r="A36" s="45" t="s">
         <v>132</v>
       </c>
@@ -8156,7 +8150,7 @@
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="412"/>
+      <c r="P36" s="415"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8198,22 +8192,22 @@
       <c r="AI36" s="217"/>
       <c r="AJ36" s="135"/>
       <c r="AK36" s="253">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="199">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM36" s="253">
         <f t="shared" si="18"/>
-        <v>3.88125E-2</v>
+        <v>4.2693749999999996E-2</v>
       </c>
       <c r="AN36" s="253">
         <f t="shared" si="19"/>
-        <v>4.3124999999999969E-3</v>
+        <v>4.3125000000000108E-4</v>
       </c>
       <c r="AO36" s="264">
-        <f t="shared" si="28"/>
-        <v>12.882447665056361</v>
+        <f t="shared" ref="AO36:AO38" si="28">AK36/AM36</f>
+        <v>23.422632118284294</v>
       </c>
       <c r="AP36" s="264"/>
       <c r="AQ36" s="264"/>
@@ -8222,7 +8216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A37" s="45" t="s">
         <v>132</v>
       </c>
@@ -8263,7 +8257,7 @@
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="412"/>
+      <c r="P37" s="415"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8299,22 +8293,22 @@
       <c r="AI37" s="217"/>
       <c r="AJ37" s="135"/>
       <c r="AK37" s="253">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="199">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM37" s="253">
         <f t="shared" si="18"/>
-        <v>3.88125E-2</v>
+        <v>4.2693749999999996E-2</v>
       </c>
       <c r="AN37" s="253">
         <f t="shared" si="19"/>
-        <v>4.3124999999999969E-3</v>
+        <v>4.3125000000000108E-4</v>
       </c>
       <c r="AO37" s="264">
         <f t="shared" si="28"/>
-        <v>12.882447665056361</v>
+        <v>23.422632118284294</v>
       </c>
       <c r="AP37" s="264"/>
       <c r="AQ37" s="264"/>
@@ -8323,7 +8317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A38" s="48" t="s">
         <v>132</v>
       </c>
@@ -8364,7 +8358,7 @@
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="415"/>
+      <c r="P38" s="416"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8394,22 +8388,22 @@
       <c r="AI38" s="219"/>
       <c r="AJ38" s="146"/>
       <c r="AK38" s="254">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="255">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM38" s="254">
         <f t="shared" si="18"/>
-        <v>3.88125E-2</v>
+        <v>4.2693749999999996E-2</v>
       </c>
       <c r="AN38" s="254">
         <f t="shared" si="19"/>
-        <v>4.3124999999999969E-3</v>
+        <v>4.3125000000000108E-4</v>
       </c>
       <c r="AO38" s="265">
         <f t="shared" si="28"/>
-        <v>12.882447665056361</v>
+        <v>23.422632118284294</v>
       </c>
       <c r="AP38" s="265"/>
       <c r="AQ38" s="265"/>
@@ -8459,7 +8453,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="416" t="s">
+      <c r="P39" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8567,7 +8561,7 @@
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="417"/>
+      <c r="P40" s="412"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8670,7 +8664,7 @@
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="417"/>
+      <c r="P41" s="412"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8773,7 +8767,7 @@
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="417"/>
+      <c r="P42" s="412"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8876,7 +8870,7 @@
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="418"/>
+      <c r="P43" s="413"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -8977,7 +8971,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="425" t="s">
+      <c r="P44" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9086,7 +9080,7 @@
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="426"/>
+      <c r="P45" s="429"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9136,7 +9130,7 @@
       <c r="AN45" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO45" s="428">
+      <c r="AO45" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9149,7 +9143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="45" t="s">
         <v>140</v>
       </c>
@@ -9190,7 +9184,7 @@
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="426"/>
+      <c r="P46" s="429"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9240,7 +9234,7 @@
       <c r="AN46" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO46" s="428">
+      <c r="AO46" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9294,7 +9288,7 @@
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="426"/>
+      <c r="P47" s="429"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9345,7 +9339,7 @@
         <f t="shared" ref="AN47:AN67" si="34">N47-AM47</f>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO47" s="428">
+      <c r="AO47" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9397,7 +9391,7 @@
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="427"/>
+      <c r="P48" s="430"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9413,7 +9407,7 @@
       <c r="U48" s="168">
         <v>43844</v>
       </c>
-      <c r="V48" s="432">
+      <c r="V48" s="405">
         <v>1</v>
       </c>
       <c r="W48" s="148" t="s">
@@ -9448,7 +9442,7 @@
         <f t="shared" si="34"/>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO48" s="428">
+      <c r="AO48" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9459,7 +9453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A49" s="51" t="s">
         <v>143</v>
       </c>
@@ -9526,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="256">
-        <f t="shared" ref="AM47:AM67" si="35">N49*AL49</f>
+        <f t="shared" ref="AM49:AM67" si="35">N49*AL49</f>
         <v>0</v>
       </c>
       <c r="AN49" s="256">
@@ -9544,7 +9538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A50" s="51" t="s">
         <v>147</v>
       </c>
@@ -9629,7 +9623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.6" hidden="1" customHeight="1">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.6" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>150</v>
       </c>
@@ -9714,7 +9708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="52" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A52" s="51" t="s">
         <v>154</v>
       </c>
@@ -9802,7 +9796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A53" s="51" t="s">
         <v>158</v>
       </c>
@@ -9843,7 +9837,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="404" t="s">
+      <c r="P53" s="417" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9909,7 +9903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A54" s="45" t="s">
         <v>158</v>
       </c>
@@ -9950,7 +9944,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="405"/>
+      <c r="P54" s="418"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -10014,7 +10008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A55" s="45" t="s">
         <v>158</v>
       </c>
@@ -10055,7 +10049,7 @@
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="405"/>
+      <c r="P55" s="418"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10115,7 +10109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="45" t="s">
         <v>158</v>
       </c>
@@ -10156,7 +10150,7 @@
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="405"/>
+      <c r="P56" s="418"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10216,7 +10210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>158</v>
       </c>
@@ -10257,7 +10251,7 @@
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="406"/>
+      <c r="P57" s="419"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10356,7 +10350,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="404" t="s">
+      <c r="P58" s="417" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10461,7 +10455,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="405"/>
+      <c r="P59" s="418"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10562,7 +10556,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="405"/>
+      <c r="P60" s="418"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10663,7 +10657,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="405"/>
+      <c r="P61" s="418"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10762,7 +10756,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="406"/>
+      <c r="P62" s="419"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10863,7 +10857,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="416" t="s">
+      <c r="P63" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -10974,7 +10968,7 @@
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="417"/>
+      <c r="P64" s="412"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11027,7 +11021,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO64" s="428">
+      <c r="AO64" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11081,7 +11075,7 @@
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="417"/>
+      <c r="P65" s="412"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11134,7 +11128,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO65" s="428">
+      <c r="AO65" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11188,7 +11182,7 @@
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="417"/>
+      <c r="P66" s="412"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11241,7 +11235,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO66" s="428">
+      <c r="AO66" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11293,7 +11287,7 @@
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="418"/>
+      <c r="P67" s="413"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11346,7 +11340,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO67" s="428">
+      <c r="AO67" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11398,7 +11392,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="425" t="s">
+      <c r="P68" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11490,7 +11484,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="426"/>
+      <c r="P69" s="429"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11580,7 +11574,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="426"/>
+      <c r="P70" s="429"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11670,7 +11664,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="426"/>
+      <c r="P71" s="429"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11760,7 +11754,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="427"/>
+      <c r="P72" s="430"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -11803,7 +11797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A73" s="51" t="s">
         <v>172</v>
       </c>
@@ -11876,11 +11870,11 @@
         <v>0</v>
       </c>
       <c r="AM73" s="256">
-        <f t="shared" ref="AM66:AM96" si="57">N73*AL73</f>
+        <f t="shared" ref="AM73:AM96" si="57">N73*AL73</f>
         <v>0</v>
       </c>
       <c r="AN73" s="256">
-        <f t="shared" ref="AN66:AN96" si="58">N73-AM73</f>
+        <f t="shared" ref="AN73:AN96" si="58">N73-AM73</f>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="AO73" s="266" t="e">
@@ -11894,7 +11888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A74" s="51" t="s">
         <v>177</v>
       </c>
@@ -11986,7 +11980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="75" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A75" s="51" t="s">
         <v>181</v>
       </c>
@@ -12027,7 +12021,7 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="404" t="s">
+      <c r="P75" s="417" t="s">
         <v>4</v>
       </c>
       <c r="Q75" s="160" t="s">
@@ -12068,19 +12062,19 @@
         <v>1</v>
       </c>
       <c r="AL75" s="208">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM75" s="256">
-        <f t="shared" si="57"/>
-        <v>5.1749999999999997E-2</v>
+        <f>N75*AL75</f>
+        <v>5.6924999999999996E-2</v>
       </c>
       <c r="AN75" s="256">
         <f t="shared" si="58"/>
-        <v>5.7499999999999982E-3</v>
+        <v>5.7499999999999912E-4</v>
       </c>
       <c r="AO75" s="266">
         <f t="shared" si="9"/>
-        <v>19.323671497584542</v>
+        <v>17.56697408871322</v>
       </c>
       <c r="AP75" s="266"/>
       <c r="AQ75" s="266"/>
@@ -12089,7 +12083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="76" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A76" s="271" t="s">
         <v>181</v>
       </c>
@@ -12130,7 +12124,7 @@
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="405"/>
+      <c r="P76" s="418"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12169,19 +12163,19 @@
         <v>1</v>
       </c>
       <c r="AL76" s="382">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM76" s="325">
         <f t="shared" ref="AM76:AM79" si="62">N76*AL76</f>
-        <v>5.1749999999999997E-2</v>
+        <v>5.6924999999999996E-2</v>
       </c>
       <c r="AN76" s="325">
         <f t="shared" ref="AN76:AN79" si="63">N76-AM76</f>
-        <v>5.7499999999999982E-3</v>
+        <v>5.7499999999999912E-4</v>
       </c>
       <c r="AO76" s="337">
         <f t="shared" ref="AO76:AO79" si="64">AK76/AM76</f>
-        <v>19.323671497584542</v>
+        <v>17.56697408871322</v>
       </c>
       <c r="AP76" s="337"/>
       <c r="AQ76" s="337"/>
@@ -12190,7 +12184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="77" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A77" s="271" t="s">
         <v>181</v>
       </c>
@@ -12231,7 +12225,7 @@
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="405"/>
+      <c r="P77" s="418"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12270,19 +12264,19 @@
         <v>1</v>
       </c>
       <c r="AL77" s="382">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM77" s="325">
         <f t="shared" si="62"/>
-        <v>5.1749999999999997E-2</v>
+        <v>5.6924999999999996E-2</v>
       </c>
       <c r="AN77" s="325">
         <f t="shared" si="63"/>
-        <v>5.7499999999999982E-3</v>
+        <v>5.7499999999999912E-4</v>
       </c>
       <c r="AO77" s="337">
         <f t="shared" si="64"/>
-        <v>19.323671497584542</v>
+        <v>17.56697408871322</v>
       </c>
       <c r="AP77" s="337"/>
       <c r="AQ77" s="337"/>
@@ -12291,7 +12285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="78" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A78" s="271" t="s">
         <v>181</v>
       </c>
@@ -12332,7 +12326,7 @@
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="405"/>
+      <c r="P78" s="418"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12371,19 +12365,19 @@
         <v>1</v>
       </c>
       <c r="AL78" s="382">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM78" s="325">
         <f t="shared" si="62"/>
-        <v>5.1749999999999997E-2</v>
+        <v>5.6924999999999996E-2</v>
       </c>
       <c r="AN78" s="325">
         <f t="shared" si="63"/>
-        <v>5.7499999999999982E-3</v>
+        <v>5.7499999999999912E-4</v>
       </c>
       <c r="AO78" s="337">
         <f t="shared" si="64"/>
-        <v>19.323671497584542</v>
+        <v>17.56697408871322</v>
       </c>
       <c r="AP78" s="337"/>
       <c r="AQ78" s="337"/>
@@ -12392,7 +12386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A79" s="271" t="s">
         <v>181</v>
       </c>
@@ -12433,7 +12427,7 @@
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="406"/>
+      <c r="P79" s="419"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
@@ -12468,19 +12462,19 @@
         <v>1</v>
       </c>
       <c r="AL79" s="382">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="AM79" s="325">
         <f t="shared" si="62"/>
-        <v>5.1749999999999997E-2</v>
+        <v>5.6924999999999996E-2</v>
       </c>
       <c r="AN79" s="325">
         <f t="shared" si="63"/>
-        <v>5.7499999999999982E-3</v>
+        <v>5.7499999999999912E-4</v>
       </c>
       <c r="AO79" s="337">
         <f t="shared" si="64"/>
-        <v>19.323671497584542</v>
+        <v>17.56697408871322</v>
       </c>
       <c r="AP79" s="337"/>
       <c r="AQ79" s="337"/>
@@ -12489,7 +12483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="31" customFormat="1" ht="14.45" hidden="1" customHeight="1">
+    <row r="80" spans="1:45" s="31" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="51" t="s">
         <v>184</v>
       </c>
@@ -12582,7 +12576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A81" s="51" t="s">
         <v>187</v>
       </c>
@@ -12623,7 +12617,7 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="404" t="s">
+      <c r="P81" s="417" t="s">
         <v>306</v>
       </c>
       <c r="Q81" s="160" t="s">
@@ -12691,7 +12685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="66" hidden="1">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="66">
       <c r="A82" s="271" t="s">
         <v>187</v>
       </c>
@@ -12732,7 +12726,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="405"/>
+      <c r="P82" s="418"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12794,7 +12788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A83" s="271" t="s">
         <v>187</v>
       </c>
@@ -12835,7 +12829,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="405"/>
+      <c r="P83" s="418"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12897,7 +12891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A84" s="271" t="s">
         <v>187</v>
       </c>
@@ -12938,7 +12932,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="405"/>
+      <c r="P84" s="418"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -12994,7 +12988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A85" s="271" t="s">
         <v>187</v>
       </c>
@@ -13035,7 +13029,7 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="406"/>
+      <c r="P85" s="419"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
@@ -13130,7 +13124,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="425" t="s">
+      <c r="P86" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13239,7 +13233,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="426"/>
+      <c r="P87" s="429"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13346,7 +13340,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="426"/>
+      <c r="P88" s="429"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13453,7 +13447,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="426"/>
+      <c r="P89" s="429"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13560,7 +13554,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="427"/>
+      <c r="P90" s="430"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13667,7 +13661,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="425" t="s">
+      <c r="P91" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13759,7 +13753,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="426"/>
+      <c r="P92" s="429"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13849,7 +13843,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="426"/>
+      <c r="P93" s="429"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -13939,7 +13933,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="426"/>
+      <c r="P94" s="429"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -14029,7 +14023,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="427"/>
+      <c r="P95" s="430"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14072,7 +14066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A96" s="51" t="s">
         <v>197</v>
       </c>
@@ -14163,7 +14157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A97" s="51" t="s">
         <v>201</v>
       </c>
@@ -14204,7 +14198,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="401" t="s">
+      <c r="P97" s="431" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -14269,7 +14263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A98" s="278" t="s">
         <v>201</v>
       </c>
@@ -14310,7 +14304,7 @@
       <c r="O98" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P98" s="402"/>
+      <c r="P98" s="409"/>
       <c r="Q98" s="165" t="s">
         <v>100</v>
       </c>
@@ -14369,7 +14363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A99" s="278" t="s">
         <v>201</v>
       </c>
@@ -14410,7 +14404,7 @@
       <c r="O99" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="402"/>
+      <c r="P99" s="409"/>
       <c r="Q99" s="165" t="s">
         <v>102</v>
       </c>
@@ -14469,7 +14463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A100" s="278" t="s">
         <v>201</v>
       </c>
@@ -14510,7 +14504,7 @@
       <c r="O100" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P100" s="402"/>
+      <c r="P100" s="409"/>
       <c r="Q100" s="165" t="s">
         <v>13</v>
       </c>
@@ -14569,7 +14563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A101" s="278" t="s">
         <v>201</v>
       </c>
@@ -14610,7 +14604,7 @@
       <c r="O101" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P101" s="403"/>
+      <c r="P101" s="410"/>
       <c r="Q101" s="165" t="s">
         <v>16</v>
       </c>
@@ -14670,7 +14664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A102" s="51" t="s">
         <v>204</v>
       </c>
@@ -14715,7 +14709,7 @@
       <c r="O102" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P102" s="402" t="s">
+      <c r="P102" s="409" t="s">
         <v>28</v>
       </c>
       <c r="Q102" s="160" t="s">
@@ -14780,7 +14774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A103" s="278" t="s">
         <v>204</v>
       </c>
@@ -14825,7 +14819,7 @@
       <c r="O103" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P103" s="402"/>
+      <c r="P103" s="409"/>
       <c r="Q103" s="165" t="s">
         <v>100</v>
       </c>
@@ -14884,7 +14878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A104" s="278" t="s">
         <v>204</v>
       </c>
@@ -14929,7 +14923,7 @@
       <c r="O104" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P104" s="402"/>
+      <c r="P104" s="409"/>
       <c r="Q104" s="165" t="s">
         <v>102</v>
       </c>
@@ -14988,7 +14982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A105" s="278" t="s">
         <v>204</v>
       </c>
@@ -15033,7 +15027,7 @@
       <c r="O105" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="402"/>
+      <c r="P105" s="409"/>
       <c r="Q105" s="165" t="s">
         <v>13</v>
       </c>
@@ -15092,7 +15086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A106" s="278" t="s">
         <v>204</v>
       </c>
@@ -15133,7 +15127,7 @@
       <c r="O106" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="403"/>
+      <c r="P106" s="410"/>
       <c r="Q106" s="165" t="s">
         <v>16</v>
       </c>
@@ -15193,7 +15187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="107" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A107" s="278"/>
       <c r="B107" s="51"/>
       <c r="C107" s="51"/>
@@ -15240,7 +15234,7 @@
       <c r="AR107" s="266"/>
       <c r="AS107" s="169"/>
     </row>
-    <row r="108" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
       <c r="A108" s="51" t="s">
         <v>207</v>
       </c>
@@ -15281,7 +15275,7 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="404" t="s">
+      <c r="P108" s="417" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
@@ -15349,7 +15343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25" hidden="1">
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25">
       <c r="A109" s="278" t="s">
         <v>207</v>
       </c>
@@ -15390,7 +15384,7 @@
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="405"/>
+      <c r="P109" s="418"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
@@ -15450,7 +15444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A110" s="278" t="s">
         <v>207</v>
       </c>
@@ -15491,7 +15485,7 @@
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="405"/>
+      <c r="P110" s="418"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
@@ -15549,7 +15543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A111" s="278" t="s">
         <v>207</v>
       </c>
@@ -15590,7 +15584,7 @@
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="405"/>
+      <c r="P111" s="418"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
@@ -15648,7 +15642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A112" s="278" t="s">
         <v>207</v>
       </c>
@@ -15689,7 +15683,7 @@
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="406"/>
+      <c r="P112" s="419"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
@@ -15743,7 +15737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="113" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A113" s="51" t="s">
         <v>211</v>
       </c>
@@ -15838,7 +15832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="114" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A114" s="51" t="s">
         <v>215</v>
       </c>
@@ -15972,7 +15966,7 @@
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="407" t="s">
+      <c r="P115" s="432" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -16078,7 +16072,7 @@
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="408"/>
+      <c r="P116" s="433"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16178,7 +16172,7 @@
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="408"/>
+      <c r="P117" s="433"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16278,7 +16272,7 @@
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="408"/>
+      <c r="P118" s="433"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16376,7 +16370,7 @@
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="409"/>
+      <c r="P119" s="434"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16465,14 +16459,14 @@
         <f t="shared" si="77"/>
         <v>2</v>
       </c>
-      <c r="N120" s="434">
+      <c r="N120" s="407">
         <f t="shared" si="78"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="425" t="s">
+      <c r="P120" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16551,10 +16545,10 @@
         <v>223</v>
       </c>
       <c r="H121" s="67"/>
-      <c r="I121" s="429" t="s">
+      <c r="I121" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J121" s="430">
+      <c r="J121" s="403">
         <v>4</v>
       </c>
       <c r="K121" s="293">
@@ -16575,7 +16569,7 @@
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="426"/>
+      <c r="P121" s="429"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16615,7 +16609,7 @@
       <c r="AK121" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL121" s="431">
+      <c r="AL121" s="404">
         <v>0.95</v>
       </c>
       <c r="AM121" s="338">
@@ -16652,10 +16646,10 @@
         <v>223</v>
       </c>
       <c r="H122" s="67"/>
-      <c r="I122" s="429" t="s">
+      <c r="I122" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J122" s="430">
+      <c r="J122" s="403">
         <v>4</v>
       </c>
       <c r="K122" s="293">
@@ -16676,7 +16670,7 @@
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="426"/>
+      <c r="P122" s="429"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16716,7 +16710,7 @@
       <c r="AK122" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL122" s="431">
+      <c r="AL122" s="404">
         <v>0.95</v>
       </c>
       <c r="AM122" s="338">
@@ -16753,10 +16747,10 @@
         <v>223</v>
       </c>
       <c r="H123" s="67"/>
-      <c r="I123" s="429" t="s">
+      <c r="I123" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J123" s="430">
+      <c r="J123" s="403">
         <v>4</v>
       </c>
       <c r="K123" s="293">
@@ -16777,7 +16771,7 @@
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="426"/>
+      <c r="P123" s="429"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16817,7 +16811,7 @@
       <c r="AK123" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL123" s="431">
+      <c r="AL123" s="404">
         <v>0.95</v>
       </c>
       <c r="AM123" s="338">
@@ -16854,10 +16848,10 @@
         <v>223</v>
       </c>
       <c r="H124" s="68"/>
-      <c r="I124" s="429" t="s">
+      <c r="I124" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J124" s="430">
+      <c r="J124" s="403">
         <v>4</v>
       </c>
       <c r="K124" s="293">
@@ -16878,7 +16872,7 @@
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="427"/>
+      <c r="P124" s="430"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -16918,7 +16912,7 @@
       <c r="AK124" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL124" s="431">
+      <c r="AL124" s="404">
         <v>0.95</v>
       </c>
       <c r="AM124" s="338">
@@ -16972,14 +16966,14 @@
         <f t="shared" si="77"/>
         <v>2</v>
       </c>
-      <c r="N125" s="434">
+      <c r="N125" s="407">
         <f t="shared" si="78"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="O125" s="433" t="s">
+      <c r="O125" s="406" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="425" t="s">
+      <c r="P125" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17058,10 +17052,10 @@
         <v>227</v>
       </c>
       <c r="H126" s="67"/>
-      <c r="I126" s="429" t="s">
+      <c r="I126" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J126" s="430">
+      <c r="J126" s="403">
         <v>4</v>
       </c>
       <c r="K126" s="293">
@@ -17082,7 +17076,7 @@
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="426"/>
+      <c r="P126" s="429"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17122,7 +17116,7 @@
       <c r="AK126" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL126" s="431">
+      <c r="AL126" s="404">
         <v>0.95</v>
       </c>
       <c r="AM126" s="338">
@@ -17159,10 +17153,10 @@
         <v>227</v>
       </c>
       <c r="H127" s="67"/>
-      <c r="I127" s="429" t="s">
+      <c r="I127" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J127" s="430">
+      <c r="J127" s="403">
         <v>4</v>
       </c>
       <c r="K127" s="293">
@@ -17183,7 +17177,7 @@
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="426"/>
+      <c r="P127" s="429"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17223,7 +17217,7 @@
       <c r="AK127" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL127" s="431">
+      <c r="AL127" s="404">
         <v>0.95</v>
       </c>
       <c r="AM127" s="338">
@@ -17260,10 +17254,10 @@
         <v>227</v>
       </c>
       <c r="H128" s="67"/>
-      <c r="I128" s="429" t="s">
+      <c r="I128" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J128" s="430">
+      <c r="J128" s="403">
         <v>4</v>
       </c>
       <c r="K128" s="293">
@@ -17284,7 +17278,7 @@
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="426"/>
+      <c r="P128" s="429"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17324,7 +17318,7 @@
       <c r="AK128" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL128" s="431">
+      <c r="AL128" s="404">
         <v>0.95</v>
       </c>
       <c r="AM128" s="338">
@@ -17361,10 +17355,10 @@
         <v>227</v>
       </c>
       <c r="H129" s="68"/>
-      <c r="I129" s="429" t="s">
+      <c r="I129" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J129" s="430">
+      <c r="J129" s="403">
         <v>4</v>
       </c>
       <c r="K129" s="293">
@@ -17385,7 +17379,7 @@
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="427"/>
+      <c r="P129" s="430"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17425,7 +17419,7 @@
       <c r="AK129" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL129" s="431">
+      <c r="AL129" s="404">
         <v>0.95</v>
       </c>
       <c r="AM129" s="338">
@@ -17479,14 +17473,14 @@
         <f t="shared" si="83"/>
         <v>2</v>
       </c>
-      <c r="N130" s="434">
+      <c r="N130" s="407">
         <f t="shared" si="78"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="425" t="s">
+      <c r="P130" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17565,10 +17559,10 @@
         <v>229</v>
       </c>
       <c r="H131" s="67"/>
-      <c r="I131" s="429" t="s">
+      <c r="I131" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J131" s="430">
+      <c r="J131" s="403">
         <v>4</v>
       </c>
       <c r="K131" s="293">
@@ -17589,7 +17583,7 @@
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="426"/>
+      <c r="P131" s="429"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17629,7 +17623,7 @@
       <c r="AK131" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL131" s="431">
+      <c r="AL131" s="404">
         <v>0.85</v>
       </c>
       <c r="AM131" s="338">
@@ -17666,10 +17660,10 @@
         <v>229</v>
       </c>
       <c r="H132" s="67"/>
-      <c r="I132" s="429" t="s">
+      <c r="I132" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J132" s="430">
+      <c r="J132" s="403">
         <v>4</v>
       </c>
       <c r="K132" s="293">
@@ -17690,7 +17684,7 @@
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="426"/>
+      <c r="P132" s="429"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17730,7 +17724,7 @@
       <c r="AK132" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL132" s="431">
+      <c r="AL132" s="404">
         <v>0.85</v>
       </c>
       <c r="AM132" s="338">
@@ -17767,10 +17761,10 @@
         <v>229</v>
       </c>
       <c r="H133" s="67"/>
-      <c r="I133" s="429" t="s">
+      <c r="I133" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J133" s="430">
+      <c r="J133" s="403">
         <v>4</v>
       </c>
       <c r="K133" s="293">
@@ -17791,7 +17785,7 @@
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="426"/>
+      <c r="P133" s="429"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -17831,7 +17825,7 @@
       <c r="AK133" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL133" s="431">
+      <c r="AL133" s="404">
         <v>0.85</v>
       </c>
       <c r="AM133" s="338">
@@ -17868,10 +17862,10 @@
         <v>229</v>
       </c>
       <c r="H134" s="68"/>
-      <c r="I134" s="429" t="s">
+      <c r="I134" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J134" s="430">
+      <c r="J134" s="403">
         <v>4</v>
       </c>
       <c r="K134" s="293">
@@ -17892,7 +17886,7 @@
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="427"/>
+      <c r="P134" s="430"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -17932,7 +17926,7 @@
       <c r="AK134" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL134" s="431">
+      <c r="AL134" s="404">
         <v>0.85</v>
       </c>
       <c r="AM134" s="338">
@@ -17954,7 +17948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="16.5" hidden="1">
+    <row r="135" spans="1:45" ht="16.5">
       <c r="A135" s="51" t="s">
         <v>230</v>
       </c>
@@ -17992,7 +17986,7 @@
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="401" t="s">
+      <c r="P135" s="431" t="s">
         <v>20</v>
       </c>
       <c r="Q135" s="160" t="s">
@@ -18056,7 +18050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="16.5" hidden="1">
+    <row r="136" spans="1:45" ht="16.5">
       <c r="A136" s="288" t="s">
         <v>230</v>
       </c>
@@ -18090,7 +18084,7 @@
       <c r="O136" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P136" s="402"/>
+      <c r="P136" s="409"/>
       <c r="Q136" s="165" t="s">
         <v>100</v>
       </c>
@@ -18152,7 +18146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="16.5" hidden="1">
+    <row r="137" spans="1:45" ht="16.5">
       <c r="A137" s="288" t="s">
         <v>230</v>
       </c>
@@ -18186,7 +18180,7 @@
       <c r="O137" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P137" s="402"/>
+      <c r="P137" s="409"/>
       <c r="Q137" s="165" t="s">
         <v>102</v>
       </c>
@@ -18244,7 +18238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="16.5" hidden="1">
+    <row r="138" spans="1:45" ht="16.5">
       <c r="A138" s="288" t="s">
         <v>230</v>
       </c>
@@ -18278,7 +18272,7 @@
       <c r="O138" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P138" s="402"/>
+      <c r="P138" s="409"/>
       <c r="Q138" s="165" t="s">
         <v>13</v>
       </c>
@@ -18334,7 +18328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="16.5" hidden="1">
+    <row r="139" spans="1:45" ht="16.5">
       <c r="A139" s="288" t="s">
         <v>230</v>
       </c>
@@ -18368,7 +18362,7 @@
       <c r="O139" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P139" s="403"/>
+      <c r="P139" s="410"/>
       <c r="Q139" s="165" t="s">
         <v>16</v>
       </c>
@@ -18420,7 +18414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="15.75" hidden="1">
+    <row r="140" spans="1:45" ht="15.75">
       <c r="A140" s="51" t="s">
         <v>234</v>
       </c>
@@ -18452,7 +18446,7 @@
         <v>0.25</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="401" t="s">
+      <c r="P140" s="431" t="s">
         <v>4</v>
       </c>
       <c r="Q140" s="160" t="s">
@@ -18513,7 +18507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="15.75" hidden="1">
+    <row r="141" spans="1:45" ht="15.75">
       <c r="A141" s="367" t="s">
         <v>234</v>
       </c>
@@ -18545,7 +18539,7 @@
         <v>0.25</v>
       </c>
       <c r="O141" s="373"/>
-      <c r="P141" s="402"/>
+      <c r="P141" s="409"/>
       <c r="Q141" s="165" t="s">
         <v>100</v>
       </c>
@@ -18598,7 +18592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="15.75" hidden="1">
+    <row r="142" spans="1:45" ht="15.75">
       <c r="A142" s="367" t="s">
         <v>234</v>
       </c>
@@ -18630,7 +18624,7 @@
         <v>0.25</v>
       </c>
       <c r="O142" s="373"/>
-      <c r="P142" s="402"/>
+      <c r="P142" s="409"/>
       <c r="Q142" s="165" t="s">
         <v>102</v>
       </c>
@@ -18683,7 +18677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="15.75" hidden="1">
+    <row r="143" spans="1:45" ht="15.75">
       <c r="A143" s="367" t="s">
         <v>234</v>
       </c>
@@ -18715,7 +18709,7 @@
         <v>0.25</v>
       </c>
       <c r="O143" s="373"/>
-      <c r="P143" s="402"/>
+      <c r="P143" s="409"/>
       <c r="Q143" s="165" t="s">
         <v>13</v>
       </c>
@@ -18768,7 +18762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="15.75" hidden="1">
+    <row r="144" spans="1:45" ht="15.75">
       <c r="A144" s="367" t="s">
         <v>234</v>
       </c>
@@ -18800,7 +18794,7 @@
         <v>0.25</v>
       </c>
       <c r="O144" s="373"/>
-      <c r="P144" s="403"/>
+      <c r="P144" s="410"/>
       <c r="Q144" s="178" t="s">
         <v>16</v>
       </c>
@@ -18850,16 +18844,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="22">
-      <filters>
-        <filter val="寇鴻飛"/>
-        <filter val="袁奇"/>
-        <filter val="袁奇、陳爽"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="26">
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -18872,20 +18872,6 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
   </mergeCells>
   <phoneticPr fontId="35"/>
   <dataValidations count="1">
@@ -20162,21 +20148,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -20308,8 +20279,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -20321,7 +20307,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B087D-8064-45F9-8222-A82ED2D59AF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFC83D4-2EA7-479D-B248-273FFACDC3E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3858,87 +3858,6 @@
     <xf numFmtId="181" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3962,6 +3881,87 @@
     <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4621,9 +4621,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="T1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Z1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC64" sqref="AC64"/>
+      <selection pane="bottomLeft" activeCell="AN149" sqref="AN149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4854,7 +4854,7 @@
       <c r="O2" s="391" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="410" t="s">
+      <c r="P2" s="408" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -4959,7 +4959,7 @@
       <c r="O3" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="402"/>
+      <c r="P3" s="409"/>
       <c r="Q3" s="165" t="s">
         <v>100</v>
       </c>
@@ -5061,7 +5061,7 @@
       <c r="O4" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="402"/>
+      <c r="P4" s="409"/>
       <c r="Q4" s="165" t="s">
         <v>102</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="O5" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="402"/>
+      <c r="P5" s="409"/>
       <c r="Q5" s="165" t="s">
         <v>13</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="O6" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="403"/>
+      <c r="P6" s="410"/>
       <c r="Q6" s="173" t="s">
         <v>16</v>
       </c>
@@ -5358,7 +5358,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="419" t="s">
+      <c r="P7" s="420" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5454,7 +5454,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="420"/>
+      <c r="P8" s="421"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="420"/>
+      <c r="P9" s="421"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="420"/>
+      <c r="P10" s="421"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="421"/>
+      <c r="P11" s="422"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="32" customFormat="1">
+    <row r="12" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A12" s="51" t="s">
         <v>103</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="404" t="s">
+      <c r="P12" s="417" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="160" t="s">
@@ -5885,7 +5885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="32" customFormat="1">
+    <row r="13" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A13" s="56" t="s">
         <v>103</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="405"/>
+      <c r="P13" s="418"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="32" customFormat="1">
+    <row r="14" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A14" s="56" t="s">
         <v>103</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="405"/>
+      <c r="P14" s="418"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="32" customFormat="1">
+    <row r="15" spans="1:45" s="32" customFormat="1" hidden="1">
       <c r="A15" s="56" t="s">
         <v>103</v>
       </c>
@@ -6101,7 +6101,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="405"/>
+      <c r="P15" s="418"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="31" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="1:45" s="31" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>103</v>
       </c>
@@ -6190,7 +6190,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="406"/>
+      <c r="P16" s="419"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="422" t="s">
+      <c r="P19" s="423" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6517,7 +6517,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="423"/>
+      <c r="P20" s="424"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="423"/>
+      <c r="P21" s="424"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="423"/>
+      <c r="P22" s="424"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="424"/>
+      <c r="P23" s="425"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6882,7 +6882,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="411" t="s">
+      <c r="P24" s="426" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -6997,7 +6997,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="412"/>
+      <c r="P25" s="415"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="412"/>
+      <c r="P26" s="415"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="412"/>
+      <c r="P27" s="415"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="413"/>
+      <c r="P28" s="427"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="411" t="s">
+      <c r="P29" s="426" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7532,7 +7532,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="412"/>
+      <c r="P30" s="415"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="412"/>
+      <c r="P31" s="415"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="412"/>
+      <c r="P32" s="415"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7841,7 +7841,7 @@
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="413"/>
+      <c r="P33" s="427"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="412"/>
+      <c r="P35" s="415"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="412"/>
+      <c r="P36" s="415"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="412"/>
+      <c r="P37" s="415"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8364,7 +8364,7 @@
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="415"/>
+      <c r="P38" s="416"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="39" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A39" s="42" t="s">
         <v>136</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="416" t="s">
+      <c r="P39" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8526,7 +8526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="40" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A40" s="45" t="s">
         <v>136</v>
       </c>
@@ -8567,7 +8567,7 @@
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="417"/>
+      <c r="P40" s="412"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="41" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A41" s="45" t="s">
         <v>136</v>
       </c>
@@ -8670,7 +8670,7 @@
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="417"/>
+      <c r="P41" s="412"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="42" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A42" s="45" t="s">
         <v>136</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="417"/>
+      <c r="P42" s="412"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A43" s="62" t="s">
         <v>136</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="418"/>
+      <c r="P43" s="413"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="44" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A44" s="42" t="s">
         <v>140</v>
       </c>
@@ -8977,7 +8977,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="425" t="s">
+      <c r="P44" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9045,7 +9045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A45" s="45" t="s">
         <v>140</v>
       </c>
@@ -9086,7 +9086,7 @@
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="426"/>
+      <c r="P45" s="429"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="AN45" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO45" s="428">
+      <c r="AO45" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="426"/>
+      <c r="P46" s="429"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="AN46" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO46" s="428">
+      <c r="AO46" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="47" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A47" s="45" t="s">
         <v>140</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="426"/>
+      <c r="P47" s="429"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9345,7 +9345,7 @@
         <f t="shared" ref="AN47:AN67" si="34">N47-AM47</f>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO47" s="428">
+      <c r="AO47" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="48" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A48" s="62" t="s">
         <v>140</v>
       </c>
@@ -9397,7 +9397,7 @@
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="427"/>
+      <c r="P48" s="430"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="U48" s="168">
         <v>43844</v>
       </c>
-      <c r="V48" s="432">
+      <c r="V48" s="405">
         <v>1</v>
       </c>
       <c r="W48" s="148" t="s">
@@ -9448,7 +9448,7 @@
         <f t="shared" si="34"/>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO48" s="428">
+      <c r="AO48" s="401">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="256">
-        <f t="shared" ref="AM47:AM67" si="35">N49*AL49</f>
+        <f t="shared" ref="AM49:AM67" si="35">N49*AL49</f>
         <v>0</v>
       </c>
       <c r="AN49" s="256">
@@ -9843,7 +9843,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="404" t="s">
+      <c r="P53" s="417" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9950,7 +9950,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="405"/>
+      <c r="P54" s="418"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -10055,7 +10055,7 @@
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="405"/>
+      <c r="P55" s="418"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10156,7 +10156,7 @@
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="405"/>
+      <c r="P56" s="418"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="406"/>
+      <c r="P57" s="419"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="404" t="s">
+      <c r="P58" s="417" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10461,7 +10461,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="405"/>
+      <c r="P59" s="418"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="405"/>
+      <c r="P60" s="418"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="405"/>
+      <c r="P61" s="418"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="406"/>
+      <c r="P62" s="419"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="63" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A63" s="42" t="s">
         <v>165</v>
       </c>
@@ -10863,7 +10863,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="416" t="s">
+      <c r="P63" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -10933,7 +10933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A64" s="45" t="s">
         <v>165</v>
       </c>
@@ -10974,7 +10974,7 @@
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="417"/>
+      <c r="P64" s="412"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11027,7 +11027,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO64" s="428">
+      <c r="AO64" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A65" s="45" t="s">
         <v>165</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="417"/>
+      <c r="P65" s="412"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11134,7 +11134,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO65" s="428">
+      <c r="AO65" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="66" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A66" s="45" t="s">
         <v>165</v>
       </c>
@@ -11188,7 +11188,7 @@
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="417"/>
+      <c r="P66" s="412"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11241,7 +11241,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO66" s="428">
+      <c r="AO66" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="67" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A67" s="62" t="s">
         <v>165</v>
       </c>
@@ -11293,7 +11293,7 @@
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="418"/>
+      <c r="P67" s="413"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11346,7 +11346,7 @@
         <f t="shared" si="34"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO67" s="428">
+      <c r="AO67" s="401">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="68" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A68" s="51" t="s">
         <v>169</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="425" t="s">
+      <c r="P68" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11449,7 +11449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="69" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A69" s="278" t="s">
         <v>169</v>
       </c>
@@ -11490,7 +11490,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="426"/>
+      <c r="P69" s="429"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="70" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A70" s="278" t="s">
         <v>169</v>
       </c>
@@ -11580,7 +11580,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="426"/>
+      <c r="P70" s="429"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="71" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A71" s="278" t="s">
         <v>169</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="426"/>
+      <c r="P71" s="429"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A72" s="278" t="s">
         <v>169</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="427"/>
+      <c r="P72" s="430"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -11876,11 +11876,11 @@
         <v>0</v>
       </c>
       <c r="AM73" s="256">
-        <f t="shared" ref="AM66:AM96" si="57">N73*AL73</f>
+        <f t="shared" ref="AM73:AM96" si="57">N73*AL73</f>
         <v>0</v>
       </c>
       <c r="AN73" s="256">
-        <f t="shared" ref="AN66:AN96" si="58">N73-AM73</f>
+        <f t="shared" ref="AN73:AN96" si="58">N73-AM73</f>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="AO73" s="266" t="e">
@@ -12027,7 +12027,7 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="404" t="s">
+      <c r="P75" s="417" t="s">
         <v>4</v>
       </c>
       <c r="Q75" s="160" t="s">
@@ -12130,7 +12130,7 @@
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="405"/>
+      <c r="P76" s="418"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12231,7 +12231,7 @@
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="405"/>
+      <c r="P77" s="418"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12332,7 +12332,7 @@
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="405"/>
+      <c r="P78" s="418"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12433,7 +12433,7 @@
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="406"/>
+      <c r="P79" s="419"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="404" t="s">
+      <c r="P81" s="417" t="s">
         <v>306</v>
       </c>
       <c r="Q81" s="160" t="s">
@@ -12732,7 +12732,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="405"/>
+      <c r="P82" s="418"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12835,7 +12835,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="405"/>
+      <c r="P83" s="418"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="405"/>
+      <c r="P84" s="418"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -13035,7 +13035,7 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="406"/>
+      <c r="P85" s="419"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="86" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A86" s="51" t="s">
         <v>190</v>
       </c>
@@ -13130,7 +13130,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="425" t="s">
+      <c r="P86" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13198,7 +13198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="87" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A87" s="271" t="s">
         <v>190</v>
       </c>
@@ -13239,7 +13239,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="426"/>
+      <c r="P87" s="429"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="88" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A88" s="271" t="s">
         <v>190</v>
       </c>
@@ -13346,7 +13346,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="426"/>
+      <c r="P88" s="429"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="89" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A89" s="271" t="s">
         <v>190</v>
       </c>
@@ -13453,7 +13453,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="426"/>
+      <c r="P89" s="429"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="90" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A90" s="271" t="s">
         <v>190</v>
       </c>
@@ -13560,7 +13560,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="427"/>
+      <c r="P90" s="430"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A91" s="51" t="s">
         <v>194</v>
       </c>
@@ -13667,7 +13667,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="425" t="s">
+      <c r="P91" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13718,7 +13718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="92" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A92" s="278" t="s">
         <v>194</v>
       </c>
@@ -13759,7 +13759,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="426"/>
+      <c r="P92" s="429"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="93" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A93" s="278" t="s">
         <v>194</v>
       </c>
@@ -13849,7 +13849,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="426"/>
+      <c r="P93" s="429"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A94" s="278" t="s">
         <v>194</v>
       </c>
@@ -13939,7 +13939,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="426"/>
+      <c r="P94" s="429"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A95" s="278" t="s">
         <v>194</v>
       </c>
@@ -14029,7 +14029,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="427"/>
+      <c r="P95" s="430"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14204,7 +14204,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="401" t="s">
+      <c r="P97" s="431" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -14310,7 +14310,7 @@
       <c r="O98" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P98" s="402"/>
+      <c r="P98" s="409"/>
       <c r="Q98" s="165" t="s">
         <v>100</v>
       </c>
@@ -14410,7 +14410,7 @@
       <c r="O99" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="402"/>
+      <c r="P99" s="409"/>
       <c r="Q99" s="165" t="s">
         <v>102</v>
       </c>
@@ -14510,7 +14510,7 @@
       <c r="O100" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P100" s="402"/>
+      <c r="P100" s="409"/>
       <c r="Q100" s="165" t="s">
         <v>13</v>
       </c>
@@ -14610,7 +14610,7 @@
       <c r="O101" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P101" s="403"/>
+      <c r="P101" s="410"/>
       <c r="Q101" s="165" t="s">
         <v>16</v>
       </c>
@@ -14715,7 +14715,7 @@
       <c r="O102" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P102" s="402" t="s">
+      <c r="P102" s="409" t="s">
         <v>28</v>
       </c>
       <c r="Q102" s="160" t="s">
@@ -14825,7 +14825,7 @@
       <c r="O103" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P103" s="402"/>
+      <c r="P103" s="409"/>
       <c r="Q103" s="165" t="s">
         <v>100</v>
       </c>
@@ -14929,7 +14929,7 @@
       <c r="O104" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P104" s="402"/>
+      <c r="P104" s="409"/>
       <c r="Q104" s="165" t="s">
         <v>102</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="O105" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="402"/>
+      <c r="P105" s="409"/>
       <c r="Q105" s="165" t="s">
         <v>13</v>
       </c>
@@ -15133,7 +15133,7 @@
       <c r="O106" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="403"/>
+      <c r="P106" s="410"/>
       <c r="Q106" s="165" t="s">
         <v>16</v>
       </c>
@@ -15281,7 +15281,7 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="404" t="s">
+      <c r="P108" s="417" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
@@ -15390,7 +15390,7 @@
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="405"/>
+      <c r="P109" s="418"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
@@ -15491,7 +15491,7 @@
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="405"/>
+      <c r="P110" s="418"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
@@ -15590,7 +15590,7 @@
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="405"/>
+      <c r="P111" s="418"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
@@ -15689,7 +15689,7 @@
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="406"/>
+      <c r="P112" s="419"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
@@ -15972,7 +15972,7 @@
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="407" t="s">
+      <c r="P115" s="432" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -16021,14 +16021,16 @@
       <c r="AL115" s="198">
         <v>0.96</v>
       </c>
-      <c r="AM115" s="252">
-        <v>1.2937499999999999E-2</v>
+      <c r="AM115" s="256">
+        <f t="shared" ref="AM115:AM119" si="77">N115*AL115</f>
+        <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN115" s="252">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO115" s="263">
-        <v>154.58937198067599</v>
+      <c r="AO115" s="266">
+        <f t="shared" ref="AO115:AO119" si="78">AK115/AM115</f>
+        <v>36.231884057971023</v>
       </c>
       <c r="AP115" s="263"/>
       <c r="AQ115" s="263"/>
@@ -16068,17 +16070,17 @@
         <v>1</v>
       </c>
       <c r="M116" s="103">
-        <f t="shared" ref="M116:M127" si="77">J116*K116</f>
+        <f t="shared" ref="M116:M127" si="79">J116*K116</f>
         <v>0.25</v>
       </c>
       <c r="N116" s="104">
-        <f t="shared" ref="N116:N134" si="78">M116/20*1.15</f>
+        <f t="shared" ref="N116:N134" si="80">M116/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="408"/>
+      <c r="P116" s="433"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16121,14 +16123,16 @@
       <c r="AL116" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM116" s="253">
-        <v>1.2937499999999999E-2</v>
+      <c r="AM116" s="375">
+        <f t="shared" si="77"/>
+        <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN116" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO116" s="264">
-        <v>154.58937198067599</v>
+      <c r="AO116" s="377">
+        <f t="shared" si="78"/>
+        <v>36.231884057971023</v>
       </c>
       <c r="AP116" s="264"/>
       <c r="AQ116" s="264"/>
@@ -16168,17 +16172,17 @@
         <v>1</v>
       </c>
       <c r="M117" s="103">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.25</v>
       </c>
       <c r="N117" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="408"/>
+      <c r="P117" s="433"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16221,14 +16225,16 @@
       <c r="AL117" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM117" s="253">
-        <v>1.2937499999999999E-2</v>
+      <c r="AM117" s="375">
+        <f t="shared" si="77"/>
+        <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN117" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO117" s="264">
-        <v>154.58937198067599</v>
+      <c r="AO117" s="377">
+        <f t="shared" si="78"/>
+        <v>36.231884057971023</v>
       </c>
       <c r="AP117" s="264"/>
       <c r="AQ117" s="264"/>
@@ -16268,17 +16274,17 @@
         <v>1</v>
       </c>
       <c r="M118" s="103">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.25</v>
       </c>
       <c r="N118" s="104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="408"/>
+      <c r="P118" s="433"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16319,14 +16325,16 @@
       <c r="AL118" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM118" s="253">
-        <v>1.2937499999999999E-2</v>
+      <c r="AM118" s="375">
+        <f t="shared" si="77"/>
+        <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN118" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO118" s="264">
-        <v>154.58937198067599</v>
+      <c r="AO118" s="377">
+        <f t="shared" si="78"/>
+        <v>36.231884057971023</v>
       </c>
       <c r="AP118" s="264"/>
       <c r="AQ118" s="264"/>
@@ -16366,17 +16374,17 @@
         <v>1</v>
       </c>
       <c r="M119" s="110">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>0.25</v>
       </c>
       <c r="N119" s="111">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="409"/>
+      <c r="P119" s="434"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16417,14 +16425,16 @@
       <c r="AL119" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM119" s="254">
-        <v>1.2937499999999999E-2</v>
+      <c r="AM119" s="375">
+        <f t="shared" si="77"/>
+        <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN119" s="254">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO119" s="265">
-        <v>154.58937198067599</v>
+      <c r="AO119" s="377">
+        <f t="shared" si="78"/>
+        <v>36.231884057971023</v>
       </c>
       <c r="AP119" s="265"/>
       <c r="AQ119" s="265"/>
@@ -16433,7 +16443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="120" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A120" s="42" t="s">
         <v>222</v>
       </c>
@@ -16455,24 +16465,24 @@
         <v>4</v>
       </c>
       <c r="K120" s="115">
-        <f t="shared" ref="K120:K134" si="79">4/8</f>
+        <f t="shared" ref="K120:K134" si="81">4/8</f>
         <v>0.5</v>
       </c>
       <c r="L120" s="116">
         <v>1</v>
       </c>
       <c r="M120" s="117">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>2</v>
       </c>
-      <c r="N120" s="434">
-        <f t="shared" si="78"/>
+      <c r="N120" s="407">
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="425" t="s">
+      <c r="P120" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16518,15 +16528,15 @@
         <v>0.95</v>
       </c>
       <c r="AM120" s="256">
-        <f t="shared" ref="AM120:AM134" si="80">N120*AL120</f>
+        <f t="shared" ref="AM120:AM134" si="82">N120*AL120</f>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN120" s="256">
-        <f t="shared" ref="AN120:AN134" si="81">N120-AM120</f>
+        <f t="shared" ref="AN120:AN134" si="83">N120-AM120</f>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO120" s="266">
-        <f t="shared" ref="AO120:AO134" si="82">AK120/AM120</f>
+        <f t="shared" ref="AO120:AO134" si="84">AK120/AM120</f>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP120" s="263"/>
@@ -16536,7 +16546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="121" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A121" s="65" t="s">
         <v>222</v>
       </c>
@@ -16551,31 +16561,31 @@
         <v>223</v>
       </c>
       <c r="H121" s="67"/>
-      <c r="I121" s="429" t="s">
+      <c r="I121" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J121" s="430">
+      <c r="J121" s="403">
         <v>4</v>
       </c>
       <c r="K121" s="293">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="L121" s="294">
+        <v>1</v>
+      </c>
+      <c r="M121" s="372">
         <f t="shared" si="79"/>
-        <v>0.5</v>
-      </c>
-      <c r="L121" s="294">
-        <v>1</v>
-      </c>
-      <c r="M121" s="372">
-        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="N121" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="426"/>
+      <c r="P121" s="429"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16615,19 +16625,19 @@
       <c r="AK121" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL121" s="431">
+      <c r="AL121" s="404">
         <v>0.95</v>
       </c>
       <c r="AM121" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN121" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO121" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP121" s="270"/>
@@ -16637,7 +16647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="122" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A122" s="65" t="s">
         <v>222</v>
       </c>
@@ -16652,31 +16662,31 @@
         <v>223</v>
       </c>
       <c r="H122" s="67"/>
-      <c r="I122" s="429" t="s">
+      <c r="I122" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J122" s="430">
+      <c r="J122" s="403">
         <v>4</v>
       </c>
       <c r="K122" s="293">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="L122" s="294">
+        <v>1</v>
+      </c>
+      <c r="M122" s="372">
         <f t="shared" si="79"/>
-        <v>0.5</v>
-      </c>
-      <c r="L122" s="294">
-        <v>1</v>
-      </c>
-      <c r="M122" s="372">
-        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="N122" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="426"/>
+      <c r="P122" s="429"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16716,19 +16726,19 @@
       <c r="AK122" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL122" s="431">
+      <c r="AL122" s="404">
         <v>0.95</v>
       </c>
       <c r="AM122" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN122" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO122" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP122" s="270"/>
@@ -16738,7 +16748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="123" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A123" s="65" t="s">
         <v>222</v>
       </c>
@@ -16753,31 +16763,31 @@
         <v>223</v>
       </c>
       <c r="H123" s="67"/>
-      <c r="I123" s="429" t="s">
+      <c r="I123" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J123" s="430">
+      <c r="J123" s="403">
         <v>4</v>
       </c>
       <c r="K123" s="293">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="L123" s="294">
+        <v>1</v>
+      </c>
+      <c r="M123" s="372">
         <f t="shared" si="79"/>
-        <v>0.5</v>
-      </c>
-      <c r="L123" s="294">
-        <v>1</v>
-      </c>
-      <c r="M123" s="372">
-        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="N123" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="426"/>
+      <c r="P123" s="429"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16817,19 +16827,19 @@
       <c r="AK123" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL123" s="431">
+      <c r="AL123" s="404">
         <v>0.95</v>
       </c>
       <c r="AM123" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN123" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO123" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP123" s="270"/>
@@ -16839,7 +16849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="124" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A124" s="284" t="s">
         <v>222</v>
       </c>
@@ -16854,31 +16864,31 @@
         <v>223</v>
       </c>
       <c r="H124" s="68"/>
-      <c r="I124" s="429" t="s">
+      <c r="I124" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J124" s="430">
+      <c r="J124" s="403">
         <v>4</v>
       </c>
       <c r="K124" s="293">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="L124" s="294">
+        <v>1</v>
+      </c>
+      <c r="M124" s="372">
         <f t="shared" si="79"/>
-        <v>0.5</v>
-      </c>
-      <c r="L124" s="294">
-        <v>1</v>
-      </c>
-      <c r="M124" s="372">
-        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="N124" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="427"/>
+      <c r="P124" s="430"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -16918,19 +16928,19 @@
       <c r="AK124" s="338">
         <v>0.54</v>
       </c>
-      <c r="AL124" s="431">
+      <c r="AL124" s="404">
         <v>0.95</v>
       </c>
       <c r="AM124" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN124" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO124" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP124" s="344"/>
@@ -16940,7 +16950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
+    <row r="125" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A125" s="42" t="s">
         <v>226</v>
       </c>
@@ -16962,24 +16972,24 @@
         <v>4</v>
       </c>
       <c r="K125" s="115">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="L125" s="116">
+        <v>1</v>
+      </c>
+      <c r="M125" s="117">
         <f t="shared" si="79"/>
-        <v>0.5</v>
-      </c>
-      <c r="L125" s="116">
-        <v>1</v>
-      </c>
-      <c r="M125" s="117">
-        <f t="shared" si="77"/>
         <v>2</v>
       </c>
-      <c r="N125" s="434">
-        <f t="shared" si="78"/>
+      <c r="N125" s="407">
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="O125" s="433" t="s">
+      <c r="O125" s="406" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="425" t="s">
+      <c r="P125" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17025,15 +17035,15 @@
         <v>0.95</v>
       </c>
       <c r="AM125" s="256">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN125" s="256">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO125" s="266">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP125" s="263"/>
@@ -17043,7 +17053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="126" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A126" s="45" t="s">
         <v>226</v>
       </c>
@@ -17058,31 +17068,31 @@
         <v>227</v>
       </c>
       <c r="H126" s="67"/>
-      <c r="I126" s="429" t="s">
+      <c r="I126" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J126" s="430">
+      <c r="J126" s="403">
         <v>4</v>
       </c>
       <c r="K126" s="293">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="L126" s="294">
+        <v>1</v>
+      </c>
+      <c r="M126" s="372">
         <f t="shared" si="79"/>
-        <v>0.5</v>
-      </c>
-      <c r="L126" s="294">
-        <v>1</v>
-      </c>
-      <c r="M126" s="372">
-        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="N126" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="426"/>
+      <c r="P126" s="429"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17122,19 +17132,19 @@
       <c r="AK126" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL126" s="431">
+      <c r="AL126" s="404">
         <v>0.95</v>
       </c>
       <c r="AM126" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN126" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO126" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP126" s="264"/>
@@ -17144,7 +17154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="127" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A127" s="45" t="s">
         <v>226</v>
       </c>
@@ -17159,31 +17169,31 @@
         <v>227</v>
       </c>
       <c r="H127" s="67"/>
-      <c r="I127" s="429" t="s">
+      <c r="I127" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J127" s="430">
+      <c r="J127" s="403">
         <v>4</v>
       </c>
       <c r="K127" s="293">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="L127" s="294">
+        <v>1</v>
+      </c>
+      <c r="M127" s="372">
         <f t="shared" si="79"/>
-        <v>0.5</v>
-      </c>
-      <c r="L127" s="294">
-        <v>1</v>
-      </c>
-      <c r="M127" s="372">
-        <f t="shared" si="77"/>
         <v>2</v>
       </c>
       <c r="N127" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="426"/>
+      <c r="P127" s="429"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17223,19 +17233,19 @@
       <c r="AK127" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL127" s="431">
+      <c r="AL127" s="404">
         <v>0.95</v>
       </c>
       <c r="AM127" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN127" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO127" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP127" s="264"/>
@@ -17245,7 +17255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="128" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A128" s="45" t="s">
         <v>226</v>
       </c>
@@ -17260,31 +17270,31 @@
         <v>227</v>
       </c>
       <c r="H128" s="67"/>
-      <c r="I128" s="429" t="s">
+      <c r="I128" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J128" s="430">
+      <c r="J128" s="403">
         <v>4</v>
       </c>
       <c r="K128" s="293">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="L128" s="294">
         <v>1</v>
       </c>
       <c r="M128" s="372">
-        <f t="shared" ref="M128:M134" si="83">J128*K128</f>
+        <f t="shared" ref="M128:M134" si="85">J128*K128</f>
         <v>2</v>
       </c>
       <c r="N128" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="426"/>
+      <c r="P128" s="429"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17324,19 +17334,19 @@
       <c r="AK128" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL128" s="431">
+      <c r="AL128" s="404">
         <v>0.95</v>
       </c>
       <c r="AM128" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN128" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO128" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP128" s="264"/>
@@ -17346,7 +17356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
+    <row r="129" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
       <c r="A129" s="62" t="s">
         <v>226</v>
       </c>
@@ -17361,31 +17371,31 @@
         <v>227</v>
       </c>
       <c r="H129" s="68"/>
-      <c r="I129" s="429" t="s">
+      <c r="I129" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J129" s="430">
+      <c r="J129" s="403">
         <v>4</v>
       </c>
       <c r="K129" s="293">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="L129" s="294">
         <v>1</v>
       </c>
       <c r="M129" s="372">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="N129" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="427"/>
+      <c r="P129" s="430"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17425,19 +17435,19 @@
       <c r="AK129" s="400">
         <v>0.27</v>
       </c>
-      <c r="AL129" s="431">
+      <c r="AL129" s="404">
         <v>0.95</v>
       </c>
       <c r="AM129" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN129" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO129" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP129" s="269"/>
@@ -17447,7 +17457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="130" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="42" t="s">
         <v>228</v>
       </c>
@@ -17469,24 +17479,24 @@
         <v>4</v>
       </c>
       <c r="K130" s="115">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="L130" s="116">
         <v>1</v>
       </c>
       <c r="M130" s="117">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
-      <c r="N130" s="434">
-        <f t="shared" si="78"/>
+      <c r="N130" s="407">
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="425" t="s">
+      <c r="P130" s="428" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17532,15 +17542,15 @@
         <v>0.85</v>
       </c>
       <c r="AM130" s="256">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.774999999999999E-2</v>
       </c>
       <c r="AN130" s="256">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="AO130" s="266">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP130" s="263"/>
@@ -17550,7 +17560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="131" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="45" t="s">
         <v>228</v>
       </c>
@@ -17565,31 +17575,31 @@
         <v>229</v>
       </c>
       <c r="H131" s="67"/>
-      <c r="I131" s="429" t="s">
+      <c r="I131" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J131" s="430">
+      <c r="J131" s="403">
         <v>4</v>
       </c>
       <c r="K131" s="293">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="L131" s="294">
         <v>1</v>
       </c>
       <c r="M131" s="372">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="N131" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="426"/>
+      <c r="P131" s="429"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17629,19 +17639,19 @@
       <c r="AK131" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL131" s="431">
+      <c r="AL131" s="404">
         <v>0.85</v>
       </c>
       <c r="AM131" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.774999999999999E-2</v>
       </c>
       <c r="AN131" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="AO131" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP131" s="264"/>
@@ -17651,7 +17661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="132" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="45" t="s">
         <v>228</v>
       </c>
@@ -17666,31 +17676,31 @@
         <v>229</v>
       </c>
       <c r="H132" s="67"/>
-      <c r="I132" s="429" t="s">
+      <c r="I132" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J132" s="430">
+      <c r="J132" s="403">
         <v>4</v>
       </c>
       <c r="K132" s="293">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="L132" s="294">
         <v>1</v>
       </c>
       <c r="M132" s="372">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="N132" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="426"/>
+      <c r="P132" s="429"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17730,19 +17740,19 @@
       <c r="AK132" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL132" s="431">
+      <c r="AL132" s="404">
         <v>0.85</v>
       </c>
       <c r="AM132" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.774999999999999E-2</v>
       </c>
       <c r="AN132" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="AO132" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP132" s="264"/>
@@ -17752,7 +17762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="133" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="45" t="s">
         <v>228</v>
       </c>
@@ -17767,31 +17777,31 @@
         <v>229</v>
       </c>
       <c r="H133" s="67"/>
-      <c r="I133" s="429" t="s">
+      <c r="I133" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J133" s="430">
+      <c r="J133" s="403">
         <v>4</v>
       </c>
       <c r="K133" s="293">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="L133" s="294">
         <v>1</v>
       </c>
       <c r="M133" s="372">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="N133" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="426"/>
+      <c r="P133" s="429"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -17831,19 +17841,19 @@
       <c r="AK133" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL133" s="431">
+      <c r="AL133" s="404">
         <v>0.85</v>
       </c>
       <c r="AM133" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.774999999999999E-2</v>
       </c>
       <c r="AN133" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="AO133" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP133" s="264"/>
@@ -17853,7 +17863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
+    <row r="134" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="62" t="s">
         <v>228</v>
       </c>
@@ -17868,31 +17878,31 @@
         <v>229</v>
       </c>
       <c r="H134" s="68"/>
-      <c r="I134" s="429" t="s">
+      <c r="I134" s="402" t="s">
         <v>310</v>
       </c>
-      <c r="J134" s="430">
+      <c r="J134" s="403">
         <v>4</v>
       </c>
       <c r="K134" s="293">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0.5</v>
       </c>
       <c r="L134" s="294">
         <v>1</v>
       </c>
       <c r="M134" s="372">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2</v>
       </c>
       <c r="N134" s="296">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="427"/>
+      <c r="P134" s="430"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -17932,19 +17942,19 @@
       <c r="AK134" s="338">
         <v>0.5</v>
       </c>
-      <c r="AL134" s="431">
+      <c r="AL134" s="404">
         <v>0.85</v>
       </c>
       <c r="AM134" s="338">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>9.774999999999999E-2</v>
       </c>
       <c r="AN134" s="338">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="AO134" s="343">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP134" s="269"/>
@@ -17992,7 +18002,7 @@
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="401" t="s">
+      <c r="P135" s="431" t="s">
         <v>20</v>
       </c>
       <c r="Q135" s="160" t="s">
@@ -18090,7 +18100,7 @@
       <c r="O136" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P136" s="402"/>
+      <c r="P136" s="409"/>
       <c r="Q136" s="165" t="s">
         <v>100</v>
       </c>
@@ -18186,7 +18196,7 @@
       <c r="O137" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P137" s="402"/>
+      <c r="P137" s="409"/>
       <c r="Q137" s="165" t="s">
         <v>102</v>
       </c>
@@ -18278,7 +18288,7 @@
       <c r="O138" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P138" s="402"/>
+      <c r="P138" s="409"/>
       <c r="Q138" s="165" t="s">
         <v>13</v>
       </c>
@@ -18368,7 +18378,7 @@
       <c r="O139" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P139" s="403"/>
+      <c r="P139" s="410"/>
       <c r="Q139" s="165" t="s">
         <v>16</v>
       </c>
@@ -18452,7 +18462,7 @@
         <v>0.25</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="401" t="s">
+      <c r="P140" s="431" t="s">
         <v>4</v>
       </c>
       <c r="Q140" s="160" t="s">
@@ -18537,15 +18547,15 @@
         <v>1</v>
       </c>
       <c r="M141" s="372">
-        <f t="shared" ref="M141:M144" si="84">J141*K141</f>
+        <f t="shared" ref="M141:M144" si="86">J141*K141</f>
         <v>0.25</v>
       </c>
       <c r="N141" s="372">
-        <f t="shared" ref="N141:N144" si="85">K141*L141</f>
+        <f t="shared" ref="N141:N144" si="87">K141*L141</f>
         <v>0.25</v>
       </c>
       <c r="O141" s="373"/>
-      <c r="P141" s="402"/>
+      <c r="P141" s="409"/>
       <c r="Q141" s="165" t="s">
         <v>100</v>
       </c>
@@ -18622,15 +18632,15 @@
         <v>1</v>
       </c>
       <c r="M142" s="372">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0.25</v>
       </c>
       <c r="N142" s="372">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.25</v>
       </c>
       <c r="O142" s="373"/>
-      <c r="P142" s="402"/>
+      <c r="P142" s="409"/>
       <c r="Q142" s="165" t="s">
         <v>102</v>
       </c>
@@ -18707,15 +18717,15 @@
         <v>1</v>
       </c>
       <c r="M143" s="372">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0.25</v>
       </c>
       <c r="N143" s="372">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.25</v>
       </c>
       <c r="O143" s="373"/>
-      <c r="P143" s="402"/>
+      <c r="P143" s="409"/>
       <c r="Q143" s="165" t="s">
         <v>13</v>
       </c>
@@ -18792,15 +18802,15 @@
         <v>1</v>
       </c>
       <c r="M144" s="372">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0.25</v>
       </c>
       <c r="N144" s="372">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.25</v>
       </c>
       <c r="O144" s="373"/>
-      <c r="P144" s="403"/>
+      <c r="P144" s="410"/>
       <c r="Q144" s="178" t="s">
         <v>16</v>
       </c>
@@ -18854,12 +18864,24 @@
     <filterColumn colId="22">
       <filters>
         <filter val="寇鴻飛"/>
-        <filter val="袁奇"/>
-        <filter val="袁奇、陳爽"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -18872,20 +18894,6 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
   </mergeCells>
   <phoneticPr fontId="35"/>
   <dataValidations count="1">
@@ -20162,18 +20170,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20309,13 +20317,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFC83D4-2EA7-479D-B248-273FFACDC3E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7031BA56-B95E-4ADB-AED4-11347A5632AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2551,7 +2551,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3560,14 +3560,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3667,19 +3659,10 @@
     <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3780,9 +3763,6 @@
     <xf numFmtId="181" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3882,15 +3862,45 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3909,15 +3919,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3942,26 +3943,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4326,174 +4365,174 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="351" customWidth="1"/>
-    <col min="2" max="3" width="8.75" style="351"/>
-    <col min="4" max="4" width="17.125" style="351" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="351"/>
-    <col min="6" max="6" width="17.875" style="351" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="351"/>
+    <col min="1" max="1" width="21" style="346" customWidth="1"/>
+    <col min="2" max="3" width="8.75" style="346"/>
+    <col min="4" max="4" width="17.125" style="346" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="346"/>
+    <col min="6" max="6" width="17.875" style="346" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="346"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="346" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="351" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="352" t="s">
+      <c r="B1" s="346" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="347" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="353" t="s">
+      <c r="D2" s="348" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="354" t="s">
+      <c r="F2" s="349" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="351" t="s">
+      <c r="B3" s="346" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="353" t="s">
+      <c r="D3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="354" t="s">
+      <c r="F3" s="349" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="348" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="351" t="s">
+      <c r="B4" s="346" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="353" t="s">
+      <c r="D4" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="354" t="s">
+      <c r="F4" s="349" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="353" t="s">
+      <c r="A5" s="348" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="351" t="s">
+      <c r="B5" s="346" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="353" t="s">
+      <c r="D5" s="348" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="354" t="s">
+      <c r="F5" s="349" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="354" t="s">
+      <c r="A6" s="349" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="351" t="s">
+      <c r="B6" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="353" t="s">
+      <c r="D6" s="348" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="354" t="s">
+      <c r="F6" s="349" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="353" t="s">
+      <c r="A7" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="351" t="s">
+      <c r="B7" s="346" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="353" t="s">
+      <c r="D7" s="348" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="353" t="s">
+      <c r="A8" s="348" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="354" t="s">
+      <c r="D8" s="349" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="353" t="s">
+      <c r="A9" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="353" t="s">
+      <c r="D9" s="348" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="349" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="353" t="s">
+      <c r="D10" s="348" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="353" t="s">
+      <c r="A11" s="348" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="353" t="s">
+      <c r="D11" s="348" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="353" t="s">
+      <c r="A12" s="348" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="353" t="s">
+      <c r="D12" s="348" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="353" t="s">
+      <c r="A13" s="348" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="353" t="s">
+      <c r="D13" s="348" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="353" t="s">
+      <c r="A14" s="348" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="353" t="s">
+      <c r="D14" s="348" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="353" t="s">
+      <c r="A15" s="348" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="353" t="s">
+      <c r="D15" s="348" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="353" t="s">
+      <c r="A16" s="348" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="353" t="s">
+      <c r="A17" s="348" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4520,24 +4559,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="341" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="346" t="s">
+      <c r="B1" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="346" t="s">
+      <c r="C1" s="341" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="342" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="348">
-        <v>1</v>
-      </c>
-      <c r="C2" s="348">
+      <c r="B2" s="343">
+        <v>1</v>
+      </c>
+      <c r="C2" s="343">
         <v>1</v>
       </c>
     </row>
@@ -4545,10 +4584,10 @@
       <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="348">
+      <c r="B3" s="343">
         <v>3</v>
       </c>
-      <c r="C3" s="348">
+      <c r="C3" s="343">
         <v>3</v>
       </c>
     </row>
@@ -4556,10 +4595,10 @@
       <c r="A4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="348">
+      <c r="B4" s="343">
         <v>5</v>
       </c>
-      <c r="C4" s="348">
+      <c r="C4" s="343">
         <v>2</v>
       </c>
     </row>
@@ -4567,10 +4606,10 @@
       <c r="A5" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="348">
+      <c r="B5" s="343">
         <v>6</v>
       </c>
-      <c r="C5" s="348">
+      <c r="C5" s="343">
         <v>6</v>
       </c>
     </row>
@@ -4578,10 +4617,10 @@
       <c r="A6" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="348">
+      <c r="B6" s="343">
         <v>15</v>
       </c>
-      <c r="C6" s="348">
+      <c r="C6" s="343">
         <v>11</v>
       </c>
     </row>
@@ -4589,22 +4628,22 @@
       <c r="A7" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="348">
+      <c r="B7" s="343">
         <v>3</v>
       </c>
-      <c r="C7" s="348">
+      <c r="C7" s="343">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="349" t="s">
+      <c r="A8" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="350">
+      <c r="B8" s="345">
         <f>SUM(B2:B7)</f>
         <v>33</v>
       </c>
-      <c r="C8" s="350">
+      <c r="C8" s="345">
         <f>SUM(C2:C7)</f>
         <v>26</v>
       </c>
@@ -4618,12 +4657,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Z1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN149" sqref="AN149"/>
+      <selection pane="bottomLeft" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4807,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A2" s="37" t="s">
         <v>81</v>
       </c>
@@ -4851,10 +4889,10 @@
         <f t="shared" ref="N2" si="1">M2/20*1.15</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="O2" s="391" t="s">
+      <c r="O2" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="408" t="s">
+      <c r="P2" s="414" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -4900,11 +4938,11 @@
         <v>0.9</v>
       </c>
       <c r="AM2" s="250">
-        <f t="shared" ref="AM2:AM24" si="2">N2*AL2</f>
+        <f t="shared" ref="AM2:AM28" si="2">N2*AL2</f>
         <v>1.0349999999999999</v>
       </c>
       <c r="AN2" s="250">
-        <f t="shared" ref="AN2:AN24" si="3">N2-AM2</f>
+        <f t="shared" ref="AN2:AN28" si="3">N2-AM2</f>
         <v>0.11499999999999999</v>
       </c>
       <c r="AO2" s="262">
@@ -4918,13 +4956,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
-      <c r="D3" s="398" t="s">
+      <c r="D3" s="392" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="45"/>
@@ -4959,7 +4997,7 @@
       <c r="O3" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="409"/>
+      <c r="P3" s="403"/>
       <c r="Q3" s="165" t="s">
         <v>100</v>
       </c>
@@ -4983,19 +5021,19 @@
       <c r="Y3" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="392"/>
+      <c r="Z3" s="386"/>
       <c r="AA3" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB3" s="393"/>
-      <c r="AC3" s="393"/>
-      <c r="AD3" s="397"/>
-      <c r="AE3" s="397"/>
-      <c r="AF3" s="397"/>
-      <c r="AG3" s="397"/>
-      <c r="AH3" s="393"/>
-      <c r="AI3" s="393"/>
-      <c r="AJ3" s="393"/>
+      <c r="AB3" s="387"/>
+      <c r="AC3" s="387"/>
+      <c r="AD3" s="391"/>
+      <c r="AE3" s="391"/>
+      <c r="AF3" s="391"/>
+      <c r="AG3" s="391"/>
+      <c r="AH3" s="387"/>
+      <c r="AI3" s="387"/>
+      <c r="AJ3" s="387"/>
       <c r="AK3" s="253">
         <v>2.5</v>
       </c>
@@ -5020,13 +5058,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A4" s="45" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
-      <c r="D4" s="398" t="s">
+      <c r="D4" s="392" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="45"/>
@@ -5061,7 +5099,7 @@
       <c r="O4" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="409"/>
+      <c r="P4" s="403"/>
       <c r="Q4" s="165" t="s">
         <v>102</v>
       </c>
@@ -5085,19 +5123,19 @@
       <c r="Y4" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="392"/>
+      <c r="Z4" s="386"/>
       <c r="AA4" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB4" s="393"/>
-      <c r="AC4" s="393"/>
-      <c r="AD4" s="397"/>
-      <c r="AE4" s="397"/>
-      <c r="AF4" s="397"/>
-      <c r="AG4" s="397"/>
-      <c r="AH4" s="393"/>
-      <c r="AI4" s="393"/>
-      <c r="AJ4" s="393"/>
+      <c r="AB4" s="387"/>
+      <c r="AC4" s="387"/>
+      <c r="AD4" s="391"/>
+      <c r="AE4" s="391"/>
+      <c r="AF4" s="391"/>
+      <c r="AG4" s="391"/>
+      <c r="AH4" s="387"/>
+      <c r="AI4" s="387"/>
+      <c r="AJ4" s="387"/>
       <c r="AK4" s="253">
         <v>2.5</v>
       </c>
@@ -5122,13 +5160,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A5" s="45" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="398" t="s">
+      <c r="D5" s="392" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="45"/>
@@ -5163,7 +5201,7 @@
       <c r="O5" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="409"/>
+      <c r="P5" s="403"/>
       <c r="Q5" s="165" t="s">
         <v>13</v>
       </c>
@@ -5183,19 +5221,19 @@
       <c r="Y5" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" s="392"/>
+      <c r="Z5" s="386"/>
       <c r="AA5" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB5" s="393"/>
-      <c r="AC5" s="393"/>
-      <c r="AD5" s="397"/>
-      <c r="AE5" s="397"/>
-      <c r="AF5" s="397"/>
-      <c r="AG5" s="397"/>
-      <c r="AH5" s="393"/>
-      <c r="AI5" s="393"/>
-      <c r="AJ5" s="393"/>
+      <c r="AB5" s="387"/>
+      <c r="AC5" s="387"/>
+      <c r="AD5" s="391"/>
+      <c r="AE5" s="391"/>
+      <c r="AF5" s="391"/>
+      <c r="AG5" s="391"/>
+      <c r="AH5" s="387"/>
+      <c r="AI5" s="387"/>
+      <c r="AJ5" s="387"/>
       <c r="AK5" s="253">
         <v>2.5</v>
       </c>
@@ -5220,13 +5258,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A6" s="45" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
-      <c r="D6" s="398" t="s">
+      <c r="D6" s="392" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="45"/>
@@ -5261,14 +5299,14 @@
       <c r="O6" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="410"/>
+      <c r="P6" s="404"/>
       <c r="Q6" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="395"/>
-      <c r="S6" s="395"/>
-      <c r="T6" s="395"/>
-      <c r="U6" s="396"/>
+      <c r="R6" s="389"/>
+      <c r="S6" s="389"/>
+      <c r="T6" s="389"/>
+      <c r="U6" s="390"/>
       <c r="V6" s="163" t="s">
         <v>88</v>
       </c>
@@ -5281,19 +5319,19 @@
       <c r="Y6" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" s="392"/>
+      <c r="Z6" s="386"/>
       <c r="AA6" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB6" s="393"/>
-      <c r="AC6" s="393"/>
-      <c r="AD6" s="397"/>
-      <c r="AE6" s="397"/>
-      <c r="AF6" s="397"/>
-      <c r="AG6" s="397"/>
-      <c r="AH6" s="393"/>
-      <c r="AI6" s="393"/>
-      <c r="AJ6" s="393"/>
+      <c r="AB6" s="387"/>
+      <c r="AC6" s="387"/>
+      <c r="AD6" s="391"/>
+      <c r="AE6" s="391"/>
+      <c r="AF6" s="391"/>
+      <c r="AG6" s="391"/>
+      <c r="AH6" s="387"/>
+      <c r="AI6" s="387"/>
+      <c r="AJ6" s="387"/>
       <c r="AK6" s="253">
         <v>2.5</v>
       </c>
@@ -5318,7 +5356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="31" customFormat="1" ht="33" hidden="1">
+    <row r="7" spans="1:45" s="31" customFormat="1" ht="33">
       <c r="A7" s="42" t="s">
         <v>92</v>
       </c>
@@ -5358,7 +5396,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="420" t="s">
+      <c r="P7" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5414,7 +5452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="8" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A8" s="45" t="s">
         <v>92</v>
       </c>
@@ -5454,7 +5492,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="421"/>
+      <c r="P8" s="422"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5508,7 +5546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="9" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A9" s="45" t="s">
         <v>92</v>
       </c>
@@ -5548,7 +5586,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="421"/>
+      <c r="P9" s="422"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5602,7 +5640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="10" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A10" s="45" t="s">
         <v>92</v>
       </c>
@@ -5642,7 +5680,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="421"/>
+      <c r="P10" s="422"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5696,7 +5734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="11" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A11" s="48" t="s">
         <v>92</v>
       </c>
@@ -5736,7 +5774,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="422"/>
+      <c r="P11" s="423"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5790,7 +5828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="12" spans="1:45" s="32" customFormat="1">
       <c r="A12" s="51" t="s">
         <v>103</v>
       </c>
@@ -5830,7 +5868,7 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="417" t="s">
+      <c r="P12" s="405" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="160" t="s">
@@ -5848,7 +5886,7 @@
       <c r="U12" s="166">
         <v>43913</v>
       </c>
-      <c r="V12" s="358"/>
+      <c r="V12" s="353"/>
       <c r="W12" s="73" t="s">
         <v>106</v>
       </c>
@@ -5885,7 +5923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="13" spans="1:45" s="32" customFormat="1">
       <c r="A13" s="56" t="s">
         <v>103</v>
       </c>
@@ -5925,7 +5963,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="418"/>
+      <c r="P13" s="406"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -5939,14 +5977,14 @@
         <v>43914</v>
       </c>
       <c r="U13" s="166"/>
-      <c r="V13" s="358"/>
+      <c r="V13" s="353"/>
       <c r="W13" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X13" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y13" s="383" t="s">
+      <c r="Y13" s="377" t="s">
         <v>90</v>
       </c>
       <c r="Z13" s="105"/>
@@ -5962,19 +6000,19 @@
       <c r="AH13" s="221"/>
       <c r="AI13" s="221"/>
       <c r="AJ13" s="221"/>
-      <c r="AK13" s="325"/>
-      <c r="AL13" s="382"/>
-      <c r="AM13" s="325"/>
-      <c r="AN13" s="325"/>
-      <c r="AO13" s="337"/>
-      <c r="AP13" s="390"/>
-      <c r="AQ13" s="390"/>
-      <c r="AR13" s="390"/>
+      <c r="AK13" s="323"/>
+      <c r="AL13" s="376"/>
+      <c r="AM13" s="323"/>
+      <c r="AN13" s="323"/>
+      <c r="AO13" s="335"/>
+      <c r="AP13" s="384"/>
+      <c r="AQ13" s="384"/>
+      <c r="AR13" s="384"/>
       <c r="AS13" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="14" spans="1:45" s="32" customFormat="1">
       <c r="A14" s="56" t="s">
         <v>103</v>
       </c>
@@ -6014,7 +6052,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="418"/>
+      <c r="P14" s="406"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6026,17 +6064,17 @@
       </c>
       <c r="T14" s="166"/>
       <c r="U14" s="166"/>
-      <c r="V14" s="358"/>
+      <c r="V14" s="353"/>
       <c r="W14" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X14" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y14" s="383" t="s">
+      <c r="Y14" s="377" t="s">
         <v>90</v>
       </c>
-      <c r="Z14" s="399"/>
+      <c r="Z14" s="393"/>
       <c r="AA14" s="177" t="s">
         <v>108</v>
       </c>
@@ -6049,19 +6087,19 @@
       <c r="AH14" s="221"/>
       <c r="AI14" s="221"/>
       <c r="AJ14" s="221"/>
-      <c r="AK14" s="325"/>
-      <c r="AL14" s="382"/>
-      <c r="AM14" s="325"/>
-      <c r="AN14" s="325"/>
-      <c r="AO14" s="337"/>
-      <c r="AP14" s="390"/>
-      <c r="AQ14" s="390"/>
-      <c r="AR14" s="390"/>
+      <c r="AK14" s="323"/>
+      <c r="AL14" s="376"/>
+      <c r="AM14" s="323"/>
+      <c r="AN14" s="323"/>
+      <c r="AO14" s="335"/>
+      <c r="AP14" s="384"/>
+      <c r="AQ14" s="384"/>
+      <c r="AR14" s="384"/>
       <c r="AS14" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" s="32" customFormat="1" hidden="1">
+    <row r="15" spans="1:45" s="32" customFormat="1">
       <c r="A15" s="56" t="s">
         <v>103</v>
       </c>
@@ -6101,7 +6139,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="418"/>
+      <c r="P15" s="406"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6113,14 +6151,14 @@
       </c>
       <c r="T15" s="166"/>
       <c r="U15" s="166"/>
-      <c r="V15" s="358"/>
+      <c r="V15" s="353"/>
       <c r="W15" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X15" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" s="383" t="s">
+      <c r="Y15" s="377" t="s">
         <v>90</v>
       </c>
       <c r="Z15" s="148"/>
@@ -6136,19 +6174,19 @@
       <c r="AH15" s="221"/>
       <c r="AI15" s="221"/>
       <c r="AJ15" s="221"/>
-      <c r="AK15" s="325"/>
-      <c r="AL15" s="382"/>
-      <c r="AM15" s="325"/>
-      <c r="AN15" s="325"/>
-      <c r="AO15" s="337"/>
-      <c r="AP15" s="390"/>
-      <c r="AQ15" s="390"/>
-      <c r="AR15" s="390"/>
+      <c r="AK15" s="323"/>
+      <c r="AL15" s="376"/>
+      <c r="AM15" s="323"/>
+      <c r="AN15" s="323"/>
+      <c r="AO15" s="335"/>
+      <c r="AP15" s="384"/>
+      <c r="AQ15" s="384"/>
+      <c r="AR15" s="384"/>
       <c r="AS15" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="31" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:45" s="31" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>103</v>
       </c>
@@ -6190,7 +6228,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="419"/>
+      <c r="P16" s="407"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6198,14 +6236,14 @@
       <c r="S16" s="166"/>
       <c r="T16" s="166"/>
       <c r="U16" s="166"/>
-      <c r="V16" s="358"/>
+      <c r="V16" s="353"/>
       <c r="W16" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X16" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y16" s="383" t="s">
+      <c r="Y16" s="377" t="s">
         <v>90</v>
       </c>
       <c r="Z16" s="105"/>
@@ -6221,19 +6259,19 @@
       <c r="AH16" s="223"/>
       <c r="AI16" s="226"/>
       <c r="AJ16" s="73"/>
-      <c r="AK16" s="325"/>
-      <c r="AL16" s="382"/>
-      <c r="AM16" s="325"/>
-      <c r="AN16" s="325"/>
-      <c r="AO16" s="337"/>
-      <c r="AP16" s="337"/>
-      <c r="AQ16" s="337"/>
-      <c r="AR16" s="337"/>
+      <c r="AK16" s="323"/>
+      <c r="AL16" s="376"/>
+      <c r="AM16" s="323"/>
+      <c r="AN16" s="323"/>
+      <c r="AO16" s="335"/>
+      <c r="AP16" s="335"/>
+      <c r="AQ16" s="335"/>
+      <c r="AR16" s="335"/>
       <c r="AS16" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="31" customFormat="1" hidden="1">
+    <row r="17" spans="1:45" s="31" customFormat="1">
       <c r="A17" s="51" t="s">
         <v>110</v>
       </c>
@@ -6309,7 +6347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="18" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A18" s="51" t="s">
         <v>114</v>
       </c>
@@ -6389,7 +6427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
+    <row r="19" spans="1:45" s="31" customFormat="1" ht="28.5">
       <c r="A19" s="59" t="s">
         <v>117</v>
       </c>
@@ -6425,7 +6463,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="423" t="s">
+      <c r="P19" s="424" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6481,7 +6519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="20" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A20" s="45" t="s">
         <v>117</v>
       </c>
@@ -6517,7 +6555,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="424"/>
+      <c r="P20" s="425"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6571,7 +6609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="21" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A21" s="45" t="s">
         <v>117</v>
       </c>
@@ -6607,7 +6645,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="424"/>
+      <c r="P21" s="425"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6661,7 +6699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="22" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A22" s="45" t="s">
         <v>117</v>
       </c>
@@ -6697,7 +6735,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="424"/>
+      <c r="P22" s="425"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6751,7 +6789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="23" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A23" s="62" t="s">
         <v>117</v>
       </c>
@@ -6787,7 +6825,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="425"/>
+      <c r="P23" s="426"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6841,7 +6879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>122</v>
       </c>
@@ -6882,7 +6920,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="426" t="s">
+      <c r="P24" s="427" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -6931,10 +6969,10 @@
       <c r="AH24" s="215"/>
       <c r="AI24" s="215"/>
       <c r="AJ24" s="143"/>
-      <c r="AK24" s="252">
-        <v>0.7</v>
-      </c>
-      <c r="AL24" s="198">
+      <c r="AK24" s="429">
+        <v>0.68</v>
+      </c>
+      <c r="AL24" s="430">
         <v>0.95</v>
       </c>
       <c r="AM24" s="252">
@@ -6947,7 +6985,7 @@
       </c>
       <c r="AO24" s="263">
         <f t="shared" si="9"/>
-        <v>51.258581235697946</v>
+        <v>49.794050343249438</v>
       </c>
       <c r="AP24" s="263"/>
       <c r="AQ24" s="263"/>
@@ -6956,7 +6994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A25" s="45" t="s">
         <v>122</v>
       </c>
@@ -6997,7 +7035,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="415"/>
+      <c r="P25" s="419"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7040,20 +7078,23 @@
       <c r="AH25" s="237"/>
       <c r="AI25" s="237"/>
       <c r="AJ25" s="144"/>
-      <c r="AK25" s="253">
-        <v>0.7</v>
-      </c>
-      <c r="AL25" s="199">
+      <c r="AK25" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL25" s="432">
         <v>0.95</v>
       </c>
-      <c r="AM25" s="253">
-        <v>1.365625E-2</v>
-      </c>
-      <c r="AN25" s="253">
-        <v>7.1875000000000096E-4</v>
-      </c>
-      <c r="AO25" s="264">
-        <v>51.258581235697903</v>
+      <c r="AM25" s="433">
+        <f t="shared" si="2"/>
+        <v>1.3656249999999998E-2</v>
+      </c>
+      <c r="AN25" s="433">
+        <f t="shared" si="3"/>
+        <v>7.1875000000000064E-4</v>
+      </c>
+      <c r="AO25" s="434">
+        <f t="shared" si="9"/>
+        <v>49.794050343249438</v>
       </c>
       <c r="AP25" s="135" t="s">
         <v>10</v>
@@ -7064,7 +7105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A26" s="45" t="s">
         <v>122</v>
       </c>
@@ -7105,7 +7146,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="415"/>
+      <c r="P26" s="419"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7148,20 +7189,23 @@
       <c r="AH26" s="237"/>
       <c r="AI26" s="237"/>
       <c r="AJ26" s="144"/>
-      <c r="AK26" s="253">
-        <v>0.7</v>
-      </c>
-      <c r="AL26" s="199">
+      <c r="AK26" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL26" s="432">
         <v>0.95</v>
       </c>
-      <c r="AM26" s="253">
-        <v>1.365625E-2</v>
-      </c>
-      <c r="AN26" s="253">
-        <v>7.1875000000000096E-4</v>
-      </c>
-      <c r="AO26" s="264">
-        <v>51.258581235697903</v>
+      <c r="AM26" s="433">
+        <f t="shared" si="2"/>
+        <v>1.3656249999999998E-2</v>
+      </c>
+      <c r="AN26" s="433">
+        <f t="shared" si="3"/>
+        <v>7.1875000000000064E-4</v>
+      </c>
+      <c r="AO26" s="434">
+        <f t="shared" si="9"/>
+        <v>49.794050343249438</v>
       </c>
       <c r="AP26" s="135" t="s">
         <v>10</v>
@@ -7172,7 +7216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>122</v>
       </c>
@@ -7213,7 +7257,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="415"/>
+      <c r="P27" s="419"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7256,23 +7300,23 @@
       <c r="AH27" s="217"/>
       <c r="AI27" s="217"/>
       <c r="AJ27" s="135"/>
-      <c r="AK27" s="253">
-        <v>0.7</v>
-      </c>
-      <c r="AL27" s="199">
+      <c r="AK27" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL27" s="432">
         <v>0.95</v>
       </c>
-      <c r="AM27" s="253">
-        <f t="shared" ref="AM27:AM48" si="18">N27*AL27</f>
+      <c r="AM27" s="433">
+        <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN27" s="253">
-        <f t="shared" ref="AN27:AN44" si="19">N27-AM27</f>
+      <c r="AN27" s="433">
+        <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO27" s="264">
-        <f t="shared" ref="AO27:AO28" si="20">AK27/AM27</f>
-        <v>51.258581235697946</v>
+      <c r="AO27" s="434">
+        <f t="shared" si="9"/>
+        <v>49.794050343249438</v>
       </c>
       <c r="AP27" s="264"/>
       <c r="AQ27" s="264"/>
@@ -7281,7 +7325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A28" s="62" t="s">
         <v>122</v>
       </c>
@@ -7312,17 +7356,17 @@
         <v>1</v>
       </c>
       <c r="M28" s="140">
-        <f t="shared" ref="M28" si="21">J28*K28</f>
+        <f t="shared" ref="M28" si="18">J28*K28</f>
         <v>0.25</v>
       </c>
       <c r="N28" s="141">
-        <f t="shared" ref="N28" si="22">M28/20*1.15</f>
+        <f t="shared" ref="N28" si="19">M28/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="427"/>
+      <c r="P28" s="428"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7357,23 +7401,23 @@
       <c r="AH28" s="234"/>
       <c r="AI28" s="234"/>
       <c r="AJ28" s="142"/>
-      <c r="AK28" s="258">
-        <v>0.7</v>
-      </c>
-      <c r="AL28" s="201">
+      <c r="AK28" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL28" s="432">
         <v>0.95</v>
       </c>
-      <c r="AM28" s="258">
-        <f t="shared" si="18"/>
+      <c r="AM28" s="433">
+        <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN28" s="258">
-        <f t="shared" si="19"/>
+      <c r="AN28" s="433">
+        <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO28" s="269">
-        <f t="shared" si="20"/>
-        <v>51.258581235697946</v>
+      <c r="AO28" s="434">
+        <f t="shared" si="9"/>
+        <v>49.794050343249438</v>
       </c>
       <c r="AP28" s="269"/>
       <c r="AQ28" s="269"/>
@@ -7382,7 +7426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>129</v>
       </c>
@@ -7423,7 +7467,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="426" t="s">
+      <c r="P29" s="427" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7466,23 +7510,23 @@
       <c r="AH29" s="143"/>
       <c r="AI29" s="143"/>
       <c r="AJ29" s="143"/>
-      <c r="AK29" s="252">
-        <v>0.8</v>
-      </c>
-      <c r="AL29" s="198">
-        <v>0.9</v>
+      <c r="AK29" s="429">
+        <v>0.68</v>
+      </c>
+      <c r="AL29" s="430">
+        <v>0.97</v>
       </c>
       <c r="AM29" s="252">
-        <f t="shared" si="18"/>
-        <v>1.940625E-2</v>
+        <f t="shared" ref="AM27:AM48" si="20">N29*AL29</f>
+        <v>2.0915624999999997E-2</v>
       </c>
       <c r="AN29" s="252">
-        <f t="shared" si="19"/>
-        <v>2.1562499999999984E-3</v>
+        <f t="shared" ref="AN27:AN44" si="21">N29-AM29</f>
+        <v>6.4687500000000162E-4</v>
       </c>
       <c r="AO29" s="263">
         <f t="shared" si="9"/>
-        <v>41.22383252818036</v>
+        <v>32.511579261915443</v>
       </c>
       <c r="AP29" s="263"/>
       <c r="AQ29" s="263"/>
@@ -7491,7 +7535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A30" s="45" t="s">
         <v>129</v>
       </c>
@@ -7522,17 +7566,17 @@
         <v>1</v>
       </c>
       <c r="M30" s="103">
-        <f t="shared" ref="M30:M33" si="23">J30*K30</f>
+        <f t="shared" ref="M30:M33" si="22">J30*K30</f>
         <v>0.375</v>
       </c>
       <c r="N30" s="104">
-        <f t="shared" ref="N30:N33" si="24">M30/20*1.15</f>
+        <f t="shared" ref="N30:N33" si="23">M30/20*1.15</f>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="415"/>
+      <c r="P30" s="419"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7569,23 +7613,23 @@
       <c r="AH30" s="135"/>
       <c r="AI30" s="135"/>
       <c r="AJ30" s="135"/>
-      <c r="AK30" s="253">
-        <v>0.8</v>
-      </c>
-      <c r="AL30" s="199">
-        <v>0.9</v>
-      </c>
-      <c r="AM30" s="253">
-        <f t="shared" si="18"/>
-        <v>1.940625E-2</v>
-      </c>
-      <c r="AN30" s="253">
-        <f t="shared" si="19"/>
-        <v>2.1562499999999984E-3</v>
-      </c>
-      <c r="AO30" s="264">
-        <f t="shared" ref="AO30:AO33" si="25">AK30/AM30</f>
-        <v>41.22383252818036</v>
+      <c r="AK30" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL30" s="432">
+        <v>0.97</v>
+      </c>
+      <c r="AM30" s="433">
+        <f t="shared" si="20"/>
+        <v>2.0915624999999997E-2</v>
+      </c>
+      <c r="AN30" s="433">
+        <f t="shared" si="21"/>
+        <v>6.4687500000000162E-4</v>
+      </c>
+      <c r="AO30" s="434">
+        <f t="shared" si="9"/>
+        <v>32.511579261915443</v>
       </c>
       <c r="AP30" s="264"/>
       <c r="AQ30" s="264"/>
@@ -7594,7 +7638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A31" s="45" t="s">
         <v>129</v>
       </c>
@@ -7625,17 +7669,17 @@
         <v>1</v>
       </c>
       <c r="M31" s="103">
+        <f t="shared" si="22"/>
+        <v>0.375</v>
+      </c>
+      <c r="N31" s="104">
         <f t="shared" si="23"/>
-        <v>0.375</v>
-      </c>
-      <c r="N31" s="104">
-        <f t="shared" si="24"/>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="415"/>
+      <c r="P31" s="419"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7672,23 +7716,23 @@
       <c r="AH31" s="135"/>
       <c r="AI31" s="135"/>
       <c r="AJ31" s="135"/>
-      <c r="AK31" s="253">
-        <v>0.8</v>
-      </c>
-      <c r="AL31" s="199">
-        <v>0.9</v>
-      </c>
-      <c r="AM31" s="253">
-        <f t="shared" si="18"/>
-        <v>1.940625E-2</v>
-      </c>
-      <c r="AN31" s="253">
-        <f t="shared" si="19"/>
-        <v>2.1562499999999984E-3</v>
-      </c>
-      <c r="AO31" s="264">
-        <f t="shared" si="25"/>
-        <v>41.22383252818036</v>
+      <c r="AK31" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL31" s="432">
+        <v>0.97</v>
+      </c>
+      <c r="AM31" s="433">
+        <f t="shared" si="20"/>
+        <v>2.0915624999999997E-2</v>
+      </c>
+      <c r="AN31" s="433">
+        <f t="shared" si="21"/>
+        <v>6.4687500000000162E-4</v>
+      </c>
+      <c r="AO31" s="434">
+        <f t="shared" si="9"/>
+        <v>32.511579261915443</v>
       </c>
       <c r="AP31" s="264"/>
       <c r="AQ31" s="264"/>
@@ -7697,7 +7741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A32" s="45" t="s">
         <v>129</v>
       </c>
@@ -7728,17 +7772,17 @@
         <v>1</v>
       </c>
       <c r="M32" s="103">
+        <f t="shared" si="22"/>
+        <v>0.375</v>
+      </c>
+      <c r="N32" s="104">
         <f t="shared" si="23"/>
-        <v>0.375</v>
-      </c>
-      <c r="N32" s="104">
-        <f t="shared" si="24"/>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="415"/>
+      <c r="P32" s="419"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7775,23 +7819,23 @@
       <c r="AH32" s="135"/>
       <c r="AI32" s="135"/>
       <c r="AJ32" s="135"/>
-      <c r="AK32" s="253">
-        <v>0.8</v>
-      </c>
-      <c r="AL32" s="199">
-        <v>0.9</v>
-      </c>
-      <c r="AM32" s="253">
-        <f t="shared" si="18"/>
-        <v>1.940625E-2</v>
-      </c>
-      <c r="AN32" s="253">
-        <f t="shared" si="19"/>
-        <v>2.1562499999999984E-3</v>
-      </c>
-      <c r="AO32" s="264">
-        <f t="shared" si="25"/>
-        <v>41.22383252818036</v>
+      <c r="AK32" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL32" s="432">
+        <v>0.97</v>
+      </c>
+      <c r="AM32" s="433">
+        <f t="shared" si="20"/>
+        <v>2.0915624999999997E-2</v>
+      </c>
+      <c r="AN32" s="433">
+        <f t="shared" si="21"/>
+        <v>6.4687500000000162E-4</v>
+      </c>
+      <c r="AO32" s="434">
+        <f t="shared" si="9"/>
+        <v>32.511579261915443</v>
       </c>
       <c r="AP32" s="264"/>
       <c r="AQ32" s="264"/>
@@ -7800,7 +7844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A33" s="62" t="s">
         <v>129</v>
       </c>
@@ -7831,17 +7875,17 @@
         <v>1</v>
       </c>
       <c r="M33" s="140">
+        <f t="shared" si="22"/>
+        <v>0.375</v>
+      </c>
+      <c r="N33" s="141">
         <f t="shared" si="23"/>
-        <v>0.375</v>
-      </c>
-      <c r="N33" s="141">
-        <f t="shared" si="24"/>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="427"/>
+      <c r="P33" s="428"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -7878,23 +7922,23 @@
       <c r="AH33" s="142"/>
       <c r="AI33" s="142"/>
       <c r="AJ33" s="142"/>
-      <c r="AK33" s="258">
-        <v>0.8</v>
-      </c>
-      <c r="AL33" s="201">
-        <v>0.9</v>
-      </c>
-      <c r="AM33" s="258">
-        <f t="shared" si="18"/>
-        <v>1.940625E-2</v>
-      </c>
-      <c r="AN33" s="258">
-        <f t="shared" si="19"/>
-        <v>2.1562499999999984E-3</v>
-      </c>
-      <c r="AO33" s="269">
-        <f t="shared" si="25"/>
-        <v>41.22383252818036</v>
+      <c r="AK33" s="431">
+        <v>0.68</v>
+      </c>
+      <c r="AL33" s="432">
+        <v>0.97</v>
+      </c>
+      <c r="AM33" s="433">
+        <f t="shared" si="20"/>
+        <v>2.0915624999999997E-2</v>
+      </c>
+      <c r="AN33" s="433">
+        <f t="shared" si="21"/>
+        <v>6.4687500000000162E-4</v>
+      </c>
+      <c r="AO33" s="434">
+        <f t="shared" si="9"/>
+        <v>32.511579261915443</v>
       </c>
       <c r="AP33" s="269"/>
       <c r="AQ33" s="269"/>
@@ -7903,7 +7947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="34" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A34" s="59" t="s">
         <v>132</v>
       </c>
@@ -7944,7 +7988,7 @@
       <c r="O34" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="414" t="s">
+      <c r="P34" s="418" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="160" t="s">
@@ -7994,11 +8038,11 @@
         <v>0.9</v>
       </c>
       <c r="AM34" s="257">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.88125E-2</v>
       </c>
       <c r="AN34" s="257">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3124999999999969E-3</v>
       </c>
       <c r="AO34" s="268">
@@ -8012,7 +8056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
+    <row r="35" spans="1:45" s="32" customFormat="1" ht="28.5">
       <c r="A35" s="45" t="s">
         <v>132</v>
       </c>
@@ -8043,17 +8087,17 @@
         <v>1</v>
       </c>
       <c r="M35" s="103">
-        <f t="shared" ref="M35:M38" si="26">J35*K35</f>
+        <f t="shared" ref="M35:M38" si="24">J35*K35</f>
         <v>0.75</v>
       </c>
       <c r="N35" s="104">
-        <f t="shared" ref="N35:N38" si="27">M35/20*1.15</f>
+        <f t="shared" ref="N35:N38" si="25">M35/20*1.15</f>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="415"/>
+      <c r="P35" s="419"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8097,15 +8141,15 @@
         <v>0.9</v>
       </c>
       <c r="AM35" s="253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.88125E-2</v>
       </c>
       <c r="AN35" s="253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3124999999999969E-3</v>
       </c>
       <c r="AO35" s="264">
-        <f t="shared" ref="AO35:AO38" si="28">AK35/AM35</f>
+        <f t="shared" ref="AO35:AO38" si="26">AK35/AM35</f>
         <v>12.882447665056361</v>
       </c>
       <c r="AP35" s="264"/>
@@ -8115,7 +8159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5">
       <c r="A36" s="45" t="s">
         <v>132</v>
       </c>
@@ -8146,17 +8190,17 @@
         <v>1</v>
       </c>
       <c r="M36" s="103">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="N36" s="104">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="415"/>
+      <c r="P36" s="419"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8204,15 +8248,15 @@
         <v>0.9</v>
       </c>
       <c r="AM36" s="253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.88125E-2</v>
       </c>
       <c r="AN36" s="253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3124999999999969E-3</v>
       </c>
       <c r="AO36" s="264">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>12.882447665056361</v>
       </c>
       <c r="AP36" s="264"/>
@@ -8222,7 +8266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A37" s="45" t="s">
         <v>132</v>
       </c>
@@ -8253,17 +8297,17 @@
         <v>1</v>
       </c>
       <c r="M37" s="103">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="N37" s="104">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="415"/>
+      <c r="P37" s="419"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8305,15 +8349,15 @@
         <v>0.9</v>
       </c>
       <c r="AM37" s="253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.88125E-2</v>
       </c>
       <c r="AN37" s="253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3124999999999969E-3</v>
       </c>
       <c r="AO37" s="264">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>12.882447665056361</v>
       </c>
       <c r="AP37" s="264"/>
@@ -8323,7 +8367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A38" s="48" t="s">
         <v>132</v>
       </c>
@@ -8354,17 +8398,17 @@
         <v>1</v>
       </c>
       <c r="M38" s="110">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="N38" s="111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="416"/>
+      <c r="P38" s="420"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8400,15 +8444,15 @@
         <v>0.9</v>
       </c>
       <c r="AM38" s="254">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.88125E-2</v>
       </c>
       <c r="AN38" s="254">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3124999999999969E-3</v>
       </c>
       <c r="AO38" s="265">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>12.882447665056361</v>
       </c>
       <c r="AP38" s="265"/>
@@ -8418,7 +8462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="39" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A39" s="42" t="s">
         <v>136</v>
       </c>
@@ -8459,7 +8503,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="411" t="s">
+      <c r="P39" s="415" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8508,11 +8552,11 @@
         <v>0.85</v>
       </c>
       <c r="AM39" s="252">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8328124999999997E-2</v>
       </c>
       <c r="AN39" s="252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.2343750000000011E-3</v>
       </c>
       <c r="AO39" s="263">
@@ -8526,7 +8570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="40" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A40" s="45" t="s">
         <v>136</v>
       </c>
@@ -8557,17 +8601,17 @@
         <v>1</v>
       </c>
       <c r="M40" s="103">
-        <f t="shared" ref="M40:M43" si="29">J40*K40</f>
+        <f t="shared" ref="M40:M43" si="27">J40*K40</f>
         <v>0.375</v>
       </c>
       <c r="N40" s="104">
-        <f t="shared" ref="N40:N43" si="30">M40/20*1.15</f>
+        <f t="shared" ref="N40:N43" si="28">M40/20*1.15</f>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="412"/>
+      <c r="P40" s="416"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8611,15 +8655,15 @@
         <v>0.85</v>
       </c>
       <c r="AM40" s="253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8328124999999997E-2</v>
       </c>
       <c r="AN40" s="253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.2343750000000011E-3</v>
       </c>
       <c r="AO40" s="264">
-        <f t="shared" ref="AO40:AO43" si="31">AK40/AM40</f>
+        <f t="shared" ref="AO40:AO43" si="29">AK40/AM40</f>
         <v>34.373401534526863</v>
       </c>
       <c r="AP40" s="264"/>
@@ -8629,7 +8673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="41" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A41" s="45" t="s">
         <v>136</v>
       </c>
@@ -8660,17 +8704,17 @@
         <v>1</v>
       </c>
       <c r="M41" s="103">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.375</v>
       </c>
       <c r="N41" s="104">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="412"/>
+      <c r="P41" s="416"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8714,15 +8758,15 @@
         <v>0.85</v>
       </c>
       <c r="AM41" s="253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8328124999999997E-2</v>
       </c>
       <c r="AN41" s="253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.2343750000000011E-3</v>
       </c>
       <c r="AO41" s="264">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>34.373401534526863</v>
       </c>
       <c r="AP41" s="264"/>
@@ -8732,7 +8776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="42" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A42" s="45" t="s">
         <v>136</v>
       </c>
@@ -8763,17 +8807,17 @@
         <v>1</v>
       </c>
       <c r="M42" s="103">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.375</v>
       </c>
       <c r="N42" s="104">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="412"/>
+      <c r="P42" s="416"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8817,15 +8861,15 @@
         <v>0.85</v>
       </c>
       <c r="AM42" s="253">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8328124999999997E-2</v>
       </c>
       <c r="AN42" s="253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.2343750000000011E-3</v>
       </c>
       <c r="AO42" s="264">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>34.373401534526863</v>
       </c>
       <c r="AP42" s="264"/>
@@ -8835,7 +8879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="43" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A43" s="62" t="s">
         <v>136</v>
       </c>
@@ -8866,17 +8910,17 @@
         <v>1</v>
       </c>
       <c r="M43" s="140">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.375</v>
       </c>
       <c r="N43" s="141">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>2.1562499999999998E-2</v>
       </c>
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="413"/>
+      <c r="P43" s="417"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -8918,15 +8962,15 @@
         <v>0.85</v>
       </c>
       <c r="AM43" s="258">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8328124999999997E-2</v>
       </c>
       <c r="AN43" s="258">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.2343750000000011E-3</v>
       </c>
       <c r="AO43" s="269">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>34.373401534526863</v>
       </c>
       <c r="AP43" s="269"/>
@@ -8936,7 +8980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="44" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A44" s="42" t="s">
         <v>140</v>
       </c>
@@ -8977,7 +9021,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="428" t="s">
+      <c r="P44" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9020,18 +9064,18 @@
       <c r="AH44" s="143"/>
       <c r="AI44" s="143"/>
       <c r="AJ44" s="143"/>
-      <c r="AK44" s="340">
+      <c r="AK44" s="338">
         <v>0.45</v>
       </c>
       <c r="AL44" s="198">
         <v>0.97</v>
       </c>
       <c r="AM44" s="252">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3943749999999998E-2</v>
       </c>
       <c r="AN44" s="252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.3125000000000108E-4</v>
       </c>
       <c r="AO44" s="263">
@@ -9045,7 +9089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="45" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A45" s="45" t="s">
         <v>140</v>
       </c>
@@ -9076,17 +9120,17 @@
         <v>1</v>
       </c>
       <c r="M45" s="103">
-        <f t="shared" ref="M45:M48" si="32">J45*K45</f>
+        <f t="shared" ref="M45:M48" si="30">J45*K45</f>
         <v>0.25</v>
       </c>
       <c r="N45" s="104">
-        <f t="shared" ref="N45:N48" si="33">M45/20*1.15</f>
+        <f t="shared" ref="N45:N48" si="31">M45/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="429"/>
+      <c r="P45" s="412"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9129,14 +9173,14 @@
       <c r="AL45" s="199">
         <v>0.97</v>
       </c>
-      <c r="AM45" s="400">
-        <f t="shared" si="18"/>
+      <c r="AM45" s="394">
+        <f t="shared" si="20"/>
         <v>1.3943749999999998E-2</v>
       </c>
       <c r="AN45" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO45" s="401">
+      <c r="AO45" s="395">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9149,7 +9193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="45" t="s">
         <v>140</v>
       </c>
@@ -9180,17 +9224,17 @@
         <v>1</v>
       </c>
       <c r="M46" s="103">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
       <c r="N46" s="104">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="429"/>
+      <c r="P46" s="412"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9227,22 +9271,22 @@
       <c r="AH46" s="144"/>
       <c r="AI46" s="144"/>
       <c r="AJ46" s="144"/>
-      <c r="AK46" s="253">
-        <v>0.45</v>
-      </c>
-      <c r="AL46" s="199">
-        <v>0.97</v>
-      </c>
-      <c r="AM46" s="400">
-        <f t="shared" si="18"/>
-        <v>1.3943749999999998E-2</v>
+      <c r="AK46" s="435">
+        <v>0.5</v>
+      </c>
+      <c r="AL46" s="436">
+        <v>0.9</v>
+      </c>
+      <c r="AM46" s="394">
+        <f t="shared" si="20"/>
+        <v>1.2937499999999999E-2</v>
       </c>
       <c r="AN46" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO46" s="401">
+      <c r="AO46" s="395">
         <f t="shared" si="9"/>
-        <v>32.272523532048417</v>
+        <v>38.647342995169083</v>
       </c>
       <c r="AP46" s="135" t="s">
         <v>10</v>
@@ -9253,7 +9297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="47" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A47" s="45" t="s">
         <v>140</v>
       </c>
@@ -9284,17 +9328,17 @@
         <v>1</v>
       </c>
       <c r="M47" s="103">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
       <c r="N47" s="104">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="429"/>
+      <c r="P47" s="412"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9337,15 +9381,15 @@
       <c r="AL47" s="199">
         <v>0.97</v>
       </c>
-      <c r="AM47" s="400">
-        <f t="shared" si="18"/>
+      <c r="AM47" s="394">
+        <f t="shared" si="20"/>
         <v>1.3943749999999998E-2</v>
       </c>
       <c r="AN47" s="253">
-        <f t="shared" ref="AN47:AN67" si="34">N47-AM47</f>
+        <f t="shared" ref="AN47:AN67" si="32">N47-AM47</f>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO47" s="401">
+      <c r="AO47" s="395">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9356,7 +9400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="48" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A48" s="62" t="s">
         <v>140</v>
       </c>
@@ -9387,17 +9431,17 @@
         <v>1</v>
       </c>
       <c r="M48" s="140">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
       <c r="N48" s="141">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="430"/>
+      <c r="P48" s="413"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9413,7 +9457,7 @@
       <c r="U48" s="168">
         <v>43844</v>
       </c>
-      <c r="V48" s="405">
+      <c r="V48" s="399">
         <v>1</v>
       </c>
       <c r="W48" s="148" t="s">
@@ -9440,15 +9484,15 @@
       <c r="AL48" s="199">
         <v>0.97</v>
       </c>
-      <c r="AM48" s="400">
-        <f t="shared" si="18"/>
+      <c r="AM48" s="394">
+        <f t="shared" si="20"/>
         <v>1.3943749999999998E-2</v>
       </c>
       <c r="AN48" s="258">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO48" s="401">
+      <c r="AO48" s="395">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9459,7 +9503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="49" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A49" s="51" t="s">
         <v>143</v>
       </c>
@@ -9526,11 +9570,11 @@
         <v>0</v>
       </c>
       <c r="AM49" s="256">
-        <f t="shared" ref="AM49:AM67" si="35">N49*AL49</f>
+        <f t="shared" ref="AM49:AM67" si="33">N49*AL49</f>
         <v>0</v>
       </c>
       <c r="AN49" s="256">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0.25874999999999998</v>
       </c>
       <c r="AO49" s="266" t="e">
@@ -9544,7 +9588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A50" s="51" t="s">
         <v>147</v>
       </c>
@@ -9593,7 +9637,7 @@
         <v>149</v>
       </c>
       <c r="Y50" s="242"/>
-      <c r="Z50" s="355" t="s">
+      <c r="Z50" s="350" t="s">
         <v>301</v>
       </c>
       <c r="AA50" s="73"/>
@@ -9611,11 +9655,11 @@
         <v>0</v>
       </c>
       <c r="AM50" s="256">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN50" s="256">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>7.1874999999999994E-2</v>
       </c>
       <c r="AO50" s="266" t="e">
@@ -9629,7 +9673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.6" hidden="1" customHeight="1">
+    <row r="51" spans="1:45" s="31" customFormat="1" ht="15.6" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>150</v>
       </c>
@@ -9696,11 +9740,11 @@
         <v>0</v>
       </c>
       <c r="AM51" s="256">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN51" s="256">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0.18687499999999999</v>
       </c>
       <c r="AO51" s="266" t="e">
@@ -9714,7 +9758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="52" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A52" s="51" t="s">
         <v>154</v>
       </c>
@@ -9784,11 +9828,11 @@
         <v>0</v>
       </c>
       <c r="AM52" s="256">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN52" s="256">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>3.5937499999999997E-3</v>
       </c>
       <c r="AO52" s="266" t="e">
@@ -9802,7 +9846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A53" s="51" t="s">
         <v>158</v>
       </c>
@@ -9833,17 +9877,17 @@
         <v>1</v>
       </c>
       <c r="M53" s="117">
-        <f t="shared" ref="M53" si="36">J53*K53</f>
+        <f t="shared" ref="M53" si="34">J53*K53</f>
         <v>0.25</v>
       </c>
       <c r="N53" s="118">
-        <f t="shared" ref="N53" si="37">M53/20*1.15</f>
+        <f t="shared" ref="N53" si="35">M53/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="417" t="s">
+      <c r="P53" s="405" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9884,23 +9928,23 @@
       <c r="AH53" s="223"/>
       <c r="AI53" s="73"/>
       <c r="AJ53" s="73"/>
-      <c r="AK53" s="256">
-        <v>0.5</v>
-      </c>
-      <c r="AL53" s="208">
-        <v>0.9</v>
+      <c r="AK53" s="437">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AL53" s="438">
+        <v>0.96</v>
       </c>
       <c r="AM53" s="256">
-        <f t="shared" si="35"/>
-        <v>1.2937499999999999E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN53" s="256">
-        <f t="shared" si="34"/>
-        <v>1.4374999999999995E-3</v>
+        <f t="shared" si="32"/>
+        <v>5.7500000000000086E-4</v>
       </c>
       <c r="AO53" s="266">
-        <f t="shared" ref="AO53" si="38">AK53/AM53</f>
-        <v>38.647342995169083</v>
+        <f t="shared" ref="AO53:AO57" si="36">AK53/AM53</f>
+        <v>39.492753623188413</v>
       </c>
       <c r="AP53" s="266"/>
       <c r="AQ53" s="266"/>
@@ -9909,7 +9953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A54" s="45" t="s">
         <v>158</v>
       </c>
@@ -9950,7 +9994,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="418"/>
+      <c r="P54" s="406"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -9989,23 +10033,23 @@
       <c r="AH54" s="144"/>
       <c r="AI54" s="144"/>
       <c r="AJ54" s="144"/>
-      <c r="AK54" s="253">
-        <v>0.5</v>
-      </c>
-      <c r="AL54" s="199">
-        <v>0.9</v>
-      </c>
-      <c r="AM54" s="253">
-        <f t="shared" si="35"/>
-        <v>1.2937499999999999E-2</v>
-      </c>
-      <c r="AN54" s="253">
-        <f t="shared" si="34"/>
-        <v>1.4374999999999995E-3</v>
-      </c>
-      <c r="AO54" s="264">
-        <f t="shared" si="9"/>
-        <v>38.647342995169083</v>
+      <c r="AK54" s="439">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AL54" s="440">
+        <v>0.96</v>
+      </c>
+      <c r="AM54" s="370">
+        <f t="shared" si="33"/>
+        <v>1.3799999999999998E-2</v>
+      </c>
+      <c r="AN54" s="370">
+        <f t="shared" si="32"/>
+        <v>5.7500000000000086E-4</v>
+      </c>
+      <c r="AO54" s="371">
+        <f t="shared" si="36"/>
+        <v>39.492753623188413</v>
       </c>
       <c r="AP54" s="135"/>
       <c r="AQ54" s="270"/>
@@ -10014,7 +10058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A55" s="45" t="s">
         <v>158</v>
       </c>
@@ -10045,17 +10089,17 @@
         <v>1</v>
       </c>
       <c r="M55" s="103">
-        <f t="shared" ref="M55" si="39">J55*K55</f>
+        <f t="shared" ref="M55" si="37">J55*K55</f>
         <v>0.25</v>
       </c>
       <c r="N55" s="104">
-        <f t="shared" ref="N55" si="40">M55/20*1.15</f>
+        <f t="shared" ref="N55" si="38">M55/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="418"/>
+      <c r="P55" s="406"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10090,23 +10134,23 @@
       <c r="AH55" s="144"/>
       <c r="AI55" s="144"/>
       <c r="AJ55" s="144"/>
-      <c r="AK55" s="253">
-        <v>0.5</v>
-      </c>
-      <c r="AL55" s="199">
-        <v>0.9</v>
-      </c>
-      <c r="AM55" s="253">
-        <f t="shared" si="35"/>
-        <v>1.2937499999999999E-2</v>
-      </c>
-      <c r="AN55" s="253">
-        <f t="shared" si="34"/>
-        <v>1.4374999999999995E-3</v>
-      </c>
-      <c r="AO55" s="264">
-        <f t="shared" ref="AO55" si="41">AK55/AM55</f>
-        <v>38.647342995169083</v>
+      <c r="AK55" s="439">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AL55" s="440">
+        <v>0.96</v>
+      </c>
+      <c r="AM55" s="370">
+        <f t="shared" si="33"/>
+        <v>1.3799999999999998E-2</v>
+      </c>
+      <c r="AN55" s="370">
+        <f t="shared" si="32"/>
+        <v>5.7500000000000086E-4</v>
+      </c>
+      <c r="AO55" s="371">
+        <f t="shared" si="36"/>
+        <v>39.492753623188413</v>
       </c>
       <c r="AP55" s="135"/>
       <c r="AQ55" s="270"/>
@@ -10115,7 +10159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="45" t="s">
         <v>158</v>
       </c>
@@ -10146,17 +10190,17 @@
         <v>1</v>
       </c>
       <c r="M56" s="103">
-        <f t="shared" ref="M56" si="42">J56*K56</f>
+        <f t="shared" ref="M56" si="39">J56*K56</f>
         <v>0.25</v>
       </c>
       <c r="N56" s="104">
-        <f t="shared" ref="N56" si="43">M56/20*1.15</f>
+        <f t="shared" ref="N56" si="40">M56/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="418"/>
+      <c r="P56" s="406"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10191,23 +10235,23 @@
       <c r="AH56" s="135"/>
       <c r="AI56" s="135"/>
       <c r="AJ56" s="135"/>
-      <c r="AK56" s="253">
-        <v>0.5</v>
-      </c>
-      <c r="AL56" s="199">
-        <v>0.9</v>
-      </c>
-      <c r="AM56" s="253">
-        <f t="shared" si="35"/>
-        <v>1.2937499999999999E-2</v>
-      </c>
-      <c r="AN56" s="253">
-        <f t="shared" si="34"/>
-        <v>1.4374999999999995E-3</v>
-      </c>
-      <c r="AO56" s="264">
-        <f t="shared" ref="AO56" si="44">AK56/AM56</f>
-        <v>38.647342995169083</v>
+      <c r="AK56" s="439">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AL56" s="440">
+        <v>0.96</v>
+      </c>
+      <c r="AM56" s="370">
+        <f t="shared" si="33"/>
+        <v>1.3799999999999998E-2</v>
+      </c>
+      <c r="AN56" s="370">
+        <f t="shared" si="32"/>
+        <v>5.7500000000000086E-4</v>
+      </c>
+      <c r="AO56" s="371">
+        <f t="shared" si="36"/>
+        <v>39.492753623188413</v>
       </c>
       <c r="AP56" s="264"/>
       <c r="AQ56" s="264"/>
@@ -10216,7 +10260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>158</v>
       </c>
@@ -10247,17 +10291,17 @@
         <v>1</v>
       </c>
       <c r="M57" s="103">
-        <f t="shared" ref="M57" si="45">J57*K57</f>
+        <f t="shared" ref="M57" si="41">J57*K57</f>
         <v>0.25</v>
       </c>
       <c r="N57" s="104">
-        <f t="shared" ref="N57" si="46">M57/20*1.15</f>
+        <f t="shared" ref="N57" si="42">M57/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="419"/>
+      <c r="P57" s="407"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10292,23 +10336,23 @@
       <c r="AH57" s="135"/>
       <c r="AI57" s="135"/>
       <c r="AJ57" s="135"/>
-      <c r="AK57" s="253">
-        <v>0.5</v>
-      </c>
-      <c r="AL57" s="199">
-        <v>0.9</v>
-      </c>
-      <c r="AM57" s="253">
-        <f t="shared" si="35"/>
-        <v>1.2937499999999999E-2</v>
-      </c>
-      <c r="AN57" s="253">
-        <f t="shared" si="34"/>
-        <v>1.4374999999999995E-3</v>
-      </c>
-      <c r="AO57" s="264">
-        <f t="shared" ref="AO57" si="47">AK57/AM57</f>
-        <v>38.647342995169083</v>
+      <c r="AK57" s="439">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AL57" s="440">
+        <v>0.96</v>
+      </c>
+      <c r="AM57" s="370">
+        <f t="shared" si="33"/>
+        <v>1.3799999999999998E-2</v>
+      </c>
+      <c r="AN57" s="370">
+        <f t="shared" si="32"/>
+        <v>5.7500000000000086E-4</v>
+      </c>
+      <c r="AO57" s="371">
+        <f t="shared" si="36"/>
+        <v>39.492753623188413</v>
       </c>
       <c r="AP57" s="264"/>
       <c r="AQ57" s="264"/>
@@ -10356,7 +10400,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="417" t="s">
+      <c r="P58" s="405" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10404,11 +10448,11 @@
         <v>0.85</v>
       </c>
       <c r="AM58" s="256">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>6.1093749999999994E-3</v>
       </c>
       <c r="AN58" s="256">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.0781250000000001E-3</v>
       </c>
       <c r="AO58" s="266">
@@ -10453,15 +10497,15 @@
         <v>1</v>
       </c>
       <c r="M59" s="103">
-        <f t="shared" ref="M59:M60" si="48">J59*K59</f>
+        <f t="shared" ref="M59:M60" si="43">J59*K59</f>
         <v>0.125</v>
       </c>
       <c r="N59" s="104">
-        <f t="shared" ref="N59:N60" si="49">M59/20*1.15</f>
+        <f t="shared" ref="N59:N60" si="44">M59/20*1.15</f>
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="418"/>
+      <c r="P59" s="406"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10505,15 +10549,15 @@
         <v>0.85</v>
       </c>
       <c r="AM59" s="253">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>6.1093749999999994E-3</v>
       </c>
       <c r="AN59" s="253">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.0781250000000001E-3</v>
       </c>
       <c r="AO59" s="264">
-        <f t="shared" ref="AO59:AO60" si="50">AK59/AM59</f>
+        <f t="shared" ref="AO59:AO60" si="45">AK59/AM59</f>
         <v>81.841432225063954</v>
       </c>
       <c r="AP59" s="135"/>
@@ -10554,15 +10598,15 @@
         <v>1</v>
       </c>
       <c r="M60" s="103">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0.125</v>
       </c>
       <c r="N60" s="104">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="418"/>
+      <c r="P60" s="406"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10606,15 +10650,15 @@
         <v>0.85</v>
       </c>
       <c r="AM60" s="253">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>6.1093749999999994E-3</v>
       </c>
       <c r="AN60" s="253">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.0781250000000001E-3</v>
       </c>
       <c r="AO60" s="264">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>81.841432225063954</v>
       </c>
       <c r="AP60" s="135"/>
@@ -10663,7 +10707,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="418"/>
+      <c r="P61" s="406"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10705,11 +10749,11 @@
         <v>0.85</v>
       </c>
       <c r="AM61" s="253">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>6.1093749999999994E-3</v>
       </c>
       <c r="AN61" s="253">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.0781250000000001E-3</v>
       </c>
       <c r="AO61" s="264">
@@ -10754,15 +10798,15 @@
         <v>1</v>
       </c>
       <c r="M62" s="103">
-        <f t="shared" ref="M62" si="51">J62*K62</f>
+        <f t="shared" ref="M62" si="46">J62*K62</f>
         <v>0.125</v>
       </c>
       <c r="N62" s="104">
-        <f t="shared" ref="N62" si="52">M62/20*1.15</f>
+        <f t="shared" ref="N62" si="47">M62/20*1.15</f>
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="419"/>
+      <c r="P62" s="407"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10804,15 +10848,15 @@
         <v>0.85</v>
       </c>
       <c r="AM62" s="253">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>6.1093749999999994E-3</v>
       </c>
       <c r="AN62" s="253">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.0781250000000001E-3</v>
       </c>
       <c r="AO62" s="264">
-        <f t="shared" ref="AO62" si="53">AK62/AM62</f>
+        <f t="shared" ref="AO62" si="48">AK62/AM62</f>
         <v>81.841432225063954</v>
       </c>
       <c r="AP62" s="135"/>
@@ -10822,7 +10866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="63" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A63" s="42" t="s">
         <v>165</v>
       </c>
@@ -10863,7 +10907,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="411" t="s">
+      <c r="P63" s="415" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -10915,11 +10959,11 @@
         <v>0.95</v>
       </c>
       <c r="AM63" s="252">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
       <c r="AN63" s="252">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
       <c r="AO63" s="263">
@@ -10933,7 +10977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="64" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A64" s="45" t="s">
         <v>165</v>
       </c>
@@ -10964,17 +11008,17 @@
         <v>1</v>
       </c>
       <c r="M64" s="103">
-        <f t="shared" ref="M64:M67" si="54">J64*K64</f>
+        <f t="shared" ref="M64:M67" si="49">J64*K64</f>
         <v>0.5</v>
       </c>
       <c r="N64" s="104">
-        <f t="shared" ref="N64:N67" si="55">M64/20*1.15</f>
+        <f t="shared" ref="N64:N67" si="50">M64/20*1.15</f>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="412"/>
+      <c r="P64" s="416"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11013,21 +11057,21 @@
       <c r="AH64" s="144"/>
       <c r="AI64" s="144"/>
       <c r="AJ64" s="144"/>
-      <c r="AK64" s="325">
+      <c r="AK64" s="323">
         <v>0.59</v>
       </c>
       <c r="AL64" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM64" s="400">
-        <f t="shared" si="35"/>
+      <c r="AM64" s="394">
+        <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN64" s="400">
-        <f t="shared" si="34"/>
+      <c r="AN64" s="394">
+        <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO64" s="401">
+      <c r="AO64" s="395">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11040,7 +11084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="65" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A65" s="45" t="s">
         <v>165</v>
       </c>
@@ -11071,17 +11115,17 @@
         <v>1</v>
       </c>
       <c r="M65" s="103">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0.5</v>
       </c>
       <c r="N65" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="412"/>
+      <c r="P65" s="416"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11120,21 +11164,21 @@
       <c r="AH65" s="144"/>
       <c r="AI65" s="144"/>
       <c r="AJ65" s="144"/>
-      <c r="AK65" s="325">
+      <c r="AK65" s="323">
         <v>0.59</v>
       </c>
       <c r="AL65" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM65" s="400">
-        <f t="shared" si="35"/>
+      <c r="AM65" s="394">
+        <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN65" s="400">
-        <f t="shared" si="34"/>
+      <c r="AN65" s="394">
+        <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO65" s="401">
+      <c r="AO65" s="395">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11147,7 +11191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="66" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A66" s="45" t="s">
         <v>165</v>
       </c>
@@ -11178,17 +11222,17 @@
         <v>1</v>
       </c>
       <c r="M66" s="103">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0.5</v>
       </c>
       <c r="N66" s="104">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="412"/>
+      <c r="P66" s="416"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11227,21 +11271,21 @@
       <c r="AH66" s="135"/>
       <c r="AI66" s="135"/>
       <c r="AJ66" s="135"/>
-      <c r="AK66" s="325">
+      <c r="AK66" s="323">
         <v>0.59</v>
       </c>
       <c r="AL66" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM66" s="400">
-        <f t="shared" si="35"/>
+      <c r="AM66" s="394">
+        <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN66" s="400">
-        <f t="shared" si="34"/>
+      <c r="AN66" s="394">
+        <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO66" s="401">
+      <c r="AO66" s="395">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11252,7 +11296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="67" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A67" s="62" t="s">
         <v>165</v>
       </c>
@@ -11283,17 +11327,17 @@
         <v>1</v>
       </c>
       <c r="M67" s="140">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0.5</v>
       </c>
       <c r="N67" s="141">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="413"/>
+      <c r="P67" s="417"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11332,21 +11376,21 @@
       <c r="AH67" s="142"/>
       <c r="AI67" s="142"/>
       <c r="AJ67" s="142"/>
-      <c r="AK67" s="325">
+      <c r="AK67" s="323">
         <v>0.59</v>
       </c>
       <c r="AL67" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM67" s="400">
-        <f t="shared" si="35"/>
+      <c r="AM67" s="394">
+        <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN67" s="400">
-        <f t="shared" si="34"/>
+      <c r="AN67" s="394">
+        <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO67" s="401">
+      <c r="AO67" s="395">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11357,17 +11401,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="68" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A68" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="359"/>
-      <c r="C68" s="359"/>
+      <c r="B68" s="354"/>
+      <c r="C68" s="354"/>
       <c r="D68" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="359"/>
-      <c r="F68" s="359"/>
+      <c r="E68" s="354"/>
+      <c r="F68" s="354"/>
       <c r="G68" s="54" t="s">
         <v>170</v>
       </c>
@@ -11398,7 +11442,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="428" t="s">
+      <c r="P68" s="411" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11422,19 +11466,19 @@
       <c r="Y68" s="242" t="s">
         <v>90</v>
       </c>
-      <c r="Z68" s="360"/>
+      <c r="Z68" s="355"/>
       <c r="AA68" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="AB68" s="360"/>
-      <c r="AC68" s="361"/>
-      <c r="AD68" s="361"/>
-      <c r="AE68" s="361"/>
-      <c r="AF68" s="361"/>
-      <c r="AG68" s="361"/>
-      <c r="AH68" s="360"/>
-      <c r="AI68" s="360"/>
-      <c r="AJ68" s="360"/>
+      <c r="AB68" s="355"/>
+      <c r="AC68" s="356"/>
+      <c r="AD68" s="356"/>
+      <c r="AE68" s="356"/>
+      <c r="AF68" s="356"/>
+      <c r="AG68" s="356"/>
+      <c r="AH68" s="355"/>
+      <c r="AI68" s="355"/>
+      <c r="AJ68" s="355"/>
       <c r="AK68" s="256"/>
       <c r="AL68" s="208"/>
       <c r="AM68" s="256"/>
@@ -11443,37 +11487,37 @@
       <c r="AP68" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AQ68" s="362"/>
-      <c r="AR68" s="362"/>
+      <c r="AQ68" s="357"/>
+      <c r="AR68" s="357"/>
       <c r="AS68" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="69" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A69" s="278" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="359"/>
-      <c r="C69" s="359"/>
+      <c r="B69" s="354"/>
+      <c r="C69" s="354"/>
       <c r="D69" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="359"/>
-      <c r="F69" s="359"/>
+      <c r="E69" s="354"/>
+      <c r="F69" s="354"/>
       <c r="G69" s="279" t="s">
         <v>170</v>
       </c>
       <c r="H69" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="I69" s="363" t="s">
+      <c r="I69" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J69" s="298">
         <v>3</v>
       </c>
       <c r="K69" s="293">
-        <f t="shared" ref="K69:K71" si="56">4/8</f>
+        <f t="shared" ref="K69:K71" si="51">4/8</f>
         <v>0.5</v>
       </c>
       <c r="L69" s="294">
@@ -11490,7 +11534,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="429"/>
+      <c r="P69" s="412"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11509,61 +11553,61 @@
       <c r="X69" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y69" s="384" t="s">
+      <c r="Y69" s="378" t="s">
         <v>90</v>
       </c>
-      <c r="Z69" s="385"/>
+      <c r="Z69" s="379"/>
       <c r="AA69" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="AB69" s="360"/>
-      <c r="AC69" s="361"/>
-      <c r="AD69" s="361"/>
-      <c r="AE69" s="361"/>
-      <c r="AF69" s="361"/>
-      <c r="AG69" s="361"/>
-      <c r="AH69" s="360"/>
-      <c r="AI69" s="360"/>
-      <c r="AJ69" s="360"/>
-      <c r="AK69" s="325"/>
-      <c r="AL69" s="382"/>
-      <c r="AM69" s="325"/>
-      <c r="AN69" s="325"/>
-      <c r="AO69" s="337"/>
+      <c r="AB69" s="355"/>
+      <c r="AC69" s="356"/>
+      <c r="AD69" s="356"/>
+      <c r="AE69" s="356"/>
+      <c r="AF69" s="356"/>
+      <c r="AG69" s="356"/>
+      <c r="AH69" s="355"/>
+      <c r="AI69" s="355"/>
+      <c r="AJ69" s="355"/>
+      <c r="AK69" s="323"/>
+      <c r="AL69" s="376"/>
+      <c r="AM69" s="323"/>
+      <c r="AN69" s="323"/>
+      <c r="AO69" s="335"/>
       <c r="AP69" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ69" s="386"/>
-      <c r="AR69" s="386"/>
+      <c r="AQ69" s="380"/>
+      <c r="AR69" s="380"/>
       <c r="AS69" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="70" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A70" s="278" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="359"/>
-      <c r="C70" s="359"/>
+      <c r="B70" s="354"/>
+      <c r="C70" s="354"/>
       <c r="D70" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="359"/>
-      <c r="F70" s="359"/>
+      <c r="E70" s="354"/>
+      <c r="F70" s="354"/>
       <c r="G70" s="279" t="s">
         <v>170</v>
       </c>
       <c r="H70" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="I70" s="363" t="s">
+      <c r="I70" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J70" s="298">
         <v>3</v>
       </c>
       <c r="K70" s="293">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0.5</v>
       </c>
       <c r="L70" s="294">
@@ -11580,7 +11624,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="429"/>
+      <c r="P70" s="412"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11599,61 +11643,61 @@
       <c r="X70" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y70" s="384" t="s">
+      <c r="Y70" s="378" t="s">
         <v>90</v>
       </c>
-      <c r="Z70" s="385"/>
+      <c r="Z70" s="379"/>
       <c r="AA70" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="AB70" s="360"/>
-      <c r="AC70" s="361"/>
-      <c r="AD70" s="361"/>
-      <c r="AE70" s="361"/>
-      <c r="AF70" s="361"/>
-      <c r="AG70" s="361"/>
-      <c r="AH70" s="360"/>
-      <c r="AI70" s="360"/>
-      <c r="AJ70" s="360"/>
-      <c r="AK70" s="325"/>
-      <c r="AL70" s="382"/>
-      <c r="AM70" s="325"/>
-      <c r="AN70" s="325"/>
-      <c r="AO70" s="337"/>
+      <c r="AB70" s="355"/>
+      <c r="AC70" s="356"/>
+      <c r="AD70" s="356"/>
+      <c r="AE70" s="356"/>
+      <c r="AF70" s="356"/>
+      <c r="AG70" s="356"/>
+      <c r="AH70" s="355"/>
+      <c r="AI70" s="355"/>
+      <c r="AJ70" s="355"/>
+      <c r="AK70" s="323"/>
+      <c r="AL70" s="376"/>
+      <c r="AM70" s="323"/>
+      <c r="AN70" s="323"/>
+      <c r="AO70" s="335"/>
       <c r="AP70" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ70" s="386"/>
-      <c r="AR70" s="386"/>
+      <c r="AQ70" s="380"/>
+      <c r="AR70" s="380"/>
       <c r="AS70" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="71" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A71" s="278" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="359"/>
-      <c r="C71" s="359"/>
+      <c r="B71" s="354"/>
+      <c r="C71" s="354"/>
       <c r="D71" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="359"/>
-      <c r="F71" s="359"/>
+      <c r="E71" s="354"/>
+      <c r="F71" s="354"/>
       <c r="G71" s="279" t="s">
         <v>170</v>
       </c>
       <c r="H71" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="I71" s="363" t="s">
+      <c r="I71" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J71" s="298">
         <v>3</v>
       </c>
       <c r="K71" s="293">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0.5</v>
       </c>
       <c r="L71" s="294">
@@ -11670,7 +11714,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="429"/>
+      <c r="P71" s="412"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11689,37 +11733,37 @@
       <c r="X71" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y71" s="384" t="s">
+      <c r="Y71" s="378" t="s">
         <v>90</v>
       </c>
-      <c r="Z71" s="385"/>
+      <c r="Z71" s="379"/>
       <c r="AA71" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="AB71" s="360"/>
-      <c r="AC71" s="361"/>
-      <c r="AD71" s="361"/>
-      <c r="AE71" s="361"/>
-      <c r="AF71" s="361"/>
-      <c r="AG71" s="361"/>
-      <c r="AH71" s="360"/>
-      <c r="AI71" s="360"/>
-      <c r="AJ71" s="360"/>
-      <c r="AK71" s="325"/>
-      <c r="AL71" s="382"/>
-      <c r="AM71" s="325"/>
-      <c r="AN71" s="325"/>
-      <c r="AO71" s="337"/>
+      <c r="AB71" s="355"/>
+      <c r="AC71" s="356"/>
+      <c r="AD71" s="356"/>
+      <c r="AE71" s="356"/>
+      <c r="AF71" s="356"/>
+      <c r="AG71" s="356"/>
+      <c r="AH71" s="355"/>
+      <c r="AI71" s="355"/>
+      <c r="AJ71" s="355"/>
+      <c r="AK71" s="323"/>
+      <c r="AL71" s="376"/>
+      <c r="AM71" s="323"/>
+      <c r="AN71" s="323"/>
+      <c r="AO71" s="335"/>
       <c r="AP71" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ71" s="386"/>
-      <c r="AR71" s="386"/>
+      <c r="AQ71" s="380"/>
+      <c r="AR71" s="380"/>
       <c r="AS71" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="72" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A72" s="278" t="s">
         <v>169</v>
       </c>
@@ -11736,7 +11780,7 @@
       <c r="H72" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="I72" s="363" t="s">
+      <c r="I72" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J72" s="298">
@@ -11760,7 +11804,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="430"/>
+      <c r="P72" s="413"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -11775,7 +11819,7 @@
       <c r="X72" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y72" s="384" t="s">
+      <c r="Y72" s="378" t="s">
         <v>90</v>
       </c>
       <c r="Z72" s="177"/>
@@ -11791,19 +11835,19 @@
       <c r="AH72" s="73"/>
       <c r="AI72" s="73"/>
       <c r="AJ72" s="73"/>
-      <c r="AK72" s="325"/>
-      <c r="AL72" s="382"/>
-      <c r="AM72" s="325"/>
-      <c r="AN72" s="325"/>
-      <c r="AO72" s="337"/>
-      <c r="AP72" s="337"/>
-      <c r="AQ72" s="337"/>
-      <c r="AR72" s="337"/>
+      <c r="AK72" s="323"/>
+      <c r="AL72" s="376"/>
+      <c r="AM72" s="323"/>
+      <c r="AN72" s="323"/>
+      <c r="AO72" s="335"/>
+      <c r="AP72" s="335"/>
+      <c r="AQ72" s="335"/>
+      <c r="AR72" s="335"/>
       <c r="AS72" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="73" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A73" s="51" t="s">
         <v>172</v>
       </c>
@@ -11856,7 +11900,7 @@
         <v>107</v>
       </c>
       <c r="Y73" s="244"/>
-      <c r="Z73" s="323" t="s">
+      <c r="Z73" s="321" t="s">
         <v>176</v>
       </c>
       <c r="AA73" s="73" t="s">
@@ -11876,11 +11920,11 @@
         <v>0</v>
       </c>
       <c r="AM73" s="256">
-        <f t="shared" ref="AM73:AM96" si="57">N73*AL73</f>
+        <f t="shared" ref="AM73:AM96" si="52">N73*AL73</f>
         <v>0</v>
       </c>
       <c r="AN73" s="256">
-        <f t="shared" ref="AN73:AN96" si="58">N73-AM73</f>
+        <f t="shared" ref="AN73:AN96" si="53">N73-AM73</f>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="AO73" s="266" t="e">
@@ -11894,7 +11938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A74" s="51" t="s">
         <v>177</v>
       </c>
@@ -11946,7 +11990,7 @@
       <c r="Y74" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="Z74" s="357" t="s">
+      <c r="Z74" s="352" t="s">
         <v>303</v>
       </c>
       <c r="AA74" s="73" t="s">
@@ -11968,11 +12012,11 @@
         <v>0.9</v>
       </c>
       <c r="AM74" s="256">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>3.88125E-2</v>
       </c>
       <c r="AN74" s="256">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>4.3124999999999969E-3</v>
       </c>
       <c r="AO74" s="266">
@@ -11986,7 +12030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="75" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A75" s="51" t="s">
         <v>181</v>
       </c>
@@ -12027,7 +12071,7 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="417" t="s">
+      <c r="P75" s="405" t="s">
         <v>4</v>
       </c>
       <c r="Q75" s="160" t="s">
@@ -12071,11 +12115,11 @@
         <v>0.9</v>
       </c>
       <c r="AM75" s="256">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>5.1749999999999997E-2</v>
       </c>
       <c r="AN75" s="256">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>5.7499999999999982E-3</v>
       </c>
       <c r="AO75" s="266">
@@ -12089,7 +12133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="76" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A76" s="271" t="s">
         <v>181</v>
       </c>
@@ -12113,24 +12157,24 @@
         <v>1</v>
       </c>
       <c r="K76" s="276">
-        <f t="shared" ref="K76:K79" si="59">8/8</f>
+        <f t="shared" ref="K76:K79" si="54">8/8</f>
         <v>1</v>
       </c>
       <c r="L76" s="277">
         <v>1</v>
       </c>
       <c r="M76" s="289">
-        <f t="shared" ref="M76:M79" si="60">J76*K76</f>
+        <f t="shared" ref="M76:M79" si="55">J76*K76</f>
         <v>1</v>
       </c>
       <c r="N76" s="290">
-        <f t="shared" ref="N76:N79" si="61">M76/20*1.15</f>
+        <f t="shared" ref="N76:N79" si="56">M76/20*1.15</f>
         <v>5.7499999999999996E-2</v>
       </c>
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="418"/>
+      <c r="P76" s="406"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12141,18 +12185,18 @@
         <v>43969</v>
       </c>
       <c r="T76" s="166"/>
-      <c r="U76" s="379"/>
+      <c r="U76" s="373"/>
       <c r="V76" s="73"/>
       <c r="W76" s="177" t="s">
         <v>308</v>
       </c>
-      <c r="X76" s="380" t="s">
+      <c r="X76" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="Y76" s="381" t="s">
+      <c r="Y76" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="Z76" s="378"/>
+      <c r="Z76" s="372"/>
       <c r="AA76" s="177" t="s">
         <v>108</v>
       </c>
@@ -12165,32 +12209,32 @@
       <c r="AH76" s="223"/>
       <c r="AI76" s="223"/>
       <c r="AJ76" s="73"/>
-      <c r="AK76" s="325">
-        <v>1</v>
-      </c>
-      <c r="AL76" s="382">
+      <c r="AK76" s="323">
+        <v>1</v>
+      </c>
+      <c r="AL76" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM76" s="325">
-        <f t="shared" ref="AM76:AM79" si="62">N76*AL76</f>
+      <c r="AM76" s="323">
+        <f t="shared" ref="AM76:AM79" si="57">N76*AL76</f>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN76" s="325">
-        <f t="shared" ref="AN76:AN79" si="63">N76-AM76</f>
+      <c r="AN76" s="323">
+        <f t="shared" ref="AN76:AN79" si="58">N76-AM76</f>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO76" s="337">
-        <f t="shared" ref="AO76:AO79" si="64">AK76/AM76</f>
+      <c r="AO76" s="335">
+        <f t="shared" ref="AO76:AO79" si="59">AK76/AM76</f>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP76" s="337"/>
-      <c r="AQ76" s="337"/>
-      <c r="AR76" s="337"/>
+      <c r="AP76" s="335"/>
+      <c r="AQ76" s="335"/>
+      <c r="AR76" s="335"/>
       <c r="AS76" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="77" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A77" s="271" t="s">
         <v>181</v>
       </c>
@@ -12214,24 +12258,24 @@
         <v>1</v>
       </c>
       <c r="K77" s="276">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="L77" s="277">
         <v>1</v>
       </c>
       <c r="M77" s="289">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="N77" s="290">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>5.7499999999999996E-2</v>
       </c>
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="418"/>
+      <c r="P77" s="406"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12242,18 +12286,18 @@
         <v>43973</v>
       </c>
       <c r="T77" s="166"/>
-      <c r="U77" s="379"/>
+      <c r="U77" s="373"/>
       <c r="V77" s="73"/>
       <c r="W77" s="177" t="s">
         <v>308</v>
       </c>
-      <c r="X77" s="380" t="s">
+      <c r="X77" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="Y77" s="381" t="s">
+      <c r="Y77" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="Z77" s="378"/>
+      <c r="Z77" s="372"/>
       <c r="AA77" s="177" t="s">
         <v>108</v>
       </c>
@@ -12266,32 +12310,32 @@
       <c r="AH77" s="223"/>
       <c r="AI77" s="223"/>
       <c r="AJ77" s="73"/>
-      <c r="AK77" s="325">
-        <v>1</v>
-      </c>
-      <c r="AL77" s="382">
+      <c r="AK77" s="323">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM77" s="325">
-        <f t="shared" si="62"/>
+      <c r="AM77" s="323">
+        <f t="shared" si="57"/>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN77" s="325">
-        <f t="shared" si="63"/>
+      <c r="AN77" s="323">
+        <f t="shared" si="58"/>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO77" s="337">
-        <f t="shared" si="64"/>
+      <c r="AO77" s="335">
+        <f t="shared" si="59"/>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP77" s="337"/>
-      <c r="AQ77" s="337"/>
-      <c r="AR77" s="337"/>
+      <c r="AP77" s="335"/>
+      <c r="AQ77" s="335"/>
+      <c r="AR77" s="335"/>
       <c r="AS77" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="78" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A78" s="271" t="s">
         <v>181</v>
       </c>
@@ -12315,24 +12359,24 @@
         <v>1</v>
       </c>
       <c r="K78" s="276">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="L78" s="277">
         <v>1</v>
       </c>
       <c r="M78" s="289">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="N78" s="290">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>5.7499999999999996E-2</v>
       </c>
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="418"/>
+      <c r="P78" s="406"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12343,18 +12387,18 @@
         <v>43978</v>
       </c>
       <c r="T78" s="166"/>
-      <c r="U78" s="379"/>
+      <c r="U78" s="373"/>
       <c r="V78" s="73"/>
       <c r="W78" s="177" t="s">
         <v>308</v>
       </c>
-      <c r="X78" s="380" t="s">
+      <c r="X78" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="Y78" s="381" t="s">
+      <c r="Y78" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="Z78" s="378"/>
+      <c r="Z78" s="372"/>
       <c r="AA78" s="177" t="s">
         <v>108</v>
       </c>
@@ -12367,32 +12411,32 @@
       <c r="AH78" s="223"/>
       <c r="AI78" s="223"/>
       <c r="AJ78" s="73"/>
-      <c r="AK78" s="325">
-        <v>1</v>
-      </c>
-      <c r="AL78" s="382">
+      <c r="AK78" s="323">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM78" s="325">
-        <f t="shared" si="62"/>
+      <c r="AM78" s="323">
+        <f t="shared" si="57"/>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN78" s="325">
-        <f t="shared" si="63"/>
+      <c r="AN78" s="323">
+        <f t="shared" si="58"/>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO78" s="337">
-        <f t="shared" si="64"/>
+      <c r="AO78" s="335">
+        <f t="shared" si="59"/>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP78" s="337"/>
-      <c r="AQ78" s="337"/>
-      <c r="AR78" s="337"/>
+      <c r="AP78" s="335"/>
+      <c r="AQ78" s="335"/>
+      <c r="AR78" s="335"/>
       <c r="AS78" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A79" s="271" t="s">
         <v>181</v>
       </c>
@@ -12416,42 +12460,42 @@
         <v>1</v>
       </c>
       <c r="K79" s="276">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="L79" s="277">
         <v>1</v>
       </c>
       <c r="M79" s="289">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="N79" s="290">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>5.7499999999999996E-2</v>
       </c>
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="419"/>
+      <c r="P79" s="407"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
       <c r="R79" s="166"/>
       <c r="S79" s="166"/>
       <c r="T79" s="166"/>
-      <c r="U79" s="379"/>
-      <c r="V79" s="366"/>
+      <c r="U79" s="373"/>
+      <c r="V79" s="361"/>
       <c r="W79" s="177" t="s">
         <v>308</v>
       </c>
-      <c r="X79" s="380" t="s">
+      <c r="X79" s="374" t="s">
         <v>107</v>
       </c>
-      <c r="Y79" s="381" t="s">
+      <c r="Y79" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="Z79" s="378"/>
+      <c r="Z79" s="372"/>
       <c r="AA79" s="177" t="s">
         <v>108</v>
       </c>
@@ -12464,32 +12508,32 @@
       <c r="AH79" s="223"/>
       <c r="AI79" s="223"/>
       <c r="AJ79" s="73"/>
-      <c r="AK79" s="325">
-        <v>1</v>
-      </c>
-      <c r="AL79" s="382">
+      <c r="AK79" s="323">
+        <v>1</v>
+      </c>
+      <c r="AL79" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM79" s="325">
-        <f t="shared" si="62"/>
+      <c r="AM79" s="323">
+        <f t="shared" si="57"/>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN79" s="325">
-        <f t="shared" si="63"/>
+      <c r="AN79" s="323">
+        <f t="shared" si="58"/>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO79" s="337">
-        <f t="shared" si="64"/>
+      <c r="AO79" s="335">
+        <f t="shared" si="59"/>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP79" s="337"/>
-      <c r="AQ79" s="337"/>
-      <c r="AR79" s="337"/>
+      <c r="AP79" s="335"/>
+      <c r="AQ79" s="335"/>
+      <c r="AR79" s="335"/>
       <c r="AS79" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="31" customFormat="1" ht="14.45" hidden="1" customHeight="1">
+    <row r="80" spans="1:45" s="31" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="51" t="s">
         <v>184</v>
       </c>
@@ -12564,11 +12608,11 @@
         <v>0.9</v>
       </c>
       <c r="AM80" s="256">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
       <c r="AN80" s="256">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
       <c r="AO80" s="266">
@@ -12582,7 +12626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A81" s="51" t="s">
         <v>187</v>
       </c>
@@ -12623,7 +12667,7 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="417" t="s">
+      <c r="P81" s="405" t="s">
         <v>306</v>
       </c>
       <c r="Q81" s="160" t="s">
@@ -12662,22 +12706,22 @@
       <c r="AD81" s="73"/>
       <c r="AE81" s="73"/>
       <c r="AF81" s="256"/>
-      <c r="AG81" s="335"/>
+      <c r="AG81" s="333"/>
       <c r="AH81" s="256"/>
       <c r="AI81" s="256"/>
       <c r="AJ81" s="266"/>
       <c r="AK81" s="256">
         <v>0.7</v>
       </c>
-      <c r="AL81" s="335">
+      <c r="AL81" s="333">
         <v>0.9</v>
       </c>
       <c r="AM81" s="256">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
       <c r="AN81" s="256">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
       <c r="AO81" s="266">
@@ -12686,12 +12730,12 @@
       </c>
       <c r="AP81" s="73"/>
       <c r="AQ81" s="256"/>
-      <c r="AR81" s="335"/>
+      <c r="AR81" s="333"/>
       <c r="AS81" s="256" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="66" hidden="1">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="66">
       <c r="A82" s="271" t="s">
         <v>187</v>
       </c>
@@ -12715,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="276">
-        <f t="shared" ref="K82:K85" si="65">2/8</f>
+        <f t="shared" ref="K82:K85" si="60">2/8</f>
         <v>0.25</v>
       </c>
       <c r="L82" s="277">
@@ -12732,7 +12776,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="418"/>
+      <c r="P82" s="406"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12748,14 +12792,14 @@
       <c r="U82" s="161">
         <v>43888</v>
       </c>
-      <c r="V82" s="308" t="s">
+      <c r="V82" s="306" t="s">
         <v>307</v>
       </c>
       <c r="W82" s="105" t="s">
         <v>126</v>
       </c>
       <c r="X82" s="223"/>
-      <c r="Y82" s="324"/>
+      <c r="Y82" s="322"/>
       <c r="Z82" s="223"/>
       <c r="AA82" s="177" t="s">
         <v>108</v>
@@ -12764,37 +12808,37 @@
       <c r="AC82" s="223"/>
       <c r="AD82" s="73"/>
       <c r="AE82" s="73"/>
-      <c r="AF82" s="325"/>
-      <c r="AG82" s="336"/>
-      <c r="AH82" s="325"/>
-      <c r="AI82" s="325"/>
-      <c r="AJ82" s="337"/>
-      <c r="AK82" s="325">
+      <c r="AF82" s="323"/>
+      <c r="AG82" s="334"/>
+      <c r="AH82" s="323"/>
+      <c r="AI82" s="323"/>
+      <c r="AJ82" s="335"/>
+      <c r="AK82" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL82" s="336">
+      <c r="AL82" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM82" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM82" s="370">
+        <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN82" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN82" s="370">
+        <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO82" s="337">
+      <c r="AO82" s="371">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP82" s="73"/>
-      <c r="AQ82" s="325"/>
-      <c r="AR82" s="336"/>
-      <c r="AS82" s="325" t="s">
+      <c r="AQ82" s="323"/>
+      <c r="AR82" s="334"/>
+      <c r="AS82" s="323" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A83" s="271" t="s">
         <v>187</v>
       </c>
@@ -12818,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="276">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>0.25</v>
       </c>
       <c r="L83" s="277">
@@ -12835,7 +12879,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="418"/>
+      <c r="P83" s="406"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12858,7 +12902,7 @@
         <v>126</v>
       </c>
       <c r="X83" s="223"/>
-      <c r="Y83" s="324"/>
+      <c r="Y83" s="322"/>
       <c r="Z83" s="223"/>
       <c r="AA83" s="177" t="s">
         <v>108</v>
@@ -12867,37 +12911,37 @@
       <c r="AC83" s="223"/>
       <c r="AD83" s="73"/>
       <c r="AE83" s="73"/>
-      <c r="AF83" s="325"/>
-      <c r="AG83" s="336"/>
-      <c r="AH83" s="325"/>
-      <c r="AI83" s="325"/>
-      <c r="AJ83" s="337"/>
-      <c r="AK83" s="325">
+      <c r="AF83" s="323"/>
+      <c r="AG83" s="334"/>
+      <c r="AH83" s="323"/>
+      <c r="AI83" s="323"/>
+      <c r="AJ83" s="335"/>
+      <c r="AK83" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL83" s="336">
+      <c r="AL83" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM83" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM83" s="370">
+        <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN83" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN83" s="370">
+        <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO83" s="337">
+      <c r="AO83" s="371">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP83" s="73"/>
-      <c r="AQ83" s="325"/>
-      <c r="AR83" s="336"/>
-      <c r="AS83" s="325" t="s">
+      <c r="AQ83" s="323"/>
+      <c r="AR83" s="334"/>
+      <c r="AS83" s="323" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A84" s="271" t="s">
         <v>187</v>
       </c>
@@ -12921,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="276">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>0.25</v>
       </c>
       <c r="L84" s="277">
@@ -12938,7 +12982,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="418"/>
+      <c r="P84" s="406"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -12955,7 +12999,7 @@
         <v>126</v>
       </c>
       <c r="X84" s="223"/>
-      <c r="Y84" s="324"/>
+      <c r="Y84" s="322"/>
       <c r="Z84" s="223"/>
       <c r="AA84" s="177" t="s">
         <v>108</v>
@@ -12964,37 +13008,37 @@
       <c r="AC84" s="223"/>
       <c r="AD84" s="73"/>
       <c r="AE84" s="73"/>
-      <c r="AF84" s="325"/>
-      <c r="AG84" s="336"/>
-      <c r="AH84" s="325"/>
-      <c r="AI84" s="325"/>
-      <c r="AJ84" s="337"/>
-      <c r="AK84" s="325">
+      <c r="AF84" s="323"/>
+      <c r="AG84" s="334"/>
+      <c r="AH84" s="323"/>
+      <c r="AI84" s="323"/>
+      <c r="AJ84" s="335"/>
+      <c r="AK84" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL84" s="336">
+      <c r="AL84" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM84" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM84" s="370">
+        <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN84" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN84" s="370">
+        <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO84" s="337">
+      <c r="AO84" s="371">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP84" s="73"/>
-      <c r="AQ84" s="325"/>
-      <c r="AR84" s="336"/>
-      <c r="AS84" s="325" t="s">
+      <c r="AQ84" s="323"/>
+      <c r="AR84" s="334"/>
+      <c r="AS84" s="323" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A85" s="271" t="s">
         <v>187</v>
       </c>
@@ -13018,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="276">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>0.25</v>
       </c>
       <c r="L85" s="277">
@@ -13035,7 +13079,7 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="419"/>
+      <c r="P85" s="407"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
@@ -13050,7 +13094,7 @@
         <v>126</v>
       </c>
       <c r="X85" s="223"/>
-      <c r="Y85" s="324"/>
+      <c r="Y85" s="322"/>
       <c r="Z85" s="223"/>
       <c r="AA85" s="177" t="s">
         <v>108</v>
@@ -13059,37 +13103,37 @@
       <c r="AC85" s="223"/>
       <c r="AD85" s="73"/>
       <c r="AE85" s="73"/>
-      <c r="AF85" s="325"/>
-      <c r="AG85" s="336"/>
-      <c r="AH85" s="325"/>
-      <c r="AI85" s="325"/>
-      <c r="AJ85" s="337"/>
-      <c r="AK85" s="325">
+      <c r="AF85" s="323"/>
+      <c r="AG85" s="334"/>
+      <c r="AH85" s="323"/>
+      <c r="AI85" s="323"/>
+      <c r="AJ85" s="335"/>
+      <c r="AK85" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL85" s="336">
+      <c r="AL85" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM85" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM85" s="370">
+        <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN85" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN85" s="370">
+        <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO85" s="337">
+      <c r="AO85" s="371">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP85" s="73"/>
-      <c r="AQ85" s="325"/>
-      <c r="AR85" s="336"/>
-      <c r="AS85" s="325" t="s">
+      <c r="AQ85" s="323"/>
+      <c r="AR85" s="334"/>
+      <c r="AS85" s="323" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="86" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A86" s="51" t="s">
         <v>190</v>
       </c>
@@ -13113,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="115">
-        <f t="shared" ref="K86:K95" si="66">4/8</f>
+        <f t="shared" ref="K86:K95" si="61">4/8</f>
         <v>0.5</v>
       </c>
       <c r="L86" s="116">
@@ -13130,7 +13174,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="428" t="s">
+      <c r="P86" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13145,7 +13189,7 @@
       <c r="T86" s="161">
         <v>43879</v>
       </c>
-      <c r="U86" s="309">
+      <c r="U86" s="307">
         <v>43885</v>
       </c>
       <c r="V86" s="73" t="s">
@@ -13176,15 +13220,15 @@
       <c r="AK86" s="256">
         <v>0.54</v>
       </c>
-      <c r="AL86" s="335">
+      <c r="AL86" s="333">
         <v>0.9</v>
       </c>
       <c r="AM86" s="256">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
       <c r="AN86" s="256">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
       <c r="AO86" s="266">
@@ -13198,7 +13242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="87" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A87" s="271" t="s">
         <v>190</v>
       </c>
@@ -13222,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="276">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L87" s="277">
@@ -13239,7 +13283,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="429"/>
+      <c r="P87" s="412"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13249,13 +13293,13 @@
       <c r="S87" s="166">
         <v>43886</v>
       </c>
-      <c r="T87" s="309">
+      <c r="T87" s="307">
         <v>43886</v>
       </c>
-      <c r="U87" s="309">
+      <c r="U87" s="307">
         <v>43893</v>
       </c>
-      <c r="V87" s="310" t="s">
+      <c r="V87" s="308" t="s">
         <v>193</v>
       </c>
       <c r="W87" s="177" t="s">
@@ -13264,7 +13308,7 @@
       <c r="X87" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y87" s="387" t="s">
+      <c r="Y87" s="381" t="s">
         <v>127</v>
       </c>
       <c r="Z87" s="177"/>
@@ -13280,21 +13324,21 @@
       <c r="AH87" s="73"/>
       <c r="AI87" s="73"/>
       <c r="AJ87" s="73"/>
-      <c r="AK87" s="338">
+      <c r="AK87" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL87" s="336">
+      <c r="AL87" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM87" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM87" s="323">
+        <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN87" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN87" s="323">
+        <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO87" s="337">
+      <c r="AO87" s="335">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13305,7 +13349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="88" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A88" s="271" t="s">
         <v>190</v>
       </c>
@@ -13329,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="276">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L88" s="277">
@@ -13346,7 +13390,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="429"/>
+      <c r="P88" s="412"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13356,13 +13400,13 @@
       <c r="S88" s="166">
         <v>43888</v>
       </c>
-      <c r="T88" s="309">
+      <c r="T88" s="307">
         <v>43894</v>
       </c>
-      <c r="U88" s="309">
+      <c r="U88" s="307">
         <v>43895</v>
       </c>
-      <c r="V88" s="310" t="s">
+      <c r="V88" s="308" t="s">
         <v>193</v>
       </c>
       <c r="W88" s="177" t="s">
@@ -13371,7 +13415,7 @@
       <c r="X88" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y88" s="387" t="s">
+      <c r="Y88" s="381" t="s">
         <v>127</v>
       </c>
       <c r="Z88" s="177"/>
@@ -13387,21 +13431,21 @@
       <c r="AH88" s="73"/>
       <c r="AI88" s="73"/>
       <c r="AJ88" s="73"/>
-      <c r="AK88" s="338">
+      <c r="AK88" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL88" s="336">
+      <c r="AL88" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM88" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM88" s="323">
+        <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN88" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN88" s="323">
+        <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO88" s="337">
+      <c r="AO88" s="335">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13412,7 +13456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="89" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A89" s="271" t="s">
         <v>190</v>
       </c>
@@ -13436,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="276">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L89" s="277">
@@ -13453,7 +13497,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="429"/>
+      <c r="P89" s="412"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13463,13 +13507,13 @@
       <c r="S89" s="166">
         <v>43889</v>
       </c>
-      <c r="T89" s="309">
+      <c r="T89" s="307">
         <v>43895</v>
       </c>
-      <c r="U89" s="309">
+      <c r="U89" s="307">
         <v>43896</v>
       </c>
-      <c r="V89" s="310" t="s">
+      <c r="V89" s="308" t="s">
         <v>193</v>
       </c>
       <c r="W89" s="177" t="s">
@@ -13478,7 +13522,7 @@
       <c r="X89" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y89" s="387" t="s">
+      <c r="Y89" s="381" t="s">
         <v>127</v>
       </c>
       <c r="Z89" s="177"/>
@@ -13494,21 +13538,21 @@
       <c r="AH89" s="73"/>
       <c r="AI89" s="73"/>
       <c r="AJ89" s="73"/>
-      <c r="AK89" s="338">
+      <c r="AK89" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL89" s="336">
+      <c r="AL89" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM89" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM89" s="323">
+        <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN89" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN89" s="323">
+        <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO89" s="337">
+      <c r="AO89" s="335">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13519,7 +13563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="90" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A90" s="271" t="s">
         <v>190</v>
       </c>
@@ -13543,7 +13587,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="276">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L90" s="277">
@@ -13560,7 +13604,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="430"/>
+      <c r="P90" s="413"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13576,7 +13620,7 @@
       <c r="U90" s="161">
         <v>43899</v>
       </c>
-      <c r="V90" s="310" t="s">
+      <c r="V90" s="308" t="s">
         <v>193</v>
       </c>
       <c r="W90" s="177" t="s">
@@ -13585,7 +13629,7 @@
       <c r="X90" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y90" s="387" t="s">
+      <c r="Y90" s="381" t="s">
         <v>127</v>
       </c>
       <c r="Z90" s="177"/>
@@ -13601,21 +13645,21 @@
       <c r="AH90" s="73"/>
       <c r="AI90" s="73"/>
       <c r="AJ90" s="73"/>
-      <c r="AK90" s="338">
+      <c r="AK90" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL90" s="336">
+      <c r="AL90" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM90" s="325">
-        <f t="shared" si="57"/>
+      <c r="AM90" s="323">
+        <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN90" s="325">
-        <f t="shared" si="58"/>
+      <c r="AN90" s="323">
+        <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO90" s="337">
+      <c r="AO90" s="335">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13626,7 +13670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="91" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A91" s="51" t="s">
         <v>194</v>
       </c>
@@ -13650,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="K91" s="115">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L91" s="116">
@@ -13667,7 +13711,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="428" t="s">
+      <c r="P91" s="411" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13680,8 +13724,8 @@
         <v>43959</v>
       </c>
       <c r="T91" s="162"/>
-      <c r="U91" s="364"/>
-      <c r="V91" s="310"/>
+      <c r="U91" s="359"/>
+      <c r="V91" s="308"/>
       <c r="W91" s="73" t="s">
         <v>106</v>
       </c>
@@ -13718,7 +13762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="92" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A92" s="278" t="s">
         <v>194</v>
       </c>
@@ -13735,14 +13779,14 @@
       <c r="H92" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="I92" s="363" t="s">
+      <c r="I92" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J92" s="298">
         <v>2</v>
       </c>
       <c r="K92" s="293">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L92" s="294">
@@ -13759,7 +13803,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="429"/>
+      <c r="P92" s="412"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13770,15 +13814,15 @@
         <v>43965</v>
       </c>
       <c r="T92" s="162"/>
-      <c r="U92" s="364"/>
-      <c r="V92" s="310"/>
+      <c r="U92" s="359"/>
+      <c r="V92" s="308"/>
       <c r="W92" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X92" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y92" s="384" t="s">
+      <c r="Y92" s="378" t="s">
         <v>90</v>
       </c>
       <c r="Z92" s="177"/>
@@ -13794,21 +13838,21 @@
       <c r="AH92" s="73"/>
       <c r="AI92" s="73"/>
       <c r="AJ92" s="73"/>
-      <c r="AK92" s="325"/>
-      <c r="AL92" s="382"/>
-      <c r="AM92" s="325"/>
-      <c r="AN92" s="325"/>
-      <c r="AO92" s="337"/>
+      <c r="AK92" s="323"/>
+      <c r="AL92" s="376"/>
+      <c r="AM92" s="323"/>
+      <c r="AN92" s="323"/>
+      <c r="AO92" s="335"/>
       <c r="AP92" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ92" s="337"/>
-      <c r="AR92" s="337"/>
+      <c r="AQ92" s="335"/>
+      <c r="AR92" s="335"/>
       <c r="AS92" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="93" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A93" s="278" t="s">
         <v>194</v>
       </c>
@@ -13825,14 +13869,14 @@
       <c r="H93" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="363" t="s">
+      <c r="I93" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J93" s="298">
         <v>2</v>
       </c>
       <c r="K93" s="293">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L93" s="294">
@@ -13849,7 +13893,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="429"/>
+      <c r="P93" s="412"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -13860,15 +13904,15 @@
         <v>43969</v>
       </c>
       <c r="T93" s="162"/>
-      <c r="U93" s="364"/>
-      <c r="V93" s="310"/>
+      <c r="U93" s="359"/>
+      <c r="V93" s="308"/>
       <c r="W93" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X93" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y93" s="384" t="s">
+      <c r="Y93" s="378" t="s">
         <v>90</v>
       </c>
       <c r="Z93" s="177"/>
@@ -13884,21 +13928,21 @@
       <c r="AH93" s="73"/>
       <c r="AI93" s="73"/>
       <c r="AJ93" s="73"/>
-      <c r="AK93" s="325"/>
-      <c r="AL93" s="382"/>
-      <c r="AM93" s="325"/>
-      <c r="AN93" s="325"/>
-      <c r="AO93" s="337"/>
+      <c r="AK93" s="323"/>
+      <c r="AL93" s="376"/>
+      <c r="AM93" s="323"/>
+      <c r="AN93" s="323"/>
+      <c r="AO93" s="335"/>
       <c r="AP93" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ93" s="337"/>
-      <c r="AR93" s="337"/>
+      <c r="AQ93" s="335"/>
+      <c r="AR93" s="335"/>
       <c r="AS93" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="94" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A94" s="278" t="s">
         <v>194</v>
       </c>
@@ -13915,14 +13959,14 @@
       <c r="H94" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="363" t="s">
+      <c r="I94" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J94" s="298">
         <v>2</v>
       </c>
       <c r="K94" s="293">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L94" s="294">
@@ -13939,7 +13983,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="429"/>
+      <c r="P94" s="412"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -13950,15 +13994,15 @@
         <v>43970</v>
       </c>
       <c r="T94" s="162"/>
-      <c r="U94" s="364"/>
-      <c r="V94" s="310"/>
+      <c r="U94" s="359"/>
+      <c r="V94" s="308"/>
       <c r="W94" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X94" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y94" s="384" t="s">
+      <c r="Y94" s="378" t="s">
         <v>90</v>
       </c>
       <c r="Z94" s="177"/>
@@ -13974,21 +14018,21 @@
       <c r="AH94" s="73"/>
       <c r="AI94" s="73"/>
       <c r="AJ94" s="73"/>
-      <c r="AK94" s="325"/>
-      <c r="AL94" s="382"/>
-      <c r="AM94" s="325"/>
-      <c r="AN94" s="325"/>
-      <c r="AO94" s="337"/>
+      <c r="AK94" s="323"/>
+      <c r="AL94" s="376"/>
+      <c r="AM94" s="323"/>
+      <c r="AN94" s="323"/>
+      <c r="AO94" s="335"/>
       <c r="AP94" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ94" s="337"/>
-      <c r="AR94" s="337"/>
+      <c r="AQ94" s="335"/>
+      <c r="AR94" s="335"/>
       <c r="AS94" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="95" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A95" s="278" t="s">
         <v>194</v>
       </c>
@@ -14005,14 +14049,14 @@
       <c r="H95" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="I95" s="363" t="s">
+      <c r="I95" s="358" t="s">
         <v>99</v>
       </c>
       <c r="J95" s="298">
         <v>2</v>
       </c>
       <c r="K95" s="293">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="L95" s="294">
@@ -14029,7 +14073,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="430"/>
+      <c r="P95" s="413"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14044,7 +14088,7 @@
       <c r="X95" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y95" s="384" t="s">
+      <c r="Y95" s="378" t="s">
         <v>90</v>
       </c>
       <c r="Z95" s="177"/>
@@ -14060,19 +14104,19 @@
       <c r="AH95" s="73"/>
       <c r="AI95" s="73"/>
       <c r="AJ95" s="73"/>
-      <c r="AK95" s="325"/>
-      <c r="AL95" s="382"/>
-      <c r="AM95" s="325"/>
-      <c r="AN95" s="325"/>
-      <c r="AO95" s="337"/>
-      <c r="AP95" s="337"/>
-      <c r="AQ95" s="337"/>
-      <c r="AR95" s="337"/>
+      <c r="AK95" s="323"/>
+      <c r="AL95" s="376"/>
+      <c r="AM95" s="323"/>
+      <c r="AN95" s="323"/>
+      <c r="AO95" s="335"/>
+      <c r="AP95" s="335"/>
+      <c r="AQ95" s="335"/>
+      <c r="AR95" s="335"/>
       <c r="AS95" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="96" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A96" s="51" t="s">
         <v>197</v>
       </c>
@@ -14145,11 +14189,11 @@
         <v>0.7</v>
       </c>
       <c r="AM96" s="256">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>4.0249999999999994E-2</v>
       </c>
       <c r="AN96" s="256">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="AO96" s="266">
@@ -14163,7 +14207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A97" s="51" t="s">
         <v>201</v>
       </c>
@@ -14187,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="115">
-        <f t="shared" ref="K97:K100" si="67">6/8</f>
+        <f t="shared" ref="K97:K100" si="62">6/8</f>
         <v>0.75</v>
       </c>
       <c r="L97" s="116">
@@ -14204,7 +14248,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="431" t="s">
+      <c r="P97" s="402" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -14269,7 +14313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A98" s="278" t="s">
         <v>201</v>
       </c>
@@ -14293,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="293">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>0.75</v>
       </c>
       <c r="L98" s="294">
@@ -14310,7 +14354,7 @@
       <c r="O98" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P98" s="409"/>
+      <c r="P98" s="403"/>
       <c r="Q98" s="165" t="s">
         <v>100</v>
       </c>
@@ -14331,33 +14375,33 @@
         <v>101</v>
       </c>
       <c r="X98" s="169"/>
-      <c r="Y98" s="326"/>
+      <c r="Y98" s="324"/>
       <c r="Z98" s="169"/>
       <c r="AA98" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB98" s="169"/>
-      <c r="AC98" s="327"/>
-      <c r="AD98" s="327"/>
-      <c r="AE98" s="327"/>
-      <c r="AF98" s="327"/>
-      <c r="AG98" s="327"/>
+      <c r="AC98" s="325"/>
+      <c r="AD98" s="325"/>
+      <c r="AE98" s="325"/>
+      <c r="AF98" s="325"/>
+      <c r="AG98" s="325"/>
       <c r="AH98" s="169"/>
       <c r="AI98" s="169"/>
       <c r="AJ98" s="73"/>
-      <c r="AK98" s="338">
+      <c r="AK98" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL98" s="339">
+      <c r="AL98" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM98" s="338">
+      <c r="AM98" s="336">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN98" s="338">
+      <c r="AN98" s="336">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO98" s="343">
+      <c r="AO98" s="339">
         <v>12.8824476650564</v>
       </c>
       <c r="AP98" s="73" t="s">
@@ -14369,7 +14413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A99" s="278" t="s">
         <v>201</v>
       </c>
@@ -14393,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="293">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>0.75</v>
       </c>
       <c r="L99" s="294">
@@ -14410,7 +14454,7 @@
       <c r="O99" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="409"/>
+      <c r="P99" s="403"/>
       <c r="Q99" s="165" t="s">
         <v>102</v>
       </c>
@@ -14431,33 +14475,33 @@
         <v>101</v>
       </c>
       <c r="X99" s="169"/>
-      <c r="Y99" s="326"/>
+      <c r="Y99" s="324"/>
       <c r="Z99" s="169"/>
       <c r="AA99" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB99" s="169"/>
-      <c r="AC99" s="327"/>
-      <c r="AD99" s="327"/>
-      <c r="AE99" s="327"/>
-      <c r="AF99" s="327"/>
-      <c r="AG99" s="327"/>
+      <c r="AC99" s="325"/>
+      <c r="AD99" s="325"/>
+      <c r="AE99" s="325"/>
+      <c r="AF99" s="325"/>
+      <c r="AG99" s="325"/>
       <c r="AH99" s="169"/>
       <c r="AI99" s="169"/>
       <c r="AJ99" s="73"/>
-      <c r="AK99" s="338">
+      <c r="AK99" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL99" s="339">
+      <c r="AL99" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM99" s="338">
+      <c r="AM99" s="336">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN99" s="338">
+      <c r="AN99" s="336">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO99" s="343">
+      <c r="AO99" s="339">
         <v>12.8824476650564</v>
       </c>
       <c r="AP99" s="73" t="s">
@@ -14469,7 +14513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A100" s="278" t="s">
         <v>201</v>
       </c>
@@ -14493,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="293">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>0.75</v>
       </c>
       <c r="L100" s="294">
@@ -14510,7 +14554,7 @@
       <c r="O100" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P100" s="409"/>
+      <c r="P100" s="403"/>
       <c r="Q100" s="165" t="s">
         <v>13</v>
       </c>
@@ -14531,33 +14575,33 @@
         <v>101</v>
       </c>
       <c r="X100" s="169"/>
-      <c r="Y100" s="326"/>
+      <c r="Y100" s="324"/>
       <c r="Z100" s="169"/>
       <c r="AA100" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB100" s="169"/>
-      <c r="AC100" s="327"/>
-      <c r="AD100" s="327"/>
-      <c r="AE100" s="327"/>
-      <c r="AF100" s="327"/>
-      <c r="AG100" s="327"/>
+      <c r="AC100" s="325"/>
+      <c r="AD100" s="325"/>
+      <c r="AE100" s="325"/>
+      <c r="AF100" s="325"/>
+      <c r="AG100" s="325"/>
       <c r="AH100" s="169"/>
       <c r="AI100" s="169"/>
       <c r="AJ100" s="73"/>
-      <c r="AK100" s="338">
+      <c r="AK100" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL100" s="339">
+      <c r="AL100" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM100" s="338">
+      <c r="AM100" s="336">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN100" s="338">
+      <c r="AN100" s="336">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO100" s="343">
+      <c r="AO100" s="339">
         <v>12.8824476650564</v>
       </c>
       <c r="AP100" s="73" t="s">
@@ -14569,7 +14613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A101" s="278" t="s">
         <v>201</v>
       </c>
@@ -14593,24 +14637,24 @@
         <v>1</v>
       </c>
       <c r="K101" s="293">
-        <f t="shared" ref="K101:K106" si="68">6/8</f>
+        <f t="shared" ref="K101:K106" si="63">6/8</f>
         <v>0.75</v>
       </c>
       <c r="L101" s="294">
         <v>1</v>
       </c>
       <c r="M101" s="295">
-        <f t="shared" ref="M101:M106" si="69">J101*K101</f>
+        <f t="shared" ref="M101:M106" si="64">J101*K101</f>
         <v>0.75</v>
       </c>
       <c r="N101" s="296">
-        <f t="shared" ref="N101:N106" si="70">M101/20*1.15</f>
+        <f t="shared" ref="N101:N106" si="65">M101/20*1.15</f>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O101" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P101" s="410"/>
+      <c r="P101" s="404"/>
       <c r="Q101" s="165" t="s">
         <v>16</v>
       </c>
@@ -14630,36 +14674,36 @@
       <c r="W101" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X101" s="311"/>
-      <c r="Y101" s="328"/>
-      <c r="Z101" s="311"/>
+      <c r="X101" s="309"/>
+      <c r="Y101" s="326"/>
+      <c r="Z101" s="309"/>
       <c r="AA101" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB101" s="169"/>
-      <c r="AC101" s="327"/>
-      <c r="AD101" s="327"/>
-      <c r="AE101" s="327"/>
-      <c r="AF101" s="327"/>
-      <c r="AG101" s="327"/>
-      <c r="AH101" s="327"/>
+      <c r="AC101" s="325"/>
+      <c r="AD101" s="325"/>
+      <c r="AE101" s="325"/>
+      <c r="AF101" s="325"/>
+      <c r="AG101" s="325"/>
+      <c r="AH101" s="325"/>
       <c r="AI101" s="169"/>
       <c r="AJ101" s="73"/>
-      <c r="AK101" s="338">
+      <c r="AK101" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL101" s="339">
+      <c r="AL101" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM101" s="338">
+      <c r="AM101" s="336">
         <f>N101*AL101</f>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN101" s="338">
+      <c r="AN101" s="336">
         <f>N101-AM101</f>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO101" s="343">
+      <c r="AO101" s="339">
         <f>AK101/AM101</f>
         <v>12.882447665056361</v>
       </c>
@@ -14670,7 +14714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A102" s="51" t="s">
         <v>204</v>
       </c>
@@ -14698,24 +14742,24 @@
         <v>1</v>
       </c>
       <c r="K102" s="115">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.75</v>
       </c>
       <c r="L102" s="116">
         <v>1</v>
       </c>
       <c r="M102" s="117">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.75</v>
       </c>
       <c r="N102" s="118">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O102" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P102" s="409" t="s">
+      <c r="P102" s="403" t="s">
         <v>28</v>
       </c>
       <c r="Q102" s="160" t="s">
@@ -14780,7 +14824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A103" s="278" t="s">
         <v>204</v>
       </c>
@@ -14808,24 +14852,24 @@
         <v>1</v>
       </c>
       <c r="K103" s="293">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.75</v>
       </c>
       <c r="L103" s="294">
         <v>1</v>
       </c>
       <c r="M103" s="295">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.75</v>
       </c>
       <c r="N103" s="296">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O103" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P103" s="409"/>
+      <c r="P103" s="403"/>
       <c r="Q103" s="165" t="s">
         <v>100</v>
       </c>
@@ -14845,34 +14889,34 @@
       <c r="W103" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X103" s="311"/>
-      <c r="Y103" s="328"/>
-      <c r="Z103" s="311"/>
+      <c r="X103" s="309"/>
+      <c r="Y103" s="326"/>
+      <c r="Z103" s="309"/>
       <c r="AA103" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB103" s="169"/>
-      <c r="AC103" s="327"/>
-      <c r="AD103" s="327"/>
-      <c r="AE103" s="327"/>
-      <c r="AF103" s="327"/>
-      <c r="AG103" s="327"/>
-      <c r="AH103" s="327"/>
+      <c r="AC103" s="325"/>
+      <c r="AD103" s="325"/>
+      <c r="AE103" s="325"/>
+      <c r="AF103" s="325"/>
+      <c r="AG103" s="325"/>
+      <c r="AH103" s="325"/>
       <c r="AI103" s="169"/>
       <c r="AJ103" s="73"/>
-      <c r="AK103" s="338">
+      <c r="AK103" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL103" s="339">
+      <c r="AL103" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM103" s="338">
+      <c r="AM103" s="336">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN103" s="338">
+      <c r="AN103" s="336">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO103" s="343">
+      <c r="AO103" s="339">
         <v>12.8824476650564</v>
       </c>
       <c r="AP103" s="73" t="s">
@@ -14884,7 +14928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A104" s="278" t="s">
         <v>204</v>
       </c>
@@ -14912,24 +14956,24 @@
         <v>1</v>
       </c>
       <c r="K104" s="293">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.75</v>
       </c>
       <c r="L104" s="294">
         <v>1</v>
       </c>
       <c r="M104" s="295">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.75</v>
       </c>
       <c r="N104" s="296">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O104" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P104" s="409"/>
+      <c r="P104" s="403"/>
       <c r="Q104" s="165" t="s">
         <v>102</v>
       </c>
@@ -14949,34 +14993,34 @@
       <c r="W104" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X104" s="311"/>
-      <c r="Y104" s="328"/>
-      <c r="Z104" s="311"/>
+      <c r="X104" s="309"/>
+      <c r="Y104" s="326"/>
+      <c r="Z104" s="309"/>
       <c r="AA104" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB104" s="169"/>
-      <c r="AC104" s="327"/>
-      <c r="AD104" s="327"/>
-      <c r="AE104" s="327"/>
-      <c r="AF104" s="327"/>
-      <c r="AG104" s="327"/>
-      <c r="AH104" s="327"/>
+      <c r="AC104" s="325"/>
+      <c r="AD104" s="325"/>
+      <c r="AE104" s="325"/>
+      <c r="AF104" s="325"/>
+      <c r="AG104" s="325"/>
+      <c r="AH104" s="325"/>
       <c r="AI104" s="169"/>
       <c r="AJ104" s="73"/>
-      <c r="AK104" s="338">
+      <c r="AK104" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL104" s="339">
+      <c r="AL104" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM104" s="338">
+      <c r="AM104" s="336">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN104" s="338">
+      <c r="AN104" s="336">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO104" s="343">
+      <c r="AO104" s="339">
         <v>12.8824476650564</v>
       </c>
       <c r="AP104" s="73" t="s">
@@ -14988,7 +15032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A105" s="278" t="s">
         <v>204</v>
       </c>
@@ -15016,24 +15060,24 @@
         <v>1</v>
       </c>
       <c r="K105" s="293">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.75</v>
       </c>
       <c r="L105" s="294">
         <v>1</v>
       </c>
       <c r="M105" s="295">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.75</v>
       </c>
       <c r="N105" s="296">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O105" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="409"/>
+      <c r="P105" s="403"/>
       <c r="Q105" s="165" t="s">
         <v>13</v>
       </c>
@@ -15053,34 +15097,34 @@
       <c r="W105" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X105" s="311"/>
-      <c r="Y105" s="328"/>
-      <c r="Z105" s="311"/>
+      <c r="X105" s="309"/>
+      <c r="Y105" s="326"/>
+      <c r="Z105" s="309"/>
       <c r="AA105" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB105" s="169"/>
-      <c r="AC105" s="327"/>
-      <c r="AD105" s="327"/>
-      <c r="AE105" s="327"/>
-      <c r="AF105" s="327"/>
-      <c r="AG105" s="327"/>
-      <c r="AH105" s="327"/>
+      <c r="AC105" s="325"/>
+      <c r="AD105" s="325"/>
+      <c r="AE105" s="325"/>
+      <c r="AF105" s="325"/>
+      <c r="AG105" s="325"/>
+      <c r="AH105" s="325"/>
       <c r="AI105" s="169"/>
       <c r="AJ105" s="73"/>
-      <c r="AK105" s="338">
+      <c r="AK105" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL105" s="339">
+      <c r="AL105" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM105" s="338">
+      <c r="AM105" s="336">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN105" s="338">
+      <c r="AN105" s="336">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO105" s="343">
+      <c r="AO105" s="339">
         <v>12.8824476650564</v>
       </c>
       <c r="AP105" s="73" t="s">
@@ -15092,7 +15136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A106" s="278" t="s">
         <v>204</v>
       </c>
@@ -15116,24 +15160,24 @@
         <v>1</v>
       </c>
       <c r="K106" s="293">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.75</v>
       </c>
       <c r="L106" s="294">
         <v>1</v>
       </c>
       <c r="M106" s="295">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>0.75</v>
       </c>
       <c r="N106" s="296">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O106" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="410"/>
+      <c r="P106" s="404"/>
       <c r="Q106" s="165" t="s">
         <v>16</v>
       </c>
@@ -15153,36 +15197,36 @@
       <c r="W106" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X106" s="311"/>
-      <c r="Y106" s="328"/>
-      <c r="Z106" s="311"/>
+      <c r="X106" s="309"/>
+      <c r="Y106" s="326"/>
+      <c r="Z106" s="309"/>
       <c r="AA106" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB106" s="169"/>
-      <c r="AC106" s="327"/>
-      <c r="AD106" s="327"/>
-      <c r="AE106" s="327"/>
-      <c r="AF106" s="327"/>
-      <c r="AG106" s="327"/>
-      <c r="AH106" s="327"/>
+      <c r="AC106" s="325"/>
+      <c r="AD106" s="325"/>
+      <c r="AE106" s="325"/>
+      <c r="AF106" s="325"/>
+      <c r="AG106" s="325"/>
+      <c r="AH106" s="325"/>
       <c r="AI106" s="169"/>
       <c r="AJ106" s="73"/>
-      <c r="AK106" s="338">
+      <c r="AK106" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL106" s="339">
+      <c r="AL106" s="337">
         <v>0.9</v>
       </c>
-      <c r="AM106" s="338">
+      <c r="AM106" s="336">
         <f>N106*AL106</f>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN106" s="338">
+      <c r="AN106" s="336">
         <f>N106-AM106</f>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO106" s="343">
+      <c r="AO106" s="339">
         <f>AK106/AM106</f>
         <v>12.882447665056361</v>
       </c>
@@ -15193,7 +15237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="107" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A107" s="278"/>
       <c r="B107" s="51"/>
       <c r="C107" s="51"/>
@@ -15211,36 +15255,36 @@
       <c r="O107" s="169"/>
       <c r="P107" s="297"/>
       <c r="Q107" s="185"/>
-      <c r="R107" s="312"/>
-      <c r="S107" s="312"/>
+      <c r="R107" s="310"/>
+      <c r="S107" s="310"/>
       <c r="T107" s="4"/>
       <c r="U107" s="207"/>
       <c r="V107" s="126"/>
       <c r="W107" s="221"/>
-      <c r="X107" s="311"/>
-      <c r="Y107" s="328"/>
-      <c r="Z107" s="311"/>
+      <c r="X107" s="309"/>
+      <c r="Y107" s="326"/>
+      <c r="Z107" s="309"/>
       <c r="AA107" s="169"/>
       <c r="AB107" s="169"/>
-      <c r="AC107" s="327"/>
-      <c r="AD107" s="327"/>
-      <c r="AE107" s="327"/>
-      <c r="AF107" s="327"/>
-      <c r="AG107" s="327"/>
-      <c r="AH107" s="327"/>
+      <c r="AC107" s="325"/>
+      <c r="AD107" s="325"/>
+      <c r="AE107" s="325"/>
+      <c r="AF107" s="325"/>
+      <c r="AG107" s="325"/>
+      <c r="AH107" s="325"/>
       <c r="AI107" s="169"/>
       <c r="AJ107" s="73"/>
-      <c r="AK107" s="338"/>
-      <c r="AL107" s="339"/>
-      <c r="AM107" s="338"/>
-      <c r="AN107" s="338"/>
-      <c r="AO107" s="343"/>
+      <c r="AK107" s="336"/>
+      <c r="AL107" s="337"/>
+      <c r="AM107" s="336"/>
+      <c r="AN107" s="336"/>
+      <c r="AO107" s="339"/>
       <c r="AP107" s="266"/>
       <c r="AQ107" s="266"/>
       <c r="AR107" s="266"/>
       <c r="AS107" s="169"/>
     </row>
-    <row r="108" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
       <c r="A108" s="51" t="s">
         <v>207</v>
       </c>
@@ -15281,25 +15325,25 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="417" t="s">
+      <c r="P108" s="405" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="R108" s="309">
+      <c r="R108" s="307">
         <v>43901</v>
       </c>
-      <c r="S108" s="309">
+      <c r="S108" s="307">
         <v>43903</v>
       </c>
-      <c r="T108" s="309">
+      <c r="T108" s="307">
         <v>43902</v>
       </c>
-      <c r="U108" s="309">
+      <c r="U108" s="307">
         <v>43903</v>
       </c>
-      <c r="V108" s="313" t="s">
+      <c r="V108" s="311" t="s">
         <v>210</v>
       </c>
       <c r="W108" s="134" t="s">
@@ -15349,7 +15393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25" hidden="1">
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25">
       <c r="A109" s="278" t="s">
         <v>207</v>
       </c>
@@ -15373,38 +15417,38 @@
         <v>1</v>
       </c>
       <c r="K109" s="293">
-        <f t="shared" ref="K109:K112" si="71">6/8</f>
+        <f t="shared" ref="K109:K112" si="66">6/8</f>
         <v>0.75</v>
       </c>
       <c r="L109" s="294">
         <v>1</v>
       </c>
       <c r="M109" s="295">
-        <f t="shared" ref="M109:M115" si="72">J109*K109</f>
+        <f t="shared" ref="M109:M115" si="67">J109*K109</f>
         <v>0.75</v>
       </c>
       <c r="N109" s="296">
-        <f t="shared" ref="N109:N115" si="73">M109/20*1.15</f>
+        <f t="shared" ref="N109:N115" si="68">M109/20*1.15</f>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="418"/>
+      <c r="P109" s="406"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="R109" s="309">
+      <c r="R109" s="307">
         <v>43906</v>
       </c>
-      <c r="S109" s="309">
+      <c r="S109" s="307">
         <v>43931</v>
       </c>
-      <c r="T109" s="309">
+      <c r="T109" s="307">
         <v>43906</v>
       </c>
       <c r="U109" s="207"/>
-      <c r="V109" s="356" t="s">
+      <c r="V109" s="351" t="s">
         <v>302</v>
       </c>
       <c r="W109" s="135" t="s">
@@ -15425,32 +15469,32 @@
       <c r="AH109" s="73"/>
       <c r="AI109" s="73"/>
       <c r="AJ109" s="73"/>
-      <c r="AK109" s="325">
+      <c r="AK109" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL109" s="382">
+      <c r="AL109" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM109" s="325">
-        <f t="shared" ref="AM109:AM112" si="74">N109*AL109</f>
+      <c r="AM109" s="323">
+        <f t="shared" ref="AM109:AM112" si="69">N109*AL109</f>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN109" s="325">
-        <f t="shared" ref="AN109:AN112" si="75">N109-AM109</f>
+      <c r="AN109" s="323">
+        <f t="shared" ref="AN109:AN112" si="70">N109-AM109</f>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO109" s="337">
-        <f t="shared" ref="AO109:AO112" si="76">AK109/AM109</f>
+      <c r="AO109" s="335">
+        <f t="shared" ref="AO109:AO112" si="71">AK109/AM109</f>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP109" s="337"/>
-      <c r="AQ109" s="337"/>
-      <c r="AR109" s="337"/>
+      <c r="AP109" s="335"/>
+      <c r="AQ109" s="335"/>
+      <c r="AR109" s="335"/>
       <c r="AS109" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A110" s="278" t="s">
         <v>207</v>
       </c>
@@ -15474,36 +15518,36 @@
         <v>1</v>
       </c>
       <c r="K110" s="293">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>0.75</v>
       </c>
       <c r="L110" s="294">
         <v>1</v>
       </c>
       <c r="M110" s="295">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>0.75</v>
       </c>
       <c r="N110" s="296">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="418"/>
+      <c r="P110" s="406"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="R110" s="309">
+      <c r="R110" s="307">
         <v>43934</v>
       </c>
-      <c r="S110" s="309">
+      <c r="S110" s="307">
         <v>43945</v>
       </c>
       <c r="T110" s="4"/>
       <c r="U110" s="207"/>
-      <c r="V110" s="355" t="s">
+      <c r="V110" s="350" t="s">
         <v>301</v>
       </c>
       <c r="W110" s="135" t="s">
@@ -15524,32 +15568,32 @@
       <c r="AH110" s="73"/>
       <c r="AI110" s="73"/>
       <c r="AJ110" s="73"/>
-      <c r="AK110" s="325">
+      <c r="AK110" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL110" s="382">
+      <c r="AL110" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM110" s="325">
-        <f t="shared" si="74"/>
+      <c r="AM110" s="323">
+        <f t="shared" si="69"/>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN110" s="325">
-        <f t="shared" si="75"/>
+      <c r="AN110" s="323">
+        <f t="shared" si="70"/>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO110" s="337">
-        <f t="shared" si="76"/>
+      <c r="AO110" s="335">
+        <f t="shared" si="71"/>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP110" s="337"/>
-      <c r="AQ110" s="337"/>
-      <c r="AR110" s="337"/>
+      <c r="AP110" s="335"/>
+      <c r="AQ110" s="335"/>
+      <c r="AR110" s="335"/>
       <c r="AS110" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A111" s="278" t="s">
         <v>207</v>
       </c>
@@ -15573,36 +15617,36 @@
         <v>1</v>
       </c>
       <c r="K111" s="293">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>0.75</v>
       </c>
       <c r="L111" s="294">
         <v>1</v>
       </c>
       <c r="M111" s="295">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>0.75</v>
       </c>
       <c r="N111" s="296">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="418"/>
+      <c r="P111" s="406"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="R111" s="309">
+      <c r="R111" s="307">
         <v>43948</v>
       </c>
-      <c r="S111" s="309">
+      <c r="S111" s="307">
         <v>43950</v>
       </c>
       <c r="T111" s="4"/>
       <c r="U111" s="207"/>
-      <c r="V111" s="355" t="s">
+      <c r="V111" s="350" t="s">
         <v>301</v>
       </c>
       <c r="W111" s="135" t="s">
@@ -15623,32 +15667,32 @@
       <c r="AH111" s="73"/>
       <c r="AI111" s="73"/>
       <c r="AJ111" s="73"/>
-      <c r="AK111" s="325">
+      <c r="AK111" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL111" s="382">
+      <c r="AL111" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM111" s="325">
-        <f t="shared" si="74"/>
+      <c r="AM111" s="323">
+        <f t="shared" si="69"/>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN111" s="325">
-        <f t="shared" si="75"/>
+      <c r="AN111" s="323">
+        <f t="shared" si="70"/>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO111" s="337">
-        <f t="shared" si="76"/>
+      <c r="AO111" s="335">
+        <f t="shared" si="71"/>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP111" s="337"/>
-      <c r="AQ111" s="337"/>
-      <c r="AR111" s="337"/>
+      <c r="AP111" s="335"/>
+      <c r="AQ111" s="335"/>
+      <c r="AR111" s="335"/>
       <c r="AS111" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A112" s="278" t="s">
         <v>207</v>
       </c>
@@ -15672,32 +15716,32 @@
         <v>1</v>
       </c>
       <c r="K112" s="293">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>0.75</v>
       </c>
       <c r="L112" s="294">
         <v>1</v>
       </c>
       <c r="M112" s="295">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>0.75</v>
       </c>
       <c r="N112" s="296">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="419"/>
+      <c r="P112" s="407"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="R112" s="309"/>
-      <c r="S112" s="309"/>
+      <c r="R112" s="307"/>
+      <c r="S112" s="307"/>
       <c r="T112" s="4"/>
       <c r="U112" s="207"/>
-      <c r="V112" s="355" t="s">
+      <c r="V112" s="350" t="s">
         <v>301</v>
       </c>
       <c r="W112" s="135" t="s">
@@ -15718,32 +15762,32 @@
       <c r="AH112" s="73"/>
       <c r="AI112" s="73"/>
       <c r="AJ112" s="73"/>
-      <c r="AK112" s="325">
+      <c r="AK112" s="323">
         <v>0.7</v>
       </c>
-      <c r="AL112" s="382">
+      <c r="AL112" s="376">
         <v>0.9</v>
       </c>
-      <c r="AM112" s="325">
-        <f t="shared" si="74"/>
+      <c r="AM112" s="323">
+        <f t="shared" si="69"/>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN112" s="325">
-        <f t="shared" si="75"/>
+      <c r="AN112" s="323">
+        <f t="shared" si="70"/>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO112" s="337">
-        <f t="shared" si="76"/>
+      <c r="AO112" s="335">
+        <f t="shared" si="71"/>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP112" s="337"/>
-      <c r="AQ112" s="337"/>
-      <c r="AR112" s="337"/>
+      <c r="AP112" s="335"/>
+      <c r="AQ112" s="335"/>
+      <c r="AR112" s="335"/>
       <c r="AS112" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="113" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A113" s="51" t="s">
         <v>211</v>
       </c>
@@ -15774,11 +15818,11 @@
         <v>1</v>
       </c>
       <c r="M113" s="117">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>0.5</v>
       </c>
       <c r="N113" s="118">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="O113" s="142" t="s">
@@ -15790,7 +15834,7 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="207"/>
-      <c r="V113" s="314" t="s">
+      <c r="V113" s="312" t="s">
         <v>214</v>
       </c>
       <c r="W113" s="126"/>
@@ -15838,7 +15882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="114" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A114" s="51" t="s">
         <v>215</v>
       </c>
@@ -15869,11 +15913,11 @@
         <v>1</v>
       </c>
       <c r="M114" s="117">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>0.5</v>
       </c>
       <c r="N114" s="118">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>2.8749999999999998E-2</v>
       </c>
       <c r="O114" s="126"/>
@@ -15883,7 +15927,7 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
       <c r="U114" s="207"/>
-      <c r="V114" s="314" t="s">
+      <c r="V114" s="312" t="s">
         <v>214</v>
       </c>
       <c r="W114" s="126"/>
@@ -15962,17 +16006,17 @@
         <v>1</v>
       </c>
       <c r="M115" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>0.25</v>
       </c>
       <c r="N115" s="97">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="432" t="s">
+      <c r="P115" s="408" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -15999,7 +16043,7 @@
       <c r="X115" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="Y115" s="329" t="s">
+      <c r="Y115" s="327" t="s">
         <v>127</v>
       </c>
       <c r="Z115" s="98"/>
@@ -16007,7 +16051,7 @@
         <v>91</v>
       </c>
       <c r="AB115" s="143"/>
-      <c r="AC115" s="330"/>
+      <c r="AC115" s="328"/>
       <c r="AD115" s="215"/>
       <c r="AE115" s="215"/>
       <c r="AF115" s="215"/>
@@ -16022,14 +16066,14 @@
         <v>0.96</v>
       </c>
       <c r="AM115" s="256">
-        <f t="shared" ref="AM115:AM119" si="77">N115*AL115</f>
+        <f t="shared" ref="AM115:AM119" si="72">N115*AL115</f>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN115" s="252">
         <v>1.4375E-3</v>
       </c>
       <c r="AO115" s="266">
-        <f t="shared" ref="AO115:AO119" si="78">AK115/AM115</f>
+        <f t="shared" ref="AO115:AO119" si="73">AK115/AM115</f>
         <v>36.231884057971023</v>
       </c>
       <c r="AP115" s="263"/>
@@ -16070,17 +16114,17 @@
         <v>1</v>
       </c>
       <c r="M116" s="103">
-        <f t="shared" ref="M116:M127" si="79">J116*K116</f>
+        <f t="shared" ref="M116:M127" si="74">J116*K116</f>
         <v>0.25</v>
       </c>
       <c r="N116" s="104">
-        <f t="shared" ref="N116:N134" si="80">M116/20*1.15</f>
+        <f t="shared" ref="N116:N144" si="75">M116/20*1.15</f>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="433"/>
+      <c r="P116" s="409"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16123,15 +16167,15 @@
       <c r="AL116" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM116" s="375">
-        <f t="shared" si="77"/>
+      <c r="AM116" s="370">
+        <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN116" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO116" s="377">
-        <f t="shared" si="78"/>
+      <c r="AO116" s="371">
+        <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
       <c r="AP116" s="264"/>
@@ -16172,17 +16216,17 @@
         <v>1</v>
       </c>
       <c r="M117" s="103">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.25</v>
       </c>
       <c r="N117" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="433"/>
+      <c r="P117" s="409"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16225,15 +16269,15 @@
       <c r="AL117" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM117" s="375">
-        <f t="shared" si="77"/>
+      <c r="AM117" s="370">
+        <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN117" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO117" s="377">
-        <f t="shared" si="78"/>
+      <c r="AO117" s="371">
+        <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
       <c r="AP117" s="264"/>
@@ -16274,17 +16318,17 @@
         <v>1</v>
       </c>
       <c r="M118" s="103">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.25</v>
       </c>
       <c r="N118" s="104">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="433"/>
+      <c r="P118" s="409"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16300,7 +16344,7 @@
       <c r="U118" s="166">
         <v>43852</v>
       </c>
-      <c r="V118" s="315"/>
+      <c r="V118" s="313"/>
       <c r="W118" s="105" t="s">
         <v>164</v>
       </c>
@@ -16325,15 +16369,15 @@
       <c r="AL118" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM118" s="375">
-        <f t="shared" si="77"/>
+      <c r="AM118" s="370">
+        <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN118" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO118" s="377">
-        <f t="shared" si="78"/>
+      <c r="AO118" s="371">
+        <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
       <c r="AP118" s="264"/>
@@ -16374,17 +16418,17 @@
         <v>1</v>
       </c>
       <c r="M119" s="110">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>0.25</v>
       </c>
       <c r="N119" s="111">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="434"/>
+      <c r="P119" s="410"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16400,7 +16444,7 @@
       <c r="U119" s="166">
         <v>43882</v>
       </c>
-      <c r="V119" s="316"/>
+      <c r="V119" s="314"/>
       <c r="W119" s="105" t="s">
         <v>164</v>
       </c>
@@ -16425,15 +16469,15 @@
       <c r="AL119" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM119" s="375">
-        <f t="shared" si="77"/>
+      <c r="AM119" s="370">
+        <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN119" s="254">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO119" s="377">
-        <f t="shared" si="78"/>
+      <c r="AO119" s="371">
+        <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
       <c r="AP119" s="265"/>
@@ -16443,7 +16487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="120" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A120" s="42" t="s">
         <v>222</v>
       </c>
@@ -16465,24 +16509,24 @@
         <v>4</v>
       </c>
       <c r="K120" s="115">
-        <f t="shared" ref="K120:K134" si="81">4/8</f>
+        <f t="shared" ref="K120:K134" si="76">4/8</f>
         <v>0.5</v>
       </c>
       <c r="L120" s="116">
         <v>1</v>
       </c>
       <c r="M120" s="117">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="N120" s="407">
-        <f t="shared" si="80"/>
+      <c r="N120" s="401">
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="428" t="s">
+      <c r="P120" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16500,20 +16544,20 @@
       <c r="U120" s="192">
         <v>43826</v>
       </c>
-      <c r="V120" s="317" t="s">
+      <c r="V120" s="315" t="s">
         <v>225</v>
       </c>
       <c r="W120" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="X120" s="399"/>
-      <c r="Y120" s="329"/>
-      <c r="Z120" s="399"/>
+      <c r="X120" s="393"/>
+      <c r="Y120" s="327"/>
+      <c r="Z120" s="393"/>
       <c r="AA120" s="143" t="s">
         <v>91</v>
       </c>
       <c r="AB120" s="143"/>
-      <c r="AC120" s="330"/>
+      <c r="AC120" s="328"/>
       <c r="AD120" s="215"/>
       <c r="AE120" s="215"/>
       <c r="AF120" s="215"/>
@@ -16528,15 +16572,15 @@
         <v>0.95</v>
       </c>
       <c r="AM120" s="256">
-        <f t="shared" ref="AM120:AM134" si="82">N120*AL120</f>
+        <f t="shared" ref="AM120:AM144" si="77">N120*AL120</f>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN120" s="256">
-        <f t="shared" ref="AN120:AN134" si="83">N120-AM120</f>
+        <f t="shared" ref="AN120:AN144" si="78">N120-AM120</f>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO120" s="266">
-        <f t="shared" ref="AO120:AO134" si="84">AK120/AM120</f>
+        <f t="shared" ref="AO120:AO144" si="79">AK120/AM120</f>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP120" s="263"/>
@@ -16546,13 +16590,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="121" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A121" s="65" t="s">
         <v>222</v>
       </c>
       <c r="B121" s="65"/>
       <c r="C121" s="65"/>
-      <c r="D121" s="388" t="s">
+      <c r="D121" s="382" t="s">
         <v>33</v>
       </c>
       <c r="E121" s="65"/>
@@ -16561,31 +16605,31 @@
         <v>223</v>
       </c>
       <c r="H121" s="67"/>
-      <c r="I121" s="402" t="s">
+      <c r="I121" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J121" s="403">
+      <c r="J121" s="397">
         <v>4</v>
       </c>
       <c r="K121" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L121" s="294">
         <v>1</v>
       </c>
-      <c r="M121" s="372">
-        <f t="shared" si="79"/>
+      <c r="M121" s="367">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="N121" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="429"/>
+      <c r="P121" s="412"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16601,7 +16645,7 @@
       <c r="U121" s="206">
         <v>43880</v>
       </c>
-      <c r="V121" s="318" t="s">
+      <c r="V121" s="316" t="s">
         <v>225</v>
       </c>
       <c r="W121" s="105" t="s">
@@ -16614,7 +16658,7 @@
         <v>91</v>
       </c>
       <c r="AB121" s="144"/>
-      <c r="AC121" s="331"/>
+      <c r="AC121" s="329"/>
       <c r="AD121" s="237"/>
       <c r="AE121" s="237"/>
       <c r="AF121" s="237"/>
@@ -16622,22 +16666,22 @@
       <c r="AH121" s="237"/>
       <c r="AI121" s="237"/>
       <c r="AJ121" s="144"/>
-      <c r="AK121" s="338">
+      <c r="AK121" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL121" s="404">
+      <c r="AL121" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM121" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM121" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN121" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN121" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO121" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO121" s="339">
+        <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP121" s="270"/>
@@ -16647,13 +16691,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="122" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A122" s="65" t="s">
         <v>222</v>
       </c>
       <c r="B122" s="65"/>
       <c r="C122" s="65"/>
-      <c r="D122" s="388" t="s">
+      <c r="D122" s="382" t="s">
         <v>33</v>
       </c>
       <c r="E122" s="65"/>
@@ -16662,31 +16706,31 @@
         <v>223</v>
       </c>
       <c r="H122" s="67"/>
-      <c r="I122" s="402" t="s">
+      <c r="I122" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J122" s="403">
+      <c r="J122" s="397">
         <v>4</v>
       </c>
       <c r="K122" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L122" s="294">
         <v>1</v>
       </c>
-      <c r="M122" s="372">
-        <f t="shared" si="79"/>
+      <c r="M122" s="367">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="N122" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="429"/>
+      <c r="P122" s="412"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16702,7 +16746,7 @@
       <c r="U122" s="166">
         <v>43882</v>
       </c>
-      <c r="V122" s="319" t="s">
+      <c r="V122" s="317" t="s">
         <v>225</v>
       </c>
       <c r="W122" s="105" t="s">
@@ -16715,7 +16759,7 @@
         <v>91</v>
       </c>
       <c r="AB122" s="144"/>
-      <c r="AC122" s="331"/>
+      <c r="AC122" s="329"/>
       <c r="AD122" s="237"/>
       <c r="AE122" s="237"/>
       <c r="AF122" s="237"/>
@@ -16723,22 +16767,22 @@
       <c r="AH122" s="237"/>
       <c r="AI122" s="237"/>
       <c r="AJ122" s="144"/>
-      <c r="AK122" s="338">
+      <c r="AK122" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL122" s="404">
+      <c r="AL122" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM122" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM122" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN122" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN122" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO122" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO122" s="339">
+        <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP122" s="270"/>
@@ -16748,13 +16792,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="123" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A123" s="65" t="s">
         <v>222</v>
       </c>
       <c r="B123" s="65"/>
       <c r="C123" s="65"/>
-      <c r="D123" s="388" t="s">
+      <c r="D123" s="382" t="s">
         <v>33</v>
       </c>
       <c r="E123" s="65"/>
@@ -16763,31 +16807,31 @@
         <v>223</v>
       </c>
       <c r="H123" s="67"/>
-      <c r="I123" s="402" t="s">
+      <c r="I123" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J123" s="403">
+      <c r="J123" s="397">
         <v>4</v>
       </c>
       <c r="K123" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L123" s="294">
         <v>1</v>
       </c>
-      <c r="M123" s="372">
-        <f t="shared" si="79"/>
+      <c r="M123" s="367">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="N123" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="429"/>
+      <c r="P123" s="412"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16803,7 +16847,7 @@
       <c r="U123" s="206">
         <v>43882</v>
       </c>
-      <c r="V123" s="319" t="s">
+      <c r="V123" s="317" t="s">
         <v>225</v>
       </c>
       <c r="W123" s="105" t="s">
@@ -16816,7 +16860,7 @@
         <v>91</v>
       </c>
       <c r="AB123" s="144"/>
-      <c r="AC123" s="331"/>
+      <c r="AC123" s="329"/>
       <c r="AD123" s="237"/>
       <c r="AE123" s="237"/>
       <c r="AF123" s="237"/>
@@ -16824,22 +16868,22 @@
       <c r="AH123" s="237"/>
       <c r="AI123" s="237"/>
       <c r="AJ123" s="144"/>
-      <c r="AK123" s="338">
+      <c r="AK123" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL123" s="404">
+      <c r="AL123" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM123" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM123" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN123" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN123" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO123" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO123" s="339">
+        <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
       <c r="AP123" s="270"/>
@@ -16849,13 +16893,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="124" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A124" s="284" t="s">
         <v>222</v>
       </c>
       <c r="B124" s="284"/>
       <c r="C124" s="284"/>
-      <c r="D124" s="389" t="s">
+      <c r="D124" s="383" t="s">
         <v>33</v>
       </c>
       <c r="E124" s="284"/>
@@ -16864,31 +16908,31 @@
         <v>223</v>
       </c>
       <c r="H124" s="68"/>
-      <c r="I124" s="402" t="s">
+      <c r="I124" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J124" s="403">
+      <c r="J124" s="397">
         <v>4</v>
       </c>
       <c r="K124" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L124" s="294">
         <v>1</v>
       </c>
-      <c r="M124" s="372">
-        <f t="shared" si="79"/>
+      <c r="M124" s="367">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="N124" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="430"/>
+      <c r="P124" s="413"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -16904,7 +16948,7 @@
       <c r="U124" s="206">
         <v>43885</v>
       </c>
-      <c r="V124" s="319" t="s">
+      <c r="V124" s="317" t="s">
         <v>225</v>
       </c>
       <c r="W124" s="148" t="s">
@@ -16917,40 +16961,40 @@
         <v>91</v>
       </c>
       <c r="AB124" s="145"/>
-      <c r="AC124" s="332"/>
-      <c r="AD124" s="333"/>
-      <c r="AE124" s="333"/>
-      <c r="AF124" s="333"/>
-      <c r="AG124" s="333"/>
-      <c r="AH124" s="333"/>
-      <c r="AI124" s="333"/>
+      <c r="AC124" s="330"/>
+      <c r="AD124" s="331"/>
+      <c r="AE124" s="331"/>
+      <c r="AF124" s="331"/>
+      <c r="AG124" s="331"/>
+      <c r="AH124" s="331"/>
+      <c r="AI124" s="331"/>
       <c r="AJ124" s="145"/>
-      <c r="AK124" s="338">
+      <c r="AK124" s="336">
         <v>0.54</v>
       </c>
-      <c r="AL124" s="404">
+      <c r="AL124" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM124" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM124" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN124" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN124" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO124" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO124" s="339">
+        <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
-      <c r="AP124" s="344"/>
-      <c r="AQ124" s="344"/>
-      <c r="AR124" s="344"/>
+      <c r="AP124" s="340"/>
+      <c r="AQ124" s="340"/>
+      <c r="AR124" s="340"/>
       <c r="AS124" s="142" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="125" spans="1:45" s="31" customFormat="1" ht="28.5" customHeight="1">
       <c r="A125" s="42" t="s">
         <v>226</v>
       </c>
@@ -16972,24 +17016,24 @@
         <v>4</v>
       </c>
       <c r="K125" s="115">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L125" s="116">
         <v>1</v>
       </c>
       <c r="M125" s="117">
-        <f t="shared" si="79"/>
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="N125" s="407">
-        <f t="shared" si="80"/>
+      <c r="N125" s="401">
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="O125" s="406" t="s">
+      <c r="O125" s="400" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="428" t="s">
+      <c r="P125" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17013,14 +17057,14 @@
       <c r="W125" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="X125" s="399"/>
-      <c r="Y125" s="329"/>
-      <c r="Z125" s="399"/>
+      <c r="X125" s="393"/>
+      <c r="Y125" s="327"/>
+      <c r="Z125" s="393"/>
       <c r="AA125" s="143" t="s">
         <v>91</v>
       </c>
       <c r="AB125" s="143"/>
-      <c r="AC125" s="330"/>
+      <c r="AC125" s="328"/>
       <c r="AD125" s="215"/>
       <c r="AE125" s="215"/>
       <c r="AF125" s="215"/>
@@ -17035,15 +17079,15 @@
         <v>0.95</v>
       </c>
       <c r="AM125" s="256">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
       <c r="AN125" s="256">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
       <c r="AO125" s="266">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP125" s="263"/>
@@ -17053,7 +17097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="126" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A126" s="45" t="s">
         <v>226</v>
       </c>
@@ -17068,31 +17112,31 @@
         <v>227</v>
       </c>
       <c r="H126" s="67"/>
-      <c r="I126" s="402" t="s">
+      <c r="I126" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J126" s="403">
+      <c r="J126" s="397">
         <v>4</v>
       </c>
       <c r="K126" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L126" s="294">
         <v>1</v>
       </c>
-      <c r="M126" s="372">
-        <f t="shared" si="79"/>
+      <c r="M126" s="367">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="N126" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="429"/>
+      <c r="P126" s="412"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17129,22 +17173,22 @@
       <c r="AH126" s="217"/>
       <c r="AI126" s="217"/>
       <c r="AJ126" s="135"/>
-      <c r="AK126" s="400">
+      <c r="AK126" s="394">
         <v>0.27</v>
       </c>
-      <c r="AL126" s="404">
+      <c r="AL126" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM126" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM126" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN126" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN126" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO126" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO126" s="339">
+        <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP126" s="264"/>
@@ -17154,7 +17198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="127" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A127" s="45" t="s">
         <v>226</v>
       </c>
@@ -17169,31 +17213,31 @@
         <v>227</v>
       </c>
       <c r="H127" s="67"/>
-      <c r="I127" s="402" t="s">
+      <c r="I127" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J127" s="403">
+      <c r="J127" s="397">
         <v>4</v>
       </c>
       <c r="K127" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L127" s="294">
         <v>1</v>
       </c>
-      <c r="M127" s="372">
-        <f t="shared" si="79"/>
+      <c r="M127" s="367">
+        <f t="shared" si="74"/>
         <v>2</v>
       </c>
       <c r="N127" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="429"/>
+      <c r="P127" s="412"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17230,22 +17274,22 @@
       <c r="AH127" s="217"/>
       <c r="AI127" s="217"/>
       <c r="AJ127" s="135"/>
-      <c r="AK127" s="400">
+      <c r="AK127" s="394">
         <v>0.27</v>
       </c>
-      <c r="AL127" s="404">
+      <c r="AL127" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM127" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM127" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN127" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN127" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO127" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO127" s="339">
+        <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP127" s="264"/>
@@ -17255,7 +17299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="128" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A128" s="45" t="s">
         <v>226</v>
       </c>
@@ -17270,31 +17314,31 @@
         <v>227</v>
       </c>
       <c r="H128" s="67"/>
-      <c r="I128" s="402" t="s">
+      <c r="I128" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J128" s="403">
+      <c r="J128" s="397">
         <v>4</v>
       </c>
       <c r="K128" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L128" s="294">
         <v>1</v>
       </c>
-      <c r="M128" s="372">
-        <f t="shared" ref="M128:M134" si="85">J128*K128</f>
+      <c r="M128" s="367">
+        <f t="shared" ref="M128:M139" si="80">J128*K128</f>
         <v>2</v>
       </c>
       <c r="N128" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="429"/>
+      <c r="P128" s="412"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17331,22 +17375,22 @@
       <c r="AH128" s="217"/>
       <c r="AI128" s="217"/>
       <c r="AJ128" s="135"/>
-      <c r="AK128" s="400">
+      <c r="AK128" s="394">
         <v>0.27</v>
       </c>
-      <c r="AL128" s="404">
+      <c r="AL128" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM128" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM128" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN128" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN128" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO128" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO128" s="339">
+        <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP128" s="264"/>
@@ -17356,7 +17400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1">
+    <row r="129" spans="1:45" s="32" customFormat="1" ht="28.5" customHeight="1">
       <c r="A129" s="62" t="s">
         <v>226</v>
       </c>
@@ -17371,31 +17415,31 @@
         <v>227</v>
       </c>
       <c r="H129" s="68"/>
-      <c r="I129" s="402" t="s">
+      <c r="I129" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J129" s="403">
+      <c r="J129" s="397">
         <v>4</v>
       </c>
       <c r="K129" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L129" s="294">
         <v>1</v>
       </c>
-      <c r="M129" s="372">
-        <f t="shared" si="85"/>
+      <c r="M129" s="367">
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="N129" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="430"/>
+      <c r="P129" s="413"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17432,22 +17476,22 @@
       <c r="AH129" s="234"/>
       <c r="AI129" s="234"/>
       <c r="AJ129" s="142"/>
-      <c r="AK129" s="400">
+      <c r="AK129" s="394">
         <v>0.27</v>
       </c>
-      <c r="AL129" s="404">
+      <c r="AL129" s="398">
         <v>0.95</v>
       </c>
-      <c r="AM129" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM129" s="336">
+        <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN129" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN129" s="336">
+        <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO129" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO129" s="339">
+        <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
       <c r="AP129" s="269"/>
@@ -17457,7 +17501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="130" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A130" s="42" t="s">
         <v>228</v>
       </c>
@@ -17479,24 +17523,24 @@
         <v>4</v>
       </c>
       <c r="K130" s="115">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L130" s="116">
         <v>1</v>
       </c>
       <c r="M130" s="117">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
-      <c r="N130" s="407">
-        <f t="shared" si="80"/>
+      <c r="N130" s="401">
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="428" t="s">
+      <c r="P130" s="411" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17520,14 +17564,14 @@
       <c r="W130" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="X130" s="399"/>
-      <c r="Y130" s="329"/>
-      <c r="Z130" s="399"/>
+      <c r="X130" s="393"/>
+      <c r="Y130" s="327"/>
+      <c r="Z130" s="393"/>
       <c r="AA130" s="143" t="s">
         <v>91</v>
       </c>
       <c r="AB130" s="143"/>
-      <c r="AC130" s="330"/>
+      <c r="AC130" s="328"/>
       <c r="AD130" s="215"/>
       <c r="AE130" s="215"/>
       <c r="AF130" s="215"/>
@@ -17542,15 +17586,15 @@
         <v>0.85</v>
       </c>
       <c r="AM130" s="256">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
       <c r="AN130" s="256">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
       <c r="AO130" s="266">
-        <f t="shared" si="84"/>
+        <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP130" s="263"/>
@@ -17560,13 +17604,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="131" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A131" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
-      <c r="D131" s="388" t="s">
+      <c r="D131" s="382" t="s">
         <v>33</v>
       </c>
       <c r="E131" s="45"/>
@@ -17575,31 +17619,31 @@
         <v>229</v>
       </c>
       <c r="H131" s="67"/>
-      <c r="I131" s="402" t="s">
+      <c r="I131" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J131" s="403">
+      <c r="J131" s="397">
         <v>4</v>
       </c>
       <c r="K131" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L131" s="294">
         <v>1</v>
       </c>
-      <c r="M131" s="372">
-        <f t="shared" si="85"/>
+      <c r="M131" s="367">
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="N131" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="429"/>
+      <c r="P131" s="412"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17636,22 +17680,22 @@
       <c r="AH131" s="217"/>
       <c r="AI131" s="217"/>
       <c r="AJ131" s="135"/>
-      <c r="AK131" s="338">
+      <c r="AK131" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL131" s="404">
+      <c r="AL131" s="398">
         <v>0.85</v>
       </c>
-      <c r="AM131" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM131" s="336">
+        <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN131" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN131" s="336">
+        <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO131" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO131" s="339">
+        <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP131" s="264"/>
@@ -17661,13 +17705,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A132" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
-      <c r="D132" s="388" t="s">
+      <c r="D132" s="382" t="s">
         <v>33</v>
       </c>
       <c r="E132" s="45"/>
@@ -17676,31 +17720,31 @@
         <v>229</v>
       </c>
       <c r="H132" s="67"/>
-      <c r="I132" s="402" t="s">
+      <c r="I132" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J132" s="403">
+      <c r="J132" s="397">
         <v>4</v>
       </c>
       <c r="K132" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L132" s="294">
         <v>1</v>
       </c>
-      <c r="M132" s="372">
-        <f t="shared" si="85"/>
+      <c r="M132" s="367">
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="N132" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="429"/>
+      <c r="P132" s="412"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17737,22 +17781,22 @@
       <c r="AH132" s="217"/>
       <c r="AI132" s="217"/>
       <c r="AJ132" s="135"/>
-      <c r="AK132" s="338">
+      <c r="AK132" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL132" s="404">
+      <c r="AL132" s="398">
         <v>0.85</v>
       </c>
-      <c r="AM132" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM132" s="336">
+        <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN132" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN132" s="336">
+        <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO132" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO132" s="339">
+        <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP132" s="264"/>
@@ -17762,13 +17806,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="133" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A133" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B133" s="45"/>
       <c r="C133" s="45"/>
-      <c r="D133" s="388" t="s">
+      <c r="D133" s="382" t="s">
         <v>33</v>
       </c>
       <c r="E133" s="45"/>
@@ -17777,31 +17821,31 @@
         <v>229</v>
       </c>
       <c r="H133" s="67"/>
-      <c r="I133" s="402" t="s">
+      <c r="I133" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J133" s="403">
+      <c r="J133" s="397">
         <v>4</v>
       </c>
       <c r="K133" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L133" s="294">
         <v>1</v>
       </c>
-      <c r="M133" s="372">
-        <f t="shared" si="85"/>
+      <c r="M133" s="367">
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="N133" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="429"/>
+      <c r="P133" s="412"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -17838,22 +17882,22 @@
       <c r="AH133" s="217"/>
       <c r="AI133" s="217"/>
       <c r="AJ133" s="135"/>
-      <c r="AK133" s="338">
+      <c r="AK133" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL133" s="404">
+      <c r="AL133" s="398">
         <v>0.85</v>
       </c>
-      <c r="AM133" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM133" s="336">
+        <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN133" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN133" s="336">
+        <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO133" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO133" s="339">
+        <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP133" s="264"/>
@@ -17863,13 +17907,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:45" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A134" s="62" t="s">
         <v>228</v>
       </c>
       <c r="B134" s="62"/>
       <c r="C134" s="62"/>
-      <c r="D134" s="389" t="s">
+      <c r="D134" s="383" t="s">
         <v>33</v>
       </c>
       <c r="E134" s="62"/>
@@ -17878,31 +17922,31 @@
         <v>229</v>
       </c>
       <c r="H134" s="68"/>
-      <c r="I134" s="402" t="s">
+      <c r="I134" s="396" t="s">
         <v>310</v>
       </c>
-      <c r="J134" s="403">
+      <c r="J134" s="397">
         <v>4</v>
       </c>
       <c r="K134" s="293">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="L134" s="294">
         <v>1</v>
       </c>
-      <c r="M134" s="372">
-        <f t="shared" si="85"/>
+      <c r="M134" s="367">
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="N134" s="296">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="430"/>
+      <c r="P134" s="413"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -17939,22 +17983,22 @@
       <c r="AH134" s="234"/>
       <c r="AI134" s="234"/>
       <c r="AJ134" s="142"/>
-      <c r="AK134" s="338">
+      <c r="AK134" s="336">
         <v>0.5</v>
       </c>
-      <c r="AL134" s="404">
+      <c r="AL134" s="398">
         <v>0.85</v>
       </c>
-      <c r="AM134" s="338">
-        <f t="shared" si="82"/>
+      <c r="AM134" s="336">
+        <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN134" s="338">
-        <f t="shared" si="83"/>
+      <c r="AN134" s="336">
+        <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO134" s="343">
-        <f t="shared" si="84"/>
+      <c r="AO134" s="339">
+        <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
       <c r="AP134" s="269"/>
@@ -17964,7 +18008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="16.5" hidden="1">
+    <row r="135" spans="1:45" ht="16.5">
       <c r="A135" s="51" t="s">
         <v>230</v>
       </c>
@@ -17993,16 +18037,18 @@
       <c r="L135" s="116">
         <v>1</v>
       </c>
-      <c r="M135" s="117">
+      <c r="M135" s="446">
+        <f t="shared" si="80"/>
         <v>0.66</v>
       </c>
-      <c r="N135" s="117">
-        <v>0.66</v>
+      <c r="N135" s="447">
+        <f t="shared" si="75"/>
+        <v>3.7949999999999998E-2</v>
       </c>
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="431" t="s">
+      <c r="P135" s="402" t="s">
         <v>20</v>
       </c>
       <c r="Q135" s="160" t="s">
@@ -18044,20 +18090,23 @@
       <c r="AG135" s="51"/>
       <c r="AH135" s="51"/>
       <c r="AI135" s="51"/>
-      <c r="AK135" s="256">
-        <v>1</v>
-      </c>
-      <c r="AL135" s="208">
-        <v>0.9</v>
-      </c>
-      <c r="AM135" s="256">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN135" s="256">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO135" s="266">
-        <v>19.323671497584499</v>
+      <c r="AK135" s="441">
+        <v>0.7</v>
+      </c>
+      <c r="AL135" s="438">
+        <v>0.94</v>
+      </c>
+      <c r="AM135" s="437">
+        <f>N135*AL135</f>
+        <v>3.5672999999999996E-2</v>
+      </c>
+      <c r="AN135" s="437">
+        <f t="shared" si="78"/>
+        <v>2.2770000000000012E-3</v>
+      </c>
+      <c r="AO135" s="442">
+        <f t="shared" si="79"/>
+        <v>19.622683822498811</v>
       </c>
       <c r="AP135" s="73" t="s">
         <v>10</v>
@@ -18066,7 +18115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="16.5" hidden="1">
+    <row r="136" spans="1:45" ht="16.5">
       <c r="A136" s="288" t="s">
         <v>230</v>
       </c>
@@ -18091,16 +18140,18 @@
       <c r="L136" s="305">
         <v>1</v>
       </c>
-      <c r="M136" s="306">
-        <v>1</v>
-      </c>
-      <c r="N136" s="307">
-        <v>5.8000000000000003E-2</v>
+      <c r="M136" s="289">
+        <f t="shared" si="80"/>
+        <v>0.66</v>
+      </c>
+      <c r="N136" s="290">
+        <f t="shared" si="75"/>
+        <v>3.7949999999999998E-2</v>
       </c>
       <c r="O136" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P136" s="409"/>
+      <c r="P136" s="403"/>
       <c r="Q136" s="165" t="s">
         <v>100</v>
       </c>
@@ -18116,20 +18167,20 @@
       <c r="U136" s="161">
         <v>43921</v>
       </c>
-      <c r="V136" s="320">
-        <v>1</v>
-      </c>
-      <c r="W136" s="321" t="s">
+      <c r="V136" s="318">
+        <v>1</v>
+      </c>
+      <c r="W136" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X136" s="322" t="s">
+      <c r="X136" s="320" t="s">
         <v>107</v>
       </c>
-      <c r="Y136" s="334" t="s">
+      <c r="Y136" s="332" t="s">
         <v>127</v>
       </c>
       <c r="Z136" s="51"/>
-      <c r="AA136" s="322" t="s">
+      <c r="AA136" s="320" t="s">
         <v>108</v>
       </c>
       <c r="AB136" s="51"/>
@@ -18140,29 +18191,32 @@
       <c r="AG136" s="51"/>
       <c r="AH136" s="51"/>
       <c r="AI136" s="51"/>
-      <c r="AK136" s="341">
-        <v>1</v>
-      </c>
-      <c r="AL136" s="342">
-        <v>0.9</v>
-      </c>
-      <c r="AM136" s="341">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN136" s="341">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO136" s="345">
-        <v>19.323671497584499</v>
+      <c r="AK136" s="443">
+        <v>0.7</v>
+      </c>
+      <c r="AL136" s="440">
+        <v>0.94</v>
+      </c>
+      <c r="AM136" s="439">
+        <f t="shared" ref="AM136:AM139" si="81">N136*AL136</f>
+        <v>3.5672999999999996E-2</v>
+      </c>
+      <c r="AN136" s="439">
+        <f t="shared" si="78"/>
+        <v>2.2770000000000012E-3</v>
+      </c>
+      <c r="AO136" s="444">
+        <f t="shared" si="79"/>
+        <v>19.622683822498811</v>
       </c>
       <c r="AP136" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS136" s="322" t="s">
+      <c r="AS136" s="320" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="16.5" hidden="1">
+    <row r="137" spans="1:45" ht="16.5">
       <c r="A137" s="288" t="s">
         <v>230</v>
       </c>
@@ -18187,16 +18241,18 @@
       <c r="L137" s="305">
         <v>1</v>
       </c>
-      <c r="M137" s="306">
-        <v>1</v>
-      </c>
-      <c r="N137" s="307">
-        <v>5.8000000000000003E-2</v>
+      <c r="M137" s="289">
+        <f t="shared" si="80"/>
+        <v>0.66</v>
+      </c>
+      <c r="N137" s="290">
+        <f t="shared" si="75"/>
+        <v>3.7949999999999998E-2</v>
       </c>
       <c r="O137" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P137" s="409"/>
+      <c r="P137" s="403"/>
       <c r="Q137" s="165" t="s">
         <v>102</v>
       </c>
@@ -18211,17 +18267,17 @@
       </c>
       <c r="U137" s="207"/>
       <c r="V137" s="51"/>
-      <c r="W137" s="321" t="s">
+      <c r="W137" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X137" s="322" t="s">
+      <c r="X137" s="320" t="s">
         <v>107</v>
       </c>
-      <c r="Y137" s="334" t="s">
+      <c r="Y137" s="332" t="s">
         <v>127</v>
       </c>
       <c r="Z137" s="51"/>
-      <c r="AA137" s="322" t="s">
+      <c r="AA137" s="320" t="s">
         <v>108</v>
       </c>
       <c r="AB137" s="51"/>
@@ -18232,29 +18288,32 @@
       <c r="AG137" s="51"/>
       <c r="AH137" s="51"/>
       <c r="AI137" s="51"/>
-      <c r="AK137" s="341">
-        <v>1</v>
-      </c>
-      <c r="AL137" s="342">
-        <v>0.9</v>
-      </c>
-      <c r="AM137" s="341">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN137" s="341">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO137" s="345">
-        <v>19.323671497584499</v>
+      <c r="AK137" s="443">
+        <v>0.7</v>
+      </c>
+      <c r="AL137" s="440">
+        <v>0.94</v>
+      </c>
+      <c r="AM137" s="439">
+        <f t="shared" si="81"/>
+        <v>3.5672999999999996E-2</v>
+      </c>
+      <c r="AN137" s="439">
+        <f t="shared" si="78"/>
+        <v>2.2770000000000012E-3</v>
+      </c>
+      <c r="AO137" s="444">
+        <f t="shared" si="79"/>
+        <v>19.622683822498811</v>
       </c>
       <c r="AP137" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS137" s="322" t="s">
+      <c r="AS137" s="320" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="16.5" hidden="1">
+    <row r="138" spans="1:45" ht="16.5">
       <c r="A138" s="288" t="s">
         <v>230</v>
       </c>
@@ -18279,16 +18338,18 @@
       <c r="L138" s="305">
         <v>1</v>
       </c>
-      <c r="M138" s="306">
-        <v>1</v>
-      </c>
-      <c r="N138" s="307">
-        <v>5.8000000000000003E-2</v>
+      <c r="M138" s="289">
+        <f t="shared" si="80"/>
+        <v>0.66</v>
+      </c>
+      <c r="N138" s="290">
+        <f t="shared" si="75"/>
+        <v>3.7949999999999998E-2</v>
       </c>
       <c r="O138" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P138" s="409"/>
+      <c r="P138" s="403"/>
       <c r="Q138" s="165" t="s">
         <v>13</v>
       </c>
@@ -18301,17 +18362,17 @@
       <c r="T138" s="161"/>
       <c r="U138" s="207"/>
       <c r="V138" s="51"/>
-      <c r="W138" s="321" t="s">
+      <c r="W138" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X138" s="322" t="s">
+      <c r="X138" s="320" t="s">
         <v>107</v>
       </c>
-      <c r="Y138" s="334" t="s">
+      <c r="Y138" s="332" t="s">
         <v>127</v>
       </c>
       <c r="Z138" s="51"/>
-      <c r="AA138" s="322" t="s">
+      <c r="AA138" s="320" t="s">
         <v>108</v>
       </c>
       <c r="AB138" s="51"/>
@@ -18322,29 +18383,32 @@
       <c r="AG138" s="51"/>
       <c r="AH138" s="51"/>
       <c r="AI138" s="51"/>
-      <c r="AK138" s="341">
-        <v>1</v>
-      </c>
-      <c r="AL138" s="342">
-        <v>0.9</v>
-      </c>
-      <c r="AM138" s="341">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN138" s="341">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO138" s="345">
-        <v>19.323671497584499</v>
+      <c r="AK138" s="445">
+        <v>0.7</v>
+      </c>
+      <c r="AL138" s="440">
+        <v>0.94</v>
+      </c>
+      <c r="AM138" s="439">
+        <f t="shared" si="81"/>
+        <v>3.5672999999999996E-2</v>
+      </c>
+      <c r="AN138" s="439">
+        <f t="shared" si="78"/>
+        <v>2.2770000000000012E-3</v>
+      </c>
+      <c r="AO138" s="444">
+        <f t="shared" si="79"/>
+        <v>19.622683822498811</v>
       </c>
       <c r="AP138" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS138" s="322" t="s">
+      <c r="AS138" s="320" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="16.5" hidden="1">
+    <row r="139" spans="1:45" ht="16.5">
       <c r="A139" s="288" t="s">
         <v>230</v>
       </c>
@@ -18369,16 +18433,18 @@
       <c r="L139" s="305">
         <v>1</v>
       </c>
-      <c r="M139" s="306">
-        <v>1</v>
-      </c>
-      <c r="N139" s="307">
-        <v>5.8000000000000003E-2</v>
+      <c r="M139" s="289">
+        <f t="shared" si="80"/>
+        <v>0.66</v>
+      </c>
+      <c r="N139" s="290">
+        <f t="shared" si="75"/>
+        <v>3.7949999999999998E-2</v>
       </c>
       <c r="O139" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P139" s="410"/>
+      <c r="P139" s="404"/>
       <c r="Q139" s="165" t="s">
         <v>16</v>
       </c>
@@ -18387,17 +18453,17 @@
       <c r="T139" s="161"/>
       <c r="U139" s="207"/>
       <c r="V139" s="51"/>
-      <c r="W139" s="321" t="s">
+      <c r="W139" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X139" s="322" t="s">
+      <c r="X139" s="320" t="s">
         <v>107</v>
       </c>
-      <c r="Y139" s="334" t="s">
+      <c r="Y139" s="332" t="s">
         <v>127</v>
       </c>
       <c r="Z139" s="51"/>
-      <c r="AA139" s="322" t="s">
+      <c r="AA139" s="320" t="s">
         <v>108</v>
       </c>
       <c r="AB139" s="51"/>
@@ -18408,29 +18474,32 @@
       <c r="AG139" s="51"/>
       <c r="AH139" s="51"/>
       <c r="AI139" s="51"/>
-      <c r="AK139" s="341">
-        <v>1</v>
-      </c>
-      <c r="AL139" s="342">
-        <v>0.9</v>
-      </c>
-      <c r="AM139" s="341">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN139" s="341">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO139" s="345">
-        <v>19.323671497584499</v>
+      <c r="AK139" s="443">
+        <v>0.7</v>
+      </c>
+      <c r="AL139" s="440">
+        <v>0.94</v>
+      </c>
+      <c r="AM139" s="439">
+        <f t="shared" si="81"/>
+        <v>3.5672999999999996E-2</v>
+      </c>
+      <c r="AN139" s="439">
+        <f t="shared" si="78"/>
+        <v>2.2770000000000012E-3</v>
+      </c>
+      <c r="AO139" s="444">
+        <f t="shared" si="79"/>
+        <v>19.622683822498811</v>
       </c>
       <c r="AP139" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS139" s="322" t="s">
+      <c r="AS139" s="320" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="15.75" hidden="1">
+    <row r="140" spans="1:45" ht="15.75">
       <c r="A140" s="51" t="s">
         <v>234</v>
       </c>
@@ -18457,12 +18526,12 @@
         <f>J140*K140</f>
         <v>0.25</v>
       </c>
-      <c r="N140" s="117">
-        <f>K140*L140</f>
-        <v>0.25</v>
+      <c r="N140" s="447">
+        <f t="shared" si="75"/>
+        <v>1.4374999999999999E-2</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="431" t="s">
+      <c r="P140" s="402" t="s">
         <v>4</v>
       </c>
       <c r="Q140" s="160" t="s">
@@ -18477,7 +18546,7 @@
       <c r="T140" s="161"/>
       <c r="U140" s="161"/>
       <c r="V140" s="51"/>
-      <c r="W140" s="365" t="s">
+      <c r="W140" s="360" t="s">
         <v>126</v>
       </c>
       <c r="X140" s="73" t="s">
@@ -18501,20 +18570,23 @@
       <c r="AJ140" s="256">
         <v>0.7</v>
       </c>
-      <c r="AK140" s="256">
-        <v>1</v>
-      </c>
-      <c r="AL140" s="208">
+      <c r="AK140" s="437">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="438">
         <v>0.9</v>
       </c>
-      <c r="AM140" s="256">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN140" s="256">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO140" s="266">
-        <v>19.323671497584499</v>
+      <c r="AM140" s="437">
+        <f t="shared" si="77"/>
+        <v>1.2937499999999999E-2</v>
+      </c>
+      <c r="AN140" s="437">
+        <f t="shared" si="78"/>
+        <v>1.4374999999999995E-3</v>
+      </c>
+      <c r="AO140" s="442">
+        <f t="shared" si="79"/>
+        <v>77.294685990338166</v>
       </c>
       <c r="AP140" s="73" t="s">
         <v>10</v>
@@ -18523,39 +18595,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="15.75" hidden="1">
-      <c r="A141" s="367" t="s">
+    <row r="141" spans="1:45" ht="15.75">
+      <c r="A141" s="362" t="s">
         <v>234</v>
       </c>
-      <c r="D141" s="367" t="s">
+      <c r="D141" s="362" t="s">
         <v>235</v>
       </c>
-      <c r="G141" s="367" t="s">
+      <c r="G141" s="362" t="s">
         <v>236</v>
       </c>
-      <c r="H141" s="367"/>
-      <c r="I141" s="368" t="s">
+      <c r="H141" s="362"/>
+      <c r="I141" s="363" t="s">
         <v>99</v>
       </c>
-      <c r="J141" s="369">
-        <v>1</v>
-      </c>
-      <c r="K141" s="370">
+      <c r="J141" s="364">
+        <v>1</v>
+      </c>
+      <c r="K141" s="365">
         <v>0.25</v>
       </c>
-      <c r="L141" s="371">
-        <v>1</v>
-      </c>
-      <c r="M141" s="372">
-        <f t="shared" ref="M141:M144" si="86">J141*K141</f>
+      <c r="L141" s="366">
+        <v>1</v>
+      </c>
+      <c r="M141" s="367">
+        <f t="shared" ref="M141:M144" si="82">J141*K141</f>
         <v>0.25</v>
       </c>
-      <c r="N141" s="372">
-        <f t="shared" ref="N141:N144" si="87">K141*L141</f>
-        <v>0.25</v>
-      </c>
-      <c r="O141" s="373"/>
-      <c r="P141" s="409"/>
+      <c r="N141" s="290">
+        <f t="shared" si="75"/>
+        <v>1.4374999999999999E-2</v>
+      </c>
+      <c r="O141" s="368"/>
+      <c r="P141" s="403"/>
       <c r="Q141" s="165" t="s">
         <v>100</v>
       </c>
@@ -18568,17 +18640,17 @@
       <c r="T141" s="161"/>
       <c r="U141" s="161"/>
       <c r="V141" s="51"/>
-      <c r="W141" s="321" t="s">
+      <c r="W141" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X141" s="373" t="s">
+      <c r="X141" s="368" t="s">
         <v>149</v>
       </c>
-      <c r="Y141" s="374" t="s">
+      <c r="Y141" s="369" t="s">
         <v>90</v>
       </c>
       <c r="Z141" s="126"/>
-      <c r="AA141" s="373" t="s">
+      <c r="AA141" s="368" t="s">
         <v>108</v>
       </c>
       <c r="AB141" s="126"/>
@@ -18589,58 +18661,61 @@
       <c r="AG141" s="223"/>
       <c r="AH141" s="73"/>
       <c r="AI141" s="73"/>
-      <c r="AK141" s="375">
-        <v>1</v>
-      </c>
-      <c r="AL141" s="376">
+      <c r="AK141" s="439">
+        <v>1</v>
+      </c>
+      <c r="AL141" s="440">
         <v>0.9</v>
       </c>
-      <c r="AM141" s="375">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN141" s="375">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO141" s="377">
-        <v>19.323671497584499</v>
-      </c>
-      <c r="AS141" s="373" t="s">
+      <c r="AM141" s="439">
+        <f t="shared" si="77"/>
+        <v>1.2937499999999999E-2</v>
+      </c>
+      <c r="AN141" s="439">
+        <f t="shared" si="78"/>
+        <v>1.4374999999999995E-3</v>
+      </c>
+      <c r="AO141" s="444">
+        <f t="shared" si="79"/>
+        <v>77.294685990338166</v>
+      </c>
+      <c r="AS141" s="368" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="15.75" hidden="1">
-      <c r="A142" s="367" t="s">
+    <row r="142" spans="1:45" ht="15.75">
+      <c r="A142" s="362" t="s">
         <v>234</v>
       </c>
-      <c r="D142" s="367" t="s">
+      <c r="D142" s="362" t="s">
         <v>235</v>
       </c>
-      <c r="G142" s="367" t="s">
+      <c r="G142" s="362" t="s">
         <v>236</v>
       </c>
-      <c r="H142" s="367"/>
-      <c r="I142" s="368" t="s">
+      <c r="H142" s="362"/>
+      <c r="I142" s="363" t="s">
         <v>99</v>
       </c>
-      <c r="J142" s="369">
-        <v>1</v>
-      </c>
-      <c r="K142" s="370">
+      <c r="J142" s="364">
+        <v>1</v>
+      </c>
+      <c r="K142" s="365">
         <v>0.25</v>
       </c>
-      <c r="L142" s="371">
-        <v>1</v>
-      </c>
-      <c r="M142" s="372">
-        <f t="shared" si="86"/>
+      <c r="L142" s="366">
+        <v>1</v>
+      </c>
+      <c r="M142" s="367">
+        <f t="shared" si="82"/>
         <v>0.25</v>
       </c>
-      <c r="N142" s="372">
-        <f t="shared" si="87"/>
-        <v>0.25</v>
-      </c>
-      <c r="O142" s="373"/>
-      <c r="P142" s="409"/>
+      <c r="N142" s="290">
+        <f t="shared" si="75"/>
+        <v>1.4374999999999999E-2</v>
+      </c>
+      <c r="O142" s="368"/>
+      <c r="P142" s="403"/>
       <c r="Q142" s="165" t="s">
         <v>102</v>
       </c>
@@ -18653,17 +18728,17 @@
       <c r="T142" s="161"/>
       <c r="U142" s="207"/>
       <c r="V142" s="51"/>
-      <c r="W142" s="321" t="s">
+      <c r="W142" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X142" s="373" t="s">
+      <c r="X142" s="368" t="s">
         <v>149</v>
       </c>
-      <c r="Y142" s="374" t="s">
+      <c r="Y142" s="369" t="s">
         <v>90</v>
       </c>
       <c r="Z142" s="126"/>
-      <c r="AA142" s="373" t="s">
+      <c r="AA142" s="368" t="s">
         <v>108</v>
       </c>
       <c r="AB142" s="126"/>
@@ -18674,58 +18749,61 @@
       <c r="AG142" s="223"/>
       <c r="AH142" s="73"/>
       <c r="AI142" s="73"/>
-      <c r="AK142" s="375">
-        <v>1</v>
-      </c>
-      <c r="AL142" s="376">
+      <c r="AK142" s="439">
+        <v>1</v>
+      </c>
+      <c r="AL142" s="440">
         <v>0.9</v>
       </c>
-      <c r="AM142" s="375">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN142" s="375">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO142" s="377">
-        <v>19.323671497584499</v>
-      </c>
-      <c r="AS142" s="373" t="s">
+      <c r="AM142" s="439">
+        <f t="shared" si="77"/>
+        <v>1.2937499999999999E-2</v>
+      </c>
+      <c r="AN142" s="439">
+        <f t="shared" si="78"/>
+        <v>1.4374999999999995E-3</v>
+      </c>
+      <c r="AO142" s="444">
+        <f t="shared" si="79"/>
+        <v>77.294685990338166</v>
+      </c>
+      <c r="AS142" s="368" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="15.75" hidden="1">
-      <c r="A143" s="367" t="s">
+    <row r="143" spans="1:45" ht="15.75">
+      <c r="A143" s="362" t="s">
         <v>234</v>
       </c>
-      <c r="D143" s="367" t="s">
+      <c r="D143" s="362" t="s">
         <v>235</v>
       </c>
-      <c r="G143" s="367" t="s">
+      <c r="G143" s="362" t="s">
         <v>236</v>
       </c>
-      <c r="H143" s="367"/>
-      <c r="I143" s="368" t="s">
+      <c r="H143" s="362"/>
+      <c r="I143" s="363" t="s">
         <v>99</v>
       </c>
-      <c r="J143" s="369">
-        <v>1</v>
-      </c>
-      <c r="K143" s="370">
+      <c r="J143" s="364">
+        <v>1</v>
+      </c>
+      <c r="K143" s="365">
         <v>0.25</v>
       </c>
-      <c r="L143" s="371">
-        <v>1</v>
-      </c>
-      <c r="M143" s="372">
-        <f t="shared" si="86"/>
+      <c r="L143" s="366">
+        <v>1</v>
+      </c>
+      <c r="M143" s="367">
+        <f t="shared" si="82"/>
         <v>0.25</v>
       </c>
-      <c r="N143" s="372">
-        <f t="shared" si="87"/>
-        <v>0.25</v>
-      </c>
-      <c r="O143" s="373"/>
-      <c r="P143" s="409"/>
+      <c r="N143" s="290">
+        <f t="shared" si="75"/>
+        <v>1.4374999999999999E-2</v>
+      </c>
+      <c r="O143" s="368"/>
+      <c r="P143" s="403"/>
       <c r="Q143" s="165" t="s">
         <v>13</v>
       </c>
@@ -18738,17 +18816,17 @@
       <c r="T143" s="161"/>
       <c r="U143" s="207"/>
       <c r="V143" s="51"/>
-      <c r="W143" s="321" t="s">
+      <c r="W143" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X143" s="373" t="s">
+      <c r="X143" s="368" t="s">
         <v>149</v>
       </c>
-      <c r="Y143" s="374" t="s">
+      <c r="Y143" s="369" t="s">
         <v>90</v>
       </c>
       <c r="Z143" s="126"/>
-      <c r="AA143" s="373" t="s">
+      <c r="AA143" s="368" t="s">
         <v>108</v>
       </c>
       <c r="AB143" s="126"/>
@@ -18759,77 +18837,80 @@
       <c r="AG143" s="223"/>
       <c r="AH143" s="73"/>
       <c r="AI143" s="73"/>
-      <c r="AK143" s="375">
-        <v>1</v>
-      </c>
-      <c r="AL143" s="376">
+      <c r="AK143" s="439">
+        <v>1</v>
+      </c>
+      <c r="AL143" s="440">
         <v>0.9</v>
       </c>
-      <c r="AM143" s="375">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN143" s="375">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO143" s="377">
-        <v>19.323671497584499</v>
-      </c>
-      <c r="AS143" s="373" t="s">
+      <c r="AM143" s="439">
+        <f t="shared" si="77"/>
+        <v>1.2937499999999999E-2</v>
+      </c>
+      <c r="AN143" s="439">
+        <f t="shared" si="78"/>
+        <v>1.4374999999999995E-3</v>
+      </c>
+      <c r="AO143" s="444">
+        <f t="shared" si="79"/>
+        <v>77.294685990338166</v>
+      </c>
+      <c r="AS143" s="368" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="15.75" hidden="1">
-      <c r="A144" s="367" t="s">
+    <row r="144" spans="1:45" ht="15.75">
+      <c r="A144" s="362" t="s">
         <v>234</v>
       </c>
-      <c r="D144" s="367" t="s">
+      <c r="D144" s="362" t="s">
         <v>235</v>
       </c>
-      <c r="G144" s="367" t="s">
+      <c r="G144" s="362" t="s">
         <v>236</v>
       </c>
-      <c r="H144" s="367"/>
-      <c r="I144" s="368" t="s">
+      <c r="H144" s="362"/>
+      <c r="I144" s="363" t="s">
         <v>99</v>
       </c>
-      <c r="J144" s="369">
-        <v>1</v>
-      </c>
-      <c r="K144" s="370">
+      <c r="J144" s="364">
+        <v>1</v>
+      </c>
+      <c r="K144" s="365">
         <v>0.25</v>
       </c>
-      <c r="L144" s="371">
-        <v>1</v>
-      </c>
-      <c r="M144" s="372">
-        <f t="shared" si="86"/>
+      <c r="L144" s="366">
+        <v>1</v>
+      </c>
+      <c r="M144" s="367">
+        <f t="shared" si="82"/>
         <v>0.25</v>
       </c>
-      <c r="N144" s="372">
-        <f t="shared" si="87"/>
-        <v>0.25</v>
-      </c>
-      <c r="O144" s="373"/>
-      <c r="P144" s="410"/>
+      <c r="N144" s="290">
+        <f t="shared" si="75"/>
+        <v>1.4374999999999999E-2</v>
+      </c>
+      <c r="O144" s="368"/>
+      <c r="P144" s="404"/>
       <c r="Q144" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="R144" s="394"/>
-      <c r="S144" s="394"/>
-      <c r="T144" s="394"/>
+      <c r="R144" s="388"/>
+      <c r="S144" s="388"/>
+      <c r="T144" s="388"/>
       <c r="U144" s="207"/>
       <c r="V144" s="51"/>
-      <c r="W144" s="321" t="s">
+      <c r="W144" s="319" t="s">
         <v>126</v>
       </c>
-      <c r="X144" s="373" t="s">
+      <c r="X144" s="368" t="s">
         <v>149</v>
       </c>
-      <c r="Y144" s="374" t="s">
+      <c r="Y144" s="369" t="s">
         <v>90</v>
       </c>
       <c r="Z144" s="126"/>
-      <c r="AA144" s="373" t="s">
+      <c r="AA144" s="368" t="s">
         <v>108</v>
       </c>
       <c r="AB144" s="126"/>
@@ -18840,48 +18921,31 @@
       <c r="AG144" s="223"/>
       <c r="AH144" s="73"/>
       <c r="AI144" s="73"/>
-      <c r="AK144" s="375">
-        <v>1</v>
-      </c>
-      <c r="AL144" s="376">
+      <c r="AK144" s="439">
+        <v>1</v>
+      </c>
+      <c r="AL144" s="440">
         <v>0.9</v>
       </c>
-      <c r="AM144" s="375">
-        <v>5.1749999999999997E-2</v>
-      </c>
-      <c r="AN144" s="375">
-        <v>5.7499999999999999E-3</v>
-      </c>
-      <c r="AO144" s="377">
-        <v>19.323671497584499</v>
-      </c>
-      <c r="AS144" s="373" t="s">
+      <c r="AM144" s="439">
+        <f t="shared" si="77"/>
+        <v>1.2937499999999999E-2</v>
+      </c>
+      <c r="AN144" s="439">
+        <f t="shared" si="78"/>
+        <v>1.4374999999999995E-3</v>
+      </c>
+      <c r="AO144" s="444">
+        <f t="shared" si="79"/>
+        <v>77.294685990338166</v>
+      </c>
+      <c r="AS144" s="368" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="22">
-      <filters>
-        <filter val="寇鴻飛"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="26">
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -18894,6 +18958,20 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
   </mergeCells>
   <phoneticPr fontId="35"/>
   <dataValidations count="1">
@@ -20176,15 +20254,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -20316,6 +20385,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
@@ -20323,13 +20401,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7031BA56-B95E-4ADB-AED4-11347A5632AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8002CB3-3E28-4156-9C8E-493CA75C41AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3862,24 +3862,137 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3888,119 +4001,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4659,9 +4659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V82" sqref="V82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4892,7 +4892,7 @@
       <c r="O2" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="414" t="s">
+      <c r="P2" s="421" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -4997,7 +4997,7 @@
       <c r="O3" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="403"/>
+      <c r="P3" s="422"/>
       <c r="Q3" s="165" t="s">
         <v>100</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="O4" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="403"/>
+      <c r="P4" s="422"/>
       <c r="Q4" s="165" t="s">
         <v>102</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="O5" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="403"/>
+      <c r="P5" s="422"/>
       <c r="Q5" s="165" t="s">
         <v>13</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="O6" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="404"/>
+      <c r="P6" s="423"/>
       <c r="Q6" s="173" t="s">
         <v>16</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="421" t="s">
+      <c r="P7" s="433" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5492,7 +5492,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="422"/>
+      <c r="P8" s="434"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="422"/>
+      <c r="P9" s="434"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="422"/>
+      <c r="P10" s="434"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="423"/>
+      <c r="P11" s="435"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="405" t="s">
+      <c r="P12" s="430" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="160" t="s">
@@ -5963,7 +5963,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="406"/>
+      <c r="P13" s="431"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="406"/>
+      <c r="P14" s="431"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="406"/>
+      <c r="P15" s="431"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="407"/>
+      <c r="P16" s="432"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="424" t="s">
+      <c r="P19" s="436" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6555,7 +6555,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="425"/>
+      <c r="P20" s="437"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="425"/>
+      <c r="P21" s="437"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6735,7 +6735,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="425"/>
+      <c r="P22" s="437"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6825,7 +6825,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="426"/>
+      <c r="P23" s="438"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="427" t="s">
+      <c r="P24" s="439" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -6969,10 +6969,10 @@
       <c r="AH24" s="215"/>
       <c r="AI24" s="215"/>
       <c r="AJ24" s="143"/>
-      <c r="AK24" s="429">
+      <c r="AK24" s="402">
         <v>0.68</v>
       </c>
-      <c r="AL24" s="430">
+      <c r="AL24" s="403">
         <v>0.95</v>
       </c>
       <c r="AM24" s="252">
@@ -7035,7 +7035,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="419"/>
+      <c r="P25" s="428"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7078,21 +7078,21 @@
       <c r="AH25" s="237"/>
       <c r="AI25" s="237"/>
       <c r="AJ25" s="144"/>
-      <c r="AK25" s="431">
+      <c r="AK25" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL25" s="432">
+      <c r="AL25" s="405">
         <v>0.95</v>
       </c>
-      <c r="AM25" s="433">
+      <c r="AM25" s="406">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN25" s="433">
+      <c r="AN25" s="406">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO25" s="434">
+      <c r="AO25" s="407">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7146,7 +7146,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="419"/>
+      <c r="P26" s="428"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7189,21 +7189,21 @@
       <c r="AH26" s="237"/>
       <c r="AI26" s="237"/>
       <c r="AJ26" s="144"/>
-      <c r="AK26" s="431">
+      <c r="AK26" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL26" s="432">
+      <c r="AL26" s="405">
         <v>0.95</v>
       </c>
-      <c r="AM26" s="433">
+      <c r="AM26" s="406">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN26" s="433">
+      <c r="AN26" s="406">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO26" s="434">
+      <c r="AO26" s="407">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="419"/>
+      <c r="P27" s="428"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7300,21 +7300,21 @@
       <c r="AH27" s="217"/>
       <c r="AI27" s="217"/>
       <c r="AJ27" s="135"/>
-      <c r="AK27" s="431">
+      <c r="AK27" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL27" s="432">
+      <c r="AL27" s="405">
         <v>0.95</v>
       </c>
-      <c r="AM27" s="433">
+      <c r="AM27" s="406">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN27" s="433">
+      <c r="AN27" s="406">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO27" s="434">
+      <c r="AO27" s="407">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7366,7 +7366,7 @@
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="428"/>
+      <c r="P28" s="440"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7401,21 +7401,21 @@
       <c r="AH28" s="234"/>
       <c r="AI28" s="234"/>
       <c r="AJ28" s="142"/>
-      <c r="AK28" s="431">
+      <c r="AK28" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL28" s="432">
+      <c r="AL28" s="405">
         <v>0.95</v>
       </c>
-      <c r="AM28" s="433">
+      <c r="AM28" s="406">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN28" s="433">
+      <c r="AN28" s="406">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO28" s="434">
+      <c r="AO28" s="407">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7467,7 +7467,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="427" t="s">
+      <c r="P29" s="439" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7510,18 +7510,18 @@
       <c r="AH29" s="143"/>
       <c r="AI29" s="143"/>
       <c r="AJ29" s="143"/>
-      <c r="AK29" s="429">
+      <c r="AK29" s="402">
         <v>0.68</v>
       </c>
-      <c r="AL29" s="430">
+      <c r="AL29" s="403">
         <v>0.97</v>
       </c>
       <c r="AM29" s="252">
-        <f t="shared" ref="AM27:AM48" si="20">N29*AL29</f>
+        <f t="shared" ref="AM29:AM48" si="20">N29*AL29</f>
         <v>2.0915624999999997E-2</v>
       </c>
       <c r="AN29" s="252">
-        <f t="shared" ref="AN27:AN44" si="21">N29-AM29</f>
+        <f t="shared" ref="AN29:AN44" si="21">N29-AM29</f>
         <v>6.4687500000000162E-4</v>
       </c>
       <c r="AO29" s="263">
@@ -7576,7 +7576,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="419"/>
+      <c r="P30" s="428"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7613,21 +7613,21 @@
       <c r="AH30" s="135"/>
       <c r="AI30" s="135"/>
       <c r="AJ30" s="135"/>
-      <c r="AK30" s="431">
+      <c r="AK30" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL30" s="432">
+      <c r="AL30" s="405">
         <v>0.97</v>
       </c>
-      <c r="AM30" s="433">
+      <c r="AM30" s="406">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN30" s="433">
+      <c r="AN30" s="406">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO30" s="434">
+      <c r="AO30" s="407">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="419"/>
+      <c r="P31" s="428"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7716,21 +7716,21 @@
       <c r="AH31" s="135"/>
       <c r="AI31" s="135"/>
       <c r="AJ31" s="135"/>
-      <c r="AK31" s="431">
+      <c r="AK31" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL31" s="432">
+      <c r="AL31" s="405">
         <v>0.97</v>
       </c>
-      <c r="AM31" s="433">
+      <c r="AM31" s="406">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN31" s="433">
+      <c r="AN31" s="406">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO31" s="434">
+      <c r="AO31" s="407">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="419"/>
+      <c r="P32" s="428"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7819,21 +7819,21 @@
       <c r="AH32" s="135"/>
       <c r="AI32" s="135"/>
       <c r="AJ32" s="135"/>
-      <c r="AK32" s="431">
+      <c r="AK32" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL32" s="432">
+      <c r="AL32" s="405">
         <v>0.97</v>
       </c>
-      <c r="AM32" s="433">
+      <c r="AM32" s="406">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN32" s="433">
+      <c r="AN32" s="406">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO32" s="434">
+      <c r="AO32" s="407">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7885,7 +7885,7 @@
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="428"/>
+      <c r="P33" s="440"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -7922,21 +7922,21 @@
       <c r="AH33" s="142"/>
       <c r="AI33" s="142"/>
       <c r="AJ33" s="142"/>
-      <c r="AK33" s="431">
+      <c r="AK33" s="404">
         <v>0.68</v>
       </c>
-      <c r="AL33" s="432">
+      <c r="AL33" s="405">
         <v>0.97</v>
       </c>
-      <c r="AM33" s="433">
+      <c r="AM33" s="406">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN33" s="433">
+      <c r="AN33" s="406">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO33" s="434">
+      <c r="AO33" s="407">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="O34" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="418" t="s">
+      <c r="P34" s="427" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="160" t="s">
@@ -8097,7 +8097,7 @@
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="419"/>
+      <c r="P35" s="428"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="419"/>
+      <c r="P36" s="428"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="419"/>
+      <c r="P37" s="428"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="420"/>
+      <c r="P38" s="429"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="415" t="s">
+      <c r="P39" s="424" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8611,7 +8611,7 @@
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="416"/>
+      <c r="P40" s="425"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8714,7 +8714,7 @@
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="416"/>
+      <c r="P41" s="425"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="416"/>
+      <c r="P42" s="425"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="417"/>
+      <c r="P43" s="426"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -9021,7 +9021,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="411" t="s">
+      <c r="P44" s="441" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9130,7 +9130,7 @@
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="412"/>
+      <c r="P45" s="442"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9234,7 +9234,7 @@
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="412"/>
+      <c r="P46" s="442"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9271,10 +9271,10 @@
       <c r="AH46" s="144"/>
       <c r="AI46" s="144"/>
       <c r="AJ46" s="144"/>
-      <c r="AK46" s="435">
+      <c r="AK46" s="408">
         <v>0.5</v>
       </c>
-      <c r="AL46" s="436">
+      <c r="AL46" s="409">
         <v>0.9</v>
       </c>
       <c r="AM46" s="394">
@@ -9338,7 +9338,7 @@
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="412"/>
+      <c r="P47" s="442"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="413"/>
+      <c r="P48" s="443"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9887,7 +9887,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="405" t="s">
+      <c r="P53" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9928,10 +9928,10 @@
       <c r="AH53" s="223"/>
       <c r="AI53" s="73"/>
       <c r="AJ53" s="73"/>
-      <c r="AK53" s="437">
+      <c r="AK53" s="410">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL53" s="438">
+      <c r="AL53" s="411">
         <v>0.96</v>
       </c>
       <c r="AM53" s="256">
@@ -9994,7 +9994,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="406"/>
+      <c r="P54" s="431"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -10033,10 +10033,10 @@
       <c r="AH54" s="144"/>
       <c r="AI54" s="144"/>
       <c r="AJ54" s="144"/>
-      <c r="AK54" s="439">
+      <c r="AK54" s="412">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL54" s="440">
+      <c r="AL54" s="413">
         <v>0.96</v>
       </c>
       <c r="AM54" s="370">
@@ -10099,7 +10099,7 @@
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="406"/>
+      <c r="P55" s="431"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10134,10 +10134,10 @@
       <c r="AH55" s="144"/>
       <c r="AI55" s="144"/>
       <c r="AJ55" s="144"/>
-      <c r="AK55" s="439">
+      <c r="AK55" s="412">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL55" s="440">
+      <c r="AL55" s="413">
         <v>0.96</v>
       </c>
       <c r="AM55" s="370">
@@ -10200,7 +10200,7 @@
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="406"/>
+      <c r="P56" s="431"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10235,10 +10235,10 @@
       <c r="AH56" s="135"/>
       <c r="AI56" s="135"/>
       <c r="AJ56" s="135"/>
-      <c r="AK56" s="439">
+      <c r="AK56" s="412">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL56" s="440">
+      <c r="AL56" s="413">
         <v>0.96</v>
       </c>
       <c r="AM56" s="370">
@@ -10301,7 +10301,7 @@
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="407"/>
+      <c r="P57" s="432"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10336,10 +10336,10 @@
       <c r="AH57" s="135"/>
       <c r="AI57" s="135"/>
       <c r="AJ57" s="135"/>
-      <c r="AK57" s="439">
+      <c r="AK57" s="412">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL57" s="440">
+      <c r="AL57" s="413">
         <v>0.96</v>
       </c>
       <c r="AM57" s="370">
@@ -10400,7 +10400,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="405" t="s">
+      <c r="P58" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10505,7 +10505,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="406"/>
+      <c r="P59" s="431"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="406"/>
+      <c r="P60" s="431"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="406"/>
+      <c r="P61" s="431"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="407"/>
+      <c r="P62" s="432"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10907,7 +10907,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="415" t="s">
+      <c r="P63" s="424" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -11018,7 +11018,7 @@
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="416"/>
+      <c r="P64" s="425"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11125,7 +11125,7 @@
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="416"/>
+      <c r="P65" s="425"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11232,7 +11232,7 @@
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="416"/>
+      <c r="P66" s="425"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11337,7 +11337,7 @@
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="417"/>
+      <c r="P67" s="426"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11442,7 +11442,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="411" t="s">
+      <c r="P68" s="441" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11534,7 +11534,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="412"/>
+      <c r="P69" s="442"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11624,7 +11624,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="412"/>
+      <c r="P70" s="442"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11714,7 +11714,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="412"/>
+      <c r="P71" s="442"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11804,7 +11804,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="413"/>
+      <c r="P72" s="443"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -12071,8 +12071,8 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="405" t="s">
-        <v>4</v>
+      <c r="P75" s="430" t="s">
+        <v>14</v>
       </c>
       <c r="Q75" s="160" t="s">
         <v>5</v>
@@ -12083,9 +12083,15 @@
       <c r="S75" s="166">
         <v>43924</v>
       </c>
-      <c r="T75" s="166"/>
-      <c r="U75" s="166"/>
-      <c r="V75" s="73"/>
+      <c r="T75" s="166">
+        <v>43922</v>
+      </c>
+      <c r="U75" s="166">
+        <v>43924</v>
+      </c>
+      <c r="V75" s="208">
+        <v>1</v>
+      </c>
       <c r="W75" s="73" t="s">
         <v>308</v>
       </c>
@@ -12174,7 +12180,7 @@
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="406"/>
+      <c r="P76" s="431"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12275,7 +12281,7 @@
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="406"/>
+      <c r="P77" s="431"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12376,7 +12382,7 @@
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="406"/>
+      <c r="P78" s="431"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12477,7 +12483,7 @@
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="407"/>
+      <c r="P79" s="432"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +12673,7 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="405" t="s">
+      <c r="P81" s="430" t="s">
         <v>306</v>
       </c>
       <c r="Q81" s="160" t="s">
@@ -12776,7 +12782,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="406"/>
+      <c r="P82" s="431"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12879,7 +12885,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="406"/>
+      <c r="P83" s="431"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12982,7 +12988,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="406"/>
+      <c r="P84" s="431"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -13079,7 +13085,7 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="407"/>
+      <c r="P85" s="432"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
@@ -13174,7 +13180,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="411" t="s">
+      <c r="P86" s="441" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13283,7 +13289,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="412"/>
+      <c r="P87" s="442"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13390,7 +13396,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="412"/>
+      <c r="P88" s="442"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13497,7 +13503,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="412"/>
+      <c r="P89" s="442"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13604,7 +13610,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="413"/>
+      <c r="P90" s="443"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13711,7 +13717,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="411" t="s">
+      <c r="P91" s="441" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13803,7 +13809,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="412"/>
+      <c r="P92" s="442"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13893,7 +13899,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="412"/>
+      <c r="P93" s="442"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -13983,7 +13989,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="412"/>
+      <c r="P94" s="442"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -14073,7 +14079,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="413"/>
+      <c r="P95" s="443"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14248,7 +14254,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="402" t="s">
+      <c r="P97" s="444" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -14354,7 +14360,7 @@
       <c r="O98" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P98" s="403"/>
+      <c r="P98" s="422"/>
       <c r="Q98" s="165" t="s">
         <v>100</v>
       </c>
@@ -14454,7 +14460,7 @@
       <c r="O99" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="403"/>
+      <c r="P99" s="422"/>
       <c r="Q99" s="165" t="s">
         <v>102</v>
       </c>
@@ -14554,7 +14560,7 @@
       <c r="O100" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P100" s="403"/>
+      <c r="P100" s="422"/>
       <c r="Q100" s="165" t="s">
         <v>13</v>
       </c>
@@ -14654,7 +14660,7 @@
       <c r="O101" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P101" s="404"/>
+      <c r="P101" s="423"/>
       <c r="Q101" s="165" t="s">
         <v>16</v>
       </c>
@@ -14759,7 +14765,7 @@
       <c r="O102" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P102" s="403" t="s">
+      <c r="P102" s="422" t="s">
         <v>28</v>
       </c>
       <c r="Q102" s="160" t="s">
@@ -14869,7 +14875,7 @@
       <c r="O103" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P103" s="403"/>
+      <c r="P103" s="422"/>
       <c r="Q103" s="165" t="s">
         <v>100</v>
       </c>
@@ -14973,7 +14979,7 @@
       <c r="O104" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P104" s="403"/>
+      <c r="P104" s="422"/>
       <c r="Q104" s="165" t="s">
         <v>102</v>
       </c>
@@ -15077,7 +15083,7 @@
       <c r="O105" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="403"/>
+      <c r="P105" s="422"/>
       <c r="Q105" s="165" t="s">
         <v>13</v>
       </c>
@@ -15177,7 +15183,7 @@
       <c r="O106" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="404"/>
+      <c r="P106" s="423"/>
       <c r="Q106" s="165" t="s">
         <v>16</v>
       </c>
@@ -15325,7 +15331,7 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="405" t="s">
+      <c r="P108" s="430" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
@@ -15434,7 +15440,7 @@
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="406"/>
+      <c r="P109" s="431"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
@@ -15535,7 +15541,7 @@
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="406"/>
+      <c r="P110" s="431"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
@@ -15634,7 +15640,7 @@
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="406"/>
+      <c r="P111" s="431"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
@@ -15733,7 +15739,7 @@
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="407"/>
+      <c r="P112" s="432"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
@@ -16016,7 +16022,7 @@
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="408" t="s">
+      <c r="P115" s="445" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -16124,7 +16130,7 @@
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="409"/>
+      <c r="P116" s="446"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16226,7 +16232,7 @@
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="409"/>
+      <c r="P117" s="446"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16328,7 +16334,7 @@
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="409"/>
+      <c r="P118" s="446"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16428,7 +16434,7 @@
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="410"/>
+      <c r="P119" s="447"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16526,7 +16532,7 @@
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="411" t="s">
+      <c r="P120" s="441" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16629,7 +16635,7 @@
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="412"/>
+      <c r="P121" s="442"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16730,7 +16736,7 @@
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="412"/>
+      <c r="P122" s="442"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16831,7 +16837,7 @@
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="412"/>
+      <c r="P123" s="442"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16932,7 +16938,7 @@
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="413"/>
+      <c r="P124" s="443"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -17033,7 +17039,7 @@
       <c r="O125" s="400" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="411" t="s">
+      <c r="P125" s="441" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17136,7 +17142,7 @@
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="412"/>
+      <c r="P126" s="442"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17237,7 +17243,7 @@
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="412"/>
+      <c r="P127" s="442"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17338,7 +17344,7 @@
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="412"/>
+      <c r="P128" s="442"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17439,7 +17445,7 @@
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="413"/>
+      <c r="P129" s="443"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17540,7 +17546,7 @@
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="411" t="s">
+      <c r="P130" s="441" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17643,7 +17649,7 @@
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="412"/>
+      <c r="P131" s="442"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17744,7 +17750,7 @@
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="412"/>
+      <c r="P132" s="442"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17845,7 +17851,7 @@
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="412"/>
+      <c r="P133" s="442"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -17946,7 +17952,7 @@
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="413"/>
+      <c r="P134" s="443"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -18037,18 +18043,18 @@
       <c r="L135" s="116">
         <v>1</v>
       </c>
-      <c r="M135" s="446">
+      <c r="M135" s="419">
         <f t="shared" si="80"/>
         <v>0.66</v>
       </c>
-      <c r="N135" s="447">
+      <c r="N135" s="420">
         <f t="shared" si="75"/>
         <v>3.7949999999999998E-2</v>
       </c>
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="402" t="s">
+      <c r="P135" s="444" t="s">
         <v>20</v>
       </c>
       <c r="Q135" s="160" t="s">
@@ -18090,21 +18096,21 @@
       <c r="AG135" s="51"/>
       <c r="AH135" s="51"/>
       <c r="AI135" s="51"/>
-      <c r="AK135" s="441">
+      <c r="AK135" s="414">
         <v>0.7</v>
       </c>
-      <c r="AL135" s="438">
+      <c r="AL135" s="411">
         <v>0.94</v>
       </c>
-      <c r="AM135" s="437">
+      <c r="AM135" s="410">
         <f>N135*AL135</f>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN135" s="437">
+      <c r="AN135" s="410">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO135" s="442">
+      <c r="AO135" s="415">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
@@ -18151,7 +18157,7 @@
       <c r="O136" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P136" s="403"/>
+      <c r="P136" s="422"/>
       <c r="Q136" s="165" t="s">
         <v>100</v>
       </c>
@@ -18191,21 +18197,21 @@
       <c r="AG136" s="51"/>
       <c r="AH136" s="51"/>
       <c r="AI136" s="51"/>
-      <c r="AK136" s="443">
+      <c r="AK136" s="416">
         <v>0.7</v>
       </c>
-      <c r="AL136" s="440">
+      <c r="AL136" s="413">
         <v>0.94</v>
       </c>
-      <c r="AM136" s="439">
+      <c r="AM136" s="412">
         <f t="shared" ref="AM136:AM139" si="81">N136*AL136</f>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN136" s="439">
+      <c r="AN136" s="412">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO136" s="444">
+      <c r="AO136" s="417">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
@@ -18252,7 +18258,7 @@
       <c r="O137" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P137" s="403"/>
+      <c r="P137" s="422"/>
       <c r="Q137" s="165" t="s">
         <v>102</v>
       </c>
@@ -18288,21 +18294,21 @@
       <c r="AG137" s="51"/>
       <c r="AH137" s="51"/>
       <c r="AI137" s="51"/>
-      <c r="AK137" s="443">
+      <c r="AK137" s="416">
         <v>0.7</v>
       </c>
-      <c r="AL137" s="440">
+      <c r="AL137" s="413">
         <v>0.94</v>
       </c>
-      <c r="AM137" s="439">
+      <c r="AM137" s="412">
         <f t="shared" si="81"/>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN137" s="439">
+      <c r="AN137" s="412">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO137" s="444">
+      <c r="AO137" s="417">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
@@ -18349,7 +18355,7 @@
       <c r="O138" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P138" s="403"/>
+      <c r="P138" s="422"/>
       <c r="Q138" s="165" t="s">
         <v>13</v>
       </c>
@@ -18383,21 +18389,21 @@
       <c r="AG138" s="51"/>
       <c r="AH138" s="51"/>
       <c r="AI138" s="51"/>
-      <c r="AK138" s="445">
+      <c r="AK138" s="418">
         <v>0.7</v>
       </c>
-      <c r="AL138" s="440">
+      <c r="AL138" s="413">
         <v>0.94</v>
       </c>
-      <c r="AM138" s="439">
+      <c r="AM138" s="412">
         <f t="shared" si="81"/>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN138" s="439">
+      <c r="AN138" s="412">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO138" s="444">
+      <c r="AO138" s="417">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
@@ -18444,7 +18450,7 @@
       <c r="O139" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P139" s="404"/>
+      <c r="P139" s="423"/>
       <c r="Q139" s="165" t="s">
         <v>16</v>
       </c>
@@ -18474,21 +18480,21 @@
       <c r="AG139" s="51"/>
       <c r="AH139" s="51"/>
       <c r="AI139" s="51"/>
-      <c r="AK139" s="443">
+      <c r="AK139" s="416">
         <v>0.7</v>
       </c>
-      <c r="AL139" s="440">
+      <c r="AL139" s="413">
         <v>0.94</v>
       </c>
-      <c r="AM139" s="439">
+      <c r="AM139" s="412">
         <f t="shared" si="81"/>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN139" s="439">
+      <c r="AN139" s="412">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO139" s="444">
+      <c r="AO139" s="417">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
@@ -18526,12 +18532,12 @@
         <f>J140*K140</f>
         <v>0.25</v>
       </c>
-      <c r="N140" s="447">
+      <c r="N140" s="420">
         <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="402" t="s">
+      <c r="P140" s="444" t="s">
         <v>4</v>
       </c>
       <c r="Q140" s="160" t="s">
@@ -18570,21 +18576,21 @@
       <c r="AJ140" s="256">
         <v>0.7</v>
       </c>
-      <c r="AK140" s="437">
-        <v>1</v>
-      </c>
-      <c r="AL140" s="438">
+      <c r="AK140" s="410">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="411">
         <v>0.9</v>
       </c>
-      <c r="AM140" s="437">
+      <c r="AM140" s="410">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN140" s="437">
+      <c r="AN140" s="410">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO140" s="442">
+      <c r="AO140" s="415">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
@@ -18627,7 +18633,7 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O141" s="368"/>
-      <c r="P141" s="403"/>
+      <c r="P141" s="422"/>
       <c r="Q141" s="165" t="s">
         <v>100</v>
       </c>
@@ -18661,21 +18667,21 @@
       <c r="AG141" s="223"/>
       <c r="AH141" s="73"/>
       <c r="AI141" s="73"/>
-      <c r="AK141" s="439">
-        <v>1</v>
-      </c>
-      <c r="AL141" s="440">
+      <c r="AK141" s="412">
+        <v>1</v>
+      </c>
+      <c r="AL141" s="413">
         <v>0.9</v>
       </c>
-      <c r="AM141" s="439">
+      <c r="AM141" s="412">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN141" s="439">
+      <c r="AN141" s="412">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO141" s="444">
+      <c r="AO141" s="417">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
@@ -18715,7 +18721,7 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O142" s="368"/>
-      <c r="P142" s="403"/>
+      <c r="P142" s="422"/>
       <c r="Q142" s="165" t="s">
         <v>102</v>
       </c>
@@ -18749,21 +18755,21 @@
       <c r="AG142" s="223"/>
       <c r="AH142" s="73"/>
       <c r="AI142" s="73"/>
-      <c r="AK142" s="439">
-        <v>1</v>
-      </c>
-      <c r="AL142" s="440">
+      <c r="AK142" s="412">
+        <v>1</v>
+      </c>
+      <c r="AL142" s="413">
         <v>0.9</v>
       </c>
-      <c r="AM142" s="439">
+      <c r="AM142" s="412">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN142" s="439">
+      <c r="AN142" s="412">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO142" s="444">
+      <c r="AO142" s="417">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
@@ -18803,7 +18809,7 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O143" s="368"/>
-      <c r="P143" s="403"/>
+      <c r="P143" s="422"/>
       <c r="Q143" s="165" t="s">
         <v>13</v>
       </c>
@@ -18837,21 +18843,21 @@
       <c r="AG143" s="223"/>
       <c r="AH143" s="73"/>
       <c r="AI143" s="73"/>
-      <c r="AK143" s="439">
-        <v>1</v>
-      </c>
-      <c r="AL143" s="440">
+      <c r="AK143" s="412">
+        <v>1</v>
+      </c>
+      <c r="AL143" s="413">
         <v>0.9</v>
       </c>
-      <c r="AM143" s="439">
+      <c r="AM143" s="412">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN143" s="439">
+      <c r="AN143" s="412">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO143" s="444">
+      <c r="AO143" s="417">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
@@ -18891,7 +18897,7 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O144" s="368"/>
-      <c r="P144" s="404"/>
+      <c r="P144" s="423"/>
       <c r="Q144" s="178" t="s">
         <v>16</v>
       </c>
@@ -18921,21 +18927,21 @@
       <c r="AG144" s="223"/>
       <c r="AH144" s="73"/>
       <c r="AI144" s="73"/>
-      <c r="AK144" s="439">
-        <v>1</v>
-      </c>
-      <c r="AL144" s="440">
+      <c r="AK144" s="412">
+        <v>1</v>
+      </c>
+      <c r="AL144" s="413">
         <v>0.9</v>
       </c>
-      <c r="AM144" s="439">
+      <c r="AM144" s="412">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN144" s="439">
+      <c r="AN144" s="412">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO144" s="444">
+      <c r="AO144" s="417">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
@@ -18946,6 +18952,20 @@
   </sheetData>
   <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="26">
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -18958,20 +18978,6 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
   </mergeCells>
   <phoneticPr fontId="35"/>
   <dataValidations count="1">
@@ -20248,9 +20254,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20386,16 +20395,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -20407,7 +20413,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8002CB3-3E28-4156-9C8E-493CA75C41AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DA9944-B349-4138-A54B-6EE1E80BF056}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
     <numFmt numFmtId="181" formatCode="0.000"/>
     <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,6 +1689,14 @@
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2551,7 +2559,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3921,15 +3929,45 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3948,15 +3986,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3981,26 +4010,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4659,9 +4670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V82" sqref="V82"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="V1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X108" sqref="X108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4892,7 +4903,7 @@
       <c r="O2" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="421" t="s">
+      <c r="P2" s="433" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -5396,7 +5407,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="433" t="s">
+      <c r="P7" s="440" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5492,7 +5503,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="434"/>
+      <c r="P8" s="441"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5586,7 +5597,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="434"/>
+      <c r="P9" s="441"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5680,7 +5691,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="434"/>
+      <c r="P10" s="441"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5774,7 +5785,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="435"/>
+      <c r="P11" s="442"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5868,7 +5879,7 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="430" t="s">
+      <c r="P12" s="424" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="160" t="s">
@@ -5963,7 +5974,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="431"/>
+      <c r="P13" s="425"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -6052,7 +6063,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="431"/>
+      <c r="P14" s="425"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6139,7 +6150,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="431"/>
+      <c r="P15" s="425"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6228,7 +6239,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="432"/>
+      <c r="P16" s="426"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6463,7 +6474,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="436" t="s">
+      <c r="P19" s="443" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6555,7 +6566,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="437"/>
+      <c r="P20" s="444"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6645,7 +6656,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="437"/>
+      <c r="P21" s="444"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6735,7 +6746,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="437"/>
+      <c r="P22" s="444"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6825,7 +6836,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="438"/>
+      <c r="P23" s="445"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6920,7 +6931,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="439" t="s">
+      <c r="P24" s="446" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -7035,7 +7046,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="428"/>
+      <c r="P25" s="438"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7146,7 +7157,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="428"/>
+      <c r="P26" s="438"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7257,7 +7268,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="428"/>
+      <c r="P27" s="438"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7366,7 +7377,7 @@
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="440"/>
+      <c r="P28" s="447"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7467,7 +7478,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="439" t="s">
+      <c r="P29" s="446" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7576,7 +7587,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="428"/>
+      <c r="P30" s="438"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7679,7 +7690,7 @@
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="428"/>
+      <c r="P31" s="438"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7782,7 +7793,7 @@
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="428"/>
+      <c r="P32" s="438"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7885,7 +7896,7 @@
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="440"/>
+      <c r="P33" s="447"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -7988,7 +7999,7 @@
       <c r="O34" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="427" t="s">
+      <c r="P34" s="437" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="160" t="s">
@@ -8097,7 +8108,7 @@
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="428"/>
+      <c r="P35" s="438"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8200,7 +8211,7 @@
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="428"/>
+      <c r="P36" s="438"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8307,7 +8318,7 @@
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="428"/>
+      <c r="P37" s="438"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8408,7 +8419,7 @@
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="429"/>
+      <c r="P38" s="439"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8503,7 +8514,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="424" t="s">
+      <c r="P39" s="434" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8611,7 +8622,7 @@
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="425"/>
+      <c r="P40" s="435"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8714,7 +8725,7 @@
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="425"/>
+      <c r="P41" s="435"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8817,7 +8828,7 @@
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="425"/>
+      <c r="P42" s="435"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8920,7 +8931,7 @@
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="426"/>
+      <c r="P43" s="436"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -9021,7 +9032,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="441" t="s">
+      <c r="P44" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9130,7 +9141,7 @@
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="442"/>
+      <c r="P45" s="431"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9234,7 +9245,7 @@
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="442"/>
+      <c r="P46" s="431"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9338,7 +9349,7 @@
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="442"/>
+      <c r="P47" s="431"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9441,7 +9452,7 @@
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="443"/>
+      <c r="P48" s="432"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9887,7 +9898,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="430" t="s">
+      <c r="P53" s="424" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9994,7 +10005,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="431"/>
+      <c r="P54" s="425"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -10099,7 +10110,7 @@
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="431"/>
+      <c r="P55" s="425"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10200,7 +10211,7 @@
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="431"/>
+      <c r="P56" s="425"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10301,7 +10312,7 @@
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="432"/>
+      <c r="P57" s="426"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10400,7 +10411,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="430" t="s">
+      <c r="P58" s="424" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10505,7 +10516,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="431"/>
+      <c r="P59" s="425"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10606,7 +10617,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="431"/>
+      <c r="P60" s="425"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10707,7 +10718,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="431"/>
+      <c r="P61" s="425"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10806,7 +10817,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="432"/>
+      <c r="P62" s="426"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10907,7 +10918,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="424" t="s">
+      <c r="P63" s="434" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -11018,7 +11029,7 @@
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="425"/>
+      <c r="P64" s="435"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11125,7 +11136,7 @@
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="425"/>
+      <c r="P65" s="435"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11232,7 +11243,7 @@
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="425"/>
+      <c r="P66" s="435"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11337,7 +11348,7 @@
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="426"/>
+      <c r="P67" s="436"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11442,7 +11453,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="441" t="s">
+      <c r="P68" s="430" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11534,7 +11545,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="442"/>
+      <c r="P69" s="431"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11624,7 +11635,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="442"/>
+      <c r="P70" s="431"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11714,7 +11725,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="442"/>
+      <c r="P71" s="431"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11804,7 +11815,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="443"/>
+      <c r="P72" s="432"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -12071,7 +12082,7 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="430" t="s">
+      <c r="P75" s="424" t="s">
         <v>14</v>
       </c>
       <c r="Q75" s="160" t="s">
@@ -12180,7 +12191,7 @@
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="431"/>
+      <c r="P76" s="425"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12281,7 +12292,7 @@
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="431"/>
+      <c r="P77" s="425"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12382,7 +12393,7 @@
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="431"/>
+      <c r="P78" s="425"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12483,7 +12494,7 @@
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="432"/>
+      <c r="P79" s="426"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
@@ -12673,7 +12684,7 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="430" t="s">
+      <c r="P81" s="424" t="s">
         <v>306</v>
       </c>
       <c r="Q81" s="160" t="s">
@@ -12782,7 +12793,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="431"/>
+      <c r="P82" s="425"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12885,7 +12896,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="431"/>
+      <c r="P83" s="425"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12988,7 +12999,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="431"/>
+      <c r="P84" s="425"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -13085,7 +13096,7 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="432"/>
+      <c r="P85" s="426"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
@@ -13180,7 +13191,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="441" t="s">
+      <c r="P86" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13289,7 +13300,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="442"/>
+      <c r="P87" s="431"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13396,7 +13407,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="442"/>
+      <c r="P88" s="431"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13503,7 +13514,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="442"/>
+      <c r="P89" s="431"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13610,7 +13621,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="443"/>
+      <c r="P90" s="432"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13717,7 +13728,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="441" t="s">
+      <c r="P91" s="430" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13809,7 +13820,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="442"/>
+      <c r="P92" s="431"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13899,7 +13910,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="442"/>
+      <c r="P93" s="431"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -13989,7 +14000,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="442"/>
+      <c r="P94" s="431"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -14079,7 +14090,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="443"/>
+      <c r="P95" s="432"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14254,7 +14265,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="444" t="s">
+      <c r="P97" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -15331,7 +15342,7 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="430" t="s">
+      <c r="P108" s="424" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
@@ -15440,7 +15451,7 @@
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="431"/>
+      <c r="P109" s="425"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
@@ -15541,7 +15552,7 @@
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="431"/>
+      <c r="P110" s="425"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
@@ -15640,7 +15651,7 @@
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="431"/>
+      <c r="P111" s="425"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
@@ -15739,7 +15750,7 @@
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="432"/>
+      <c r="P112" s="426"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
@@ -15850,7 +15861,7 @@
       <c r="Y113" s="242" t="s">
         <v>90</v>
       </c>
-      <c r="Z113" s="176" t="s">
+      <c r="Z113" s="448" t="s">
         <v>176</v>
       </c>
       <c r="AA113" s="73"/>
@@ -15943,7 +15954,7 @@
       <c r="Y114" s="242" t="s">
         <v>90</v>
       </c>
-      <c r="Z114" s="176" t="s">
+      <c r="Z114" s="448" t="s">
         <v>176</v>
       </c>
       <c r="AA114" s="73"/>
@@ -16022,7 +16033,7 @@
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="445" t="s">
+      <c r="P115" s="427" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -16130,7 +16141,7 @@
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="446"/>
+      <c r="P116" s="428"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16232,7 +16243,7 @@
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="446"/>
+      <c r="P117" s="428"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16334,7 +16345,7 @@
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="446"/>
+      <c r="P118" s="428"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16434,7 +16445,7 @@
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="447"/>
+      <c r="P119" s="429"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16532,7 +16543,7 @@
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="441" t="s">
+      <c r="P120" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16635,7 +16646,7 @@
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="442"/>
+      <c r="P121" s="431"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16736,7 +16747,7 @@
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="442"/>
+      <c r="P122" s="431"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16837,7 +16848,7 @@
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="442"/>
+      <c r="P123" s="431"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16938,7 +16949,7 @@
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="443"/>
+      <c r="P124" s="432"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -17039,7 +17050,7 @@
       <c r="O125" s="400" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="441" t="s">
+      <c r="P125" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17142,7 +17153,7 @@
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="442"/>
+      <c r="P126" s="431"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17243,7 +17254,7 @@
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="442"/>
+      <c r="P127" s="431"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17344,7 +17355,7 @@
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="442"/>
+      <c r="P128" s="431"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17445,7 +17456,7 @@
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="443"/>
+      <c r="P129" s="432"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17546,7 +17557,7 @@
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="441" t="s">
+      <c r="P130" s="430" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17649,7 +17660,7 @@
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="442"/>
+      <c r="P131" s="431"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17750,7 +17761,7 @@
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="442"/>
+      <c r="P132" s="431"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17851,7 +17862,7 @@
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="442"/>
+      <c r="P133" s="431"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -17952,7 +17963,7 @@
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="443"/>
+      <c r="P134" s="432"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -18054,7 +18065,7 @@
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="444" t="s">
+      <c r="P135" s="421" t="s">
         <v>20</v>
       </c>
       <c r="Q135" s="160" t="s">
@@ -18537,7 +18548,7 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="444" t="s">
+      <c r="P140" s="421" t="s">
         <v>4</v>
       </c>
       <c r="Q140" s="160" t="s">
@@ -18952,20 +18963,6 @@
   </sheetData>
   <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="26">
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -18978,6 +18975,20 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
   </mergeCells>
   <phoneticPr fontId="35"/>
   <dataValidations count="1">
@@ -20254,15 +20265,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -20394,6 +20396,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -20401,13 +20412,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C57F51-9734-4395-BD35-9DF009F39CBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7587F68-DF3C-4C5F-8BF3-B57BF34B88C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="309">
   <si>
     <t>ステータス</t>
   </si>
@@ -1250,7 +1250,7 @@
   </si>
   <si>
     <t>作業が変化があって、一応対応不要</t>
-    <phoneticPr fontId="35"/>
+    <phoneticPr fontId="34"/>
   </si>
   <si>
     <r>
@@ -1267,11 +1267,11 @@
       <t>20200317 市场MM表作业再开，开发一时终止
 20200323 (保守担当确认一时对应不要)作業が変化があって、一応対応不要</t>
     </r>
-    <phoneticPr fontId="35"/>
+    <phoneticPr fontId="34"/>
   </si>
   <si>
     <t>今バックがあるので、一応対応不要。</t>
-    <phoneticPr fontId="35"/>
+    <phoneticPr fontId="34"/>
   </si>
   <si>
     <r>
@@ -1349,20 +1349,11 @@
   </si>
   <si>
     <t>外部団体の最新化(JA02)</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <t>一時中止</t>
-    <phoneticPr fontId="35"/>
-  </si>
-  <si>
-    <t>90%
-2020/03/31 因为登录网页需要权限，保守担当者说要先申请权限(需半个月)，所以目前作业一時中止</t>
-    <phoneticPr fontId="35"/>
+    <phoneticPr fontId="34"/>
   </si>
   <si>
     <t>徐凱</t>
-    <phoneticPr fontId="35"/>
+    <phoneticPr fontId="34"/>
   </si>
   <si>
     <r>
@@ -1379,7 +1370,7 @@
   </si>
   <si>
     <t>周次</t>
-    <phoneticPr fontId="35"/>
+    <phoneticPr fontId="34"/>
   </si>
 </sst>
 </file>
@@ -1395,7 +1386,7 @@
     <numFmt numFmtId="181" formatCode="0.000"/>
     <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1549,12 +1540,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
@@ -1664,11 +1649,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
@@ -1693,6 +1673,11 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="20">
@@ -2512,49 +2497,49 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="449">
+  <cellXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3560,9 +3545,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="32" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3575,7 +3557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3590,13 +3572,10 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3641,10 +3620,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3682,25 +3661,25 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="16" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="16" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="16" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="35" fillId="5" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3731,39 +3710,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3868,16 +3847,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3892,10 +3871,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3907,7 +3886,7 @@
     <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3921,18 +3900,51 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3951,15 +3963,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3983,30 +3986,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4371,179 +4350,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="345" customWidth="1"/>
-    <col min="2" max="3" width="8.75" style="345"/>
-    <col min="4" max="4" width="17.125" style="345" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="345"/>
-    <col min="6" max="6" width="17.875" style="345" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="345"/>
+    <col min="1" max="1" width="21" style="343" customWidth="1"/>
+    <col min="2" max="3" width="8.75" style="343"/>
+    <col min="4" max="4" width="17.125" style="343" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="343"/>
+    <col min="6" max="6" width="17.875" style="343" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="343"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="343" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="345" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="346" t="s">
+      <c r="B1" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="344" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="347" t="s">
+      <c r="D2" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="348" t="s">
+      <c r="F2" s="346" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="347" t="s">
+      <c r="A3" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="345" t="s">
+      <c r="B3" s="343" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="347" t="s">
+      <c r="D3" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="348" t="s">
+      <c r="F3" s="346" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="347" t="s">
+      <c r="A4" s="345" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="345" t="s">
+      <c r="B4" s="343" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="347" t="s">
+      <c r="D4" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="348" t="s">
+      <c r="F4" s="346" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="347" t="s">
+      <c r="A5" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="345" t="s">
+      <c r="B5" s="343" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="347" t="s">
+      <c r="D5" s="345" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="348" t="s">
+      <c r="F5" s="346" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="348" t="s">
+      <c r="A6" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="345" t="s">
+      <c r="B6" s="343" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="347" t="s">
+      <c r="D6" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="348" t="s">
+      <c r="F6" s="346" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="347" t="s">
+      <c r="A7" s="345" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="345" t="s">
+      <c r="B7" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="347" t="s">
+      <c r="D7" s="345" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="347" t="s">
+      <c r="A8" s="345" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="348" t="s">
+      <c r="D8" s="346" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="347" t="s">
+      <c r="A9" s="345" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="347" t="s">
+      <c r="D9" s="345" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="348" t="s">
+      <c r="A10" s="346" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="347" t="s">
+      <c r="D10" s="345" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="347" t="s">
+      <c r="A11" s="345" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="347" t="s">
+      <c r="D11" s="345" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="347" t="s">
+      <c r="A12" s="345" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="347" t="s">
+      <c r="D12" s="345" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="347" t="s">
+      <c r="A13" s="345" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="347" t="s">
+      <c r="D13" s="345" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="347" t="s">
+      <c r="A14" s="345" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="347" t="s">
+      <c r="D14" s="345" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="347" t="s">
+      <c r="A15" s="345" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="347" t="s">
+      <c r="D15" s="345" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="347" t="s">
+      <c r="A16" s="345" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="347" t="s">
+      <c r="A17" s="345" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35"/>
+  <phoneticPr fontId="34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -4565,24 +4544,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="338" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="340" t="s">
+      <c r="B1" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="340" t="s">
+      <c r="C1" s="338" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="339" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="342">
-        <v>1</v>
-      </c>
-      <c r="C2" s="342">
+      <c r="B2" s="340">
+        <v>1</v>
+      </c>
+      <c r="C2" s="340">
         <v>1</v>
       </c>
     </row>
@@ -4590,10 +4569,10 @@
       <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="342">
+      <c r="B3" s="340">
         <v>3</v>
       </c>
-      <c r="C3" s="342">
+      <c r="C3" s="340">
         <v>3</v>
       </c>
     </row>
@@ -4601,10 +4580,10 @@
       <c r="A4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="342">
+      <c r="B4" s="340">
         <v>5</v>
       </c>
-      <c r="C4" s="342">
+      <c r="C4" s="340">
         <v>2</v>
       </c>
     </row>
@@ -4612,10 +4591,10 @@
       <c r="A5" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="342">
+      <c r="B5" s="340">
         <v>6</v>
       </c>
-      <c r="C5" s="342">
+      <c r="C5" s="340">
         <v>6</v>
       </c>
     </row>
@@ -4623,10 +4602,10 @@
       <c r="A6" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="342">
+      <c r="B6" s="340">
         <v>15</v>
       </c>
-      <c r="C6" s="342">
+      <c r="C6" s="340">
         <v>11</v>
       </c>
     </row>
@@ -4634,28 +4613,28 @@
       <c r="A7" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="342">
+      <c r="B7" s="340">
         <v>3</v>
       </c>
-      <c r="C7" s="342">
+      <c r="C7" s="340">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="343" t="s">
+      <c r="A8" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="344">
+      <c r="B8" s="342">
         <f>SUM(B2:B7)</f>
         <v>33</v>
       </c>
-      <c r="C8" s="344">
+      <c r="C8" s="342">
         <f>SUM(C2:C7)</f>
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35"/>
+  <phoneticPr fontId="34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4666,9 +4645,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q146" sqref="Q146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4896,10 +4875,10 @@
         <f t="shared" ref="N2" si="1">M2/20*1.15</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="O2" s="384" t="s">
+      <c r="O2" s="382" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="421" t="s">
+      <c r="P2" s="432" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -4969,7 +4948,7 @@
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
-      <c r="D3" s="391" t="s">
+      <c r="D3" s="389" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="45"/>
@@ -5004,7 +4983,7 @@
       <c r="O3" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="422"/>
+      <c r="P3" s="421"/>
       <c r="Q3" s="165" t="s">
         <v>100</v>
       </c>
@@ -5020,7 +4999,7 @@
         <v>88</v>
       </c>
       <c r="W3" s="169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X3" s="112" t="s">
         <v>89</v>
@@ -5028,19 +5007,19 @@
       <c r="Y3" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="385"/>
+      <c r="Z3" s="383"/>
       <c r="AA3" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB3" s="386"/>
-      <c r="AC3" s="386"/>
-      <c r="AD3" s="390"/>
-      <c r="AE3" s="390"/>
-      <c r="AF3" s="390"/>
-      <c r="AG3" s="390"/>
-      <c r="AH3" s="386"/>
-      <c r="AI3" s="386"/>
-      <c r="AJ3" s="386"/>
+      <c r="AB3" s="384"/>
+      <c r="AC3" s="384"/>
+      <c r="AD3" s="388"/>
+      <c r="AE3" s="388"/>
+      <c r="AF3" s="388"/>
+      <c r="AG3" s="388"/>
+      <c r="AH3" s="384"/>
+      <c r="AI3" s="384"/>
+      <c r="AJ3" s="384"/>
       <c r="AK3" s="252">
         <v>2.5</v>
       </c>
@@ -5071,7 +5050,7 @@
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
-      <c r="D4" s="391" t="s">
+      <c r="D4" s="389" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="45"/>
@@ -5106,7 +5085,7 @@
       <c r="O4" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="422"/>
+      <c r="P4" s="421"/>
       <c r="Q4" s="165" t="s">
         <v>102</v>
       </c>
@@ -5122,7 +5101,7 @@
         <v>88</v>
       </c>
       <c r="W4" s="169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X4" s="112" t="s">
         <v>89</v>
@@ -5130,19 +5109,19 @@
       <c r="Y4" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="385"/>
+      <c r="Z4" s="383"/>
       <c r="AA4" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB4" s="386"/>
-      <c r="AC4" s="386"/>
-      <c r="AD4" s="390"/>
-      <c r="AE4" s="390"/>
-      <c r="AF4" s="390"/>
-      <c r="AG4" s="390"/>
-      <c r="AH4" s="386"/>
-      <c r="AI4" s="386"/>
-      <c r="AJ4" s="386"/>
+      <c r="AB4" s="384"/>
+      <c r="AC4" s="384"/>
+      <c r="AD4" s="388"/>
+      <c r="AE4" s="388"/>
+      <c r="AF4" s="388"/>
+      <c r="AG4" s="388"/>
+      <c r="AH4" s="384"/>
+      <c r="AI4" s="384"/>
+      <c r="AJ4" s="384"/>
       <c r="AK4" s="252">
         <v>2.5</v>
       </c>
@@ -5173,7 +5152,7 @@
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="391" t="s">
+      <c r="D5" s="389" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="45"/>
@@ -5208,7 +5187,7 @@
       <c r="O5" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="422"/>
+      <c r="P5" s="421"/>
       <c r="Q5" s="165" t="s">
         <v>13</v>
       </c>
@@ -5220,7 +5199,7 @@
         <v>88</v>
       </c>
       <c r="W5" s="169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X5" s="112" t="s">
         <v>89</v>
@@ -5228,19 +5207,19 @@
       <c r="Y5" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" s="385"/>
+      <c r="Z5" s="383"/>
       <c r="AA5" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB5" s="386"/>
-      <c r="AC5" s="386"/>
-      <c r="AD5" s="390"/>
-      <c r="AE5" s="390"/>
-      <c r="AF5" s="390"/>
-      <c r="AG5" s="390"/>
-      <c r="AH5" s="386"/>
-      <c r="AI5" s="386"/>
-      <c r="AJ5" s="386"/>
+      <c r="AB5" s="384"/>
+      <c r="AC5" s="384"/>
+      <c r="AD5" s="388"/>
+      <c r="AE5" s="388"/>
+      <c r="AF5" s="388"/>
+      <c r="AG5" s="388"/>
+      <c r="AH5" s="384"/>
+      <c r="AI5" s="384"/>
+      <c r="AJ5" s="384"/>
       <c r="AK5" s="252">
         <v>2.5</v>
       </c>
@@ -5271,7 +5250,7 @@
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
-      <c r="D6" s="391" t="s">
+      <c r="D6" s="389" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="45"/>
@@ -5306,19 +5285,19 @@
       <c r="O6" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="423"/>
+      <c r="P6" s="422"/>
       <c r="Q6" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="388"/>
-      <c r="S6" s="388"/>
-      <c r="T6" s="388"/>
-      <c r="U6" s="389"/>
+      <c r="R6" s="386"/>
+      <c r="S6" s="386"/>
+      <c r="T6" s="386"/>
+      <c r="U6" s="387"/>
       <c r="V6" s="163" t="s">
         <v>88</v>
       </c>
       <c r="W6" s="169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X6" s="112" t="s">
         <v>89</v>
@@ -5326,19 +5305,19 @@
       <c r="Y6" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" s="385"/>
+      <c r="Z6" s="383"/>
       <c r="AA6" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="AB6" s="386"/>
-      <c r="AC6" s="386"/>
-      <c r="AD6" s="390"/>
-      <c r="AE6" s="390"/>
-      <c r="AF6" s="390"/>
-      <c r="AG6" s="390"/>
-      <c r="AH6" s="386"/>
-      <c r="AI6" s="386"/>
-      <c r="AJ6" s="386"/>
+      <c r="AB6" s="384"/>
+      <c r="AC6" s="384"/>
+      <c r="AD6" s="388"/>
+      <c r="AE6" s="388"/>
+      <c r="AF6" s="388"/>
+      <c r="AG6" s="388"/>
+      <c r="AH6" s="384"/>
+      <c r="AI6" s="384"/>
+      <c r="AJ6" s="384"/>
       <c r="AK6" s="252">
         <v>2.5</v>
       </c>
@@ -5403,7 +5382,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="433" t="s">
+      <c r="P7" s="439" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5499,7 +5478,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="434"/>
+      <c r="P8" s="440"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5593,7 +5572,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="434"/>
+      <c r="P9" s="440"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5687,7 +5666,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="434"/>
+      <c r="P10" s="440"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5781,7 +5760,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="435"/>
+      <c r="P11" s="441"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5875,7 +5854,7 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="430" t="s">
+      <c r="P12" s="423" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="160" t="s">
@@ -5893,7 +5872,7 @@
       <c r="U12" s="166">
         <v>43913</v>
       </c>
-      <c r="V12" s="352"/>
+      <c r="V12" s="350"/>
       <c r="W12" s="73" t="s">
         <v>106</v>
       </c>
@@ -5970,7 +5949,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="431"/>
+      <c r="P13" s="424"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -5984,14 +5963,14 @@
         <v>43914</v>
       </c>
       <c r="U13" s="166"/>
-      <c r="V13" s="352"/>
+      <c r="V13" s="350"/>
       <c r="W13" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X13" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y13" s="376" t="s">
+      <c r="Y13" s="374" t="s">
         <v>90</v>
       </c>
       <c r="Z13" s="105"/>
@@ -6007,14 +5986,14 @@
       <c r="AH13" s="221"/>
       <c r="AI13" s="221"/>
       <c r="AJ13" s="221"/>
-      <c r="AK13" s="322"/>
-      <c r="AL13" s="375"/>
-      <c r="AM13" s="322"/>
-      <c r="AN13" s="322"/>
-      <c r="AO13" s="334"/>
-      <c r="AP13" s="383"/>
-      <c r="AQ13" s="383"/>
-      <c r="AR13" s="383"/>
+      <c r="AK13" s="320"/>
+      <c r="AL13" s="373"/>
+      <c r="AM13" s="320"/>
+      <c r="AN13" s="320"/>
+      <c r="AO13" s="332"/>
+      <c r="AP13" s="381"/>
+      <c r="AQ13" s="381"/>
+      <c r="AR13" s="381"/>
       <c r="AS13" s="177" t="s">
         <v>10</v>
       </c>
@@ -6059,7 +6038,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="431"/>
+      <c r="P14" s="424"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6071,17 +6050,17 @@
       </c>
       <c r="T14" s="166"/>
       <c r="U14" s="166"/>
-      <c r="V14" s="352"/>
+      <c r="V14" s="350"/>
       <c r="W14" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X14" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y14" s="376" t="s">
+      <c r="Y14" s="374" t="s">
         <v>90</v>
       </c>
-      <c r="Z14" s="392"/>
+      <c r="Z14" s="390"/>
       <c r="AA14" s="177" t="s">
         <v>108</v>
       </c>
@@ -6094,14 +6073,14 @@
       <c r="AH14" s="221"/>
       <c r="AI14" s="221"/>
       <c r="AJ14" s="221"/>
-      <c r="AK14" s="322"/>
-      <c r="AL14" s="375"/>
-      <c r="AM14" s="322"/>
-      <c r="AN14" s="322"/>
-      <c r="AO14" s="334"/>
-      <c r="AP14" s="383"/>
-      <c r="AQ14" s="383"/>
-      <c r="AR14" s="383"/>
+      <c r="AK14" s="320"/>
+      <c r="AL14" s="373"/>
+      <c r="AM14" s="320"/>
+      <c r="AN14" s="320"/>
+      <c r="AO14" s="332"/>
+      <c r="AP14" s="381"/>
+      <c r="AQ14" s="381"/>
+      <c r="AR14" s="381"/>
       <c r="AS14" s="177" t="s">
         <v>10</v>
       </c>
@@ -6146,7 +6125,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="431"/>
+      <c r="P15" s="424"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6158,14 +6137,14 @@
       </c>
       <c r="T15" s="166"/>
       <c r="U15" s="166"/>
-      <c r="V15" s="352"/>
+      <c r="V15" s="350"/>
       <c r="W15" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X15" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" s="376" t="s">
+      <c r="Y15" s="374" t="s">
         <v>90</v>
       </c>
       <c r="Z15" s="148"/>
@@ -6181,14 +6160,14 @@
       <c r="AH15" s="221"/>
       <c r="AI15" s="221"/>
       <c r="AJ15" s="221"/>
-      <c r="AK15" s="322"/>
-      <c r="AL15" s="375"/>
-      <c r="AM15" s="322"/>
-      <c r="AN15" s="322"/>
-      <c r="AO15" s="334"/>
-      <c r="AP15" s="383"/>
-      <c r="AQ15" s="383"/>
-      <c r="AR15" s="383"/>
+      <c r="AK15" s="320"/>
+      <c r="AL15" s="373"/>
+      <c r="AM15" s="320"/>
+      <c r="AN15" s="320"/>
+      <c r="AO15" s="332"/>
+      <c r="AP15" s="381"/>
+      <c r="AQ15" s="381"/>
+      <c r="AR15" s="381"/>
       <c r="AS15" s="177" t="s">
         <v>10</v>
       </c>
@@ -6235,7 +6214,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="432"/>
+      <c r="P16" s="425"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6243,14 +6222,14 @@
       <c r="S16" s="166"/>
       <c r="T16" s="166"/>
       <c r="U16" s="166"/>
-      <c r="V16" s="352"/>
+      <c r="V16" s="350"/>
       <c r="W16" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X16" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y16" s="376" t="s">
+      <c r="Y16" s="374" t="s">
         <v>90</v>
       </c>
       <c r="Z16" s="105"/>
@@ -6266,14 +6245,14 @@
       <c r="AH16" s="223"/>
       <c r="AI16" s="226"/>
       <c r="AJ16" s="73"/>
-      <c r="AK16" s="322"/>
-      <c r="AL16" s="375"/>
-      <c r="AM16" s="322"/>
-      <c r="AN16" s="322"/>
-      <c r="AO16" s="334"/>
-      <c r="AP16" s="334"/>
-      <c r="AQ16" s="334"/>
-      <c r="AR16" s="334"/>
+      <c r="AK16" s="320"/>
+      <c r="AL16" s="373"/>
+      <c r="AM16" s="320"/>
+      <c r="AN16" s="320"/>
+      <c r="AO16" s="332"/>
+      <c r="AP16" s="332"/>
+      <c r="AQ16" s="332"/>
+      <c r="AR16" s="332"/>
       <c r="AS16" s="177" t="s">
         <v>10</v>
       </c>
@@ -6434,7 +6413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="31" customFormat="1" ht="28.5">
+    <row r="19" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A19" s="59" t="s">
         <v>117</v>
       </c>
@@ -6470,7 +6449,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="436" t="s">
+      <c r="P19" s="442" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6526,7 +6505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="20" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A20" s="45" t="s">
         <v>117</v>
       </c>
@@ -6562,7 +6541,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="437"/>
+      <c r="P20" s="443"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6616,7 +6595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="21" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A21" s="45" t="s">
         <v>117</v>
       </c>
@@ -6652,7 +6631,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="437"/>
+      <c r="P21" s="443"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6706,7 +6685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="22" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A22" s="45" t="s">
         <v>117</v>
       </c>
@@ -6742,7 +6721,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="437"/>
+      <c r="P22" s="443"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6796,7 +6775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="23" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A23" s="62" t="s">
         <v>117</v>
       </c>
@@ -6832,7 +6811,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="438"/>
+      <c r="P23" s="444"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6886,7 +6865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>122</v>
       </c>
@@ -6927,7 +6906,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="439" t="s">
+      <c r="P24" s="445" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -6976,10 +6955,10 @@
       <c r="AH24" s="215"/>
       <c r="AI24" s="215"/>
       <c r="AJ24" s="143"/>
-      <c r="AK24" s="401">
+      <c r="AK24" s="399">
         <v>0.68</v>
       </c>
-      <c r="AL24" s="402">
+      <c r="AL24" s="400">
         <v>0.95</v>
       </c>
       <c r="AM24" s="251">
@@ -7001,7 +6980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A25" s="45" t="s">
         <v>122</v>
       </c>
@@ -7042,7 +7021,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="428"/>
+      <c r="P25" s="437"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7085,21 +7064,21 @@
       <c r="AH25" s="237"/>
       <c r="AI25" s="237"/>
       <c r="AJ25" s="144"/>
-      <c r="AK25" s="403">
+      <c r="AK25" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL25" s="404">
+      <c r="AL25" s="402">
         <v>0.95</v>
       </c>
-      <c r="AM25" s="405">
+      <c r="AM25" s="403">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN25" s="405">
+      <c r="AN25" s="403">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO25" s="406">
+      <c r="AO25" s="404">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7112,7 +7091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A26" s="45" t="s">
         <v>122</v>
       </c>
@@ -7153,7 +7132,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="428"/>
+      <c r="P26" s="437"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7196,21 +7175,21 @@
       <c r="AH26" s="237"/>
       <c r="AI26" s="237"/>
       <c r="AJ26" s="144"/>
-      <c r="AK26" s="403">
+      <c r="AK26" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL26" s="404">
+      <c r="AL26" s="402">
         <v>0.95</v>
       </c>
-      <c r="AM26" s="405">
+      <c r="AM26" s="403">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN26" s="405">
+      <c r="AN26" s="403">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO26" s="406">
+      <c r="AO26" s="404">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7223,7 +7202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>122</v>
       </c>
@@ -7264,7 +7243,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="428"/>
+      <c r="P27" s="437"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7307,21 +7286,21 @@
       <c r="AH27" s="217"/>
       <c r="AI27" s="217"/>
       <c r="AJ27" s="135"/>
-      <c r="AK27" s="403">
+      <c r="AK27" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL27" s="404">
+      <c r="AL27" s="402">
         <v>0.95</v>
       </c>
-      <c r="AM27" s="405">
+      <c r="AM27" s="403">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN27" s="405">
+      <c r="AN27" s="403">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO27" s="406">
+      <c r="AO27" s="404">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7332,7 +7311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A28" s="62" t="s">
         <v>122</v>
       </c>
@@ -7373,7 +7352,7 @@
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="440"/>
+      <c r="P28" s="446"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7408,21 +7387,21 @@
       <c r="AH28" s="234"/>
       <c r="AI28" s="234"/>
       <c r="AJ28" s="142"/>
-      <c r="AK28" s="403">
+      <c r="AK28" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL28" s="404">
+      <c r="AL28" s="402">
         <v>0.95</v>
       </c>
-      <c r="AM28" s="405">
+      <c r="AM28" s="403">
         <f t="shared" si="2"/>
         <v>1.3656249999999998E-2</v>
       </c>
-      <c r="AN28" s="405">
+      <c r="AN28" s="403">
         <f t="shared" si="3"/>
         <v>7.1875000000000064E-4</v>
       </c>
-      <c r="AO28" s="406">
+      <c r="AO28" s="404">
         <f t="shared" si="9"/>
         <v>49.794050343249438</v>
       </c>
@@ -7433,7 +7412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>129</v>
       </c>
@@ -7474,7 +7453,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="439" t="s">
+      <c r="P29" s="445" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7517,10 +7496,10 @@
       <c r="AH29" s="143"/>
       <c r="AI29" s="143"/>
       <c r="AJ29" s="143"/>
-      <c r="AK29" s="401">
+      <c r="AK29" s="399">
         <v>0.68</v>
       </c>
-      <c r="AL29" s="402">
+      <c r="AL29" s="400">
         <v>0.97</v>
       </c>
       <c r="AM29" s="251">
@@ -7542,7 +7521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A30" s="45" t="s">
         <v>129</v>
       </c>
@@ -7583,7 +7562,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="428"/>
+      <c r="P30" s="437"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7620,21 +7599,21 @@
       <c r="AH30" s="135"/>
       <c r="AI30" s="135"/>
       <c r="AJ30" s="135"/>
-      <c r="AK30" s="403">
+      <c r="AK30" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL30" s="404">
+      <c r="AL30" s="402">
         <v>0.97</v>
       </c>
-      <c r="AM30" s="405">
+      <c r="AM30" s="403">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN30" s="405">
+      <c r="AN30" s="403">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO30" s="406">
+      <c r="AO30" s="404">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7645,7 +7624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A31" s="45" t="s">
         <v>129</v>
       </c>
@@ -7686,7 +7665,7 @@
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="428"/>
+      <c r="P31" s="437"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7723,21 +7702,21 @@
       <c r="AH31" s="135"/>
       <c r="AI31" s="135"/>
       <c r="AJ31" s="135"/>
-      <c r="AK31" s="403">
+      <c r="AK31" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL31" s="404">
+      <c r="AL31" s="402">
         <v>0.97</v>
       </c>
-      <c r="AM31" s="405">
+      <c r="AM31" s="403">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN31" s="405">
+      <c r="AN31" s="403">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO31" s="406">
+      <c r="AO31" s="404">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7748,7 +7727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A32" s="45" t="s">
         <v>129</v>
       </c>
@@ -7789,7 +7768,7 @@
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="428"/>
+      <c r="P32" s="437"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7826,21 +7805,21 @@
       <c r="AH32" s="135"/>
       <c r="AI32" s="135"/>
       <c r="AJ32" s="135"/>
-      <c r="AK32" s="403">
+      <c r="AK32" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL32" s="404">
+      <c r="AL32" s="402">
         <v>0.97</v>
       </c>
-      <c r="AM32" s="405">
+      <c r="AM32" s="403">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN32" s="405">
+      <c r="AN32" s="403">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO32" s="406">
+      <c r="AO32" s="404">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7851,7 +7830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A33" s="62" t="s">
         <v>129</v>
       </c>
@@ -7892,7 +7871,7 @@
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="440"/>
+      <c r="P33" s="446"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -7929,21 +7908,21 @@
       <c r="AH33" s="142"/>
       <c r="AI33" s="142"/>
       <c r="AJ33" s="142"/>
-      <c r="AK33" s="403">
+      <c r="AK33" s="401">
         <v>0.68</v>
       </c>
-      <c r="AL33" s="404">
+      <c r="AL33" s="402">
         <v>0.97</v>
       </c>
-      <c r="AM33" s="405">
+      <c r="AM33" s="403">
         <f t="shared" si="20"/>
         <v>2.0915624999999997E-2</v>
       </c>
-      <c r="AN33" s="405">
+      <c r="AN33" s="403">
         <f t="shared" si="21"/>
         <v>6.4687500000000162E-4</v>
       </c>
-      <c r="AO33" s="406">
+      <c r="AO33" s="404">
         <f t="shared" si="9"/>
         <v>32.511579261915443</v>
       </c>
@@ -7954,7 +7933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="34" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A34" s="59" t="s">
         <v>132</v>
       </c>
@@ -7995,7 +7974,7 @@
       <c r="O34" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="427" t="s">
+      <c r="P34" s="436" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="160" t="s">
@@ -8063,7 +8042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="32" customFormat="1" ht="28.5">
+    <row r="35" spans="1:45" s="32" customFormat="1" ht="28.5" hidden="1">
       <c r="A35" s="45" t="s">
         <v>132</v>
       </c>
@@ -8104,7 +8083,7 @@
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="428"/>
+      <c r="P35" s="437"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8129,7 +8108,7 @@
       <c r="X35" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y35" s="448" t="s">
+      <c r="Y35" s="419" t="s">
         <v>127</v>
       </c>
       <c r="Z35" s="135"/>
@@ -8170,7 +8149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
       <c r="A36" s="45" t="s">
         <v>132</v>
       </c>
@@ -8211,7 +8190,7 @@
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="428"/>
+      <c r="P36" s="437"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8236,7 +8215,7 @@
       <c r="X36" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y36" s="448" t="s">
+      <c r="Y36" s="419" t="s">
         <v>127</v>
       </c>
       <c r="Z36" s="135"/>
@@ -8277,7 +8256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="37" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A37" s="45" t="s">
         <v>132</v>
       </c>
@@ -8318,7 +8297,7 @@
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="428"/>
+      <c r="P37" s="437"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8341,7 +8320,7 @@
       <c r="X37" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y37" s="448" t="s">
+      <c r="Y37" s="419" t="s">
         <v>127</v>
       </c>
       <c r="Z37" s="135"/>
@@ -8382,7 +8361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="38" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A38" s="48" t="s">
         <v>132</v>
       </c>
@@ -8423,7 +8402,7 @@
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="429"/>
+      <c r="P38" s="438"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8440,7 +8419,7 @@
       <c r="X38" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y38" s="448" t="s">
+      <c r="Y38" s="419" t="s">
         <v>127</v>
       </c>
       <c r="Z38" s="146"/>
@@ -8522,7 +8501,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="424" t="s">
+      <c r="P39" s="433" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8630,7 +8609,7 @@
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="425"/>
+      <c r="P40" s="434"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8733,7 +8712,7 @@
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="425"/>
+      <c r="P41" s="434"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8836,7 +8815,7 @@
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="425"/>
+      <c r="P42" s="434"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8939,7 +8918,7 @@
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="426"/>
+      <c r="P43" s="435"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -9040,7 +9019,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="441" t="s">
+      <c r="P44" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9083,7 +9062,7 @@
       <c r="AH44" s="143"/>
       <c r="AI44" s="143"/>
       <c r="AJ44" s="143"/>
-      <c r="AK44" s="337">
+      <c r="AK44" s="335">
         <v>0.45</v>
       </c>
       <c r="AL44" s="198">
@@ -9149,7 +9128,7 @@
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="442"/>
+      <c r="P45" s="430"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9192,14 +9171,14 @@
       <c r="AL45" s="199">
         <v>0.97</v>
       </c>
-      <c r="AM45" s="393">
+      <c r="AM45" s="391">
         <f t="shared" si="20"/>
         <v>1.3943749999999998E-2</v>
       </c>
       <c r="AN45" s="252">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO45" s="394">
+      <c r="AO45" s="392">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9212,7 +9191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="45" t="s">
         <v>140</v>
       </c>
@@ -9253,7 +9232,7 @@
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="442"/>
+      <c r="P46" s="430"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9290,20 +9269,20 @@
       <c r="AH46" s="144"/>
       <c r="AI46" s="144"/>
       <c r="AJ46" s="144"/>
-      <c r="AK46" s="407">
+      <c r="AK46" s="405">
         <v>0.5</v>
       </c>
-      <c r="AL46" s="408">
+      <c r="AL46" s="406">
         <v>0.9</v>
       </c>
-      <c r="AM46" s="393">
+      <c r="AM46" s="391">
         <f t="shared" si="20"/>
         <v>1.2937499999999999E-2</v>
       </c>
       <c r="AN46" s="252">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO46" s="394">
+      <c r="AO46" s="392">
         <f t="shared" si="9"/>
         <v>38.647342995169083</v>
       </c>
@@ -9357,7 +9336,7 @@
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="442"/>
+      <c r="P47" s="430"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9400,7 +9379,7 @@
       <c r="AL47" s="199">
         <v>0.97</v>
       </c>
-      <c r="AM47" s="393">
+      <c r="AM47" s="391">
         <f t="shared" si="20"/>
         <v>1.3943749999999998E-2</v>
       </c>
@@ -9408,7 +9387,7 @@
         <f t="shared" ref="AN47:AN67" si="32">N47-AM47</f>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO47" s="394">
+      <c r="AO47" s="392">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9460,7 +9439,7 @@
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="443"/>
+      <c r="P48" s="431"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9476,7 +9455,7 @@
       <c r="U48" s="168">
         <v>43844</v>
       </c>
-      <c r="V48" s="398">
+      <c r="V48" s="396">
         <v>1</v>
       </c>
       <c r="W48" s="148" t="s">
@@ -9503,7 +9482,7 @@
       <c r="AL48" s="199">
         <v>0.97</v>
       </c>
-      <c r="AM48" s="393">
+      <c r="AM48" s="391">
         <f t="shared" si="20"/>
         <v>1.3943749999999998E-2</v>
       </c>
@@ -9511,7 +9490,7 @@
         <f t="shared" si="32"/>
         <v>4.3125000000000108E-4</v>
       </c>
-      <c r="AO48" s="394">
+      <c r="AO48" s="392">
         <f t="shared" si="9"/>
         <v>32.272523532048417</v>
       </c>
@@ -9656,7 +9635,7 @@
         <v>149</v>
       </c>
       <c r="Y50" s="241"/>
-      <c r="Z50" s="349" t="s">
+      <c r="Z50" s="347" t="s">
         <v>301</v>
       </c>
       <c r="AA50" s="73"/>
@@ -9865,7 +9844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A53" s="51" t="s">
         <v>158</v>
       </c>
@@ -9906,7 +9885,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="430" t="s">
+      <c r="P53" s="423" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9924,7 +9903,9 @@
       <c r="U53" s="192">
         <v>43866</v>
       </c>
-      <c r="V53" s="208"/>
+      <c r="V53" s="194">
+        <v>1</v>
+      </c>
       <c r="W53" s="98" t="s">
         <v>126</v>
       </c>
@@ -9947,10 +9928,10 @@
       <c r="AH53" s="223"/>
       <c r="AI53" s="73"/>
       <c r="AJ53" s="73"/>
-      <c r="AK53" s="409">
+      <c r="AK53" s="407">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL53" s="410">
+      <c r="AL53" s="408">
         <v>0.96</v>
       </c>
       <c r="AM53" s="255">
@@ -9972,7 +9953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A54" s="45" t="s">
         <v>158</v>
       </c>
@@ -10013,7 +9994,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="431"/>
+      <c r="P54" s="424"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -10029,7 +10010,9 @@
       <c r="U54" s="168">
         <v>43875</v>
       </c>
-      <c r="V54" s="208"/>
+      <c r="V54" s="194">
+        <v>1</v>
+      </c>
       <c r="W54" s="105" t="s">
         <v>126</v>
       </c>
@@ -10052,21 +10035,21 @@
       <c r="AH54" s="144"/>
       <c r="AI54" s="144"/>
       <c r="AJ54" s="144"/>
-      <c r="AK54" s="411">
+      <c r="AK54" s="409">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL54" s="412">
+      <c r="AL54" s="410">
         <v>0.96</v>
       </c>
-      <c r="AM54" s="369">
+      <c r="AM54" s="367">
         <f t="shared" si="33"/>
         <v>1.3799999999999998E-2</v>
       </c>
-      <c r="AN54" s="369">
+      <c r="AN54" s="367">
         <f t="shared" si="32"/>
         <v>5.7500000000000086E-4</v>
       </c>
-      <c r="AO54" s="370">
+      <c r="AO54" s="368">
         <f t="shared" si="36"/>
         <v>39.492753623188413</v>
       </c>
@@ -10077,7 +10060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A55" s="45" t="s">
         <v>158</v>
       </c>
@@ -10118,7 +10101,7 @@
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="431"/>
+      <c r="P55" s="424"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10134,7 +10117,9 @@
       <c r="U55" s="168">
         <v>43877</v>
       </c>
-      <c r="V55" s="208"/>
+      <c r="V55" s="194">
+        <v>1</v>
+      </c>
       <c r="W55" s="105" t="s">
         <v>126</v>
       </c>
@@ -10153,21 +10138,21 @@
       <c r="AH55" s="144"/>
       <c r="AI55" s="144"/>
       <c r="AJ55" s="144"/>
-      <c r="AK55" s="411">
+      <c r="AK55" s="409">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL55" s="412">
+      <c r="AL55" s="410">
         <v>0.96</v>
       </c>
-      <c r="AM55" s="369">
+      <c r="AM55" s="367">
         <f t="shared" si="33"/>
         <v>1.3799999999999998E-2</v>
       </c>
-      <c r="AN55" s="369">
+      <c r="AN55" s="367">
         <f t="shared" si="32"/>
         <v>5.7500000000000086E-4</v>
       </c>
-      <c r="AO55" s="370">
+      <c r="AO55" s="368">
         <f t="shared" si="36"/>
         <v>39.492753623188413</v>
       </c>
@@ -10178,7 +10163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="45" t="s">
         <v>158</v>
       </c>
@@ -10219,7 +10204,7 @@
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="431"/>
+      <c r="P56" s="424"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10235,7 +10220,9 @@
       <c r="U56" s="166">
         <v>43921</v>
       </c>
-      <c r="V56" s="194"/>
+      <c r="V56" s="194">
+        <v>1</v>
+      </c>
       <c r="W56" s="105" t="s">
         <v>126</v>
       </c>
@@ -10254,21 +10241,21 @@
       <c r="AH56" s="135"/>
       <c r="AI56" s="135"/>
       <c r="AJ56" s="135"/>
-      <c r="AK56" s="411">
+      <c r="AK56" s="409">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL56" s="412">
+      <c r="AL56" s="410">
         <v>0.96</v>
       </c>
-      <c r="AM56" s="369">
+      <c r="AM56" s="367">
         <f t="shared" si="33"/>
         <v>1.3799999999999998E-2</v>
       </c>
-      <c r="AN56" s="369">
+      <c r="AN56" s="367">
         <f t="shared" si="32"/>
         <v>5.7500000000000086E-4</v>
       </c>
-      <c r="AO56" s="370">
+      <c r="AO56" s="368">
         <f t="shared" si="36"/>
         <v>39.492753623188413</v>
       </c>
@@ -10279,7 +10266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>158</v>
       </c>
@@ -10320,7 +10307,7 @@
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="432"/>
+      <c r="P57" s="425"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10336,7 +10323,9 @@
       <c r="U57" s="166">
         <v>43921</v>
       </c>
-      <c r="V57" s="194"/>
+      <c r="V57" s="194">
+        <v>1</v>
+      </c>
       <c r="W57" s="148" t="s">
         <v>126</v>
       </c>
@@ -10355,21 +10344,21 @@
       <c r="AH57" s="135"/>
       <c r="AI57" s="135"/>
       <c r="AJ57" s="135"/>
-      <c r="AK57" s="411">
+      <c r="AK57" s="409">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AL57" s="412">
+      <c r="AL57" s="410">
         <v>0.96</v>
       </c>
-      <c r="AM57" s="369">
+      <c r="AM57" s="367">
         <f t="shared" si="33"/>
         <v>1.3799999999999998E-2</v>
       </c>
-      <c r="AN57" s="369">
+      <c r="AN57" s="367">
         <f t="shared" si="32"/>
         <v>5.7500000000000086E-4</v>
       </c>
-      <c r="AO57" s="370">
+      <c r="AO57" s="368">
         <f t="shared" si="36"/>
         <v>39.492753623188413</v>
       </c>
@@ -10419,7 +10408,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="430" t="s">
+      <c r="P58" s="423" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10524,7 +10513,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="431"/>
+      <c r="P59" s="424"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10625,7 +10614,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="431"/>
+      <c r="P60" s="424"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10726,7 +10715,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="431"/>
+      <c r="P61" s="424"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10825,7 +10814,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="432"/>
+      <c r="P62" s="425"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10926,7 +10915,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="424" t="s">
+      <c r="P63" s="433" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -11037,7 +11026,7 @@
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="425"/>
+      <c r="P64" s="434"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11076,21 +11065,21 @@
       <c r="AH64" s="144"/>
       <c r="AI64" s="144"/>
       <c r="AJ64" s="144"/>
-      <c r="AK64" s="322">
+      <c r="AK64" s="320">
         <v>0.59</v>
       </c>
       <c r="AL64" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM64" s="393">
+      <c r="AM64" s="391">
         <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN64" s="393">
+      <c r="AN64" s="391">
         <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO64" s="394">
+      <c r="AO64" s="392">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11144,7 +11133,7 @@
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="425"/>
+      <c r="P65" s="434"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11183,21 +11172,21 @@
       <c r="AH65" s="144"/>
       <c r="AI65" s="144"/>
       <c r="AJ65" s="144"/>
-      <c r="AK65" s="322">
+      <c r="AK65" s="320">
         <v>0.59</v>
       </c>
       <c r="AL65" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM65" s="393">
+      <c r="AM65" s="391">
         <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN65" s="393">
+      <c r="AN65" s="391">
         <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO65" s="394">
+      <c r="AO65" s="392">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11251,7 +11240,7 @@
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="425"/>
+      <c r="P66" s="434"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11290,21 +11279,21 @@
       <c r="AH66" s="135"/>
       <c r="AI66" s="135"/>
       <c r="AJ66" s="135"/>
-      <c r="AK66" s="322">
+      <c r="AK66" s="320">
         <v>0.59</v>
       </c>
       <c r="AL66" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM66" s="393">
+      <c r="AM66" s="391">
         <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN66" s="393">
+      <c r="AN66" s="391">
         <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO66" s="394">
+      <c r="AO66" s="392">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11356,7 +11345,7 @@
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="426"/>
+      <c r="P67" s="435"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11395,21 +11384,21 @@
       <c r="AH67" s="142"/>
       <c r="AI67" s="142"/>
       <c r="AJ67" s="142"/>
-      <c r="AK67" s="322">
+      <c r="AK67" s="320">
         <v>0.59</v>
       </c>
       <c r="AL67" s="199">
         <v>0.95</v>
       </c>
-      <c r="AM67" s="393">
+      <c r="AM67" s="391">
         <f t="shared" si="33"/>
         <v>2.7312499999999997E-2</v>
       </c>
-      <c r="AN67" s="393">
+      <c r="AN67" s="391">
         <f t="shared" si="32"/>
         <v>1.4375000000000013E-3</v>
       </c>
-      <c r="AO67" s="394">
+      <c r="AO67" s="392">
         <f t="shared" si="9"/>
         <v>21.601830663615562</v>
       </c>
@@ -11424,13 +11413,13 @@
       <c r="A68" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="353"/>
-      <c r="C68" s="353"/>
+      <c r="B68" s="351"/>
+      <c r="C68" s="351"/>
       <c r="D68" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="353"/>
-      <c r="F68" s="353"/>
+      <c r="E68" s="351"/>
+      <c r="F68" s="351"/>
       <c r="G68" s="54" t="s">
         <v>170</v>
       </c>
@@ -11461,7 +11450,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="441" t="s">
+      <c r="P68" s="429" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11485,19 +11474,19 @@
       <c r="Y68" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="Z68" s="354"/>
+      <c r="Z68" s="352"/>
       <c r="AA68" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="AB68" s="354"/>
-      <c r="AC68" s="355"/>
-      <c r="AD68" s="355"/>
-      <c r="AE68" s="355"/>
-      <c r="AF68" s="355"/>
-      <c r="AG68" s="355"/>
-      <c r="AH68" s="354"/>
-      <c r="AI68" s="354"/>
-      <c r="AJ68" s="354"/>
+      <c r="AB68" s="352"/>
+      <c r="AC68" s="353"/>
+      <c r="AD68" s="353"/>
+      <c r="AE68" s="353"/>
+      <c r="AF68" s="353"/>
+      <c r="AG68" s="353"/>
+      <c r="AH68" s="352"/>
+      <c r="AI68" s="352"/>
+      <c r="AJ68" s="352"/>
       <c r="AK68" s="255"/>
       <c r="AL68" s="208"/>
       <c r="AM68" s="255"/>
@@ -11506,8 +11495,8 @@
       <c r="AP68" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AQ68" s="356"/>
-      <c r="AR68" s="356"/>
+      <c r="AQ68" s="354"/>
+      <c r="AR68" s="354"/>
       <c r="AS68" s="73" t="s">
         <v>10</v>
       </c>
@@ -11516,20 +11505,20 @@
       <c r="A69" s="277" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="353"/>
-      <c r="C69" s="353"/>
+      <c r="B69" s="351"/>
+      <c r="C69" s="351"/>
       <c r="D69" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="353"/>
-      <c r="F69" s="353"/>
+      <c r="E69" s="351"/>
+      <c r="F69" s="351"/>
       <c r="G69" s="278" t="s">
         <v>170</v>
       </c>
       <c r="H69" s="279" t="s">
         <v>171</v>
       </c>
-      <c r="I69" s="357" t="s">
+      <c r="I69" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J69" s="297">
@@ -11553,7 +11542,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="442"/>
+      <c r="P69" s="430"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11572,32 +11561,32 @@
       <c r="X69" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y69" s="377" t="s">
+      <c r="Y69" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="Z69" s="378"/>
+      <c r="Z69" s="376"/>
       <c r="AA69" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="AB69" s="354"/>
-      <c r="AC69" s="355"/>
-      <c r="AD69" s="355"/>
-      <c r="AE69" s="355"/>
-      <c r="AF69" s="355"/>
-      <c r="AG69" s="355"/>
-      <c r="AH69" s="354"/>
-      <c r="AI69" s="354"/>
-      <c r="AJ69" s="354"/>
-      <c r="AK69" s="322"/>
-      <c r="AL69" s="375"/>
-      <c r="AM69" s="322"/>
-      <c r="AN69" s="322"/>
-      <c r="AO69" s="334"/>
+      <c r="AB69" s="352"/>
+      <c r="AC69" s="353"/>
+      <c r="AD69" s="353"/>
+      <c r="AE69" s="353"/>
+      <c r="AF69" s="353"/>
+      <c r="AG69" s="353"/>
+      <c r="AH69" s="352"/>
+      <c r="AI69" s="352"/>
+      <c r="AJ69" s="352"/>
+      <c r="AK69" s="320"/>
+      <c r="AL69" s="373"/>
+      <c r="AM69" s="320"/>
+      <c r="AN69" s="320"/>
+      <c r="AO69" s="332"/>
       <c r="AP69" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ69" s="379"/>
-      <c r="AR69" s="379"/>
+      <c r="AQ69" s="377"/>
+      <c r="AR69" s="377"/>
       <c r="AS69" s="177" t="s">
         <v>10</v>
       </c>
@@ -11606,20 +11595,20 @@
       <c r="A70" s="277" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="353"/>
-      <c r="C70" s="353"/>
+      <c r="B70" s="351"/>
+      <c r="C70" s="351"/>
       <c r="D70" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="353"/>
-      <c r="F70" s="353"/>
+      <c r="E70" s="351"/>
+      <c r="F70" s="351"/>
       <c r="G70" s="278" t="s">
         <v>170</v>
       </c>
       <c r="H70" s="279" t="s">
         <v>171</v>
       </c>
-      <c r="I70" s="357" t="s">
+      <c r="I70" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J70" s="297">
@@ -11643,7 +11632,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="442"/>
+      <c r="P70" s="430"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11662,32 +11651,32 @@
       <c r="X70" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y70" s="377" t="s">
+      <c r="Y70" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="Z70" s="378"/>
+      <c r="Z70" s="376"/>
       <c r="AA70" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="AB70" s="354"/>
-      <c r="AC70" s="355"/>
-      <c r="AD70" s="355"/>
-      <c r="AE70" s="355"/>
-      <c r="AF70" s="355"/>
-      <c r="AG70" s="355"/>
-      <c r="AH70" s="354"/>
-      <c r="AI70" s="354"/>
-      <c r="AJ70" s="354"/>
-      <c r="AK70" s="322"/>
-      <c r="AL70" s="375"/>
-      <c r="AM70" s="322"/>
-      <c r="AN70" s="322"/>
-      <c r="AO70" s="334"/>
+      <c r="AB70" s="352"/>
+      <c r="AC70" s="353"/>
+      <c r="AD70" s="353"/>
+      <c r="AE70" s="353"/>
+      <c r="AF70" s="353"/>
+      <c r="AG70" s="353"/>
+      <c r="AH70" s="352"/>
+      <c r="AI70" s="352"/>
+      <c r="AJ70" s="352"/>
+      <c r="AK70" s="320"/>
+      <c r="AL70" s="373"/>
+      <c r="AM70" s="320"/>
+      <c r="AN70" s="320"/>
+      <c r="AO70" s="332"/>
       <c r="AP70" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ70" s="379"/>
-      <c r="AR70" s="379"/>
+      <c r="AQ70" s="377"/>
+      <c r="AR70" s="377"/>
       <c r="AS70" s="177" t="s">
         <v>10</v>
       </c>
@@ -11696,20 +11685,20 @@
       <c r="A71" s="277" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="353"/>
-      <c r="C71" s="353"/>
+      <c r="B71" s="351"/>
+      <c r="C71" s="351"/>
       <c r="D71" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="353"/>
-      <c r="F71" s="353"/>
+      <c r="E71" s="351"/>
+      <c r="F71" s="351"/>
       <c r="G71" s="278" t="s">
         <v>170</v>
       </c>
       <c r="H71" s="279" t="s">
         <v>171</v>
       </c>
-      <c r="I71" s="357" t="s">
+      <c r="I71" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J71" s="297">
@@ -11733,7 +11722,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="442"/>
+      <c r="P71" s="430"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11752,32 +11741,32 @@
       <c r="X71" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y71" s="377" t="s">
+      <c r="Y71" s="375" t="s">
         <v>90</v>
       </c>
-      <c r="Z71" s="378"/>
+      <c r="Z71" s="376"/>
       <c r="AA71" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="AB71" s="354"/>
-      <c r="AC71" s="355"/>
-      <c r="AD71" s="355"/>
-      <c r="AE71" s="355"/>
-      <c r="AF71" s="355"/>
-      <c r="AG71" s="355"/>
-      <c r="AH71" s="354"/>
-      <c r="AI71" s="354"/>
-      <c r="AJ71" s="354"/>
-      <c r="AK71" s="322"/>
-      <c r="AL71" s="375"/>
-      <c r="AM71" s="322"/>
-      <c r="AN71" s="322"/>
-      <c r="AO71" s="334"/>
+      <c r="AB71" s="352"/>
+      <c r="AC71" s="353"/>
+      <c r="AD71" s="353"/>
+      <c r="AE71" s="353"/>
+      <c r="AF71" s="353"/>
+      <c r="AG71" s="353"/>
+      <c r="AH71" s="352"/>
+      <c r="AI71" s="352"/>
+      <c r="AJ71" s="352"/>
+      <c r="AK71" s="320"/>
+      <c r="AL71" s="373"/>
+      <c r="AM71" s="320"/>
+      <c r="AN71" s="320"/>
+      <c r="AO71" s="332"/>
       <c r="AP71" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ71" s="379"/>
-      <c r="AR71" s="379"/>
+      <c r="AQ71" s="377"/>
+      <c r="AR71" s="377"/>
       <c r="AS71" s="177" t="s">
         <v>10</v>
       </c>
@@ -11799,7 +11788,7 @@
       <c r="H72" s="279" t="s">
         <v>171</v>
       </c>
-      <c r="I72" s="357" t="s">
+      <c r="I72" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J72" s="297">
@@ -11823,7 +11812,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="443"/>
+      <c r="P72" s="431"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -11838,7 +11827,7 @@
       <c r="X72" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y72" s="377" t="s">
+      <c r="Y72" s="375" t="s">
         <v>90</v>
       </c>
       <c r="Z72" s="177"/>
@@ -11854,14 +11843,14 @@
       <c r="AH72" s="73"/>
       <c r="AI72" s="73"/>
       <c r="AJ72" s="73"/>
-      <c r="AK72" s="322"/>
-      <c r="AL72" s="375"/>
-      <c r="AM72" s="322"/>
-      <c r="AN72" s="322"/>
-      <c r="AO72" s="334"/>
-      <c r="AP72" s="334"/>
-      <c r="AQ72" s="334"/>
-      <c r="AR72" s="334"/>
+      <c r="AK72" s="320"/>
+      <c r="AL72" s="373"/>
+      <c r="AM72" s="320"/>
+      <c r="AN72" s="320"/>
+      <c r="AO72" s="332"/>
+      <c r="AP72" s="332"/>
+      <c r="AQ72" s="332"/>
+      <c r="AR72" s="332"/>
       <c r="AS72" s="177" t="s">
         <v>10</v>
       </c>
@@ -11919,7 +11908,7 @@
         <v>107</v>
       </c>
       <c r="Y73" s="243"/>
-      <c r="Z73" s="320" t="s">
+      <c r="Z73" s="318" t="s">
         <v>176</v>
       </c>
       <c r="AA73" s="73" t="s">
@@ -12009,7 +11998,7 @@
       <c r="Y74" s="243" t="s">
         <v>90</v>
       </c>
-      <c r="Z74" s="351" t="s">
+      <c r="Z74" s="349" t="s">
         <v>303</v>
       </c>
       <c r="AA74" s="73" t="s">
@@ -12049,7 +12038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="75" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A75" s="51" t="s">
         <v>181</v>
       </c>
@@ -12090,7 +12079,7 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="430" t="s">
+      <c r="P75" s="423" t="s">
         <v>14</v>
       </c>
       <c r="Q75" s="160" t="s">
@@ -12112,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="W75" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="X75" s="73" t="s">
         <v>107</v>
@@ -12158,7 +12147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="76" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A76" s="270" t="s">
         <v>181</v>
       </c>
@@ -12199,7 +12188,7 @@
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="431"/>
+      <c r="P76" s="424"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12212,20 +12201,20 @@
       <c r="T76" s="166">
         <v>43928</v>
       </c>
-      <c r="U76" s="372"/>
-      <c r="V76" s="375">
+      <c r="U76" s="370"/>
+      <c r="V76" s="373">
         <v>0.1</v>
       </c>
       <c r="W76" s="177" t="s">
-        <v>308</v>
-      </c>
-      <c r="X76" s="373" t="s">
+        <v>306</v>
+      </c>
+      <c r="X76" s="371" t="s">
         <v>107</v>
       </c>
-      <c r="Y76" s="374" t="s">
+      <c r="Y76" s="372" t="s">
         <v>90</v>
       </c>
-      <c r="Z76" s="371"/>
+      <c r="Z76" s="369"/>
       <c r="AA76" s="177" t="s">
         <v>108</v>
       </c>
@@ -12238,32 +12227,32 @@
       <c r="AH76" s="223"/>
       <c r="AI76" s="223"/>
       <c r="AJ76" s="73"/>
-      <c r="AK76" s="322">
-        <v>1</v>
-      </c>
-      <c r="AL76" s="375">
+      <c r="AK76" s="320">
+        <v>1</v>
+      </c>
+      <c r="AL76" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM76" s="322">
+      <c r="AM76" s="320">
         <f t="shared" ref="AM76:AM79" si="57">N76*AL76</f>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN76" s="322">
+      <c r="AN76" s="320">
         <f t="shared" ref="AN76:AN79" si="58">N76-AM76</f>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO76" s="334">
+      <c r="AO76" s="332">
         <f t="shared" ref="AO76:AO79" si="59">AK76/AM76</f>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP76" s="334"/>
-      <c r="AQ76" s="334"/>
-      <c r="AR76" s="334"/>
+      <c r="AP76" s="332"/>
+      <c r="AQ76" s="332"/>
+      <c r="AR76" s="332"/>
       <c r="AS76" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="77" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A77" s="270" t="s">
         <v>181</v>
       </c>
@@ -12304,7 +12293,7 @@
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="431"/>
+      <c r="P77" s="424"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12315,18 +12304,18 @@
         <v>43973</v>
       </c>
       <c r="T77" s="166"/>
-      <c r="U77" s="372"/>
+      <c r="U77" s="370"/>
       <c r="V77" s="73"/>
       <c r="W77" s="177" t="s">
-        <v>308</v>
-      </c>
-      <c r="X77" s="373" t="s">
+        <v>306</v>
+      </c>
+      <c r="X77" s="371" t="s">
         <v>107</v>
       </c>
-      <c r="Y77" s="374" t="s">
+      <c r="Y77" s="372" t="s">
         <v>90</v>
       </c>
-      <c r="Z77" s="371"/>
+      <c r="Z77" s="369"/>
       <c r="AA77" s="177" t="s">
         <v>108</v>
       </c>
@@ -12339,32 +12328,32 @@
       <c r="AH77" s="223"/>
       <c r="AI77" s="223"/>
       <c r="AJ77" s="73"/>
-      <c r="AK77" s="322">
-        <v>1</v>
-      </c>
-      <c r="AL77" s="375">
+      <c r="AK77" s="320">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM77" s="322">
+      <c r="AM77" s="320">
         <f t="shared" si="57"/>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN77" s="322">
+      <c r="AN77" s="320">
         <f t="shared" si="58"/>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO77" s="334">
+      <c r="AO77" s="332">
         <f t="shared" si="59"/>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP77" s="334"/>
-      <c r="AQ77" s="334"/>
-      <c r="AR77" s="334"/>
+      <c r="AP77" s="332"/>
+      <c r="AQ77" s="332"/>
+      <c r="AR77" s="332"/>
       <c r="AS77" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="78" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A78" s="270" t="s">
         <v>181</v>
       </c>
@@ -12405,7 +12394,7 @@
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="431"/>
+      <c r="P78" s="424"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12416,18 +12405,18 @@
         <v>43978</v>
       </c>
       <c r="T78" s="166"/>
-      <c r="U78" s="372"/>
+      <c r="U78" s="370"/>
       <c r="V78" s="73"/>
       <c r="W78" s="177" t="s">
-        <v>308</v>
-      </c>
-      <c r="X78" s="373" t="s">
+        <v>306</v>
+      </c>
+      <c r="X78" s="371" t="s">
         <v>107</v>
       </c>
-      <c r="Y78" s="374" t="s">
+      <c r="Y78" s="372" t="s">
         <v>90</v>
       </c>
-      <c r="Z78" s="371"/>
+      <c r="Z78" s="369"/>
       <c r="AA78" s="177" t="s">
         <v>108</v>
       </c>
@@ -12440,32 +12429,32 @@
       <c r="AH78" s="223"/>
       <c r="AI78" s="223"/>
       <c r="AJ78" s="73"/>
-      <c r="AK78" s="322">
-        <v>1</v>
-      </c>
-      <c r="AL78" s="375">
+      <c r="AK78" s="320">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM78" s="322">
+      <c r="AM78" s="320">
         <f t="shared" si="57"/>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN78" s="322">
+      <c r="AN78" s="320">
         <f t="shared" si="58"/>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO78" s="334">
+      <c r="AO78" s="332">
         <f t="shared" si="59"/>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP78" s="334"/>
-      <c r="AQ78" s="334"/>
-      <c r="AR78" s="334"/>
+      <c r="AP78" s="332"/>
+      <c r="AQ78" s="332"/>
+      <c r="AR78" s="332"/>
       <c r="AS78" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="79" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A79" s="270" t="s">
         <v>181</v>
       </c>
@@ -12506,25 +12495,25 @@
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="432"/>
+      <c r="P79" s="425"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
       <c r="R79" s="166"/>
       <c r="S79" s="166"/>
       <c r="T79" s="166"/>
-      <c r="U79" s="372"/>
-      <c r="V79" s="360"/>
+      <c r="U79" s="370"/>
+      <c r="V79" s="358"/>
       <c r="W79" s="177" t="s">
-        <v>308</v>
-      </c>
-      <c r="X79" s="373" t="s">
+        <v>306</v>
+      </c>
+      <c r="X79" s="371" t="s">
         <v>107</v>
       </c>
-      <c r="Y79" s="374" t="s">
+      <c r="Y79" s="372" t="s">
         <v>90</v>
       </c>
-      <c r="Z79" s="371"/>
+      <c r="Z79" s="369"/>
       <c r="AA79" s="177" t="s">
         <v>108</v>
       </c>
@@ -12537,27 +12526,27 @@
       <c r="AH79" s="223"/>
       <c r="AI79" s="223"/>
       <c r="AJ79" s="73"/>
-      <c r="AK79" s="322">
-        <v>1</v>
-      </c>
-      <c r="AL79" s="375">
+      <c r="AK79" s="320">
+        <v>1</v>
+      </c>
+      <c r="AL79" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM79" s="322">
+      <c r="AM79" s="320">
         <f t="shared" si="57"/>
         <v>5.1749999999999997E-2</v>
       </c>
-      <c r="AN79" s="322">
+      <c r="AN79" s="320">
         <f t="shared" si="58"/>
         <v>5.7499999999999982E-3</v>
       </c>
-      <c r="AO79" s="334">
+      <c r="AO79" s="332">
         <f t="shared" si="59"/>
         <v>19.323671497584542</v>
       </c>
-      <c r="AP79" s="334"/>
-      <c r="AQ79" s="334"/>
-      <c r="AR79" s="334"/>
+      <c r="AP79" s="332"/>
+      <c r="AQ79" s="332"/>
+      <c r="AR79" s="332"/>
       <c r="AS79" s="177" t="s">
         <v>10</v>
       </c>
@@ -12655,7 +12644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A81" s="51" t="s">
         <v>187</v>
       </c>
@@ -12696,8 +12685,8 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="430" t="s">
-        <v>306</v>
+      <c r="P81" s="423" t="s">
+        <v>28</v>
       </c>
       <c r="Q81" s="160" t="s">
         <v>5</v>
@@ -12735,14 +12724,14 @@
       <c r="AD81" s="73"/>
       <c r="AE81" s="73"/>
       <c r="AF81" s="255"/>
-      <c r="AG81" s="332"/>
+      <c r="AG81" s="330"/>
       <c r="AH81" s="255"/>
       <c r="AI81" s="255"/>
       <c r="AJ81" s="265"/>
       <c r="AK81" s="255">
         <v>0.7</v>
       </c>
-      <c r="AL81" s="332">
+      <c r="AL81" s="330">
         <v>0.9</v>
       </c>
       <c r="AM81" s="255">
@@ -12759,12 +12748,12 @@
       </c>
       <c r="AP81" s="73"/>
       <c r="AQ81" s="255"/>
-      <c r="AR81" s="332"/>
+      <c r="AR81" s="330"/>
       <c r="AS81" s="255" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="66" hidden="1">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A82" s="270" t="s">
         <v>187</v>
       </c>
@@ -12805,7 +12794,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="431"/>
+      <c r="P82" s="424"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12821,14 +12810,14 @@
       <c r="U82" s="161">
         <v>43888</v>
       </c>
-      <c r="V82" s="305" t="s">
-        <v>307</v>
+      <c r="V82" s="194">
+        <v>1</v>
       </c>
       <c r="W82" s="105" t="s">
         <v>126</v>
       </c>
       <c r="X82" s="223"/>
-      <c r="Y82" s="321"/>
+      <c r="Y82" s="319"/>
       <c r="Z82" s="223"/>
       <c r="AA82" s="177" t="s">
         <v>108</v>
@@ -12837,37 +12826,37 @@
       <c r="AC82" s="223"/>
       <c r="AD82" s="73"/>
       <c r="AE82" s="73"/>
-      <c r="AF82" s="322"/>
-      <c r="AG82" s="333"/>
-      <c r="AH82" s="322"/>
-      <c r="AI82" s="322"/>
-      <c r="AJ82" s="334"/>
-      <c r="AK82" s="322">
+      <c r="AF82" s="320"/>
+      <c r="AG82" s="331"/>
+      <c r="AH82" s="320"/>
+      <c r="AI82" s="320"/>
+      <c r="AJ82" s="332"/>
+      <c r="AK82" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL82" s="333">
+      <c r="AL82" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM82" s="369">
+      <c r="AM82" s="367">
         <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN82" s="369">
+      <c r="AN82" s="367">
         <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO82" s="370">
+      <c r="AO82" s="368">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP82" s="73"/>
-      <c r="AQ82" s="322"/>
-      <c r="AR82" s="333"/>
-      <c r="AS82" s="322" t="s">
+      <c r="AQ82" s="320"/>
+      <c r="AR82" s="331"/>
+      <c r="AS82" s="320" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A83" s="270" t="s">
         <v>187</v>
       </c>
@@ -12908,7 +12897,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="431"/>
+      <c r="P83" s="424"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12924,14 +12913,14 @@
       <c r="U83" s="161">
         <v>43892</v>
       </c>
-      <c r="V83" s="208">
-        <v>0.9</v>
+      <c r="V83" s="194">
+        <v>1</v>
       </c>
       <c r="W83" s="105" t="s">
         <v>126</v>
       </c>
       <c r="X83" s="223"/>
-      <c r="Y83" s="321"/>
+      <c r="Y83" s="319"/>
       <c r="Z83" s="223"/>
       <c r="AA83" s="177" t="s">
         <v>108</v>
@@ -12940,37 +12929,37 @@
       <c r="AC83" s="223"/>
       <c r="AD83" s="73"/>
       <c r="AE83" s="73"/>
-      <c r="AF83" s="322"/>
-      <c r="AG83" s="333"/>
-      <c r="AH83" s="322"/>
-      <c r="AI83" s="322"/>
-      <c r="AJ83" s="334"/>
-      <c r="AK83" s="322">
+      <c r="AF83" s="320"/>
+      <c r="AG83" s="331"/>
+      <c r="AH83" s="320"/>
+      <c r="AI83" s="320"/>
+      <c r="AJ83" s="332"/>
+      <c r="AK83" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL83" s="333">
+      <c r="AL83" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM83" s="369">
+      <c r="AM83" s="367">
         <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN83" s="369">
+      <c r="AN83" s="367">
         <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO83" s="370">
+      <c r="AO83" s="368">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP83" s="73"/>
-      <c r="AQ83" s="322"/>
-      <c r="AR83" s="333"/>
-      <c r="AS83" s="322" t="s">
+      <c r="AQ83" s="320"/>
+      <c r="AR83" s="331"/>
+      <c r="AS83" s="320" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A84" s="270" t="s">
         <v>187</v>
       </c>
@@ -13011,7 +13000,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="431"/>
+      <c r="P84" s="424"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -13021,14 +13010,20 @@
       <c r="S84" s="161">
         <v>43889</v>
       </c>
-      <c r="T84" s="161"/>
-      <c r="U84" s="161"/>
-      <c r="V84" s="73"/>
+      <c r="T84" s="161">
+        <v>43929</v>
+      </c>
+      <c r="U84" s="161">
+        <v>43930</v>
+      </c>
+      <c r="V84" s="194">
+        <v>1</v>
+      </c>
       <c r="W84" s="105" t="s">
         <v>126</v>
       </c>
       <c r="X84" s="223"/>
-      <c r="Y84" s="321"/>
+      <c r="Y84" s="319"/>
       <c r="Z84" s="223"/>
       <c r="AA84" s="177" t="s">
         <v>108</v>
@@ -13037,37 +13032,37 @@
       <c r="AC84" s="223"/>
       <c r="AD84" s="73"/>
       <c r="AE84" s="73"/>
-      <c r="AF84" s="322"/>
-      <c r="AG84" s="333"/>
-      <c r="AH84" s="322"/>
-      <c r="AI84" s="322"/>
-      <c r="AJ84" s="334"/>
-      <c r="AK84" s="322">
+      <c r="AF84" s="320"/>
+      <c r="AG84" s="331"/>
+      <c r="AH84" s="320"/>
+      <c r="AI84" s="320"/>
+      <c r="AJ84" s="332"/>
+      <c r="AK84" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL84" s="333">
+      <c r="AL84" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM84" s="369">
+      <c r="AM84" s="367">
         <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN84" s="369">
+      <c r="AN84" s="367">
         <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO84" s="370">
+      <c r="AO84" s="368">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP84" s="73"/>
-      <c r="AQ84" s="322"/>
-      <c r="AR84" s="333"/>
-      <c r="AS84" s="322" t="s">
+      <c r="AQ84" s="320"/>
+      <c r="AR84" s="331"/>
+      <c r="AS84" s="320" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A85" s="270" t="s">
         <v>187</v>
       </c>
@@ -13108,22 +13103,30 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="432"/>
+      <c r="P85" s="425"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
       <c r="R85" s="161">
         <v>43891</v>
       </c>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="73"/>
+      <c r="S85" s="161">
+        <v>43893</v>
+      </c>
+      <c r="T85" s="161">
+        <v>43929</v>
+      </c>
+      <c r="U85" s="161">
+        <v>43930</v>
+      </c>
+      <c r="V85" s="194">
+        <v>1</v>
+      </c>
       <c r="W85" s="148" t="s">
         <v>126</v>
       </c>
       <c r="X85" s="223"/>
-      <c r="Y85" s="321"/>
+      <c r="Y85" s="319"/>
       <c r="Z85" s="223"/>
       <c r="AA85" s="177" t="s">
         <v>108</v>
@@ -13132,33 +13135,33 @@
       <c r="AC85" s="223"/>
       <c r="AD85" s="73"/>
       <c r="AE85" s="73"/>
-      <c r="AF85" s="322"/>
-      <c r="AG85" s="333"/>
-      <c r="AH85" s="322"/>
-      <c r="AI85" s="322"/>
-      <c r="AJ85" s="334"/>
-      <c r="AK85" s="322">
+      <c r="AF85" s="320"/>
+      <c r="AG85" s="331"/>
+      <c r="AH85" s="320"/>
+      <c r="AI85" s="320"/>
+      <c r="AJ85" s="332"/>
+      <c r="AK85" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL85" s="333">
+      <c r="AL85" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM85" s="369">
+      <c r="AM85" s="367">
         <f t="shared" si="52"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN85" s="369">
+      <c r="AN85" s="367">
         <f t="shared" si="53"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO85" s="370">
+      <c r="AO85" s="368">
         <f t="shared" si="9"/>
         <v>54.106280193236714</v>
       </c>
       <c r="AP85" s="73"/>
-      <c r="AQ85" s="322"/>
-      <c r="AR85" s="333"/>
-      <c r="AS85" s="322" t="s">
+      <c r="AQ85" s="320"/>
+      <c r="AR85" s="331"/>
+      <c r="AS85" s="320" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13203,7 +13206,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="441" t="s">
+      <c r="P86" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13218,7 +13221,7 @@
       <c r="T86" s="161">
         <v>43879</v>
       </c>
-      <c r="U86" s="306">
+      <c r="U86" s="305">
         <v>43885</v>
       </c>
       <c r="V86" s="73" t="s">
@@ -13249,7 +13252,7 @@
       <c r="AK86" s="255">
         <v>0.54</v>
       </c>
-      <c r="AL86" s="332">
+      <c r="AL86" s="330">
         <v>0.9</v>
       </c>
       <c r="AM86" s="255">
@@ -13312,7 +13315,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="442"/>
+      <c r="P87" s="430"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13322,13 +13325,13 @@
       <c r="S87" s="166">
         <v>43886</v>
       </c>
-      <c r="T87" s="306">
+      <c r="T87" s="305">
         <v>43886</v>
       </c>
-      <c r="U87" s="306">
+      <c r="U87" s="305">
         <v>43893</v>
       </c>
-      <c r="V87" s="307" t="s">
+      <c r="V87" s="306" t="s">
         <v>193</v>
       </c>
       <c r="W87" s="177" t="s">
@@ -13337,7 +13340,7 @@
       <c r="X87" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y87" s="380" t="s">
+      <c r="Y87" s="378" t="s">
         <v>127</v>
       </c>
       <c r="Z87" s="177"/>
@@ -13353,21 +13356,21 @@
       <c r="AH87" s="73"/>
       <c r="AI87" s="73"/>
       <c r="AJ87" s="73"/>
-      <c r="AK87" s="335">
+      <c r="AK87" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL87" s="333">
+      <c r="AL87" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM87" s="322">
+      <c r="AM87" s="320">
         <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN87" s="322">
+      <c r="AN87" s="320">
         <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO87" s="334">
+      <c r="AO87" s="332">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13419,7 +13422,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="442"/>
+      <c r="P88" s="430"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13429,13 +13432,13 @@
       <c r="S88" s="166">
         <v>43888</v>
       </c>
-      <c r="T88" s="306">
+      <c r="T88" s="305">
         <v>43894</v>
       </c>
-      <c r="U88" s="306">
+      <c r="U88" s="305">
         <v>43895</v>
       </c>
-      <c r="V88" s="307" t="s">
+      <c r="V88" s="306" t="s">
         <v>193</v>
       </c>
       <c r="W88" s="177" t="s">
@@ -13444,7 +13447,7 @@
       <c r="X88" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y88" s="380" t="s">
+      <c r="Y88" s="378" t="s">
         <v>127</v>
       </c>
       <c r="Z88" s="177"/>
@@ -13460,21 +13463,21 @@
       <c r="AH88" s="73"/>
       <c r="AI88" s="73"/>
       <c r="AJ88" s="73"/>
-      <c r="AK88" s="335">
+      <c r="AK88" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL88" s="333">
+      <c r="AL88" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM88" s="322">
+      <c r="AM88" s="320">
         <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN88" s="322">
+      <c r="AN88" s="320">
         <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO88" s="334">
+      <c r="AO88" s="332">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13526,7 +13529,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="442"/>
+      <c r="P89" s="430"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13536,13 +13539,13 @@
       <c r="S89" s="166">
         <v>43889</v>
       </c>
-      <c r="T89" s="306">
+      <c r="T89" s="305">
         <v>43895</v>
       </c>
-      <c r="U89" s="306">
+      <c r="U89" s="305">
         <v>43896</v>
       </c>
-      <c r="V89" s="307" t="s">
+      <c r="V89" s="306" t="s">
         <v>193</v>
       </c>
       <c r="W89" s="177" t="s">
@@ -13551,7 +13554,7 @@
       <c r="X89" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y89" s="380" t="s">
+      <c r="Y89" s="378" t="s">
         <v>127</v>
       </c>
       <c r="Z89" s="177"/>
@@ -13567,21 +13570,21 @@
       <c r="AH89" s="73"/>
       <c r="AI89" s="73"/>
       <c r="AJ89" s="73"/>
-      <c r="AK89" s="335">
+      <c r="AK89" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL89" s="333">
+      <c r="AL89" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM89" s="322">
+      <c r="AM89" s="320">
         <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN89" s="322">
+      <c r="AN89" s="320">
         <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO89" s="334">
+      <c r="AO89" s="332">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13633,7 +13636,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="443"/>
+      <c r="P90" s="431"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13649,7 +13652,7 @@
       <c r="U90" s="161">
         <v>43899</v>
       </c>
-      <c r="V90" s="307" t="s">
+      <c r="V90" s="306" t="s">
         <v>193</v>
       </c>
       <c r="W90" s="177" t="s">
@@ -13658,7 +13661,7 @@
       <c r="X90" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y90" s="380" t="s">
+      <c r="Y90" s="378" t="s">
         <v>127</v>
       </c>
       <c r="Z90" s="177"/>
@@ -13674,21 +13677,21 @@
       <c r="AH90" s="73"/>
       <c r="AI90" s="73"/>
       <c r="AJ90" s="73"/>
-      <c r="AK90" s="335">
+      <c r="AK90" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL90" s="333">
+      <c r="AL90" s="331">
         <v>0.9</v>
       </c>
-      <c r="AM90" s="322">
+      <c r="AM90" s="320">
         <f t="shared" si="52"/>
         <v>2.5874999999999999E-2</v>
       </c>
-      <c r="AN90" s="322">
+      <c r="AN90" s="320">
         <f t="shared" si="53"/>
         <v>2.8749999999999991E-3</v>
       </c>
-      <c r="AO90" s="334">
+      <c r="AO90" s="332">
         <f t="shared" si="9"/>
         <v>20.869565217391308</v>
       </c>
@@ -13740,7 +13743,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="441" t="s">
+      <c r="P91" s="429" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13753,8 +13756,8 @@
         <v>43959</v>
       </c>
       <c r="T91" s="162"/>
-      <c r="U91" s="358"/>
-      <c r="V91" s="307"/>
+      <c r="U91" s="356"/>
+      <c r="V91" s="306"/>
       <c r="W91" s="73" t="s">
         <v>106</v>
       </c>
@@ -13808,7 +13811,7 @@
       <c r="H92" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="I92" s="357" t="s">
+      <c r="I92" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J92" s="297">
@@ -13832,7 +13835,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="442"/>
+      <c r="P92" s="430"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13843,15 +13846,15 @@
         <v>43965</v>
       </c>
       <c r="T92" s="162"/>
-      <c r="U92" s="358"/>
-      <c r="V92" s="307"/>
+      <c r="U92" s="356"/>
+      <c r="V92" s="306"/>
       <c r="W92" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X92" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y92" s="377" t="s">
+      <c r="Y92" s="375" t="s">
         <v>90</v>
       </c>
       <c r="Z92" s="177"/>
@@ -13867,16 +13870,16 @@
       <c r="AH92" s="73"/>
       <c r="AI92" s="73"/>
       <c r="AJ92" s="73"/>
-      <c r="AK92" s="322"/>
-      <c r="AL92" s="375"/>
-      <c r="AM92" s="322"/>
-      <c r="AN92" s="322"/>
-      <c r="AO92" s="334"/>
+      <c r="AK92" s="320"/>
+      <c r="AL92" s="373"/>
+      <c r="AM92" s="320"/>
+      <c r="AN92" s="320"/>
+      <c r="AO92" s="332"/>
       <c r="AP92" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ92" s="334"/>
-      <c r="AR92" s="334"/>
+      <c r="AQ92" s="332"/>
+      <c r="AR92" s="332"/>
       <c r="AS92" s="177" t="s">
         <v>10</v>
       </c>
@@ -13898,7 +13901,7 @@
       <c r="H93" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="357" t="s">
+      <c r="I93" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J93" s="297">
@@ -13922,7 +13925,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="442"/>
+      <c r="P93" s="430"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -13933,15 +13936,15 @@
         <v>43969</v>
       </c>
       <c r="T93" s="162"/>
-      <c r="U93" s="358"/>
-      <c r="V93" s="307"/>
+      <c r="U93" s="356"/>
+      <c r="V93" s="306"/>
       <c r="W93" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X93" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y93" s="377" t="s">
+      <c r="Y93" s="375" t="s">
         <v>90</v>
       </c>
       <c r="Z93" s="177"/>
@@ -13957,16 +13960,16 @@
       <c r="AH93" s="73"/>
       <c r="AI93" s="73"/>
       <c r="AJ93" s="73"/>
-      <c r="AK93" s="322"/>
-      <c r="AL93" s="375"/>
-      <c r="AM93" s="322"/>
-      <c r="AN93" s="322"/>
-      <c r="AO93" s="334"/>
+      <c r="AK93" s="320"/>
+      <c r="AL93" s="373"/>
+      <c r="AM93" s="320"/>
+      <c r="AN93" s="320"/>
+      <c r="AO93" s="332"/>
       <c r="AP93" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ93" s="334"/>
-      <c r="AR93" s="334"/>
+      <c r="AQ93" s="332"/>
+      <c r="AR93" s="332"/>
       <c r="AS93" s="177" t="s">
         <v>10</v>
       </c>
@@ -13988,7 +13991,7 @@
       <c r="H94" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="357" t="s">
+      <c r="I94" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J94" s="297">
@@ -14012,7 +14015,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="442"/>
+      <c r="P94" s="430"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -14023,15 +14026,15 @@
         <v>43970</v>
       </c>
       <c r="T94" s="162"/>
-      <c r="U94" s="358"/>
-      <c r="V94" s="307"/>
+      <c r="U94" s="356"/>
+      <c r="V94" s="306"/>
       <c r="W94" s="177" t="s">
         <v>106</v>
       </c>
       <c r="X94" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y94" s="377" t="s">
+      <c r="Y94" s="375" t="s">
         <v>90</v>
       </c>
       <c r="Z94" s="177"/>
@@ -14047,16 +14050,16 @@
       <c r="AH94" s="73"/>
       <c r="AI94" s="73"/>
       <c r="AJ94" s="73"/>
-      <c r="AK94" s="322"/>
-      <c r="AL94" s="375"/>
-      <c r="AM94" s="322"/>
-      <c r="AN94" s="322"/>
-      <c r="AO94" s="334"/>
+      <c r="AK94" s="320"/>
+      <c r="AL94" s="373"/>
+      <c r="AM94" s="320"/>
+      <c r="AN94" s="320"/>
+      <c r="AO94" s="332"/>
       <c r="AP94" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ94" s="334"/>
-      <c r="AR94" s="334"/>
+      <c r="AQ94" s="332"/>
+      <c r="AR94" s="332"/>
       <c r="AS94" s="177" t="s">
         <v>10</v>
       </c>
@@ -14078,7 +14081,7 @@
       <c r="H95" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="I95" s="357" t="s">
+      <c r="I95" s="355" t="s">
         <v>99</v>
       </c>
       <c r="J95" s="297">
@@ -14102,7 +14105,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="443"/>
+      <c r="P95" s="431"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14117,7 +14120,7 @@
       <c r="X95" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="Y95" s="377" t="s">
+      <c r="Y95" s="375" t="s">
         <v>90</v>
       </c>
       <c r="Z95" s="177"/>
@@ -14133,14 +14136,14 @@
       <c r="AH95" s="73"/>
       <c r="AI95" s="73"/>
       <c r="AJ95" s="73"/>
-      <c r="AK95" s="322"/>
-      <c r="AL95" s="375"/>
-      <c r="AM95" s="322"/>
-      <c r="AN95" s="322"/>
-      <c r="AO95" s="334"/>
-      <c r="AP95" s="334"/>
-      <c r="AQ95" s="334"/>
-      <c r="AR95" s="334"/>
+      <c r="AK95" s="320"/>
+      <c r="AL95" s="373"/>
+      <c r="AM95" s="320"/>
+      <c r="AN95" s="320"/>
+      <c r="AO95" s="332"/>
+      <c r="AP95" s="332"/>
+      <c r="AQ95" s="332"/>
+      <c r="AR95" s="332"/>
       <c r="AS95" s="177" t="s">
         <v>10</v>
       </c>
@@ -14277,7 +14280,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="444" t="s">
+      <c r="P97" s="420" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -14383,7 +14386,7 @@
       <c r="O98" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P98" s="422"/>
+      <c r="P98" s="421"/>
       <c r="Q98" s="165" t="s">
         <v>100</v>
       </c>
@@ -14404,33 +14407,33 @@
         <v>101</v>
       </c>
       <c r="X98" s="169"/>
-      <c r="Y98" s="323"/>
+      <c r="Y98" s="321"/>
       <c r="Z98" s="169"/>
       <c r="AA98" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB98" s="169"/>
-      <c r="AC98" s="324"/>
-      <c r="AD98" s="324"/>
-      <c r="AE98" s="324"/>
-      <c r="AF98" s="324"/>
-      <c r="AG98" s="324"/>
+      <c r="AC98" s="322"/>
+      <c r="AD98" s="322"/>
+      <c r="AE98" s="322"/>
+      <c r="AF98" s="322"/>
+      <c r="AG98" s="322"/>
       <c r="AH98" s="169"/>
       <c r="AI98" s="169"/>
       <c r="AJ98" s="73"/>
-      <c r="AK98" s="335">
+      <c r="AK98" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL98" s="336">
+      <c r="AL98" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM98" s="335">
+      <c r="AM98" s="333">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN98" s="335">
+      <c r="AN98" s="333">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO98" s="338">
+      <c r="AO98" s="336">
         <v>12.8824476650564</v>
       </c>
       <c r="AP98" s="73" t="s">
@@ -14483,7 +14486,7 @@
       <c r="O99" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P99" s="422"/>
+      <c r="P99" s="421"/>
       <c r="Q99" s="165" t="s">
         <v>102</v>
       </c>
@@ -14504,33 +14507,33 @@
         <v>101</v>
       </c>
       <c r="X99" s="169"/>
-      <c r="Y99" s="323"/>
+      <c r="Y99" s="321"/>
       <c r="Z99" s="169"/>
       <c r="AA99" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB99" s="169"/>
-      <c r="AC99" s="324"/>
-      <c r="AD99" s="324"/>
-      <c r="AE99" s="324"/>
-      <c r="AF99" s="324"/>
-      <c r="AG99" s="324"/>
+      <c r="AC99" s="322"/>
+      <c r="AD99" s="322"/>
+      <c r="AE99" s="322"/>
+      <c r="AF99" s="322"/>
+      <c r="AG99" s="322"/>
       <c r="AH99" s="169"/>
       <c r="AI99" s="169"/>
       <c r="AJ99" s="73"/>
-      <c r="AK99" s="335">
+      <c r="AK99" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL99" s="336">
+      <c r="AL99" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM99" s="335">
+      <c r="AM99" s="333">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN99" s="335">
+      <c r="AN99" s="333">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO99" s="338">
+      <c r="AO99" s="336">
         <v>12.8824476650564</v>
       </c>
       <c r="AP99" s="73" t="s">
@@ -14583,7 +14586,7 @@
       <c r="O100" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P100" s="422"/>
+      <c r="P100" s="421"/>
       <c r="Q100" s="165" t="s">
         <v>13</v>
       </c>
@@ -14604,33 +14607,33 @@
         <v>101</v>
       </c>
       <c r="X100" s="169"/>
-      <c r="Y100" s="323"/>
+      <c r="Y100" s="321"/>
       <c r="Z100" s="169"/>
       <c r="AA100" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB100" s="169"/>
-      <c r="AC100" s="324"/>
-      <c r="AD100" s="324"/>
-      <c r="AE100" s="324"/>
-      <c r="AF100" s="324"/>
-      <c r="AG100" s="324"/>
+      <c r="AC100" s="322"/>
+      <c r="AD100" s="322"/>
+      <c r="AE100" s="322"/>
+      <c r="AF100" s="322"/>
+      <c r="AG100" s="322"/>
       <c r="AH100" s="169"/>
       <c r="AI100" s="169"/>
       <c r="AJ100" s="73"/>
-      <c r="AK100" s="335">
+      <c r="AK100" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL100" s="336">
+      <c r="AL100" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM100" s="335">
+      <c r="AM100" s="333">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN100" s="335">
+      <c r="AN100" s="333">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO100" s="338">
+      <c r="AO100" s="336">
         <v>12.8824476650564</v>
       </c>
       <c r="AP100" s="73" t="s">
@@ -14683,7 +14686,7 @@
       <c r="O101" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P101" s="423"/>
+      <c r="P101" s="422"/>
       <c r="Q101" s="165" t="s">
         <v>16</v>
       </c>
@@ -14703,36 +14706,36 @@
       <c r="W101" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X101" s="308"/>
-      <c r="Y101" s="325"/>
-      <c r="Z101" s="308"/>
+      <c r="X101" s="307"/>
+      <c r="Y101" s="323"/>
+      <c r="Z101" s="307"/>
       <c r="AA101" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB101" s="169"/>
-      <c r="AC101" s="324"/>
-      <c r="AD101" s="324"/>
-      <c r="AE101" s="324"/>
-      <c r="AF101" s="324"/>
-      <c r="AG101" s="324"/>
-      <c r="AH101" s="324"/>
+      <c r="AC101" s="322"/>
+      <c r="AD101" s="322"/>
+      <c r="AE101" s="322"/>
+      <c r="AF101" s="322"/>
+      <c r="AG101" s="322"/>
+      <c r="AH101" s="322"/>
       <c r="AI101" s="169"/>
       <c r="AJ101" s="73"/>
-      <c r="AK101" s="335">
+      <c r="AK101" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL101" s="336">
+      <c r="AL101" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM101" s="335">
+      <c r="AM101" s="333">
         <f>N101*AL101</f>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN101" s="335">
+      <c r="AN101" s="333">
         <f>N101-AM101</f>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO101" s="338">
+      <c r="AO101" s="336">
         <f>AK101/AM101</f>
         <v>12.882447665056361</v>
       </c>
@@ -14788,7 +14791,7 @@
       <c r="O102" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P102" s="422" t="s">
+      <c r="P102" s="421" t="s">
         <v>28</v>
       </c>
       <c r="Q102" s="160" t="s">
@@ -14898,7 +14901,7 @@
       <c r="O103" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P103" s="422"/>
+      <c r="P103" s="421"/>
       <c r="Q103" s="165" t="s">
         <v>100</v>
       </c>
@@ -14918,34 +14921,34 @@
       <c r="W103" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X103" s="308"/>
-      <c r="Y103" s="325"/>
-      <c r="Z103" s="308"/>
+      <c r="X103" s="307"/>
+      <c r="Y103" s="323"/>
+      <c r="Z103" s="307"/>
       <c r="AA103" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB103" s="169"/>
-      <c r="AC103" s="324"/>
-      <c r="AD103" s="324"/>
-      <c r="AE103" s="324"/>
-      <c r="AF103" s="324"/>
-      <c r="AG103" s="324"/>
-      <c r="AH103" s="324"/>
+      <c r="AC103" s="322"/>
+      <c r="AD103" s="322"/>
+      <c r="AE103" s="322"/>
+      <c r="AF103" s="322"/>
+      <c r="AG103" s="322"/>
+      <c r="AH103" s="322"/>
       <c r="AI103" s="169"/>
       <c r="AJ103" s="73"/>
-      <c r="AK103" s="335">
+      <c r="AK103" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL103" s="336">
+      <c r="AL103" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM103" s="335">
+      <c r="AM103" s="333">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN103" s="335">
+      <c r="AN103" s="333">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO103" s="338">
+      <c r="AO103" s="336">
         <v>12.8824476650564</v>
       </c>
       <c r="AP103" s="73" t="s">
@@ -15002,7 +15005,7 @@
       <c r="O104" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P104" s="422"/>
+      <c r="P104" s="421"/>
       <c r="Q104" s="165" t="s">
         <v>102</v>
       </c>
@@ -15022,34 +15025,34 @@
       <c r="W104" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X104" s="308"/>
-      <c r="Y104" s="325"/>
-      <c r="Z104" s="308"/>
+      <c r="X104" s="307"/>
+      <c r="Y104" s="323"/>
+      <c r="Z104" s="307"/>
       <c r="AA104" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB104" s="169"/>
-      <c r="AC104" s="324"/>
-      <c r="AD104" s="324"/>
-      <c r="AE104" s="324"/>
-      <c r="AF104" s="324"/>
-      <c r="AG104" s="324"/>
-      <c r="AH104" s="324"/>
+      <c r="AC104" s="322"/>
+      <c r="AD104" s="322"/>
+      <c r="AE104" s="322"/>
+      <c r="AF104" s="322"/>
+      <c r="AG104" s="322"/>
+      <c r="AH104" s="322"/>
       <c r="AI104" s="169"/>
       <c r="AJ104" s="73"/>
-      <c r="AK104" s="335">
+      <c r="AK104" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL104" s="336">
+      <c r="AL104" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM104" s="335">
+      <c r="AM104" s="333">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN104" s="335">
+      <c r="AN104" s="333">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO104" s="338">
+      <c r="AO104" s="336">
         <v>12.8824476650564</v>
       </c>
       <c r="AP104" s="73" t="s">
@@ -15106,7 +15109,7 @@
       <c r="O105" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P105" s="422"/>
+      <c r="P105" s="421"/>
       <c r="Q105" s="165" t="s">
         <v>13</v>
       </c>
@@ -15126,34 +15129,34 @@
       <c r="W105" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X105" s="308"/>
-      <c r="Y105" s="325"/>
-      <c r="Z105" s="308"/>
+      <c r="X105" s="307"/>
+      <c r="Y105" s="323"/>
+      <c r="Z105" s="307"/>
       <c r="AA105" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB105" s="169"/>
-      <c r="AC105" s="324"/>
-      <c r="AD105" s="324"/>
-      <c r="AE105" s="324"/>
-      <c r="AF105" s="324"/>
-      <c r="AG105" s="324"/>
-      <c r="AH105" s="324"/>
+      <c r="AC105" s="322"/>
+      <c r="AD105" s="322"/>
+      <c r="AE105" s="322"/>
+      <c r="AF105" s="322"/>
+      <c r="AG105" s="322"/>
+      <c r="AH105" s="322"/>
       <c r="AI105" s="169"/>
       <c r="AJ105" s="73"/>
-      <c r="AK105" s="335">
+      <c r="AK105" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL105" s="336">
+      <c r="AL105" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM105" s="335">
+      <c r="AM105" s="333">
         <v>3.88125E-2</v>
       </c>
-      <c r="AN105" s="335">
+      <c r="AN105" s="333">
         <v>4.3125000000000004E-3</v>
       </c>
-      <c r="AO105" s="338">
+      <c r="AO105" s="336">
         <v>12.8824476650564</v>
       </c>
       <c r="AP105" s="73" t="s">
@@ -15206,7 +15209,7 @@
       <c r="O106" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P106" s="423"/>
+      <c r="P106" s="422"/>
       <c r="Q106" s="165" t="s">
         <v>16</v>
       </c>
@@ -15226,36 +15229,36 @@
       <c r="W106" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="X106" s="308"/>
-      <c r="Y106" s="325"/>
-      <c r="Z106" s="308"/>
+      <c r="X106" s="307"/>
+      <c r="Y106" s="323"/>
+      <c r="Z106" s="307"/>
       <c r="AA106" s="169" t="s">
         <v>108</v>
       </c>
       <c r="AB106" s="169"/>
-      <c r="AC106" s="324"/>
-      <c r="AD106" s="324"/>
-      <c r="AE106" s="324"/>
-      <c r="AF106" s="324"/>
-      <c r="AG106" s="324"/>
-      <c r="AH106" s="324"/>
+      <c r="AC106" s="322"/>
+      <c r="AD106" s="322"/>
+      <c r="AE106" s="322"/>
+      <c r="AF106" s="322"/>
+      <c r="AG106" s="322"/>
+      <c r="AH106" s="322"/>
       <c r="AI106" s="169"/>
       <c r="AJ106" s="73"/>
-      <c r="AK106" s="335">
+      <c r="AK106" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL106" s="336">
+      <c r="AL106" s="334">
         <v>0.9</v>
       </c>
-      <c r="AM106" s="335">
+      <c r="AM106" s="333">
         <f>N106*AL106</f>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN106" s="335">
+      <c r="AN106" s="333">
         <f>N106-AM106</f>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO106" s="338">
+      <c r="AO106" s="336">
         <f>AK106/AM106</f>
         <v>12.882447665056361</v>
       </c>
@@ -15284,36 +15287,36 @@
       <c r="O107" s="169"/>
       <c r="P107" s="296"/>
       <c r="Q107" s="185"/>
-      <c r="R107" s="309"/>
-      <c r="S107" s="309"/>
+      <c r="R107" s="308"/>
+      <c r="S107" s="308"/>
       <c r="T107" s="4"/>
       <c r="U107" s="207"/>
       <c r="V107" s="126"/>
       <c r="W107" s="221"/>
-      <c r="X107" s="308"/>
-      <c r="Y107" s="325"/>
-      <c r="Z107" s="308"/>
+      <c r="X107" s="307"/>
+      <c r="Y107" s="323"/>
+      <c r="Z107" s="307"/>
       <c r="AA107" s="169"/>
       <c r="AB107" s="169"/>
-      <c r="AC107" s="324"/>
-      <c r="AD107" s="324"/>
-      <c r="AE107" s="324"/>
-      <c r="AF107" s="324"/>
-      <c r="AG107" s="324"/>
-      <c r="AH107" s="324"/>
+      <c r="AC107" s="322"/>
+      <c r="AD107" s="322"/>
+      <c r="AE107" s="322"/>
+      <c r="AF107" s="322"/>
+      <c r="AG107" s="322"/>
+      <c r="AH107" s="322"/>
       <c r="AI107" s="169"/>
       <c r="AJ107" s="73"/>
-      <c r="AK107" s="335"/>
-      <c r="AL107" s="336"/>
-      <c r="AM107" s="335"/>
-      <c r="AN107" s="335"/>
-      <c r="AO107" s="338"/>
+      <c r="AK107" s="333"/>
+      <c r="AL107" s="334"/>
+      <c r="AM107" s="333"/>
+      <c r="AN107" s="333"/>
+      <c r="AO107" s="336"/>
       <c r="AP107" s="265"/>
       <c r="AQ107" s="265"/>
       <c r="AR107" s="265"/>
       <c r="AS107" s="169"/>
     </row>
-    <row r="108" spans="1:45" s="31" customFormat="1" ht="30.75" customHeight="1">
+    <row r="108" spans="1:45" s="31" customFormat="1" ht="30.75" hidden="1" customHeight="1">
       <c r="A108" s="51" t="s">
         <v>207</v>
       </c>
@@ -15354,25 +15357,25 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="430" t="s">
+      <c r="P108" s="423" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="R108" s="306">
+      <c r="R108" s="305">
         <v>43901</v>
       </c>
-      <c r="S108" s="306">
+      <c r="S108" s="305">
         <v>43903</v>
       </c>
-      <c r="T108" s="306">
+      <c r="T108" s="305">
         <v>43902</v>
       </c>
-      <c r="U108" s="306">
+      <c r="U108" s="305">
         <v>43903</v>
       </c>
-      <c r="V108" s="310" t="s">
+      <c r="V108" s="309" t="s">
         <v>210</v>
       </c>
       <c r="W108" s="134" t="s">
@@ -15422,7 +15425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25">
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25" hidden="1">
       <c r="A109" s="277" t="s">
         <v>207</v>
       </c>
@@ -15463,21 +15466,21 @@
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="431"/>
+      <c r="P109" s="424"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="R109" s="306">
+      <c r="R109" s="305">
         <v>43906</v>
       </c>
-      <c r="S109" s="306">
+      <c r="S109" s="305">
         <v>43931</v>
       </c>
-      <c r="T109" s="306">
+      <c r="T109" s="305">
         <v>43906</v>
       </c>
       <c r="U109" s="207"/>
-      <c r="V109" s="350" t="s">
+      <c r="V109" s="348" t="s">
         <v>302</v>
       </c>
       <c r="W109" s="135" t="s">
@@ -15486,7 +15489,7 @@
       <c r="X109" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="Y109" s="374" t="s">
+      <c r="Y109" s="372" t="s">
         <v>90</v>
       </c>
       <c r="Z109" s="126"/>
@@ -15502,32 +15505,32 @@
       <c r="AH109" s="73"/>
       <c r="AI109" s="73"/>
       <c r="AJ109" s="73"/>
-      <c r="AK109" s="322">
+      <c r="AK109" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL109" s="375">
+      <c r="AL109" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM109" s="322">
+      <c r="AM109" s="320">
         <f t="shared" ref="AM109:AM112" si="69">N109*AL109</f>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN109" s="322">
+      <c r="AN109" s="320">
         <f t="shared" ref="AN109:AN112" si="70">N109-AM109</f>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO109" s="334">
+      <c r="AO109" s="332">
         <f t="shared" ref="AO109:AO112" si="71">AK109/AM109</f>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP109" s="334"/>
-      <c r="AQ109" s="334"/>
-      <c r="AR109" s="334"/>
+      <c r="AP109" s="332"/>
+      <c r="AQ109" s="332"/>
+      <c r="AR109" s="332"/>
       <c r="AS109" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="110" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="277" t="s">
         <v>207</v>
       </c>
@@ -15568,19 +15571,19 @@
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="431"/>
+      <c r="P110" s="424"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="R110" s="306">
+      <c r="R110" s="305">
         <v>43934</v>
       </c>
-      <c r="S110" s="306">
+      <c r="S110" s="305">
         <v>43945</v>
       </c>
       <c r="T110" s="4"/>
       <c r="U110" s="207"/>
-      <c r="V110" s="349" t="s">
+      <c r="V110" s="347" t="s">
         <v>301</v>
       </c>
       <c r="W110" s="135" t="s">
@@ -15589,7 +15592,7 @@
       <c r="X110" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="Y110" s="374" t="s">
+      <c r="Y110" s="372" t="s">
         <v>90</v>
       </c>
       <c r="Z110" s="126"/>
@@ -15605,32 +15608,32 @@
       <c r="AH110" s="73"/>
       <c r="AI110" s="73"/>
       <c r="AJ110" s="73"/>
-      <c r="AK110" s="322">
+      <c r="AK110" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL110" s="375">
+      <c r="AL110" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM110" s="322">
+      <c r="AM110" s="320">
         <f t="shared" si="69"/>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN110" s="322">
+      <c r="AN110" s="320">
         <f t="shared" si="70"/>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO110" s="334">
+      <c r="AO110" s="332">
         <f t="shared" si="71"/>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP110" s="334"/>
-      <c r="AQ110" s="334"/>
-      <c r="AR110" s="334"/>
+      <c r="AP110" s="332"/>
+      <c r="AQ110" s="332"/>
+      <c r="AR110" s="332"/>
       <c r="AS110" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="111" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="277" t="s">
         <v>207</v>
       </c>
@@ -15671,19 +15674,19 @@
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="431"/>
+      <c r="P111" s="424"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="R111" s="306">
+      <c r="R111" s="305">
         <v>43948</v>
       </c>
-      <c r="S111" s="306">
+      <c r="S111" s="305">
         <v>43950</v>
       </c>
       <c r="T111" s="4"/>
       <c r="U111" s="207"/>
-      <c r="V111" s="349" t="s">
+      <c r="V111" s="347" t="s">
         <v>301</v>
       </c>
       <c r="W111" s="135" t="s">
@@ -15692,7 +15695,7 @@
       <c r="X111" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="Y111" s="374" t="s">
+      <c r="Y111" s="372" t="s">
         <v>90</v>
       </c>
       <c r="Z111" s="126"/>
@@ -15708,32 +15711,32 @@
       <c r="AH111" s="73"/>
       <c r="AI111" s="73"/>
       <c r="AJ111" s="73"/>
-      <c r="AK111" s="322">
+      <c r="AK111" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL111" s="375">
+      <c r="AL111" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM111" s="322">
+      <c r="AM111" s="320">
         <f t="shared" si="69"/>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN111" s="322">
+      <c r="AN111" s="320">
         <f t="shared" si="70"/>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO111" s="334">
+      <c r="AO111" s="332">
         <f t="shared" si="71"/>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP111" s="334"/>
-      <c r="AQ111" s="334"/>
-      <c r="AR111" s="334"/>
+      <c r="AP111" s="332"/>
+      <c r="AQ111" s="332"/>
+      <c r="AR111" s="332"/>
       <c r="AS111" s="177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="112" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="277" t="s">
         <v>207</v>
       </c>
@@ -15774,15 +15777,15 @@
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="432"/>
+      <c r="P112" s="425"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="R112" s="306"/>
-      <c r="S112" s="306"/>
+      <c r="R112" s="305"/>
+      <c r="S112" s="305"/>
       <c r="T112" s="4"/>
       <c r="U112" s="207"/>
-      <c r="V112" s="349" t="s">
+      <c r="V112" s="347" t="s">
         <v>301</v>
       </c>
       <c r="W112" s="135" t="s">
@@ -15791,7 +15794,7 @@
       <c r="X112" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="Y112" s="374" t="s">
+      <c r="Y112" s="372" t="s">
         <v>90</v>
       </c>
       <c r="Z112" s="126"/>
@@ -15807,27 +15810,27 @@
       <c r="AH112" s="73"/>
       <c r="AI112" s="73"/>
       <c r="AJ112" s="73"/>
-      <c r="AK112" s="322">
+      <c r="AK112" s="320">
         <v>0.7</v>
       </c>
-      <c r="AL112" s="375">
+      <c r="AL112" s="373">
         <v>0.9</v>
       </c>
-      <c r="AM112" s="322">
+      <c r="AM112" s="320">
         <f t="shared" si="69"/>
         <v>3.88125E-2</v>
       </c>
-      <c r="AN112" s="322">
+      <c r="AN112" s="320">
         <f t="shared" si="70"/>
         <v>4.3124999999999969E-3</v>
       </c>
-      <c r="AO112" s="334">
+      <c r="AO112" s="332">
         <f t="shared" si="71"/>
         <v>18.035426731078903</v>
       </c>
-      <c r="AP112" s="334"/>
-      <c r="AQ112" s="334"/>
-      <c r="AR112" s="334"/>
+      <c r="AP112" s="332"/>
+      <c r="AQ112" s="332"/>
+      <c r="AR112" s="332"/>
       <c r="AS112" s="177" t="s">
         <v>10</v>
       </c>
@@ -15879,7 +15882,7 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="207"/>
-      <c r="V113" s="311" t="s">
+      <c r="V113" s="310" t="s">
         <v>214</v>
       </c>
       <c r="W113" s="126"/>
@@ -15889,7 +15892,7 @@
       <c r="Y113" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="Z113" s="420" t="s">
+      <c r="Z113" s="418" t="s">
         <v>176</v>
       </c>
       <c r="AA113" s="73"/>
@@ -15972,7 +15975,7 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
       <c r="U114" s="207"/>
-      <c r="V114" s="311" t="s">
+      <c r="V114" s="310" t="s">
         <v>214</v>
       </c>
       <c r="W114" s="126"/>
@@ -15982,7 +15985,7 @@
       <c r="Y114" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="Z114" s="420" t="s">
+      <c r="Z114" s="418" t="s">
         <v>176</v>
       </c>
       <c r="AA114" s="73"/>
@@ -16061,7 +16064,7 @@
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="445" t="s">
+      <c r="P115" s="426" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -16088,7 +16091,7 @@
       <c r="X115" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="Y115" s="326" t="s">
+      <c r="Y115" s="324" t="s">
         <v>127</v>
       </c>
       <c r="Z115" s="98"/>
@@ -16096,7 +16099,7 @@
         <v>91</v>
       </c>
       <c r="AB115" s="143"/>
-      <c r="AC115" s="327"/>
+      <c r="AC115" s="325"/>
       <c r="AD115" s="215"/>
       <c r="AE115" s="215"/>
       <c r="AF115" s="215"/>
@@ -16169,7 +16172,7 @@
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="446"/>
+      <c r="P116" s="427"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16212,14 +16215,14 @@
       <c r="AL116" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM116" s="369">
+      <c r="AM116" s="367">
         <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN116" s="252">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO116" s="370">
+      <c r="AO116" s="368">
         <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
@@ -16271,7 +16274,7 @@
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="446"/>
+      <c r="P117" s="427"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16314,14 +16317,14 @@
       <c r="AL117" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM117" s="369">
+      <c r="AM117" s="367">
         <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN117" s="252">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO117" s="370">
+      <c r="AO117" s="368">
         <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
@@ -16373,7 +16376,7 @@
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="446"/>
+      <c r="P118" s="427"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16389,7 +16392,7 @@
       <c r="U118" s="166">
         <v>43852</v>
       </c>
-      <c r="V118" s="312"/>
+      <c r="V118" s="311"/>
       <c r="W118" s="105" t="s">
         <v>164</v>
       </c>
@@ -16414,14 +16417,14 @@
       <c r="AL118" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM118" s="369">
+      <c r="AM118" s="367">
         <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN118" s="252">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO118" s="370">
+      <c r="AO118" s="368">
         <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
@@ -16473,7 +16476,7 @@
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="447"/>
+      <c r="P119" s="428"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16489,7 +16492,7 @@
       <c r="U119" s="166">
         <v>43882</v>
       </c>
-      <c r="V119" s="313"/>
+      <c r="V119" s="312"/>
       <c r="W119" s="105" t="s">
         <v>164</v>
       </c>
@@ -16514,14 +16517,14 @@
       <c r="AL119" s="199">
         <v>0.96</v>
       </c>
-      <c r="AM119" s="369">
+      <c r="AM119" s="367">
         <f t="shared" si="72"/>
         <v>1.3799999999999998E-2</v>
       </c>
       <c r="AN119" s="253">
         <v>1.4375E-3</v>
       </c>
-      <c r="AO119" s="370">
+      <c r="AO119" s="368">
         <f t="shared" si="73"/>
         <v>36.231884057971023</v>
       </c>
@@ -16548,7 +16551,7 @@
       </c>
       <c r="H120" s="282"/>
       <c r="I120" s="298" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J120" s="93">
         <v>4</v>
@@ -16564,14 +16567,14 @@
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="N120" s="400">
+      <c r="N120" s="398">
         <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="441" t="s">
+      <c r="P120" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16589,20 +16592,20 @@
       <c r="U120" s="192">
         <v>43826</v>
       </c>
-      <c r="V120" s="314" t="s">
+      <c r="V120" s="313" t="s">
         <v>225</v>
       </c>
       <c r="W120" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="X120" s="392"/>
-      <c r="Y120" s="326"/>
-      <c r="Z120" s="392"/>
+      <c r="X120" s="390"/>
+      <c r="Y120" s="324"/>
+      <c r="Z120" s="390"/>
       <c r="AA120" s="143" t="s">
         <v>91</v>
       </c>
       <c r="AB120" s="143"/>
-      <c r="AC120" s="327"/>
+      <c r="AC120" s="325"/>
       <c r="AD120" s="215"/>
       <c r="AE120" s="215"/>
       <c r="AF120" s="215"/>
@@ -16641,7 +16644,7 @@
       </c>
       <c r="B121" s="65"/>
       <c r="C121" s="65"/>
-      <c r="D121" s="381" t="s">
+      <c r="D121" s="379" t="s">
         <v>33</v>
       </c>
       <c r="E121" s="65"/>
@@ -16650,10 +16653,10 @@
         <v>223</v>
       </c>
       <c r="H121" s="67"/>
-      <c r="I121" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J121" s="396">
+      <c r="I121" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J121" s="394">
         <v>4</v>
       </c>
       <c r="K121" s="292">
@@ -16663,7 +16666,7 @@
       <c r="L121" s="293">
         <v>1</v>
       </c>
-      <c r="M121" s="366">
+      <c r="M121" s="364">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -16674,7 +16677,7 @@
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="442"/>
+      <c r="P121" s="430"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16690,7 +16693,7 @@
       <c r="U121" s="206">
         <v>43880</v>
       </c>
-      <c r="V121" s="315" t="s">
+      <c r="V121" s="314" t="s">
         <v>225</v>
       </c>
       <c r="W121" s="105" t="s">
@@ -16703,7 +16706,7 @@
         <v>91</v>
       </c>
       <c r="AB121" s="144"/>
-      <c r="AC121" s="328"/>
+      <c r="AC121" s="326"/>
       <c r="AD121" s="237"/>
       <c r="AE121" s="237"/>
       <c r="AF121" s="237"/>
@@ -16711,21 +16714,21 @@
       <c r="AH121" s="237"/>
       <c r="AI121" s="237"/>
       <c r="AJ121" s="144"/>
-      <c r="AK121" s="335">
+      <c r="AK121" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL121" s="397">
+      <c r="AL121" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM121" s="335">
+      <c r="AM121" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN121" s="335">
+      <c r="AN121" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO121" s="338">
+      <c r="AO121" s="336">
         <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
@@ -16742,7 +16745,7 @@
       </c>
       <c r="B122" s="65"/>
       <c r="C122" s="65"/>
-      <c r="D122" s="381" t="s">
+      <c r="D122" s="379" t="s">
         <v>33</v>
       </c>
       <c r="E122" s="65"/>
@@ -16751,10 +16754,10 @@
         <v>223</v>
       </c>
       <c r="H122" s="67"/>
-      <c r="I122" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J122" s="396">
+      <c r="I122" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J122" s="394">
         <v>4</v>
       </c>
       <c r="K122" s="292">
@@ -16764,7 +16767,7 @@
       <c r="L122" s="293">
         <v>1</v>
       </c>
-      <c r="M122" s="366">
+      <c r="M122" s="364">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -16775,7 +16778,7 @@
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="442"/>
+      <c r="P122" s="430"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16791,7 +16794,7 @@
       <c r="U122" s="166">
         <v>43882</v>
       </c>
-      <c r="V122" s="316" t="s">
+      <c r="V122" s="315" t="s">
         <v>225</v>
       </c>
       <c r="W122" s="105" t="s">
@@ -16804,7 +16807,7 @@
         <v>91</v>
       </c>
       <c r="AB122" s="144"/>
-      <c r="AC122" s="328"/>
+      <c r="AC122" s="326"/>
       <c r="AD122" s="237"/>
       <c r="AE122" s="237"/>
       <c r="AF122" s="237"/>
@@ -16812,21 +16815,21 @@
       <c r="AH122" s="237"/>
       <c r="AI122" s="237"/>
       <c r="AJ122" s="144"/>
-      <c r="AK122" s="335">
+      <c r="AK122" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL122" s="397">
+      <c r="AL122" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM122" s="335">
+      <c r="AM122" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN122" s="335">
+      <c r="AN122" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO122" s="338">
+      <c r="AO122" s="336">
         <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
@@ -16843,7 +16846,7 @@
       </c>
       <c r="B123" s="65"/>
       <c r="C123" s="65"/>
-      <c r="D123" s="381" t="s">
+      <c r="D123" s="379" t="s">
         <v>33</v>
       </c>
       <c r="E123" s="65"/>
@@ -16852,10 +16855,10 @@
         <v>223</v>
       </c>
       <c r="H123" s="67"/>
-      <c r="I123" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J123" s="396">
+      <c r="I123" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J123" s="394">
         <v>4</v>
       </c>
       <c r="K123" s="292">
@@ -16865,7 +16868,7 @@
       <c r="L123" s="293">
         <v>1</v>
       </c>
-      <c r="M123" s="366">
+      <c r="M123" s="364">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -16876,7 +16879,7 @@
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="442"/>
+      <c r="P123" s="430"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16892,7 +16895,7 @@
       <c r="U123" s="206">
         <v>43882</v>
       </c>
-      <c r="V123" s="316" t="s">
+      <c r="V123" s="315" t="s">
         <v>225</v>
       </c>
       <c r="W123" s="105" t="s">
@@ -16905,7 +16908,7 @@
         <v>91</v>
       </c>
       <c r="AB123" s="144"/>
-      <c r="AC123" s="328"/>
+      <c r="AC123" s="326"/>
       <c r="AD123" s="237"/>
       <c r="AE123" s="237"/>
       <c r="AF123" s="237"/>
@@ -16913,21 +16916,21 @@
       <c r="AH123" s="237"/>
       <c r="AI123" s="237"/>
       <c r="AJ123" s="144"/>
-      <c r="AK123" s="335">
+      <c r="AK123" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL123" s="397">
+      <c r="AL123" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM123" s="335">
+      <c r="AM123" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN123" s="335">
+      <c r="AN123" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO123" s="338">
+      <c r="AO123" s="336">
         <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
@@ -16944,7 +16947,7 @@
       </c>
       <c r="B124" s="283"/>
       <c r="C124" s="283"/>
-      <c r="D124" s="382" t="s">
+      <c r="D124" s="380" t="s">
         <v>33</v>
       </c>
       <c r="E124" s="283"/>
@@ -16953,10 +16956,10 @@
         <v>223</v>
       </c>
       <c r="H124" s="68"/>
-      <c r="I124" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J124" s="396">
+      <c r="I124" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J124" s="394">
         <v>4</v>
       </c>
       <c r="K124" s="292">
@@ -16966,7 +16969,7 @@
       <c r="L124" s="293">
         <v>1</v>
       </c>
-      <c r="M124" s="366">
+      <c r="M124" s="364">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -16977,7 +16980,7 @@
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="443"/>
+      <c r="P124" s="431"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -16993,7 +16996,7 @@
       <c r="U124" s="206">
         <v>43885</v>
       </c>
-      <c r="V124" s="316" t="s">
+      <c r="V124" s="315" t="s">
         <v>225</v>
       </c>
       <c r="W124" s="148" t="s">
@@ -17006,35 +17009,35 @@
         <v>91</v>
       </c>
       <c r="AB124" s="145"/>
-      <c r="AC124" s="329"/>
-      <c r="AD124" s="330"/>
-      <c r="AE124" s="330"/>
-      <c r="AF124" s="330"/>
-      <c r="AG124" s="330"/>
-      <c r="AH124" s="330"/>
-      <c r="AI124" s="330"/>
+      <c r="AC124" s="327"/>
+      <c r="AD124" s="328"/>
+      <c r="AE124" s="328"/>
+      <c r="AF124" s="328"/>
+      <c r="AG124" s="328"/>
+      <c r="AH124" s="328"/>
+      <c r="AI124" s="328"/>
       <c r="AJ124" s="145"/>
-      <c r="AK124" s="335">
+      <c r="AK124" s="333">
         <v>0.54</v>
       </c>
-      <c r="AL124" s="397">
+      <c r="AL124" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM124" s="335">
+      <c r="AM124" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN124" s="335">
+      <c r="AN124" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO124" s="338">
+      <c r="AO124" s="336">
         <f t="shared" si="79"/>
         <v>4.9427917620137309</v>
       </c>
-      <c r="AP124" s="339"/>
-      <c r="AQ124" s="339"/>
-      <c r="AR124" s="339"/>
+      <c r="AP124" s="337"/>
+      <c r="AQ124" s="337"/>
+      <c r="AR124" s="337"/>
       <c r="AS124" s="142" t="s">
         <v>10</v>
       </c>
@@ -17055,7 +17058,7 @@
       </c>
       <c r="H125" s="66"/>
       <c r="I125" s="298" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J125" s="93">
         <v>4</v>
@@ -17071,14 +17074,14 @@
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
-      <c r="N125" s="400">
+      <c r="N125" s="398">
         <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="O125" s="399" t="s">
+      <c r="O125" s="397" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="441" t="s">
+      <c r="P125" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17102,14 +17105,14 @@
       <c r="W125" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="X125" s="392"/>
-      <c r="Y125" s="326"/>
-      <c r="Z125" s="392"/>
+      <c r="X125" s="390"/>
+      <c r="Y125" s="324"/>
+      <c r="Z125" s="390"/>
       <c r="AA125" s="143" t="s">
         <v>91</v>
       </c>
       <c r="AB125" s="143"/>
-      <c r="AC125" s="327"/>
+      <c r="AC125" s="325"/>
       <c r="AD125" s="215"/>
       <c r="AE125" s="215"/>
       <c r="AF125" s="215"/>
@@ -17157,10 +17160,10 @@
         <v>227</v>
       </c>
       <c r="H126" s="67"/>
-      <c r="I126" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J126" s="396">
+      <c r="I126" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J126" s="394">
         <v>4</v>
       </c>
       <c r="K126" s="292">
@@ -17170,7 +17173,7 @@
       <c r="L126" s="293">
         <v>1</v>
       </c>
-      <c r="M126" s="366">
+      <c r="M126" s="364">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -17181,7 +17184,7 @@
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="442"/>
+      <c r="P126" s="430"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17218,21 +17221,21 @@
       <c r="AH126" s="217"/>
       <c r="AI126" s="217"/>
       <c r="AJ126" s="135"/>
-      <c r="AK126" s="393">
+      <c r="AK126" s="391">
         <v>0.27</v>
       </c>
-      <c r="AL126" s="397">
+      <c r="AL126" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM126" s="335">
+      <c r="AM126" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN126" s="335">
+      <c r="AN126" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO126" s="338">
+      <c r="AO126" s="336">
         <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
@@ -17258,10 +17261,10 @@
         <v>227</v>
       </c>
       <c r="H127" s="67"/>
-      <c r="I127" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J127" s="396">
+      <c r="I127" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J127" s="394">
         <v>4</v>
       </c>
       <c r="K127" s="292">
@@ -17271,7 +17274,7 @@
       <c r="L127" s="293">
         <v>1</v>
       </c>
-      <c r="M127" s="366">
+      <c r="M127" s="364">
         <f t="shared" si="74"/>
         <v>2</v>
       </c>
@@ -17282,7 +17285,7 @@
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="442"/>
+      <c r="P127" s="430"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17319,21 +17322,21 @@
       <c r="AH127" s="217"/>
       <c r="AI127" s="217"/>
       <c r="AJ127" s="135"/>
-      <c r="AK127" s="393">
+      <c r="AK127" s="391">
         <v>0.27</v>
       </c>
-      <c r="AL127" s="397">
+      <c r="AL127" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM127" s="335">
+      <c r="AM127" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN127" s="335">
+      <c r="AN127" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO127" s="338">
+      <c r="AO127" s="336">
         <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
@@ -17359,10 +17362,10 @@
         <v>227</v>
       </c>
       <c r="H128" s="67"/>
-      <c r="I128" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J128" s="396">
+      <c r="I128" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J128" s="394">
         <v>4</v>
       </c>
       <c r="K128" s="292">
@@ -17372,7 +17375,7 @@
       <c r="L128" s="293">
         <v>1</v>
       </c>
-      <c r="M128" s="366">
+      <c r="M128" s="364">
         <f t="shared" ref="M128:M139" si="80">J128*K128</f>
         <v>2</v>
       </c>
@@ -17383,7 +17386,7 @@
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="442"/>
+      <c r="P128" s="430"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17420,21 +17423,21 @@
       <c r="AH128" s="217"/>
       <c r="AI128" s="217"/>
       <c r="AJ128" s="135"/>
-      <c r="AK128" s="393">
+      <c r="AK128" s="391">
         <v>0.27</v>
       </c>
-      <c r="AL128" s="397">
+      <c r="AL128" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM128" s="335">
+      <c r="AM128" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN128" s="335">
+      <c r="AN128" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO128" s="338">
+      <c r="AO128" s="336">
         <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
@@ -17460,10 +17463,10 @@
         <v>227</v>
       </c>
       <c r="H129" s="68"/>
-      <c r="I129" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J129" s="396">
+      <c r="I129" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J129" s="394">
         <v>4</v>
       </c>
       <c r="K129" s="292">
@@ -17473,7 +17476,7 @@
       <c r="L129" s="293">
         <v>1</v>
       </c>
-      <c r="M129" s="366">
+      <c r="M129" s="364">
         <f t="shared" si="80"/>
         <v>2</v>
       </c>
@@ -17484,7 +17487,7 @@
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="443"/>
+      <c r="P129" s="431"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17521,21 +17524,21 @@
       <c r="AH129" s="234"/>
       <c r="AI129" s="234"/>
       <c r="AJ129" s="142"/>
-      <c r="AK129" s="393">
+      <c r="AK129" s="391">
         <v>0.27</v>
       </c>
-      <c r="AL129" s="397">
+      <c r="AL129" s="395">
         <v>0.95</v>
       </c>
-      <c r="AM129" s="335">
+      <c r="AM129" s="333">
         <f t="shared" si="77"/>
         <v>0.10924999999999999</v>
       </c>
-      <c r="AN129" s="335">
+      <c r="AN129" s="333">
         <f t="shared" si="78"/>
         <v>5.7500000000000051E-3</v>
       </c>
-      <c r="AO129" s="338">
+      <c r="AO129" s="336">
         <f t="shared" si="79"/>
         <v>2.4713958810068655</v>
       </c>
@@ -17562,7 +17565,7 @@
       </c>
       <c r="H130" s="66"/>
       <c r="I130" s="298" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J130" s="93">
         <v>4</v>
@@ -17578,14 +17581,14 @@
         <f t="shared" si="80"/>
         <v>2</v>
       </c>
-      <c r="N130" s="400">
+      <c r="N130" s="398">
         <f t="shared" si="75"/>
         <v>0.11499999999999999</v>
       </c>
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="441" t="s">
+      <c r="P130" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17609,14 +17612,14 @@
       <c r="W130" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="X130" s="392"/>
-      <c r="Y130" s="326"/>
-      <c r="Z130" s="392"/>
+      <c r="X130" s="390"/>
+      <c r="Y130" s="324"/>
+      <c r="Z130" s="390"/>
       <c r="AA130" s="143" t="s">
         <v>91</v>
       </c>
       <c r="AB130" s="143"/>
-      <c r="AC130" s="327"/>
+      <c r="AC130" s="325"/>
       <c r="AD130" s="215"/>
       <c r="AE130" s="215"/>
       <c r="AF130" s="215"/>
@@ -17655,7 +17658,7 @@
       </c>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
-      <c r="D131" s="381" t="s">
+      <c r="D131" s="379" t="s">
         <v>33</v>
       </c>
       <c r="E131" s="45"/>
@@ -17664,10 +17667,10 @@
         <v>229</v>
       </c>
       <c r="H131" s="67"/>
-      <c r="I131" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J131" s="396">
+      <c r="I131" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J131" s="394">
         <v>4</v>
       </c>
       <c r="K131" s="292">
@@ -17677,7 +17680,7 @@
       <c r="L131" s="293">
         <v>1</v>
       </c>
-      <c r="M131" s="366">
+      <c r="M131" s="364">
         <f t="shared" si="80"/>
         <v>2</v>
       </c>
@@ -17688,7 +17691,7 @@
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="442"/>
+      <c r="P131" s="430"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17725,21 +17728,21 @@
       <c r="AH131" s="217"/>
       <c r="AI131" s="217"/>
       <c r="AJ131" s="135"/>
-      <c r="AK131" s="335">
+      <c r="AK131" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL131" s="397">
+      <c r="AL131" s="395">
         <v>0.85</v>
       </c>
-      <c r="AM131" s="335">
+      <c r="AM131" s="333">
         <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN131" s="335">
+      <c r="AN131" s="333">
         <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO131" s="338">
+      <c r="AO131" s="336">
         <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
@@ -17756,7 +17759,7 @@
       </c>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
-      <c r="D132" s="381" t="s">
+      <c r="D132" s="379" t="s">
         <v>33</v>
       </c>
       <c r="E132" s="45"/>
@@ -17765,10 +17768,10 @@
         <v>229</v>
       </c>
       <c r="H132" s="67"/>
-      <c r="I132" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J132" s="396">
+      <c r="I132" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J132" s="394">
         <v>4</v>
       </c>
       <c r="K132" s="292">
@@ -17778,7 +17781,7 @@
       <c r="L132" s="293">
         <v>1</v>
       </c>
-      <c r="M132" s="366">
+      <c r="M132" s="364">
         <f t="shared" si="80"/>
         <v>2</v>
       </c>
@@ -17789,7 +17792,7 @@
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="442"/>
+      <c r="P132" s="430"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17826,21 +17829,21 @@
       <c r="AH132" s="217"/>
       <c r="AI132" s="217"/>
       <c r="AJ132" s="135"/>
-      <c r="AK132" s="335">
+      <c r="AK132" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL132" s="397">
+      <c r="AL132" s="395">
         <v>0.85</v>
       </c>
-      <c r="AM132" s="335">
+      <c r="AM132" s="333">
         <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN132" s="335">
+      <c r="AN132" s="333">
         <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO132" s="338">
+      <c r="AO132" s="336">
         <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
@@ -17857,7 +17860,7 @@
       </c>
       <c r="B133" s="45"/>
       <c r="C133" s="45"/>
-      <c r="D133" s="381" t="s">
+      <c r="D133" s="379" t="s">
         <v>33</v>
       </c>
       <c r="E133" s="45"/>
@@ -17866,10 +17869,10 @@
         <v>229</v>
       </c>
       <c r="H133" s="67"/>
-      <c r="I133" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J133" s="396">
+      <c r="I133" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J133" s="394">
         <v>4</v>
       </c>
       <c r="K133" s="292">
@@ -17879,7 +17882,7 @@
       <c r="L133" s="293">
         <v>1</v>
       </c>
-      <c r="M133" s="366">
+      <c r="M133" s="364">
         <f t="shared" si="80"/>
         <v>2</v>
       </c>
@@ -17890,7 +17893,7 @@
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="442"/>
+      <c r="P133" s="430"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -17927,21 +17930,21 @@
       <c r="AH133" s="217"/>
       <c r="AI133" s="217"/>
       <c r="AJ133" s="135"/>
-      <c r="AK133" s="335">
+      <c r="AK133" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL133" s="397">
+      <c r="AL133" s="395">
         <v>0.85</v>
       </c>
-      <c r="AM133" s="335">
+      <c r="AM133" s="333">
         <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN133" s="335">
+      <c r="AN133" s="333">
         <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO133" s="338">
+      <c r="AO133" s="336">
         <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
@@ -17958,7 +17961,7 @@
       </c>
       <c r="B134" s="62"/>
       <c r="C134" s="62"/>
-      <c r="D134" s="382" t="s">
+      <c r="D134" s="380" t="s">
         <v>33</v>
       </c>
       <c r="E134" s="62"/>
@@ -17967,10 +17970,10 @@
         <v>229</v>
       </c>
       <c r="H134" s="68"/>
-      <c r="I134" s="395" t="s">
-        <v>310</v>
-      </c>
-      <c r="J134" s="396">
+      <c r="I134" s="393" t="s">
+        <v>308</v>
+      </c>
+      <c r="J134" s="394">
         <v>4</v>
       </c>
       <c r="K134" s="292">
@@ -17980,7 +17983,7 @@
       <c r="L134" s="293">
         <v>1</v>
       </c>
-      <c r="M134" s="366">
+      <c r="M134" s="364">
         <f t="shared" si="80"/>
         <v>2</v>
       </c>
@@ -17991,7 +17994,7 @@
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="443"/>
+      <c r="P134" s="431"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -18028,21 +18031,21 @@
       <c r="AH134" s="234"/>
       <c r="AI134" s="234"/>
       <c r="AJ134" s="142"/>
-      <c r="AK134" s="335">
+      <c r="AK134" s="333">
         <v>0.5</v>
       </c>
-      <c r="AL134" s="397">
+      <c r="AL134" s="395">
         <v>0.85</v>
       </c>
-      <c r="AM134" s="335">
+      <c r="AM134" s="333">
         <f t="shared" si="77"/>
         <v>9.774999999999999E-2</v>
       </c>
-      <c r="AN134" s="335">
+      <c r="AN134" s="333">
         <f t="shared" si="78"/>
         <v>1.7250000000000001E-2</v>
       </c>
-      <c r="AO134" s="338">
+      <c r="AO134" s="336">
         <f t="shared" si="79"/>
         <v>5.1150895140664971</v>
       </c>
@@ -18053,7 +18056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="16.5" hidden="1">
+    <row r="135" spans="1:45" ht="16.5">
       <c r="A135" s="51" t="s">
         <v>230</v>
       </c>
@@ -18082,19 +18085,19 @@
       <c r="L135" s="116">
         <v>1</v>
       </c>
-      <c r="M135" s="418">
+      <c r="M135" s="416">
         <f t="shared" si="80"/>
         <v>0.66</v>
       </c>
-      <c r="N135" s="419">
+      <c r="N135" s="417">
         <f t="shared" si="75"/>
         <v>3.7949999999999998E-2</v>
       </c>
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="444" t="s">
-        <v>20</v>
+      <c r="P135" s="420" t="s">
+        <v>28</v>
       </c>
       <c r="Q135" s="160" t="s">
         <v>5</v>
@@ -18135,21 +18138,21 @@
       <c r="AG135" s="51"/>
       <c r="AH135" s="51"/>
       <c r="AI135" s="51"/>
-      <c r="AK135" s="413">
+      <c r="AK135" s="411">
         <v>0.7</v>
       </c>
-      <c r="AL135" s="410">
+      <c r="AL135" s="408">
         <v>0.94</v>
       </c>
-      <c r="AM135" s="409">
+      <c r="AM135" s="407">
         <f>N135*AL135</f>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN135" s="409">
+      <c r="AN135" s="407">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO135" s="414">
+      <c r="AO135" s="412">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
@@ -18160,7 +18163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="16.5" hidden="1">
+    <row r="136" spans="1:45" ht="16.5">
       <c r="A136" s="287" t="s">
         <v>230</v>
       </c>
@@ -18196,7 +18199,7 @@
       <c r="O136" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P136" s="422"/>
+      <c r="P136" s="421"/>
       <c r="Q136" s="165" t="s">
         <v>100</v>
       </c>
@@ -18212,20 +18215,20 @@
       <c r="U136" s="161">
         <v>43921</v>
       </c>
-      <c r="V136" s="317">
-        <v>1</v>
-      </c>
-      <c r="W136" s="318" t="s">
+      <c r="V136" s="194">
+        <v>1</v>
+      </c>
+      <c r="W136" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X136" s="319" t="s">
+      <c r="X136" s="317" t="s">
         <v>107</v>
       </c>
-      <c r="Y136" s="331" t="s">
+      <c r="Y136" s="329" t="s">
         <v>127</v>
       </c>
       <c r="Z136" s="51"/>
-      <c r="AA136" s="319" t="s">
+      <c r="AA136" s="317" t="s">
         <v>108</v>
       </c>
       <c r="AB136" s="51"/>
@@ -18236,32 +18239,32 @@
       <c r="AG136" s="51"/>
       <c r="AH136" s="51"/>
       <c r="AI136" s="51"/>
-      <c r="AK136" s="415">
+      <c r="AK136" s="413">
         <v>0.7</v>
       </c>
-      <c r="AL136" s="412">
+      <c r="AL136" s="410">
         <v>0.94</v>
       </c>
-      <c r="AM136" s="411">
+      <c r="AM136" s="409">
         <f t="shared" ref="AM136:AM139" si="81">N136*AL136</f>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN136" s="411">
+      <c r="AN136" s="409">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO136" s="416">
+      <c r="AO136" s="414">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
       <c r="AP136" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS136" s="319" t="s">
+      <c r="AS136" s="317" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="16.5" hidden="1">
+    <row r="137" spans="1:45" ht="16.5">
       <c r="A137" s="287" t="s">
         <v>230</v>
       </c>
@@ -18297,7 +18300,7 @@
       <c r="O137" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P137" s="422"/>
+      <c r="P137" s="421"/>
       <c r="Q137" s="165" t="s">
         <v>102</v>
       </c>
@@ -18308,21 +18311,25 @@
         <v>43931</v>
       </c>
       <c r="T137" s="161">
-        <v>43921</v>
-      </c>
-      <c r="U137" s="207"/>
-      <c r="V137" s="51"/>
-      <c r="W137" s="318" t="s">
+        <v>43922</v>
+      </c>
+      <c r="U137" s="161">
+        <v>43924</v>
+      </c>
+      <c r="V137" s="194">
+        <v>1</v>
+      </c>
+      <c r="W137" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X137" s="319" t="s">
+      <c r="X137" s="317" t="s">
         <v>107</v>
       </c>
-      <c r="Y137" s="331" t="s">
+      <c r="Y137" s="329" t="s">
         <v>127</v>
       </c>
       <c r="Z137" s="51"/>
-      <c r="AA137" s="319" t="s">
+      <c r="AA137" s="317" t="s">
         <v>108</v>
       </c>
       <c r="AB137" s="51"/>
@@ -18333,32 +18340,32 @@
       <c r="AG137" s="51"/>
       <c r="AH137" s="51"/>
       <c r="AI137" s="51"/>
-      <c r="AK137" s="415">
+      <c r="AK137" s="413">
         <v>0.7</v>
       </c>
-      <c r="AL137" s="412">
+      <c r="AL137" s="410">
         <v>0.94</v>
       </c>
-      <c r="AM137" s="411">
+      <c r="AM137" s="409">
         <f t="shared" si="81"/>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN137" s="411">
+      <c r="AN137" s="409">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO137" s="416">
+      <c r="AO137" s="414">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
       <c r="AP137" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS137" s="319" t="s">
+      <c r="AS137" s="317" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="16.5" hidden="1">
+    <row r="138" spans="1:45" ht="16.5">
       <c r="A138" s="287" t="s">
         <v>230</v>
       </c>
@@ -18394,7 +18401,7 @@
       <c r="O138" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P138" s="422"/>
+      <c r="P138" s="421"/>
       <c r="Q138" s="165" t="s">
         <v>13</v>
       </c>
@@ -18404,20 +18411,26 @@
       <c r="S138" s="161">
         <v>43936</v>
       </c>
-      <c r="T138" s="161"/>
-      <c r="U138" s="207"/>
-      <c r="V138" s="51"/>
-      <c r="W138" s="318" t="s">
+      <c r="T138" s="161">
+        <v>43929</v>
+      </c>
+      <c r="U138" s="161">
+        <v>43930</v>
+      </c>
+      <c r="V138" s="194">
+        <v>1</v>
+      </c>
+      <c r="W138" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X138" s="319" t="s">
+      <c r="X138" s="317" t="s">
         <v>107</v>
       </c>
-      <c r="Y138" s="331" t="s">
+      <c r="Y138" s="329" t="s">
         <v>127</v>
       </c>
       <c r="Z138" s="51"/>
-      <c r="AA138" s="319" t="s">
+      <c r="AA138" s="317" t="s">
         <v>108</v>
       </c>
       <c r="AB138" s="51"/>
@@ -18428,32 +18441,32 @@
       <c r="AG138" s="51"/>
       <c r="AH138" s="51"/>
       <c r="AI138" s="51"/>
-      <c r="AK138" s="417">
+      <c r="AK138" s="415">
         <v>0.7</v>
       </c>
-      <c r="AL138" s="412">
+      <c r="AL138" s="410">
         <v>0.94</v>
       </c>
-      <c r="AM138" s="411">
+      <c r="AM138" s="409">
         <f t="shared" si="81"/>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN138" s="411">
+      <c r="AN138" s="409">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO138" s="416">
+      <c r="AO138" s="414">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
       <c r="AP138" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS138" s="319" t="s">
+      <c r="AS138" s="317" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="16.5" hidden="1">
+    <row r="139" spans="1:45" ht="16.5">
       <c r="A139" s="287" t="s">
         <v>230</v>
       </c>
@@ -18489,26 +18502,36 @@
       <c r="O139" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P139" s="423"/>
+      <c r="P139" s="422"/>
       <c r="Q139" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="R139" s="161"/>
-      <c r="S139" s="161"/>
-      <c r="T139" s="161"/>
-      <c r="U139" s="207"/>
-      <c r="V139" s="51"/>
-      <c r="W139" s="318" t="s">
+      <c r="R139" s="161">
+        <v>43936</v>
+      </c>
+      <c r="S139" s="161">
+        <v>43936</v>
+      </c>
+      <c r="T139" s="161">
+        <v>43929</v>
+      </c>
+      <c r="U139" s="161">
+        <v>43930</v>
+      </c>
+      <c r="V139" s="194">
+        <v>1</v>
+      </c>
+      <c r="W139" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X139" s="319" t="s">
+      <c r="X139" s="317" t="s">
         <v>107</v>
       </c>
-      <c r="Y139" s="331" t="s">
+      <c r="Y139" s="329" t="s">
         <v>127</v>
       </c>
       <c r="Z139" s="51"/>
-      <c r="AA139" s="319" t="s">
+      <c r="AA139" s="317" t="s">
         <v>108</v>
       </c>
       <c r="AB139" s="51"/>
@@ -18519,32 +18542,32 @@
       <c r="AG139" s="51"/>
       <c r="AH139" s="51"/>
       <c r="AI139" s="51"/>
-      <c r="AK139" s="415">
+      <c r="AK139" s="413">
         <v>0.7</v>
       </c>
-      <c r="AL139" s="412">
+      <c r="AL139" s="410">
         <v>0.94</v>
       </c>
-      <c r="AM139" s="411">
+      <c r="AM139" s="409">
         <f t="shared" si="81"/>
         <v>3.5672999999999996E-2</v>
       </c>
-      <c r="AN139" s="411">
+      <c r="AN139" s="409">
         <f t="shared" si="78"/>
         <v>2.2770000000000012E-3</v>
       </c>
-      <c r="AO139" s="416">
+      <c r="AO139" s="414">
         <f t="shared" si="79"/>
         <v>19.622683822498811</v>
       </c>
       <c r="AP139" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AS139" s="319" t="s">
+      <c r="AS139" s="317" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="15.75" hidden="1">
+    <row r="140" spans="1:45" ht="15.75">
       <c r="A140" s="51" t="s">
         <v>234</v>
       </c>
@@ -18571,13 +18594,13 @@
         <f>J140*K140</f>
         <v>0.25</v>
       </c>
-      <c r="N140" s="419">
+      <c r="N140" s="417">
         <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="444" t="s">
-        <v>4</v>
+      <c r="P140" s="420" t="s">
+        <v>14</v>
       </c>
       <c r="Q140" s="160" t="s">
         <v>5</v>
@@ -18588,10 +18611,16 @@
       <c r="S140" s="161">
         <v>43938</v>
       </c>
-      <c r="T140" s="161"/>
-      <c r="U140" s="161"/>
-      <c r="V140" s="51"/>
-      <c r="W140" s="359" t="s">
+      <c r="T140" s="161">
+        <v>43930</v>
+      </c>
+      <c r="U140" s="161">
+        <v>43931</v>
+      </c>
+      <c r="V140" s="208">
+        <v>1</v>
+      </c>
+      <c r="W140" s="357" t="s">
         <v>126</v>
       </c>
       <c r="X140" s="73" t="s">
@@ -18615,21 +18644,21 @@
       <c r="AJ140" s="255">
         <v>0.7</v>
       </c>
-      <c r="AK140" s="409">
-        <v>1</v>
-      </c>
-      <c r="AL140" s="410">
+      <c r="AK140" s="407">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="408">
         <v>0.9</v>
       </c>
-      <c r="AM140" s="409">
+      <c r="AM140" s="407">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN140" s="409">
+      <c r="AN140" s="407">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO140" s="414">
+      <c r="AO140" s="412">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
@@ -18640,30 +18669,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="15.75" hidden="1">
-      <c r="A141" s="361" t="s">
+    <row r="141" spans="1:45" ht="15.75">
+      <c r="A141" s="359" t="s">
         <v>234</v>
       </c>
-      <c r="D141" s="361" t="s">
+      <c r="D141" s="359" t="s">
         <v>235</v>
       </c>
-      <c r="G141" s="361" t="s">
+      <c r="G141" s="359" t="s">
         <v>236</v>
       </c>
-      <c r="H141" s="361"/>
-      <c r="I141" s="362" t="s">
+      <c r="H141" s="359"/>
+      <c r="I141" s="360" t="s">
         <v>99</v>
       </c>
-      <c r="J141" s="363">
-        <v>1</v>
-      </c>
-      <c r="K141" s="364">
+      <c r="J141" s="361">
+        <v>1</v>
+      </c>
+      <c r="K141" s="362">
         <v>0.25</v>
       </c>
-      <c r="L141" s="365">
-        <v>1</v>
-      </c>
-      <c r="M141" s="366">
+      <c r="L141" s="363">
+        <v>1</v>
+      </c>
+      <c r="M141" s="364">
         <f t="shared" ref="M141:M144" si="82">J141*K141</f>
         <v>0.25</v>
       </c>
@@ -18671,8 +18700,8 @@
         <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
-      <c r="O141" s="367"/>
-      <c r="P141" s="422"/>
+      <c r="O141" s="365"/>
+      <c r="P141" s="421"/>
       <c r="Q141" s="165" t="s">
         <v>100</v>
       </c>
@@ -18685,17 +18714,17 @@
       <c r="T141" s="161"/>
       <c r="U141" s="161"/>
       <c r="V141" s="51"/>
-      <c r="W141" s="318" t="s">
+      <c r="W141" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X141" s="367" t="s">
+      <c r="X141" s="365" t="s">
         <v>149</v>
       </c>
-      <c r="Y141" s="368" t="s">
+      <c r="Y141" s="366" t="s">
         <v>90</v>
       </c>
       <c r="Z141" s="126"/>
-      <c r="AA141" s="367" t="s">
+      <c r="AA141" s="365" t="s">
         <v>108</v>
       </c>
       <c r="AB141" s="126"/>
@@ -18706,52 +18735,52 @@
       <c r="AG141" s="223"/>
       <c r="AH141" s="73"/>
       <c r="AI141" s="73"/>
-      <c r="AK141" s="411">
-        <v>1</v>
-      </c>
-      <c r="AL141" s="412">
+      <c r="AK141" s="409">
+        <v>1</v>
+      </c>
+      <c r="AL141" s="410">
         <v>0.9</v>
       </c>
-      <c r="AM141" s="411">
+      <c r="AM141" s="409">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN141" s="411">
+      <c r="AN141" s="409">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO141" s="416">
+      <c r="AO141" s="414">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
-      <c r="AS141" s="367" t="s">
+      <c r="AS141" s="365" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="15.75" hidden="1">
-      <c r="A142" s="361" t="s">
+    <row r="142" spans="1:45" ht="15.75">
+      <c r="A142" s="359" t="s">
         <v>234</v>
       </c>
-      <c r="D142" s="361" t="s">
+      <c r="D142" s="359" t="s">
         <v>235</v>
       </c>
-      <c r="G142" s="361" t="s">
+      <c r="G142" s="359" t="s">
         <v>236</v>
       </c>
-      <c r="H142" s="361"/>
-      <c r="I142" s="362" t="s">
+      <c r="H142" s="359"/>
+      <c r="I142" s="360" t="s">
         <v>99</v>
       </c>
-      <c r="J142" s="363">
-        <v>1</v>
-      </c>
-      <c r="K142" s="364">
+      <c r="J142" s="361">
+        <v>1</v>
+      </c>
+      <c r="K142" s="362">
         <v>0.25</v>
       </c>
-      <c r="L142" s="365">
-        <v>1</v>
-      </c>
-      <c r="M142" s="366">
+      <c r="L142" s="363">
+        <v>1</v>
+      </c>
+      <c r="M142" s="364">
         <f t="shared" si="82"/>
         <v>0.25</v>
       </c>
@@ -18759,8 +18788,8 @@
         <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
-      <c r="O142" s="367"/>
-      <c r="P142" s="422"/>
+      <c r="O142" s="365"/>
+      <c r="P142" s="421"/>
       <c r="Q142" s="165" t="s">
         <v>102</v>
       </c>
@@ -18773,17 +18802,17 @@
       <c r="T142" s="161"/>
       <c r="U142" s="207"/>
       <c r="V142" s="51"/>
-      <c r="W142" s="318" t="s">
+      <c r="W142" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X142" s="367" t="s">
+      <c r="X142" s="365" t="s">
         <v>149</v>
       </c>
-      <c r="Y142" s="368" t="s">
+      <c r="Y142" s="366" t="s">
         <v>90</v>
       </c>
       <c r="Z142" s="126"/>
-      <c r="AA142" s="367" t="s">
+      <c r="AA142" s="365" t="s">
         <v>108</v>
       </c>
       <c r="AB142" s="126"/>
@@ -18794,52 +18823,52 @@
       <c r="AG142" s="223"/>
       <c r="AH142" s="73"/>
       <c r="AI142" s="73"/>
-      <c r="AK142" s="411">
-        <v>1</v>
-      </c>
-      <c r="AL142" s="412">
+      <c r="AK142" s="409">
+        <v>1</v>
+      </c>
+      <c r="AL142" s="410">
         <v>0.9</v>
       </c>
-      <c r="AM142" s="411">
+      <c r="AM142" s="409">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN142" s="411">
+      <c r="AN142" s="409">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO142" s="416">
+      <c r="AO142" s="414">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
-      <c r="AS142" s="367" t="s">
+      <c r="AS142" s="365" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="15.75" hidden="1">
-      <c r="A143" s="361" t="s">
+    <row r="143" spans="1:45" ht="15.75">
+      <c r="A143" s="359" t="s">
         <v>234</v>
       </c>
-      <c r="D143" s="361" t="s">
+      <c r="D143" s="359" t="s">
         <v>235</v>
       </c>
-      <c r="G143" s="361" t="s">
+      <c r="G143" s="359" t="s">
         <v>236</v>
       </c>
-      <c r="H143" s="361"/>
-      <c r="I143" s="362" t="s">
+      <c r="H143" s="359"/>
+      <c r="I143" s="360" t="s">
         <v>99</v>
       </c>
-      <c r="J143" s="363">
-        <v>1</v>
-      </c>
-      <c r="K143" s="364">
+      <c r="J143" s="361">
+        <v>1</v>
+      </c>
+      <c r="K143" s="362">
         <v>0.25</v>
       </c>
-      <c r="L143" s="365">
-        <v>1</v>
-      </c>
-      <c r="M143" s="366">
+      <c r="L143" s="363">
+        <v>1</v>
+      </c>
+      <c r="M143" s="364">
         <f t="shared" si="82"/>
         <v>0.25</v>
       </c>
@@ -18847,8 +18876,8 @@
         <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
-      <c r="O143" s="367"/>
-      <c r="P143" s="422"/>
+      <c r="O143" s="365"/>
+      <c r="P143" s="421"/>
       <c r="Q143" s="165" t="s">
         <v>13</v>
       </c>
@@ -18861,17 +18890,17 @@
       <c r="T143" s="161"/>
       <c r="U143" s="207"/>
       <c r="V143" s="51"/>
-      <c r="W143" s="318" t="s">
+      <c r="W143" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X143" s="367" t="s">
+      <c r="X143" s="365" t="s">
         <v>149</v>
       </c>
-      <c r="Y143" s="368" t="s">
+      <c r="Y143" s="366" t="s">
         <v>90</v>
       </c>
       <c r="Z143" s="126"/>
-      <c r="AA143" s="367" t="s">
+      <c r="AA143" s="365" t="s">
         <v>108</v>
       </c>
       <c r="AB143" s="126"/>
@@ -18882,52 +18911,52 @@
       <c r="AG143" s="223"/>
       <c r="AH143" s="73"/>
       <c r="AI143" s="73"/>
-      <c r="AK143" s="411">
-        <v>1</v>
-      </c>
-      <c r="AL143" s="412">
+      <c r="AK143" s="409">
+        <v>1</v>
+      </c>
+      <c r="AL143" s="410">
         <v>0.9</v>
       </c>
-      <c r="AM143" s="411">
+      <c r="AM143" s="409">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN143" s="411">
+      <c r="AN143" s="409">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO143" s="416">
+      <c r="AO143" s="414">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
-      <c r="AS143" s="367" t="s">
+      <c r="AS143" s="365" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="15.75" hidden="1">
-      <c r="A144" s="361" t="s">
+    <row r="144" spans="1:45" ht="15.75">
+      <c r="A144" s="359" t="s">
         <v>234</v>
       </c>
-      <c r="D144" s="361" t="s">
+      <c r="D144" s="359" t="s">
         <v>235</v>
       </c>
-      <c r="G144" s="361" t="s">
+      <c r="G144" s="359" t="s">
         <v>236</v>
       </c>
-      <c r="H144" s="361"/>
-      <c r="I144" s="362" t="s">
+      <c r="H144" s="359"/>
+      <c r="I144" s="360" t="s">
         <v>99</v>
       </c>
-      <c r="J144" s="363">
-        <v>1</v>
-      </c>
-      <c r="K144" s="364">
+      <c r="J144" s="361">
+        <v>1</v>
+      </c>
+      <c r="K144" s="362">
         <v>0.25</v>
       </c>
-      <c r="L144" s="365">
-        <v>1</v>
-      </c>
-      <c r="M144" s="366">
+      <c r="L144" s="363">
+        <v>1</v>
+      </c>
+      <c r="M144" s="364">
         <f t="shared" si="82"/>
         <v>0.25</v>
       </c>
@@ -18935,27 +18964,27 @@
         <f t="shared" si="75"/>
         <v>1.4374999999999999E-2</v>
       </c>
-      <c r="O144" s="367"/>
-      <c r="P144" s="423"/>
+      <c r="O144" s="365"/>
+      <c r="P144" s="422"/>
       <c r="Q144" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="R144" s="387"/>
-      <c r="S144" s="387"/>
-      <c r="T144" s="387"/>
+      <c r="R144" s="385"/>
+      <c r="S144" s="385"/>
+      <c r="T144" s="385"/>
       <c r="U144" s="207"/>
       <c r="V144" s="51"/>
-      <c r="W144" s="318" t="s">
+      <c r="W144" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="X144" s="367" t="s">
+      <c r="X144" s="365" t="s">
         <v>149</v>
       </c>
-      <c r="Y144" s="368" t="s">
+      <c r="Y144" s="366" t="s">
         <v>90</v>
       </c>
       <c r="Z144" s="126"/>
-      <c r="AA144" s="367" t="s">
+      <c r="AA144" s="365" t="s">
         <v>108</v>
       </c>
       <c r="AB144" s="126"/>
@@ -18966,25 +18995,25 @@
       <c r="AG144" s="223"/>
       <c r="AH144" s="73"/>
       <c r="AI144" s="73"/>
-      <c r="AK144" s="411">
-        <v>1</v>
-      </c>
-      <c r="AL144" s="412">
+      <c r="AK144" s="409">
+        <v>1</v>
+      </c>
+      <c r="AL144" s="410">
         <v>0.9</v>
       </c>
-      <c r="AM144" s="411">
+      <c r="AM144" s="409">
         <f t="shared" si="77"/>
         <v>1.2937499999999999E-2</v>
       </c>
-      <c r="AN144" s="411">
+      <c r="AN144" s="409">
         <f t="shared" si="78"/>
         <v>1.4374999999999995E-3</v>
       </c>
-      <c r="AO144" s="416">
+      <c r="AO144" s="414">
         <f t="shared" si="79"/>
         <v>77.294685990338166</v>
       </c>
-      <c r="AS144" s="367" t="s">
+      <c r="AS144" s="365" t="s">
         <v>10</v>
       </c>
     </row>
@@ -18992,25 +19021,11 @@
   <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="22">
       <filters>
-        <filter val="徐凱"/>
+        <filter val="陳爽"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -19023,8 +19038,22 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
   </mergeCells>
-  <phoneticPr fontId="35"/>
+  <phoneticPr fontId="34"/>
   <dataValidations count="1">
     <dataValidation showErrorMessage="1" sqref="F2:F6 G12:G15 F16:G17" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
@@ -19044,7 +19073,7 @@
           <x14:formula1>
             <xm:f>マスタ!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>P12 R28:U28 P29 T32:U32 P34 R38:T38 P39 T14:T23 P58 S85:U85 P86 R107:U107 P120 P125 P130 P135:P144 R80:U80 P17:P19 P24:P26 P49:P53 P63:P65 P68 P113:P115 U137:U139 P7 Q113:Q134 R9:R11 S8:S11 T110:T114 U37:U38 U109:U114 P44 R96:S96 P91 R6:U6 R17:S23 R113:S114 P80:P81 R49:U52 T9:U11 U13:U23 U142:U144 P96:P108 T95:U96 P73:P75 R73:S74 T72:U74 P2 Q2:Q96</xm:sqref>
+          <xm:sqref>P12 R28:U28 P29 T32:U32 P34 R38:T38 P39 T14:T23 P58 Q2:Q96 P86 R107:U107 P120 P125 P130 P135:P144 R80:U80 P17:P19 P24:P26 P49:P53 P63:P65 P68 P113:P115 P2 P7 Q113:Q134 R9:R11 S8:S11 T110:T114 U37:U38 U109:U114 P44 R96:S96 P91 R6:U6 R17:S23 R113:S114 P80:P81 R49:U52 T9:U11 U13:U23 U142:U144 P96:P108 T95:U96 P73:P75 R73:S74 T72:U74</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -19395,7 +19424,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="35"/>
+  <phoneticPr fontId="34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20189,7 +20218,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:H38" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <phoneticPr fontId="35"/>
+  <phoneticPr fontId="34"/>
   <dataValidations count="1">
     <dataValidation showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
@@ -20292,7 +20321,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35"/>
+  <phoneticPr fontId="34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20308,6 +20337,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100812FA0FE73F5424591DAEFE112701BFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56d4b5a5975bf9384d479e9a3e663453">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f62f24f3-c2cb-4635-98ee-4cca181ac6a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="086e2a9e7f1e8fac082d484e6cc75e9d" ns2:_="">
     <xsd:import namespace="f62f24f3-c2cb-4635-98ee-4cca181ac6a1"/>
@@ -20439,12 +20474,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
@@ -20452,13 +20481,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CAD7157-CAEC-4A90-8319-50D4DD95AFC3}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.b.chen\Desktop\wbs\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7587F68-DF3C-4C5F-8BF3-B57BF34B88C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4F7A0-CC37-4D7A-ADB8-B244F999DD06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SCRM対象一覧!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">作業一覧!$B$1:$H$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">効率化作業明細!$A$1:$AS$144</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">作業一覧!$B$1:$H$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">効率化作業明細!$A$1:$AS$159</definedName>
     <definedName name="ステータス" localSheetId="0">マスタ!$A$2:$A$16</definedName>
     <definedName name="ステータス">[1]マスタ!$A$2:$A$16</definedName>
@@ -983,7 +983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -994,7 +994,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1007,7 +1007,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1018,7 +1018,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1029,7 +1029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1050,7 +1050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1062,7 +1062,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1105,7 +1105,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1116,7 +1116,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1129,7 +1129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1140,7 +1140,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1156,7 +1156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1180,7 +1180,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1191,7 +1191,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1204,7 +1204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1215,7 +1215,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1378,19 +1378,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="177" formatCode="000_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="000_ "/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.000;[Red]0.000"/>
   </numFmts>
   <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1404,7 +1404,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1568,7 +1568,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1576,7 +1576,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1602,7 +1602,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1621,7 +1621,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2643,11 +2643,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2660,7 +2660,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2670,7 +2670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2680,7 +2680,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2690,15 +2690,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2708,7 +2708,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2718,7 +2718,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2728,7 +2728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2738,7 +2738,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2786,7 +2786,7 @@
     <xf numFmtId="49" fontId="10" fillId="10" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2810,7 +2810,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2818,15 +2818,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2836,7 +2836,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2844,15 +2844,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2862,7 +2862,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2870,15 +2870,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2888,7 +2888,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2896,15 +2896,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2915,7 +2915,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2923,15 +2923,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2939,7 +2939,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2947,15 +2947,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2971,7 +2971,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2979,15 +2979,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3000,7 +3000,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3008,15 +3008,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3047,7 +3047,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3280,13 +3280,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3295,13 +3295,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3316,7 +3316,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3344,38 +3344,38 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="13" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="17" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3417,7 +3417,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3431,7 +3431,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3439,11 +3439,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3463,7 +3463,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3476,22 +3476,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3499,22 +3499,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3533,7 +3533,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3541,7 +3541,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3590,7 +3590,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3605,13 +3605,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3629,13 +3629,13 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3647,18 +3647,18 @@
     <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16">
@@ -3685,7 +3685,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="25" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="25" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3710,14 +3710,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3725,11 +3725,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3739,7 +3739,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3775,11 +3775,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3807,14 +3807,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3824,7 +3824,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3837,66 +3837,66 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3906,24 +3906,78 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3931,60 +3985,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3993,6 +3993,7 @@
     <cellStyle name="60% - アクセント 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="60% - アクセント 4 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="60% - アクセント 4 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="パーセント 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="パーセント 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
@@ -4000,7 +4001,6 @@
     <cellStyle name="桁区切り 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="桁区切り 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="桁区切り 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="標準 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -4348,14 +4348,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="343" customWidth="1"/>
-    <col min="2" max="3" width="8.75" style="343"/>
-    <col min="4" max="4" width="17.125" style="343" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="343"/>
-    <col min="6" max="6" width="17.875" style="343" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="343"/>
+    <col min="2" max="3" width="8.7109375" style="343"/>
+    <col min="4" max="4" width="17.140625" style="343" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="343"/>
+    <col min="6" max="6" width="17.85546875" style="343" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="343"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4536,14 +4536,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="338" t="s">
         <v>29</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="65" t="s">
         <v>34</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="65" t="s">
         <v>35</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="65" t="s">
         <v>36</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="65" t="s">
         <v>37</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="341" t="s">
         <v>38</v>
       </c>
@@ -4645,53 +4645,53 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q146" sqref="Q146"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="33" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="33" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="33" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="33" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="46.25" style="33" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="14.25" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="24.125" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="22.125" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="21.875" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="11.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="33" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="46.28515625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="14.28515625" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="24.140625" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="22.140625" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="21.85546875" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="17" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="32.75" style="33" customWidth="1"/>
-    <col min="23" max="23" width="12.875" style="33" customWidth="1"/>
-    <col min="24" max="24" width="32.375" style="33" customWidth="1"/>
-    <col min="25" max="25" width="20.375" style="34" customWidth="1"/>
-    <col min="26" max="26" width="26.25" style="33" customWidth="1"/>
+    <col min="18" max="21" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="32.7109375" style="33" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="33" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" style="33" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" style="34" customWidth="1"/>
+    <col min="26" max="26" width="26.28515625" style="33" customWidth="1"/>
     <col min="27" max="27" width="14" style="33" customWidth="1"/>
-    <col min="28" max="28" width="10.875" style="33" customWidth="1"/>
-    <col min="29" max="30" width="15.375" style="33" customWidth="1"/>
-    <col min="31" max="31" width="17.25" style="33" customWidth="1"/>
-    <col min="32" max="33" width="15.375" style="33" customWidth="1"/>
-    <col min="34" max="34" width="17.25" style="33" customWidth="1"/>
-    <col min="35" max="35" width="15.375" style="33" customWidth="1"/>
-    <col min="36" max="36" width="14.375" style="33" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="14.375" style="33" customWidth="1"/>
-    <col min="38" max="38" width="12.375" style="33" customWidth="1"/>
-    <col min="39" max="39" width="14.375" style="33" customWidth="1"/>
-    <col min="40" max="40" width="12.375" style="33" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="33" customWidth="1"/>
+    <col min="29" max="30" width="15.42578125" style="33" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" style="33" customWidth="1"/>
+    <col min="32" max="33" width="15.42578125" style="33" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" style="33" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" style="33" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" style="33" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" style="33" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="33" customWidth="1"/>
+    <col min="40" max="40" width="12.42578125" style="33" customWidth="1"/>
     <col min="41" max="41" width="14" style="33" customWidth="1"/>
     <col min="42" max="43" width="14" style="33" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="10.375" style="33" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="14.375" style="33" customWidth="1"/>
-    <col min="46" max="16384" width="9.25" style="33"/>
+    <col min="44" max="44" width="10.42578125" style="33" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" style="33" customWidth="1"/>
+    <col min="46" max="16384" width="9.28515625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="30" customFormat="1" ht="28.5">
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A2" s="37" t="s">
         <v>81</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="O2" s="382" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="432" t="s">
+      <c r="P2" s="420" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -4890,8 +4890,12 @@
       <c r="S2" s="196">
         <v>43922</v>
       </c>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
+      <c r="T2" s="196">
+        <v>43922</v>
+      </c>
+      <c r="U2" s="196">
+        <v>43922</v>
+      </c>
       <c r="V2" s="91" t="s">
         <v>88</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
@@ -4993,7 +4997,9 @@
       <c r="S3" s="196">
         <v>43928</v>
       </c>
-      <c r="T3" s="196"/>
+      <c r="T3" s="196">
+        <v>43923</v>
+      </c>
       <c r="U3" s="196"/>
       <c r="V3" s="163" t="s">
         <v>88</v>
@@ -5044,7 +5050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A4" s="45" t="s">
         <v>81</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A5" s="45" t="s">
         <v>81</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
+    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25">
       <c r="A6" s="45" t="s">
         <v>81</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="31" customFormat="1" ht="33" hidden="1">
+    <row r="7" spans="1:45" s="31" customFormat="1" ht="33">
       <c r="A7" s="42" t="s">
         <v>92</v>
       </c>
@@ -5382,7 +5388,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="439" t="s">
+      <c r="P7" s="432" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5438,7 +5444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="8" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A8" s="45" t="s">
         <v>92</v>
       </c>
@@ -5478,7 +5484,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="440"/>
+      <c r="P8" s="433"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5532,7 +5538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="9" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A9" s="45" t="s">
         <v>92</v>
       </c>
@@ -5572,7 +5578,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="440"/>
+      <c r="P9" s="433"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="10" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A10" s="45" t="s">
         <v>92</v>
       </c>
@@ -5666,7 +5672,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="440"/>
+      <c r="P10" s="433"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5720,7 +5726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
+    <row r="11" spans="1:45" s="32" customFormat="1" ht="33">
       <c r="A11" s="48" t="s">
         <v>92</v>
       </c>
@@ -5760,7 +5766,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="441"/>
+      <c r="P11" s="434"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5854,8 +5860,8 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="423" t="s">
-        <v>14</v>
+      <c r="P12" s="429" t="s">
+        <v>20</v>
       </c>
       <c r="Q12" s="160" t="s">
         <v>5</v>
@@ -5949,7 +5955,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="424"/>
+      <c r="P13" s="430"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -5962,7 +5968,9 @@
       <c r="T13" s="166">
         <v>43914</v>
       </c>
-      <c r="U13" s="166"/>
+      <c r="U13" s="166">
+        <v>43929</v>
+      </c>
       <c r="V13" s="350"/>
       <c r="W13" s="177" t="s">
         <v>106</v>
@@ -6038,7 +6046,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="424"/>
+      <c r="P14" s="430"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6048,7 +6056,9 @@
       <c r="S14" s="166">
         <v>43936</v>
       </c>
-      <c r="T14" s="166"/>
+      <c r="T14" s="166">
+        <v>43930</v>
+      </c>
       <c r="U14" s="166"/>
       <c r="V14" s="350"/>
       <c r="W14" s="177" t="s">
@@ -6125,7 +6135,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="424"/>
+      <c r="P15" s="430"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6214,7 +6224,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="425"/>
+      <c r="P16" s="431"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6449,7 +6459,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="442" t="s">
+      <c r="P19" s="435" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6541,7 +6551,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="443"/>
+      <c r="P20" s="436"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6631,7 +6641,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="443"/>
+      <c r="P21" s="436"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6721,7 +6731,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="443"/>
+      <c r="P22" s="436"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6811,7 +6821,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="444"/>
+      <c r="P23" s="437"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6865,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
+    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>122</v>
       </c>
@@ -6906,7 +6916,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="445" t="s">
+      <c r="P24" s="438" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -6980,7 +6990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A25" s="45" t="s">
         <v>122</v>
       </c>
@@ -7021,7 +7031,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="437"/>
+      <c r="P25" s="427"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7091,7 +7101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A26" s="45" t="s">
         <v>122</v>
       </c>
@@ -7132,7 +7142,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="437"/>
+      <c r="P26" s="427"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7202,7 +7212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A27" s="45" t="s">
         <v>122</v>
       </c>
@@ -7243,7 +7253,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="437"/>
+      <c r="P27" s="427"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7311,7 +7321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A28" s="62" t="s">
         <v>122</v>
       </c>
@@ -7352,7 +7362,7 @@
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="446"/>
+      <c r="P28" s="439"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7412,7 +7422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A29" s="42" t="s">
         <v>129</v>
       </c>
@@ -7453,7 +7463,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="445" t="s">
+      <c r="P29" s="438" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7521,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A30" s="45" t="s">
         <v>129</v>
       </c>
@@ -7562,7 +7572,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="437"/>
+      <c r="P30" s="427"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7624,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A31" s="45" t="s">
         <v>129</v>
       </c>
@@ -7665,7 +7675,7 @@
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="437"/>
+      <c r="P31" s="427"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A32" s="45" t="s">
         <v>129</v>
       </c>
@@ -7768,7 +7778,7 @@
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="437"/>
+      <c r="P32" s="427"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7830,7 +7840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
       <c r="A33" s="62" t="s">
         <v>129</v>
       </c>
@@ -7871,7 +7881,7 @@
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="446"/>
+      <c r="P33" s="439"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -7974,7 +7984,7 @@
       <c r="O34" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="436" t="s">
+      <c r="P34" s="426" t="s">
         <v>25</v>
       </c>
       <c r="Q34" s="160" t="s">
@@ -8083,7 +8093,7 @@
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="437"/>
+      <c r="P35" s="427"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8149,7 +8159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="126.75" hidden="1">
       <c r="A36" s="45" t="s">
         <v>132</v>
       </c>
@@ -8190,7 +8200,7 @@
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="437"/>
+      <c r="P36" s="427"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8297,7 +8307,7 @@
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="437"/>
+      <c r="P37" s="427"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8402,7 +8412,7 @@
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="438"/>
+      <c r="P38" s="428"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8501,7 +8511,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="433" t="s">
+      <c r="P39" s="423" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8609,7 +8619,7 @@
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="434"/>
+      <c r="P40" s="424"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8712,7 +8722,7 @@
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="434"/>
+      <c r="P41" s="424"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8815,7 +8825,7 @@
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="434"/>
+      <c r="P42" s="424"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8918,7 +8928,7 @@
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="435"/>
+      <c r="P43" s="425"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -9019,7 +9029,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="429" t="s">
+      <c r="P44" s="440" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9128,7 +9138,7 @@
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="430"/>
+      <c r="P45" s="441"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9191,7 +9201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="45" t="s">
         <v>140</v>
       </c>
@@ -9232,7 +9242,7 @@
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="430"/>
+      <c r="P46" s="441"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9336,7 +9346,7 @@
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="430"/>
+      <c r="P47" s="441"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9439,7 +9449,7 @@
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="431"/>
+      <c r="P48" s="442"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9586,7 +9596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A50" s="51" t="s">
         <v>147</v>
       </c>
@@ -9756,7 +9766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="52" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A52" s="51" t="s">
         <v>154</v>
       </c>
@@ -9844,7 +9854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A53" s="51" t="s">
         <v>158</v>
       </c>
@@ -9885,7 +9895,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="423" t="s">
+      <c r="P53" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9953,7 +9963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A54" s="45" t="s">
         <v>158</v>
       </c>
@@ -9994,7 +10004,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="424"/>
+      <c r="P54" s="430"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -10060,7 +10070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A55" s="45" t="s">
         <v>158</v>
       </c>
@@ -10101,7 +10111,7 @@
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="424"/>
+      <c r="P55" s="430"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10163,7 +10173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A56" s="45" t="s">
         <v>158</v>
       </c>
@@ -10204,7 +10214,7 @@
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="424"/>
+      <c r="P56" s="430"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10266,7 +10276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
+    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>158</v>
       </c>
@@ -10307,7 +10317,7 @@
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="425"/>
+      <c r="P57" s="431"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10408,7 +10418,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="423" t="s">
+      <c r="P58" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10513,7 +10523,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="424"/>
+      <c r="P59" s="430"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10614,7 +10624,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="424"/>
+      <c r="P60" s="430"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10715,7 +10725,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="424"/>
+      <c r="P61" s="430"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10814,7 +10824,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="425"/>
+      <c r="P62" s="431"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10915,7 +10925,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="433" t="s">
+      <c r="P63" s="423" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -11026,7 +11036,7 @@
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="434"/>
+      <c r="P64" s="424"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11133,7 +11143,7 @@
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="434"/>
+      <c r="P65" s="424"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11240,7 +11250,7 @@
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="434"/>
+      <c r="P66" s="424"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11345,7 +11355,7 @@
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="435"/>
+      <c r="P67" s="425"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11450,7 +11460,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="429" t="s">
+      <c r="P68" s="440" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11542,7 +11552,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="430"/>
+      <c r="P69" s="441"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11632,7 +11642,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="430"/>
+      <c r="P70" s="441"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11722,7 +11732,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="430"/>
+      <c r="P71" s="441"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11812,7 +11822,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="431"/>
+      <c r="P72" s="442"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -11946,7 +11956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
       <c r="A74" s="51" t="s">
         <v>177</v>
       </c>
@@ -12079,7 +12089,7 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="423" t="s">
+      <c r="P75" s="429" t="s">
         <v>14</v>
       </c>
       <c r="Q75" s="160" t="s">
@@ -12188,7 +12198,7 @@
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="424"/>
+      <c r="P76" s="430"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12293,7 +12303,7 @@
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="424"/>
+      <c r="P77" s="430"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12394,7 +12404,7 @@
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="424"/>
+      <c r="P78" s="430"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12495,7 +12505,7 @@
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="425"/>
+      <c r="P79" s="431"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
@@ -12644,7 +12654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A81" s="51" t="s">
         <v>187</v>
       </c>
@@ -12685,7 +12695,7 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="423" t="s">
+      <c r="P81" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="160" t="s">
@@ -12753,7 +12763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A82" s="270" t="s">
         <v>187</v>
       </c>
@@ -12794,7 +12804,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="424"/>
+      <c r="P82" s="430"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12856,7 +12866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A83" s="270" t="s">
         <v>187</v>
       </c>
@@ -12897,7 +12907,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="424"/>
+      <c r="P83" s="430"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12959,7 +12969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A84" s="270" t="s">
         <v>187</v>
       </c>
@@ -13000,7 +13010,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="424"/>
+      <c r="P84" s="430"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -13062,7 +13072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
       <c r="A85" s="270" t="s">
         <v>187</v>
       </c>
@@ -13103,7 +13113,7 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="425"/>
+      <c r="P85" s="431"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
@@ -13206,7 +13216,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="429" t="s">
+      <c r="P86" s="440" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13315,7 +13325,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="430"/>
+      <c r="P87" s="441"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13422,7 +13432,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="430"/>
+      <c r="P88" s="441"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13529,7 +13539,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="430"/>
+      <c r="P89" s="441"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13636,7 +13646,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="431"/>
+      <c r="P90" s="442"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13743,7 +13753,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="429" t="s">
+      <c r="P91" s="440" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13835,7 +13845,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="430"/>
+      <c r="P92" s="441"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13925,7 +13935,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="430"/>
+      <c r="P93" s="441"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -14015,7 +14025,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="430"/>
+      <c r="P94" s="441"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -14105,7 +14115,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="431"/>
+      <c r="P95" s="442"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14239,7 +14249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A97" s="51" t="s">
         <v>201</v>
       </c>
@@ -14280,7 +14290,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="420" t="s">
+      <c r="P97" s="443" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -14345,7 +14355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A98" s="277" t="s">
         <v>201</v>
       </c>
@@ -14445,7 +14455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A99" s="277" t="s">
         <v>201</v>
       </c>
@@ -14545,7 +14555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A100" s="277" t="s">
         <v>201</v>
       </c>
@@ -14645,7 +14655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A101" s="277" t="s">
         <v>201</v>
       </c>
@@ -14746,7 +14756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A102" s="51" t="s">
         <v>204</v>
       </c>
@@ -14856,7 +14866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A103" s="277" t="s">
         <v>204</v>
       </c>
@@ -14960,7 +14970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A104" s="277" t="s">
         <v>204</v>
       </c>
@@ -15064,7 +15074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A105" s="277" t="s">
         <v>204</v>
       </c>
@@ -15168,7 +15178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A106" s="277" t="s">
         <v>204</v>
       </c>
@@ -15357,7 +15367,7 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="423" t="s">
+      <c r="P108" s="429" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
@@ -15425,7 +15435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25" hidden="1">
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="96.75" hidden="1">
       <c r="A109" s="277" t="s">
         <v>207</v>
       </c>
@@ -15466,7 +15476,7 @@
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="424"/>
+      <c r="P109" s="430"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
@@ -15571,7 +15581,7 @@
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="424"/>
+      <c r="P110" s="430"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
@@ -15674,7 +15684,7 @@
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="424"/>
+      <c r="P111" s="430"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
@@ -15777,7 +15787,7 @@
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="425"/>
+      <c r="P112" s="431"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
@@ -16064,7 +16074,7 @@
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="426" t="s">
+      <c r="P115" s="444" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -16172,7 +16182,7 @@
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="427"/>
+      <c r="P116" s="445"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16274,7 +16284,7 @@
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="427"/>
+      <c r="P117" s="445"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16376,7 +16386,7 @@
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="427"/>
+      <c r="P118" s="445"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16476,7 +16486,7 @@
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="428"/>
+      <c r="P119" s="446"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16574,7 +16584,7 @@
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="429" t="s">
+      <c r="P120" s="440" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16677,7 +16687,7 @@
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="430"/>
+      <c r="P121" s="441"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16778,7 +16788,7 @@
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="430"/>
+      <c r="P122" s="441"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16879,7 +16889,7 @@
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="430"/>
+      <c r="P123" s="441"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16980,7 +16990,7 @@
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="431"/>
+      <c r="P124" s="442"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -17081,7 +17091,7 @@
       <c r="O125" s="397" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="429" t="s">
+      <c r="P125" s="440" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17184,7 +17194,7 @@
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="430"/>
+      <c r="P126" s="441"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17285,7 +17295,7 @@
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="430"/>
+      <c r="P127" s="441"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17386,7 +17396,7 @@
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="430"/>
+      <c r="P128" s="441"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17487,7 +17497,7 @@
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="431"/>
+      <c r="P129" s="442"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17588,7 +17598,7 @@
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="429" t="s">
+      <c r="P130" s="440" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17691,7 +17701,7 @@
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="430"/>
+      <c r="P131" s="441"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17792,7 +17802,7 @@
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="430"/>
+      <c r="P132" s="441"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17893,7 +17903,7 @@
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="430"/>
+      <c r="P133" s="441"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -17994,7 +18004,7 @@
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="431"/>
+      <c r="P134" s="442"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -18056,7 +18066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="16.5">
+    <row r="135" spans="1:45" ht="16.5" hidden="1">
       <c r="A135" s="51" t="s">
         <v>230</v>
       </c>
@@ -18096,7 +18106,7 @@
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="420" t="s">
+      <c r="P135" s="443" t="s">
         <v>28</v>
       </c>
       <c r="Q135" s="160" t="s">
@@ -18163,7 +18173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="16.5">
+    <row r="136" spans="1:45" ht="16.5" hidden="1">
       <c r="A136" s="287" t="s">
         <v>230</v>
       </c>
@@ -18264,7 +18274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="16.5">
+    <row r="137" spans="1:45" ht="16.5" hidden="1">
       <c r="A137" s="287" t="s">
         <v>230</v>
       </c>
@@ -18365,7 +18375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="16.5">
+    <row r="138" spans="1:45" ht="16.5" hidden="1">
       <c r="A138" s="287" t="s">
         <v>230</v>
       </c>
@@ -18466,7 +18476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="16.5">
+    <row r="139" spans="1:45" ht="16.5" hidden="1">
       <c r="A139" s="287" t="s">
         <v>230</v>
       </c>
@@ -18567,7 +18577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="15.75">
+    <row r="140" spans="1:45" ht="15.75" hidden="1">
       <c r="A140" s="51" t="s">
         <v>234</v>
       </c>
@@ -18599,7 +18609,7 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="420" t="s">
+      <c r="P140" s="443" t="s">
         <v>14</v>
       </c>
       <c r="Q140" s="160" t="s">
@@ -18669,7 +18679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="15.75">
+    <row r="141" spans="1:45" ht="15.75" hidden="1">
       <c r="A141" s="359" t="s">
         <v>234</v>
       </c>
@@ -18757,7 +18767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="15.75">
+    <row r="142" spans="1:45" ht="15.75" hidden="1">
       <c r="A142" s="359" t="s">
         <v>234</v>
       </c>
@@ -18845,7 +18855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="15.75">
+    <row r="143" spans="1:45" ht="15.75" hidden="1">
       <c r="A143" s="359" t="s">
         <v>234</v>
       </c>
@@ -18933,7 +18943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="15.75">
+    <row r="144" spans="1:45" ht="15.75" hidden="1">
       <c r="A144" s="359" t="s">
         <v>234</v>
       </c>
@@ -19021,11 +19031,25 @@
   <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="22">
       <filters>
-        <filter val="陳爽"/>
+        <filter val="李昊泽"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -19038,20 +19062,6 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
   </mergeCells>
   <phoneticPr fontId="34"/>
   <dataValidations count="1">
@@ -19073,7 +19083,7 @@
           <x14:formula1>
             <xm:f>マスタ!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>P12 R28:U28 P29 T32:U32 P34 R38:T38 P39 T14:T23 P58 Q2:Q96 P86 R107:U107 P120 P125 P130 P135:P144 R80:U80 P17:P19 P24:P26 P49:P53 P63:P65 P68 P113:P115 P2 P7 Q113:Q134 R9:R11 S8:S11 T110:T114 U37:U38 U109:U114 P44 R96:S96 P91 R6:U6 R17:S23 R113:S114 P80:P81 R49:U52 T9:U11 U13:U23 U142:U144 P96:P108 T95:U96 P73:P75 R73:S74 T72:U74</xm:sqref>
+          <xm:sqref>P12 R28:U28 P29 T32:U32 P34 R38:T38 P39 P58 Q2:Q96 P86 R107:U107 P120 P125 P130 P135:P144 R80:U80 P17:P19 P24:P26 P49:P53 P63:P65 P68 P113:P115 P2 P7 Q113:Q134 R9:R11 S8:S11 T110:T114 U37:U38 U109:U114 P44 R96:S96 P91 R6:U6 R17:S23 R113:S114 P80:P81 R49:U52 T9:U11 T72:U74 U142:U144 P96:P108 T95:U96 P73:P75 R73:S74 T15:U23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -19100,11 +19110,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -19439,16 +19449,16 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="43.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -19623,7 +19633,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="11" t="s">
         <v>267</v>
       </c>
@@ -19646,7 +19656,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="1:9" ht="27">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>155</v>
@@ -19709,7 +19719,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="1:9" ht="54">
+    <row r="13" spans="1:9" ht="75">
       <c r="A13" s="11"/>
       <c r="B13" s="16" t="s">
         <v>166</v>
@@ -19730,7 +19740,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="28.5">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>170</v>
@@ -19858,7 +19868,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" ht="27">
+    <row r="20" spans="1:9" ht="45">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
         <v>185</v>
@@ -20120,7 +20130,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="26"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
         <v>212</v>
@@ -20143,7 +20153,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>216</v>
@@ -20166,7 +20176,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="26"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="11"/>
       <c r="B34" s="16" t="s">
         <v>219</v>
@@ -20235,16 +20245,16 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="34.375" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20294,7 +20304,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20328,18 +20338,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20475,13 +20485,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4F7A0-CC37-4D7A-ADB8-B244F999DD06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B539E-8D27-40C9-AC06-4308972E46FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SCRM対象一覧!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">効率化作業明細!$A$1:$AS$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">作業一覧!$B$1:$H$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">効率化作業明細!$A$1:$AS$144</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">効率化作業明細!$A$1:$AS$159</definedName>
     <definedName name="ステータス" localSheetId="0">マスタ!$A$2:$A$16</definedName>
     <definedName name="ステータス">[1]マスタ!$A$2:$A$16</definedName>
@@ -983,7 +983,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -994,7 +994,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1007,7 +1007,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1018,7 +1018,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1029,7 +1029,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1050,7 +1050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1062,7 +1062,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1105,7 +1105,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1116,7 +1116,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1129,7 +1129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1140,7 +1140,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1156,7 +1156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1167,7 +1167,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1180,7 +1180,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1191,7 +1191,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1204,7 +1204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1215,7 +1215,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1378,19 +1378,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="165" formatCode="000_ "/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="000_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="182" formatCode="0.000;[Red]0.000"/>
   </numFmts>
   <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1404,7 +1404,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1568,7 +1568,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1576,7 +1576,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1602,7 +1602,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1621,7 +1621,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2643,11 +2643,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2660,7 +2660,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2670,7 +2670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2680,7 +2680,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2690,15 +2690,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2708,7 +2708,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2718,7 +2718,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2728,7 +2728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2738,7 +2738,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2786,7 +2786,7 @@
     <xf numFmtId="49" fontId="10" fillId="10" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="11" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2810,7 +2810,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2818,15 +2818,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2836,7 +2836,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2844,15 +2844,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2862,7 +2862,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2870,15 +2870,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2888,7 +2888,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2896,15 +2896,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2915,7 +2915,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2923,15 +2923,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2939,7 +2939,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2947,15 +2947,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2971,7 +2971,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2979,15 +2979,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3000,7 +3000,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3008,15 +3008,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3047,7 +3047,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3280,13 +3280,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3295,13 +3295,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3316,7 +3316,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3344,38 +3344,38 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="16" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="13" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="20" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="40" fontId="1" fillId="17" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3417,7 +3417,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3431,7 +3431,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3439,11 +3439,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3463,7 +3463,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3476,22 +3476,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="9" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3499,22 +3499,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3533,7 +3533,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3541,7 +3541,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3590,7 +3590,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3605,13 +3605,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3629,13 +3629,13 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3647,18 +3647,18 @@
     <xf numFmtId="49" fontId="10" fillId="8" borderId="20" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="8" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16">
@@ -3685,7 +3685,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="25" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="25" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3710,14 +3710,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3725,11 +3725,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3739,7 +3739,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3775,11 +3775,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3807,14 +3807,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3824,7 +3824,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3837,66 +3837,66 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3906,15 +3906,45 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3933,15 +3963,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3964,27 +3985,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3993,7 +3993,6 @@
     <cellStyle name="60% - アクセント 4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="60% - アクセント 4 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="60% - アクセント 4 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="パーセント 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="パーセント 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
@@ -4001,6 +4000,7 @@
     <cellStyle name="桁区切り 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="桁区切り 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="桁区切り 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="標準 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -4348,14 +4348,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21" style="343" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="343"/>
-    <col min="4" max="4" width="17.140625" style="343" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="343"/>
-    <col min="6" max="6" width="17.85546875" style="343" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="343"/>
+    <col min="2" max="3" width="8.75" style="343"/>
+    <col min="4" max="4" width="17.125" style="343" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="343"/>
+    <col min="6" max="6" width="17.875" style="343" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="343"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4536,14 +4536,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="338" t="s">
         <v>29</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="65" t="s">
         <v>34</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="65" t="s">
         <v>35</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="65" t="s">
         <v>36</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="65" t="s">
         <v>37</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="341" t="s">
         <v>38</v>
       </c>
@@ -4645,53 +4645,53 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="33" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="33" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="33" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="33" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="46.28515625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="14.28515625" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="24.140625" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="22.140625" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="21.85546875" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="11.375" style="33" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="33" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="46.25" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="14.25" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="24.125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="22.125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="21.875" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="17" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="14.42578125" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="32.7109375" style="33" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="33" customWidth="1"/>
-    <col min="24" max="24" width="32.42578125" style="33" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" style="34" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" style="33" customWidth="1"/>
+    <col min="18" max="21" width="14.375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="32.75" style="33" customWidth="1"/>
+    <col min="23" max="23" width="12.875" style="33" customWidth="1"/>
+    <col min="24" max="24" width="32.375" style="33" customWidth="1"/>
+    <col min="25" max="25" width="20.375" style="34" customWidth="1"/>
+    <col min="26" max="26" width="26.25" style="33" customWidth="1"/>
     <col min="27" max="27" width="14" style="33" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="33" customWidth="1"/>
-    <col min="29" max="30" width="15.42578125" style="33" customWidth="1"/>
-    <col min="31" max="31" width="17.28515625" style="33" customWidth="1"/>
-    <col min="32" max="33" width="15.42578125" style="33" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" style="33" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="33" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" style="33" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" style="33" customWidth="1"/>
-    <col min="38" max="38" width="12.42578125" style="33" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="33" customWidth="1"/>
-    <col min="40" max="40" width="12.42578125" style="33" customWidth="1"/>
+    <col min="28" max="28" width="10.875" style="33" customWidth="1"/>
+    <col min="29" max="30" width="15.375" style="33" customWidth="1"/>
+    <col min="31" max="31" width="17.25" style="33" customWidth="1"/>
+    <col min="32" max="33" width="15.375" style="33" customWidth="1"/>
+    <col min="34" max="34" width="17.25" style="33" customWidth="1"/>
+    <col min="35" max="35" width="15.375" style="33" customWidth="1"/>
+    <col min="36" max="36" width="14.375" style="33" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="14.375" style="33" customWidth="1"/>
+    <col min="38" max="38" width="12.375" style="33" customWidth="1"/>
+    <col min="39" max="39" width="14.375" style="33" customWidth="1"/>
+    <col min="40" max="40" width="12.375" style="33" customWidth="1"/>
     <col min="41" max="41" width="14" style="33" customWidth="1"/>
     <col min="42" max="43" width="14" style="33" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="10.42578125" style="33" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="14.42578125" style="33" customWidth="1"/>
-    <col min="46" max="16384" width="9.28515625" style="33"/>
+    <col min="44" max="44" width="10.375" style="33" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="14.375" style="33" customWidth="1"/>
+    <col min="46" max="16384" width="9.25" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="30" customFormat="1" ht="28.5">
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25">
+    <row r="2" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
       <c r="A2" s="37" t="s">
         <v>81</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="O2" s="382" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="420" t="s">
+      <c r="P2" s="432" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="160" t="s">
@@ -4946,7 +4946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25">
+    <row r="3" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
       <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25">
+    <row r="4" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
       <c r="A4" s="45" t="s">
         <v>81</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25">
+    <row r="5" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
       <c r="A5" s="45" t="s">
         <v>81</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25">
+    <row r="6" spans="1:45" s="31" customFormat="1" ht="71.25" hidden="1">
       <c r="A6" s="45" t="s">
         <v>81</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="31" customFormat="1" ht="33">
+    <row r="7" spans="1:45" s="31" customFormat="1" ht="33" hidden="1">
       <c r="A7" s="42" t="s">
         <v>92</v>
       </c>
@@ -5388,7 +5388,7 @@
       <c r="O7" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="432" t="s">
+      <c r="P7" s="439" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="160" t="s">
@@ -5444,7 +5444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="8" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A8" s="45" t="s">
         <v>92</v>
       </c>
@@ -5484,7 +5484,7 @@
       <c r="O8" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="433"/>
+      <c r="P8" s="440"/>
       <c r="Q8" s="165" t="s">
         <v>100</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="9" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A9" s="45" t="s">
         <v>92</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="O9" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="433"/>
+      <c r="P9" s="440"/>
       <c r="Q9" s="165" t="s">
         <v>102</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="10" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A10" s="45" t="s">
         <v>92</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="O10" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="433"/>
+      <c r="P10" s="440"/>
       <c r="Q10" s="165" t="s">
         <v>13</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="32" customFormat="1" ht="33">
+    <row r="11" spans="1:45" s="32" customFormat="1" ht="33" hidden="1">
       <c r="A11" s="48" t="s">
         <v>92</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="O11" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="434"/>
+      <c r="P11" s="441"/>
       <c r="Q11" s="173" t="s">
         <v>16</v>
       </c>
@@ -5860,7 +5860,7 @@
       <c r="O12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="429" t="s">
+      <c r="P12" s="423" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="160" t="s">
@@ -5955,7 +5955,7 @@
       <c r="O13" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="430"/>
+      <c r="P13" s="424"/>
       <c r="Q13" s="165" t="s">
         <v>100</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="O14" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="430"/>
+      <c r="P14" s="424"/>
       <c r="Q14" s="165" t="s">
         <v>102</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="O15" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P15" s="430"/>
+      <c r="P15" s="424"/>
       <c r="Q15" s="165" t="s">
         <v>13</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="O16" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="431"/>
+      <c r="P16" s="425"/>
       <c r="Q16" s="178" t="s">
         <v>16</v>
       </c>
@@ -6459,7 +6459,7 @@
       <c r="O19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="435" t="s">
+      <c r="P19" s="442" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="185" t="s">
@@ -6551,7 +6551,7 @@
       <c r="O20" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="436"/>
+      <c r="P20" s="443"/>
       <c r="Q20" s="165" t="s">
         <v>100</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="O21" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="436"/>
+      <c r="P21" s="443"/>
       <c r="Q21" s="165" t="s">
         <v>102</v>
       </c>
@@ -6731,7 +6731,7 @@
       <c r="O22" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="P22" s="436"/>
+      <c r="P22" s="443"/>
       <c r="Q22" s="165" t="s">
         <v>13</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="O23" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="P23" s="437"/>
+      <c r="P23" s="444"/>
       <c r="Q23" s="178" t="s">
         <v>16</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:45" s="31" customFormat="1" ht="175.5" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>122</v>
       </c>
@@ -6916,7 +6916,7 @@
       <c r="O24" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="438" t="s">
+      <c r="P24" s="445" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="160" t="s">
@@ -6990,7 +6990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A25" s="45" t="s">
         <v>122</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="O25" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="427"/>
+      <c r="P25" s="437"/>
       <c r="Q25" s="165" t="s">
         <v>100</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="26" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A26" s="45" t="s">
         <v>122</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="O26" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="427"/>
+      <c r="P26" s="437"/>
       <c r="Q26" s="165" t="s">
         <v>102</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="27" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A27" s="45" t="s">
         <v>122</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="O27" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="427"/>
+      <c r="P27" s="437"/>
       <c r="Q27" s="165" t="s">
         <v>13</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="28" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A28" s="62" t="s">
         <v>122</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="O28" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P28" s="439"/>
+      <c r="P28" s="446"/>
       <c r="Q28" s="178" t="s">
         <v>16</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="29" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A29" s="42" t="s">
         <v>129</v>
       </c>
@@ -7463,7 +7463,7 @@
       <c r="O29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="438" t="s">
+      <c r="P29" s="445" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="160" t="s">
@@ -7531,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="30" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A30" s="45" t="s">
         <v>129</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="O30" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="427"/>
+      <c r="P30" s="437"/>
       <c r="Q30" s="165" t="s">
         <v>100</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="31" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A31" s="45" t="s">
         <v>129</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="O31" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="427"/>
+      <c r="P31" s="437"/>
       <c r="Q31" s="165" t="s">
         <v>102</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="32" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A32" s="45" t="s">
         <v>129</v>
       </c>
@@ -7778,7 +7778,7 @@
       <c r="O32" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P32" s="427"/>
+      <c r="P32" s="437"/>
       <c r="Q32" s="165" t="s">
         <v>13</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75" hidden="1">
+    <row r="33" spans="1:45" s="32" customFormat="1" ht="15.75">
       <c r="A33" s="62" t="s">
         <v>129</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="O33" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P33" s="439"/>
+      <c r="P33" s="446"/>
       <c r="Q33" s="178" t="s">
         <v>16</v>
       </c>
@@ -7984,8 +7984,8 @@
       <c r="O34" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="426" t="s">
-        <v>25</v>
+      <c r="P34" s="436" t="s">
+        <v>28</v>
       </c>
       <c r="Q34" s="160" t="s">
         <v>5</v>
@@ -8093,7 +8093,7 @@
       <c r="O35" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="427"/>
+      <c r="P35" s="437"/>
       <c r="Q35" s="165" t="s">
         <v>100</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="32" customFormat="1" ht="126.75" hidden="1">
+    <row r="36" spans="1:45" s="32" customFormat="1" ht="100.5" hidden="1">
       <c r="A36" s="45" t="s">
         <v>132</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="O36" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P36" s="427"/>
+      <c r="P36" s="437"/>
       <c r="Q36" s="165" t="s">
         <v>102</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="O37" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P37" s="427"/>
+      <c r="P37" s="437"/>
       <c r="Q37" s="165" t="s">
         <v>13</v>
       </c>
@@ -8320,7 +8320,9 @@
       <c r="T37" s="166">
         <v>43907</v>
       </c>
-      <c r="U37" s="172"/>
+      <c r="U37" s="166">
+        <v>43907</v>
+      </c>
       <c r="V37" s="199">
         <v>1</v>
       </c>
@@ -8412,7 +8414,7 @@
       <c r="O38" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="428"/>
+      <c r="P38" s="438"/>
       <c r="Q38" s="173" t="s">
         <v>16</v>
       </c>
@@ -8420,9 +8422,7 @@
       <c r="S38" s="190"/>
       <c r="T38" s="190"/>
       <c r="U38" s="191"/>
-      <c r="V38" s="254">
-        <v>0.9</v>
-      </c>
+      <c r="V38" s="254"/>
       <c r="W38" s="146" t="s">
         <v>121</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="O39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P39" s="423" t="s">
+      <c r="P39" s="433" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="160" t="s">
@@ -8619,7 +8619,7 @@
       <c r="O40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P40" s="424"/>
+      <c r="P40" s="434"/>
       <c r="Q40" s="165" t="s">
         <v>100</v>
       </c>
@@ -8722,7 +8722,7 @@
       <c r="O41" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="424"/>
+      <c r="P41" s="434"/>
       <c r="Q41" s="165" t="s">
         <v>102</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="O42" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P42" s="424"/>
+      <c r="P42" s="434"/>
       <c r="Q42" s="165" t="s">
         <v>13</v>
       </c>
@@ -8928,7 +8928,7 @@
       <c r="O43" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P43" s="425"/>
+      <c r="P43" s="435"/>
       <c r="Q43" s="178" t="s">
         <v>16</v>
       </c>
@@ -9029,7 +9029,7 @@
       <c r="O44" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="P44" s="440" t="s">
+      <c r="P44" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q44" s="160" t="s">
@@ -9138,7 +9138,7 @@
       <c r="O45" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="441"/>
+      <c r="P45" s="430"/>
       <c r="Q45" s="165" t="s">
         <v>100</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:45" s="31" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="45" t="s">
         <v>140</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="O46" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P46" s="441"/>
+      <c r="P46" s="430"/>
       <c r="Q46" s="165" t="s">
         <v>102</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="O47" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="P47" s="441"/>
+      <c r="P47" s="430"/>
       <c r="Q47" s="165" t="s">
         <v>13</v>
       </c>
@@ -9449,7 +9449,7 @@
       <c r="O48" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P48" s="442"/>
+      <c r="P48" s="431"/>
       <c r="Q48" s="178" t="s">
         <v>16</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
+    <row r="50" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A50" s="51" t="s">
         <v>147</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
+    <row r="52" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A52" s="51" t="s">
         <v>154</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="53" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A53" s="51" t="s">
         <v>158</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="O53" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P53" s="429" t="s">
+      <c r="P53" s="423" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="160" t="s">
@@ -9963,7 +9963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="54" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A54" s="45" t="s">
         <v>158</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="O54" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P54" s="430"/>
+      <c r="P54" s="424"/>
       <c r="Q54" s="165" t="s">
         <v>100</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
+    <row r="55" spans="1:45" s="31" customFormat="1" ht="15.75">
       <c r="A55" s="45" t="s">
         <v>158</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="O55" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P55" s="430"/>
+      <c r="P55" s="424"/>
       <c r="Q55" s="165" t="s">
         <v>102</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="45" t="s">
         <v>158</v>
       </c>
@@ -10214,7 +10214,7 @@
       <c r="O56" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P56" s="430"/>
+      <c r="P56" s="424"/>
       <c r="Q56" s="165" t="s">
         <v>13</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="57" spans="1:45" s="32" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>158</v>
       </c>
@@ -10317,7 +10317,7 @@
       <c r="O57" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="P57" s="431"/>
+      <c r="P57" s="425"/>
       <c r="Q57" s="178" t="s">
         <v>16</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O58" s="73"/>
-      <c r="P58" s="429" t="s">
+      <c r="P58" s="423" t="s">
         <v>28</v>
       </c>
       <c r="Q58" s="160" t="s">
@@ -10523,7 +10523,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O59" s="105"/>
-      <c r="P59" s="430"/>
+      <c r="P59" s="424"/>
       <c r="Q59" s="165" t="s">
         <v>100</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O60" s="105"/>
-      <c r="P60" s="430"/>
+      <c r="P60" s="424"/>
       <c r="Q60" s="165" t="s">
         <v>102</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O61" s="105"/>
-      <c r="P61" s="430"/>
+      <c r="P61" s="424"/>
       <c r="Q61" s="165" t="s">
         <v>13</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>7.1874999999999994E-3</v>
       </c>
       <c r="O62" s="105"/>
-      <c r="P62" s="431"/>
+      <c r="P62" s="425"/>
       <c r="Q62" s="165" t="s">
         <v>16</v>
       </c>
@@ -10925,7 +10925,7 @@
       <c r="O63" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P63" s="423" t="s">
+      <c r="P63" s="433" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="160" t="s">
@@ -11036,7 +11036,7 @@
       <c r="O64" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P64" s="424"/>
+      <c r="P64" s="434"/>
       <c r="Q64" s="165" t="s">
         <v>100</v>
       </c>
@@ -11143,7 +11143,7 @@
       <c r="O65" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P65" s="424"/>
+      <c r="P65" s="434"/>
       <c r="Q65" s="165" t="s">
         <v>102</v>
       </c>
@@ -11250,7 +11250,7 @@
       <c r="O66" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="P66" s="424"/>
+      <c r="P66" s="434"/>
       <c r="Q66" s="165" t="s">
         <v>13</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="O67" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="P67" s="425"/>
+      <c r="P67" s="435"/>
       <c r="Q67" s="178" t="s">
         <v>16</v>
       </c>
@@ -11460,7 +11460,7 @@
       <c r="O68" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P68" s="440" t="s">
+      <c r="P68" s="429" t="s">
         <v>4</v>
       </c>
       <c r="Q68" s="160" t="s">
@@ -11552,7 +11552,7 @@
       <c r="O69" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P69" s="441"/>
+      <c r="P69" s="430"/>
       <c r="Q69" s="165" t="s">
         <v>100</v>
       </c>
@@ -11642,7 +11642,7 @@
       <c r="O70" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="441"/>
+      <c r="P70" s="430"/>
       <c r="Q70" s="165" t="s">
         <v>102</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="O71" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P71" s="441"/>
+      <c r="P71" s="430"/>
       <c r="Q71" s="165" t="s">
         <v>13</v>
       </c>
@@ -11822,7 +11822,7 @@
       <c r="O72" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P72" s="442"/>
+      <c r="P72" s="431"/>
       <c r="Q72" s="178" t="s">
         <v>16</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="31" customFormat="1" ht="28.5" hidden="1">
+    <row r="74" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A74" s="51" t="s">
         <v>177</v>
       </c>
@@ -12089,7 +12089,7 @@
       <c r="O75" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P75" s="429" t="s">
+      <c r="P75" s="423" t="s">
         <v>14</v>
       </c>
       <c r="Q75" s="160" t="s">
@@ -12198,7 +12198,7 @@
       <c r="O76" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P76" s="430"/>
+      <c r="P76" s="424"/>
       <c r="Q76" s="165" t="s">
         <v>100</v>
       </c>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="U76" s="370"/>
       <c r="V76" s="373">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="W76" s="177" t="s">
         <v>306</v>
@@ -12303,7 +12303,7 @@
       <c r="O77" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P77" s="430"/>
+      <c r="P77" s="424"/>
       <c r="Q77" s="165" t="s">
         <v>102</v>
       </c>
@@ -12404,7 +12404,7 @@
       <c r="O78" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P78" s="430"/>
+      <c r="P78" s="424"/>
       <c r="Q78" s="165" t="s">
         <v>13</v>
       </c>
@@ -12505,7 +12505,7 @@
       <c r="O79" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P79" s="431"/>
+      <c r="P79" s="425"/>
       <c r="Q79" s="178" t="s">
         <v>16</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="81" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A81" s="51" t="s">
         <v>187</v>
       </c>
@@ -12695,7 +12695,7 @@
       <c r="O81" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P81" s="429" t="s">
+      <c r="P81" s="423" t="s">
         <v>28</v>
       </c>
       <c r="Q81" s="160" t="s">
@@ -12763,7 +12763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="82" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A82" s="270" t="s">
         <v>187</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="O82" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P82" s="430"/>
+      <c r="P82" s="424"/>
       <c r="Q82" s="165" t="s">
         <v>100</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="83" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A83" s="270" t="s">
         <v>187</v>
       </c>
@@ -12907,7 +12907,7 @@
       <c r="O83" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P83" s="430"/>
+      <c r="P83" s="424"/>
       <c r="Q83" s="165" t="s">
         <v>102</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="84" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A84" s="270" t="s">
         <v>187</v>
       </c>
@@ -13010,7 +13010,7 @@
       <c r="O84" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P84" s="430"/>
+      <c r="P84" s="424"/>
       <c r="Q84" s="165" t="s">
         <v>13</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5" hidden="1">
+    <row r="85" spans="1:45" s="31" customFormat="1" ht="16.5">
       <c r="A85" s="270" t="s">
         <v>187</v>
       </c>
@@ -13113,7 +13113,7 @@
       <c r="O85" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P85" s="431"/>
+      <c r="P85" s="425"/>
       <c r="Q85" s="178" t="s">
         <v>16</v>
       </c>
@@ -13216,7 +13216,7 @@
       <c r="O86" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P86" s="440" t="s">
+      <c r="P86" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q86" s="160" t="s">
@@ -13325,7 +13325,7 @@
       <c r="O87" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P87" s="441"/>
+      <c r="P87" s="430"/>
       <c r="Q87" s="165" t="s">
         <v>100</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O88" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P88" s="441"/>
+      <c r="P88" s="430"/>
       <c r="Q88" s="165" t="s">
         <v>102</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="O89" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P89" s="441"/>
+      <c r="P89" s="430"/>
       <c r="Q89" s="165" t="s">
         <v>13</v>
       </c>
@@ -13646,7 +13646,7 @@
       <c r="O90" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P90" s="442"/>
+      <c r="P90" s="431"/>
       <c r="Q90" s="178" t="s">
         <v>16</v>
       </c>
@@ -13753,7 +13753,7 @@
       <c r="O91" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P91" s="440" t="s">
+      <c r="P91" s="429" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="160" t="s">
@@ -13845,7 +13845,7 @@
       <c r="O92" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="441"/>
+      <c r="P92" s="430"/>
       <c r="Q92" s="165" t="s">
         <v>100</v>
       </c>
@@ -13935,7 +13935,7 @@
       <c r="O93" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P93" s="441"/>
+      <c r="P93" s="430"/>
       <c r="Q93" s="165" t="s">
         <v>102</v>
       </c>
@@ -14025,7 +14025,7 @@
       <c r="O94" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P94" s="441"/>
+      <c r="P94" s="430"/>
       <c r="Q94" s="165" t="s">
         <v>13</v>
       </c>
@@ -14115,7 +14115,7 @@
       <c r="O95" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P95" s="442"/>
+      <c r="P95" s="431"/>
       <c r="Q95" s="178" t="s">
         <v>16</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="97" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A97" s="51" t="s">
         <v>201</v>
       </c>
@@ -14290,7 +14290,7 @@
       <c r="O97" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P97" s="443" t="s">
+      <c r="P97" s="420" t="s">
         <v>28</v>
       </c>
       <c r="Q97" s="160" t="s">
@@ -14355,7 +14355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="98" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A98" s="277" t="s">
         <v>201</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="99" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A99" s="277" t="s">
         <v>201</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="100" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A100" s="277" t="s">
         <v>201</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="101" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A101" s="277" t="s">
         <v>201</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="102" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A102" s="51" t="s">
         <v>204</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="103" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A103" s="277" t="s">
         <v>204</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="104" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A104" s="277" t="s">
         <v>204</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="105" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A105" s="277" t="s">
         <v>204</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75">
+    <row r="106" spans="1:45" s="31" customFormat="1" ht="15.75" hidden="1">
       <c r="A106" s="277" t="s">
         <v>204</v>
       </c>
@@ -15367,7 +15367,7 @@
       <c r="O108" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="P108" s="429" t="s">
+      <c r="P108" s="423" t="s">
         <v>19</v>
       </c>
       <c r="Q108" s="160" t="s">
@@ -15435,7 +15435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="31" customFormat="1" ht="96.75" hidden="1">
+    <row r="109" spans="1:45" s="31" customFormat="1" ht="80.25" hidden="1">
       <c r="A109" s="277" t="s">
         <v>207</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="O109" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="430"/>
+      <c r="P109" s="424"/>
       <c r="Q109" s="165" t="s">
         <v>100</v>
       </c>
@@ -15581,7 +15581,7 @@
       <c r="O110" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P110" s="430"/>
+      <c r="P110" s="424"/>
       <c r="Q110" s="165" t="s">
         <v>102</v>
       </c>
@@ -15684,7 +15684,7 @@
       <c r="O111" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P111" s="430"/>
+      <c r="P111" s="424"/>
       <c r="Q111" s="165" t="s">
         <v>13</v>
       </c>
@@ -15787,7 +15787,7 @@
       <c r="O112" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="P112" s="431"/>
+      <c r="P112" s="425"/>
       <c r="Q112" s="165" t="s">
         <v>16</v>
       </c>
@@ -16074,7 +16074,7 @@
       <c r="O115" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="P115" s="444" t="s">
+      <c r="P115" s="426" t="s">
         <v>28</v>
       </c>
       <c r="Q115" s="160" t="s">
@@ -16182,7 +16182,7 @@
       <c r="O116" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P116" s="445"/>
+      <c r="P116" s="427"/>
       <c r="Q116" s="165" t="s">
         <v>100</v>
       </c>
@@ -16284,7 +16284,7 @@
       <c r="O117" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P117" s="445"/>
+      <c r="P117" s="427"/>
       <c r="Q117" s="165" t="s">
         <v>102</v>
       </c>
@@ -16386,7 +16386,7 @@
       <c r="O118" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="P118" s="445"/>
+      <c r="P118" s="427"/>
       <c r="Q118" s="165" t="s">
         <v>13</v>
       </c>
@@ -16486,7 +16486,7 @@
       <c r="O119" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="P119" s="446"/>
+      <c r="P119" s="428"/>
       <c r="Q119" s="173" t="s">
         <v>16</v>
       </c>
@@ -16584,7 +16584,7 @@
       <c r="O120" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="P120" s="440" t="s">
+      <c r="P120" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q120" s="160" t="s">
@@ -16687,7 +16687,7 @@
       <c r="O121" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P121" s="441"/>
+      <c r="P121" s="430"/>
       <c r="Q121" s="165" t="s">
         <v>100</v>
       </c>
@@ -16788,7 +16788,7 @@
       <c r="O122" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P122" s="441"/>
+      <c r="P122" s="430"/>
       <c r="Q122" s="165" t="s">
         <v>102</v>
       </c>
@@ -16889,7 +16889,7 @@
       <c r="O123" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P123" s="441"/>
+      <c r="P123" s="430"/>
       <c r="Q123" s="165" t="s">
         <v>13</v>
       </c>
@@ -16990,7 +16990,7 @@
       <c r="O124" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P124" s="442"/>
+      <c r="P124" s="431"/>
       <c r="Q124" s="178" t="s">
         <v>16</v>
       </c>
@@ -17091,7 +17091,7 @@
       <c r="O125" s="397" t="s">
         <v>224</v>
       </c>
-      <c r="P125" s="440" t="s">
+      <c r="P125" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q125" s="160" t="s">
@@ -17194,7 +17194,7 @@
       <c r="O126" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P126" s="441"/>
+      <c r="P126" s="430"/>
       <c r="Q126" s="165" t="s">
         <v>100</v>
       </c>
@@ -17295,7 +17295,7 @@
       <c r="O127" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P127" s="441"/>
+      <c r="P127" s="430"/>
       <c r="Q127" s="165" t="s">
         <v>102</v>
       </c>
@@ -17396,7 +17396,7 @@
       <c r="O128" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="P128" s="441"/>
+      <c r="P128" s="430"/>
       <c r="Q128" s="165" t="s">
         <v>13</v>
       </c>
@@ -17497,7 +17497,7 @@
       <c r="O129" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="P129" s="442"/>
+      <c r="P129" s="431"/>
       <c r="Q129" s="178" t="s">
         <v>16</v>
       </c>
@@ -17598,7 +17598,7 @@
       <c r="O130" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="P130" s="440" t="s">
+      <c r="P130" s="429" t="s">
         <v>28</v>
       </c>
       <c r="Q130" s="160" t="s">
@@ -17701,7 +17701,7 @@
       <c r="O131" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P131" s="441"/>
+      <c r="P131" s="430"/>
       <c r="Q131" s="165" t="s">
         <v>100</v>
       </c>
@@ -17802,7 +17802,7 @@
       <c r="O132" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P132" s="441"/>
+      <c r="P132" s="430"/>
       <c r="Q132" s="165" t="s">
         <v>102</v>
       </c>
@@ -17903,7 +17903,7 @@
       <c r="O133" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P133" s="441"/>
+      <c r="P133" s="430"/>
       <c r="Q133" s="165" t="s">
         <v>13</v>
       </c>
@@ -18004,7 +18004,7 @@
       <c r="O134" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="P134" s="442"/>
+      <c r="P134" s="431"/>
       <c r="Q134" s="178" t="s">
         <v>16</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="16.5" hidden="1">
+    <row r="135" spans="1:45" ht="16.5">
       <c r="A135" s="51" t="s">
         <v>230</v>
       </c>
@@ -18106,7 +18106,7 @@
       <c r="O135" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="P135" s="443" t="s">
+      <c r="P135" s="420" t="s">
         <v>28</v>
       </c>
       <c r="Q135" s="160" t="s">
@@ -18173,7 +18173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="16.5" hidden="1">
+    <row r="136" spans="1:45" ht="16.5">
       <c r="A136" s="287" t="s">
         <v>230</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="16.5" hidden="1">
+    <row r="137" spans="1:45" ht="16.5">
       <c r="A137" s="287" t="s">
         <v>230</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="16.5" hidden="1">
+    <row r="138" spans="1:45" ht="16.5">
       <c r="A138" s="287" t="s">
         <v>230</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="16.5" hidden="1">
+    <row r="139" spans="1:45" ht="16.5">
       <c r="A139" s="287" t="s">
         <v>230</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="15.75" hidden="1">
+    <row r="140" spans="1:45" ht="15.75">
       <c r="A140" s="51" t="s">
         <v>234</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>1.4374999999999999E-2</v>
       </c>
       <c r="O140" s="73"/>
-      <c r="P140" s="443" t="s">
+      <c r="P140" s="420" t="s">
         <v>14</v>
       </c>
       <c r="Q140" s="160" t="s">
@@ -18679,7 +18679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="15.75" hidden="1">
+    <row r="141" spans="1:45" ht="15.75">
       <c r="A141" s="359" t="s">
         <v>234</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="15.75" hidden="1">
+    <row r="142" spans="1:45" ht="15.75">
       <c r="A142" s="359" t="s">
         <v>234</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="15.75" hidden="1">
+    <row r="143" spans="1:45" ht="15.75">
       <c r="A143" s="359" t="s">
         <v>234</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="15.75" hidden="1">
+    <row r="144" spans="1:45" ht="15.75">
       <c r="A144" s="359" t="s">
         <v>234</v>
       </c>
@@ -19031,25 +19031,11 @@
   <autoFilter ref="A1:AS144" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="22">
       <filters>
-        <filter val="李昊泽"/>
+        <filter val="陳爽"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="P140:P144"/>
-    <mergeCell ref="P135:P139"/>
-    <mergeCell ref="P108:P112"/>
-    <mergeCell ref="P115:P119"/>
-    <mergeCell ref="P120:P124"/>
-    <mergeCell ref="P125:P129"/>
-    <mergeCell ref="P130:P134"/>
-    <mergeCell ref="P81:P85"/>
-    <mergeCell ref="P86:P90"/>
-    <mergeCell ref="P97:P101"/>
-    <mergeCell ref="P102:P106"/>
-    <mergeCell ref="P68:P72"/>
-    <mergeCell ref="P91:P95"/>
-    <mergeCell ref="P75:P79"/>
     <mergeCell ref="P2:P6"/>
     <mergeCell ref="P63:P67"/>
     <mergeCell ref="P34:P38"/>
@@ -19062,6 +19048,20 @@
     <mergeCell ref="P24:P28"/>
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="P44:P48"/>
+    <mergeCell ref="P81:P85"/>
+    <mergeCell ref="P86:P90"/>
+    <mergeCell ref="P97:P101"/>
+    <mergeCell ref="P102:P106"/>
+    <mergeCell ref="P68:P72"/>
+    <mergeCell ref="P91:P95"/>
+    <mergeCell ref="P75:P79"/>
+    <mergeCell ref="P140:P144"/>
+    <mergeCell ref="P135:P139"/>
+    <mergeCell ref="P108:P112"/>
+    <mergeCell ref="P115:P119"/>
+    <mergeCell ref="P120:P124"/>
+    <mergeCell ref="P125:P129"/>
+    <mergeCell ref="P130:P134"/>
   </mergeCells>
   <phoneticPr fontId="34"/>
   <dataValidations count="1">
@@ -19083,7 +19083,7 @@
           <x14:formula1>
             <xm:f>マスタ!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>P12 R28:U28 P29 T32:U32 P34 R38:T38 P39 P58 Q2:Q96 P86 R107:U107 P120 P125 P130 P135:P144 R80:U80 P17:P19 P24:P26 P49:P53 P63:P65 P68 P113:P115 P2 P7 Q113:Q134 R9:R11 S8:S11 T110:T114 U37:U38 U109:U114 P44 R96:S96 P91 R6:U6 R17:S23 R113:S114 P80:P81 R49:U52 T9:U11 T72:U74 U142:U144 P96:P108 T95:U96 P73:P75 R73:S74 T15:U23</xm:sqref>
+          <xm:sqref>P12 R28:U28 P29 T32:U32 P34 P39 P58 Q2:Q96 P86 R107:U107 P120 P125 P130 P135:P144 R80:U80 P17:P19 P24:P26 P49:P53 P63:P65 P68 P113:P115 P2 P7 Q113:Q134 R9:R11 S8:S11 T110:T114 T15:U23 U109:U114 P44 R96:S96 P91 R6:U6 R17:S23 R113:S114 P80:P81 R49:U52 T9:U11 T72:U74 U142:U144 P96:P108 T95:U96 P73:P75 R73:S74 R38:U38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -19110,11 +19110,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -19449,16 +19449,16 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -19633,7 +19633,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>267</v>
       </c>
@@ -19656,7 +19656,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="27">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>155</v>
@@ -19719,7 +19719,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:9" ht="54">
       <c r="A13" s="11"/>
       <c r="B13" s="16" t="s">
         <v>166</v>
@@ -19740,7 +19740,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>170</v>
@@ -19868,7 +19868,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="26"/>
     </row>
-    <row r="20" spans="1:9" ht="45">
+    <row r="20" spans="1:9" ht="27">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
         <v>185</v>
@@ -20130,7 +20130,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="26"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
         <v>212</v>
@@ -20153,7 +20153,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="14.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>216</v>
@@ -20176,7 +20176,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="26"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="14.25">
       <c r="A34" s="11"/>
       <c r="B34" s="16" t="s">
         <v>219</v>
@@ -20245,16 +20245,16 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20304,7 +20304,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20338,18 +20338,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20485,13 +20485,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB867AD-8C25-43D9-9559-C3A85C57F8F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7053C1E-154E-491E-B1E8-918C2CDC6A7D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/TAKEDA_WorkItemList-WBS.xlsx
+++ b/TAKEDA_WorkItemList-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kai.a.xu\Desktop\takeda-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qi.c.yuan\solution_yuanqi\takeda\wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B539E-8D27-40C9-AC06-4308972E46FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA63530-48B7-4E73-B0A0-38153993F8A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3906,24 +3906,78 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignmen